--- a/Norway Eliteserien/Norway Eliteserien.xlsx
+++ b/Norway Eliteserien/Norway Eliteserien.xlsx
@@ -33199,7 +33199,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>4568013</v>
+        <v>4568125</v>
       </c>
       <c r="C368" t="s">
         <v>28</v>
@@ -33211,76 +33211,76 @@
         <v>44773.4375</v>
       </c>
       <c r="F368" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G368" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H368">
+        <v>3</v>
+      </c>
+      <c r="I368">
         <v>0</v>
       </c>
-      <c r="I368">
+      <c r="J368" t="s">
+        <v>48</v>
+      </c>
+      <c r="K368">
+        <v>1.444</v>
+      </c>
+      <c r="L368">
+        <v>4.5</v>
+      </c>
+      <c r="M368">
+        <v>6.5</v>
+      </c>
+      <c r="N368">
+        <v>1.444</v>
+      </c>
+      <c r="O368">
+        <v>5.25</v>
+      </c>
+      <c r="P368">
+        <v>6.5</v>
+      </c>
+      <c r="Q368">
+        <v>-1.25</v>
+      </c>
+      <c r="R368">
+        <v>1.875</v>
+      </c>
+      <c r="S368">
+        <v>1.975</v>
+      </c>
+      <c r="T368">
+        <v>3.5</v>
+      </c>
+      <c r="U368">
         <v>2</v>
       </c>
-      <c r="J368" t="s">
-        <v>50</v>
-      </c>
-      <c r="K368">
-        <v>2.4</v>
-      </c>
-      <c r="L368">
-        <v>3.25</v>
-      </c>
-      <c r="M368">
-        <v>2.8</v>
-      </c>
-      <c r="N368">
-        <v>2.3</v>
-      </c>
-      <c r="O368">
-        <v>3.75</v>
-      </c>
-      <c r="P368">
-        <v>2.75</v>
-      </c>
-      <c r="Q368">
-        <v>-0.25</v>
-      </c>
-      <c r="R368">
-        <v>2</v>
-      </c>
-      <c r="S368">
+      <c r="V368">
         <v>1.85</v>
       </c>
-      <c r="T368">
-        <v>3</v>
-      </c>
-      <c r="U368">
-        <v>1.975</v>
-      </c>
-      <c r="V368">
-        <v>1.875</v>
-      </c>
       <c r="W368">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X368">
         <v>-1</v>
       </c>
       <c r="Y368">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z368">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA368">
+        <v>-1</v>
+      </c>
+      <c r="AB368">
+        <v>-1</v>
+      </c>
+      <c r="AC368">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB368">
-        <v>-1</v>
-      </c>
-      <c r="AC368">
-        <v>0.875</v>
       </c>
     </row>
     <row r="369" spans="1:29">
@@ -33288,7 +33288,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>4568125</v>
+        <v>4568013</v>
       </c>
       <c r="C369" t="s">
         <v>28</v>
@@ -33300,76 +33300,76 @@
         <v>44773.4375</v>
       </c>
       <c r="F369" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G369" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H369">
+        <v>0</v>
+      </c>
+      <c r="I369">
+        <v>2</v>
+      </c>
+      <c r="J369" t="s">
+        <v>50</v>
+      </c>
+      <c r="K369">
+        <v>2.4</v>
+      </c>
+      <c r="L369">
+        <v>3.25</v>
+      </c>
+      <c r="M369">
+        <v>2.8</v>
+      </c>
+      <c r="N369">
+        <v>2.3</v>
+      </c>
+      <c r="O369">
+        <v>3.75</v>
+      </c>
+      <c r="P369">
+        <v>2.75</v>
+      </c>
+      <c r="Q369">
+        <v>-0.25</v>
+      </c>
+      <c r="R369">
+        <v>2</v>
+      </c>
+      <c r="S369">
+        <v>1.85</v>
+      </c>
+      <c r="T369">
         <v>3</v>
       </c>
-      <c r="I369">
-        <v>0</v>
-      </c>
-      <c r="J369" t="s">
-        <v>48</v>
-      </c>
-      <c r="K369">
-        <v>1.444</v>
-      </c>
-      <c r="L369">
-        <v>4.5</v>
-      </c>
-      <c r="M369">
-        <v>6.5</v>
-      </c>
-      <c r="N369">
-        <v>1.444</v>
-      </c>
-      <c r="O369">
-        <v>5.25</v>
-      </c>
-      <c r="P369">
-        <v>6.5</v>
-      </c>
-      <c r="Q369">
-        <v>-1.25</v>
-      </c>
-      <c r="R369">
+      <c r="U369">
+        <v>1.975</v>
+      </c>
+      <c r="V369">
         <v>1.875</v>
       </c>
-      <c r="S369">
-        <v>1.975</v>
-      </c>
-      <c r="T369">
-        <v>3.5</v>
-      </c>
-      <c r="U369">
-        <v>2</v>
-      </c>
-      <c r="V369">
-        <v>1.85</v>
-      </c>
       <c r="W369">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X369">
         <v>-1</v>
       </c>
       <c r="Y369">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z369">
+        <v>-1</v>
+      </c>
+      <c r="AA369">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB369">
+        <v>-1</v>
+      </c>
+      <c r="AC369">
         <v>0.875</v>
-      </c>
-      <c r="AA369">
-        <v>-1</v>
-      </c>
-      <c r="AB369">
-        <v>-1</v>
-      </c>
-      <c r="AC369">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="370" spans="1:29">
@@ -33644,7 +33644,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>4568131</v>
+        <v>4568015</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -33656,73 +33656,73 @@
         <v>44780.54166666666</v>
       </c>
       <c r="F373" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G373" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I373">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J373" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K373">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="L373">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M373">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="N373">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="O373">
         <v>3.8</v>
       </c>
       <c r="P373">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="Q373">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R373">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S373">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T373">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U373">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V373">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W373">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X373">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y373">
         <v>-1</v>
       </c>
       <c r="Z373">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA373">
         <v>-1</v>
       </c>
       <c r="AB373">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC373">
         <v>-1</v>
@@ -33733,7 +33733,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>4568015</v>
+        <v>4568128</v>
       </c>
       <c r="C374" t="s">
         <v>28</v>
@@ -33745,10 +33745,10 @@
         <v>44780.54166666666</v>
       </c>
       <c r="F374" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G374" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H374">
         <v>3</v>
@@ -33760,43 +33760,43 @@
         <v>48</v>
       </c>
       <c r="K374">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="L374">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M374">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="N374">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="O374">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P374">
-        <v>2.875</v>
+        <v>7.5</v>
       </c>
       <c r="Q374">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R374">
+        <v>1.825</v>
+      </c>
+      <c r="S374">
+        <v>2.025</v>
+      </c>
+      <c r="T374">
+        <v>3</v>
+      </c>
+      <c r="U374">
+        <v>1.85</v>
+      </c>
+      <c r="V374">
         <v>2</v>
       </c>
-      <c r="S374">
-        <v>1.85</v>
-      </c>
-      <c r="T374">
-        <v>3.25</v>
-      </c>
-      <c r="U374">
-        <v>1.9</v>
-      </c>
-      <c r="V374">
-        <v>1.95</v>
-      </c>
       <c r="W374">
-        <v>1.2</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X374">
         <v>-1</v>
@@ -33805,13 +33805,13 @@
         <v>-1</v>
       </c>
       <c r="Z374">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA374">
         <v>-1</v>
       </c>
       <c r="AB374">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC374">
         <v>-1</v>
@@ -33911,7 +33911,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>4568128</v>
+        <v>4568131</v>
       </c>
       <c r="C376" t="s">
         <v>28</v>
@@ -33923,73 +33923,73 @@
         <v>44780.54166666666</v>
       </c>
       <c r="F376" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G376" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H376">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I376">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J376" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K376">
-        <v>1.666</v>
+        <v>3.8</v>
       </c>
       <c r="L376">
+        <v>3.5</v>
+      </c>
+      <c r="M376">
+        <v>1.85</v>
+      </c>
+      <c r="N376">
+        <v>3.75</v>
+      </c>
+      <c r="O376">
         <v>3.8</v>
       </c>
-      <c r="M376">
-        <v>5</v>
-      </c>
-      <c r="N376">
-        <v>1.4</v>
-      </c>
-      <c r="O376">
-        <v>5</v>
-      </c>
       <c r="P376">
-        <v>7.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q376">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R376">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S376">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T376">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U376">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V376">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W376">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X376">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y376">
         <v>-1</v>
       </c>
       <c r="Z376">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA376">
         <v>-1</v>
       </c>
       <c r="AB376">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC376">
         <v>-1</v>
@@ -36492,7 +36492,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>4568151</v>
+        <v>4568150</v>
       </c>
       <c r="C405" t="s">
         <v>28</v>
@@ -36504,76 +36504,76 @@
         <v>44808.54166666666</v>
       </c>
       <c r="F405" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G405" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H405">
+        <v>3</v>
+      </c>
+      <c r="I405">
         <v>1</v>
       </c>
-      <c r="I405">
-        <v>2</v>
-      </c>
       <c r="J405" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K405">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L405">
         <v>3.5</v>
       </c>
       <c r="M405">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="N405">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="O405">
         <v>4</v>
       </c>
       <c r="P405">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q405">
         <v>-0.75</v>
       </c>
       <c r="R405">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S405">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T405">
         <v>3</v>
       </c>
       <c r="U405">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V405">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W405">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X405">
         <v>-1</v>
       </c>
       <c r="Y405">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z405">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA405">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB405">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC405">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="406" spans="1:29">
@@ -36581,7 +36581,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>4568150</v>
+        <v>4568151</v>
       </c>
       <c r="C406" t="s">
         <v>28</v>
@@ -36593,76 +36593,76 @@
         <v>44808.54166666666</v>
       </c>
       <c r="F406" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G406" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H406">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I406">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J406" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K406">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="L406">
         <v>3.5</v>
       </c>
       <c r="M406">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N406">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="O406">
         <v>4</v>
       </c>
       <c r="P406">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q406">
         <v>-0.75</v>
       </c>
       <c r="R406">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S406">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T406">
         <v>3</v>
       </c>
       <c r="U406">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V406">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W406">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X406">
         <v>-1</v>
       </c>
       <c r="Y406">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z406">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA406">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB406">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC406">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="407" spans="1:29">
@@ -36670,7 +36670,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>4568023</v>
+        <v>4568152</v>
       </c>
       <c r="C407" t="s">
         <v>28</v>
@@ -36682,10 +36682,10 @@
         <v>44808.54166666666</v>
       </c>
       <c r="F407" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G407" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H407">
         <v>2</v>
@@ -36697,43 +36697,43 @@
         <v>48</v>
       </c>
       <c r="K407">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="L407">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M407">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="N407">
-        <v>1.666</v>
+        <v>1.363</v>
       </c>
       <c r="O407">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P407">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q407">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R407">
+        <v>1.975</v>
+      </c>
+      <c r="S407">
+        <v>1.875</v>
+      </c>
+      <c r="T407">
+        <v>3.25</v>
+      </c>
+      <c r="U407">
         <v>1.9</v>
       </c>
-      <c r="S407">
+      <c r="V407">
         <v>1.95</v>
       </c>
-      <c r="T407">
-        <v>3</v>
-      </c>
-      <c r="U407">
-        <v>1.975</v>
-      </c>
-      <c r="V407">
-        <v>1.875</v>
-      </c>
       <c r="W407">
-        <v>0.6659999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X407">
         <v>-1</v>
@@ -36742,16 +36742,16 @@
         <v>-1</v>
       </c>
       <c r="Z407">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA407">
+        <v>0.875</v>
+      </c>
+      <c r="AB407">
         <v>-0.5</v>
       </c>
-      <c r="AB407">
-        <v>0</v>
-      </c>
       <c r="AC407">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="408" spans="1:29">
@@ -36759,7 +36759,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>4568152</v>
+        <v>4568023</v>
       </c>
       <c r="C408" t="s">
         <v>28</v>
@@ -36771,10 +36771,10 @@
         <v>44808.54166666666</v>
       </c>
       <c r="F408" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G408" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H408">
         <v>2</v>
@@ -36786,43 +36786,43 @@
         <v>48</v>
       </c>
       <c r="K408">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="L408">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M408">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="N408">
-        <v>1.363</v>
+        <v>1.666</v>
       </c>
       <c r="O408">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P408">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q408">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R408">
+        <v>1.9</v>
+      </c>
+      <c r="S408">
+        <v>1.95</v>
+      </c>
+      <c r="T408">
+        <v>3</v>
+      </c>
+      <c r="U408">
         <v>1.975</v>
       </c>
-      <c r="S408">
+      <c r="V408">
         <v>1.875</v>
       </c>
-      <c r="T408">
-        <v>3.25</v>
-      </c>
-      <c r="U408">
-        <v>1.9</v>
-      </c>
-      <c r="V408">
-        <v>1.95</v>
-      </c>
       <c r="W408">
-        <v>0.363</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X408">
         <v>-1</v>
@@ -36831,16 +36831,16 @@
         <v>-1</v>
       </c>
       <c r="Z408">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA408">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB408">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC408">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="409" spans="1:29">
@@ -37738,7 +37738,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>4568026</v>
+        <v>4568027</v>
       </c>
       <c r="C419" t="s">
         <v>28</v>
@@ -37750,58 +37750,58 @@
         <v>44822.54166666666</v>
       </c>
       <c r="F419" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G419" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H419">
+        <v>4</v>
+      </c>
+      <c r="I419">
         <v>3</v>
-      </c>
-      <c r="I419">
-        <v>1</v>
       </c>
       <c r="J419" t="s">
         <v>48</v>
       </c>
       <c r="K419">
-        <v>1.909</v>
+        <v>1.333</v>
       </c>
       <c r="L419">
+        <v>5.5</v>
+      </c>
+      <c r="M419">
+        <v>8</v>
+      </c>
+      <c r="N419">
+        <v>1.2</v>
+      </c>
+      <c r="O419">
+        <v>7</v>
+      </c>
+      <c r="P419">
+        <v>13</v>
+      </c>
+      <c r="Q419">
+        <v>-2</v>
+      </c>
+      <c r="R419">
+        <v>1.89</v>
+      </c>
+      <c r="S419">
+        <v>2.01</v>
+      </c>
+      <c r="T419">
         <v>3.5</v>
       </c>
-      <c r="M419">
-        <v>4.2</v>
-      </c>
-      <c r="N419">
-        <v>1.85</v>
-      </c>
-      <c r="O419">
-        <v>3.6</v>
-      </c>
-      <c r="P419">
-        <v>4.2</v>
-      </c>
-      <c r="Q419">
-        <v>-0.5</v>
-      </c>
-      <c r="R419">
-        <v>1.875</v>
-      </c>
-      <c r="S419">
-        <v>1.975</v>
-      </c>
-      <c r="T419">
-        <v>2.75</v>
-      </c>
       <c r="U419">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V419">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W419">
-        <v>0.8500000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="X419">
         <v>-1</v>
@@ -37810,13 +37810,13 @@
         <v>-1</v>
       </c>
       <c r="Z419">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA419">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AB419">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC419">
         <v>-1</v>
@@ -37827,7 +37827,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>4568027</v>
+        <v>4568026</v>
       </c>
       <c r="C420" t="s">
         <v>28</v>
@@ -37839,58 +37839,58 @@
         <v>44822.54166666666</v>
       </c>
       <c r="F420" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G420" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H420">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I420">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J420" t="s">
         <v>48</v>
       </c>
       <c r="K420">
-        <v>1.333</v>
+        <v>1.909</v>
       </c>
       <c r="L420">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M420">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="N420">
-        <v>1.2</v>
+        <v>1.85</v>
       </c>
       <c r="O420">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="P420">
-        <v>13</v>
+        <v>4.2</v>
       </c>
       <c r="Q420">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R420">
-        <v>1.89</v>
+        <v>1.875</v>
       </c>
       <c r="S420">
-        <v>2.01</v>
+        <v>1.975</v>
       </c>
       <c r="T420">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U420">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V420">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W420">
-        <v>0.2</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X420">
         <v>-1</v>
@@ -37899,13 +37899,13 @@
         <v>-1</v>
       </c>
       <c r="Z420">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA420">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AB420">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC420">
         <v>-1</v>
@@ -39251,7 +39251,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>4568173</v>
+        <v>4568172</v>
       </c>
       <c r="C436" t="s">
         <v>28</v>
@@ -39263,76 +39263,76 @@
         <v>44843.5</v>
       </c>
       <c r="F436" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G436" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I436">
+        <v>1</v>
+      </c>
+      <c r="J436" t="s">
+        <v>49</v>
+      </c>
+      <c r="K436">
+        <v>2</v>
+      </c>
+      <c r="L436">
+        <v>3.5</v>
+      </c>
+      <c r="M436">
+        <v>3.4</v>
+      </c>
+      <c r="N436">
+        <v>1.8</v>
+      </c>
+      <c r="O436">
+        <v>3.8</v>
+      </c>
+      <c r="P436">
+        <v>4.2</v>
+      </c>
+      <c r="Q436">
+        <v>-0.5</v>
+      </c>
+      <c r="R436">
+        <v>1.825</v>
+      </c>
+      <c r="S436">
+        <v>2.025</v>
+      </c>
+      <c r="T436">
         <v>3</v>
       </c>
-      <c r="J436" t="s">
-        <v>50</v>
-      </c>
-      <c r="K436">
-        <v>2.3</v>
-      </c>
-      <c r="L436">
-        <v>3.4</v>
-      </c>
-      <c r="M436">
-        <v>2.9</v>
-      </c>
-      <c r="N436">
-        <v>2.4</v>
-      </c>
-      <c r="O436">
-        <v>3.3</v>
-      </c>
-      <c r="P436">
-        <v>3</v>
-      </c>
-      <c r="Q436">
-        <v>-0.25</v>
-      </c>
-      <c r="R436">
-        <v>2.05</v>
-      </c>
-      <c r="S436">
-        <v>1.8</v>
-      </c>
-      <c r="T436">
-        <v>2.75</v>
-      </c>
       <c r="U436">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V436">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W436">
         <v>-1</v>
       </c>
       <c r="X436">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y436">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z436">
         <v>-1</v>
       </c>
       <c r="AA436">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB436">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC436">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="437" spans="1:29">
@@ -39518,7 +39518,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>4568172</v>
+        <v>4568173</v>
       </c>
       <c r="C439" t="s">
         <v>28</v>
@@ -39530,76 +39530,76 @@
         <v>44843.5</v>
       </c>
       <c r="F439" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G439" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H439">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I439">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J439" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K439">
+        <v>2.3</v>
+      </c>
+      <c r="L439">
+        <v>3.4</v>
+      </c>
+      <c r="M439">
+        <v>2.9</v>
+      </c>
+      <c r="N439">
+        <v>2.4</v>
+      </c>
+      <c r="O439">
+        <v>3.3</v>
+      </c>
+      <c r="P439">
+        <v>3</v>
+      </c>
+      <c r="Q439">
+        <v>-0.25</v>
+      </c>
+      <c r="R439">
+        <v>2.05</v>
+      </c>
+      <c r="S439">
+        <v>1.8</v>
+      </c>
+      <c r="T439">
+        <v>2.75</v>
+      </c>
+      <c r="U439">
         <v>2</v>
       </c>
-      <c r="L439">
-        <v>3.5</v>
-      </c>
-      <c r="M439">
-        <v>3.4</v>
-      </c>
-      <c r="N439">
-        <v>1.8</v>
-      </c>
-      <c r="O439">
-        <v>3.8</v>
-      </c>
-      <c r="P439">
-        <v>4.2</v>
-      </c>
-      <c r="Q439">
+      <c r="V439">
+        <v>1.85</v>
+      </c>
+      <c r="W439">
+        <v>-1</v>
+      </c>
+      <c r="X439">
+        <v>-1</v>
+      </c>
+      <c r="Y439">
+        <v>2</v>
+      </c>
+      <c r="Z439">
+        <v>-1</v>
+      </c>
+      <c r="AA439">
+        <v>0.8</v>
+      </c>
+      <c r="AB439">
+        <v>0.5</v>
+      </c>
+      <c r="AC439">
         <v>-0.5</v>
-      </c>
-      <c r="R439">
-        <v>1.825</v>
-      </c>
-      <c r="S439">
-        <v>2.025</v>
-      </c>
-      <c r="T439">
-        <v>3</v>
-      </c>
-      <c r="U439">
-        <v>1.825</v>
-      </c>
-      <c r="V439">
-        <v>2.025</v>
-      </c>
-      <c r="W439">
-        <v>-1</v>
-      </c>
-      <c r="X439">
-        <v>2.8</v>
-      </c>
-      <c r="Y439">
-        <v>-1</v>
-      </c>
-      <c r="Z439">
-        <v>-1</v>
-      </c>
-      <c r="AA439">
-        <v>1.025</v>
-      </c>
-      <c r="AB439">
-        <v>-1</v>
-      </c>
-      <c r="AC439">
-        <v>1.025</v>
       </c>
     </row>
     <row r="440" spans="1:29">
@@ -40853,7 +40853,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>4568179</v>
+        <v>4568035</v>
       </c>
       <c r="C454" t="s">
         <v>28</v>
@@ -40865,76 +40865,76 @@
         <v>44857.5</v>
       </c>
       <c r="F454" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G454" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H454">
         <v>1</v>
       </c>
       <c r="I454">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J454" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K454">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L454">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M454">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="N454">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O454">
         <v>3.8</v>
       </c>
       <c r="P454">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q454">
         <v>-0.5</v>
       </c>
       <c r="R454">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S454">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T454">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U454">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V454">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W454">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X454">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y454">
         <v>-1</v>
       </c>
       <c r="Z454">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA454">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB454">
         <v>-1</v>
       </c>
       <c r="AC454">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="455" spans="1:29">
@@ -40942,7 +40942,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>4568035</v>
+        <v>4568181</v>
       </c>
       <c r="C455" t="s">
         <v>28</v>
@@ -40954,76 +40954,76 @@
         <v>44857.5</v>
       </c>
       <c r="F455" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G455" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H455">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I455">
         <v>1</v>
       </c>
       <c r="J455" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K455">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L455">
         <v>3.4</v>
       </c>
       <c r="M455">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="N455">
+        <v>3</v>
+      </c>
+      <c r="O455">
+        <v>3.3</v>
+      </c>
+      <c r="P455">
+        <v>2.4</v>
+      </c>
+      <c r="Q455">
+        <v>0.25</v>
+      </c>
+      <c r="R455">
+        <v>1.8</v>
+      </c>
+      <c r="S455">
+        <v>2.05</v>
+      </c>
+      <c r="T455">
+        <v>2.75</v>
+      </c>
+      <c r="U455">
+        <v>2</v>
+      </c>
+      <c r="V455">
         <v>1.85</v>
       </c>
-      <c r="O455">
-        <v>3.8</v>
-      </c>
-      <c r="P455">
-        <v>3.8</v>
-      </c>
-      <c r="Q455">
-        <v>-0.5</v>
-      </c>
-      <c r="R455">
-        <v>1.825</v>
-      </c>
-      <c r="S455">
-        <v>2.025</v>
-      </c>
-      <c r="T455">
-        <v>3</v>
-      </c>
-      <c r="U455">
-        <v>1.95</v>
-      </c>
-      <c r="V455">
-        <v>1.9</v>
-      </c>
       <c r="W455">
         <v>-1</v>
       </c>
       <c r="X455">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y455">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z455">
         <v>-1</v>
       </c>
       <c r="AA455">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AB455">
         <v>-1</v>
       </c>
       <c r="AC455">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="456" spans="1:29">
@@ -41031,7 +41031,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>4568181</v>
+        <v>4568179</v>
       </c>
       <c r="C456" t="s">
         <v>28</v>
@@ -41043,40 +41043,40 @@
         <v>44857.5</v>
       </c>
       <c r="F456" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G456" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H456">
+        <v>1</v>
+      </c>
+      <c r="I456">
         <v>0</v>
       </c>
-      <c r="I456">
-        <v>1</v>
-      </c>
       <c r="J456" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K456">
-        <v>3.1</v>
+        <v>1.615</v>
       </c>
       <c r="L456">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M456">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="N456">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="O456">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P456">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q456">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R456">
         <v>1.8</v>
@@ -41088,31 +41088,31 @@
         <v>2.75</v>
       </c>
       <c r="U456">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V456">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W456">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X456">
         <v>-1</v>
       </c>
       <c r="Y456">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z456">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA456">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB456">
         <v>-1</v>
       </c>
       <c r="AC456">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="457" spans="1:29">
@@ -42633,7 +42633,7 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>4568040</v>
+        <v>4779385</v>
       </c>
       <c r="C474" t="s">
         <v>28</v>
@@ -42645,76 +42645,76 @@
         <v>44878.54166666666</v>
       </c>
       <c r="F474" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G474" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I474">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J474" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K474">
-        <v>1.45</v>
+        <v>1.7</v>
       </c>
       <c r="L474">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M474">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="N474">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="O474">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P474">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q474">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R474">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S474">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T474">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U474">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V474">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W474">
         <v>-1</v>
       </c>
       <c r="X474">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y474">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z474">
         <v>-1</v>
       </c>
       <c r="AA474">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB474">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC474">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="475" spans="1:29">
@@ -42722,7 +42722,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>4779385</v>
+        <v>4568040</v>
       </c>
       <c r="C475" t="s">
         <v>28</v>
@@ -42734,76 +42734,76 @@
         <v>44878.54166666666</v>
       </c>
       <c r="F475" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G475" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H475">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I475">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J475" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K475">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="L475">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M475">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N475">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="O475">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P475">
-        <v>3.3</v>
+        <v>5.75</v>
       </c>
       <c r="Q475">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R475">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S475">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T475">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U475">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V475">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W475">
         <v>-1</v>
       </c>
       <c r="X475">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y475">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z475">
         <v>-1</v>
       </c>
       <c r="AA475">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB475">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC475">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="476" spans="1:29">
@@ -42811,7 +42811,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>4568196</v>
+        <v>4779384</v>
       </c>
       <c r="C476" t="s">
         <v>28</v>
@@ -42823,76 +42823,76 @@
         <v>44878.54166666666</v>
       </c>
       <c r="F476" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G476" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H476">
+        <v>2</v>
+      </c>
+      <c r="I476">
+        <v>4</v>
+      </c>
+      <c r="J476" t="s">
+        <v>50</v>
+      </c>
+      <c r="K476">
+        <v>5.5</v>
+      </c>
+      <c r="L476">
+        <v>5</v>
+      </c>
+      <c r="M476">
+        <v>1.45</v>
+      </c>
+      <c r="N476">
+        <v>4</v>
+      </c>
+      <c r="O476">
+        <v>5</v>
+      </c>
+      <c r="P476">
+        <v>1.666</v>
+      </c>
+      <c r="Q476">
         <v>1</v>
       </c>
-      <c r="I476">
-        <v>1</v>
-      </c>
-      <c r="J476" t="s">
-        <v>49</v>
-      </c>
-      <c r="K476">
-        <v>1.3</v>
-      </c>
-      <c r="L476">
-        <v>5.75</v>
-      </c>
-      <c r="M476">
-        <v>7.5</v>
-      </c>
-      <c r="N476">
-        <v>1.25</v>
-      </c>
-      <c r="O476">
-        <v>7</v>
-      </c>
-      <c r="P476">
-        <v>9.5</v>
-      </c>
-      <c r="Q476">
-        <v>-2</v>
-      </c>
       <c r="R476">
+        <v>1.87</v>
+      </c>
+      <c r="S476">
         <v>2.03</v>
       </c>
-      <c r="S476">
-        <v>1.87</v>
-      </c>
       <c r="T476">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U476">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V476">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W476">
         <v>-1</v>
       </c>
       <c r="X476">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y476">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z476">
         <v>-1</v>
       </c>
       <c r="AA476">
-        <v>0.8700000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="AB476">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC476">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="477" spans="1:29">
@@ -42989,7 +42989,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>4568199</v>
+        <v>4568198</v>
       </c>
       <c r="C478" t="s">
         <v>28</v>
@@ -43001,10 +43001,10 @@
         <v>44878.54166666666</v>
       </c>
       <c r="F478" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G478" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H478">
         <v>2</v>
@@ -43016,46 +43016,46 @@
         <v>49</v>
       </c>
       <c r="K478">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="L478">
         <v>4</v>
       </c>
       <c r="M478">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="N478">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="O478">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P478">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q478">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R478">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S478">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T478">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U478">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V478">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W478">
         <v>-1</v>
       </c>
       <c r="X478">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Y478">
         <v>-1</v>
@@ -43064,10 +43064,10 @@
         <v>-1</v>
       </c>
       <c r="AA478">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB478">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC478">
         <v>-1</v>
@@ -43078,7 +43078,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>4568198</v>
+        <v>4568199</v>
       </c>
       <c r="C479" t="s">
         <v>28</v>
@@ -43090,10 +43090,10 @@
         <v>44878.54166666666</v>
       </c>
       <c r="F479" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G479" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H479">
         <v>2</v>
@@ -43105,46 +43105,46 @@
         <v>49</v>
       </c>
       <c r="K479">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="L479">
         <v>4</v>
       </c>
       <c r="M479">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="N479">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="O479">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P479">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q479">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R479">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S479">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T479">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U479">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V479">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W479">
         <v>-1</v>
       </c>
       <c r="X479">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Y479">
         <v>-1</v>
@@ -43153,10 +43153,10 @@
         <v>-1</v>
       </c>
       <c r="AA479">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB479">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC479">
         <v>-1</v>
@@ -43167,7 +43167,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>4779384</v>
+        <v>4568200</v>
       </c>
       <c r="C480" t="s">
         <v>28</v>
@@ -43179,49 +43179,49 @@
         <v>44878.54166666666</v>
       </c>
       <c r="F480" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G480" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H480">
+        <v>1</v>
+      </c>
+      <c r="I480">
         <v>2</v>
-      </c>
-      <c r="I480">
-        <v>4</v>
       </c>
       <c r="J480" t="s">
         <v>50</v>
       </c>
       <c r="K480">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="L480">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M480">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="N480">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="O480">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P480">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="Q480">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R480">
-        <v>1.87</v>
+        <v>1.875</v>
       </c>
       <c r="S480">
-        <v>2.03</v>
+        <v>1.975</v>
       </c>
       <c r="T480">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U480">
         <v>1.975</v>
@@ -43236,19 +43236,19 @@
         <v>-1</v>
       </c>
       <c r="Y480">
-        <v>0.6659999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="Z480">
         <v>-1</v>
       </c>
       <c r="AA480">
-        <v>1.03</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB480">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC480">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="481" spans="1:29">
@@ -43256,7 +43256,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>4568200</v>
+        <v>4568196</v>
       </c>
       <c r="C481" t="s">
         <v>28</v>
@@ -43268,76 +43268,76 @@
         <v>44878.54166666666</v>
       </c>
       <c r="F481" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G481" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H481">
         <v>1</v>
       </c>
       <c r="I481">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J481" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K481">
-        <v>2.75</v>
+        <v>1.3</v>
       </c>
       <c r="L481">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="M481">
-        <v>2.2</v>
+        <v>7.5</v>
       </c>
       <c r="N481">
-        <v>2.8</v>
+        <v>1.25</v>
       </c>
       <c r="O481">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="P481">
-        <v>2.15</v>
+        <v>9.5</v>
       </c>
       <c r="Q481">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="R481">
-        <v>1.875</v>
+        <v>2.03</v>
       </c>
       <c r="S481">
-        <v>1.975</v>
+        <v>1.87</v>
       </c>
       <c r="T481">
         <v>3.75</v>
       </c>
       <c r="U481">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V481">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W481">
         <v>-1</v>
       </c>
       <c r="X481">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y481">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z481">
         <v>-1</v>
       </c>
       <c r="AA481">
-        <v>0.9750000000000001</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AB481">
         <v>-1</v>
       </c>
       <c r="AC481">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:29">
@@ -43434,7 +43434,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>6011377</v>
+        <v>6008595</v>
       </c>
       <c r="C483" t="s">
         <v>28</v>
@@ -43446,76 +43446,76 @@
         <v>45026.5</v>
       </c>
       <c r="F483" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G483" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H483">
         <v>0</v>
       </c>
       <c r="I483">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J483" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K483">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="L483">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M483">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="N483">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="O483">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P483">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="Q483">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R483">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S483">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T483">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U483">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V483">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W483">
         <v>-1</v>
       </c>
       <c r="X483">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y483">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z483">
         <v>-1</v>
       </c>
       <c r="AA483">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB483">
         <v>-1</v>
       </c>
       <c r="AC483">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="484" spans="1:29">
@@ -43523,7 +43523,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>6008595</v>
+        <v>6011377</v>
       </c>
       <c r="C484" t="s">
         <v>28</v>
@@ -43535,76 +43535,76 @@
         <v>45026.5</v>
       </c>
       <c r="F484" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G484" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H484">
         <v>0</v>
       </c>
       <c r="I484">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J484" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K484">
+        <v>2.5</v>
+      </c>
+      <c r="L484">
         <v>3.5</v>
       </c>
-      <c r="L484">
-        <v>4</v>
-      </c>
       <c r="M484">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="N484">
+        <v>2.05</v>
+      </c>
+      <c r="O484">
         <v>3.6</v>
       </c>
-      <c r="O484">
-        <v>4</v>
-      </c>
       <c r="P484">
+        <v>3.4</v>
+      </c>
+      <c r="Q484">
+        <v>-0.5</v>
+      </c>
+      <c r="R484">
+        <v>2.05</v>
+      </c>
+      <c r="S484">
+        <v>1.8</v>
+      </c>
+      <c r="T484">
+        <v>2.5</v>
+      </c>
+      <c r="U484">
+        <v>1.9</v>
+      </c>
+      <c r="V484">
         <v>1.95</v>
       </c>
-      <c r="Q484">
-        <v>0.5</v>
-      </c>
-      <c r="R484">
-        <v>1.85</v>
-      </c>
-      <c r="S484">
-        <v>2</v>
-      </c>
-      <c r="T484">
-        <v>3</v>
-      </c>
-      <c r="U484">
-        <v>1.925</v>
-      </c>
-      <c r="V484">
-        <v>1.925</v>
-      </c>
       <c r="W484">
         <v>-1</v>
       </c>
       <c r="X484">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y484">
+        <v>-1</v>
+      </c>
+      <c r="Z484">
+        <v>-1</v>
+      </c>
+      <c r="AA484">
+        <v>0.8</v>
+      </c>
+      <c r="AB484">
+        <v>-1</v>
+      </c>
+      <c r="AC484">
         <v>0.95</v>
-      </c>
-      <c r="Z484">
-        <v>-1</v>
-      </c>
-      <c r="AA484">
-        <v>1</v>
-      </c>
-      <c r="AB484">
-        <v>-1</v>
-      </c>
-      <c r="AC484">
-        <v>0.925</v>
       </c>
     </row>
     <row r="485" spans="1:29">
@@ -43612,7 +43612,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>6011457</v>
+        <v>6008761</v>
       </c>
       <c r="C485" t="s">
         <v>28</v>
@@ -43624,49 +43624,49 @@
         <v>45026.5</v>
       </c>
       <c r="F485" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G485" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H485">
+        <v>1</v>
+      </c>
+      <c r="I485">
         <v>0</v>
       </c>
-      <c r="I485">
-        <v>1</v>
-      </c>
       <c r="J485" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K485">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="L485">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M485">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="N485">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="O485">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P485">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="Q485">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R485">
-        <v>1.83</v>
+        <v>2.04</v>
       </c>
       <c r="S485">
-        <v>2.07</v>
+        <v>1.86</v>
       </c>
       <c r="T485">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U485">
         <v>2.05</v>
@@ -43675,19 +43675,19 @@
         <v>1.8</v>
       </c>
       <c r="W485">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X485">
         <v>-1</v>
       </c>
       <c r="Y485">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z485">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AA485">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AB485">
         <v>-1</v>
@@ -43701,7 +43701,7 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>6011458</v>
+        <v>6011457</v>
       </c>
       <c r="C486" t="s">
         <v>28</v>
@@ -43713,76 +43713,76 @@
         <v>45026.5</v>
       </c>
       <c r="F486" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G486" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J486" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K486">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="L486">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M486">
-        <v>3.9</v>
+        <v>2.2</v>
       </c>
       <c r="N486">
-        <v>1.85</v>
+        <v>3</v>
       </c>
       <c r="O486">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P486">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q486">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R486">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="S486">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="T486">
         <v>2.5</v>
       </c>
       <c r="U486">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V486">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W486">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X486">
         <v>-1</v>
       </c>
       <c r="Y486">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z486">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA486">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AB486">
         <v>-1</v>
       </c>
       <c r="AC486">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="487" spans="1:29">
@@ -43790,7 +43790,7 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>6008761</v>
+        <v>6011458</v>
       </c>
       <c r="C487" t="s">
         <v>28</v>
@@ -43802,13 +43802,13 @@
         <v>45026.5</v>
       </c>
       <c r="F487" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G487" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H487">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I487">
         <v>0</v>
@@ -43817,43 +43817,43 @@
         <v>48</v>
       </c>
       <c r="K487">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="L487">
         <v>3.6</v>
       </c>
       <c r="M487">
-        <v>2.05</v>
+        <v>3.9</v>
       </c>
       <c r="N487">
+        <v>1.85</v>
+      </c>
+      <c r="O487">
+        <v>3.6</v>
+      </c>
+      <c r="P487">
         <v>4.2</v>
       </c>
-      <c r="O487">
-        <v>3.8</v>
-      </c>
-      <c r="P487">
-        <v>1.833</v>
-      </c>
       <c r="Q487">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R487">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="S487">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="T487">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U487">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V487">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W487">
-        <v>3.2</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X487">
         <v>-1</v>
@@ -43862,7 +43862,7 @@
         <v>-1</v>
       </c>
       <c r="Z487">
-        <v>1.04</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA487">
         <v>-1</v>
@@ -43871,7 +43871,7 @@
         <v>-1</v>
       </c>
       <c r="AC487">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="488" spans="1:29">
@@ -47884,7 +47884,7 @@
         <v>531</v>
       </c>
       <c r="B533">
-        <v>6008767</v>
+        <v>6008601</v>
       </c>
       <c r="C533" t="s">
         <v>28</v>
@@ -47896,73 +47896,73 @@
         <v>45062.54166666666</v>
       </c>
       <c r="F533" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G533" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H533">
+        <v>2</v>
+      </c>
+      <c r="I533">
         <v>3</v>
       </c>
-      <c r="I533">
-        <v>1</v>
-      </c>
       <c r="J533" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K533">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="L533">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M533">
-        <v>1.55</v>
+        <v>1.666</v>
       </c>
       <c r="N533">
         <v>5</v>
       </c>
       <c r="O533">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P533">
-        <v>1.666</v>
+        <v>1.615</v>
       </c>
       <c r="Q533">
         <v>0.75</v>
       </c>
       <c r="R533">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S533">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T533">
         <v>2.5</v>
       </c>
       <c r="U533">
+        <v>1.85</v>
+      </c>
+      <c r="V533">
         <v>2</v>
       </c>
-      <c r="V533">
-        <v>1.85</v>
-      </c>
       <c r="W533">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="X533">
         <v>-1</v>
       </c>
       <c r="Y533">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z533">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA533">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB533">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC533">
         <v>-1</v>
@@ -47973,7 +47973,7 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>6008601</v>
+        <v>6008767</v>
       </c>
       <c r="C534" t="s">
         <v>28</v>
@@ -47985,73 +47985,73 @@
         <v>45062.54166666666</v>
       </c>
       <c r="F534" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G534" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I534">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J534" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K534">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="L534">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M534">
-        <v>1.666</v>
+        <v>1.55</v>
       </c>
       <c r="N534">
         <v>5</v>
       </c>
       <c r="O534">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P534">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="Q534">
         <v>0.75</v>
       </c>
       <c r="R534">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S534">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T534">
         <v>2.5</v>
       </c>
       <c r="U534">
+        <v>2</v>
+      </c>
+      <c r="V534">
         <v>1.85</v>
       </c>
-      <c r="V534">
-        <v>2</v>
-      </c>
       <c r="W534">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="X534">
         <v>-1</v>
       </c>
       <c r="Y534">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z534">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA534">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB534">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC534">
         <v>-1</v>
@@ -48062,7 +48062,7 @@
         <v>533</v>
       </c>
       <c r="B535">
-        <v>6011389</v>
+        <v>6011475</v>
       </c>
       <c r="C535" t="s">
         <v>28</v>
@@ -48074,58 +48074,58 @@
         <v>45062.54166666666</v>
       </c>
       <c r="F535" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G535" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H535">
         <v>3</v>
       </c>
       <c r="I535">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J535" t="s">
         <v>48</v>
       </c>
       <c r="K535">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="L535">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M535">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N535">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="O535">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P535">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="Q535">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R535">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S535">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T535">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U535">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V535">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W535">
-        <v>0.615</v>
+        <v>0.75</v>
       </c>
       <c r="X535">
         <v>-1</v>
@@ -48134,16 +48134,16 @@
         <v>-1</v>
       </c>
       <c r="Z535">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA535">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB535">
-        <v>1.025</v>
+        <v>0.4625</v>
       </c>
       <c r="AC535">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="536" spans="1:29">
@@ -48151,7 +48151,7 @@
         <v>534</v>
       </c>
       <c r="B536">
-        <v>6011474</v>
+        <v>6011473</v>
       </c>
       <c r="C536" t="s">
         <v>28</v>
@@ -48163,10 +48163,10 @@
         <v>45062.54166666666</v>
       </c>
       <c r="F536" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G536" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H536">
         <v>1</v>
@@ -48178,43 +48178,43 @@
         <v>48</v>
       </c>
       <c r="K536">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="L536">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M536">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="N536">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O536">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P536">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q536">
         <v>-0.75</v>
       </c>
       <c r="R536">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S536">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T536">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U536">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V536">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W536">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="X536">
         <v>-1</v>
@@ -48223,7 +48223,7 @@
         <v>-1</v>
       </c>
       <c r="Z536">
-        <v>0.5125</v>
+        <v>0.4625</v>
       </c>
       <c r="AA536">
         <v>-0.5</v>
@@ -48232,7 +48232,7 @@
         <v>-1</v>
       </c>
       <c r="AC536">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="537" spans="1:29">
@@ -48240,7 +48240,7 @@
         <v>535</v>
       </c>
       <c r="B537">
-        <v>6011473</v>
+        <v>6011389</v>
       </c>
       <c r="C537" t="s">
         <v>28</v>
@@ -48252,58 +48252,58 @@
         <v>45062.54166666666</v>
       </c>
       <c r="F537" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G537" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H537">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I537">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J537" t="s">
         <v>48</v>
       </c>
       <c r="K537">
-        <v>1.571</v>
+        <v>1.7</v>
       </c>
       <c r="L537">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M537">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="N537">
-        <v>1.7</v>
+        <v>1.615</v>
       </c>
       <c r="O537">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P537">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="Q537">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R537">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S537">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T537">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U537">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V537">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W537">
-        <v>0.7</v>
+        <v>0.615</v>
       </c>
       <c r="X537">
         <v>-1</v>
@@ -48312,16 +48312,16 @@
         <v>-1</v>
       </c>
       <c r="Z537">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
       <c r="AA537">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB537">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC537">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="538" spans="1:29">
@@ -48507,7 +48507,7 @@
         <v>538</v>
       </c>
       <c r="B540">
-        <v>6011475</v>
+        <v>6011474</v>
       </c>
       <c r="C540" t="s">
         <v>28</v>
@@ -48519,13 +48519,13 @@
         <v>45062.54166666666</v>
       </c>
       <c r="F540" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G540" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H540">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I540">
         <v>0</v>
@@ -48534,40 +48534,40 @@
         <v>48</v>
       </c>
       <c r="K540">
-        <v>1.666</v>
+        <v>1.75</v>
       </c>
       <c r="L540">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M540">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N540">
         <v>1.75</v>
       </c>
       <c r="O540">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P540">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="Q540">
         <v>-0.75</v>
       </c>
       <c r="R540">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S540">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T540">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U540">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V540">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W540">
         <v>0.75</v>
@@ -48579,16 +48579,16 @@
         <v>-1</v>
       </c>
       <c r="Z540">
-        <v>1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA540">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB540">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC540">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="541" spans="1:29">
@@ -48952,7 +48952,7 @@
         <v>543</v>
       </c>
       <c r="B545">
-        <v>6008602</v>
+        <v>6008768</v>
       </c>
       <c r="C545" t="s">
         <v>28</v>
@@ -48964,58 +48964,58 @@
         <v>45075.5</v>
       </c>
       <c r="F545" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G545" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H545">
         <v>5</v>
       </c>
       <c r="I545">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J545" t="s">
         <v>48</v>
       </c>
       <c r="K545">
-        <v>1.363</v>
+        <v>1.2</v>
       </c>
       <c r="L545">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="M545">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="N545">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="O545">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="P545">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="Q545">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="R545">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="S545">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="T545">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U545">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V545">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W545">
-        <v>0.3999999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="X545">
         <v>-1</v>
@@ -49024,13 +49024,13 @@
         <v>-1</v>
       </c>
       <c r="Z545">
-        <v>0.8899999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA545">
         <v>-1</v>
       </c>
       <c r="AB545">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC545">
         <v>-1</v>
@@ -49041,7 +49041,7 @@
         <v>544</v>
       </c>
       <c r="B546">
-        <v>6008768</v>
+        <v>6008602</v>
       </c>
       <c r="C546" t="s">
         <v>28</v>
@@ -49053,58 +49053,58 @@
         <v>45075.5</v>
       </c>
       <c r="F546" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G546" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H546">
         <v>5</v>
       </c>
       <c r="I546">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J546" t="s">
         <v>48</v>
       </c>
       <c r="K546">
-        <v>1.2</v>
+        <v>1.363</v>
       </c>
       <c r="L546">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="M546">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="N546">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="O546">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="P546">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="Q546">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="R546">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="S546">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="T546">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U546">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V546">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W546">
-        <v>0.2</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X546">
         <v>-1</v>
@@ -49113,13 +49113,13 @@
         <v>-1</v>
       </c>
       <c r="Z546">
-        <v>0.8999999999999999</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA546">
         <v>-1</v>
       </c>
       <c r="AB546">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC546">
         <v>-1</v>
@@ -51355,7 +51355,7 @@
         <v>570</v>
       </c>
       <c r="B572">
-        <v>6011399</v>
+        <v>6011400</v>
       </c>
       <c r="C572" t="s">
         <v>28</v>
@@ -51367,76 +51367,76 @@
         <v>45109.5</v>
       </c>
       <c r="F572" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G572" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572">
         <v>1</v>
       </c>
       <c r="J572" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K572">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="L572">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="M572">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="N572">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="O572">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P572">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q572">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R572">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S572">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T572">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U572">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V572">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W572">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X572">
         <v>-1</v>
       </c>
       <c r="Y572">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z572">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA572">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB572">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC572">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="573" spans="1:29">
@@ -51444,7 +51444,7 @@
         <v>571</v>
       </c>
       <c r="B573">
-        <v>6011400</v>
+        <v>6011399</v>
       </c>
       <c r="C573" t="s">
         <v>28</v>
@@ -51456,76 +51456,76 @@
         <v>45109.5</v>
       </c>
       <c r="F573" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G573" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573">
         <v>1</v>
       </c>
       <c r="J573" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K573">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="L573">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M573">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="N573">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="O573">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P573">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q573">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R573">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S573">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T573">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U573">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V573">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W573">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X573">
         <v>-1</v>
       </c>
       <c r="Y573">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z573">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA573">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB573">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC573">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="574" spans="1:29">
@@ -51533,7 +51533,7 @@
         <v>572</v>
       </c>
       <c r="B574">
-        <v>6011485</v>
+        <v>6011486</v>
       </c>
       <c r="C574" t="s">
         <v>28</v>
@@ -51545,13 +51545,13 @@
         <v>45109.5</v>
       </c>
       <c r="F574" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G574" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I574">
         <v>1</v>
@@ -51560,40 +51560,40 @@
         <v>48</v>
       </c>
       <c r="K574">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="L574">
+        <v>4.5</v>
+      </c>
+      <c r="M574">
         <v>6</v>
-      </c>
-      <c r="M574">
-        <v>10</v>
       </c>
       <c r="N574">
         <v>1.333</v>
       </c>
       <c r="O574">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="P574">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q574">
         <v>-1.5</v>
       </c>
       <c r="R574">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S574">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T574">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U574">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V574">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W574">
         <v>0.333</v>
@@ -51605,16 +51605,16 @@
         <v>-1</v>
       </c>
       <c r="Z574">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA574">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB574">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC574">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="575" spans="1:29">
@@ -51622,7 +51622,7 @@
         <v>573</v>
       </c>
       <c r="B575">
-        <v>6011486</v>
+        <v>6011485</v>
       </c>
       <c r="C575" t="s">
         <v>28</v>
@@ -51634,13 +51634,13 @@
         <v>45109.5</v>
       </c>
       <c r="F575" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G575" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H575">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I575">
         <v>1</v>
@@ -51649,40 +51649,40 @@
         <v>48</v>
       </c>
       <c r="K575">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="L575">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="M575">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N575">
         <v>1.333</v>
       </c>
       <c r="O575">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="P575">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q575">
         <v>-1.5</v>
       </c>
       <c r="R575">
+        <v>1.925</v>
+      </c>
+      <c r="S575">
+        <v>1.925</v>
+      </c>
+      <c r="T575">
+        <v>3.25</v>
+      </c>
+      <c r="U575">
         <v>1.875</v>
       </c>
-      <c r="S575">
+      <c r="V575">
         <v>1.975</v>
-      </c>
-      <c r="T575">
-        <v>3.5</v>
-      </c>
-      <c r="U575">
-        <v>1.825</v>
-      </c>
-      <c r="V575">
-        <v>2.025</v>
       </c>
       <c r="W575">
         <v>0.333</v>
@@ -51694,16 +51694,16 @@
         <v>-1</v>
       </c>
       <c r="Z575">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA575">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB575">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC575">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="576" spans="1:29">
@@ -52779,7 +52779,7 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>6011988</v>
+        <v>6011490</v>
       </c>
       <c r="C588" t="s">
         <v>28</v>
@@ -52791,76 +52791,76 @@
         <v>45123.5</v>
       </c>
       <c r="F588" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G588" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I588">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J588" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K588">
-        <v>3.1</v>
+        <v>1.333</v>
       </c>
       <c r="L588">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M588">
-        <v>2.2</v>
+        <v>7.5</v>
       </c>
       <c r="N588">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="O588">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="P588">
-        <v>2.375</v>
+        <v>7.5</v>
       </c>
       <c r="Q588">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R588">
-        <v>1.78</v>
+        <v>1.925</v>
       </c>
       <c r="S588">
-        <v>2.125</v>
+        <v>1.925</v>
       </c>
       <c r="T588">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U588">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V588">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W588">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X588">
         <v>-1</v>
       </c>
       <c r="Y588">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z588">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA588">
-        <v>1.125</v>
+        <v>-1</v>
       </c>
       <c r="AB588">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC588">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="589" spans="1:29">
@@ -52868,7 +52868,7 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>6011490</v>
+        <v>6011988</v>
       </c>
       <c r="C589" t="s">
         <v>28</v>
@@ -52880,76 +52880,76 @@
         <v>45123.5</v>
       </c>
       <c r="F589" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G589" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H589">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I589">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J589" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K589">
-        <v>1.333</v>
+        <v>3.1</v>
       </c>
       <c r="L589">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M589">
-        <v>7.5</v>
+        <v>2.2</v>
       </c>
       <c r="N589">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="O589">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P589">
-        <v>7.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q589">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R589">
-        <v>1.925</v>
+        <v>1.78</v>
       </c>
       <c r="S589">
-        <v>1.925</v>
+        <v>2.125</v>
       </c>
       <c r="T589">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U589">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V589">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W589">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X589">
         <v>-1</v>
       </c>
       <c r="Y589">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z589">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA589">
-        <v>-1</v>
+        <v>1.125</v>
       </c>
       <c r="AB589">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC589">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="590" spans="1:29">
@@ -53046,7 +53046,7 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <v>6008608</v>
+        <v>6011402</v>
       </c>
       <c r="C591" t="s">
         <v>28</v>
@@ -53058,76 +53058,76 @@
         <v>45123.5</v>
       </c>
       <c r="F591" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G591" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H591">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J591" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K591">
-        <v>1.181</v>
+        <v>2.3</v>
       </c>
       <c r="L591">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="M591">
-        <v>11</v>
+        <v>3.1</v>
       </c>
       <c r="N591">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="O591">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="P591">
-        <v>11</v>
+        <v>3.3</v>
       </c>
       <c r="Q591">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R591">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S591">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T591">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="U591">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V591">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W591">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X591">
         <v>-1</v>
       </c>
       <c r="Y591">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z591">
         <v>-1</v>
       </c>
       <c r="AA591">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AB591">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC591">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="592" spans="1:29">
@@ -53224,7 +53224,7 @@
         <v>591</v>
       </c>
       <c r="B593">
-        <v>6011402</v>
+        <v>6008608</v>
       </c>
       <c r="C593" t="s">
         <v>28</v>
@@ -53236,76 +53236,76 @@
         <v>45123.5</v>
       </c>
       <c r="F593" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G593" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J593" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K593">
-        <v>2.3</v>
+        <v>1.181</v>
       </c>
       <c r="L593">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="M593">
-        <v>3.1</v>
+        <v>11</v>
       </c>
       <c r="N593">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="O593">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="P593">
-        <v>3.3</v>
+        <v>11</v>
       </c>
       <c r="Q593">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R593">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S593">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T593">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="U593">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V593">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W593">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X593">
         <v>-1</v>
       </c>
       <c r="Y593">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z593">
         <v>-1</v>
       </c>
       <c r="AA593">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AB593">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC593">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="594" spans="1:29">
@@ -56161,7 +56161,7 @@
         <v>624</v>
       </c>
       <c r="B626">
-        <v>6011995</v>
+        <v>6011505</v>
       </c>
       <c r="C626" t="s">
         <v>28</v>
@@ -56173,13 +56173,13 @@
         <v>45158.5</v>
       </c>
       <c r="F626" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G626" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H626">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I626">
         <v>0</v>
@@ -56188,25 +56188,25 @@
         <v>48</v>
       </c>
       <c r="K626">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="L626">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M626">
-        <v>7</v>
+        <v>2.375</v>
       </c>
       <c r="N626">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="O626">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P626">
-        <v>7</v>
+        <v>2.55</v>
       </c>
       <c r="Q626">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R626">
         <v>1.925</v>
@@ -56215,16 +56215,16 @@
         <v>1.925</v>
       </c>
       <c r="T626">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U626">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V626">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W626">
-        <v>0.444</v>
+        <v>1.625</v>
       </c>
       <c r="X626">
         <v>-1</v>
@@ -56233,16 +56233,16 @@
         <v>-1</v>
       </c>
       <c r="Z626">
+        <v>0.925</v>
+      </c>
+      <c r="AA626">
+        <v>-1</v>
+      </c>
+      <c r="AB626">
+        <v>0.4375</v>
+      </c>
+      <c r="AC626">
         <v>-0.5</v>
-      </c>
-      <c r="AA626">
-        <v>0.4625</v>
-      </c>
-      <c r="AB626">
-        <v>-1</v>
-      </c>
-      <c r="AC626">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="627" spans="1:29">
@@ -56250,7 +56250,7 @@
         <v>625</v>
       </c>
       <c r="B627">
-        <v>6011505</v>
+        <v>6011504</v>
       </c>
       <c r="C627" t="s">
         <v>28</v>
@@ -56262,58 +56262,58 @@
         <v>45158.5</v>
       </c>
       <c r="F627" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G627" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H627">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I627">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J627" t="s">
         <v>48</v>
       </c>
       <c r="K627">
-        <v>2.9</v>
+        <v>1.222</v>
       </c>
       <c r="L627">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M627">
-        <v>2.375</v>
+        <v>10</v>
       </c>
       <c r="N627">
-        <v>2.625</v>
+        <v>1.25</v>
       </c>
       <c r="O627">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="P627">
-        <v>2.55</v>
+        <v>8.5</v>
       </c>
       <c r="Q627">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R627">
+        <v>1.825</v>
+      </c>
+      <c r="S627">
+        <v>2.025</v>
+      </c>
+      <c r="T627">
+        <v>3.75</v>
+      </c>
+      <c r="U627">
         <v>1.925</v>
       </c>
-      <c r="S627">
+      <c r="V627">
         <v>1.925</v>
       </c>
-      <c r="T627">
-        <v>2.75</v>
-      </c>
-      <c r="U627">
-        <v>1.875</v>
-      </c>
-      <c r="V627">
-        <v>1.975</v>
-      </c>
       <c r="W627">
-        <v>1.625</v>
+        <v>0.25</v>
       </c>
       <c r="X627">
         <v>-1</v>
@@ -56322,16 +56322,16 @@
         <v>-1</v>
       </c>
       <c r="Z627">
+        <v>0.825</v>
+      </c>
+      <c r="AA627">
+        <v>-1</v>
+      </c>
+      <c r="AB627">
         <v>0.925</v>
       </c>
-      <c r="AA627">
-        <v>-1</v>
-      </c>
-      <c r="AB627">
-        <v>0.4375</v>
-      </c>
       <c r="AC627">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="628" spans="1:29">
@@ -56339,7 +56339,7 @@
         <v>626</v>
       </c>
       <c r="B628">
-        <v>6011504</v>
+        <v>6011411</v>
       </c>
       <c r="C628" t="s">
         <v>28</v>
@@ -56351,58 +56351,58 @@
         <v>45158.5</v>
       </c>
       <c r="F628" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G628" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H628">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I628">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J628" t="s">
         <v>48</v>
       </c>
       <c r="K628">
-        <v>1.222</v>
+        <v>1.533</v>
       </c>
       <c r="L628">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="M628">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N628">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="O628">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="P628">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="Q628">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R628">
-        <v>1.825</v>
+        <v>2.08</v>
       </c>
       <c r="S628">
-        <v>2.025</v>
+        <v>1.82</v>
       </c>
       <c r="T628">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U628">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V628">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W628">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="X628">
         <v>-1</v>
@@ -56411,16 +56411,16 @@
         <v>-1</v>
       </c>
       <c r="Z628">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA628">
-        <v>-1</v>
+        <v>0.41</v>
       </c>
       <c r="AB628">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC628">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="629" spans="1:29">
@@ -56428,7 +56428,7 @@
         <v>627</v>
       </c>
       <c r="B629">
-        <v>6011411</v>
+        <v>6011995</v>
       </c>
       <c r="C629" t="s">
         <v>28</v>
@@ -56440,10 +56440,10 @@
         <v>45158.5</v>
       </c>
       <c r="F629" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G629" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H629">
         <v>1</v>
@@ -56455,19 +56455,19 @@
         <v>48</v>
       </c>
       <c r="K629">
-        <v>1.533</v>
+        <v>1.4</v>
       </c>
       <c r="L629">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M629">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N629">
-        <v>1.5</v>
+        <v>1.444</v>
       </c>
       <c r="O629">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P629">
         <v>7</v>
@@ -56476,22 +56476,22 @@
         <v>-1.25</v>
       </c>
       <c r="R629">
-        <v>2.08</v>
+        <v>1.925</v>
       </c>
       <c r="S629">
-        <v>1.82</v>
+        <v>1.925</v>
       </c>
       <c r="T629">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U629">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V629">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W629">
-        <v>0.5</v>
+        <v>0.444</v>
       </c>
       <c r="X629">
         <v>-1</v>
@@ -56503,13 +56503,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA629">
-        <v>0.41</v>
+        <v>0.4625</v>
       </c>
       <c r="AB629">
         <v>-1</v>
       </c>
       <c r="AC629">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="630" spans="1:29">
@@ -58030,7 +58030,7 @@
         <v>645</v>
       </c>
       <c r="B647">
-        <v>6011998</v>
+        <v>6011935</v>
       </c>
       <c r="C647" t="s">
         <v>28</v>
@@ -58042,76 +58042,76 @@
         <v>45186.5</v>
       </c>
       <c r="F647" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G647" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I647">
         <v>1</v>
       </c>
       <c r="J647" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K647">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="L647">
         <v>3.75</v>
       </c>
       <c r="M647">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="N647">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="O647">
         <v>4</v>
       </c>
       <c r="P647">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q647">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R647">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S647">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T647">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U647">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V647">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W647">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X647">
         <v>-1</v>
       </c>
       <c r="Y647">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z647">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA647">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB647">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC647">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="648" spans="1:29">
@@ -58119,7 +58119,7 @@
         <v>646</v>
       </c>
       <c r="B648">
-        <v>6011935</v>
+        <v>6011998</v>
       </c>
       <c r="C648" t="s">
         <v>28</v>
@@ -58131,76 +58131,76 @@
         <v>45186.5</v>
       </c>
       <c r="F648" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G648" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H648">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I648">
         <v>1</v>
       </c>
       <c r="J648" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K648">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="L648">
         <v>3.75</v>
       </c>
       <c r="M648">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="N648">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="O648">
         <v>4</v>
       </c>
       <c r="P648">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="Q648">
+        <v>0.75</v>
+      </c>
+      <c r="R648">
+        <v>1.825</v>
+      </c>
+      <c r="S648">
+        <v>2.025</v>
+      </c>
+      <c r="T648">
+        <v>3</v>
+      </c>
+      <c r="U648">
+        <v>2.025</v>
+      </c>
+      <c r="V648">
+        <v>1.825</v>
+      </c>
+      <c r="W648">
+        <v>-1</v>
+      </c>
+      <c r="X648">
+        <v>-1</v>
+      </c>
+      <c r="Y648">
+        <v>0.8</v>
+      </c>
+      <c r="Z648">
         <v>-0.5</v>
       </c>
-      <c r="R648">
-        <v>1.9</v>
-      </c>
-      <c r="S648">
-        <v>1.95</v>
-      </c>
-      <c r="T648">
-        <v>3.25</v>
-      </c>
-      <c r="U648">
-        <v>1.95</v>
-      </c>
-      <c r="V648">
-        <v>1.9</v>
-      </c>
-      <c r="W648">
-        <v>0.909</v>
-      </c>
-      <c r="X648">
-        <v>-1</v>
-      </c>
-      <c r="Y648">
-        <v>-1</v>
-      </c>
-      <c r="Z648">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA648">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB648">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC648">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="649" spans="1:29">
@@ -58831,7 +58831,7 @@
         <v>654</v>
       </c>
       <c r="B656">
-        <v>6011517</v>
+        <v>6011418</v>
       </c>
       <c r="C656" t="s">
         <v>28</v>
@@ -58843,61 +58843,61 @@
         <v>45193.5</v>
       </c>
       <c r="F656" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G656" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H656">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I656">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J656" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K656">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="L656">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="M656">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="N656">
-        <v>1.285</v>
+        <v>1.95</v>
       </c>
       <c r="O656">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="P656">
-        <v>8.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q656">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R656">
+        <v>2</v>
+      </c>
+      <c r="S656">
+        <v>1.85</v>
+      </c>
+      <c r="T656">
+        <v>2.5</v>
+      </c>
+      <c r="U656">
         <v>1.925</v>
       </c>
-      <c r="S656">
+      <c r="V656">
         <v>1.925</v>
       </c>
-      <c r="T656">
-        <v>3.5</v>
-      </c>
-      <c r="U656">
-        <v>1.85</v>
-      </c>
-      <c r="V656">
-        <v>2</v>
-      </c>
       <c r="W656">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X656">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y656">
         <v>-1</v>
@@ -58906,13 +58906,13 @@
         <v>-1</v>
       </c>
       <c r="AA656">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB656">
+        <v>-1</v>
+      </c>
+      <c r="AC656">
         <v>0.925</v>
-      </c>
-      <c r="AB656">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC656">
-        <v>-1</v>
       </c>
     </row>
     <row r="657" spans="1:29">
@@ -58920,7 +58920,7 @@
         <v>655</v>
       </c>
       <c r="B657">
-        <v>6011516</v>
+        <v>6011517</v>
       </c>
       <c r="C657" t="s">
         <v>28</v>
@@ -58932,76 +58932,76 @@
         <v>45193.5</v>
       </c>
       <c r="F657" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G657" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H657">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I657">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J657" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K657">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="L657">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M657">
-        <v>2.1</v>
+        <v>8</v>
       </c>
       <c r="N657">
+        <v>1.285</v>
+      </c>
+      <c r="O657">
+        <v>6.5</v>
+      </c>
+      <c r="P657">
+        <v>8.5</v>
+      </c>
+      <c r="Q657">
+        <v>-1.75</v>
+      </c>
+      <c r="R657">
+        <v>1.925</v>
+      </c>
+      <c r="S657">
+        <v>1.925</v>
+      </c>
+      <c r="T657">
         <v>3.5</v>
       </c>
-      <c r="O657">
-        <v>4.333</v>
-      </c>
-      <c r="P657">
+      <c r="U657">
         <v>1.85</v>
       </c>
-      <c r="Q657">
-        <v>0.5</v>
-      </c>
-      <c r="R657">
-        <v>1.975</v>
-      </c>
-      <c r="S657">
-        <v>1.875</v>
-      </c>
-      <c r="T657">
-        <v>3.25</v>
-      </c>
-      <c r="U657">
-        <v>1.925</v>
-      </c>
       <c r="V657">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W657">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X657">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y657">
         <v>-1</v>
       </c>
       <c r="Z657">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA657">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB657">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC657">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="658" spans="1:29">
@@ -59009,7 +59009,7 @@
         <v>656</v>
       </c>
       <c r="B658">
-        <v>6011418</v>
+        <v>6011516</v>
       </c>
       <c r="C658" t="s">
         <v>28</v>
@@ -59021,10 +59021,10 @@
         <v>45193.5</v>
       </c>
       <c r="F658" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G658" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H658">
         <v>1</v>
@@ -59036,34 +59036,34 @@
         <v>49</v>
       </c>
       <c r="K658">
+        <v>3.1</v>
+      </c>
+      <c r="L658">
+        <v>3.75</v>
+      </c>
+      <c r="M658">
         <v>2.1</v>
       </c>
-      <c r="L658">
-        <v>3.4</v>
-      </c>
-      <c r="M658">
-        <v>3.4</v>
-      </c>
       <c r="N658">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
       <c r="O658">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P658">
-        <v>3.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q658">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R658">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S658">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T658">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U658">
         <v>1.925</v>
@@ -59075,16 +59075,16 @@
         <v>-1</v>
       </c>
       <c r="X658">
-        <v>2.6</v>
+        <v>3.333</v>
       </c>
       <c r="Y658">
         <v>-1</v>
       </c>
       <c r="Z658">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA658">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB658">
         <v>-1</v>
@@ -62035,7 +62035,7 @@
         <v>690</v>
       </c>
       <c r="B692">
-        <v>6008621</v>
+        <v>6011526</v>
       </c>
       <c r="C692" t="s">
         <v>28</v>
@@ -62047,76 +62047,76 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F692" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G692" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H692">
+        <v>1</v>
+      </c>
+      <c r="I692">
         <v>0</v>
       </c>
-      <c r="I692">
+      <c r="J692" t="s">
+        <v>48</v>
+      </c>
+      <c r="K692">
+        <v>1.7</v>
+      </c>
+      <c r="L692">
         <v>4</v>
       </c>
-      <c r="J692" t="s">
-        <v>50</v>
-      </c>
-      <c r="K692">
-        <v>5.25</v>
-      </c>
-      <c r="L692">
+      <c r="M692">
         <v>4.333</v>
       </c>
-      <c r="M692">
-        <v>1.55</v>
-      </c>
       <c r="N692">
-        <v>5.75</v>
+        <v>1.8</v>
       </c>
       <c r="O692">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P692">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q692">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R692">
-        <v>1.825</v>
+        <v>1.86</v>
       </c>
       <c r="S692">
-        <v>2.025</v>
+        <v>2.04</v>
       </c>
       <c r="T692">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U692">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V692">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W692">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X692">
         <v>-1</v>
       </c>
       <c r="Y692">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z692">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA692">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB692">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC692">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="693" spans="1:29">
@@ -62302,7 +62302,7 @@
         <v>693</v>
       </c>
       <c r="B695">
-        <v>6011526</v>
+        <v>6008621</v>
       </c>
       <c r="C695" t="s">
         <v>28</v>
@@ -62314,76 +62314,76 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F695" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G695" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H695">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I695">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J695" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K695">
-        <v>1.7</v>
+        <v>5.25</v>
       </c>
       <c r="L695">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M695">
-        <v>4.333</v>
+        <v>1.55</v>
       </c>
       <c r="N695">
-        <v>1.8</v>
+        <v>5.75</v>
       </c>
       <c r="O695">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P695">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="Q695">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R695">
-        <v>1.86</v>
+        <v>1.825</v>
       </c>
       <c r="S695">
-        <v>2.04</v>
+        <v>2.025</v>
       </c>
       <c r="T695">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U695">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V695">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W695">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X695">
         <v>-1</v>
       </c>
       <c r="Y695">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z695">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA695">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB695">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC695">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="696" spans="1:29">
@@ -63993,7 +63993,7 @@
         <v>712</v>
       </c>
       <c r="B714">
-        <v>6390526</v>
+        <v>6011940</v>
       </c>
       <c r="C714" t="s">
         <v>28</v>
@@ -64005,76 +64005,76 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F714" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G714" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H714">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I714">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J714" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K714">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="L714">
         <v>5</v>
       </c>
       <c r="M714">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="N714">
-        <v>1.333</v>
+        <v>1.45</v>
       </c>
       <c r="O714">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="P714">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q714">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R714">
-        <v>1.825</v>
+        <v>1.89</v>
       </c>
       <c r="S714">
-        <v>2.025</v>
+        <v>2.01</v>
       </c>
       <c r="T714">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U714">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V714">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W714">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X714">
         <v>-1</v>
       </c>
       <c r="Y714">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z714">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA714">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB714">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC714">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715" spans="1:29">
@@ -64082,7 +64082,7 @@
         <v>713</v>
       </c>
       <c r="B715">
-        <v>6390446</v>
+        <v>6390526</v>
       </c>
       <c r="C715" t="s">
         <v>28</v>
@@ -64094,76 +64094,76 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F715" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G715" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H715">
         <v>1</v>
       </c>
       <c r="I715">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J715" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K715">
-        <v>1.615</v>
+        <v>1.4</v>
       </c>
       <c r="L715">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M715">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="N715">
-        <v>1.8</v>
+        <v>1.333</v>
       </c>
       <c r="O715">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="P715">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q715">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R715">
+        <v>1.825</v>
+      </c>
+      <c r="S715">
         <v>2.025</v>
       </c>
-      <c r="S715">
+      <c r="T715">
+        <v>3.75</v>
+      </c>
+      <c r="U715">
         <v>1.825</v>
       </c>
-      <c r="T715">
-        <v>3</v>
-      </c>
-      <c r="U715">
-        <v>1.9</v>
-      </c>
       <c r="V715">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W715">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X715">
         <v>-1</v>
       </c>
       <c r="Y715">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z715">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA715">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB715">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC715">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="716" spans="1:29">
@@ -64171,7 +64171,7 @@
         <v>714</v>
       </c>
       <c r="B716">
-        <v>6390445</v>
+        <v>6390446</v>
       </c>
       <c r="C716" t="s">
         <v>28</v>
@@ -64183,13 +64183,13 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F716" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G716" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H716">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I716">
         <v>0</v>
@@ -64198,34 +64198,34 @@
         <v>48</v>
       </c>
       <c r="K716">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="L716">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M716">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="N716">
         <v>1.8</v>
       </c>
       <c r="O716">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P716">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q716">
         <v>-0.75</v>
       </c>
       <c r="R716">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S716">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T716">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U716">
         <v>1.9</v>
@@ -64243,16 +64243,16 @@
         <v>-1</v>
       </c>
       <c r="Z716">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AA716">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB716">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC716">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="717" spans="1:29">
@@ -64260,7 +64260,7 @@
         <v>715</v>
       </c>
       <c r="B717">
-        <v>6012008</v>
+        <v>6390445</v>
       </c>
       <c r="C717" t="s">
         <v>28</v>
@@ -64272,10 +64272,10 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F717" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G717" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H717">
         <v>3</v>
@@ -64287,43 +64287,43 @@
         <v>48</v>
       </c>
       <c r="K717">
+        <v>2.25</v>
+      </c>
+      <c r="L717">
+        <v>3.4</v>
+      </c>
+      <c r="M717">
+        <v>3.1</v>
+      </c>
+      <c r="N717">
+        <v>1.8</v>
+      </c>
+      <c r="O717">
+        <v>3.75</v>
+      </c>
+      <c r="P717">
         <v>4.5</v>
       </c>
-      <c r="L717">
-        <v>4.2</v>
-      </c>
-      <c r="M717">
-        <v>1.65</v>
-      </c>
-      <c r="N717">
-        <v>4.2</v>
-      </c>
-      <c r="O717">
-        <v>3.8</v>
-      </c>
-      <c r="P717">
-        <v>1.75</v>
-      </c>
       <c r="Q717">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R717">
-        <v>1.86</v>
+        <v>1.975</v>
       </c>
       <c r="S717">
-        <v>2.04</v>
+        <v>1.875</v>
       </c>
       <c r="T717">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U717">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V717">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W717">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="X717">
         <v>-1</v>
@@ -64332,16 +64332,16 @@
         <v>-1</v>
       </c>
       <c r="Z717">
-        <v>0.8600000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA717">
         <v>-1</v>
       </c>
       <c r="AB717">
-        <v>0.425</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC717">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="718" spans="1:29">
@@ -64349,7 +64349,7 @@
         <v>716</v>
       </c>
       <c r="B718">
-        <v>6012013</v>
+        <v>6012008</v>
       </c>
       <c r="C718" t="s">
         <v>28</v>
@@ -64361,76 +64361,76 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F718" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G718" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H718">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I718">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J718" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K718">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="L718">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M718">
-        <v>2.625</v>
+        <v>1.65</v>
       </c>
       <c r="N718">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="O718">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P718">
-        <v>3.4</v>
+        <v>1.75</v>
       </c>
       <c r="Q718">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R718">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="S718">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="T718">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U718">
+        <v>1.85</v>
+      </c>
+      <c r="V718">
         <v>2</v>
       </c>
-      <c r="V718">
-        <v>1.85</v>
-      </c>
       <c r="W718">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X718">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y718">
         <v>-1</v>
       </c>
       <c r="Z718">
+        <v>0.8600000000000001</v>
+      </c>
+      <c r="AA718">
+        <v>-1</v>
+      </c>
+      <c r="AB718">
+        <v>0.425</v>
+      </c>
+      <c r="AC718">
         <v>-0.5</v>
-      </c>
-      <c r="AA718">
-        <v>0.5249999999999999</v>
-      </c>
-      <c r="AB718">
-        <v>-1</v>
-      </c>
-      <c r="AC718">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="719" spans="1:29">
@@ -64438,7 +64438,7 @@
         <v>717</v>
       </c>
       <c r="B719">
-        <v>6011534</v>
+        <v>6012013</v>
       </c>
       <c r="C719" t="s">
         <v>28</v>
@@ -64450,10 +64450,10 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F719" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G719" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H719">
         <v>1</v>
@@ -64465,61 +64465,61 @@
         <v>49</v>
       </c>
       <c r="K719">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="L719">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="M719">
-        <v>10</v>
+        <v>2.625</v>
       </c>
       <c r="N719">
-        <v>1.222</v>
+        <v>2.05</v>
       </c>
       <c r="O719">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="P719">
-        <v>11</v>
+        <v>3.4</v>
       </c>
       <c r="Q719">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R719">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S719">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T719">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U719">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V719">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W719">
         <v>-1</v>
       </c>
       <c r="X719">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="Y719">
         <v>-1</v>
       </c>
       <c r="Z719">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA719">
-        <v>0.8999999999999999</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB719">
         <v>-1</v>
       </c>
       <c r="AC719">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="720" spans="1:29">
@@ -64527,7 +64527,7 @@
         <v>718</v>
       </c>
       <c r="B720">
-        <v>6011940</v>
+        <v>6011534</v>
       </c>
       <c r="C720" t="s">
         <v>28</v>
@@ -64539,70 +64539,70 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F720" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G720" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H720">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I720">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J720" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K720">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="L720">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="M720">
-        <v>5.75</v>
+        <v>10</v>
       </c>
       <c r="N720">
-        <v>1.45</v>
+        <v>1.222</v>
       </c>
       <c r="O720">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P720">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Q720">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="R720">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="S720">
-        <v>2.01</v>
+        <v>1.9</v>
       </c>
       <c r="T720">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U720">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V720">
         <v>2</v>
       </c>
       <c r="W720">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X720">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y720">
         <v>-1</v>
       </c>
       <c r="Z720">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA720">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB720">
         <v>-1</v>

--- a/Norway Eliteserien/Norway Eliteserien.xlsx
+++ b/Norway Eliteserien/Norway Eliteserien.xlsx
@@ -27414,7 +27414,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>4568082</v>
+        <v>4567494</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27426,76 +27426,76 @@
         <v>44706.54166666666</v>
       </c>
       <c r="F303" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G303" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H303">
         <v>2</v>
       </c>
       <c r="I303">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J303" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K303">
-        <v>1.65</v>
+        <v>1.4</v>
       </c>
       <c r="L303">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M303">
+        <v>6.5</v>
+      </c>
+      <c r="N303">
+        <v>1.4</v>
+      </c>
+      <c r="O303">
         <v>5.25</v>
       </c>
-      <c r="N303">
-        <v>1.363</v>
-      </c>
-      <c r="O303">
-        <v>4.75</v>
-      </c>
       <c r="P303">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q303">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R303">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S303">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T303">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U303">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V303">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W303">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X303">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y303">
         <v>-1</v>
       </c>
       <c r="Z303">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA303">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB303">
-        <v>0.425</v>
+        <v>1.025</v>
       </c>
       <c r="AC303">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="304" spans="1:29">
@@ -27503,7 +27503,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>4567494</v>
+        <v>4568084</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27515,76 +27515,76 @@
         <v>44706.54166666666</v>
       </c>
       <c r="F304" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G304" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J304" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K304">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="L304">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="M304">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="N304">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="O304">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P304">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q304">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R304">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S304">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T304">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U304">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V304">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W304">
         <v>-1</v>
       </c>
       <c r="X304">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y304">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z304">
         <v>-1</v>
       </c>
       <c r="AA304">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB304">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC304">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="305" spans="1:29">
@@ -27592,7 +27592,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>4568085</v>
+        <v>4568082</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27604,76 +27604,76 @@
         <v>44706.54166666666</v>
       </c>
       <c r="F305" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G305" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I305">
         <v>1</v>
       </c>
       <c r="J305" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K305">
-        <v>1.4</v>
+        <v>1.65</v>
       </c>
       <c r="L305">
-        <v>4.6</v>
+        <v>3.75</v>
       </c>
       <c r="M305">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="N305">
-        <v>1.3</v>
+        <v>1.363</v>
       </c>
       <c r="O305">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="P305">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="Q305">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R305">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S305">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T305">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U305">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V305">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W305">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X305">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y305">
         <v>-1</v>
       </c>
       <c r="Z305">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA305">
-        <v>0.9750000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AB305">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC305">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="306" spans="1:29">
@@ -27681,7 +27681,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>4568084</v>
+        <v>4568085</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
@@ -27693,76 +27693,76 @@
         <v>44706.54166666666</v>
       </c>
       <c r="F306" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G306" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I306">
         <v>1</v>
       </c>
       <c r="J306" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K306">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="L306">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="M306">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="N306">
-        <v>1.85</v>
+        <v>1.3</v>
       </c>
       <c r="O306">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="P306">
-        <v>4</v>
+        <v>9.5</v>
       </c>
       <c r="Q306">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R306">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S306">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T306">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U306">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V306">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W306">
         <v>-1</v>
       </c>
       <c r="X306">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y306">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z306">
         <v>-1</v>
       </c>
       <c r="AA306">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB306">
         <v>-1</v>
       </c>
       <c r="AC306">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="307" spans="1:29">
@@ -28838,7 +28838,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>4568093</v>
+        <v>4568003</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28850,76 +28850,76 @@
         <v>44731.54166666666</v>
       </c>
       <c r="F319" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G319" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H319">
+        <v>3</v>
+      </c>
+      <c r="I319">
         <v>1</v>
       </c>
-      <c r="I319">
+      <c r="J319" t="s">
+        <v>48</v>
+      </c>
+      <c r="K319">
         <v>2</v>
       </c>
-      <c r="J319" t="s">
-        <v>50</v>
-      </c>
-      <c r="K319">
+      <c r="L319">
+        <v>3.3</v>
+      </c>
+      <c r="M319">
         <v>3.4</v>
       </c>
-      <c r="L319">
+      <c r="N319">
+        <v>2</v>
+      </c>
+      <c r="O319">
         <v>3.5</v>
       </c>
-      <c r="M319">
-        <v>1.95</v>
-      </c>
-      <c r="N319">
-        <v>3.1</v>
-      </c>
-      <c r="O319">
+      <c r="P319">
         <v>3.75</v>
       </c>
-      <c r="P319">
-        <v>2.1</v>
-      </c>
       <c r="Q319">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R319">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S319">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T319">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U319">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V319">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W319">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X319">
         <v>-1</v>
       </c>
       <c r="Y319">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z319">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA319">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB319">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC319">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="320" spans="1:29">
@@ -28927,7 +28927,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>4568003</v>
+        <v>4568092</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -28939,73 +28939,73 @@
         <v>44731.54166666666</v>
       </c>
       <c r="F320" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G320" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H320">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I320">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J320" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K320">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="L320">
         <v>3.3</v>
       </c>
       <c r="M320">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="N320">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="O320">
         <v>3.5</v>
       </c>
       <c r="P320">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q320">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R320">
+        <v>1.85</v>
+      </c>
+      <c r="S320">
         <v>2.05</v>
-      </c>
-      <c r="S320">
-        <v>1.8</v>
       </c>
       <c r="T320">
         <v>2.5</v>
       </c>
       <c r="U320">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V320">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W320">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X320">
         <v>-1</v>
       </c>
       <c r="Y320">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z320">
+        <v>-1</v>
+      </c>
+      <c r="AA320">
         <v>1.05</v>
       </c>
-      <c r="AA320">
-        <v>-1</v>
-      </c>
       <c r="AB320">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC320">
         <v>-1</v>
@@ -29016,7 +29016,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>4568092</v>
+        <v>4568094</v>
       </c>
       <c r="C321" t="s">
         <v>28</v>
@@ -29028,76 +29028,76 @@
         <v>44731.54166666666</v>
       </c>
       <c r="F321" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G321" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H321">
         <v>1</v>
       </c>
       <c r="I321">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J321" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K321">
-        <v>2.625</v>
+        <v>1.7</v>
       </c>
       <c r="L321">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M321">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="N321">
-        <v>3.5</v>
+        <v>1.666</v>
       </c>
       <c r="O321">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P321">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q321">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R321">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="S321">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="T321">
         <v>2.5</v>
       </c>
       <c r="U321">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V321">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W321">
         <v>-1</v>
       </c>
       <c r="X321">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y321">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z321">
         <v>-1</v>
       </c>
       <c r="AA321">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AB321">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC321">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:29">
@@ -29105,7 +29105,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>4568094</v>
+        <v>4568095</v>
       </c>
       <c r="C322" t="s">
         <v>28</v>
@@ -29117,76 +29117,76 @@
         <v>44731.54166666666</v>
       </c>
       <c r="F322" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G322" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H322">
         <v>1</v>
       </c>
       <c r="I322">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J322" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K322">
-        <v>1.7</v>
+        <v>1.333</v>
       </c>
       <c r="L322">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M322">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="N322">
-        <v>1.666</v>
+        <v>1.181</v>
       </c>
       <c r="O322">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="P322">
-        <v>4.75</v>
+        <v>12</v>
       </c>
       <c r="Q322">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R322">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="S322">
-        <v>2.03</v>
+        <v>2.06</v>
       </c>
       <c r="T322">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U322">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V322">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W322">
         <v>-1</v>
       </c>
       <c r="X322">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y322">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="Z322">
         <v>-1</v>
       </c>
       <c r="AA322">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="AB322">
         <v>-1</v>
       </c>
       <c r="AC322">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="323" spans="1:29">
@@ -29194,7 +29194,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>4568095</v>
+        <v>4568093</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29206,10 +29206,10 @@
         <v>44731.54166666666</v>
       </c>
       <c r="F323" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G323" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H323">
         <v>1</v>
@@ -29221,40 +29221,40 @@
         <v>50</v>
       </c>
       <c r="K323">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="L323">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="M323">
-        <v>8</v>
+        <v>1.95</v>
       </c>
       <c r="N323">
-        <v>1.181</v>
+        <v>3.1</v>
       </c>
       <c r="O323">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="P323">
-        <v>12</v>
+        <v>2.1</v>
       </c>
       <c r="Q323">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R323">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="S323">
-        <v>2.06</v>
+        <v>1.9</v>
       </c>
       <c r="T323">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U323">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V323">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W323">
         <v>-1</v>
@@ -29263,19 +29263,19 @@
         <v>-1</v>
       </c>
       <c r="Y323">
-        <v>11</v>
+        <v>1.1</v>
       </c>
       <c r="Z323">
         <v>-1</v>
       </c>
       <c r="AA323">
-        <v>1.06</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB323">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC323">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="324" spans="1:29">
@@ -33199,7 +33199,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>4568125</v>
+        <v>4568013</v>
       </c>
       <c r="C368" t="s">
         <v>28</v>
@@ -33211,76 +33211,76 @@
         <v>44773.4375</v>
       </c>
       <c r="F368" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G368" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H368">
+        <v>0</v>
+      </c>
+      <c r="I368">
+        <v>2</v>
+      </c>
+      <c r="J368" t="s">
+        <v>50</v>
+      </c>
+      <c r="K368">
+        <v>2.4</v>
+      </c>
+      <c r="L368">
+        <v>3.25</v>
+      </c>
+      <c r="M368">
+        <v>2.8</v>
+      </c>
+      <c r="N368">
+        <v>2.3</v>
+      </c>
+      <c r="O368">
+        <v>3.75</v>
+      </c>
+      <c r="P368">
+        <v>2.75</v>
+      </c>
+      <c r="Q368">
+        <v>-0.25</v>
+      </c>
+      <c r="R368">
+        <v>2</v>
+      </c>
+      <c r="S368">
+        <v>1.85</v>
+      </c>
+      <c r="T368">
         <v>3</v>
       </c>
-      <c r="I368">
-        <v>0</v>
-      </c>
-      <c r="J368" t="s">
-        <v>48</v>
-      </c>
-      <c r="K368">
-        <v>1.444</v>
-      </c>
-      <c r="L368">
-        <v>4.5</v>
-      </c>
-      <c r="M368">
-        <v>6.5</v>
-      </c>
-      <c r="N368">
-        <v>1.444</v>
-      </c>
-      <c r="O368">
-        <v>5.25</v>
-      </c>
-      <c r="P368">
-        <v>6.5</v>
-      </c>
-      <c r="Q368">
-        <v>-1.25</v>
-      </c>
-      <c r="R368">
+      <c r="U368">
+        <v>1.975</v>
+      </c>
+      <c r="V368">
         <v>1.875</v>
       </c>
-      <c r="S368">
-        <v>1.975</v>
-      </c>
-      <c r="T368">
-        <v>3.5</v>
-      </c>
-      <c r="U368">
-        <v>2</v>
-      </c>
-      <c r="V368">
-        <v>1.85</v>
-      </c>
       <c r="W368">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X368">
         <v>-1</v>
       </c>
       <c r="Y368">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z368">
+        <v>-1</v>
+      </c>
+      <c r="AA368">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB368">
+        <v>-1</v>
+      </c>
+      <c r="AC368">
         <v>0.875</v>
-      </c>
-      <c r="AA368">
-        <v>-1</v>
-      </c>
-      <c r="AB368">
-        <v>-1</v>
-      </c>
-      <c r="AC368">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="369" spans="1:29">
@@ -33288,7 +33288,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>4568013</v>
+        <v>4568125</v>
       </c>
       <c r="C369" t="s">
         <v>28</v>
@@ -33300,76 +33300,76 @@
         <v>44773.4375</v>
       </c>
       <c r="F369" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G369" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H369">
+        <v>3</v>
+      </c>
+      <c r="I369">
         <v>0</v>
       </c>
-      <c r="I369">
+      <c r="J369" t="s">
+        <v>48</v>
+      </c>
+      <c r="K369">
+        <v>1.444</v>
+      </c>
+      <c r="L369">
+        <v>4.5</v>
+      </c>
+      <c r="M369">
+        <v>6.5</v>
+      </c>
+      <c r="N369">
+        <v>1.444</v>
+      </c>
+      <c r="O369">
+        <v>5.25</v>
+      </c>
+      <c r="P369">
+        <v>6.5</v>
+      </c>
+      <c r="Q369">
+        <v>-1.25</v>
+      </c>
+      <c r="R369">
+        <v>1.875</v>
+      </c>
+      <c r="S369">
+        <v>1.975</v>
+      </c>
+      <c r="T369">
+        <v>3.5</v>
+      </c>
+      <c r="U369">
         <v>2</v>
       </c>
-      <c r="J369" t="s">
-        <v>50</v>
-      </c>
-      <c r="K369">
-        <v>2.4</v>
-      </c>
-      <c r="L369">
-        <v>3.25</v>
-      </c>
-      <c r="M369">
-        <v>2.8</v>
-      </c>
-      <c r="N369">
-        <v>2.3</v>
-      </c>
-      <c r="O369">
-        <v>3.75</v>
-      </c>
-      <c r="P369">
-        <v>2.75</v>
-      </c>
-      <c r="Q369">
-        <v>-0.25</v>
-      </c>
-      <c r="R369">
-        <v>2</v>
-      </c>
-      <c r="S369">
+      <c r="V369">
         <v>1.85</v>
       </c>
-      <c r="T369">
-        <v>3</v>
-      </c>
-      <c r="U369">
-        <v>1.975</v>
-      </c>
-      <c r="V369">
-        <v>1.875</v>
-      </c>
       <c r="W369">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X369">
         <v>-1</v>
       </c>
       <c r="Y369">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z369">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA369">
+        <v>-1</v>
+      </c>
+      <c r="AB369">
+        <v>-1</v>
+      </c>
+      <c r="AC369">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB369">
-        <v>-1</v>
-      </c>
-      <c r="AC369">
-        <v>0.875</v>
       </c>
     </row>
     <row r="370" spans="1:29">
@@ -36492,7 +36492,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>4568150</v>
+        <v>4568151</v>
       </c>
       <c r="C405" t="s">
         <v>28</v>
@@ -36504,76 +36504,76 @@
         <v>44808.54166666666</v>
       </c>
       <c r="F405" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G405" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H405">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I405">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J405" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K405">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="L405">
         <v>3.5</v>
       </c>
       <c r="M405">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N405">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="O405">
         <v>4</v>
       </c>
       <c r="P405">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q405">
         <v>-0.75</v>
       </c>
       <c r="R405">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S405">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T405">
         <v>3</v>
       </c>
       <c r="U405">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V405">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W405">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X405">
         <v>-1</v>
       </c>
       <c r="Y405">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z405">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA405">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB405">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC405">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="406" spans="1:29">
@@ -36581,7 +36581,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>4568151</v>
+        <v>4568150</v>
       </c>
       <c r="C406" t="s">
         <v>28</v>
@@ -36593,76 +36593,76 @@
         <v>44808.54166666666</v>
       </c>
       <c r="F406" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G406" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H406">
+        <v>3</v>
+      </c>
+      <c r="I406">
         <v>1</v>
       </c>
-      <c r="I406">
-        <v>2</v>
-      </c>
       <c r="J406" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K406">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L406">
         <v>3.5</v>
       </c>
       <c r="M406">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="N406">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="O406">
         <v>4</v>
       </c>
       <c r="P406">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q406">
         <v>-0.75</v>
       </c>
       <c r="R406">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S406">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T406">
         <v>3</v>
       </c>
       <c r="U406">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V406">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W406">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X406">
         <v>-1</v>
       </c>
       <c r="Y406">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z406">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA406">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB406">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC406">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="407" spans="1:29">
@@ -36670,7 +36670,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>4568152</v>
+        <v>4568023</v>
       </c>
       <c r="C407" t="s">
         <v>28</v>
@@ -36682,10 +36682,10 @@
         <v>44808.54166666666</v>
       </c>
       <c r="F407" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G407" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H407">
         <v>2</v>
@@ -36697,43 +36697,43 @@
         <v>48</v>
       </c>
       <c r="K407">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="L407">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M407">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="N407">
-        <v>1.363</v>
+        <v>1.666</v>
       </c>
       <c r="O407">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P407">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q407">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R407">
+        <v>1.9</v>
+      </c>
+      <c r="S407">
+        <v>1.95</v>
+      </c>
+      <c r="T407">
+        <v>3</v>
+      </c>
+      <c r="U407">
         <v>1.975</v>
       </c>
-      <c r="S407">
+      <c r="V407">
         <v>1.875</v>
       </c>
-      <c r="T407">
-        <v>3.25</v>
-      </c>
-      <c r="U407">
-        <v>1.9</v>
-      </c>
-      <c r="V407">
-        <v>1.95</v>
-      </c>
       <c r="W407">
-        <v>0.363</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X407">
         <v>-1</v>
@@ -36742,16 +36742,16 @@
         <v>-1</v>
       </c>
       <c r="Z407">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA407">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB407">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC407">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="408" spans="1:29">
@@ -36759,7 +36759,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>4568023</v>
+        <v>4568152</v>
       </c>
       <c r="C408" t="s">
         <v>28</v>
@@ -36771,10 +36771,10 @@
         <v>44808.54166666666</v>
       </c>
       <c r="F408" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G408" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H408">
         <v>2</v>
@@ -36786,43 +36786,43 @@
         <v>48</v>
       </c>
       <c r="K408">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="L408">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M408">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="N408">
-        <v>1.666</v>
+        <v>1.363</v>
       </c>
       <c r="O408">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P408">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q408">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R408">
+        <v>1.975</v>
+      </c>
+      <c r="S408">
+        <v>1.875</v>
+      </c>
+      <c r="T408">
+        <v>3.25</v>
+      </c>
+      <c r="U408">
         <v>1.9</v>
       </c>
-      <c r="S408">
+      <c r="V408">
         <v>1.95</v>
       </c>
-      <c r="T408">
-        <v>3</v>
-      </c>
-      <c r="U408">
-        <v>1.975</v>
-      </c>
-      <c r="V408">
-        <v>1.875</v>
-      </c>
       <c r="W408">
-        <v>0.6659999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X408">
         <v>-1</v>
@@ -36831,16 +36831,16 @@
         <v>-1</v>
       </c>
       <c r="Z408">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA408">
+        <v>0.875</v>
+      </c>
+      <c r="AB408">
         <v>-0.5</v>
       </c>
-      <c r="AB408">
-        <v>0</v>
-      </c>
       <c r="AC408">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="409" spans="1:29">
@@ -40942,7 +40942,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>4568181</v>
+        <v>4568179</v>
       </c>
       <c r="C455" t="s">
         <v>28</v>
@@ -40954,40 +40954,40 @@
         <v>44857.5</v>
       </c>
       <c r="F455" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G455" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H455">
+        <v>1</v>
+      </c>
+      <c r="I455">
         <v>0</v>
       </c>
-      <c r="I455">
-        <v>1</v>
-      </c>
       <c r="J455" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K455">
-        <v>3.1</v>
+        <v>1.615</v>
       </c>
       <c r="L455">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M455">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="N455">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="O455">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P455">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q455">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R455">
         <v>1.8</v>
@@ -40999,31 +40999,31 @@
         <v>2.75</v>
       </c>
       <c r="U455">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V455">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W455">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X455">
         <v>-1</v>
       </c>
       <c r="Y455">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z455">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA455">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB455">
         <v>-1</v>
       </c>
       <c r="AC455">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="456" spans="1:29">
@@ -41031,7 +41031,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>4568179</v>
+        <v>4568181</v>
       </c>
       <c r="C456" t="s">
         <v>28</v>
@@ -41043,40 +41043,40 @@
         <v>44857.5</v>
       </c>
       <c r="F456" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G456" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H456">
+        <v>0</v>
+      </c>
+      <c r="I456">
         <v>1</v>
       </c>
-      <c r="I456">
-        <v>0</v>
-      </c>
       <c r="J456" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K456">
-        <v>1.615</v>
+        <v>3.1</v>
       </c>
       <c r="L456">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M456">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="N456">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="O456">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P456">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="Q456">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R456">
         <v>1.8</v>
@@ -41088,31 +41088,31 @@
         <v>2.75</v>
       </c>
       <c r="U456">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V456">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W456">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X456">
         <v>-1</v>
       </c>
       <c r="Y456">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z456">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA456">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB456">
         <v>-1</v>
       </c>
       <c r="AC456">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="457" spans="1:29">
@@ -42633,7 +42633,7 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>4779385</v>
+        <v>4568040</v>
       </c>
       <c r="C474" t="s">
         <v>28</v>
@@ -42645,76 +42645,76 @@
         <v>44878.54166666666</v>
       </c>
       <c r="F474" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G474" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H474">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I474">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J474" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K474">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="L474">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M474">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N474">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="O474">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P474">
-        <v>3.3</v>
+        <v>5.75</v>
       </c>
       <c r="Q474">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R474">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S474">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T474">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U474">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V474">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W474">
         <v>-1</v>
       </c>
       <c r="X474">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y474">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z474">
         <v>-1</v>
       </c>
       <c r="AA474">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB474">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC474">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="475" spans="1:29">
@@ -42722,7 +42722,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>4568040</v>
+        <v>4779385</v>
       </c>
       <c r="C475" t="s">
         <v>28</v>
@@ -42734,76 +42734,76 @@
         <v>44878.54166666666</v>
       </c>
       <c r="F475" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G475" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I475">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J475" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K475">
-        <v>1.45</v>
+        <v>1.7</v>
       </c>
       <c r="L475">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M475">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="N475">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="O475">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P475">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q475">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R475">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S475">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T475">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U475">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V475">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W475">
         <v>-1</v>
       </c>
       <c r="X475">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y475">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z475">
         <v>-1</v>
       </c>
       <c r="AA475">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB475">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC475">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="476" spans="1:29">
@@ -42811,7 +42811,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>4779384</v>
+        <v>4568196</v>
       </c>
       <c r="C476" t="s">
         <v>28</v>
@@ -42823,76 +42823,76 @@
         <v>44878.54166666666</v>
       </c>
       <c r="F476" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G476" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="H476">
+        <v>1</v>
+      </c>
+      <c r="I476">
+        <v>1</v>
+      </c>
+      <c r="J476" t="s">
+        <v>49</v>
+      </c>
+      <c r="K476">
+        <v>1.3</v>
+      </c>
+      <c r="L476">
+        <v>5.75</v>
+      </c>
+      <c r="M476">
+        <v>7.5</v>
+      </c>
+      <c r="N476">
+        <v>1.25</v>
+      </c>
+      <c r="O476">
+        <v>7</v>
+      </c>
+      <c r="P476">
+        <v>9.5</v>
+      </c>
+      <c r="Q476">
+        <v>-2</v>
+      </c>
+      <c r="R476">
+        <v>2.03</v>
+      </c>
+      <c r="S476">
+        <v>1.87</v>
+      </c>
+      <c r="T476">
+        <v>3.75</v>
+      </c>
+      <c r="U476">
+        <v>1.85</v>
+      </c>
+      <c r="V476">
         <v>2</v>
       </c>
-      <c r="I476">
-        <v>4</v>
-      </c>
-      <c r="J476" t="s">
-        <v>50</v>
-      </c>
-      <c r="K476">
-        <v>5.5</v>
-      </c>
-      <c r="L476">
-        <v>5</v>
-      </c>
-      <c r="M476">
-        <v>1.45</v>
-      </c>
-      <c r="N476">
-        <v>4</v>
-      </c>
-      <c r="O476">
-        <v>5</v>
-      </c>
-      <c r="P476">
-        <v>1.666</v>
-      </c>
-      <c r="Q476">
+      <c r="W476">
+        <v>-1</v>
+      </c>
+      <c r="X476">
+        <v>6</v>
+      </c>
+      <c r="Y476">
+        <v>-1</v>
+      </c>
+      <c r="Z476">
+        <v>-1</v>
+      </c>
+      <c r="AA476">
+        <v>0.8700000000000001</v>
+      </c>
+      <c r="AB476">
+        <v>-1</v>
+      </c>
+      <c r="AC476">
         <v>1</v>
-      </c>
-      <c r="R476">
-        <v>1.87</v>
-      </c>
-      <c r="S476">
-        <v>2.03</v>
-      </c>
-      <c r="T476">
-        <v>4</v>
-      </c>
-      <c r="U476">
-        <v>1.975</v>
-      </c>
-      <c r="V476">
-        <v>1.875</v>
-      </c>
-      <c r="W476">
-        <v>-1</v>
-      </c>
-      <c r="X476">
-        <v>-1</v>
-      </c>
-      <c r="Y476">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="Z476">
-        <v>-1</v>
-      </c>
-      <c r="AA476">
-        <v>1.03</v>
-      </c>
-      <c r="AB476">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC476">
-        <v>-1</v>
       </c>
     </row>
     <row r="477" spans="1:29">
@@ -42989,7 +42989,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>4568198</v>
+        <v>4568199</v>
       </c>
       <c r="C478" t="s">
         <v>28</v>
@@ -43001,10 +43001,10 @@
         <v>44878.54166666666</v>
       </c>
       <c r="F478" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G478" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H478">
         <v>2</v>
@@ -43016,46 +43016,46 @@
         <v>49</v>
       </c>
       <c r="K478">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="L478">
         <v>4</v>
       </c>
       <c r="M478">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="N478">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="O478">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P478">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q478">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R478">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S478">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T478">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U478">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V478">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W478">
         <v>-1</v>
       </c>
       <c r="X478">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Y478">
         <v>-1</v>
@@ -43064,10 +43064,10 @@
         <v>-1</v>
       </c>
       <c r="AA478">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB478">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC478">
         <v>-1</v>
@@ -43078,7 +43078,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>4568199</v>
+        <v>4568198</v>
       </c>
       <c r="C479" t="s">
         <v>28</v>
@@ -43090,10 +43090,10 @@
         <v>44878.54166666666</v>
       </c>
       <c r="F479" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G479" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H479">
         <v>2</v>
@@ -43105,46 +43105,46 @@
         <v>49</v>
       </c>
       <c r="K479">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="L479">
         <v>4</v>
       </c>
       <c r="M479">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="N479">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="O479">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P479">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q479">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R479">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S479">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T479">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U479">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V479">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W479">
         <v>-1</v>
       </c>
       <c r="X479">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Y479">
         <v>-1</v>
@@ -43153,10 +43153,10 @@
         <v>-1</v>
       </c>
       <c r="AA479">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB479">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC479">
         <v>-1</v>
@@ -43167,7 +43167,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>4568200</v>
+        <v>4779384</v>
       </c>
       <c r="C480" t="s">
         <v>28</v>
@@ -43179,49 +43179,49 @@
         <v>44878.54166666666</v>
       </c>
       <c r="F480" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G480" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H480">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I480">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J480" t="s">
         <v>50</v>
       </c>
       <c r="K480">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="L480">
+        <v>5</v>
+      </c>
+      <c r="M480">
+        <v>1.45</v>
+      </c>
+      <c r="N480">
         <v>4</v>
       </c>
-      <c r="M480">
-        <v>2.2</v>
-      </c>
-      <c r="N480">
-        <v>2.8</v>
-      </c>
       <c r="O480">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P480">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="Q480">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R480">
-        <v>1.875</v>
+        <v>1.87</v>
       </c>
       <c r="S480">
-        <v>1.975</v>
+        <v>2.03</v>
       </c>
       <c r="T480">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U480">
         <v>1.975</v>
@@ -43236,19 +43236,19 @@
         <v>-1</v>
       </c>
       <c r="Y480">
-        <v>1.15</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z480">
         <v>-1</v>
       </c>
       <c r="AA480">
+        <v>1.03</v>
+      </c>
+      <c r="AB480">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB480">
-        <v>-1</v>
-      </c>
       <c r="AC480">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="481" spans="1:29">
@@ -43256,7 +43256,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>4568196</v>
+        <v>4568200</v>
       </c>
       <c r="C481" t="s">
         <v>28</v>
@@ -43268,76 +43268,76 @@
         <v>44878.54166666666</v>
       </c>
       <c r="F481" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G481" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H481">
         <v>1</v>
       </c>
       <c r="I481">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J481" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K481">
-        <v>1.3</v>
+        <v>2.75</v>
       </c>
       <c r="L481">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="M481">
-        <v>7.5</v>
+        <v>2.2</v>
       </c>
       <c r="N481">
-        <v>1.25</v>
+        <v>2.8</v>
       </c>
       <c r="O481">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="P481">
-        <v>9.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q481">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R481">
-        <v>2.03</v>
+        <v>1.875</v>
       </c>
       <c r="S481">
-        <v>1.87</v>
+        <v>1.975</v>
       </c>
       <c r="T481">
         <v>3.75</v>
       </c>
       <c r="U481">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V481">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W481">
         <v>-1</v>
       </c>
       <c r="X481">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y481">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z481">
         <v>-1</v>
       </c>
       <c r="AA481">
-        <v>0.8700000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB481">
         <v>-1</v>
       </c>
       <c r="AC481">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="482" spans="1:29">
@@ -43612,7 +43612,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>6008761</v>
+        <v>6011457</v>
       </c>
       <c r="C485" t="s">
         <v>28</v>
@@ -43624,49 +43624,49 @@
         <v>45026.5</v>
       </c>
       <c r="F485" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G485" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H485">
+        <v>0</v>
+      </c>
+      <c r="I485">
         <v>1</v>
       </c>
-      <c r="I485">
-        <v>0</v>
-      </c>
       <c r="J485" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K485">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="L485">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M485">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="N485">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="O485">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P485">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="Q485">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R485">
-        <v>2.04</v>
+        <v>1.83</v>
       </c>
       <c r="S485">
-        <v>1.86</v>
+        <v>2.07</v>
       </c>
       <c r="T485">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U485">
         <v>2.05</v>
@@ -43675,19 +43675,19 @@
         <v>1.8</v>
       </c>
       <c r="W485">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X485">
         <v>-1</v>
       </c>
       <c r="Y485">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z485">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
       <c r="AA485">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AB485">
         <v>-1</v>
@@ -43701,7 +43701,7 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>6011457</v>
+        <v>6011458</v>
       </c>
       <c r="C486" t="s">
         <v>28</v>
@@ -43713,76 +43713,76 @@
         <v>45026.5</v>
       </c>
       <c r="F486" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G486" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H486">
+        <v>2</v>
+      </c>
+      <c r="I486">
         <v>0</v>
       </c>
-      <c r="I486">
-        <v>1</v>
-      </c>
       <c r="J486" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K486">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="L486">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M486">
-        <v>2.2</v>
+        <v>3.9</v>
       </c>
       <c r="N486">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="O486">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P486">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="Q486">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R486">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="S486">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="T486">
         <v>2.5</v>
       </c>
       <c r="U486">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V486">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W486">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X486">
         <v>-1</v>
       </c>
       <c r="Y486">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z486">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA486">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AB486">
         <v>-1</v>
       </c>
       <c r="AC486">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="487" spans="1:29">
@@ -43790,7 +43790,7 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>6011458</v>
+        <v>6008761</v>
       </c>
       <c r="C487" t="s">
         <v>28</v>
@@ -43802,13 +43802,13 @@
         <v>45026.5</v>
       </c>
       <c r="F487" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G487" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I487">
         <v>0</v>
@@ -43817,43 +43817,43 @@
         <v>48</v>
       </c>
       <c r="K487">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="L487">
         <v>3.6</v>
       </c>
       <c r="M487">
-        <v>3.9</v>
+        <v>2.05</v>
       </c>
       <c r="N487">
-        <v>1.85</v>
+        <v>4.2</v>
       </c>
       <c r="O487">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P487">
-        <v>4.2</v>
+        <v>1.833</v>
       </c>
       <c r="Q487">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R487">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="S487">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="T487">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U487">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V487">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W487">
-        <v>0.8500000000000001</v>
+        <v>3.2</v>
       </c>
       <c r="X487">
         <v>-1</v>
@@ -43862,7 +43862,7 @@
         <v>-1</v>
       </c>
       <c r="Z487">
-        <v>0.8999999999999999</v>
+        <v>1.04</v>
       </c>
       <c r="AA487">
         <v>-1</v>
@@ -43871,7 +43871,7 @@
         <v>-1</v>
       </c>
       <c r="AC487">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="488" spans="1:29">
@@ -47884,7 +47884,7 @@
         <v>531</v>
       </c>
       <c r="B533">
-        <v>6008601</v>
+        <v>6008767</v>
       </c>
       <c r="C533" t="s">
         <v>28</v>
@@ -47896,73 +47896,73 @@
         <v>45062.54166666666</v>
       </c>
       <c r="F533" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G533" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I533">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J533" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K533">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="L533">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M533">
-        <v>1.666</v>
+        <v>1.55</v>
       </c>
       <c r="N533">
         <v>5</v>
       </c>
       <c r="O533">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P533">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="Q533">
         <v>0.75</v>
       </c>
       <c r="R533">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S533">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T533">
         <v>2.5</v>
       </c>
       <c r="U533">
+        <v>2</v>
+      </c>
+      <c r="V533">
         <v>1.85</v>
       </c>
-      <c r="V533">
-        <v>2</v>
-      </c>
       <c r="W533">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="X533">
         <v>-1</v>
       </c>
       <c r="Y533">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z533">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA533">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB533">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC533">
         <v>-1</v>
@@ -47973,7 +47973,7 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>6008767</v>
+        <v>6008601</v>
       </c>
       <c r="C534" t="s">
         <v>28</v>
@@ -47985,73 +47985,73 @@
         <v>45062.54166666666</v>
       </c>
       <c r="F534" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G534" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H534">
+        <v>2</v>
+      </c>
+      <c r="I534">
         <v>3</v>
       </c>
-      <c r="I534">
-        <v>1</v>
-      </c>
       <c r="J534" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K534">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="L534">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M534">
-        <v>1.55</v>
+        <v>1.666</v>
       </c>
       <c r="N534">
         <v>5</v>
       </c>
       <c r="O534">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P534">
-        <v>1.666</v>
+        <v>1.615</v>
       </c>
       <c r="Q534">
         <v>0.75</v>
       </c>
       <c r="R534">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S534">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T534">
         <v>2.5</v>
       </c>
       <c r="U534">
+        <v>1.85</v>
+      </c>
+      <c r="V534">
         <v>2</v>
       </c>
-      <c r="V534">
-        <v>1.85</v>
-      </c>
       <c r="W534">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="X534">
         <v>-1</v>
       </c>
       <c r="Y534">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z534">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA534">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB534">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC534">
         <v>-1</v>
@@ -48062,7 +48062,7 @@
         <v>533</v>
       </c>
       <c r="B535">
-        <v>6011475</v>
+        <v>6011389</v>
       </c>
       <c r="C535" t="s">
         <v>28</v>
@@ -48074,58 +48074,58 @@
         <v>45062.54166666666</v>
       </c>
       <c r="F535" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G535" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H535">
         <v>3</v>
       </c>
       <c r="I535">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J535" t="s">
         <v>48</v>
       </c>
       <c r="K535">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="L535">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M535">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N535">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="O535">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P535">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="Q535">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R535">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S535">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T535">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U535">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V535">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W535">
-        <v>0.75</v>
+        <v>0.615</v>
       </c>
       <c r="X535">
         <v>-1</v>
@@ -48134,16 +48134,16 @@
         <v>-1</v>
       </c>
       <c r="Z535">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA535">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB535">
-        <v>0.4625</v>
+        <v>1.025</v>
       </c>
       <c r="AC535">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="536" spans="1:29">
@@ -48151,7 +48151,7 @@
         <v>534</v>
       </c>
       <c r="B536">
-        <v>6011473</v>
+        <v>6011474</v>
       </c>
       <c r="C536" t="s">
         <v>28</v>
@@ -48163,10 +48163,10 @@
         <v>45062.54166666666</v>
       </c>
       <c r="F536" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G536" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H536">
         <v>1</v>
@@ -48178,43 +48178,43 @@
         <v>48</v>
       </c>
       <c r="K536">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="L536">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M536">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="N536">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O536">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P536">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q536">
         <v>-0.75</v>
       </c>
       <c r="R536">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S536">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T536">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U536">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V536">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W536">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="X536">
         <v>-1</v>
@@ -48223,7 +48223,7 @@
         <v>-1</v>
       </c>
       <c r="Z536">
-        <v>0.4625</v>
+        <v>0.5125</v>
       </c>
       <c r="AA536">
         <v>-0.5</v>
@@ -48232,7 +48232,7 @@
         <v>-1</v>
       </c>
       <c r="AC536">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="537" spans="1:29">
@@ -48240,7 +48240,7 @@
         <v>535</v>
       </c>
       <c r="B537">
-        <v>6011389</v>
+        <v>6011473</v>
       </c>
       <c r="C537" t="s">
         <v>28</v>
@@ -48252,58 +48252,58 @@
         <v>45062.54166666666</v>
       </c>
       <c r="F537" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G537" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H537">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I537">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J537" t="s">
         <v>48</v>
       </c>
       <c r="K537">
+        <v>1.571</v>
+      </c>
+      <c r="L537">
+        <v>3.8</v>
+      </c>
+      <c r="M537">
+        <v>5.25</v>
+      </c>
+      <c r="N537">
         <v>1.7</v>
       </c>
-      <c r="L537">
-        <v>3.6</v>
-      </c>
-      <c r="M537">
-        <v>4.2</v>
-      </c>
-      <c r="N537">
-        <v>1.615</v>
-      </c>
       <c r="O537">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P537">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="Q537">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R537">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S537">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T537">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U537">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V537">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W537">
-        <v>0.615</v>
+        <v>0.7</v>
       </c>
       <c r="X537">
         <v>-1</v>
@@ -48312,16 +48312,16 @@
         <v>-1</v>
       </c>
       <c r="Z537">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AA537">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB537">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC537">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="538" spans="1:29">
@@ -48507,7 +48507,7 @@
         <v>538</v>
       </c>
       <c r="B540">
-        <v>6011474</v>
+        <v>6011475</v>
       </c>
       <c r="C540" t="s">
         <v>28</v>
@@ -48519,13 +48519,13 @@
         <v>45062.54166666666</v>
       </c>
       <c r="F540" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G540" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H540">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I540">
         <v>0</v>
@@ -48534,40 +48534,40 @@
         <v>48</v>
       </c>
       <c r="K540">
-        <v>1.75</v>
+        <v>1.666</v>
       </c>
       <c r="L540">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M540">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N540">
         <v>1.75</v>
       </c>
       <c r="O540">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P540">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q540">
         <v>-0.75</v>
       </c>
       <c r="R540">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S540">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T540">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U540">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V540">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W540">
         <v>0.75</v>
@@ -48579,16 +48579,16 @@
         <v>-1</v>
       </c>
       <c r="Z540">
-        <v>0.5125</v>
+        <v>1</v>
       </c>
       <c r="AA540">
+        <v>-1</v>
+      </c>
+      <c r="AB540">
+        <v>0.4625</v>
+      </c>
+      <c r="AC540">
         <v>-0.5</v>
-      </c>
-      <c r="AB540">
-        <v>-1</v>
-      </c>
-      <c r="AC540">
-        <v>0.825</v>
       </c>
     </row>
     <row r="541" spans="1:29">
@@ -48952,7 +48952,7 @@
         <v>543</v>
       </c>
       <c r="B545">
-        <v>6008768</v>
+        <v>6008602</v>
       </c>
       <c r="C545" t="s">
         <v>28</v>
@@ -48964,58 +48964,58 @@
         <v>45075.5</v>
       </c>
       <c r="F545" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G545" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H545">
         <v>5</v>
       </c>
       <c r="I545">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J545" t="s">
         <v>48</v>
       </c>
       <c r="K545">
-        <v>1.2</v>
+        <v>1.363</v>
       </c>
       <c r="L545">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="M545">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="N545">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="O545">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="P545">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="Q545">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="R545">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="S545">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="T545">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U545">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V545">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W545">
-        <v>0.2</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X545">
         <v>-1</v>
@@ -49024,13 +49024,13 @@
         <v>-1</v>
       </c>
       <c r="Z545">
-        <v>0.8999999999999999</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA545">
         <v>-1</v>
       </c>
       <c r="AB545">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC545">
         <v>-1</v>
@@ -49041,7 +49041,7 @@
         <v>544</v>
       </c>
       <c r="B546">
-        <v>6008602</v>
+        <v>6008768</v>
       </c>
       <c r="C546" t="s">
         <v>28</v>
@@ -49053,58 +49053,58 @@
         <v>45075.5</v>
       </c>
       <c r="F546" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G546" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H546">
         <v>5</v>
       </c>
       <c r="I546">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J546" t="s">
         <v>48</v>
       </c>
       <c r="K546">
-        <v>1.363</v>
+        <v>1.2</v>
       </c>
       <c r="L546">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="M546">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="N546">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="O546">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="P546">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="Q546">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="R546">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="S546">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="T546">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U546">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V546">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W546">
-        <v>0.3999999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="X546">
         <v>-1</v>
@@ -49113,13 +49113,13 @@
         <v>-1</v>
       </c>
       <c r="Z546">
-        <v>0.8899999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA546">
         <v>-1</v>
       </c>
       <c r="AB546">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC546">
         <v>-1</v>
@@ -51355,7 +51355,7 @@
         <v>570</v>
       </c>
       <c r="B572">
-        <v>6011400</v>
+        <v>6011399</v>
       </c>
       <c r="C572" t="s">
         <v>28</v>
@@ -51367,76 +51367,76 @@
         <v>45109.5</v>
       </c>
       <c r="F572" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G572" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572">
         <v>1</v>
       </c>
       <c r="J572" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K572">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="L572">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M572">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="N572">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="O572">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P572">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q572">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R572">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S572">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T572">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U572">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V572">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W572">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X572">
         <v>-1</v>
       </c>
       <c r="Y572">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z572">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA572">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB572">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC572">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="573" spans="1:29">
@@ -51444,7 +51444,7 @@
         <v>571</v>
       </c>
       <c r="B573">
-        <v>6011399</v>
+        <v>6011400</v>
       </c>
       <c r="C573" t="s">
         <v>28</v>
@@ -51456,76 +51456,76 @@
         <v>45109.5</v>
       </c>
       <c r="F573" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G573" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H573">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573">
         <v>1</v>
       </c>
       <c r="J573" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K573">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="L573">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="M573">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="N573">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="O573">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P573">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q573">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R573">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S573">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T573">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U573">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V573">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W573">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X573">
         <v>-1</v>
       </c>
       <c r="Y573">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z573">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA573">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB573">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC573">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="574" spans="1:29">
@@ -51533,7 +51533,7 @@
         <v>572</v>
       </c>
       <c r="B574">
-        <v>6011486</v>
+        <v>6011485</v>
       </c>
       <c r="C574" t="s">
         <v>28</v>
@@ -51545,13 +51545,13 @@
         <v>45109.5</v>
       </c>
       <c r="F574" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G574" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H574">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I574">
         <v>1</v>
@@ -51560,40 +51560,40 @@
         <v>48</v>
       </c>
       <c r="K574">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="L574">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="M574">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N574">
         <v>1.333</v>
       </c>
       <c r="O574">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="P574">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q574">
         <v>-1.5</v>
       </c>
       <c r="R574">
+        <v>1.925</v>
+      </c>
+      <c r="S574">
+        <v>1.925</v>
+      </c>
+      <c r="T574">
+        <v>3.25</v>
+      </c>
+      <c r="U574">
         <v>1.875</v>
       </c>
-      <c r="S574">
+      <c r="V574">
         <v>1.975</v>
-      </c>
-      <c r="T574">
-        <v>3.5</v>
-      </c>
-      <c r="U574">
-        <v>1.825</v>
-      </c>
-      <c r="V574">
-        <v>2.025</v>
       </c>
       <c r="W574">
         <v>0.333</v>
@@ -51605,16 +51605,16 @@
         <v>-1</v>
       </c>
       <c r="Z574">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA574">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB574">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC574">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="575" spans="1:29">
@@ -51622,7 +51622,7 @@
         <v>573</v>
       </c>
       <c r="B575">
-        <v>6011485</v>
+        <v>6011486</v>
       </c>
       <c r="C575" t="s">
         <v>28</v>
@@ -51634,13 +51634,13 @@
         <v>45109.5</v>
       </c>
       <c r="F575" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G575" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H575">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I575">
         <v>1</v>
@@ -51649,40 +51649,40 @@
         <v>48</v>
       </c>
       <c r="K575">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="L575">
+        <v>4.5</v>
+      </c>
+      <c r="M575">
         <v>6</v>
-      </c>
-      <c r="M575">
-        <v>10</v>
       </c>
       <c r="N575">
         <v>1.333</v>
       </c>
       <c r="O575">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="P575">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q575">
         <v>-1.5</v>
       </c>
       <c r="R575">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S575">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T575">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U575">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V575">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W575">
         <v>0.333</v>
@@ -51694,16 +51694,16 @@
         <v>-1</v>
       </c>
       <c r="Z575">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA575">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB575">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC575">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="576" spans="1:29">
@@ -52779,7 +52779,7 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>6011490</v>
+        <v>6011988</v>
       </c>
       <c r="C588" t="s">
         <v>28</v>
@@ -52791,76 +52791,76 @@
         <v>45123.5</v>
       </c>
       <c r="F588" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G588" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H588">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I588">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J588" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K588">
-        <v>1.333</v>
+        <v>3.1</v>
       </c>
       <c r="L588">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M588">
-        <v>7.5</v>
+        <v>2.2</v>
       </c>
       <c r="N588">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="O588">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P588">
-        <v>7.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q588">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R588">
-        <v>1.925</v>
+        <v>1.78</v>
       </c>
       <c r="S588">
-        <v>1.925</v>
+        <v>2.125</v>
       </c>
       <c r="T588">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U588">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V588">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W588">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X588">
         <v>-1</v>
       </c>
       <c r="Y588">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z588">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA588">
-        <v>-1</v>
+        <v>1.125</v>
       </c>
       <c r="AB588">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC588">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="589" spans="1:29">
@@ -52868,7 +52868,7 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>6011988</v>
+        <v>6011490</v>
       </c>
       <c r="C589" t="s">
         <v>28</v>
@@ -52880,76 +52880,76 @@
         <v>45123.5</v>
       </c>
       <c r="F589" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G589" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I589">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J589" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K589">
-        <v>3.1</v>
+        <v>1.333</v>
       </c>
       <c r="L589">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M589">
-        <v>2.2</v>
+        <v>7.5</v>
       </c>
       <c r="N589">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="O589">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="P589">
-        <v>2.375</v>
+        <v>7.5</v>
       </c>
       <c r="Q589">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R589">
-        <v>1.78</v>
+        <v>1.925</v>
       </c>
       <c r="S589">
-        <v>2.125</v>
+        <v>1.925</v>
       </c>
       <c r="T589">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U589">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V589">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W589">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X589">
         <v>-1</v>
       </c>
       <c r="Y589">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z589">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA589">
-        <v>1.125</v>
+        <v>-1</v>
       </c>
       <c r="AB589">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC589">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="590" spans="1:29">
@@ -53046,7 +53046,7 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <v>6011402</v>
+        <v>6008608</v>
       </c>
       <c r="C591" t="s">
         <v>28</v>
@@ -53058,76 +53058,76 @@
         <v>45123.5</v>
       </c>
       <c r="F591" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G591" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J591" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K591">
-        <v>2.3</v>
+        <v>1.181</v>
       </c>
       <c r="L591">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="M591">
-        <v>3.1</v>
+        <v>11</v>
       </c>
       <c r="N591">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="O591">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="P591">
-        <v>3.3</v>
+        <v>11</v>
       </c>
       <c r="Q591">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R591">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S591">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T591">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="U591">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V591">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W591">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X591">
         <v>-1</v>
       </c>
       <c r="Y591">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z591">
         <v>-1</v>
       </c>
       <c r="AA591">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AB591">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC591">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="592" spans="1:29">
@@ -53224,7 +53224,7 @@
         <v>591</v>
       </c>
       <c r="B593">
-        <v>6008608</v>
+        <v>6011402</v>
       </c>
       <c r="C593" t="s">
         <v>28</v>
@@ -53236,76 +53236,76 @@
         <v>45123.5</v>
       </c>
       <c r="F593" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G593" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H593">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J593" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K593">
-        <v>1.181</v>
+        <v>2.3</v>
       </c>
       <c r="L593">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="M593">
-        <v>11</v>
+        <v>3.1</v>
       </c>
       <c r="N593">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="O593">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="P593">
-        <v>11</v>
+        <v>3.3</v>
       </c>
       <c r="Q593">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R593">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S593">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T593">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="U593">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V593">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W593">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X593">
         <v>-1</v>
       </c>
       <c r="Y593">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z593">
         <v>-1</v>
       </c>
       <c r="AA593">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AB593">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC593">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="594" spans="1:29">
@@ -56161,7 +56161,7 @@
         <v>624</v>
       </c>
       <c r="B626">
-        <v>6011505</v>
+        <v>6011995</v>
       </c>
       <c r="C626" t="s">
         <v>28</v>
@@ -56173,13 +56173,13 @@
         <v>45158.5</v>
       </c>
       <c r="F626" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G626" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H626">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I626">
         <v>0</v>
@@ -56188,25 +56188,25 @@
         <v>48</v>
       </c>
       <c r="K626">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="L626">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M626">
-        <v>2.375</v>
+        <v>7</v>
       </c>
       <c r="N626">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="O626">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P626">
-        <v>2.55</v>
+        <v>7</v>
       </c>
       <c r="Q626">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R626">
         <v>1.925</v>
@@ -56215,16 +56215,16 @@
         <v>1.925</v>
       </c>
       <c r="T626">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U626">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V626">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W626">
-        <v>1.625</v>
+        <v>0.444</v>
       </c>
       <c r="X626">
         <v>-1</v>
@@ -56233,16 +56233,16 @@
         <v>-1</v>
       </c>
       <c r="Z626">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA626">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB626">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC626">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="627" spans="1:29">
@@ -56250,7 +56250,7 @@
         <v>625</v>
       </c>
       <c r="B627">
-        <v>6011504</v>
+        <v>6011505</v>
       </c>
       <c r="C627" t="s">
         <v>28</v>
@@ -56262,58 +56262,58 @@
         <v>45158.5</v>
       </c>
       <c r="F627" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G627" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H627">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I627">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J627" t="s">
         <v>48</v>
       </c>
       <c r="K627">
-        <v>1.222</v>
+        <v>2.9</v>
       </c>
       <c r="L627">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M627">
-        <v>10</v>
+        <v>2.375</v>
       </c>
       <c r="N627">
-        <v>1.25</v>
+        <v>2.625</v>
       </c>
       <c r="O627">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="P627">
-        <v>8.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q627">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R627">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S627">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T627">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U627">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V627">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W627">
-        <v>0.25</v>
+        <v>1.625</v>
       </c>
       <c r="X627">
         <v>-1</v>
@@ -56322,16 +56322,16 @@
         <v>-1</v>
       </c>
       <c r="Z627">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA627">
         <v>-1</v>
       </c>
       <c r="AB627">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AC627">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="628" spans="1:29">
@@ -56339,7 +56339,7 @@
         <v>626</v>
       </c>
       <c r="B628">
-        <v>6011411</v>
+        <v>6011504</v>
       </c>
       <c r="C628" t="s">
         <v>28</v>
@@ -56351,58 +56351,58 @@
         <v>45158.5</v>
       </c>
       <c r="F628" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G628" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H628">
+        <v>5</v>
+      </c>
+      <c r="I628">
         <v>1</v>
-      </c>
-      <c r="I628">
-        <v>0</v>
       </c>
       <c r="J628" t="s">
         <v>48</v>
       </c>
       <c r="K628">
-        <v>1.533</v>
+        <v>1.222</v>
       </c>
       <c r="L628">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="M628">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N628">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="O628">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="P628">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="Q628">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R628">
-        <v>2.08</v>
+        <v>1.825</v>
       </c>
       <c r="S628">
-        <v>1.82</v>
+        <v>2.025</v>
       </c>
       <c r="T628">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U628">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V628">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W628">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="X628">
         <v>-1</v>
@@ -56411,16 +56411,16 @@
         <v>-1</v>
       </c>
       <c r="Z628">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA628">
-        <v>0.41</v>
+        <v>-1</v>
       </c>
       <c r="AB628">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC628">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="629" spans="1:29">
@@ -56428,7 +56428,7 @@
         <v>627</v>
       </c>
       <c r="B629">
-        <v>6011995</v>
+        <v>6011411</v>
       </c>
       <c r="C629" t="s">
         <v>28</v>
@@ -56440,10 +56440,10 @@
         <v>45158.5</v>
       </c>
       <c r="F629" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G629" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H629">
         <v>1</v>
@@ -56455,19 +56455,19 @@
         <v>48</v>
       </c>
       <c r="K629">
-        <v>1.4</v>
+        <v>1.533</v>
       </c>
       <c r="L629">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M629">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N629">
-        <v>1.444</v>
+        <v>1.5</v>
       </c>
       <c r="O629">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P629">
         <v>7</v>
@@ -56476,22 +56476,22 @@
         <v>-1.25</v>
       </c>
       <c r="R629">
-        <v>1.925</v>
+        <v>2.08</v>
       </c>
       <c r="S629">
-        <v>1.925</v>
+        <v>1.82</v>
       </c>
       <c r="T629">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U629">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V629">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W629">
-        <v>0.444</v>
+        <v>0.5</v>
       </c>
       <c r="X629">
         <v>-1</v>
@@ -56503,13 +56503,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA629">
-        <v>0.4625</v>
+        <v>0.41</v>
       </c>
       <c r="AB629">
         <v>-1</v>
       </c>
       <c r="AC629">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="630" spans="1:29">
@@ -58030,7 +58030,7 @@
         <v>645</v>
       </c>
       <c r="B647">
-        <v>6011935</v>
+        <v>6011998</v>
       </c>
       <c r="C647" t="s">
         <v>28</v>
@@ -58042,76 +58042,76 @@
         <v>45186.5</v>
       </c>
       <c r="F647" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G647" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H647">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I647">
         <v>1</v>
       </c>
       <c r="J647" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K647">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="L647">
         <v>3.75</v>
       </c>
       <c r="M647">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="N647">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="O647">
         <v>4</v>
       </c>
       <c r="P647">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="Q647">
+        <v>0.75</v>
+      </c>
+      <c r="R647">
+        <v>1.825</v>
+      </c>
+      <c r="S647">
+        <v>2.025</v>
+      </c>
+      <c r="T647">
+        <v>3</v>
+      </c>
+      <c r="U647">
+        <v>2.025</v>
+      </c>
+      <c r="V647">
+        <v>1.825</v>
+      </c>
+      <c r="W647">
+        <v>-1</v>
+      </c>
+      <c r="X647">
+        <v>-1</v>
+      </c>
+      <c r="Y647">
+        <v>0.8</v>
+      </c>
+      <c r="Z647">
         <v>-0.5</v>
       </c>
-      <c r="R647">
-        <v>1.9</v>
-      </c>
-      <c r="S647">
-        <v>1.95</v>
-      </c>
-      <c r="T647">
-        <v>3.25</v>
-      </c>
-      <c r="U647">
-        <v>1.95</v>
-      </c>
-      <c r="V647">
-        <v>1.9</v>
-      </c>
-      <c r="W647">
-        <v>0.909</v>
-      </c>
-      <c r="X647">
-        <v>-1</v>
-      </c>
-      <c r="Y647">
-        <v>-1</v>
-      </c>
-      <c r="Z647">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA647">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB647">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC647">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="648" spans="1:29">
@@ -58119,7 +58119,7 @@
         <v>646</v>
       </c>
       <c r="B648">
-        <v>6011998</v>
+        <v>6011935</v>
       </c>
       <c r="C648" t="s">
         <v>28</v>
@@ -58131,76 +58131,76 @@
         <v>45186.5</v>
       </c>
       <c r="F648" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G648" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I648">
         <v>1</v>
       </c>
       <c r="J648" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K648">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="L648">
         <v>3.75</v>
       </c>
       <c r="M648">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="N648">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="O648">
         <v>4</v>
       </c>
       <c r="P648">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q648">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R648">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S648">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T648">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U648">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V648">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W648">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X648">
         <v>-1</v>
       </c>
       <c r="Y648">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z648">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA648">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB648">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC648">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="649" spans="1:29">
@@ -58831,7 +58831,7 @@
         <v>654</v>
       </c>
       <c r="B656">
-        <v>6011418</v>
+        <v>6011517</v>
       </c>
       <c r="C656" t="s">
         <v>28</v>
@@ -58843,61 +58843,61 @@
         <v>45193.5</v>
       </c>
       <c r="F656" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G656" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H656">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I656">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J656" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K656">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="L656">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="M656">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="N656">
-        <v>1.95</v>
+        <v>1.285</v>
       </c>
       <c r="O656">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="P656">
-        <v>3.75</v>
+        <v>8.5</v>
       </c>
       <c r="Q656">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R656">
+        <v>1.925</v>
+      </c>
+      <c r="S656">
+        <v>1.925</v>
+      </c>
+      <c r="T656">
+        <v>3.5</v>
+      </c>
+      <c r="U656">
+        <v>1.85</v>
+      </c>
+      <c r="V656">
         <v>2</v>
       </c>
-      <c r="S656">
-        <v>1.85</v>
-      </c>
-      <c r="T656">
-        <v>2.5</v>
-      </c>
-      <c r="U656">
-        <v>1.925</v>
-      </c>
-      <c r="V656">
-        <v>1.925</v>
-      </c>
       <c r="W656">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X656">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y656">
         <v>-1</v>
@@ -58906,13 +58906,13 @@
         <v>-1</v>
       </c>
       <c r="AA656">
+        <v>0.925</v>
+      </c>
+      <c r="AB656">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB656">
-        <v>-1</v>
-      </c>
       <c r="AC656">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="657" spans="1:29">
@@ -58920,7 +58920,7 @@
         <v>655</v>
       </c>
       <c r="B657">
-        <v>6011517</v>
+        <v>6011516</v>
       </c>
       <c r="C657" t="s">
         <v>28</v>
@@ -58932,76 +58932,76 @@
         <v>45193.5</v>
       </c>
       <c r="F657" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G657" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H657">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I657">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J657" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K657">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="L657">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M657">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="N657">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="O657">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="P657">
-        <v>8.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q657">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R657">
+        <v>1.975</v>
+      </c>
+      <c r="S657">
+        <v>1.875</v>
+      </c>
+      <c r="T657">
+        <v>3.25</v>
+      </c>
+      <c r="U657">
         <v>1.925</v>
       </c>
-      <c r="S657">
+      <c r="V657">
         <v>1.925</v>
       </c>
-      <c r="T657">
-        <v>3.5</v>
-      </c>
-      <c r="U657">
-        <v>1.85</v>
-      </c>
-      <c r="V657">
-        <v>2</v>
-      </c>
       <c r="W657">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X657">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y657">
         <v>-1</v>
       </c>
       <c r="Z657">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA657">
+        <v>-1</v>
+      </c>
+      <c r="AB657">
+        <v>-1</v>
+      </c>
+      <c r="AC657">
         <v>0.925</v>
-      </c>
-      <c r="AB657">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC657">
-        <v>-1</v>
       </c>
     </row>
     <row r="658" spans="1:29">
@@ -59009,7 +59009,7 @@
         <v>656</v>
       </c>
       <c r="B658">
-        <v>6011516</v>
+        <v>6011418</v>
       </c>
       <c r="C658" t="s">
         <v>28</v>
@@ -59021,10 +59021,10 @@
         <v>45193.5</v>
       </c>
       <c r="F658" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G658" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H658">
         <v>1</v>
@@ -59036,34 +59036,34 @@
         <v>49</v>
       </c>
       <c r="K658">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="L658">
+        <v>3.4</v>
+      </c>
+      <c r="M658">
+        <v>3.4</v>
+      </c>
+      <c r="N658">
+        <v>1.95</v>
+      </c>
+      <c r="O658">
+        <v>3.6</v>
+      </c>
+      <c r="P658">
         <v>3.75</v>
       </c>
-      <c r="M658">
-        <v>2.1</v>
-      </c>
-      <c r="N658">
-        <v>3.5</v>
-      </c>
-      <c r="O658">
-        <v>4.333</v>
-      </c>
-      <c r="P658">
+      <c r="Q658">
+        <v>-0.5</v>
+      </c>
+      <c r="R658">
+        <v>2</v>
+      </c>
+      <c r="S658">
         <v>1.85</v>
       </c>
-      <c r="Q658">
-        <v>0.5</v>
-      </c>
-      <c r="R658">
-        <v>1.975</v>
-      </c>
-      <c r="S658">
-        <v>1.875</v>
-      </c>
       <c r="T658">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U658">
         <v>1.925</v>
@@ -59075,16 +59075,16 @@
         <v>-1</v>
       </c>
       <c r="X658">
-        <v>3.333</v>
+        <v>2.6</v>
       </c>
       <c r="Y658">
         <v>-1</v>
       </c>
       <c r="Z658">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA658">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB658">
         <v>-1</v>
@@ -61946,7 +61946,7 @@
         <v>689</v>
       </c>
       <c r="B691">
-        <v>6011938</v>
+        <v>6008621</v>
       </c>
       <c r="C691" t="s">
         <v>28</v>
@@ -61958,49 +61958,49 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F691" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G691" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H691">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I691">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J691" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K691">
-        <v>1.909</v>
+        <v>5.25</v>
       </c>
       <c r="L691">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M691">
+        <v>1.55</v>
+      </c>
+      <c r="N691">
+        <v>5.75</v>
+      </c>
+      <c r="O691">
+        <v>4.75</v>
+      </c>
+      <c r="P691">
+        <v>1.5</v>
+      </c>
+      <c r="Q691">
+        <v>1.25</v>
+      </c>
+      <c r="R691">
+        <v>1.825</v>
+      </c>
+      <c r="S691">
+        <v>2.025</v>
+      </c>
+      <c r="T691">
         <v>3.5</v>
-      </c>
-      <c r="N691">
-        <v>1.909</v>
-      </c>
-      <c r="O691">
-        <v>4</v>
-      </c>
-      <c r="P691">
-        <v>3.5</v>
-      </c>
-      <c r="Q691">
-        <v>-0.5</v>
-      </c>
-      <c r="R691">
-        <v>1.9</v>
-      </c>
-      <c r="S691">
-        <v>2</v>
-      </c>
-      <c r="T691">
-        <v>3.25</v>
       </c>
       <c r="U691">
         <v>2.025</v>
@@ -62009,19 +62009,19 @@
         <v>1.825</v>
       </c>
       <c r="W691">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X691">
         <v>-1</v>
       </c>
       <c r="Y691">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z691">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA691">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB691">
         <v>1.025</v>
@@ -62035,7 +62035,7 @@
         <v>690</v>
       </c>
       <c r="B692">
-        <v>6011526</v>
+        <v>6011938</v>
       </c>
       <c r="C692" t="s">
         <v>28</v>
@@ -62047,58 +62047,58 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F692" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G692" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H692">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I692">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J692" t="s">
         <v>48</v>
       </c>
       <c r="K692">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="L692">
         <v>4</v>
       </c>
       <c r="M692">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="N692">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O692">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P692">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q692">
         <v>-0.5</v>
       </c>
       <c r="R692">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="S692">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="T692">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U692">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V692">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W692">
-        <v>0.8</v>
+        <v>0.909</v>
       </c>
       <c r="X692">
         <v>-1</v>
@@ -62107,16 +62107,16 @@
         <v>-1</v>
       </c>
       <c r="Z692">
-        <v>0.8600000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA692">
         <v>-1</v>
       </c>
       <c r="AB692">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC692">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="693" spans="1:29">
@@ -62124,7 +62124,7 @@
         <v>691</v>
       </c>
       <c r="B693">
-        <v>6011426</v>
+        <v>6011526</v>
       </c>
       <c r="C693" t="s">
         <v>28</v>
@@ -62136,58 +62136,58 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F693" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G693" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H693">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I693">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J693" t="s">
         <v>48</v>
       </c>
       <c r="K693">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="L693">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M693">
-        <v>9</v>
+        <v>4.333</v>
       </c>
       <c r="N693">
-        <v>1.142</v>
+        <v>1.8</v>
       </c>
       <c r="O693">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="P693">
-        <v>17</v>
+        <v>4.2</v>
       </c>
       <c r="Q693">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R693">
-        <v>1.875</v>
+        <v>1.86</v>
       </c>
       <c r="S693">
-        <v>1.975</v>
+        <v>2.04</v>
       </c>
       <c r="T693">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U693">
+        <v>1.9</v>
+      </c>
+      <c r="V693">
         <v>1.95</v>
       </c>
-      <c r="V693">
-        <v>1.9</v>
-      </c>
       <c r="W693">
-        <v>0.1419999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X693">
         <v>-1</v>
@@ -62196,16 +62196,16 @@
         <v>-1</v>
       </c>
       <c r="Z693">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA693">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB693">
         <v>-1</v>
       </c>
       <c r="AC693">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="694" spans="1:29">
@@ -62213,7 +62213,7 @@
         <v>692</v>
       </c>
       <c r="B694">
-        <v>6008785</v>
+        <v>6011426</v>
       </c>
       <c r="C694" t="s">
         <v>28</v>
@@ -62225,13 +62225,13 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F694" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G694" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H694">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I694">
         <v>1</v>
@@ -62240,43 +62240,43 @@
         <v>48</v>
       </c>
       <c r="K694">
-        <v>3.75</v>
+        <v>1.3</v>
       </c>
       <c r="L694">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="M694">
-        <v>1.85</v>
+        <v>9</v>
       </c>
       <c r="N694">
-        <v>3.75</v>
+        <v>1.142</v>
       </c>
       <c r="O694">
-        <v>3.8</v>
+        <v>9</v>
       </c>
       <c r="P694">
+        <v>17</v>
+      </c>
+      <c r="Q694">
+        <v>-2.25</v>
+      </c>
+      <c r="R694">
+        <v>1.875</v>
+      </c>
+      <c r="S694">
+        <v>1.975</v>
+      </c>
+      <c r="T694">
+        <v>3.5</v>
+      </c>
+      <c r="U694">
         <v>1.95</v>
       </c>
-      <c r="Q694">
-        <v>0.5</v>
-      </c>
-      <c r="R694">
-        <v>1.92</v>
-      </c>
-      <c r="S694">
-        <v>1.98</v>
-      </c>
-      <c r="T694">
-        <v>3.25</v>
-      </c>
-      <c r="U694">
-        <v>2.05</v>
-      </c>
       <c r="V694">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W694">
-        <v>2.75</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X694">
         <v>-1</v>
@@ -62285,16 +62285,16 @@
         <v>-1</v>
       </c>
       <c r="Z694">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA694">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB694">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC694">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="695" spans="1:29">
@@ -62302,7 +62302,7 @@
         <v>693</v>
       </c>
       <c r="B695">
-        <v>6008621</v>
+        <v>6008785</v>
       </c>
       <c r="C695" t="s">
         <v>28</v>
@@ -62314,73 +62314,73 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F695" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G695" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I695">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J695" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K695">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="L695">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="M695">
-        <v>1.55</v>
+        <v>1.85</v>
       </c>
       <c r="N695">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="O695">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P695">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q695">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R695">
-        <v>1.825</v>
+        <v>1.92</v>
       </c>
       <c r="S695">
-        <v>2.025</v>
+        <v>1.98</v>
       </c>
       <c r="T695">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U695">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V695">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W695">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X695">
         <v>-1</v>
       </c>
       <c r="Y695">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z695">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA695">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB695">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AC695">
         <v>-1</v>
@@ -63459,7 +63459,7 @@
         <v>706</v>
       </c>
       <c r="B708">
-        <v>6012006</v>
+        <v>6011429</v>
       </c>
       <c r="C708" t="s">
         <v>28</v>
@@ -63471,73 +63471,73 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F708" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G708" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H708">
         <v>4</v>
       </c>
       <c r="I708">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J708" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K708">
-        <v>2.15</v>
+        <v>1.571</v>
       </c>
       <c r="L708">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M708">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="N708">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="O708">
         <v>4.2</v>
       </c>
       <c r="P708">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="Q708">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R708">
+        <v>1.83</v>
+      </c>
+      <c r="S708">
+        <v>2.07</v>
+      </c>
+      <c r="T708">
+        <v>2.75</v>
+      </c>
+      <c r="U708">
+        <v>1.95</v>
+      </c>
+      <c r="V708">
         <v>1.9</v>
       </c>
-      <c r="S708">
-        <v>1.95</v>
-      </c>
-      <c r="T708">
-        <v>3.5</v>
-      </c>
-      <c r="U708">
-        <v>1.975</v>
-      </c>
-      <c r="V708">
-        <v>1.875</v>
-      </c>
       <c r="W708">
+        <v>-1</v>
+      </c>
+      <c r="X708">
+        <v>3.2</v>
+      </c>
+      <c r="Y708">
+        <v>-1</v>
+      </c>
+      <c r="Z708">
+        <v>-1</v>
+      </c>
+      <c r="AA708">
+        <v>1.07</v>
+      </c>
+      <c r="AB708">
         <v>0.95</v>
-      </c>
-      <c r="X708">
-        <v>-1</v>
-      </c>
-      <c r="Y708">
-        <v>-1</v>
-      </c>
-      <c r="Z708">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA708">
-        <v>-1</v>
-      </c>
-      <c r="AB708">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC708">
         <v>-1</v>
@@ -63548,7 +63548,7 @@
         <v>707</v>
       </c>
       <c r="B709">
-        <v>6011533</v>
+        <v>6008787</v>
       </c>
       <c r="C709" t="s">
         <v>28</v>
@@ -63560,76 +63560,76 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F709" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G709" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H709">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I709">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J709" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K709">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L709">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M709">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="N709">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="O709">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P709">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q709">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R709">
-        <v>1.91</v>
+        <v>2.09</v>
       </c>
       <c r="S709">
-        <v>1.99</v>
+        <v>1.81</v>
       </c>
       <c r="T709">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U709">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V709">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W709">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X709">
         <v>-1</v>
       </c>
       <c r="Y709">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z709">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA709">
-        <v>-1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AB709">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AC709">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="710" spans="1:29">
@@ -63726,7 +63726,7 @@
         <v>709</v>
       </c>
       <c r="B711">
-        <v>6011531</v>
+        <v>6011533</v>
       </c>
       <c r="C711" t="s">
         <v>28</v>
@@ -63738,76 +63738,76 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F711" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G711" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711">
+        <v>1</v>
+      </c>
+      <c r="J711" t="s">
+        <v>48</v>
+      </c>
+      <c r="K711">
+        <v>2</v>
+      </c>
+      <c r="L711">
+        <v>3.75</v>
+      </c>
+      <c r="M711">
+        <v>3.4</v>
+      </c>
+      <c r="N711">
+        <v>1.85</v>
+      </c>
+      <c r="O711">
         <v>4</v>
       </c>
-      <c r="J711" t="s">
-        <v>50</v>
-      </c>
-      <c r="K711">
-        <v>4.75</v>
-      </c>
-      <c r="L711">
-        <v>4.5</v>
-      </c>
-      <c r="M711">
-        <v>1.571</v>
-      </c>
-      <c r="N711">
-        <v>3.6</v>
-      </c>
-      <c r="O711">
-        <v>4.2</v>
-      </c>
       <c r="P711">
-        <v>1.85</v>
+        <v>3.8</v>
       </c>
       <c r="Q711">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R711">
-        <v>2.07</v>
+        <v>1.91</v>
       </c>
       <c r="S711">
-        <v>1.83</v>
+        <v>1.99</v>
       </c>
       <c r="T711">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U711">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V711">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W711">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X711">
         <v>-1</v>
       </c>
       <c r="Y711">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z711">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AA711">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB711">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AC711">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="712" spans="1:29">
@@ -63815,7 +63815,7 @@
         <v>710</v>
       </c>
       <c r="B712">
-        <v>6011429</v>
+        <v>6012006</v>
       </c>
       <c r="C712" t="s">
         <v>28</v>
@@ -63827,73 +63827,73 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F712" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G712" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H712">
         <v>4</v>
       </c>
       <c r="I712">
+        <v>2</v>
+      </c>
+      <c r="J712" t="s">
+        <v>48</v>
+      </c>
+      <c r="K712">
+        <v>2.15</v>
+      </c>
+      <c r="L712">
         <v>4</v>
       </c>
-      <c r="J712" t="s">
-        <v>49</v>
-      </c>
-      <c r="K712">
-        <v>1.571</v>
-      </c>
-      <c r="L712">
-        <v>4.2</v>
-      </c>
       <c r="M712">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="N712">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="O712">
         <v>4.2</v>
       </c>
       <c r="P712">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q712">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R712">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="S712">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="T712">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U712">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V712">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W712">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X712">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y712">
         <v>-1</v>
       </c>
       <c r="Z712">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA712">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AB712">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC712">
         <v>-1</v>
@@ -63904,7 +63904,7 @@
         <v>711</v>
       </c>
       <c r="B713">
-        <v>6008787</v>
+        <v>6011531</v>
       </c>
       <c r="C713" t="s">
         <v>28</v>
@@ -63916,46 +63916,46 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F713" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G713" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H713">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I713">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J713" t="s">
         <v>50</v>
       </c>
       <c r="K713">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="L713">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M713">
-        <v>2.45</v>
+        <v>1.571</v>
       </c>
       <c r="N713">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="O713">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P713">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="Q713">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R713">
-        <v>2.09</v>
+        <v>2.07</v>
       </c>
       <c r="S713">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="T713">
         <v>3.25</v>
@@ -63973,13 +63973,13 @@
         <v>-1</v>
       </c>
       <c r="Y713">
-        <v>1.7</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z713">
         <v>-1</v>
       </c>
       <c r="AA713">
-        <v>0.8100000000000001</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB713">
         <v>0.95</v>
@@ -63993,7 +63993,7 @@
         <v>712</v>
       </c>
       <c r="B714">
-        <v>6011940</v>
+        <v>6390526</v>
       </c>
       <c r="C714" t="s">
         <v>28</v>
@@ -64005,76 +64005,76 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F714" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G714" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H714">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I714">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J714" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K714">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="L714">
         <v>5</v>
       </c>
       <c r="M714">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="N714">
-        <v>1.45</v>
+        <v>1.333</v>
       </c>
       <c r="O714">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="P714">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q714">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R714">
-        <v>1.89</v>
+        <v>1.825</v>
       </c>
       <c r="S714">
-        <v>2.01</v>
+        <v>2.025</v>
       </c>
       <c r="T714">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U714">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V714">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W714">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X714">
         <v>-1</v>
       </c>
       <c r="Y714">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z714">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA714">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB714">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC714">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="715" spans="1:29">
@@ -64082,7 +64082,7 @@
         <v>713</v>
       </c>
       <c r="B715">
-        <v>6390526</v>
+        <v>6390446</v>
       </c>
       <c r="C715" t="s">
         <v>28</v>
@@ -64094,76 +64094,76 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F715" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G715" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H715">
         <v>1</v>
       </c>
       <c r="I715">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J715" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K715">
-        <v>1.4</v>
+        <v>1.615</v>
       </c>
       <c r="L715">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M715">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="N715">
-        <v>1.333</v>
+        <v>1.8</v>
       </c>
       <c r="O715">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="P715">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q715">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R715">
+        <v>2.025</v>
+      </c>
+      <c r="S715">
         <v>1.825</v>
       </c>
-      <c r="S715">
-        <v>2.025</v>
-      </c>
       <c r="T715">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U715">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V715">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W715">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X715">
         <v>-1</v>
       </c>
       <c r="Y715">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z715">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA715">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB715">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC715">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="716" spans="1:29">
@@ -64171,7 +64171,7 @@
         <v>714</v>
       </c>
       <c r="B716">
-        <v>6390446</v>
+        <v>6390445</v>
       </c>
       <c r="C716" t="s">
         <v>28</v>
@@ -64183,13 +64183,13 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F716" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G716" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H716">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I716">
         <v>0</v>
@@ -64198,34 +64198,34 @@
         <v>48</v>
       </c>
       <c r="K716">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="L716">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M716">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="N716">
         <v>1.8</v>
       </c>
       <c r="O716">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P716">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q716">
         <v>-0.75</v>
       </c>
       <c r="R716">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S716">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T716">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U716">
         <v>1.9</v>
@@ -64243,16 +64243,16 @@
         <v>-1</v>
       </c>
       <c r="Z716">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA716">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB716">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC716">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="717" spans="1:29">
@@ -64260,7 +64260,7 @@
         <v>715</v>
       </c>
       <c r="B717">
-        <v>6390445</v>
+        <v>6012008</v>
       </c>
       <c r="C717" t="s">
         <v>28</v>
@@ -64272,10 +64272,10 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F717" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G717" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H717">
         <v>3</v>
@@ -64287,43 +64287,43 @@
         <v>48</v>
       </c>
       <c r="K717">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="L717">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M717">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="N717">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="O717">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P717">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q717">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R717">
-        <v>1.975</v>
+        <v>1.86</v>
       </c>
       <c r="S717">
-        <v>1.875</v>
+        <v>2.04</v>
       </c>
       <c r="T717">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U717">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V717">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W717">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="X717">
         <v>-1</v>
@@ -64332,16 +64332,16 @@
         <v>-1</v>
       </c>
       <c r="Z717">
-        <v>0.9750000000000001</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA717">
         <v>-1</v>
       </c>
       <c r="AB717">
-        <v>0.8999999999999999</v>
+        <v>0.425</v>
       </c>
       <c r="AC717">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="718" spans="1:29">
@@ -64349,7 +64349,7 @@
         <v>716</v>
       </c>
       <c r="B718">
-        <v>6012008</v>
+        <v>6012013</v>
       </c>
       <c r="C718" t="s">
         <v>28</v>
@@ -64361,76 +64361,76 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F718" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G718" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H718">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I718">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J718" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K718">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="L718">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M718">
-        <v>1.65</v>
+        <v>2.625</v>
       </c>
       <c r="N718">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="O718">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P718">
-        <v>1.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q718">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R718">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="S718">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="T718">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U718">
+        <v>2</v>
+      </c>
+      <c r="V718">
         <v>1.85</v>
       </c>
-      <c r="V718">
-        <v>2</v>
-      </c>
       <c r="W718">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X718">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y718">
         <v>-1</v>
       </c>
       <c r="Z718">
-        <v>0.8600000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA718">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB718">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC718">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="719" spans="1:29">
@@ -64438,7 +64438,7 @@
         <v>717</v>
       </c>
       <c r="B719">
-        <v>6012013</v>
+        <v>6011534</v>
       </c>
       <c r="C719" t="s">
         <v>28</v>
@@ -64450,10 +64450,10 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F719" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G719" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H719">
         <v>1</v>
@@ -64465,61 +64465,61 @@
         <v>49</v>
       </c>
       <c r="K719">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="L719">
+        <v>6.5</v>
+      </c>
+      <c r="M719">
+        <v>10</v>
+      </c>
+      <c r="N719">
+        <v>1.222</v>
+      </c>
+      <c r="O719">
+        <v>7</v>
+      </c>
+      <c r="P719">
+        <v>11</v>
+      </c>
+      <c r="Q719">
+        <v>-2</v>
+      </c>
+      <c r="R719">
+        <v>1.95</v>
+      </c>
+      <c r="S719">
+        <v>1.9</v>
+      </c>
+      <c r="T719">
         <v>3.5</v>
       </c>
-      <c r="M719">
-        <v>2.625</v>
-      </c>
-      <c r="N719">
-        <v>2.05</v>
-      </c>
-      <c r="O719">
-        <v>3.6</v>
-      </c>
-      <c r="P719">
-        <v>3.4</v>
-      </c>
-      <c r="Q719">
-        <v>-0.25</v>
-      </c>
-      <c r="R719">
+      <c r="U719">
         <v>1.8</v>
       </c>
-      <c r="S719">
-        <v>2.05</v>
-      </c>
-      <c r="T719">
-        <v>2.5</v>
-      </c>
-      <c r="U719">
+      <c r="V719">
         <v>2</v>
       </c>
-      <c r="V719">
-        <v>1.85</v>
-      </c>
       <c r="W719">
         <v>-1</v>
       </c>
       <c r="X719">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="Y719">
         <v>-1</v>
       </c>
       <c r="Z719">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA719">
-        <v>0.5249999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB719">
         <v>-1</v>
       </c>
       <c r="AC719">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" spans="1:29">
@@ -64527,7 +64527,7 @@
         <v>718</v>
       </c>
       <c r="B720">
-        <v>6011534</v>
+        <v>6011940</v>
       </c>
       <c r="C720" t="s">
         <v>28</v>
@@ -64539,70 +64539,70 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F720" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G720" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H720">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I720">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J720" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K720">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="L720">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="M720">
-        <v>10</v>
+        <v>5.75</v>
       </c>
       <c r="N720">
-        <v>1.222</v>
+        <v>1.45</v>
       </c>
       <c r="O720">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P720">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="Q720">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="R720">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="S720">
-        <v>1.9</v>
+        <v>2.01</v>
       </c>
       <c r="T720">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U720">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V720">
         <v>2</v>
       </c>
       <c r="W720">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X720">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y720">
         <v>-1</v>
       </c>
       <c r="Z720">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA720">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB720">
         <v>-1</v>

--- a/Norway Eliteserien/Norway Eliteserien.xlsx
+++ b/Norway Eliteserien/Norway Eliteserien.xlsx
@@ -25990,7 +25990,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>4568075</v>
+        <v>4568074</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -26002,76 +26002,76 @@
         <v>44697.54166666666</v>
       </c>
       <c r="F287" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G287" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H287">
+        <v>0</v>
+      </c>
+      <c r="I287">
+        <v>4</v>
+      </c>
+      <c r="J287" t="s">
+        <v>50</v>
+      </c>
+      <c r="K287">
+        <v>2.2</v>
+      </c>
+      <c r="L287">
+        <v>3.3</v>
+      </c>
+      <c r="M287">
         <v>3</v>
       </c>
-      <c r="I287">
-        <v>0</v>
-      </c>
-      <c r="J287" t="s">
-        <v>48</v>
-      </c>
-      <c r="K287">
-        <v>1.25</v>
-      </c>
-      <c r="L287">
-        <v>5.5</v>
-      </c>
-      <c r="M287">
-        <v>9</v>
-      </c>
       <c r="N287">
-        <v>1.166</v>
+        <v>1.95</v>
       </c>
       <c r="O287">
-        <v>8.5</v>
+        <v>3.8</v>
       </c>
       <c r="P287">
-        <v>15</v>
+        <v>3.4</v>
       </c>
       <c r="Q287">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R287">
-        <v>1.88</v>
+        <v>1.975</v>
       </c>
       <c r="S287">
-        <v>2.02</v>
+        <v>1.875</v>
       </c>
       <c r="T287">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U287">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V287">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W287">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X287">
         <v>-1</v>
       </c>
       <c r="Y287">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z287">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA287">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB287">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC287">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="288" spans="1:29">
@@ -26079,7 +26079,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>4568074</v>
+        <v>4568075</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26091,76 +26091,76 @@
         <v>44697.54166666666</v>
       </c>
       <c r="F288" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G288" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H288">
+        <v>3</v>
+      </c>
+      <c r="I288">
         <v>0</v>
       </c>
-      <c r="I288">
-        <v>4</v>
-      </c>
       <c r="J288" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K288">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="L288">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="M288">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N288">
-        <v>1.95</v>
+        <v>1.166</v>
       </c>
       <c r="O288">
-        <v>3.8</v>
+        <v>8.5</v>
       </c>
       <c r="P288">
-        <v>3.4</v>
+        <v>15</v>
       </c>
       <c r="Q288">
-        <v>-0.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R288">
-        <v>1.975</v>
+        <v>1.88</v>
       </c>
       <c r="S288">
-        <v>1.875</v>
+        <v>2.02</v>
       </c>
       <c r="T288">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U288">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V288">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W288">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X288">
         <v>-1</v>
       </c>
       <c r="Y288">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z288">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AA288">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB288">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC288">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="289" spans="1:29">
@@ -28838,7 +28838,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>4568003</v>
+        <v>4568093</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28850,76 +28850,76 @@
         <v>44731.54166666666</v>
       </c>
       <c r="F319" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G319" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H319">
+        <v>1</v>
+      </c>
+      <c r="I319">
+        <v>2</v>
+      </c>
+      <c r="J319" t="s">
+        <v>50</v>
+      </c>
+      <c r="K319">
+        <v>3.4</v>
+      </c>
+      <c r="L319">
+        <v>3.5</v>
+      </c>
+      <c r="M319">
+        <v>1.95</v>
+      </c>
+      <c r="N319">
+        <v>3.1</v>
+      </c>
+      <c r="O319">
+        <v>3.75</v>
+      </c>
+      <c r="P319">
+        <v>2.1</v>
+      </c>
+      <c r="Q319">
+        <v>0.25</v>
+      </c>
+      <c r="R319">
+        <v>2</v>
+      </c>
+      <c r="S319">
+        <v>1.9</v>
+      </c>
+      <c r="T319">
         <v>3</v>
       </c>
-      <c r="I319">
-        <v>1</v>
-      </c>
-      <c r="J319" t="s">
-        <v>48</v>
-      </c>
-      <c r="K319">
-        <v>2</v>
-      </c>
-      <c r="L319">
-        <v>3.3</v>
-      </c>
-      <c r="M319">
-        <v>3.4</v>
-      </c>
-      <c r="N319">
-        <v>2</v>
-      </c>
-      <c r="O319">
-        <v>3.5</v>
-      </c>
-      <c r="P319">
-        <v>3.75</v>
-      </c>
-      <c r="Q319">
-        <v>-0.5</v>
-      </c>
-      <c r="R319">
+      <c r="U319">
         <v>2.05</v>
       </c>
-      <c r="S319">
+      <c r="V319">
         <v>1.8</v>
       </c>
-      <c r="T319">
-        <v>2.5</v>
-      </c>
-      <c r="U319">
-        <v>1.925</v>
-      </c>
-      <c r="V319">
-        <v>1.925</v>
-      </c>
       <c r="W319">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X319">
         <v>-1</v>
       </c>
       <c r="Y319">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z319">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA319">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB319">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC319">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="320" spans="1:29">
@@ -28927,7 +28927,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>4568092</v>
+        <v>4568003</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -28939,73 +28939,73 @@
         <v>44731.54166666666</v>
       </c>
       <c r="F320" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G320" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H320">
+        <v>3</v>
+      </c>
+      <c r="I320">
         <v>1</v>
       </c>
-      <c r="I320">
+      <c r="J320" t="s">
+        <v>48</v>
+      </c>
+      <c r="K320">
         <v>2</v>
-      </c>
-      <c r="J320" t="s">
-        <v>50</v>
-      </c>
-      <c r="K320">
-        <v>2.625</v>
       </c>
       <c r="L320">
         <v>3.3</v>
       </c>
       <c r="M320">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="N320">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="O320">
         <v>3.5</v>
       </c>
       <c r="P320">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q320">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R320">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S320">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T320">
         <v>2.5</v>
       </c>
       <c r="U320">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V320">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W320">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X320">
         <v>-1</v>
       </c>
       <c r="Y320">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z320">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA320">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB320">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC320">
         <v>-1</v>
@@ -29016,7 +29016,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>4568094</v>
+        <v>4568092</v>
       </c>
       <c r="C321" t="s">
         <v>28</v>
@@ -29028,76 +29028,76 @@
         <v>44731.54166666666</v>
       </c>
       <c r="F321" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G321" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H321">
         <v>1</v>
       </c>
       <c r="I321">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J321" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K321">
-        <v>1.7</v>
+        <v>2.625</v>
       </c>
       <c r="L321">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M321">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N321">
-        <v>1.666</v>
+        <v>3.5</v>
       </c>
       <c r="O321">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P321">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q321">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R321">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="S321">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="T321">
         <v>2.5</v>
       </c>
       <c r="U321">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V321">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W321">
         <v>-1</v>
       </c>
       <c r="X321">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y321">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z321">
         <v>-1</v>
       </c>
       <c r="AA321">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AB321">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC321">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="322" spans="1:29">
@@ -29105,7 +29105,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>4568095</v>
+        <v>4568094</v>
       </c>
       <c r="C322" t="s">
         <v>28</v>
@@ -29117,76 +29117,76 @@
         <v>44731.54166666666</v>
       </c>
       <c r="F322" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G322" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H322">
         <v>1</v>
       </c>
       <c r="I322">
+        <v>1</v>
+      </c>
+      <c r="J322" t="s">
+        <v>49</v>
+      </c>
+      <c r="K322">
+        <v>1.7</v>
+      </c>
+      <c r="L322">
+        <v>3.75</v>
+      </c>
+      <c r="M322">
+        <v>4.2</v>
+      </c>
+      <c r="N322">
+        <v>1.666</v>
+      </c>
+      <c r="O322">
+        <v>4</v>
+      </c>
+      <c r="P322">
+        <v>4.75</v>
+      </c>
+      <c r="Q322">
+        <v>-0.75</v>
+      </c>
+      <c r="R322">
+        <v>1.87</v>
+      </c>
+      <c r="S322">
+        <v>2.03</v>
+      </c>
+      <c r="T322">
+        <v>2.5</v>
+      </c>
+      <c r="U322">
+        <v>1.85</v>
+      </c>
+      <c r="V322">
         <v>2</v>
       </c>
-      <c r="J322" t="s">
-        <v>50</v>
-      </c>
-      <c r="K322">
-        <v>1.333</v>
-      </c>
-      <c r="L322">
-        <v>4.75</v>
-      </c>
-      <c r="M322">
-        <v>8</v>
-      </c>
-      <c r="N322">
-        <v>1.181</v>
-      </c>
-      <c r="O322">
-        <v>7.5</v>
-      </c>
-      <c r="P322">
-        <v>12</v>
-      </c>
-      <c r="Q322">
-        <v>-2</v>
-      </c>
-      <c r="R322">
-        <v>1.84</v>
-      </c>
-      <c r="S322">
-        <v>2.06</v>
-      </c>
-      <c r="T322">
-        <v>3.5</v>
-      </c>
-      <c r="U322">
-        <v>1.825</v>
-      </c>
-      <c r="V322">
-        <v>2.025</v>
-      </c>
       <c r="W322">
         <v>-1</v>
       </c>
       <c r="X322">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y322">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="Z322">
         <v>-1</v>
       </c>
       <c r="AA322">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="AB322">
         <v>-1</v>
       </c>
       <c r="AC322">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:29">
@@ -29194,7 +29194,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>4568093</v>
+        <v>4568095</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29206,10 +29206,10 @@
         <v>44731.54166666666</v>
       </c>
       <c r="F323" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G323" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H323">
         <v>1</v>
@@ -29221,40 +29221,40 @@
         <v>50</v>
       </c>
       <c r="K323">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="L323">
+        <v>4.75</v>
+      </c>
+      <c r="M323">
+        <v>8</v>
+      </c>
+      <c r="N323">
+        <v>1.181</v>
+      </c>
+      <c r="O323">
+        <v>7.5</v>
+      </c>
+      <c r="P323">
+        <v>12</v>
+      </c>
+      <c r="Q323">
+        <v>-2</v>
+      </c>
+      <c r="R323">
+        <v>1.84</v>
+      </c>
+      <c r="S323">
+        <v>2.06</v>
+      </c>
+      <c r="T323">
         <v>3.5</v>
       </c>
-      <c r="M323">
-        <v>1.95</v>
-      </c>
-      <c r="N323">
-        <v>3.1</v>
-      </c>
-      <c r="O323">
-        <v>3.75</v>
-      </c>
-      <c r="P323">
-        <v>2.1</v>
-      </c>
-      <c r="Q323">
-        <v>0.25</v>
-      </c>
-      <c r="R323">
-        <v>2</v>
-      </c>
-      <c r="S323">
-        <v>1.9</v>
-      </c>
-      <c r="T323">
-        <v>3</v>
-      </c>
       <c r="U323">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V323">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W323">
         <v>-1</v>
@@ -29263,19 +29263,19 @@
         <v>-1</v>
       </c>
       <c r="Y323">
-        <v>1.1</v>
+        <v>11</v>
       </c>
       <c r="Z323">
         <v>-1</v>
       </c>
       <c r="AA323">
-        <v>0.8999999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AB323">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC323">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="324" spans="1:29">
@@ -31597,7 +31597,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>4568114</v>
+        <v>4568115</v>
       </c>
       <c r="C350" t="s">
         <v>28</v>
@@ -31609,76 +31609,76 @@
         <v>44759.54166666666</v>
       </c>
       <c r="F350" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G350" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H350">
         <v>1</v>
       </c>
       <c r="I350">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J350" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K350">
-        <v>1.45</v>
+        <v>2.8</v>
       </c>
       <c r="L350">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M350">
-        <v>6.5</v>
+        <v>2.4</v>
       </c>
       <c r="N350">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="O350">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P350">
-        <v>5.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q350">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R350">
-        <v>1.84</v>
+        <v>1.875</v>
       </c>
       <c r="S350">
-        <v>2.06</v>
+        <v>1.975</v>
       </c>
       <c r="T350">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U350">
+        <v>1.85</v>
+      </c>
+      <c r="V350">
         <v>2</v>
       </c>
-      <c r="V350">
-        <v>1.85</v>
-      </c>
       <c r="W350">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X350">
         <v>-1</v>
       </c>
       <c r="Y350">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z350">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA350">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB350">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC350">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="351" spans="1:29">
@@ -31686,7 +31686,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>4568115</v>
+        <v>4568117</v>
       </c>
       <c r="C351" t="s">
         <v>28</v>
@@ -31698,76 +31698,76 @@
         <v>44759.54166666666</v>
       </c>
       <c r="F351" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G351" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H351">
+        <v>2</v>
+      </c>
+      <c r="I351">
         <v>1</v>
       </c>
-      <c r="I351">
+      <c r="J351" t="s">
+        <v>48</v>
+      </c>
+      <c r="K351">
+        <v>1.222</v>
+      </c>
+      <c r="L351">
+        <v>7.5</v>
+      </c>
+      <c r="M351">
+        <v>8.5</v>
+      </c>
+      <c r="N351">
+        <v>1.4</v>
+      </c>
+      <c r="O351">
+        <v>5.75</v>
+      </c>
+      <c r="P351">
+        <v>6</v>
+      </c>
+      <c r="Q351">
+        <v>-1.25</v>
+      </c>
+      <c r="R351">
+        <v>1.85</v>
+      </c>
+      <c r="S351">
         <v>2</v>
       </c>
-      <c r="J351" t="s">
-        <v>50</v>
-      </c>
-      <c r="K351">
-        <v>2.8</v>
-      </c>
-      <c r="L351">
-        <v>3.4</v>
-      </c>
-      <c r="M351">
-        <v>2.4</v>
-      </c>
-      <c r="N351">
-        <v>2.9</v>
-      </c>
-      <c r="O351">
-        <v>3.6</v>
-      </c>
-      <c r="P351">
-        <v>2.3</v>
-      </c>
-      <c r="Q351">
-        <v>0.25</v>
-      </c>
-      <c r="R351">
+      <c r="T351">
+        <v>3.25</v>
+      </c>
+      <c r="U351">
         <v>1.875</v>
       </c>
-      <c r="S351">
+      <c r="V351">
         <v>1.975</v>
       </c>
-      <c r="T351">
-        <v>2.5</v>
-      </c>
-      <c r="U351">
-        <v>1.85</v>
-      </c>
-      <c r="V351">
-        <v>2</v>
-      </c>
       <c r="W351">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X351">
         <v>-1</v>
       </c>
       <c r="Y351">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z351">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA351">
-        <v>0.9750000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AB351">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC351">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="352" spans="1:29">
@@ -31775,7 +31775,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>4568117</v>
+        <v>4568114</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31787,58 +31787,58 @@
         <v>44759.54166666666</v>
       </c>
       <c r="F352" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G352" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I352">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J352" t="s">
         <v>48</v>
       </c>
       <c r="K352">
-        <v>1.222</v>
+        <v>1.45</v>
       </c>
       <c r="L352">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="M352">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="N352">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O352">
+        <v>4.5</v>
+      </c>
+      <c r="P352">
         <v>5.75</v>
       </c>
-      <c r="P352">
-        <v>6</v>
-      </c>
       <c r="Q352">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R352">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="S352">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="T352">
         <v>3.25</v>
       </c>
       <c r="U352">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V352">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W352">
-        <v>0.3999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X352">
         <v>-1</v>
@@ -31847,16 +31847,16 @@
         <v>-1</v>
       </c>
       <c r="Z352">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA352">
-        <v>0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB352">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC352">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="353" spans="1:29">
@@ -33644,7 +33644,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>4568015</v>
+        <v>4568131</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -33656,73 +33656,73 @@
         <v>44780.54166666666</v>
       </c>
       <c r="F373" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G373" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H373">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I373">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J373" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K373">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="L373">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M373">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="N373">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="O373">
         <v>3.8</v>
       </c>
       <c r="P373">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="Q373">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R373">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S373">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T373">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U373">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V373">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W373">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X373">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y373">
         <v>-1</v>
       </c>
       <c r="Z373">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA373">
         <v>-1</v>
       </c>
       <c r="AB373">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC373">
         <v>-1</v>
@@ -33733,7 +33733,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>4568128</v>
+        <v>4568015</v>
       </c>
       <c r="C374" t="s">
         <v>28</v>
@@ -33745,10 +33745,10 @@
         <v>44780.54166666666</v>
       </c>
       <c r="F374" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G374" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H374">
         <v>3</v>
@@ -33760,43 +33760,43 @@
         <v>48</v>
       </c>
       <c r="K374">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="L374">
+        <v>3.4</v>
+      </c>
+      <c r="M374">
+        <v>3.1</v>
+      </c>
+      <c r="N374">
+        <v>2.2</v>
+      </c>
+      <c r="O374">
         <v>3.8</v>
       </c>
-      <c r="M374">
-        <v>5</v>
-      </c>
-      <c r="N374">
-        <v>1.4</v>
-      </c>
-      <c r="O374">
-        <v>5</v>
-      </c>
       <c r="P374">
-        <v>7.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q374">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R374">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S374">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T374">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U374">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V374">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W374">
-        <v>0.3999999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="X374">
         <v>-1</v>
@@ -33805,13 +33805,13 @@
         <v>-1</v>
       </c>
       <c r="Z374">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA374">
         <v>-1</v>
       </c>
       <c r="AB374">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC374">
         <v>-1</v>
@@ -33911,7 +33911,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>4568131</v>
+        <v>4568128</v>
       </c>
       <c r="C376" t="s">
         <v>28</v>
@@ -33923,73 +33923,73 @@
         <v>44780.54166666666</v>
       </c>
       <c r="F376" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G376" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H376">
+        <v>3</v>
+      </c>
+      <c r="I376">
+        <v>1</v>
+      </c>
+      <c r="J376" t="s">
+        <v>48</v>
+      </c>
+      <c r="K376">
+        <v>1.666</v>
+      </c>
+      <c r="L376">
+        <v>3.8</v>
+      </c>
+      <c r="M376">
+        <v>5</v>
+      </c>
+      <c r="N376">
+        <v>1.4</v>
+      </c>
+      <c r="O376">
+        <v>5</v>
+      </c>
+      <c r="P376">
+        <v>7.5</v>
+      </c>
+      <c r="Q376">
+        <v>-1.25</v>
+      </c>
+      <c r="R376">
+        <v>1.825</v>
+      </c>
+      <c r="S376">
+        <v>2.025</v>
+      </c>
+      <c r="T376">
+        <v>3</v>
+      </c>
+      <c r="U376">
+        <v>1.85</v>
+      </c>
+      <c r="V376">
         <v>2</v>
       </c>
-      <c r="I376">
-        <v>2</v>
-      </c>
-      <c r="J376" t="s">
-        <v>49</v>
-      </c>
-      <c r="K376">
-        <v>3.8</v>
-      </c>
-      <c r="L376">
-        <v>3.5</v>
-      </c>
-      <c r="M376">
-        <v>1.85</v>
-      </c>
-      <c r="N376">
-        <v>3.75</v>
-      </c>
-      <c r="O376">
-        <v>3.8</v>
-      </c>
-      <c r="P376">
-        <v>1.909</v>
-      </c>
-      <c r="Q376">
-        <v>0.5</v>
-      </c>
-      <c r="R376">
-        <v>1.975</v>
-      </c>
-      <c r="S376">
-        <v>1.875</v>
-      </c>
-      <c r="T376">
-        <v>2.75</v>
-      </c>
-      <c r="U376">
-        <v>1.875</v>
-      </c>
-      <c r="V376">
-        <v>1.975</v>
-      </c>
       <c r="W376">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X376">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y376">
         <v>-1</v>
       </c>
       <c r="Z376">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA376">
         <v>-1</v>
       </c>
       <c r="AB376">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC376">
         <v>-1</v>
@@ -39251,7 +39251,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>4568172</v>
+        <v>4568173</v>
       </c>
       <c r="C436" t="s">
         <v>28</v>
@@ -39263,76 +39263,76 @@
         <v>44843.5</v>
       </c>
       <c r="F436" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G436" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H436">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I436">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J436" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K436">
+        <v>2.3</v>
+      </c>
+      <c r="L436">
+        <v>3.4</v>
+      </c>
+      <c r="M436">
+        <v>2.9</v>
+      </c>
+      <c r="N436">
+        <v>2.4</v>
+      </c>
+      <c r="O436">
+        <v>3.3</v>
+      </c>
+      <c r="P436">
+        <v>3</v>
+      </c>
+      <c r="Q436">
+        <v>-0.25</v>
+      </c>
+      <c r="R436">
+        <v>2.05</v>
+      </c>
+      <c r="S436">
+        <v>1.8</v>
+      </c>
+      <c r="T436">
+        <v>2.75</v>
+      </c>
+      <c r="U436">
         <v>2</v>
       </c>
-      <c r="L436">
-        <v>3.5</v>
-      </c>
-      <c r="M436">
-        <v>3.4</v>
-      </c>
-      <c r="N436">
-        <v>1.8</v>
-      </c>
-      <c r="O436">
-        <v>3.8</v>
-      </c>
-      <c r="P436">
-        <v>4.2</v>
-      </c>
-      <c r="Q436">
+      <c r="V436">
+        <v>1.85</v>
+      </c>
+      <c r="W436">
+        <v>-1</v>
+      </c>
+      <c r="X436">
+        <v>-1</v>
+      </c>
+      <c r="Y436">
+        <v>2</v>
+      </c>
+      <c r="Z436">
+        <v>-1</v>
+      </c>
+      <c r="AA436">
+        <v>0.8</v>
+      </c>
+      <c r="AB436">
+        <v>0.5</v>
+      </c>
+      <c r="AC436">
         <v>-0.5</v>
-      </c>
-      <c r="R436">
-        <v>1.825</v>
-      </c>
-      <c r="S436">
-        <v>2.025</v>
-      </c>
-      <c r="T436">
-        <v>3</v>
-      </c>
-      <c r="U436">
-        <v>1.825</v>
-      </c>
-      <c r="V436">
-        <v>2.025</v>
-      </c>
-      <c r="W436">
-        <v>-1</v>
-      </c>
-      <c r="X436">
-        <v>2.8</v>
-      </c>
-      <c r="Y436">
-        <v>-1</v>
-      </c>
-      <c r="Z436">
-        <v>-1</v>
-      </c>
-      <c r="AA436">
-        <v>1.025</v>
-      </c>
-      <c r="AB436">
-        <v>-1</v>
-      </c>
-      <c r="AC436">
-        <v>1.025</v>
       </c>
     </row>
     <row r="437" spans="1:29">
@@ -39518,7 +39518,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>4568173</v>
+        <v>4568172</v>
       </c>
       <c r="C439" t="s">
         <v>28</v>
@@ -39530,76 +39530,76 @@
         <v>44843.5</v>
       </c>
       <c r="F439" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G439" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I439">
+        <v>1</v>
+      </c>
+      <c r="J439" t="s">
+        <v>49</v>
+      </c>
+      <c r="K439">
+        <v>2</v>
+      </c>
+      <c r="L439">
+        <v>3.5</v>
+      </c>
+      <c r="M439">
+        <v>3.4</v>
+      </c>
+      <c r="N439">
+        <v>1.8</v>
+      </c>
+      <c r="O439">
+        <v>3.8</v>
+      </c>
+      <c r="P439">
+        <v>4.2</v>
+      </c>
+      <c r="Q439">
+        <v>-0.5</v>
+      </c>
+      <c r="R439">
+        <v>1.825</v>
+      </c>
+      <c r="S439">
+        <v>2.025</v>
+      </c>
+      <c r="T439">
         <v>3</v>
       </c>
-      <c r="J439" t="s">
-        <v>50</v>
-      </c>
-      <c r="K439">
-        <v>2.3</v>
-      </c>
-      <c r="L439">
-        <v>3.4</v>
-      </c>
-      <c r="M439">
-        <v>2.9</v>
-      </c>
-      <c r="N439">
-        <v>2.4</v>
-      </c>
-      <c r="O439">
-        <v>3.3</v>
-      </c>
-      <c r="P439">
-        <v>3</v>
-      </c>
-      <c r="Q439">
-        <v>-0.25</v>
-      </c>
-      <c r="R439">
-        <v>2.05</v>
-      </c>
-      <c r="S439">
-        <v>1.8</v>
-      </c>
-      <c r="T439">
-        <v>2.75</v>
-      </c>
       <c r="U439">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V439">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W439">
         <v>-1</v>
       </c>
       <c r="X439">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y439">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z439">
         <v>-1</v>
       </c>
       <c r="AA439">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB439">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC439">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="440" spans="1:29">
@@ -40942,7 +40942,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>4568179</v>
+        <v>4568181</v>
       </c>
       <c r="C455" t="s">
         <v>28</v>
@@ -40954,40 +40954,40 @@
         <v>44857.5</v>
       </c>
       <c r="F455" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G455" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H455">
+        <v>0</v>
+      </c>
+      <c r="I455">
         <v>1</v>
       </c>
-      <c r="I455">
-        <v>0</v>
-      </c>
       <c r="J455" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K455">
-        <v>1.615</v>
+        <v>3.1</v>
       </c>
       <c r="L455">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M455">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="N455">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="O455">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P455">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="Q455">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R455">
         <v>1.8</v>
@@ -40999,31 +40999,31 @@
         <v>2.75</v>
       </c>
       <c r="U455">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V455">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W455">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X455">
         <v>-1</v>
       </c>
       <c r="Y455">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z455">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA455">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB455">
         <v>-1</v>
       </c>
       <c r="AC455">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="456" spans="1:29">
@@ -41031,7 +41031,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>4568181</v>
+        <v>4568179</v>
       </c>
       <c r="C456" t="s">
         <v>28</v>
@@ -41043,40 +41043,40 @@
         <v>44857.5</v>
       </c>
       <c r="F456" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G456" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H456">
+        <v>1</v>
+      </c>
+      <c r="I456">
         <v>0</v>
       </c>
-      <c r="I456">
-        <v>1</v>
-      </c>
       <c r="J456" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K456">
-        <v>3.1</v>
+        <v>1.615</v>
       </c>
       <c r="L456">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M456">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="N456">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="O456">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P456">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q456">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R456">
         <v>1.8</v>
@@ -41088,31 +41088,31 @@
         <v>2.75</v>
       </c>
       <c r="U456">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V456">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W456">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X456">
         <v>-1</v>
       </c>
       <c r="Y456">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z456">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA456">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB456">
         <v>-1</v>
       </c>
       <c r="AC456">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="457" spans="1:29">
@@ -41209,7 +41209,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>4568186</v>
+        <v>4568037</v>
       </c>
       <c r="C458" t="s">
         <v>28</v>
@@ -41221,19 +41221,19 @@
         <v>44863.54166666666</v>
       </c>
       <c r="F458" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G458" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H458">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I458">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J458" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K458">
         <v>1.95</v>
@@ -41242,55 +41242,55 @@
         <v>3.6</v>
       </c>
       <c r="M458">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N458">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O458">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P458">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q458">
         <v>-0.25</v>
       </c>
       <c r="R458">
+        <v>1.875</v>
+      </c>
+      <c r="S458">
+        <v>1.975</v>
+      </c>
+      <c r="T458">
+        <v>3.25</v>
+      </c>
+      <c r="U458">
         <v>1.925</v>
       </c>
-      <c r="S458">
+      <c r="V458">
         <v>1.925</v>
       </c>
-      <c r="T458">
+      <c r="W458">
+        <v>-1</v>
+      </c>
+      <c r="X458">
         <v>3</v>
       </c>
-      <c r="U458">
-        <v>1.95</v>
-      </c>
-      <c r="V458">
-        <v>1.9</v>
-      </c>
-      <c r="W458">
-        <v>-1</v>
-      </c>
-      <c r="X458">
-        <v>-1</v>
-      </c>
       <c r="Y458">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z458">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA458">
+        <v>0.4875</v>
+      </c>
+      <c r="AB458">
         <v>0.925</v>
       </c>
-      <c r="AB458">
-        <v>0</v>
-      </c>
       <c r="AC458">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="459" spans="1:29">
@@ -41298,7 +41298,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>4568037</v>
+        <v>4568186</v>
       </c>
       <c r="C459" t="s">
         <v>28</v>
@@ -41310,19 +41310,19 @@
         <v>44863.54166666666</v>
       </c>
       <c r="F459" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G459" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H459">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I459">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J459" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K459">
         <v>1.95</v>
@@ -41331,55 +41331,55 @@
         <v>3.6</v>
       </c>
       <c r="M459">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N459">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O459">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P459">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="Q459">
         <v>-0.25</v>
       </c>
       <c r="R459">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S459">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T459">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U459">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V459">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W459">
         <v>-1</v>
       </c>
       <c r="X459">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y459">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z459">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA459">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
       <c r="AB459">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC459">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="460" spans="1:29">
@@ -42989,7 +42989,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>4568199</v>
+        <v>4568198</v>
       </c>
       <c r="C478" t="s">
         <v>28</v>
@@ -43001,10 +43001,10 @@
         <v>44878.54166666666</v>
       </c>
       <c r="F478" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G478" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H478">
         <v>2</v>
@@ -43016,46 +43016,46 @@
         <v>49</v>
       </c>
       <c r="K478">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="L478">
         <v>4</v>
       </c>
       <c r="M478">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="N478">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="O478">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P478">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q478">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R478">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S478">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T478">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U478">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V478">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W478">
         <v>-1</v>
       </c>
       <c r="X478">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Y478">
         <v>-1</v>
@@ -43064,10 +43064,10 @@
         <v>-1</v>
       </c>
       <c r="AA478">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB478">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC478">
         <v>-1</v>
@@ -43078,7 +43078,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>4568198</v>
+        <v>4568199</v>
       </c>
       <c r="C479" t="s">
         <v>28</v>
@@ -43090,10 +43090,10 @@
         <v>44878.54166666666</v>
       </c>
       <c r="F479" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G479" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H479">
         <v>2</v>
@@ -43105,46 +43105,46 @@
         <v>49</v>
       </c>
       <c r="K479">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="L479">
         <v>4</v>
       </c>
       <c r="M479">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="N479">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="O479">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P479">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q479">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R479">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S479">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T479">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U479">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V479">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W479">
         <v>-1</v>
       </c>
       <c r="X479">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Y479">
         <v>-1</v>
@@ -43153,10 +43153,10 @@
         <v>-1</v>
       </c>
       <c r="AA479">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB479">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC479">
         <v>-1</v>
@@ -52423,7 +52423,7 @@
         <v>582</v>
       </c>
       <c r="B584">
-        <v>6011932</v>
+        <v>6011987</v>
       </c>
       <c r="C584" t="s">
         <v>28</v>
@@ -52435,76 +52435,76 @@
         <v>45116.5</v>
       </c>
       <c r="F584" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G584" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H584">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I584">
         <v>2</v>
       </c>
       <c r="J584" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K584">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="L584">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M584">
+        <v>3.25</v>
+      </c>
+      <c r="N584">
         <v>2.25</v>
       </c>
-      <c r="N584">
-        <v>3.3</v>
-      </c>
       <c r="O584">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P584">
+        <v>3</v>
+      </c>
+      <c r="Q584">
+        <v>-0.25</v>
+      </c>
+      <c r="R584">
         <v>2.05</v>
       </c>
-      <c r="Q584">
-        <v>0.5</v>
-      </c>
-      <c r="R584">
+      <c r="S584">
+        <v>1.8</v>
+      </c>
+      <c r="T584">
+        <v>2.75</v>
+      </c>
+      <c r="U584">
         <v>1.85</v>
       </c>
-      <c r="S584">
-        <v>2.05</v>
-      </c>
-      <c r="T584">
-        <v>3.5</v>
-      </c>
-      <c r="U584">
+      <c r="V584">
         <v>2</v>
       </c>
-      <c r="V584">
-        <v>1.85</v>
-      </c>
       <c r="W584">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X584">
         <v>-1</v>
       </c>
       <c r="Y584">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z584">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA584">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB584">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AC584">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="585" spans="1:29">
@@ -52512,7 +52512,7 @@
         <v>583</v>
       </c>
       <c r="B585">
-        <v>6011987</v>
+        <v>6011932</v>
       </c>
       <c r="C585" t="s">
         <v>28</v>
@@ -52524,76 +52524,76 @@
         <v>45116.5</v>
       </c>
       <c r="F585" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G585" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H585">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I585">
         <v>2</v>
       </c>
       <c r="J585" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K585">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="L585">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M585">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="N585">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="O585">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P585">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="Q585">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R585">
+        <v>1.85</v>
+      </c>
+      <c r="S585">
         <v>2.05</v>
       </c>
-      <c r="S585">
-        <v>1.8</v>
-      </c>
       <c r="T585">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U585">
+        <v>2</v>
+      </c>
+      <c r="V585">
         <v>1.85</v>
       </c>
-      <c r="V585">
-        <v>2</v>
-      </c>
       <c r="W585">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X585">
         <v>-1</v>
       </c>
       <c r="Y585">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z585">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA585">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB585">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="AC585">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="586" spans="1:29">
@@ -61946,7 +61946,7 @@
         <v>689</v>
       </c>
       <c r="B691">
-        <v>6008621</v>
+        <v>6011938</v>
       </c>
       <c r="C691" t="s">
         <v>28</v>
@@ -61958,49 +61958,49 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F691" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G691" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I691">
+        <v>2</v>
+      </c>
+      <c r="J691" t="s">
+        <v>48</v>
+      </c>
+      <c r="K691">
+        <v>1.909</v>
+      </c>
+      <c r="L691">
         <v>4</v>
       </c>
-      <c r="J691" t="s">
-        <v>50</v>
-      </c>
-      <c r="K691">
-        <v>5.25</v>
-      </c>
-      <c r="L691">
-        <v>4.333</v>
-      </c>
       <c r="M691">
-        <v>1.55</v>
+        <v>3.5</v>
       </c>
       <c r="N691">
-        <v>5.75</v>
+        <v>1.909</v>
       </c>
       <c r="O691">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P691">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q691">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R691">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S691">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T691">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U691">
         <v>2.025</v>
@@ -62009,19 +62009,19 @@
         <v>1.825</v>
       </c>
       <c r="W691">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X691">
         <v>-1</v>
       </c>
       <c r="Y691">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z691">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA691">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB691">
         <v>1.025</v>
@@ -62035,7 +62035,7 @@
         <v>690</v>
       </c>
       <c r="B692">
-        <v>6011938</v>
+        <v>6011526</v>
       </c>
       <c r="C692" t="s">
         <v>28</v>
@@ -62047,58 +62047,58 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F692" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G692" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H692">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I692">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J692" t="s">
         <v>48</v>
       </c>
       <c r="K692">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="L692">
         <v>4</v>
       </c>
       <c r="M692">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="N692">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O692">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P692">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q692">
         <v>-0.5</v>
       </c>
       <c r="R692">
+        <v>1.86</v>
+      </c>
+      <c r="S692">
+        <v>2.04</v>
+      </c>
+      <c r="T692">
+        <v>2.5</v>
+      </c>
+      <c r="U692">
         <v>1.9</v>
       </c>
-      <c r="S692">
-        <v>2</v>
-      </c>
-      <c r="T692">
-        <v>3.25</v>
-      </c>
-      <c r="U692">
-        <v>2.025</v>
-      </c>
       <c r="V692">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W692">
-        <v>0.909</v>
+        <v>0.8</v>
       </c>
       <c r="X692">
         <v>-1</v>
@@ -62107,16 +62107,16 @@
         <v>-1</v>
       </c>
       <c r="Z692">
-        <v>0.8999999999999999</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA692">
         <v>-1</v>
       </c>
       <c r="AB692">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC692">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="693" spans="1:29">
@@ -62124,7 +62124,7 @@
         <v>691</v>
       </c>
       <c r="B693">
-        <v>6011526</v>
+        <v>6011426</v>
       </c>
       <c r="C693" t="s">
         <v>28</v>
@@ -62136,58 +62136,58 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F693" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G693" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H693">
+        <v>2</v>
+      </c>
+      <c r="I693">
         <v>1</v>
-      </c>
-      <c r="I693">
-        <v>0</v>
       </c>
       <c r="J693" t="s">
         <v>48</v>
       </c>
       <c r="K693">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="L693">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M693">
-        <v>4.333</v>
+        <v>9</v>
       </c>
       <c r="N693">
-        <v>1.8</v>
+        <v>1.142</v>
       </c>
       <c r="O693">
-        <v>3.8</v>
+        <v>9</v>
       </c>
       <c r="P693">
-        <v>4.2</v>
+        <v>17</v>
       </c>
       <c r="Q693">
-        <v>-0.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R693">
-        <v>1.86</v>
+        <v>1.875</v>
       </c>
       <c r="S693">
-        <v>2.04</v>
+        <v>1.975</v>
       </c>
       <c r="T693">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U693">
+        <v>1.95</v>
+      </c>
+      <c r="V693">
         <v>1.9</v>
       </c>
-      <c r="V693">
-        <v>1.95</v>
-      </c>
       <c r="W693">
-        <v>0.8</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X693">
         <v>-1</v>
@@ -62196,16 +62196,16 @@
         <v>-1</v>
       </c>
       <c r="Z693">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA693">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB693">
         <v>-1</v>
       </c>
       <c r="AC693">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="694" spans="1:29">
@@ -62213,7 +62213,7 @@
         <v>692</v>
       </c>
       <c r="B694">
-        <v>6011426</v>
+        <v>6008785</v>
       </c>
       <c r="C694" t="s">
         <v>28</v>
@@ -62225,13 +62225,13 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F694" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G694" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H694">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I694">
         <v>1</v>
@@ -62240,43 +62240,43 @@
         <v>48</v>
       </c>
       <c r="K694">
-        <v>1.3</v>
+        <v>3.75</v>
       </c>
       <c r="L694">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="M694">
-        <v>9</v>
+        <v>1.85</v>
       </c>
       <c r="N694">
-        <v>1.142</v>
+        <v>3.75</v>
       </c>
       <c r="O694">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="P694">
-        <v>17</v>
+        <v>1.95</v>
       </c>
       <c r="Q694">
-        <v>-2.25</v>
+        <v>0.5</v>
       </c>
       <c r="R694">
-        <v>1.875</v>
+        <v>1.92</v>
       </c>
       <c r="S694">
-        <v>1.975</v>
+        <v>1.98</v>
       </c>
       <c r="T694">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U694">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V694">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W694">
-        <v>0.1419999999999999</v>
+        <v>2.75</v>
       </c>
       <c r="X694">
         <v>-1</v>
@@ -62285,16 +62285,16 @@
         <v>-1</v>
       </c>
       <c r="Z694">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA694">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB694">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC694">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="695" spans="1:29">
@@ -62302,7 +62302,7 @@
         <v>693</v>
       </c>
       <c r="B695">
-        <v>6008785</v>
+        <v>6008621</v>
       </c>
       <c r="C695" t="s">
         <v>28</v>
@@ -62314,73 +62314,73 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F695" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G695" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H695">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I695">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J695" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K695">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="L695">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="M695">
-        <v>1.85</v>
+        <v>1.55</v>
       </c>
       <c r="N695">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="O695">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P695">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="Q695">
+        <v>1.25</v>
+      </c>
+      <c r="R695">
+        <v>1.825</v>
+      </c>
+      <c r="S695">
+        <v>2.025</v>
+      </c>
+      <c r="T695">
+        <v>3.5</v>
+      </c>
+      <c r="U695">
+        <v>2.025</v>
+      </c>
+      <c r="V695">
+        <v>1.825</v>
+      </c>
+      <c r="W695">
+        <v>-1</v>
+      </c>
+      <c r="X695">
+        <v>-1</v>
+      </c>
+      <c r="Y695">
         <v>0.5</v>
       </c>
-      <c r="R695">
-        <v>1.92</v>
-      </c>
-      <c r="S695">
-        <v>1.98</v>
-      </c>
-      <c r="T695">
-        <v>3.25</v>
-      </c>
-      <c r="U695">
-        <v>2.05</v>
-      </c>
-      <c r="V695">
-        <v>1.8</v>
-      </c>
-      <c r="W695">
-        <v>2.75</v>
-      </c>
-      <c r="X695">
-        <v>-1</v>
-      </c>
-      <c r="Y695">
-        <v>-1</v>
-      </c>
       <c r="Z695">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA695">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB695">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AC695">
         <v>-1</v>

--- a/Norway Eliteserien/Norway Eliteserien.xlsx
+++ b/Norway Eliteserien/Norway Eliteserien.xlsx
@@ -38450,7 +38450,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>4568168</v>
+        <v>4567510</v>
       </c>
       <c r="C427" t="s">
         <v>28</v>
@@ -38462,73 +38462,73 @@
         <v>44835.54166666666</v>
       </c>
       <c r="F427" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G427" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H427">
+        <v>1</v>
+      </c>
+      <c r="I427">
         <v>4</v>
       </c>
-      <c r="I427">
-        <v>0</v>
-      </c>
       <c r="J427" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K427">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="L427">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M427">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="N427">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="O427">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P427">
-        <v>5.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q427">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R427">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S427">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T427">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U427">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V427">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W427">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X427">
         <v>-1</v>
       </c>
       <c r="Y427">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z427">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA427">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB427">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC427">
         <v>-1</v>
@@ -38539,7 +38539,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>4567510</v>
+        <v>4568168</v>
       </c>
       <c r="C428" t="s">
         <v>28</v>
@@ -38551,73 +38551,73 @@
         <v>44835.54166666666</v>
       </c>
       <c r="F428" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G428" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H428">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I428">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J428" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K428">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="L428">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M428">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="N428">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="O428">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P428">
-        <v>2.25</v>
+        <v>5.75</v>
       </c>
       <c r="Q428">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R428">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S428">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T428">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U428">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V428">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W428">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X428">
         <v>-1</v>
       </c>
       <c r="Y428">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z428">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA428">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB428">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC428">
         <v>-1</v>
@@ -43434,7 +43434,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>6008595</v>
+        <v>6011377</v>
       </c>
       <c r="C483" t="s">
         <v>28</v>
@@ -43446,76 +43446,76 @@
         <v>45026.5</v>
       </c>
       <c r="F483" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G483" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H483">
         <v>0</v>
       </c>
       <c r="I483">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J483" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K483">
+        <v>2.5</v>
+      </c>
+      <c r="L483">
         <v>3.5</v>
       </c>
-      <c r="L483">
-        <v>4</v>
-      </c>
       <c r="M483">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="N483">
+        <v>2.05</v>
+      </c>
+      <c r="O483">
         <v>3.6</v>
       </c>
-      <c r="O483">
-        <v>4</v>
-      </c>
       <c r="P483">
+        <v>3.4</v>
+      </c>
+      <c r="Q483">
+        <v>-0.5</v>
+      </c>
+      <c r="R483">
+        <v>2.05</v>
+      </c>
+      <c r="S483">
+        <v>1.8</v>
+      </c>
+      <c r="T483">
+        <v>2.5</v>
+      </c>
+      <c r="U483">
+        <v>1.9</v>
+      </c>
+      <c r="V483">
         <v>1.95</v>
       </c>
-      <c r="Q483">
-        <v>0.5</v>
-      </c>
-      <c r="R483">
-        <v>1.85</v>
-      </c>
-      <c r="S483">
-        <v>2</v>
-      </c>
-      <c r="T483">
-        <v>3</v>
-      </c>
-      <c r="U483">
-        <v>1.925</v>
-      </c>
-      <c r="V483">
-        <v>1.925</v>
-      </c>
       <c r="W483">
         <v>-1</v>
       </c>
       <c r="X483">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y483">
+        <v>-1</v>
+      </c>
+      <c r="Z483">
+        <v>-1</v>
+      </c>
+      <c r="AA483">
+        <v>0.8</v>
+      </c>
+      <c r="AB483">
+        <v>-1</v>
+      </c>
+      <c r="AC483">
         <v>0.95</v>
-      </c>
-      <c r="Z483">
-        <v>-1</v>
-      </c>
-      <c r="AA483">
-        <v>1</v>
-      </c>
-      <c r="AB483">
-        <v>-1</v>
-      </c>
-      <c r="AC483">
-        <v>0.925</v>
       </c>
     </row>
     <row r="484" spans="1:29">
@@ -43523,7 +43523,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>6011377</v>
+        <v>6008595</v>
       </c>
       <c r="C484" t="s">
         <v>28</v>
@@ -43535,76 +43535,76 @@
         <v>45026.5</v>
       </c>
       <c r="F484" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G484" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H484">
         <v>0</v>
       </c>
       <c r="I484">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J484" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K484">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="L484">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M484">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="N484">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="O484">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P484">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="Q484">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R484">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S484">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T484">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U484">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V484">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W484">
         <v>-1</v>
       </c>
       <c r="X484">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y484">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z484">
         <v>-1</v>
       </c>
       <c r="AA484">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB484">
         <v>-1</v>
       </c>
       <c r="AC484">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="485" spans="1:29">
@@ -43612,7 +43612,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>6011457</v>
+        <v>6008761</v>
       </c>
       <c r="C485" t="s">
         <v>28</v>
@@ -43624,49 +43624,49 @@
         <v>45026.5</v>
       </c>
       <c r="F485" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G485" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H485">
+        <v>1</v>
+      </c>
+      <c r="I485">
         <v>0</v>
       </c>
-      <c r="I485">
-        <v>1</v>
-      </c>
       <c r="J485" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K485">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="L485">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M485">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="N485">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="O485">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P485">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="Q485">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R485">
-        <v>1.83</v>
+        <v>2.04</v>
       </c>
       <c r="S485">
-        <v>2.07</v>
+        <v>1.86</v>
       </c>
       <c r="T485">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U485">
         <v>2.05</v>
@@ -43675,19 +43675,19 @@
         <v>1.8</v>
       </c>
       <c r="W485">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X485">
         <v>-1</v>
       </c>
       <c r="Y485">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z485">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AA485">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AB485">
         <v>-1</v>
@@ -43701,7 +43701,7 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>6011458</v>
+        <v>6011457</v>
       </c>
       <c r="C486" t="s">
         <v>28</v>
@@ -43713,76 +43713,76 @@
         <v>45026.5</v>
       </c>
       <c r="F486" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G486" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J486" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K486">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="L486">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M486">
-        <v>3.9</v>
+        <v>2.2</v>
       </c>
       <c r="N486">
-        <v>1.85</v>
+        <v>3</v>
       </c>
       <c r="O486">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P486">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q486">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R486">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="S486">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="T486">
         <v>2.5</v>
       </c>
       <c r="U486">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V486">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W486">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X486">
         <v>-1</v>
       </c>
       <c r="Y486">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z486">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA486">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AB486">
         <v>-1</v>
       </c>
       <c r="AC486">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="487" spans="1:29">
@@ -43790,7 +43790,7 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>6008761</v>
+        <v>6011458</v>
       </c>
       <c r="C487" t="s">
         <v>28</v>
@@ -43802,13 +43802,13 @@
         <v>45026.5</v>
       </c>
       <c r="F487" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G487" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H487">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I487">
         <v>0</v>
@@ -43817,43 +43817,43 @@
         <v>48</v>
       </c>
       <c r="K487">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="L487">
         <v>3.6</v>
       </c>
       <c r="M487">
-        <v>2.05</v>
+        <v>3.9</v>
       </c>
       <c r="N487">
+        <v>1.85</v>
+      </c>
+      <c r="O487">
+        <v>3.6</v>
+      </c>
+      <c r="P487">
         <v>4.2</v>
       </c>
-      <c r="O487">
-        <v>3.8</v>
-      </c>
-      <c r="P487">
-        <v>1.833</v>
-      </c>
       <c r="Q487">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R487">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="S487">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="T487">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U487">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V487">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W487">
-        <v>3.2</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X487">
         <v>-1</v>
@@ -43862,7 +43862,7 @@
         <v>-1</v>
       </c>
       <c r="Z487">
-        <v>1.04</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA487">
         <v>-1</v>
@@ -43871,7 +43871,7 @@
         <v>-1</v>
       </c>
       <c r="AC487">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="488" spans="1:29">
@@ -44858,7 +44858,7 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>6011462</v>
+        <v>6011380</v>
       </c>
       <c r="C499" t="s">
         <v>28</v>
@@ -44870,76 +44870,76 @@
         <v>45039.5</v>
       </c>
       <c r="F499" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G499" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499">
         <v>0</v>
       </c>
       <c r="J499" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K499">
-        <v>2.05</v>
+        <v>1.833</v>
       </c>
       <c r="L499">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M499">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N499">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="O499">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P499">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q499">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R499">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S499">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T499">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U499">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V499">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W499">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X499">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y499">
         <v>-1</v>
       </c>
       <c r="Z499">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA499">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB499">
         <v>-1</v>
       </c>
       <c r="AC499">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="500" spans="1:29">
@@ -44947,7 +44947,7 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>6011381</v>
+        <v>6008597</v>
       </c>
       <c r="C500" t="s">
         <v>28</v>
@@ -44959,76 +44959,76 @@
         <v>45039.5</v>
       </c>
       <c r="F500" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G500" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H500">
+        <v>0</v>
+      </c>
+      <c r="I500">
+        <v>3</v>
+      </c>
+      <c r="J500" t="s">
+        <v>50</v>
+      </c>
+      <c r="K500">
+        <v>6</v>
+      </c>
+      <c r="L500">
+        <v>4.333</v>
+      </c>
+      <c r="M500">
+        <v>1.5</v>
+      </c>
+      <c r="N500">
+        <v>5.5</v>
+      </c>
+      <c r="O500">
+        <v>4.2</v>
+      </c>
+      <c r="P500">
+        <v>1.55</v>
+      </c>
+      <c r="Q500">
         <v>1</v>
       </c>
-      <c r="I500">
+      <c r="R500">
+        <v>1.85</v>
+      </c>
+      <c r="S500">
+        <v>2</v>
+      </c>
+      <c r="T500">
+        <v>2.75</v>
+      </c>
+      <c r="U500">
+        <v>1.975</v>
+      </c>
+      <c r="V500">
+        <v>1.875</v>
+      </c>
+      <c r="W500">
+        <v>-1</v>
+      </c>
+      <c r="X500">
+        <v>-1</v>
+      </c>
+      <c r="Y500">
+        <v>0.55</v>
+      </c>
+      <c r="Z500">
+        <v>-1</v>
+      </c>
+      <c r="AA500">
         <v>1</v>
       </c>
-      <c r="J500" t="s">
-        <v>49</v>
-      </c>
-      <c r="K500">
-        <v>2.4</v>
-      </c>
-      <c r="L500">
-        <v>3.4</v>
-      </c>
-      <c r="M500">
-        <v>2.8</v>
-      </c>
-      <c r="N500">
-        <v>2.45</v>
-      </c>
-      <c r="O500">
-        <v>3.3</v>
-      </c>
-      <c r="P500">
-        <v>3</v>
-      </c>
-      <c r="Q500">
-        <v>-0.25</v>
-      </c>
-      <c r="R500">
-        <v>2.09</v>
-      </c>
-      <c r="S500">
-        <v>1.81</v>
-      </c>
-      <c r="T500">
-        <v>2.25</v>
-      </c>
-      <c r="U500">
-        <v>1.825</v>
-      </c>
-      <c r="V500">
-        <v>2.025</v>
-      </c>
-      <c r="W500">
-        <v>-1</v>
-      </c>
-      <c r="X500">
-        <v>2.3</v>
-      </c>
-      <c r="Y500">
-        <v>-1</v>
-      </c>
-      <c r="Z500">
+      <c r="AB500">
+        <v>0.4875</v>
+      </c>
+      <c r="AC500">
         <v>-0.5</v>
-      </c>
-      <c r="AA500">
-        <v>0.405</v>
-      </c>
-      <c r="AB500">
-        <v>-0.5</v>
-      </c>
-      <c r="AC500">
-        <v>0.5125</v>
       </c>
     </row>
     <row r="501" spans="1:29">
@@ -45036,7 +45036,7 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>6008597</v>
+        <v>6011462</v>
       </c>
       <c r="C501" t="s">
         <v>28</v>
@@ -45048,76 +45048,76 @@
         <v>45039.5</v>
       </c>
       <c r="F501" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G501" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H501">
+        <v>2</v>
+      </c>
+      <c r="I501">
         <v>0</v>
       </c>
-      <c r="I501">
-        <v>3</v>
-      </c>
       <c r="J501" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K501">
-        <v>6</v>
+        <v>2.05</v>
       </c>
       <c r="L501">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M501">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="N501">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="O501">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P501">
-        <v>1.55</v>
+        <v>3.25</v>
       </c>
       <c r="Q501">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R501">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S501">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T501">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U501">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V501">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W501">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X501">
         <v>-1</v>
       </c>
       <c r="Y501">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z501">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA501">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB501">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC501">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="502" spans="1:29">
@@ -45214,7 +45214,7 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>6011380</v>
+        <v>6011381</v>
       </c>
       <c r="C503" t="s">
         <v>28</v>
@@ -45226,76 +45226,76 @@
         <v>45039.5</v>
       </c>
       <c r="F503" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G503" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I503">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J503" t="s">
         <v>49</v>
       </c>
       <c r="K503">
-        <v>1.833</v>
+        <v>2.4</v>
       </c>
       <c r="L503">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M503">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N503">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="O503">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P503">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q503">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R503">
+        <v>2.09</v>
+      </c>
+      <c r="S503">
+        <v>1.81</v>
+      </c>
+      <c r="T503">
+        <v>2.25</v>
+      </c>
+      <c r="U503">
+        <v>1.825</v>
+      </c>
+      <c r="V503">
         <v>2.025</v>
       </c>
-      <c r="S503">
-        <v>1.825</v>
-      </c>
-      <c r="T503">
-        <v>3</v>
-      </c>
-      <c r="U503">
-        <v>1.975</v>
-      </c>
-      <c r="V503">
-        <v>1.875</v>
-      </c>
       <c r="W503">
         <v>-1</v>
       </c>
       <c r="X503">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y503">
         <v>-1</v>
       </c>
       <c r="Z503">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA503">
-        <v>0.825</v>
+        <v>0.405</v>
       </c>
       <c r="AB503">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC503">
-        <v>0.875</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="504" spans="1:29">
@@ -47973,7 +47973,7 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>6008601</v>
+        <v>6011389</v>
       </c>
       <c r="C534" t="s">
         <v>28</v>
@@ -47985,40 +47985,40 @@
         <v>45062.54166666666</v>
       </c>
       <c r="F534" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G534" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H534">
+        <v>3</v>
+      </c>
+      <c r="I534">
         <v>2</v>
       </c>
-      <c r="I534">
-        <v>3</v>
-      </c>
       <c r="J534" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K534">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="L534">
         <v>3.6</v>
       </c>
       <c r="M534">
-        <v>1.666</v>
+        <v>4.2</v>
       </c>
       <c r="N534">
+        <v>1.615</v>
+      </c>
+      <c r="O534">
+        <v>4.2</v>
+      </c>
+      <c r="P534">
         <v>5</v>
       </c>
-      <c r="O534">
-        <v>4</v>
-      </c>
-      <c r="P534">
-        <v>1.615</v>
-      </c>
       <c r="Q534">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R534">
         <v>2.05</v>
@@ -48027,31 +48027,31 @@
         <v>1.8</v>
       </c>
       <c r="T534">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U534">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V534">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W534">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X534">
         <v>-1</v>
       </c>
       <c r="Y534">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z534">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA534">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
       <c r="AB534">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC534">
         <v>-1</v>
@@ -48062,7 +48062,7 @@
         <v>533</v>
       </c>
       <c r="B535">
-        <v>6011389</v>
+        <v>6008601</v>
       </c>
       <c r="C535" t="s">
         <v>28</v>
@@ -48074,40 +48074,40 @@
         <v>45062.54166666666</v>
       </c>
       <c r="F535" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G535" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H535">
+        <v>2</v>
+      </c>
+      <c r="I535">
         <v>3</v>
       </c>
-      <c r="I535">
-        <v>2</v>
-      </c>
       <c r="J535" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K535">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="L535">
         <v>3.6</v>
       </c>
       <c r="M535">
-        <v>4.2</v>
+        <v>1.666</v>
       </c>
       <c r="N535">
+        <v>5</v>
+      </c>
+      <c r="O535">
+        <v>4</v>
+      </c>
+      <c r="P535">
         <v>1.615</v>
       </c>
-      <c r="O535">
-        <v>4.2</v>
-      </c>
-      <c r="P535">
-        <v>5</v>
-      </c>
       <c r="Q535">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R535">
         <v>2.05</v>
@@ -48116,31 +48116,31 @@
         <v>1.8</v>
       </c>
       <c r="T535">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U535">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V535">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W535">
+        <v>-1</v>
+      </c>
+      <c r="X535">
+        <v>-1</v>
+      </c>
+      <c r="Y535">
         <v>0.615</v>
       </c>
-      <c r="X535">
-        <v>-1</v>
-      </c>
-      <c r="Y535">
-        <v>-1</v>
-      </c>
       <c r="Z535">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA535">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
       <c r="AB535">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC535">
         <v>-1</v>
@@ -48240,7 +48240,7 @@
         <v>535</v>
       </c>
       <c r="B537">
-        <v>6011473</v>
+        <v>6011978</v>
       </c>
       <c r="C537" t="s">
         <v>28</v>
@@ -48252,40 +48252,40 @@
         <v>45062.54166666666</v>
       </c>
       <c r="F537" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G537" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H537">
+        <v>4</v>
+      </c>
+      <c r="I537">
         <v>1</v>
-      </c>
-      <c r="I537">
-        <v>0</v>
       </c>
       <c r="J537" t="s">
         <v>48</v>
       </c>
       <c r="K537">
-        <v>1.571</v>
+        <v>1.285</v>
       </c>
       <c r="L537">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="M537">
-        <v>5.25</v>
+        <v>9.5</v>
       </c>
       <c r="N537">
-        <v>1.7</v>
+        <v>1.333</v>
       </c>
       <c r="O537">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P537">
-        <v>5.75</v>
+        <v>11</v>
       </c>
       <c r="Q537">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R537">
         <v>1.925</v>
@@ -48294,16 +48294,16 @@
         <v>1.925</v>
       </c>
       <c r="T537">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U537">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V537">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W537">
-        <v>0.7</v>
+        <v>0.333</v>
       </c>
       <c r="X537">
         <v>-1</v>
@@ -48312,16 +48312,16 @@
         <v>-1</v>
       </c>
       <c r="Z537">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
       <c r="AA537">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB537">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC537">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="538" spans="1:29">
@@ -48329,7 +48329,7 @@
         <v>536</v>
       </c>
       <c r="B538">
-        <v>6011978</v>
+        <v>6011473</v>
       </c>
       <c r="C538" t="s">
         <v>28</v>
@@ -48341,40 +48341,40 @@
         <v>45062.54166666666</v>
       </c>
       <c r="F538" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G538" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H538">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I538">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J538" t="s">
         <v>48</v>
       </c>
       <c r="K538">
-        <v>1.285</v>
+        <v>1.571</v>
       </c>
       <c r="L538">
+        <v>3.8</v>
+      </c>
+      <c r="M538">
         <v>5.25</v>
       </c>
-      <c r="M538">
-        <v>9.5</v>
-      </c>
       <c r="N538">
-        <v>1.333</v>
+        <v>1.7</v>
       </c>
       <c r="O538">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P538">
-        <v>11</v>
+        <v>5.75</v>
       </c>
       <c r="Q538">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R538">
         <v>1.925</v>
@@ -48383,16 +48383,16 @@
         <v>1.925</v>
       </c>
       <c r="T538">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U538">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V538">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W538">
-        <v>0.333</v>
+        <v>0.7</v>
       </c>
       <c r="X538">
         <v>-1</v>
@@ -48401,16 +48401,16 @@
         <v>-1</v>
       </c>
       <c r="Z538">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AA538">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB538">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC538">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="539" spans="1:29">
@@ -52779,7 +52779,7 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>6011988</v>
+        <v>6011490</v>
       </c>
       <c r="C588" t="s">
         <v>28</v>
@@ -52791,76 +52791,76 @@
         <v>45123.5</v>
       </c>
       <c r="F588" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G588" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I588">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J588" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K588">
-        <v>3.1</v>
+        <v>1.333</v>
       </c>
       <c r="L588">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M588">
-        <v>2.2</v>
+        <v>7.5</v>
       </c>
       <c r="N588">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="O588">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="P588">
-        <v>2.375</v>
+        <v>7.5</v>
       </c>
       <c r="Q588">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R588">
-        <v>1.78</v>
+        <v>1.925</v>
       </c>
       <c r="S588">
-        <v>2.125</v>
+        <v>1.925</v>
       </c>
       <c r="T588">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U588">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V588">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W588">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X588">
         <v>-1</v>
       </c>
       <c r="Y588">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z588">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA588">
-        <v>1.125</v>
+        <v>-1</v>
       </c>
       <c r="AB588">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC588">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="589" spans="1:29">
@@ -52868,7 +52868,7 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>6011490</v>
+        <v>6011988</v>
       </c>
       <c r="C589" t="s">
         <v>28</v>
@@ -52880,76 +52880,76 @@
         <v>45123.5</v>
       </c>
       <c r="F589" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G589" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H589">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I589">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J589" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K589">
-        <v>1.333</v>
+        <v>3.1</v>
       </c>
       <c r="L589">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M589">
-        <v>7.5</v>
+        <v>2.2</v>
       </c>
       <c r="N589">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="O589">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P589">
-        <v>7.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q589">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R589">
-        <v>1.925</v>
+        <v>1.78</v>
       </c>
       <c r="S589">
-        <v>1.925</v>
+        <v>2.125</v>
       </c>
       <c r="T589">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U589">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V589">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W589">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X589">
         <v>-1</v>
       </c>
       <c r="Y589">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z589">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA589">
-        <v>-1</v>
+        <v>1.125</v>
       </c>
       <c r="AB589">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC589">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="590" spans="1:29">
@@ -53046,7 +53046,7 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <v>6008608</v>
+        <v>6011402</v>
       </c>
       <c r="C591" t="s">
         <v>28</v>
@@ -53058,76 +53058,76 @@
         <v>45123.5</v>
       </c>
       <c r="F591" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G591" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H591">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J591" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K591">
-        <v>1.181</v>
+        <v>2.3</v>
       </c>
       <c r="L591">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="M591">
-        <v>11</v>
+        <v>3.1</v>
       </c>
       <c r="N591">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="O591">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="P591">
-        <v>11</v>
+        <v>3.3</v>
       </c>
       <c r="Q591">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R591">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S591">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T591">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="U591">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V591">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W591">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X591">
         <v>-1</v>
       </c>
       <c r="Y591">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z591">
         <v>-1</v>
       </c>
       <c r="AA591">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AB591">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC591">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="592" spans="1:29">
@@ -53224,7 +53224,7 @@
         <v>591</v>
       </c>
       <c r="B593">
-        <v>6011402</v>
+        <v>6008608</v>
       </c>
       <c r="C593" t="s">
         <v>28</v>
@@ -53236,76 +53236,76 @@
         <v>45123.5</v>
       </c>
       <c r="F593" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G593" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J593" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K593">
-        <v>2.3</v>
+        <v>1.181</v>
       </c>
       <c r="L593">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="M593">
-        <v>3.1</v>
+        <v>11</v>
       </c>
       <c r="N593">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="O593">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="P593">
-        <v>3.3</v>
+        <v>11</v>
       </c>
       <c r="Q593">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R593">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S593">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T593">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="U593">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V593">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W593">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X593">
         <v>-1</v>
       </c>
       <c r="Y593">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z593">
         <v>-1</v>
       </c>
       <c r="AA593">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AB593">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC593">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="594" spans="1:29">
@@ -53669,7 +53669,7 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>6011493</v>
+        <v>6011405</v>
       </c>
       <c r="C598" t="s">
         <v>28</v>
@@ -53681,16 +53681,16 @@
         <v>45130.5</v>
       </c>
       <c r="F598" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G598" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H598">
+        <v>3</v>
+      </c>
+      <c r="I598">
         <v>1</v>
-      </c>
-      <c r="I598">
-        <v>0</v>
       </c>
       <c r="J598" t="s">
         <v>48</v>
@@ -53699,28 +53699,28 @@
         <v>3.3</v>
       </c>
       <c r="L598">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M598">
         <v>1.95</v>
       </c>
       <c r="N598">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="O598">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P598">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="Q598">
         <v>0.25</v>
       </c>
       <c r="R598">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S598">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T598">
         <v>2.75</v>
@@ -53732,7 +53732,7 @@
         <v>1.95</v>
       </c>
       <c r="W598">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="X598">
         <v>-1</v>
@@ -53741,16 +53741,16 @@
         <v>-1</v>
       </c>
       <c r="Z598">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA598">
         <v>-1</v>
       </c>
       <c r="AB598">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC598">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="599" spans="1:29">
@@ -53758,7 +53758,7 @@
         <v>597</v>
       </c>
       <c r="B599">
-        <v>6011405</v>
+        <v>6011493</v>
       </c>
       <c r="C599" t="s">
         <v>28</v>
@@ -53770,16 +53770,16 @@
         <v>45130.5</v>
       </c>
       <c r="F599" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G599" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H599">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I599">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J599" t="s">
         <v>48</v>
@@ -53788,28 +53788,28 @@
         <v>3.3</v>
       </c>
       <c r="L599">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M599">
         <v>1.95</v>
       </c>
       <c r="N599">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O599">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P599">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="Q599">
         <v>0.25</v>
       </c>
       <c r="R599">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S599">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T599">
         <v>2.75</v>
@@ -53821,7 +53821,7 @@
         <v>1.95</v>
       </c>
       <c r="W599">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="X599">
         <v>-1</v>
@@ -53830,16 +53830,16 @@
         <v>-1</v>
       </c>
       <c r="Z599">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA599">
         <v>-1</v>
       </c>
       <c r="AB599">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC599">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="600" spans="1:29">
@@ -54648,7 +54648,7 @@
         <v>607</v>
       </c>
       <c r="B609">
-        <v>6011497</v>
+        <v>6011991</v>
       </c>
       <c r="C609" t="s">
         <v>28</v>
@@ -54660,76 +54660,76 @@
         <v>45137.5</v>
       </c>
       <c r="F609" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G609" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H609">
+        <v>0</v>
+      </c>
+      <c r="I609">
         <v>2</v>
       </c>
-      <c r="I609">
-        <v>1</v>
-      </c>
       <c r="J609" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K609">
-        <v>1.4</v>
+        <v>1.833</v>
       </c>
       <c r="L609">
+        <v>3.5</v>
+      </c>
+      <c r="M609">
+        <v>3.75</v>
+      </c>
+      <c r="N609">
+        <v>1.8</v>
+      </c>
+      <c r="O609">
         <v>4.5</v>
       </c>
-      <c r="M609">
-        <v>6.5</v>
-      </c>
-      <c r="N609">
-        <v>1.4</v>
-      </c>
-      <c r="O609">
-        <v>5.25</v>
-      </c>
       <c r="P609">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="Q609">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R609">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S609">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T609">
         <v>3.5</v>
       </c>
       <c r="U609">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V609">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W609">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X609">
         <v>-1</v>
       </c>
       <c r="Y609">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z609">
         <v>-1</v>
       </c>
       <c r="AA609">
+        <v>0.825</v>
+      </c>
+      <c r="AB609">
+        <v>-1</v>
+      </c>
+      <c r="AC609">
         <v>0.875</v>
-      </c>
-      <c r="AB609">
-        <v>-1</v>
-      </c>
-      <c r="AC609">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="610" spans="1:29">
@@ -54737,7 +54737,7 @@
         <v>608</v>
       </c>
       <c r="B610">
-        <v>6011991</v>
+        <v>6011497</v>
       </c>
       <c r="C610" t="s">
         <v>28</v>
@@ -54749,76 +54749,76 @@
         <v>45137.5</v>
       </c>
       <c r="F610" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G610" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J610" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K610">
-        <v>1.833</v>
+        <v>1.4</v>
       </c>
       <c r="L610">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M610">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="N610">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="O610">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="P610">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="Q610">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R610">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S610">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T610">
         <v>3.5</v>
       </c>
       <c r="U610">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V610">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W610">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X610">
         <v>-1</v>
       </c>
       <c r="Y610">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z610">
         <v>-1</v>
       </c>
       <c r="AA610">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB610">
         <v>-1</v>
       </c>
       <c r="AC610">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="611" spans="1:29">
@@ -55004,7 +55004,7 @@
         <v>611</v>
       </c>
       <c r="B613">
-        <v>6011499</v>
+        <v>6011407</v>
       </c>
       <c r="C613" t="s">
         <v>28</v>
@@ -55016,76 +55016,76 @@
         <v>45144.5</v>
       </c>
       <c r="F613" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G613" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H613">
+        <v>4</v>
+      </c>
+      <c r="I613">
         <v>0</v>
       </c>
-      <c r="I613">
+      <c r="J613" t="s">
+        <v>48</v>
+      </c>
+      <c r="K613">
+        <v>2.1</v>
+      </c>
+      <c r="L613">
+        <v>3.25</v>
+      </c>
+      <c r="M613">
+        <v>3.5</v>
+      </c>
+      <c r="N613">
+        <v>2.7</v>
+      </c>
+      <c r="O613">
+        <v>3.2</v>
+      </c>
+      <c r="P613">
+        <v>2.8</v>
+      </c>
+      <c r="Q613">
+        <v>0</v>
+      </c>
+      <c r="R613">
+        <v>1.85</v>
+      </c>
+      <c r="S613">
         <v>2</v>
       </c>
-      <c r="J613" t="s">
-        <v>50</v>
-      </c>
-      <c r="K613">
-        <v>3.8</v>
-      </c>
-      <c r="L613">
-        <v>4</v>
-      </c>
-      <c r="M613">
-        <v>1.8</v>
-      </c>
-      <c r="N613">
-        <v>3.75</v>
-      </c>
-      <c r="O613">
-        <v>3.8</v>
-      </c>
-      <c r="P613">
+      <c r="T613">
+        <v>2.25</v>
+      </c>
+      <c r="U613">
+        <v>2</v>
+      </c>
+      <c r="V613">
         <v>1.85</v>
       </c>
-      <c r="Q613">
-        <v>0.5</v>
-      </c>
-      <c r="R613">
-        <v>1.95</v>
-      </c>
-      <c r="S613">
-        <v>1.9</v>
-      </c>
-      <c r="T613">
-        <v>3</v>
-      </c>
-      <c r="U613">
-        <v>1.875</v>
-      </c>
-      <c r="V613">
-        <v>1.975</v>
-      </c>
       <c r="W613">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X613">
         <v>-1</v>
       </c>
       <c r="Y613">
+        <v>-1</v>
+      </c>
+      <c r="Z613">
         <v>0.8500000000000001</v>
       </c>
-      <c r="Z613">
-        <v>-1</v>
-      </c>
       <c r="AA613">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB613">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC613">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="614" spans="1:29">
@@ -55093,7 +55093,7 @@
         <v>612</v>
       </c>
       <c r="B614">
-        <v>6011500</v>
+        <v>6011499</v>
       </c>
       <c r="C614" t="s">
         <v>28</v>
@@ -55105,13 +55105,13 @@
         <v>45144.5</v>
       </c>
       <c r="F614" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G614" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H614">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I614">
         <v>2</v>
@@ -55120,34 +55120,34 @@
         <v>50</v>
       </c>
       <c r="K614">
+        <v>3.8</v>
+      </c>
+      <c r="L614">
+        <v>4</v>
+      </c>
+      <c r="M614">
+        <v>1.8</v>
+      </c>
+      <c r="N614">
+        <v>3.75</v>
+      </c>
+      <c r="O614">
+        <v>3.8</v>
+      </c>
+      <c r="P614">
+        <v>1.85</v>
+      </c>
+      <c r="Q614">
+        <v>0.5</v>
+      </c>
+      <c r="R614">
+        <v>1.95</v>
+      </c>
+      <c r="S614">
+        <v>1.9</v>
+      </c>
+      <c r="T614">
         <v>3</v>
-      </c>
-      <c r="L614">
-        <v>3.4</v>
-      </c>
-      <c r="M614">
-        <v>2.3</v>
-      </c>
-      <c r="N614">
-        <v>2.5</v>
-      </c>
-      <c r="O614">
-        <v>3.4</v>
-      </c>
-      <c r="P614">
-        <v>2.75</v>
-      </c>
-      <c r="Q614">
-        <v>0</v>
-      </c>
-      <c r="R614">
-        <v>1.8</v>
-      </c>
-      <c r="S614">
-        <v>2.05</v>
-      </c>
-      <c r="T614">
-        <v>2.5</v>
       </c>
       <c r="U614">
         <v>1.875</v>
@@ -55162,19 +55162,19 @@
         <v>-1</v>
       </c>
       <c r="Y614">
-        <v>1.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z614">
         <v>-1</v>
       </c>
       <c r="AA614">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB614">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC614">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="615" spans="1:29">
@@ -55271,7 +55271,7 @@
         <v>614</v>
       </c>
       <c r="B616">
-        <v>6011407</v>
+        <v>6011500</v>
       </c>
       <c r="C616" t="s">
         <v>28</v>
@@ -55283,73 +55283,73 @@
         <v>45144.5</v>
       </c>
       <c r="F616" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G616" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H616">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I616">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J616" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K616">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L616">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M616">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="N616">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="O616">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P616">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Q616">
         <v>0</v>
       </c>
       <c r="R616">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S616">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T616">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U616">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V616">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W616">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X616">
         <v>-1</v>
       </c>
       <c r="Y616">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z616">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA616">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB616">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC616">
         <v>-1</v>
@@ -58030,7 +58030,7 @@
         <v>645</v>
       </c>
       <c r="B647">
-        <v>6011998</v>
+        <v>6011935</v>
       </c>
       <c r="C647" t="s">
         <v>28</v>
@@ -58042,76 +58042,76 @@
         <v>45186.5</v>
       </c>
       <c r="F647" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G647" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I647">
         <v>1</v>
       </c>
       <c r="J647" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K647">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="L647">
         <v>3.75</v>
       </c>
       <c r="M647">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="N647">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="O647">
         <v>4</v>
       </c>
       <c r="P647">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q647">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R647">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S647">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T647">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U647">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V647">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W647">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X647">
         <v>-1</v>
       </c>
       <c r="Y647">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z647">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA647">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB647">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC647">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="648" spans="1:29">
@@ -58119,7 +58119,7 @@
         <v>646</v>
       </c>
       <c r="B648">
-        <v>6011935</v>
+        <v>6011998</v>
       </c>
       <c r="C648" t="s">
         <v>28</v>
@@ -58131,76 +58131,76 @@
         <v>45186.5</v>
       </c>
       <c r="F648" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G648" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H648">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I648">
         <v>1</v>
       </c>
       <c r="J648" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K648">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="L648">
         <v>3.75</v>
       </c>
       <c r="M648">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="N648">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="O648">
         <v>4</v>
       </c>
       <c r="P648">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="Q648">
+        <v>0.75</v>
+      </c>
+      <c r="R648">
+        <v>1.825</v>
+      </c>
+      <c r="S648">
+        <v>2.025</v>
+      </c>
+      <c r="T648">
+        <v>3</v>
+      </c>
+      <c r="U648">
+        <v>2.025</v>
+      </c>
+      <c r="V648">
+        <v>1.825</v>
+      </c>
+      <c r="W648">
+        <v>-1</v>
+      </c>
+      <c r="X648">
+        <v>-1</v>
+      </c>
+      <c r="Y648">
+        <v>0.8</v>
+      </c>
+      <c r="Z648">
         <v>-0.5</v>
       </c>
-      <c r="R648">
-        <v>1.9</v>
-      </c>
-      <c r="S648">
-        <v>1.95</v>
-      </c>
-      <c r="T648">
-        <v>3.25</v>
-      </c>
-      <c r="U648">
-        <v>1.95</v>
-      </c>
-      <c r="V648">
-        <v>1.9</v>
-      </c>
-      <c r="W648">
-        <v>0.909</v>
-      </c>
-      <c r="X648">
-        <v>-1</v>
-      </c>
-      <c r="Y648">
-        <v>-1</v>
-      </c>
-      <c r="Z648">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA648">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB648">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC648">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="649" spans="1:29">
@@ -58653,7 +58653,7 @@
         <v>652</v>
       </c>
       <c r="B654">
-        <v>6008617</v>
+        <v>6008782</v>
       </c>
       <c r="C654" t="s">
         <v>28</v>
@@ -58665,76 +58665,76 @@
         <v>45193.5</v>
       </c>
       <c r="F654" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G654" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H654">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I654">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J654" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K654">
-        <v>1.333</v>
+        <v>4.75</v>
       </c>
       <c r="L654">
+        <v>3.9</v>
+      </c>
+      <c r="M654">
+        <v>1.666</v>
+      </c>
+      <c r="N654">
         <v>5.5</v>
       </c>
-      <c r="M654">
-        <v>7.5</v>
-      </c>
-      <c r="N654">
-        <v>1.25</v>
-      </c>
       <c r="O654">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="P654">
-        <v>10</v>
+        <v>1.615</v>
       </c>
       <c r="Q654">
-        <v>-1.75</v>
+        <v>1</v>
       </c>
       <c r="R654">
         <v>1.85</v>
       </c>
       <c r="S654">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T654">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U654">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V654">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W654">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X654">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y654">
         <v>-1</v>
       </c>
       <c r="Z654">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA654">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB654">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC654">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="655" spans="1:29">
@@ -58742,7 +58742,7 @@
         <v>653</v>
       </c>
       <c r="B655">
-        <v>6008782</v>
+        <v>6008617</v>
       </c>
       <c r="C655" t="s">
         <v>28</v>
@@ -58754,76 +58754,76 @@
         <v>45193.5</v>
       </c>
       <c r="F655" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G655" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H655">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I655">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J655" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K655">
-        <v>4.75</v>
+        <v>1.333</v>
       </c>
       <c r="L655">
-        <v>3.9</v>
+        <v>5.5</v>
       </c>
       <c r="M655">
-        <v>1.666</v>
+        <v>7.5</v>
       </c>
       <c r="N655">
-        <v>5.5</v>
+        <v>1.25</v>
       </c>
       <c r="O655">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P655">
-        <v>1.615</v>
+        <v>10</v>
       </c>
       <c r="Q655">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="R655">
         <v>1.85</v>
       </c>
       <c r="S655">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T655">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U655">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V655">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W655">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X655">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y655">
         <v>-1</v>
       </c>
       <c r="Z655">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AA655">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB655">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC655">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="656" spans="1:29">
@@ -58831,7 +58831,7 @@
         <v>654</v>
       </c>
       <c r="B656">
-        <v>6011517</v>
+        <v>6011418</v>
       </c>
       <c r="C656" t="s">
         <v>28</v>
@@ -58843,61 +58843,61 @@
         <v>45193.5</v>
       </c>
       <c r="F656" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G656" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H656">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I656">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J656" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K656">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="L656">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="M656">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="N656">
-        <v>1.285</v>
+        <v>1.95</v>
       </c>
       <c r="O656">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="P656">
-        <v>8.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q656">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R656">
+        <v>2</v>
+      </c>
+      <c r="S656">
+        <v>1.85</v>
+      </c>
+      <c r="T656">
+        <v>2.5</v>
+      </c>
+      <c r="U656">
         <v>1.925</v>
       </c>
-      <c r="S656">
+      <c r="V656">
         <v>1.925</v>
       </c>
-      <c r="T656">
-        <v>3.5</v>
-      </c>
-      <c r="U656">
-        <v>1.85</v>
-      </c>
-      <c r="V656">
-        <v>2</v>
-      </c>
       <c r="W656">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X656">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y656">
         <v>-1</v>
@@ -58906,13 +58906,13 @@
         <v>-1</v>
       </c>
       <c r="AA656">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB656">
+        <v>-1</v>
+      </c>
+      <c r="AC656">
         <v>0.925</v>
-      </c>
-      <c r="AB656">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC656">
-        <v>-1</v>
       </c>
     </row>
     <row r="657" spans="1:29">
@@ -58920,7 +58920,7 @@
         <v>655</v>
       </c>
       <c r="B657">
-        <v>6011516</v>
+        <v>6011517</v>
       </c>
       <c r="C657" t="s">
         <v>28</v>
@@ -58932,76 +58932,76 @@
         <v>45193.5</v>
       </c>
       <c r="F657" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G657" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H657">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I657">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J657" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K657">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="L657">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M657">
-        <v>2.1</v>
+        <v>8</v>
       </c>
       <c r="N657">
+        <v>1.285</v>
+      </c>
+      <c r="O657">
+        <v>6.5</v>
+      </c>
+      <c r="P657">
+        <v>8.5</v>
+      </c>
+      <c r="Q657">
+        <v>-1.75</v>
+      </c>
+      <c r="R657">
+        <v>1.925</v>
+      </c>
+      <c r="S657">
+        <v>1.925</v>
+      </c>
+      <c r="T657">
         <v>3.5</v>
       </c>
-      <c r="O657">
-        <v>4.333</v>
-      </c>
-      <c r="P657">
+      <c r="U657">
         <v>1.85</v>
       </c>
-      <c r="Q657">
-        <v>0.5</v>
-      </c>
-      <c r="R657">
-        <v>1.975</v>
-      </c>
-      <c r="S657">
-        <v>1.875</v>
-      </c>
-      <c r="T657">
-        <v>3.25</v>
-      </c>
-      <c r="U657">
-        <v>1.925</v>
-      </c>
       <c r="V657">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W657">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X657">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y657">
         <v>-1</v>
       </c>
       <c r="Z657">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA657">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB657">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC657">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="658" spans="1:29">
@@ -59009,7 +59009,7 @@
         <v>656</v>
       </c>
       <c r="B658">
-        <v>6011418</v>
+        <v>6011516</v>
       </c>
       <c r="C658" t="s">
         <v>28</v>
@@ -59021,10 +59021,10 @@
         <v>45193.5</v>
       </c>
       <c r="F658" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G658" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H658">
         <v>1</v>
@@ -59036,34 +59036,34 @@
         <v>49</v>
       </c>
       <c r="K658">
+        <v>3.1</v>
+      </c>
+      <c r="L658">
+        <v>3.75</v>
+      </c>
+      <c r="M658">
         <v>2.1</v>
       </c>
-      <c r="L658">
-        <v>3.4</v>
-      </c>
-      <c r="M658">
-        <v>3.4</v>
-      </c>
       <c r="N658">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
       <c r="O658">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P658">
-        <v>3.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q658">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R658">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S658">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T658">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U658">
         <v>1.925</v>
@@ -59075,16 +59075,16 @@
         <v>-1</v>
       </c>
       <c r="X658">
-        <v>2.6</v>
+        <v>3.333</v>
       </c>
       <c r="Y658">
         <v>-1</v>
       </c>
       <c r="Z658">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA658">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB658">
         <v>-1</v>

--- a/Norway Eliteserien/Norway Eliteserien.xlsx
+++ b/Norway Eliteserien/Norway Eliteserien.xlsx
@@ -27414,7 +27414,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>4568082</v>
+        <v>4567494</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27426,76 +27426,76 @@
         <v>44706.54166666666</v>
       </c>
       <c r="F303" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G303" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H303">
         <v>2</v>
       </c>
       <c r="I303">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J303" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K303">
-        <v>1.65</v>
+        <v>1.4</v>
       </c>
       <c r="L303">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M303">
+        <v>6.5</v>
+      </c>
+      <c r="N303">
+        <v>1.4</v>
+      </c>
+      <c r="O303">
         <v>5.25</v>
       </c>
-      <c r="N303">
-        <v>1.363</v>
-      </c>
-      <c r="O303">
-        <v>4.75</v>
-      </c>
       <c r="P303">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q303">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R303">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S303">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T303">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U303">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V303">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W303">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X303">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y303">
         <v>-1</v>
       </c>
       <c r="Z303">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA303">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB303">
-        <v>0.425</v>
+        <v>1.025</v>
       </c>
       <c r="AC303">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="304" spans="1:29">
@@ -27503,7 +27503,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>4567494</v>
+        <v>4568084</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27515,76 +27515,76 @@
         <v>44706.54166666666</v>
       </c>
       <c r="F304" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G304" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J304" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K304">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="L304">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="M304">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="N304">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="O304">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P304">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q304">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R304">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S304">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T304">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U304">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V304">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W304">
         <v>-1</v>
       </c>
       <c r="X304">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y304">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z304">
         <v>-1</v>
       </c>
       <c r="AA304">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB304">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC304">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="305" spans="1:29">
@@ -27592,7 +27592,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>4568085</v>
+        <v>4568082</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27604,76 +27604,76 @@
         <v>44706.54166666666</v>
       </c>
       <c r="F305" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G305" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I305">
         <v>1</v>
       </c>
       <c r="J305" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K305">
-        <v>1.4</v>
+        <v>1.65</v>
       </c>
       <c r="L305">
-        <v>4.6</v>
+        <v>3.75</v>
       </c>
       <c r="M305">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="N305">
-        <v>1.3</v>
+        <v>1.363</v>
       </c>
       <c r="O305">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="P305">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="Q305">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R305">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S305">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T305">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U305">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V305">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W305">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X305">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y305">
         <v>-1</v>
       </c>
       <c r="Z305">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA305">
-        <v>0.9750000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AB305">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC305">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="306" spans="1:29">
@@ -27681,7 +27681,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>4568084</v>
+        <v>4568085</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
@@ -27693,76 +27693,76 @@
         <v>44706.54166666666</v>
       </c>
       <c r="F306" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G306" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I306">
         <v>1</v>
       </c>
       <c r="J306" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K306">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="L306">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="M306">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="N306">
-        <v>1.85</v>
+        <v>1.3</v>
       </c>
       <c r="O306">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="P306">
-        <v>4</v>
+        <v>9.5</v>
       </c>
       <c r="Q306">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R306">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S306">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T306">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U306">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V306">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W306">
         <v>-1</v>
       </c>
       <c r="X306">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y306">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z306">
         <v>-1</v>
       </c>
       <c r="AA306">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB306">
         <v>-1</v>
       </c>
       <c r="AC306">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="307" spans="1:29">
@@ -28215,7 +28215,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>4568000</v>
+        <v>4568091</v>
       </c>
       <c r="C312" t="s">
         <v>28</v>
@@ -28227,73 +28227,73 @@
         <v>44710.54166666666</v>
       </c>
       <c r="F312" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G312" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J312" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K312">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="L312">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M312">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="N312">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="O312">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P312">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="Q312">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R312">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S312">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T312">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U312">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V312">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W312">
         <v>-1</v>
       </c>
       <c r="X312">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y312">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z312">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA312">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
       <c r="AB312">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC312">
         <v>-1</v>
@@ -28393,7 +28393,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>4568091</v>
+        <v>4567495</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28405,49 +28405,49 @@
         <v>44710.54166666666</v>
       </c>
       <c r="F314" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G314" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I314">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J314" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K314">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L314">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M314">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="N314">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="O314">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P314">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="Q314">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R314">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S314">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T314">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U314">
         <v>1.95</v>
@@ -28456,19 +28456,19 @@
         <v>1.9</v>
       </c>
       <c r="W314">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X314">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y314">
         <v>-1</v>
       </c>
       <c r="Z314">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA314">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB314">
         <v>0.95</v>
@@ -28482,7 +28482,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>4567495</v>
+        <v>4568000</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28494,73 +28494,73 @@
         <v>44710.54166666666</v>
       </c>
       <c r="F315" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G315" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H315">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I315">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J315" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K315">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="L315">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M315">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="N315">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="O315">
         <v>3.75</v>
       </c>
       <c r="P315">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="Q315">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R315">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S315">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T315">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U315">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V315">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W315">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X315">
         <v>-1</v>
       </c>
       <c r="Y315">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z315">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA315">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB315">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC315">
         <v>-1</v>
@@ -29550,7 +29550,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>4568100</v>
+        <v>4568005</v>
       </c>
       <c r="C327" t="s">
         <v>28</v>
@@ -29562,73 +29562,73 @@
         <v>44738.54166666666</v>
       </c>
       <c r="F327" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G327" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I327">
         <v>2</v>
       </c>
       <c r="J327" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K327">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="L327">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M327">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="N327">
+        <v>2.7</v>
+      </c>
+      <c r="O327">
         <v>3.5</v>
       </c>
-      <c r="O327">
-        <v>3.75</v>
-      </c>
       <c r="P327">
+        <v>2.45</v>
+      </c>
+      <c r="Q327">
+        <v>0</v>
+      </c>
+      <c r="R327">
         <v>2</v>
       </c>
-      <c r="Q327">
-        <v>0.25</v>
-      </c>
-      <c r="R327">
-        <v>1.95</v>
-      </c>
       <c r="S327">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T327">
         <v>2.75</v>
       </c>
       <c r="U327">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V327">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W327">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X327">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y327">
         <v>-1</v>
       </c>
       <c r="Z327">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AA327">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB327">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC327">
         <v>-1</v>
@@ -29639,7 +29639,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>4568005</v>
+        <v>4568100</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -29651,73 +29651,73 @@
         <v>44738.54166666666</v>
       </c>
       <c r="F328" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G328" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H328">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I328">
         <v>2</v>
       </c>
       <c r="J328" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K328">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="L328">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M328">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="N328">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="O328">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P328">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="Q328">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R328">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S328">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T328">
         <v>2.75</v>
       </c>
       <c r="U328">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V328">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W328">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X328">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y328">
         <v>-1</v>
       </c>
       <c r="Z328">
+        <v>0.475</v>
+      </c>
+      <c r="AA328">
+        <v>-0.5</v>
+      </c>
+      <c r="AB328">
         <v>1</v>
-      </c>
-      <c r="AA328">
-        <v>-1</v>
-      </c>
-      <c r="AB328">
-        <v>0.825</v>
       </c>
       <c r="AC328">
         <v>-1</v>
@@ -31597,7 +31597,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>4568114</v>
+        <v>4568115</v>
       </c>
       <c r="C350" t="s">
         <v>28</v>
@@ -31609,76 +31609,76 @@
         <v>44759.54166666666</v>
       </c>
       <c r="F350" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G350" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H350">
         <v>1</v>
       </c>
       <c r="I350">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J350" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K350">
-        <v>1.45</v>
+        <v>2.8</v>
       </c>
       <c r="L350">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M350">
-        <v>6.5</v>
+        <v>2.4</v>
       </c>
       <c r="N350">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="O350">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P350">
-        <v>5.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q350">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R350">
-        <v>1.84</v>
+        <v>1.875</v>
       </c>
       <c r="S350">
-        <v>2.06</v>
+        <v>1.975</v>
       </c>
       <c r="T350">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U350">
+        <v>1.85</v>
+      </c>
+      <c r="V350">
         <v>2</v>
       </c>
-      <c r="V350">
-        <v>1.85</v>
-      </c>
       <c r="W350">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X350">
         <v>-1</v>
       </c>
       <c r="Y350">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z350">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA350">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB350">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC350">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="351" spans="1:29">
@@ -31686,7 +31686,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>4568115</v>
+        <v>4568117</v>
       </c>
       <c r="C351" t="s">
         <v>28</v>
@@ -31698,76 +31698,76 @@
         <v>44759.54166666666</v>
       </c>
       <c r="F351" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G351" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H351">
+        <v>2</v>
+      </c>
+      <c r="I351">
         <v>1</v>
       </c>
-      <c r="I351">
+      <c r="J351" t="s">
+        <v>48</v>
+      </c>
+      <c r="K351">
+        <v>1.222</v>
+      </c>
+      <c r="L351">
+        <v>7.5</v>
+      </c>
+      <c r="M351">
+        <v>8.5</v>
+      </c>
+      <c r="N351">
+        <v>1.4</v>
+      </c>
+      <c r="O351">
+        <v>5.75</v>
+      </c>
+      <c r="P351">
+        <v>6</v>
+      </c>
+      <c r="Q351">
+        <v>-1.25</v>
+      </c>
+      <c r="R351">
+        <v>1.85</v>
+      </c>
+      <c r="S351">
         <v>2</v>
       </c>
-      <c r="J351" t="s">
-        <v>50</v>
-      </c>
-      <c r="K351">
-        <v>2.8</v>
-      </c>
-      <c r="L351">
-        <v>3.4</v>
-      </c>
-      <c r="M351">
-        <v>2.4</v>
-      </c>
-      <c r="N351">
-        <v>2.9</v>
-      </c>
-      <c r="O351">
-        <v>3.6</v>
-      </c>
-      <c r="P351">
-        <v>2.3</v>
-      </c>
-      <c r="Q351">
-        <v>0.25</v>
-      </c>
-      <c r="R351">
+      <c r="T351">
+        <v>3.25</v>
+      </c>
+      <c r="U351">
         <v>1.875</v>
       </c>
-      <c r="S351">
+      <c r="V351">
         <v>1.975</v>
       </c>
-      <c r="T351">
-        <v>2.5</v>
-      </c>
-      <c r="U351">
-        <v>1.85</v>
-      </c>
-      <c r="V351">
-        <v>2</v>
-      </c>
       <c r="W351">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X351">
         <v>-1</v>
       </c>
       <c r="Y351">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z351">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA351">
-        <v>0.9750000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AB351">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC351">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="352" spans="1:29">
@@ -31775,7 +31775,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>4568117</v>
+        <v>4568114</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31787,58 +31787,58 @@
         <v>44759.54166666666</v>
       </c>
       <c r="F352" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G352" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I352">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J352" t="s">
         <v>48</v>
       </c>
       <c r="K352">
-        <v>1.222</v>
+        <v>1.45</v>
       </c>
       <c r="L352">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="M352">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="N352">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O352">
+        <v>4.5</v>
+      </c>
+      <c r="P352">
         <v>5.75</v>
       </c>
-      <c r="P352">
-        <v>6</v>
-      </c>
       <c r="Q352">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R352">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="S352">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="T352">
         <v>3.25</v>
       </c>
       <c r="U352">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V352">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W352">
-        <v>0.3999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X352">
         <v>-1</v>
@@ -31847,16 +31847,16 @@
         <v>-1</v>
       </c>
       <c r="Z352">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA352">
-        <v>0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB352">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC352">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="353" spans="1:29">
@@ -33199,7 +33199,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>4568125</v>
+        <v>4568013</v>
       </c>
       <c r="C368" t="s">
         <v>28</v>
@@ -33211,76 +33211,76 @@
         <v>44773.4375</v>
       </c>
       <c r="F368" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G368" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H368">
+        <v>0</v>
+      </c>
+      <c r="I368">
+        <v>2</v>
+      </c>
+      <c r="J368" t="s">
+        <v>50</v>
+      </c>
+      <c r="K368">
+        <v>2.4</v>
+      </c>
+      <c r="L368">
+        <v>3.25</v>
+      </c>
+      <c r="M368">
+        <v>2.8</v>
+      </c>
+      <c r="N368">
+        <v>2.3</v>
+      </c>
+      <c r="O368">
+        <v>3.75</v>
+      </c>
+      <c r="P368">
+        <v>2.75</v>
+      </c>
+      <c r="Q368">
+        <v>-0.25</v>
+      </c>
+      <c r="R368">
+        <v>2</v>
+      </c>
+      <c r="S368">
+        <v>1.85</v>
+      </c>
+      <c r="T368">
         <v>3</v>
       </c>
-      <c r="I368">
-        <v>0</v>
-      </c>
-      <c r="J368" t="s">
-        <v>48</v>
-      </c>
-      <c r="K368">
-        <v>1.444</v>
-      </c>
-      <c r="L368">
-        <v>4.5</v>
-      </c>
-      <c r="M368">
-        <v>6.5</v>
-      </c>
-      <c r="N368">
-        <v>1.444</v>
-      </c>
-      <c r="O368">
-        <v>5.25</v>
-      </c>
-      <c r="P368">
-        <v>6.5</v>
-      </c>
-      <c r="Q368">
-        <v>-1.25</v>
-      </c>
-      <c r="R368">
+      <c r="U368">
+        <v>1.975</v>
+      </c>
+      <c r="V368">
         <v>1.875</v>
       </c>
-      <c r="S368">
-        <v>1.975</v>
-      </c>
-      <c r="T368">
-        <v>3.5</v>
-      </c>
-      <c r="U368">
-        <v>2</v>
-      </c>
-      <c r="V368">
-        <v>1.85</v>
-      </c>
       <c r="W368">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X368">
         <v>-1</v>
       </c>
       <c r="Y368">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z368">
+        <v>-1</v>
+      </c>
+      <c r="AA368">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB368">
+        <v>-1</v>
+      </c>
+      <c r="AC368">
         <v>0.875</v>
-      </c>
-      <c r="AA368">
-        <v>-1</v>
-      </c>
-      <c r="AB368">
-        <v>-1</v>
-      </c>
-      <c r="AC368">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="369" spans="1:29">
@@ -33288,7 +33288,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>4568013</v>
+        <v>4568125</v>
       </c>
       <c r="C369" t="s">
         <v>28</v>
@@ -33300,76 +33300,76 @@
         <v>44773.4375</v>
       </c>
       <c r="F369" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G369" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H369">
+        <v>3</v>
+      </c>
+      <c r="I369">
         <v>0</v>
       </c>
-      <c r="I369">
+      <c r="J369" t="s">
+        <v>48</v>
+      </c>
+      <c r="K369">
+        <v>1.444</v>
+      </c>
+      <c r="L369">
+        <v>4.5</v>
+      </c>
+      <c r="M369">
+        <v>6.5</v>
+      </c>
+      <c r="N369">
+        <v>1.444</v>
+      </c>
+      <c r="O369">
+        <v>5.25</v>
+      </c>
+      <c r="P369">
+        <v>6.5</v>
+      </c>
+      <c r="Q369">
+        <v>-1.25</v>
+      </c>
+      <c r="R369">
+        <v>1.875</v>
+      </c>
+      <c r="S369">
+        <v>1.975</v>
+      </c>
+      <c r="T369">
+        <v>3.5</v>
+      </c>
+      <c r="U369">
         <v>2</v>
       </c>
-      <c r="J369" t="s">
-        <v>50</v>
-      </c>
-      <c r="K369">
-        <v>2.4</v>
-      </c>
-      <c r="L369">
-        <v>3.25</v>
-      </c>
-      <c r="M369">
-        <v>2.8</v>
-      </c>
-      <c r="N369">
-        <v>2.3</v>
-      </c>
-      <c r="O369">
-        <v>3.75</v>
-      </c>
-      <c r="P369">
-        <v>2.75</v>
-      </c>
-      <c r="Q369">
-        <v>-0.25</v>
-      </c>
-      <c r="R369">
-        <v>2</v>
-      </c>
-      <c r="S369">
+      <c r="V369">
         <v>1.85</v>
       </c>
-      <c r="T369">
-        <v>3</v>
-      </c>
-      <c r="U369">
-        <v>1.975</v>
-      </c>
-      <c r="V369">
-        <v>1.875</v>
-      </c>
       <c r="W369">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X369">
         <v>-1</v>
       </c>
       <c r="Y369">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z369">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA369">
+        <v>-1</v>
+      </c>
+      <c r="AB369">
+        <v>-1</v>
+      </c>
+      <c r="AC369">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB369">
-        <v>-1</v>
-      </c>
-      <c r="AC369">
-        <v>0.875</v>
       </c>
     </row>
     <row r="370" spans="1:29">
@@ -33644,7 +33644,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>4568131</v>
+        <v>4568015</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -33656,73 +33656,73 @@
         <v>44780.54166666666</v>
       </c>
       <c r="F373" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G373" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I373">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J373" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K373">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="L373">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M373">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="N373">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="O373">
         <v>3.8</v>
       </c>
       <c r="P373">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="Q373">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R373">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S373">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T373">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U373">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V373">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W373">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X373">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y373">
         <v>-1</v>
       </c>
       <c r="Z373">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA373">
         <v>-1</v>
       </c>
       <c r="AB373">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC373">
         <v>-1</v>
@@ -33733,7 +33733,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>4568015</v>
+        <v>4568128</v>
       </c>
       <c r="C374" t="s">
         <v>28</v>
@@ -33745,10 +33745,10 @@
         <v>44780.54166666666</v>
       </c>
       <c r="F374" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G374" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H374">
         <v>3</v>
@@ -33760,43 +33760,43 @@
         <v>48</v>
       </c>
       <c r="K374">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="L374">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M374">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="N374">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="O374">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P374">
-        <v>2.875</v>
+        <v>7.5</v>
       </c>
       <c r="Q374">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R374">
+        <v>1.825</v>
+      </c>
+      <c r="S374">
+        <v>2.025</v>
+      </c>
+      <c r="T374">
+        <v>3</v>
+      </c>
+      <c r="U374">
+        <v>1.85</v>
+      </c>
+      <c r="V374">
         <v>2</v>
       </c>
-      <c r="S374">
-        <v>1.85</v>
-      </c>
-      <c r="T374">
-        <v>3.25</v>
-      </c>
-      <c r="U374">
-        <v>1.9</v>
-      </c>
-      <c r="V374">
-        <v>1.95</v>
-      </c>
       <c r="W374">
-        <v>1.2</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X374">
         <v>-1</v>
@@ -33805,13 +33805,13 @@
         <v>-1</v>
       </c>
       <c r="Z374">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA374">
         <v>-1</v>
       </c>
       <c r="AB374">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC374">
         <v>-1</v>
@@ -33822,7 +33822,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>4568129</v>
+        <v>4568131</v>
       </c>
       <c r="C375" t="s">
         <v>28</v>
@@ -33834,73 +33834,73 @@
         <v>44780.54166666666</v>
       </c>
       <c r="F375" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G375" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H375">
         <v>2</v>
       </c>
       <c r="I375">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J375" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K375">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="L375">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M375">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="N375">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="O375">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P375">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="Q375">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R375">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S375">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T375">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U375">
+        <v>1.875</v>
+      </c>
+      <c r="V375">
         <v>1.975</v>
       </c>
-      <c r="V375">
-        <v>1.875</v>
-      </c>
       <c r="W375">
         <v>-1</v>
       </c>
       <c r="X375">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y375">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z375">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA375">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB375">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC375">
         <v>-1</v>
@@ -33911,7 +33911,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>4568128</v>
+        <v>4568129</v>
       </c>
       <c r="C376" t="s">
         <v>28</v>
@@ -33923,73 +33923,73 @@
         <v>44780.54166666666</v>
       </c>
       <c r="F376" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G376" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H376">
+        <v>2</v>
+      </c>
+      <c r="I376">
         <v>3</v>
       </c>
-      <c r="I376">
+      <c r="J376" t="s">
+        <v>50</v>
+      </c>
+      <c r="K376">
+        <v>5.75</v>
+      </c>
+      <c r="L376">
+        <v>4.5</v>
+      </c>
+      <c r="M376">
+        <v>1.5</v>
+      </c>
+      <c r="N376">
+        <v>5</v>
+      </c>
+      <c r="O376">
+        <v>4.5</v>
+      </c>
+      <c r="P376">
+        <v>1.571</v>
+      </c>
+      <c r="Q376">
         <v>1</v>
       </c>
-      <c r="J376" t="s">
-        <v>48</v>
-      </c>
-      <c r="K376">
-        <v>1.666</v>
-      </c>
-      <c r="L376">
-        <v>3.8</v>
-      </c>
-      <c r="M376">
-        <v>5</v>
-      </c>
-      <c r="N376">
-        <v>1.4</v>
-      </c>
-      <c r="O376">
-        <v>5</v>
-      </c>
-      <c r="P376">
-        <v>7.5</v>
-      </c>
-      <c r="Q376">
-        <v>-1.25</v>
-      </c>
       <c r="R376">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S376">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T376">
         <v>3</v>
       </c>
       <c r="U376">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V376">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W376">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X376">
         <v>-1</v>
       </c>
       <c r="Y376">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z376">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA376">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB376">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC376">
         <v>-1</v>
@@ -34178,7 +34178,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>4568017</v>
+        <v>4567504</v>
       </c>
       <c r="C379" t="s">
         <v>28</v>
@@ -34190,73 +34190,73 @@
         <v>44785.58333333334</v>
       </c>
       <c r="F379" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G379" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I379">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J379" t="s">
         <v>50</v>
       </c>
       <c r="K379">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="L379">
         <v>3.4</v>
       </c>
       <c r="M379">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="N379">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="O379">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P379">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="Q379">
+        <v>0.5</v>
+      </c>
+      <c r="R379">
+        <v>1.85</v>
+      </c>
+      <c r="S379">
+        <v>2</v>
+      </c>
+      <c r="T379">
+        <v>3.25</v>
+      </c>
+      <c r="U379">
+        <v>1.825</v>
+      </c>
+      <c r="V379">
+        <v>2.025</v>
+      </c>
+      <c r="W379">
+        <v>-1</v>
+      </c>
+      <c r="X379">
+        <v>-1</v>
+      </c>
+      <c r="Y379">
         <v>1</v>
       </c>
-      <c r="R379">
-        <v>1.825</v>
-      </c>
-      <c r="S379">
-        <v>2.025</v>
-      </c>
-      <c r="T379">
-        <v>3</v>
-      </c>
-      <c r="U379">
-        <v>1.9</v>
-      </c>
-      <c r="V379">
-        <v>1.95</v>
-      </c>
-      <c r="W379">
-        <v>-1</v>
-      </c>
-      <c r="X379">
-        <v>-1</v>
-      </c>
-      <c r="Y379">
-        <v>0.615</v>
-      </c>
       <c r="Z379">
         <v>-1</v>
       </c>
       <c r="AA379">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AB379">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC379">
         <v>-1</v>
@@ -34267,7 +34267,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>4567504</v>
+        <v>4568017</v>
       </c>
       <c r="C380" t="s">
         <v>28</v>
@@ -34279,55 +34279,55 @@
         <v>44785.58333333334</v>
       </c>
       <c r="F380" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G380" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H380">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I380">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J380" t="s">
         <v>50</v>
       </c>
       <c r="K380">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="L380">
         <v>3.4</v>
       </c>
       <c r="M380">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="N380">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="O380">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P380">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="Q380">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R380">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S380">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T380">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U380">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V380">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W380">
         <v>-1</v>
@@ -34336,16 +34336,16 @@
         <v>-1</v>
       </c>
       <c r="Y380">
-        <v>1</v>
+        <v>0.615</v>
       </c>
       <c r="Z380">
         <v>-1</v>
       </c>
       <c r="AA380">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AB380">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC380">
         <v>-1</v>
@@ -36314,7 +36314,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>4568149</v>
+        <v>4568022</v>
       </c>
       <c r="C403" t="s">
         <v>28</v>
@@ -36326,13 +36326,13 @@
         <v>44808.54166666666</v>
       </c>
       <c r="F403" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G403" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I403">
         <v>1</v>
@@ -36341,43 +36341,43 @@
         <v>48</v>
       </c>
       <c r="K403">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="L403">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M403">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N403">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="O403">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P403">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="Q403">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R403">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S403">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T403">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U403">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V403">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W403">
-        <v>1.75</v>
+        <v>0.8</v>
       </c>
       <c r="X403">
         <v>-1</v>
@@ -36386,13 +36386,13 @@
         <v>-1</v>
       </c>
       <c r="Z403">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA403">
         <v>-1</v>
       </c>
       <c r="AB403">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC403">
         <v>-1</v>
@@ -36403,7 +36403,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>4568022</v>
+        <v>4568149</v>
       </c>
       <c r="C404" t="s">
         <v>28</v>
@@ -36415,13 +36415,13 @@
         <v>44808.54166666666</v>
       </c>
       <c r="F404" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G404" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H404">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I404">
         <v>1</v>
@@ -36430,58 +36430,58 @@
         <v>48</v>
       </c>
       <c r="K404">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="L404">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M404">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N404">
+        <v>2.75</v>
+      </c>
+      <c r="O404">
+        <v>3.2</v>
+      </c>
+      <c r="P404">
+        <v>2.7</v>
+      </c>
+      <c r="Q404">
+        <v>0</v>
+      </c>
+      <c r="R404">
+        <v>1.925</v>
+      </c>
+      <c r="S404">
+        <v>1.925</v>
+      </c>
+      <c r="T404">
+        <v>2.25</v>
+      </c>
+      <c r="U404">
         <v>1.8</v>
       </c>
-      <c r="O404">
-        <v>4</v>
-      </c>
-      <c r="P404">
-        <v>4</v>
-      </c>
-      <c r="Q404">
-        <v>-0.5</v>
-      </c>
-      <c r="R404">
-        <v>1.825</v>
-      </c>
-      <c r="S404">
-        <v>2.025</v>
-      </c>
-      <c r="T404">
-        <v>3</v>
-      </c>
-      <c r="U404">
-        <v>1.85</v>
-      </c>
       <c r="V404">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W404">
+        <v>1.75</v>
+      </c>
+      <c r="X404">
+        <v>-1</v>
+      </c>
+      <c r="Y404">
+        <v>-1</v>
+      </c>
+      <c r="Z404">
+        <v>0.925</v>
+      </c>
+      <c r="AA404">
+        <v>-1</v>
+      </c>
+      <c r="AB404">
         <v>0.8</v>
-      </c>
-      <c r="X404">
-        <v>-1</v>
-      </c>
-      <c r="Y404">
-        <v>-1</v>
-      </c>
-      <c r="Z404">
-        <v>0.825</v>
-      </c>
-      <c r="AA404">
-        <v>-1</v>
-      </c>
-      <c r="AB404">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC404">
         <v>-1</v>
@@ -37115,7 +37115,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>5579961</v>
+        <v>4568156</v>
       </c>
       <c r="C412" t="s">
         <v>28</v>
@@ -37127,10 +37127,10 @@
         <v>44815.54166666666</v>
       </c>
       <c r="F412" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G412" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H412">
         <v>3</v>
@@ -37142,43 +37142,43 @@
         <v>48</v>
       </c>
       <c r="K412">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L412">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M412">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="N412">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O412">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P412">
+        <v>1.8</v>
+      </c>
+      <c r="Q412">
+        <v>0.75</v>
+      </c>
+      <c r="R412">
+        <v>1.825</v>
+      </c>
+      <c r="S412">
+        <v>2.025</v>
+      </c>
+      <c r="T412">
+        <v>3</v>
+      </c>
+      <c r="U412">
+        <v>1.9</v>
+      </c>
+      <c r="V412">
         <v>1.95</v>
       </c>
-      <c r="Q412">
-        <v>0.5</v>
-      </c>
-      <c r="R412">
-        <v>1.92</v>
-      </c>
-      <c r="S412">
-        <v>1.98</v>
-      </c>
-      <c r="T412">
-        <v>2.75</v>
-      </c>
-      <c r="U412">
-        <v>1.975</v>
-      </c>
-      <c r="V412">
-        <v>1.875</v>
-      </c>
       <c r="W412">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="X412">
         <v>-1</v>
@@ -37187,13 +37187,13 @@
         <v>-1</v>
       </c>
       <c r="Z412">
-        <v>0.9199999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA412">
         <v>-1</v>
       </c>
       <c r="AB412">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC412">
         <v>-1</v>
@@ -37204,7 +37204,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>4568156</v>
+        <v>5579961</v>
       </c>
       <c r="C413" t="s">
         <v>28</v>
@@ -37216,10 +37216,10 @@
         <v>44815.54166666666</v>
       </c>
       <c r="F413" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G413" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H413">
         <v>3</v>
@@ -37231,43 +37231,43 @@
         <v>48</v>
       </c>
       <c r="K413">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L413">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M413">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="N413">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O413">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P413">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="Q413">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R413">
-        <v>1.825</v>
+        <v>1.92</v>
       </c>
       <c r="S413">
-        <v>2.025</v>
+        <v>1.98</v>
       </c>
       <c r="T413">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U413">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V413">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W413">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="X413">
         <v>-1</v>
@@ -37276,13 +37276,13 @@
         <v>-1</v>
       </c>
       <c r="Z413">
-        <v>0.825</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA413">
         <v>-1</v>
       </c>
       <c r="AB413">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC413">
         <v>-1</v>
@@ -39963,7 +39963,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>4568175</v>
+        <v>4568177</v>
       </c>
       <c r="C444" t="s">
         <v>28</v>
@@ -39975,55 +39975,55 @@
         <v>44850.5</v>
       </c>
       <c r="F444" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G444" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I444">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J444" t="s">
         <v>50</v>
       </c>
       <c r="K444">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="L444">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M444">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="N444">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="O444">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P444">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="Q444">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R444">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S444">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T444">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U444">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V444">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W444">
         <v>-1</v>
@@ -40032,19 +40032,19 @@
         <v>-1</v>
       </c>
       <c r="Y444">
-        <v>2</v>
+        <v>4.25</v>
       </c>
       <c r="Z444">
         <v>-1</v>
       </c>
       <c r="AA444">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB444">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC444">
-        <v>1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="445" spans="1:29">
@@ -40052,7 +40052,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>4568177</v>
+        <v>4568175</v>
       </c>
       <c r="C445" t="s">
         <v>28</v>
@@ -40064,55 +40064,55 @@
         <v>44850.5</v>
       </c>
       <c r="F445" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G445" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H445">
+        <v>0</v>
+      </c>
+      <c r="I445">
         <v>1</v>
-      </c>
-      <c r="I445">
-        <v>2</v>
       </c>
       <c r="J445" t="s">
         <v>50</v>
       </c>
       <c r="K445">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L445">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M445">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="N445">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="O445">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P445">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="Q445">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R445">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S445">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T445">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U445">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V445">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W445">
         <v>-1</v>
@@ -40121,19 +40121,19 @@
         <v>-1</v>
       </c>
       <c r="Y445">
-        <v>4.25</v>
+        <v>2</v>
       </c>
       <c r="Z445">
         <v>-1</v>
       </c>
       <c r="AA445">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB445">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC445">
-        <v>0.475</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:29">
@@ -41209,7 +41209,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>4568186</v>
+        <v>4568037</v>
       </c>
       <c r="C458" t="s">
         <v>28</v>
@@ -41221,19 +41221,19 @@
         <v>44863.54166666666</v>
       </c>
       <c r="F458" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G458" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H458">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I458">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J458" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K458">
         <v>1.95</v>
@@ -41242,55 +41242,55 @@
         <v>3.6</v>
       </c>
       <c r="M458">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N458">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O458">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P458">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q458">
         <v>-0.25</v>
       </c>
       <c r="R458">
+        <v>1.875</v>
+      </c>
+      <c r="S458">
+        <v>1.975</v>
+      </c>
+      <c r="T458">
+        <v>3.25</v>
+      </c>
+      <c r="U458">
         <v>1.925</v>
       </c>
-      <c r="S458">
+      <c r="V458">
         <v>1.925</v>
       </c>
-      <c r="T458">
+      <c r="W458">
+        <v>-1</v>
+      </c>
+      <c r="X458">
         <v>3</v>
       </c>
-      <c r="U458">
-        <v>1.95</v>
-      </c>
-      <c r="V458">
-        <v>1.9</v>
-      </c>
-      <c r="W458">
-        <v>-1</v>
-      </c>
-      <c r="X458">
-        <v>-1</v>
-      </c>
       <c r="Y458">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z458">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA458">
+        <v>0.4875</v>
+      </c>
+      <c r="AB458">
         <v>0.925</v>
       </c>
-      <c r="AB458">
-        <v>0</v>
-      </c>
       <c r="AC458">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="459" spans="1:29">
@@ -41298,7 +41298,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>4568037</v>
+        <v>4568186</v>
       </c>
       <c r="C459" t="s">
         <v>28</v>
@@ -41310,19 +41310,19 @@
         <v>44863.54166666666</v>
       </c>
       <c r="F459" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G459" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H459">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I459">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J459" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K459">
         <v>1.95</v>
@@ -41331,55 +41331,55 @@
         <v>3.6</v>
       </c>
       <c r="M459">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N459">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O459">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P459">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="Q459">
         <v>-0.25</v>
       </c>
       <c r="R459">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S459">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T459">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U459">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V459">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W459">
         <v>-1</v>
       </c>
       <c r="X459">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y459">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z459">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA459">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
       <c r="AB459">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC459">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="460" spans="1:29">
@@ -58030,7 +58030,7 @@
         <v>645</v>
       </c>
       <c r="B647">
-        <v>6011935</v>
+        <v>6011998</v>
       </c>
       <c r="C647" t="s">
         <v>28</v>
@@ -58042,76 +58042,76 @@
         <v>45186.5</v>
       </c>
       <c r="F647" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G647" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H647">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I647">
         <v>1</v>
       </c>
       <c r="J647" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K647">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="L647">
         <v>3.75</v>
       </c>
       <c r="M647">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="N647">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="O647">
         <v>4</v>
       </c>
       <c r="P647">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="Q647">
+        <v>0.75</v>
+      </c>
+      <c r="R647">
+        <v>1.825</v>
+      </c>
+      <c r="S647">
+        <v>2.025</v>
+      </c>
+      <c r="T647">
+        <v>3</v>
+      </c>
+      <c r="U647">
+        <v>2.025</v>
+      </c>
+      <c r="V647">
+        <v>1.825</v>
+      </c>
+      <c r="W647">
+        <v>-1</v>
+      </c>
+      <c r="X647">
+        <v>-1</v>
+      </c>
+      <c r="Y647">
+        <v>0.8</v>
+      </c>
+      <c r="Z647">
         <v>-0.5</v>
       </c>
-      <c r="R647">
-        <v>1.9</v>
-      </c>
-      <c r="S647">
-        <v>1.95</v>
-      </c>
-      <c r="T647">
-        <v>3.25</v>
-      </c>
-      <c r="U647">
-        <v>1.95</v>
-      </c>
-      <c r="V647">
-        <v>1.9</v>
-      </c>
-      <c r="W647">
-        <v>0.909</v>
-      </c>
-      <c r="X647">
-        <v>-1</v>
-      </c>
-      <c r="Y647">
-        <v>-1</v>
-      </c>
-      <c r="Z647">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA647">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB647">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC647">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="648" spans="1:29">
@@ -58119,7 +58119,7 @@
         <v>646</v>
       </c>
       <c r="B648">
-        <v>6011998</v>
+        <v>6011935</v>
       </c>
       <c r="C648" t="s">
         <v>28</v>
@@ -58131,76 +58131,76 @@
         <v>45186.5</v>
       </c>
       <c r="F648" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G648" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I648">
         <v>1</v>
       </c>
       <c r="J648" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K648">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="L648">
         <v>3.75</v>
       </c>
       <c r="M648">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="N648">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="O648">
         <v>4</v>
       </c>
       <c r="P648">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q648">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R648">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S648">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T648">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U648">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V648">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W648">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X648">
         <v>-1</v>
       </c>
       <c r="Y648">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z648">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA648">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB648">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC648">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="649" spans="1:29">
@@ -58653,7 +58653,7 @@
         <v>652</v>
       </c>
       <c r="B654">
-        <v>6008617</v>
+        <v>6008782</v>
       </c>
       <c r="C654" t="s">
         <v>28</v>
@@ -58665,76 +58665,76 @@
         <v>45193.5</v>
       </c>
       <c r="F654" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G654" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H654">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I654">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J654" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K654">
-        <v>1.333</v>
+        <v>4.75</v>
       </c>
       <c r="L654">
+        <v>3.9</v>
+      </c>
+      <c r="M654">
+        <v>1.666</v>
+      </c>
+      <c r="N654">
         <v>5.5</v>
       </c>
-      <c r="M654">
-        <v>7.5</v>
-      </c>
-      <c r="N654">
-        <v>1.25</v>
-      </c>
       <c r="O654">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="P654">
-        <v>10</v>
+        <v>1.615</v>
       </c>
       <c r="Q654">
-        <v>-1.75</v>
+        <v>1</v>
       </c>
       <c r="R654">
         <v>1.85</v>
       </c>
       <c r="S654">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T654">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U654">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V654">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W654">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X654">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y654">
         <v>-1</v>
       </c>
       <c r="Z654">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA654">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB654">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC654">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="655" spans="1:29">
@@ -58742,7 +58742,7 @@
         <v>653</v>
       </c>
       <c r="B655">
-        <v>6008782</v>
+        <v>6008617</v>
       </c>
       <c r="C655" t="s">
         <v>28</v>
@@ -58754,76 +58754,76 @@
         <v>45193.5</v>
       </c>
       <c r="F655" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G655" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H655">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I655">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J655" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K655">
-        <v>4.75</v>
+        <v>1.333</v>
       </c>
       <c r="L655">
-        <v>3.9</v>
+        <v>5.5</v>
       </c>
       <c r="M655">
-        <v>1.666</v>
+        <v>7.5</v>
       </c>
       <c r="N655">
-        <v>5.5</v>
+        <v>1.25</v>
       </c>
       <c r="O655">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P655">
-        <v>1.615</v>
+        <v>10</v>
       </c>
       <c r="Q655">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="R655">
         <v>1.85</v>
       </c>
       <c r="S655">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T655">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U655">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V655">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W655">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X655">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y655">
         <v>-1</v>
       </c>
       <c r="Z655">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AA655">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB655">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC655">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="656" spans="1:29">
@@ -58831,7 +58831,7 @@
         <v>654</v>
       </c>
       <c r="B656">
-        <v>6011418</v>
+        <v>6011517</v>
       </c>
       <c r="C656" t="s">
         <v>28</v>
@@ -58843,61 +58843,61 @@
         <v>45193.5</v>
       </c>
       <c r="F656" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G656" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H656">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I656">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J656" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K656">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="L656">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="M656">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="N656">
-        <v>1.95</v>
+        <v>1.285</v>
       </c>
       <c r="O656">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="P656">
-        <v>3.75</v>
+        <v>8.5</v>
       </c>
       <c r="Q656">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R656">
+        <v>1.925</v>
+      </c>
+      <c r="S656">
+        <v>1.925</v>
+      </c>
+      <c r="T656">
+        <v>3.5</v>
+      </c>
+      <c r="U656">
+        <v>1.85</v>
+      </c>
+      <c r="V656">
         <v>2</v>
       </c>
-      <c r="S656">
-        <v>1.85</v>
-      </c>
-      <c r="T656">
-        <v>2.5</v>
-      </c>
-      <c r="U656">
-        <v>1.925</v>
-      </c>
-      <c r="V656">
-        <v>1.925</v>
-      </c>
       <c r="W656">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X656">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y656">
         <v>-1</v>
@@ -58906,13 +58906,13 @@
         <v>-1</v>
       </c>
       <c r="AA656">
+        <v>0.925</v>
+      </c>
+      <c r="AB656">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB656">
-        <v>-1</v>
-      </c>
       <c r="AC656">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="657" spans="1:29">
@@ -58920,7 +58920,7 @@
         <v>655</v>
       </c>
       <c r="B657">
-        <v>6011517</v>
+        <v>6011516</v>
       </c>
       <c r="C657" t="s">
         <v>28</v>
@@ -58932,76 +58932,76 @@
         <v>45193.5</v>
       </c>
       <c r="F657" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G657" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H657">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I657">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J657" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K657">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="L657">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M657">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="N657">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="O657">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="P657">
-        <v>8.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q657">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R657">
+        <v>1.975</v>
+      </c>
+      <c r="S657">
+        <v>1.875</v>
+      </c>
+      <c r="T657">
+        <v>3.25</v>
+      </c>
+      <c r="U657">
         <v>1.925</v>
       </c>
-      <c r="S657">
+      <c r="V657">
         <v>1.925</v>
       </c>
-      <c r="T657">
-        <v>3.5</v>
-      </c>
-      <c r="U657">
-        <v>1.85</v>
-      </c>
-      <c r="V657">
-        <v>2</v>
-      </c>
       <c r="W657">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X657">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y657">
         <v>-1</v>
       </c>
       <c r="Z657">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA657">
+        <v>-1</v>
+      </c>
+      <c r="AB657">
+        <v>-1</v>
+      </c>
+      <c r="AC657">
         <v>0.925</v>
-      </c>
-      <c r="AB657">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC657">
-        <v>-1</v>
       </c>
     </row>
     <row r="658" spans="1:29">
@@ -59009,7 +59009,7 @@
         <v>656</v>
       </c>
       <c r="B658">
-        <v>6011516</v>
+        <v>6011418</v>
       </c>
       <c r="C658" t="s">
         <v>28</v>
@@ -59021,10 +59021,10 @@
         <v>45193.5</v>
       </c>
       <c r="F658" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G658" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H658">
         <v>1</v>
@@ -59036,34 +59036,34 @@
         <v>49</v>
       </c>
       <c r="K658">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="L658">
+        <v>3.4</v>
+      </c>
+      <c r="M658">
+        <v>3.4</v>
+      </c>
+      <c r="N658">
+        <v>1.95</v>
+      </c>
+      <c r="O658">
+        <v>3.6</v>
+      </c>
+      <c r="P658">
         <v>3.75</v>
       </c>
-      <c r="M658">
-        <v>2.1</v>
-      </c>
-      <c r="N658">
-        <v>3.5</v>
-      </c>
-      <c r="O658">
-        <v>4.333</v>
-      </c>
-      <c r="P658">
+      <c r="Q658">
+        <v>-0.5</v>
+      </c>
+      <c r="R658">
+        <v>2</v>
+      </c>
+      <c r="S658">
         <v>1.85</v>
       </c>
-      <c r="Q658">
-        <v>0.5</v>
-      </c>
-      <c r="R658">
-        <v>1.975</v>
-      </c>
-      <c r="S658">
-        <v>1.875</v>
-      </c>
       <c r="T658">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U658">
         <v>1.925</v>
@@ -59075,16 +59075,16 @@
         <v>-1</v>
       </c>
       <c r="X658">
-        <v>3.333</v>
+        <v>2.6</v>
       </c>
       <c r="Y658">
         <v>-1</v>
       </c>
       <c r="Z658">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA658">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB658">
         <v>-1</v>
@@ -59988,7 +59988,7 @@
         <v>667</v>
       </c>
       <c r="B669">
-        <v>6011519</v>
+        <v>6011518</v>
       </c>
       <c r="C669" t="s">
         <v>28</v>
@@ -60000,76 +60000,76 @@
         <v>45207.5</v>
       </c>
       <c r="F669" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G669" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H669">
+        <v>1</v>
+      </c>
+      <c r="I669">
         <v>0</v>
       </c>
-      <c r="I669">
-        <v>1</v>
-      </c>
       <c r="J669" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K669">
         <v>2.4</v>
       </c>
       <c r="L669">
+        <v>3.3</v>
+      </c>
+      <c r="M669">
+        <v>2.875</v>
+      </c>
+      <c r="N669">
+        <v>2.3</v>
+      </c>
+      <c r="O669">
         <v>3.4</v>
       </c>
-      <c r="M669">
-        <v>2.8</v>
-      </c>
-      <c r="N669">
-        <v>2</v>
-      </c>
-      <c r="O669">
-        <v>3.8</v>
-      </c>
       <c r="P669">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q669">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R669">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S669">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T669">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U669">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V669">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W669">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X669">
         <v>-1</v>
       </c>
       <c r="Y669">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z669">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA669">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB669">
         <v>-1</v>
       </c>
       <c r="AC669">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="670" spans="1:29">
@@ -60077,7 +60077,7 @@
         <v>668</v>
       </c>
       <c r="B670">
-        <v>6011518</v>
+        <v>6011420</v>
       </c>
       <c r="C670" t="s">
         <v>28</v>
@@ -60089,76 +60089,76 @@
         <v>45207.5</v>
       </c>
       <c r="F670" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G670" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H670">
         <v>1</v>
       </c>
       <c r="I670">
+        <v>2</v>
+      </c>
+      <c r="J670" t="s">
+        <v>50</v>
+      </c>
+      <c r="K670">
+        <v>1.444</v>
+      </c>
+      <c r="L670">
+        <v>4.5</v>
+      </c>
+      <c r="M670">
+        <v>6.5</v>
+      </c>
+      <c r="N670">
+        <v>1.333</v>
+      </c>
+      <c r="O670">
+        <v>5.5</v>
+      </c>
+      <c r="P670">
+        <v>9</v>
+      </c>
+      <c r="Q670">
+        <v>-1.5</v>
+      </c>
+      <c r="R670">
+        <v>1.9</v>
+      </c>
+      <c r="S670">
+        <v>2</v>
+      </c>
+      <c r="T670">
+        <v>3</v>
+      </c>
+      <c r="U670">
+        <v>1.925</v>
+      </c>
+      <c r="V670">
+        <v>1.925</v>
+      </c>
+      <c r="W670">
+        <v>-1</v>
+      </c>
+      <c r="X670">
+        <v>-1</v>
+      </c>
+      <c r="Y670">
+        <v>8</v>
+      </c>
+      <c r="Z670">
+        <v>-1</v>
+      </c>
+      <c r="AA670">
+        <v>1</v>
+      </c>
+      <c r="AB670">
         <v>0</v>
       </c>
-      <c r="J670" t="s">
-        <v>48</v>
-      </c>
-      <c r="K670">
-        <v>2.4</v>
-      </c>
-      <c r="L670">
-        <v>3.3</v>
-      </c>
-      <c r="M670">
-        <v>2.875</v>
-      </c>
-      <c r="N670">
-        <v>2.3</v>
-      </c>
-      <c r="O670">
-        <v>3.4</v>
-      </c>
-      <c r="P670">
-        <v>3</v>
-      </c>
-      <c r="Q670">
-        <v>-0.25</v>
-      </c>
-      <c r="R670">
-        <v>2.025</v>
-      </c>
-      <c r="S670">
-        <v>1.825</v>
-      </c>
-      <c r="T670">
-        <v>2.5</v>
-      </c>
-      <c r="U670">
-        <v>1.95</v>
-      </c>
-      <c r="V670">
-        <v>1.9</v>
-      </c>
-      <c r="W670">
-        <v>1.3</v>
-      </c>
-      <c r="X670">
-        <v>-1</v>
-      </c>
-      <c r="Y670">
-        <v>-1</v>
-      </c>
-      <c r="Z670">
-        <v>1.025</v>
-      </c>
-      <c r="AA670">
-        <v>-1</v>
-      </c>
-      <c r="AB670">
-        <v>-1</v>
-      </c>
       <c r="AC670">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="671" spans="1:29">
@@ -60166,7 +60166,7 @@
         <v>669</v>
       </c>
       <c r="B671">
-        <v>6011420</v>
+        <v>6011519</v>
       </c>
       <c r="C671" t="s">
         <v>28</v>
@@ -60178,46 +60178,46 @@
         <v>45207.5</v>
       </c>
       <c r="F671" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G671" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H671">
+        <v>0</v>
+      </c>
+      <c r="I671">
         <v>1</v>
-      </c>
-      <c r="I671">
-        <v>2</v>
       </c>
       <c r="J671" t="s">
         <v>50</v>
       </c>
       <c r="K671">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="L671">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M671">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="N671">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="O671">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="P671">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="Q671">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R671">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S671">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T671">
         <v>3</v>
@@ -60235,19 +60235,19 @@
         <v>-1</v>
       </c>
       <c r="Y671">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="Z671">
         <v>-1</v>
       </c>
       <c r="AA671">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB671">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC671">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="672" spans="1:29">
@@ -61234,7 +61234,7 @@
         <v>681</v>
       </c>
       <c r="B683">
-        <v>6012003</v>
+        <v>6011937</v>
       </c>
       <c r="C683" t="s">
         <v>28</v>
@@ -61246,76 +61246,76 @@
         <v>45228.54166666666</v>
       </c>
       <c r="F683" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G683" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H683">
+        <v>2</v>
+      </c>
+      <c r="I683">
+        <v>2</v>
+      </c>
+      <c r="J683" t="s">
+        <v>49</v>
+      </c>
+      <c r="K683">
+        <v>1.533</v>
+      </c>
+      <c r="L683">
+        <v>4.333</v>
+      </c>
+      <c r="M683">
+        <v>5.25</v>
+      </c>
+      <c r="N683">
+        <v>1.533</v>
+      </c>
+      <c r="O683">
+        <v>4.75</v>
+      </c>
+      <c r="P683">
+        <v>5.5</v>
+      </c>
+      <c r="Q683">
+        <v>-1</v>
+      </c>
+      <c r="R683">
+        <v>1.9</v>
+      </c>
+      <c r="S683">
+        <v>2</v>
+      </c>
+      <c r="T683">
+        <v>3.25</v>
+      </c>
+      <c r="U683">
+        <v>1.925</v>
+      </c>
+      <c r="V683">
+        <v>1.925</v>
+      </c>
+      <c r="W683">
+        <v>-1</v>
+      </c>
+      <c r="X683">
+        <v>3.75</v>
+      </c>
+      <c r="Y683">
+        <v>-1</v>
+      </c>
+      <c r="Z683">
+        <v>-1</v>
+      </c>
+      <c r="AA683">
         <v>1</v>
       </c>
-      <c r="I683">
-        <v>0</v>
-      </c>
-      <c r="J683" t="s">
-        <v>48</v>
-      </c>
-      <c r="K683">
-        <v>3.7</v>
-      </c>
-      <c r="L683">
-        <v>3.9</v>
-      </c>
-      <c r="M683">
-        <v>1.833</v>
-      </c>
-      <c r="N683">
-        <v>2.9</v>
-      </c>
-      <c r="O683">
-        <v>3.6</v>
-      </c>
-      <c r="P683">
-        <v>2.3</v>
-      </c>
-      <c r="Q683">
-        <v>0.25</v>
-      </c>
-      <c r="R683">
-        <v>1.825</v>
-      </c>
-      <c r="S683">
-        <v>2.025</v>
-      </c>
-      <c r="T683">
-        <v>3</v>
-      </c>
-      <c r="U683">
-        <v>2</v>
-      </c>
-      <c r="V683">
-        <v>1.85</v>
-      </c>
-      <c r="W683">
-        <v>1.9</v>
-      </c>
-      <c r="X683">
-        <v>-1</v>
-      </c>
-      <c r="Y683">
-        <v>-1</v>
-      </c>
-      <c r="Z683">
-        <v>0.825</v>
-      </c>
-      <c r="AA683">
-        <v>-1</v>
-      </c>
       <c r="AB683">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC683">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="684" spans="1:29">
@@ -61323,7 +61323,7 @@
         <v>682</v>
       </c>
       <c r="B684">
-        <v>6011937</v>
+        <v>6012003</v>
       </c>
       <c r="C684" t="s">
         <v>28</v>
@@ -61335,76 +61335,76 @@
         <v>45228.54166666666</v>
       </c>
       <c r="F684" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G684" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H684">
+        <v>1</v>
+      </c>
+      <c r="I684">
+        <v>0</v>
+      </c>
+      <c r="J684" t="s">
+        <v>48</v>
+      </c>
+      <c r="K684">
+        <v>3.7</v>
+      </c>
+      <c r="L684">
+        <v>3.9</v>
+      </c>
+      <c r="M684">
+        <v>1.833</v>
+      </c>
+      <c r="N684">
+        <v>2.9</v>
+      </c>
+      <c r="O684">
+        <v>3.6</v>
+      </c>
+      <c r="P684">
+        <v>2.3</v>
+      </c>
+      <c r="Q684">
+        <v>0.25</v>
+      </c>
+      <c r="R684">
+        <v>1.825</v>
+      </c>
+      <c r="S684">
+        <v>2.025</v>
+      </c>
+      <c r="T684">
+        <v>3</v>
+      </c>
+      <c r="U684">
         <v>2</v>
       </c>
-      <c r="I684">
-        <v>2</v>
-      </c>
-      <c r="J684" t="s">
-        <v>49</v>
-      </c>
-      <c r="K684">
-        <v>1.533</v>
-      </c>
-      <c r="L684">
-        <v>4.333</v>
-      </c>
-      <c r="M684">
-        <v>5.25</v>
-      </c>
-      <c r="N684">
-        <v>1.533</v>
-      </c>
-      <c r="O684">
-        <v>4.75</v>
-      </c>
-      <c r="P684">
-        <v>5.5</v>
-      </c>
-      <c r="Q684">
-        <v>-1</v>
-      </c>
-      <c r="R684">
+      <c r="V684">
+        <v>1.85</v>
+      </c>
+      <c r="W684">
         <v>1.9</v>
       </c>
-      <c r="S684">
-        <v>2</v>
-      </c>
-      <c r="T684">
-        <v>3.25</v>
-      </c>
-      <c r="U684">
-        <v>1.925</v>
-      </c>
-      <c r="V684">
-        <v>1.925</v>
-      </c>
-      <c r="W684">
-        <v>-1</v>
-      </c>
       <c r="X684">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y684">
         <v>-1</v>
       </c>
       <c r="Z684">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA684">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB684">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC684">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="685" spans="1:29">
@@ -61946,7 +61946,7 @@
         <v>689</v>
       </c>
       <c r="B691">
-        <v>6011938</v>
+        <v>6008621</v>
       </c>
       <c r="C691" t="s">
         <v>28</v>
@@ -61958,49 +61958,49 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F691" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G691" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H691">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I691">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J691" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K691">
-        <v>1.909</v>
+        <v>5.25</v>
       </c>
       <c r="L691">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M691">
+        <v>1.55</v>
+      </c>
+      <c r="N691">
+        <v>5.75</v>
+      </c>
+      <c r="O691">
+        <v>4.75</v>
+      </c>
+      <c r="P691">
+        <v>1.5</v>
+      </c>
+      <c r="Q691">
+        <v>1.25</v>
+      </c>
+      <c r="R691">
+        <v>1.825</v>
+      </c>
+      <c r="S691">
+        <v>2.025</v>
+      </c>
+      <c r="T691">
         <v>3.5</v>
-      </c>
-      <c r="N691">
-        <v>1.909</v>
-      </c>
-      <c r="O691">
-        <v>4</v>
-      </c>
-      <c r="P691">
-        <v>3.5</v>
-      </c>
-      <c r="Q691">
-        <v>-0.5</v>
-      </c>
-      <c r="R691">
-        <v>1.9</v>
-      </c>
-      <c r="S691">
-        <v>2</v>
-      </c>
-      <c r="T691">
-        <v>3.25</v>
       </c>
       <c r="U691">
         <v>2.025</v>
@@ -62009,19 +62009,19 @@
         <v>1.825</v>
       </c>
       <c r="W691">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X691">
         <v>-1</v>
       </c>
       <c r="Y691">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z691">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA691">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB691">
         <v>1.025</v>
@@ -62035,7 +62035,7 @@
         <v>690</v>
       </c>
       <c r="B692">
-        <v>6011526</v>
+        <v>6011938</v>
       </c>
       <c r="C692" t="s">
         <v>28</v>
@@ -62047,58 +62047,58 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F692" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G692" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H692">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I692">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J692" t="s">
         <v>48</v>
       </c>
       <c r="K692">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="L692">
         <v>4</v>
       </c>
       <c r="M692">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="N692">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O692">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P692">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q692">
         <v>-0.5</v>
       </c>
       <c r="R692">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="S692">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="T692">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U692">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V692">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W692">
-        <v>0.8</v>
+        <v>0.909</v>
       </c>
       <c r="X692">
         <v>-1</v>
@@ -62107,16 +62107,16 @@
         <v>-1</v>
       </c>
       <c r="Z692">
-        <v>0.8600000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA692">
         <v>-1</v>
       </c>
       <c r="AB692">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC692">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="693" spans="1:29">
@@ -62124,7 +62124,7 @@
         <v>691</v>
       </c>
       <c r="B693">
-        <v>6011426</v>
+        <v>6011526</v>
       </c>
       <c r="C693" t="s">
         <v>28</v>
@@ -62136,58 +62136,58 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F693" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G693" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H693">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I693">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J693" t="s">
         <v>48</v>
       </c>
       <c r="K693">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="L693">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M693">
-        <v>9</v>
+        <v>4.333</v>
       </c>
       <c r="N693">
-        <v>1.142</v>
+        <v>1.8</v>
       </c>
       <c r="O693">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="P693">
-        <v>17</v>
+        <v>4.2</v>
       </c>
       <c r="Q693">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R693">
-        <v>1.875</v>
+        <v>1.86</v>
       </c>
       <c r="S693">
-        <v>1.975</v>
+        <v>2.04</v>
       </c>
       <c r="T693">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U693">
+        <v>1.9</v>
+      </c>
+      <c r="V693">
         <v>1.95</v>
       </c>
-      <c r="V693">
-        <v>1.9</v>
-      </c>
       <c r="W693">
-        <v>0.1419999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X693">
         <v>-1</v>
@@ -62196,16 +62196,16 @@
         <v>-1</v>
       </c>
       <c r="Z693">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA693">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB693">
         <v>-1</v>
       </c>
       <c r="AC693">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="694" spans="1:29">
@@ -62213,7 +62213,7 @@
         <v>692</v>
       </c>
       <c r="B694">
-        <v>6008785</v>
+        <v>6011426</v>
       </c>
       <c r="C694" t="s">
         <v>28</v>
@@ -62225,13 +62225,13 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F694" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G694" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H694">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I694">
         <v>1</v>
@@ -62240,43 +62240,43 @@
         <v>48</v>
       </c>
       <c r="K694">
-        <v>3.75</v>
+        <v>1.3</v>
       </c>
       <c r="L694">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="M694">
-        <v>1.85</v>
+        <v>9</v>
       </c>
       <c r="N694">
-        <v>3.75</v>
+        <v>1.142</v>
       </c>
       <c r="O694">
-        <v>3.8</v>
+        <v>9</v>
       </c>
       <c r="P694">
+        <v>17</v>
+      </c>
+      <c r="Q694">
+        <v>-2.25</v>
+      </c>
+      <c r="R694">
+        <v>1.875</v>
+      </c>
+      <c r="S694">
+        <v>1.975</v>
+      </c>
+      <c r="T694">
+        <v>3.5</v>
+      </c>
+      <c r="U694">
         <v>1.95</v>
       </c>
-      <c r="Q694">
-        <v>0.5</v>
-      </c>
-      <c r="R694">
-        <v>1.92</v>
-      </c>
-      <c r="S694">
-        <v>1.98</v>
-      </c>
-      <c r="T694">
-        <v>3.25</v>
-      </c>
-      <c r="U694">
-        <v>2.05</v>
-      </c>
       <c r="V694">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W694">
-        <v>2.75</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X694">
         <v>-1</v>
@@ -62285,16 +62285,16 @@
         <v>-1</v>
       </c>
       <c r="Z694">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA694">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB694">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC694">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="695" spans="1:29">
@@ -62302,7 +62302,7 @@
         <v>693</v>
       </c>
       <c r="B695">
-        <v>6008621</v>
+        <v>6008785</v>
       </c>
       <c r="C695" t="s">
         <v>28</v>
@@ -62314,73 +62314,73 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F695" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G695" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I695">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J695" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K695">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="L695">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="M695">
-        <v>1.55</v>
+        <v>1.85</v>
       </c>
       <c r="N695">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="O695">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P695">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q695">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R695">
-        <v>1.825</v>
+        <v>1.92</v>
       </c>
       <c r="S695">
-        <v>2.025</v>
+        <v>1.98</v>
       </c>
       <c r="T695">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U695">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V695">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W695">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X695">
         <v>-1</v>
       </c>
       <c r="Y695">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z695">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA695">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB695">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AC695">
         <v>-1</v>
@@ -63993,7 +63993,7 @@
         <v>712</v>
       </c>
       <c r="B714">
-        <v>6011940</v>
+        <v>6012013</v>
       </c>
       <c r="C714" t="s">
         <v>28</v>
@@ -64005,76 +64005,76 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F714" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G714" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H714">
+        <v>1</v>
+      </c>
+      <c r="I714">
+        <v>1</v>
+      </c>
+      <c r="J714" t="s">
+        <v>49</v>
+      </c>
+      <c r="K714">
+        <v>2.5</v>
+      </c>
+      <c r="L714">
+        <v>3.5</v>
+      </c>
+      <c r="M714">
+        <v>2.625</v>
+      </c>
+      <c r="N714">
+        <v>2.05</v>
+      </c>
+      <c r="O714">
+        <v>3.6</v>
+      </c>
+      <c r="P714">
+        <v>3.4</v>
+      </c>
+      <c r="Q714">
+        <v>-0.25</v>
+      </c>
+      <c r="R714">
+        <v>1.8</v>
+      </c>
+      <c r="S714">
+        <v>2.05</v>
+      </c>
+      <c r="T714">
+        <v>2.5</v>
+      </c>
+      <c r="U714">
         <v>2</v>
       </c>
-      <c r="I714">
-        <v>0</v>
-      </c>
-      <c r="J714" t="s">
-        <v>48</v>
-      </c>
-      <c r="K714">
-        <v>1.45</v>
-      </c>
-      <c r="L714">
-        <v>5</v>
-      </c>
-      <c r="M714">
-        <v>5.75</v>
-      </c>
-      <c r="N714">
-        <v>1.45</v>
-      </c>
-      <c r="O714">
-        <v>5</v>
-      </c>
-      <c r="P714">
-        <v>6</v>
-      </c>
-      <c r="Q714">
-        <v>-1.25</v>
-      </c>
-      <c r="R714">
-        <v>1.89</v>
-      </c>
-      <c r="S714">
-        <v>2.01</v>
-      </c>
-      <c r="T714">
-        <v>4</v>
-      </c>
-      <c r="U714">
+      <c r="V714">
         <v>1.85</v>
       </c>
-      <c r="V714">
-        <v>2</v>
-      </c>
       <c r="W714">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X714">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y714">
         <v>-1</v>
       </c>
       <c r="Z714">
-        <v>0.8899999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA714">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB714">
         <v>-1</v>
       </c>
       <c r="AC714">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="715" spans="1:29">
@@ -64082,7 +64082,7 @@
         <v>713</v>
       </c>
       <c r="B715">
-        <v>6390526</v>
+        <v>6390446</v>
       </c>
       <c r="C715" t="s">
         <v>28</v>
@@ -64094,76 +64094,76 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F715" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G715" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H715">
         <v>1</v>
       </c>
       <c r="I715">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J715" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K715">
-        <v>1.4</v>
+        <v>1.615</v>
       </c>
       <c r="L715">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M715">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="N715">
-        <v>1.333</v>
+        <v>1.8</v>
       </c>
       <c r="O715">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="P715">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q715">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R715">
+        <v>2.025</v>
+      </c>
+      <c r="S715">
         <v>1.825</v>
       </c>
-      <c r="S715">
-        <v>2.025</v>
-      </c>
       <c r="T715">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U715">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V715">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W715">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X715">
         <v>-1</v>
       </c>
       <c r="Y715">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z715">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA715">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB715">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC715">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="716" spans="1:29">
@@ -64171,7 +64171,7 @@
         <v>714</v>
       </c>
       <c r="B716">
-        <v>6390446</v>
+        <v>6012008</v>
       </c>
       <c r="C716" t="s">
         <v>28</v>
@@ -64183,13 +64183,13 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F716" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G716" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H716">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I716">
         <v>0</v>
@@ -64198,43 +64198,43 @@
         <v>48</v>
       </c>
       <c r="K716">
-        <v>1.615</v>
+        <v>4.5</v>
       </c>
       <c r="L716">
         <v>4.2</v>
       </c>
       <c r="M716">
-        <v>4.75</v>
+        <v>1.65</v>
       </c>
       <c r="N716">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="O716">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P716">
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="Q716">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R716">
-        <v>2.025</v>
+        <v>1.86</v>
       </c>
       <c r="S716">
-        <v>1.825</v>
+        <v>2.04</v>
       </c>
       <c r="T716">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U716">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V716">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W716">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="X716">
         <v>-1</v>
@@ -64243,16 +64243,16 @@
         <v>-1</v>
       </c>
       <c r="Z716">
-        <v>0.5125</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA716">
+        <v>-1</v>
+      </c>
+      <c r="AB716">
+        <v>0.425</v>
+      </c>
+      <c r="AC716">
         <v>-0.5</v>
-      </c>
-      <c r="AB716">
-        <v>-1</v>
-      </c>
-      <c r="AC716">
-        <v>0.95</v>
       </c>
     </row>
     <row r="717" spans="1:29">
@@ -64349,7 +64349,7 @@
         <v>716</v>
       </c>
       <c r="B718">
-        <v>6012008</v>
+        <v>6390526</v>
       </c>
       <c r="C718" t="s">
         <v>28</v>
@@ -64361,76 +64361,76 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F718" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G718" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H718">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I718">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J718" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K718">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="L718">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M718">
-        <v>1.65</v>
+        <v>6.5</v>
       </c>
       <c r="N718">
-        <v>4.2</v>
+        <v>1.333</v>
       </c>
       <c r="O718">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="P718">
-        <v>1.75</v>
+        <v>8</v>
       </c>
       <c r="Q718">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R718">
-        <v>1.86</v>
+        <v>1.825</v>
       </c>
       <c r="S718">
-        <v>2.04</v>
+        <v>2.025</v>
       </c>
       <c r="T718">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U718">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V718">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W718">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X718">
         <v>-1</v>
       </c>
       <c r="Y718">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z718">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA718">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB718">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AC718">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="719" spans="1:29">
@@ -64438,7 +64438,7 @@
         <v>717</v>
       </c>
       <c r="B719">
-        <v>6012013</v>
+        <v>6011534</v>
       </c>
       <c r="C719" t="s">
         <v>28</v>
@@ -64450,10 +64450,10 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F719" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G719" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H719">
         <v>1</v>
@@ -64465,61 +64465,61 @@
         <v>49</v>
       </c>
       <c r="K719">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="L719">
+        <v>6.5</v>
+      </c>
+      <c r="M719">
+        <v>10</v>
+      </c>
+      <c r="N719">
+        <v>1.222</v>
+      </c>
+      <c r="O719">
+        <v>7</v>
+      </c>
+      <c r="P719">
+        <v>11</v>
+      </c>
+      <c r="Q719">
+        <v>-2</v>
+      </c>
+      <c r="R719">
+        <v>1.95</v>
+      </c>
+      <c r="S719">
+        <v>1.9</v>
+      </c>
+      <c r="T719">
         <v>3.5</v>
       </c>
-      <c r="M719">
-        <v>2.625</v>
-      </c>
-      <c r="N719">
-        <v>2.05</v>
-      </c>
-      <c r="O719">
-        <v>3.6</v>
-      </c>
-      <c r="P719">
-        <v>3.4</v>
-      </c>
-      <c r="Q719">
-        <v>-0.25</v>
-      </c>
-      <c r="R719">
+      <c r="U719">
         <v>1.8</v>
       </c>
-      <c r="S719">
-        <v>2.05</v>
-      </c>
-      <c r="T719">
-        <v>2.5</v>
-      </c>
-      <c r="U719">
+      <c r="V719">
         <v>2</v>
       </c>
-      <c r="V719">
-        <v>1.85</v>
-      </c>
       <c r="W719">
         <v>-1</v>
       </c>
       <c r="X719">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="Y719">
         <v>-1</v>
       </c>
       <c r="Z719">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA719">
-        <v>0.5249999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB719">
         <v>-1</v>
       </c>
       <c r="AC719">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" spans="1:29">
@@ -64527,7 +64527,7 @@
         <v>718</v>
       </c>
       <c r="B720">
-        <v>6011534</v>
+        <v>6011940</v>
       </c>
       <c r="C720" t="s">
         <v>28</v>
@@ -64539,70 +64539,70 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F720" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G720" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H720">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I720">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J720" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K720">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="L720">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="M720">
-        <v>10</v>
+        <v>5.75</v>
       </c>
       <c r="N720">
-        <v>1.222</v>
+        <v>1.45</v>
       </c>
       <c r="O720">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P720">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="Q720">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="R720">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="S720">
-        <v>1.9</v>
+        <v>2.01</v>
       </c>
       <c r="T720">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U720">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V720">
         <v>2</v>
       </c>
       <c r="W720">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X720">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y720">
         <v>-1</v>
       </c>
       <c r="Z720">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA720">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB720">
         <v>-1</v>

--- a/Norway Eliteserien/Norway Eliteserien.xlsx
+++ b/Norway Eliteserien/Norway Eliteserien.xlsx
@@ -2307,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6008597</v>
+        <v>6011463</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2319,76 +2319,76 @@
         <v>45039.5</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K21">
-        <v>6</v>
+        <v>1.363</v>
       </c>
       <c r="L21">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M21">
-        <v>1.5</v>
+        <v>7.5</v>
       </c>
       <c r="N21">
-        <v>5.5</v>
+        <v>1.4</v>
       </c>
       <c r="O21">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P21">
-        <v>1.55</v>
+        <v>8</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R21">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="S21">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="T21">
         <v>2.75</v>
       </c>
       <c r="U21">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V21">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y21">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="AB21">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6011463</v>
+        <v>6008597</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,76 +2408,76 @@
         <v>45039.5</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22" t="s">
+        <v>47</v>
+      </c>
+      <c r="K22">
+        <v>6</v>
+      </c>
+      <c r="L22">
+        <v>4.333</v>
+      </c>
+      <c r="M22">
+        <v>1.5</v>
+      </c>
+      <c r="N22">
+        <v>5.5</v>
+      </c>
+      <c r="O22">
+        <v>4.2</v>
+      </c>
+      <c r="P22">
+        <v>1.55</v>
+      </c>
+      <c r="Q22">
         <v>1</v>
       </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22" t="s">
-        <v>46</v>
-      </c>
-      <c r="K22">
-        <v>1.363</v>
-      </c>
-      <c r="L22">
-        <v>5</v>
-      </c>
-      <c r="M22">
-        <v>7.5</v>
-      </c>
-      <c r="N22">
-        <v>1.4</v>
-      </c>
-      <c r="O22">
-        <v>4.75</v>
-      </c>
-      <c r="P22">
-        <v>8</v>
-      </c>
-      <c r="Q22">
-        <v>-1.25</v>
-      </c>
       <c r="R22">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="S22">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="T22">
         <v>2.75</v>
       </c>
       <c r="U22">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V22">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC22">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6008764</v>
+        <v>6011382</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2853,55 +2853,55 @@
         <v>45046.5</v>
       </c>
       <c r="F27" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
         <v>47</v>
       </c>
       <c r="K27">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="L27">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M27">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N27">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="O27">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P27">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q27">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R27">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S27">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T27">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V27">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W27">
         <v>-1</v>
@@ -2910,19 +2910,19 @@
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB27">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2930,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6011382</v>
+        <v>6011465</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2942,76 +2942,76 @@
         <v>45046.5</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K28">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="L28">
         <v>3.4</v>
       </c>
       <c r="M28">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="N28">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="O28">
         <v>3.4</v>
       </c>
       <c r="P28">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q28">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S28">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T28">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U28">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V28">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y28">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB28">
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3019,7 +3019,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6011465</v>
+        <v>6011466</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3031,76 +3031,76 @@
         <v>45046.5</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K29">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="L29">
         <v>3.4</v>
       </c>
       <c r="M29">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="N29">
-        <v>2.6</v>
+        <v>2.375</v>
       </c>
       <c r="O29">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P29">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R29">
+        <v>2.025</v>
+      </c>
+      <c r="S29">
+        <v>1.825</v>
+      </c>
+      <c r="T29">
+        <v>2</v>
+      </c>
+      <c r="U29">
         <v>1.9</v>
       </c>
-      <c r="S29">
+      <c r="V29">
         <v>1.95</v>
       </c>
-      <c r="T29">
-        <v>2.75</v>
-      </c>
-      <c r="U29">
-        <v>1.975</v>
-      </c>
-      <c r="V29">
-        <v>1.875</v>
-      </c>
       <c r="W29">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X29">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA29">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC29">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3108,7 +3108,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6011466</v>
+        <v>6011467</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3120,58 +3120,58 @@
         <v>45046.5</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J30" t="s">
         <v>45</v>
       </c>
       <c r="K30">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="L30">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M30">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="N30">
-        <v>2.375</v>
+        <v>1.65</v>
       </c>
       <c r="O30">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P30">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R30">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S30">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T30">
+        <v>2.75</v>
+      </c>
+      <c r="U30">
         <v>2</v>
       </c>
-      <c r="U30">
-        <v>1.9</v>
-      </c>
       <c r="V30">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W30">
-        <v>1.375</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X30">
         <v>-1</v>
@@ -3180,13 +3180,13 @@
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA30">
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3197,7 +3197,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6011467</v>
+        <v>6008764</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3209,73 +3209,73 @@
         <v>45046.5</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H31">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I31">
         <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K31">
-        <v>1.6</v>
+        <v>1.333</v>
       </c>
       <c r="L31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M31">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N31">
-        <v>1.65</v>
+        <v>1.444</v>
       </c>
       <c r="O31">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P31">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="Q31">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R31">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S31">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T31">
         <v>2.75</v>
       </c>
       <c r="U31">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V31">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W31">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z31">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB31">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC31">
         <v>-1</v>
@@ -3998,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6011977</v>
+        <v>6011384</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4010,76 +4010,76 @@
         <v>45053.5</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K40">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="L40">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M40">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N40">
-        <v>1.444</v>
+        <v>2.45</v>
       </c>
       <c r="O40">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="P40">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="Q40">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R40">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S40">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="T40">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U40">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V40">
+        <v>2</v>
+      </c>
+      <c r="W40">
+        <v>-1</v>
+      </c>
+      <c r="X40">
+        <v>-1</v>
+      </c>
+      <c r="Y40">
         <v>1.9</v>
       </c>
-      <c r="W40">
-        <v>-1</v>
-      </c>
-      <c r="X40">
-        <v>3.75</v>
-      </c>
-      <c r="Y40">
-        <v>-1</v>
-      </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>0.9750000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AB40">
         <v>-1</v>
       </c>
       <c r="AC40">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4087,7 +4087,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6011384</v>
+        <v>6011977</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4099,76 +4099,76 @@
         <v>45053.5</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G41" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K41">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="L41">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M41">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N41">
-        <v>2.45</v>
+        <v>1.444</v>
       </c>
       <c r="O41">
+        <v>4.75</v>
+      </c>
+      <c r="P41">
+        <v>7</v>
+      </c>
+      <c r="Q41">
+        <v>-1.25</v>
+      </c>
+      <c r="R41">
+        <v>1.875</v>
+      </c>
+      <c r="S41">
+        <v>1.975</v>
+      </c>
+      <c r="T41">
         <v>3.25</v>
       </c>
-      <c r="P41">
-        <v>2.9</v>
-      </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="R41">
-        <v>1.775</v>
-      </c>
-      <c r="S41">
-        <v>2.1</v>
-      </c>
-      <c r="T41">
-        <v>2.25</v>
-      </c>
       <c r="U41">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V41">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W41">
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y41">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
         <v>-1</v>
       </c>
       <c r="AA41">
-        <v>1.1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB41">
         <v>-1</v>
       </c>
       <c r="AC41">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -5155,7 +5155,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6008601</v>
+        <v>6008767</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5167,73 +5167,73 @@
         <v>45062.54166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K53">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="L53">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M53">
-        <v>1.666</v>
+        <v>1.55</v>
       </c>
       <c r="N53">
         <v>5</v>
       </c>
       <c r="O53">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P53">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="Q53">
         <v>0.75</v>
       </c>
       <c r="R53">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S53">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T53">
         <v>2.5</v>
       </c>
       <c r="U53">
+        <v>2</v>
+      </c>
+      <c r="V53">
         <v>1.85</v>
       </c>
-      <c r="V53">
-        <v>2</v>
-      </c>
       <c r="W53">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA53">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB53">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC53">
         <v>-1</v>
@@ -5244,7 +5244,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6011474</v>
+        <v>6008601</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5256,76 +5256,76 @@
         <v>45062.54166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G54" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K54">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="L54">
         <v>3.6</v>
       </c>
       <c r="M54">
+        <v>1.666</v>
+      </c>
+      <c r="N54">
+        <v>5</v>
+      </c>
+      <c r="O54">
         <v>4</v>
       </c>
-      <c r="N54">
-        <v>1.75</v>
-      </c>
-      <c r="O54">
-        <v>3.75</v>
-      </c>
       <c r="P54">
-        <v>4.5</v>
+        <v>1.615</v>
       </c>
       <c r="Q54">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R54">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S54">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T54">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U54">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V54">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W54">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z54">
-        <v>0.5125</v>
+        <v>-0.5</v>
       </c>
       <c r="AA54">
-        <v>-0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC54">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5333,7 +5333,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6011473</v>
+        <v>6011389</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5345,58 +5345,58 @@
         <v>45062.54166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G55" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
         <v>45</v>
       </c>
       <c r="K55">
-        <v>1.571</v>
+        <v>1.7</v>
       </c>
       <c r="L55">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M55">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="N55">
-        <v>1.7</v>
+        <v>1.615</v>
       </c>
       <c r="O55">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P55">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="Q55">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R55">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S55">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T55">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U55">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V55">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W55">
-        <v>0.7</v>
+        <v>0.615</v>
       </c>
       <c r="X55">
         <v>-1</v>
@@ -5405,16 +5405,16 @@
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
       <c r="AA55">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC55">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5689,7 +5689,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6011389</v>
+        <v>6011474</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5701,46 +5701,46 @@
         <v>45062.54166666666</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G59" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
         <v>45</v>
       </c>
       <c r="K59">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="L59">
         <v>3.6</v>
       </c>
       <c r="M59">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N59">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="O59">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P59">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q59">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R59">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S59">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T59">
         <v>3</v>
@@ -5752,7 +5752,7 @@
         <v>1.825</v>
       </c>
       <c r="W59">
-        <v>0.615</v>
+        <v>0.75</v>
       </c>
       <c r="X59">
         <v>-1</v>
@@ -5761,16 +5761,16 @@
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0</v>
+        <v>0.5125</v>
       </c>
       <c r="AA59">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB59">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5778,7 +5778,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6008767</v>
+        <v>6011473</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5790,58 +5790,58 @@
         <v>45062.54166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G60" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
         <v>45</v>
       </c>
       <c r="K60">
-        <v>5.5</v>
+        <v>1.571</v>
       </c>
       <c r="L60">
         <v>3.8</v>
       </c>
       <c r="M60">
-        <v>1.55</v>
+        <v>5.25</v>
       </c>
       <c r="N60">
-        <v>5</v>
+        <v>1.7</v>
       </c>
       <c r="O60">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P60">
-        <v>1.666</v>
+        <v>5.75</v>
       </c>
       <c r="Q60">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R60">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S60">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T60">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U60">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V60">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W60">
-        <v>4</v>
+        <v>0.7</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5850,16 +5850,16 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB60">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -6223,7 +6223,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6011393</v>
+        <v>6008768</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6235,76 +6235,76 @@
         <v>45075.5</v>
       </c>
       <c r="F65" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G65" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K65">
-        <v>1.909</v>
+        <v>1.2</v>
       </c>
       <c r="L65">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="M65">
-        <v>3.75</v>
+        <v>12</v>
       </c>
       <c r="N65">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="O65">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="P65">
-        <v>3.6</v>
+        <v>15</v>
       </c>
       <c r="Q65">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R65">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S65">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T65">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U65">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V65">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X65">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA65">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC65">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6401,7 +6401,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6008768</v>
+        <v>6011393</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6413,76 +6413,76 @@
         <v>45075.5</v>
       </c>
       <c r="F67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H67">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K67">
-        <v>1.2</v>
+        <v>1.909</v>
       </c>
       <c r="L67">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="M67">
-        <v>12</v>
+        <v>3.75</v>
       </c>
       <c r="N67">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="O67">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="P67">
-        <v>15</v>
+        <v>3.6</v>
       </c>
       <c r="Q67">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R67">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S67">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T67">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U67">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V67">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W67">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB67">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6935,7 +6935,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6011479</v>
+        <v>6011478</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6947,49 +6947,49 @@
         <v>45081.5</v>
       </c>
       <c r="F73" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H73">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J73" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K73">
-        <v>1.65</v>
+        <v>5.25</v>
       </c>
       <c r="L73">
         <v>3.8</v>
       </c>
       <c r="M73">
-        <v>5</v>
+        <v>1.615</v>
       </c>
       <c r="N73">
-        <v>1.727</v>
+        <v>5.25</v>
       </c>
       <c r="O73">
         <v>3.8</v>
       </c>
       <c r="P73">
-        <v>4.75</v>
+        <v>1.65</v>
       </c>
       <c r="Q73">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R73">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="S73">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="T73">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U73">
         <v>2.025</v>
@@ -6998,19 +6998,19 @@
         <v>1.825</v>
       </c>
       <c r="W73">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z73">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AB73">
         <v>1.025</v>
@@ -7024,7 +7024,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6011480</v>
+        <v>6011479</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,28 +7036,28 @@
         <v>45081.5</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G74" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K74">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="L74">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M74">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N74">
         <v>1.727</v>
@@ -7072,37 +7072,37 @@
         <v>-0.75</v>
       </c>
       <c r="R74">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S74">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T74">
         <v>2.5</v>
       </c>
       <c r="U74">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V74">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA74">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -7113,7 +7113,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6011478</v>
+        <v>6011480</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7125,55 +7125,55 @@
         <v>45081.5</v>
       </c>
       <c r="F75" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G75" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H75">
         <v>1</v>
       </c>
       <c r="I75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
         <v>47</v>
       </c>
       <c r="K75">
-        <v>5.25</v>
+        <v>1.75</v>
       </c>
       <c r="L75">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M75">
-        <v>1.615</v>
+        <v>4.5</v>
       </c>
       <c r="N75">
-        <v>5.25</v>
+        <v>1.727</v>
       </c>
       <c r="O75">
         <v>3.8</v>
       </c>
       <c r="P75">
-        <v>1.65</v>
+        <v>4.75</v>
       </c>
       <c r="Q75">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R75">
-        <v>2.04</v>
+        <v>1.925</v>
       </c>
       <c r="S75">
-        <v>1.86</v>
+        <v>1.925</v>
       </c>
       <c r="T75">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U75">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V75">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W75">
         <v>-1</v>
@@ -7182,16 +7182,16 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>0.6499999999999999</v>
+        <v>3.75</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.8600000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB75">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC75">
         <v>-1</v>
@@ -8626,7 +8626,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6011484</v>
+        <v>6011400</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8638,76 +8638,76 @@
         <v>45109.5</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G92" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
         <v>1</v>
       </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
       <c r="J92" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K92">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="L92">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M92">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="N92">
-        <v>3.2</v>
+        <v>1.65</v>
       </c>
       <c r="O92">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P92">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q92">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R92">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S92">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T92">
         <v>2.5</v>
       </c>
       <c r="U92">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V92">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W92">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z92">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB92">
         <v>-1</v>
       </c>
       <c r="AC92">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8804,7 +8804,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6011400</v>
+        <v>6011485</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8816,49 +8816,49 @@
         <v>45109.5</v>
       </c>
       <c r="F94" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G94" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94">
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K94">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="L94">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="M94">
-        <v>5.25</v>
+        <v>10</v>
       </c>
       <c r="N94">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="O94">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="P94">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="Q94">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R94">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S94">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T94">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U94">
         <v>1.875</v>
@@ -8867,25 +8867,25 @@
         <v>1.975</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
         <v>-1</v>
       </c>
       <c r="AA94">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC94">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6011485</v>
+        <v>6011484</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,40 +8905,40 @@
         <v>45109.5</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
         <v>45</v>
       </c>
       <c r="K95">
-        <v>1.25</v>
+        <v>3.2</v>
       </c>
       <c r="L95">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="M95">
-        <v>10</v>
+        <v>2.2</v>
       </c>
       <c r="N95">
-        <v>1.333</v>
+        <v>3.2</v>
       </c>
       <c r="O95">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P95">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="Q95">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R95">
         <v>1.925</v>
@@ -8947,16 +8947,16 @@
         <v>1.925</v>
       </c>
       <c r="T95">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U95">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V95">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W95">
-        <v>0.333</v>
+        <v>2.2</v>
       </c>
       <c r="X95">
         <v>-1</v>
@@ -8965,16 +8965,16 @@
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA95">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -11830,7 +11830,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6011991</v>
+        <v>6011496</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11842,76 +11842,76 @@
         <v>45137.5</v>
       </c>
       <c r="F128" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G128" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K128">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="L128">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M128">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N128">
+        <v>1.5</v>
+      </c>
+      <c r="O128">
+        <v>4.333</v>
+      </c>
+      <c r="P128">
+        <v>6.5</v>
+      </c>
+      <c r="Q128">
+        <v>-1.25</v>
+      </c>
+      <c r="R128">
+        <v>2.05</v>
+      </c>
+      <c r="S128">
         <v>1.8</v>
       </c>
-      <c r="O128">
-        <v>4.5</v>
-      </c>
-      <c r="P128">
-        <v>3.5</v>
-      </c>
-      <c r="Q128">
-        <v>-0.75</v>
-      </c>
-      <c r="R128">
-        <v>2.025</v>
-      </c>
-      <c r="S128">
-        <v>1.825</v>
-      </c>
       <c r="T128">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U128">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V128">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA128">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC128">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11919,7 +11919,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6011496</v>
+        <v>6011495</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11931,49 +11931,49 @@
         <v>45137.5</v>
       </c>
       <c r="F129" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G129" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
         <v>45</v>
       </c>
       <c r="K129">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="L129">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M129">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N129">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="O129">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P129">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="Q129">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R129">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S129">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T129">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U129">
         <v>1.9</v>
@@ -11982,7 +11982,7 @@
         <v>1.95</v>
       </c>
       <c r="W129">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -11991,16 +11991,16 @@
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12008,7 +12008,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6011495</v>
+        <v>6011991</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12020,40 +12020,40 @@
         <v>45137.5</v>
       </c>
       <c r="F130" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G130" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K130">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="L130">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M130">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="N130">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O130">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P130">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q130">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R130">
         <v>2.025</v>
@@ -12062,34 +12062,34 @@
         <v>1.825</v>
       </c>
       <c r="T130">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U130">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V130">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W130">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z130">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12364,7 +12364,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6011408</v>
+        <v>6011501</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12376,13 +12376,13 @@
         <v>45144.5</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G134" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H134">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I134">
         <v>1</v>
@@ -12391,43 +12391,43 @@
         <v>45</v>
       </c>
       <c r="K134">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="L134">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M134">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="N134">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="O134">
+        <v>4</v>
+      </c>
+      <c r="P134">
+        <v>1.8</v>
+      </c>
+      <c r="Q134">
+        <v>0.5</v>
+      </c>
+      <c r="R134">
+        <v>2.025</v>
+      </c>
+      <c r="S134">
+        <v>1.825</v>
+      </c>
+      <c r="T134">
         <v>3.25</v>
       </c>
-      <c r="P134">
-        <v>2.9</v>
-      </c>
-      <c r="Q134">
-        <v>0</v>
-      </c>
-      <c r="R134">
-        <v>1.8</v>
-      </c>
-      <c r="S134">
-        <v>2.05</v>
-      </c>
-      <c r="T134">
-        <v>2.25</v>
-      </c>
       <c r="U134">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V134">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W134">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="X134">
         <v>-1</v>
@@ -12436,13 +12436,13 @@
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AA134">
         <v>-1</v>
       </c>
       <c r="AB134">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC134">
         <v>-1</v>
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6011501</v>
+        <v>6011408</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,13 +12465,13 @@
         <v>45144.5</v>
       </c>
       <c r="F135" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G135" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H135">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I135">
         <v>1</v>
@@ -12480,43 +12480,43 @@
         <v>45</v>
       </c>
       <c r="K135">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="L135">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M135">
-        <v>1.615</v>
+        <v>2.7</v>
       </c>
       <c r="N135">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="O135">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P135">
+        <v>2.9</v>
+      </c>
+      <c r="Q135">
+        <v>0</v>
+      </c>
+      <c r="R135">
         <v>1.8</v>
       </c>
-      <c r="Q135">
-        <v>0.5</v>
-      </c>
-      <c r="R135">
+      <c r="S135">
+        <v>2.05</v>
+      </c>
+      <c r="T135">
+        <v>2.25</v>
+      </c>
+      <c r="U135">
+        <v>1.825</v>
+      </c>
+      <c r="V135">
         <v>2.025</v>
       </c>
-      <c r="S135">
-        <v>1.825</v>
-      </c>
-      <c r="T135">
-        <v>3.25</v>
-      </c>
-      <c r="U135">
-        <v>1.95</v>
-      </c>
-      <c r="V135">
-        <v>1.9</v>
-      </c>
       <c r="W135">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="X135">
         <v>-1</v>
@@ -12525,13 +12525,13 @@
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AA135">
         <v>-1</v>
       </c>
       <c r="AB135">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC135">
         <v>-1</v>
@@ -15034,7 +15034,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6008781</v>
+        <v>6011511</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15046,59 +15046,59 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F164" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G164" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H164">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="s">
         <v>45</v>
       </c>
       <c r="K164">
-        <v>1.333</v>
+        <v>2.5</v>
       </c>
       <c r="L164">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="M164">
-        <v>8</v>
+        <v>2.625</v>
       </c>
       <c r="N164">
+        <v>2.3</v>
+      </c>
+      <c r="O164">
+        <v>3.6</v>
+      </c>
+      <c r="P164">
+        <v>2.9</v>
+      </c>
+      <c r="Q164">
+        <v>-0.25</v>
+      </c>
+      <c r="R164">
+        <v>2.08</v>
+      </c>
+      <c r="S164">
+        <v>1.82</v>
+      </c>
+      <c r="T164">
+        <v>3</v>
+      </c>
+      <c r="U164">
+        <v>2.05</v>
+      </c>
+      <c r="V164">
+        <v>1.8</v>
+      </c>
+      <c r="W164">
         <v>1.3</v>
       </c>
-      <c r="O164">
-        <v>5.5</v>
-      </c>
-      <c r="P164">
-        <v>9.5</v>
-      </c>
-      <c r="Q164">
-        <v>-1.5</v>
-      </c>
-      <c r="R164">
-        <v>1.825</v>
-      </c>
-      <c r="S164">
-        <v>2.025</v>
-      </c>
-      <c r="T164">
-        <v>3.25</v>
-      </c>
-      <c r="U164">
-        <v>2</v>
-      </c>
-      <c r="V164">
-        <v>1.85</v>
-      </c>
-      <c r="W164">
-        <v>0.3</v>
-      </c>
       <c r="X164">
         <v>-1</v>
       </c>
@@ -15106,16 +15106,16 @@
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>0.825</v>
+        <v>1.08</v>
       </c>
       <c r="AA164">
         <v>-1</v>
       </c>
       <c r="AB164">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC164">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15123,7 +15123,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6011511</v>
+        <v>6008781</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15135,58 +15135,58 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F165" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G165" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="s">
         <v>45</v>
       </c>
       <c r="K165">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="L165">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="M165">
-        <v>2.625</v>
+        <v>8</v>
       </c>
       <c r="N165">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="O165">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="P165">
-        <v>2.9</v>
+        <v>9.5</v>
       </c>
       <c r="Q165">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R165">
-        <v>2.08</v>
+        <v>1.825</v>
       </c>
       <c r="S165">
-        <v>1.82</v>
+        <v>2.025</v>
       </c>
       <c r="T165">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U165">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V165">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W165">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="X165">
         <v>-1</v>
@@ -15195,16 +15195,16 @@
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>1.08</v>
+        <v>0.825</v>
       </c>
       <c r="AA165">
         <v>-1</v>
       </c>
       <c r="AB165">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC165">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -20641,7 +20641,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6011430</v>
+        <v>6012007</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20653,73 +20653,73 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F227" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G227" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I227">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J227" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K227">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="L227">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M227">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="N227">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="O227">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P227">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q227">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R227">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="S227">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="T227">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U227">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V227">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W227">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X227">
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z227">
-        <v>0.43</v>
+        <v>-1</v>
       </c>
       <c r="AA227">
-        <v>-0.5</v>
+        <v>0.97</v>
       </c>
       <c r="AB227">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AC227">
         <v>-1</v>
@@ -20908,7 +20908,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6012007</v>
+        <v>6011430</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20920,73 +20920,73 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F230" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G230" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H230">
+        <v>2</v>
+      </c>
+      <c r="I230">
         <v>1</v>
       </c>
-      <c r="I230">
-        <v>3</v>
-      </c>
       <c r="J230" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K230">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="L230">
+        <v>4.333</v>
+      </c>
+      <c r="M230">
+        <v>5.5</v>
+      </c>
+      <c r="N230">
+        <v>1.615</v>
+      </c>
+      <c r="O230">
         <v>4</v>
       </c>
-      <c r="M230">
-        <v>4.2</v>
-      </c>
-      <c r="N230">
-        <v>1.909</v>
-      </c>
-      <c r="O230">
-        <v>3.8</v>
-      </c>
       <c r="P230">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q230">
+        <v>-0.75</v>
+      </c>
+      <c r="R230">
+        <v>1.86</v>
+      </c>
+      <c r="S230">
+        <v>2.04</v>
+      </c>
+      <c r="T230">
+        <v>2.5</v>
+      </c>
+      <c r="U230">
+        <v>2</v>
+      </c>
+      <c r="V230">
+        <v>1.85</v>
+      </c>
+      <c r="W230">
+        <v>0.615</v>
+      </c>
+      <c r="X230">
+        <v>-1</v>
+      </c>
+      <c r="Y230">
+        <v>-1</v>
+      </c>
+      <c r="Z230">
+        <v>0.43</v>
+      </c>
+      <c r="AA230">
         <v>-0.5</v>
       </c>
-      <c r="R230">
-        <v>1.93</v>
-      </c>
-      <c r="S230">
-        <v>1.97</v>
-      </c>
-      <c r="T230">
-        <v>3</v>
-      </c>
-      <c r="U230">
-        <v>2.025</v>
-      </c>
-      <c r="V230">
-        <v>1.825</v>
-      </c>
-      <c r="W230">
-        <v>-1</v>
-      </c>
-      <c r="X230">
-        <v>-1</v>
-      </c>
-      <c r="Y230">
-        <v>2.8</v>
-      </c>
-      <c r="Z230">
-        <v>-1</v>
-      </c>
-      <c r="AA230">
-        <v>0.97</v>
-      </c>
       <c r="AB230">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC230">
         <v>-1</v>
@@ -21086,7 +21086,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6012006</v>
+        <v>6011533</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21098,58 +21098,58 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F232" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G232" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H232">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J232" t="s">
         <v>45</v>
       </c>
       <c r="K232">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="L232">
+        <v>3.75</v>
+      </c>
+      <c r="M232">
+        <v>3.4</v>
+      </c>
+      <c r="N232">
+        <v>1.85</v>
+      </c>
+      <c r="O232">
         <v>4</v>
       </c>
-      <c r="M232">
-        <v>2.9</v>
-      </c>
-      <c r="N232">
-        <v>1.95</v>
-      </c>
-      <c r="O232">
-        <v>4.2</v>
-      </c>
       <c r="P232">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q232">
         <v>-0.5</v>
       </c>
       <c r="R232">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="S232">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="T232">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U232">
+        <v>1.875</v>
+      </c>
+      <c r="V232">
         <v>1.975</v>
       </c>
-      <c r="V232">
-        <v>1.875</v>
-      </c>
       <c r="W232">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X232">
         <v>-1</v>
@@ -21158,16 +21158,16 @@
         <v>-1</v>
       </c>
       <c r="Z232">
-        <v>0.8999999999999999</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AA232">
         <v>-1</v>
       </c>
       <c r="AB232">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AC232">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21175,7 +21175,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6011533</v>
+        <v>6012006</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21187,58 +21187,58 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F233" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G233" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H233">
+        <v>4</v>
+      </c>
+      <c r="I233">
         <v>2</v>
-      </c>
-      <c r="I233">
-        <v>1</v>
       </c>
       <c r="J233" t="s">
         <v>45</v>
       </c>
       <c r="K233">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="L233">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M233">
+        <v>2.9</v>
+      </c>
+      <c r="N233">
+        <v>1.95</v>
+      </c>
+      <c r="O233">
+        <v>4.2</v>
+      </c>
+      <c r="P233">
         <v>3.4</v>
-      </c>
-      <c r="N233">
-        <v>1.85</v>
-      </c>
-      <c r="O233">
-        <v>4</v>
-      </c>
-      <c r="P233">
-        <v>3.8</v>
       </c>
       <c r="Q233">
         <v>-0.5</v>
       </c>
       <c r="R233">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="S233">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="T233">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U233">
+        <v>1.975</v>
+      </c>
+      <c r="V233">
         <v>1.875</v>
       </c>
-      <c r="V233">
-        <v>1.975</v>
-      </c>
       <c r="W233">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="X233">
         <v>-1</v>
@@ -21247,16 +21247,16 @@
         <v>-1</v>
       </c>
       <c r="Z233">
-        <v>0.9099999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA233">
         <v>-1</v>
       </c>
       <c r="AB233">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC233">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:29">

--- a/Norway Eliteserien/Norway Eliteserien.xlsx
+++ b/Norway Eliteserien/Norway Eliteserien.xlsx
@@ -133,10 +133,10 @@
     <t>BodoGlimt</t>
   </si>
   <si>
-    <t>Stromsgodset</t>
+    <t>Odd BK</t>
   </si>
   <si>
-    <t>Odd BK</t>
+    <t>Stromsgodset</t>
   </si>
   <si>
     <t>Haugesund</t>
@@ -898,7 +898,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6011461</v>
+        <v>6011378</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1521,10 +1521,10 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1533,34 +1533,34 @@
         <v>45</v>
       </c>
       <c r="K12">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="L12">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M12">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="N12">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="O12">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P12">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="Q12">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R12">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S12">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T12">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U12">
         <v>1.825</v>
@@ -1569,7 +1569,7 @@
         <v>2.025</v>
       </c>
       <c r="W12">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1578,7 +1578,7 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA12">
         <v>-1</v>
@@ -1595,7 +1595,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6011378</v>
+        <v>6011461</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1610,10 +1610,10 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1622,34 +1622,34 @@
         <v>45</v>
       </c>
       <c r="K13">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="L13">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M13">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="N13">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="O13">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P13">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q13">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R13">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S13">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T13">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U13">
         <v>1.825</v>
@@ -1658,7 +1658,7 @@
         <v>2.025</v>
       </c>
       <c r="W13">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1667,7 +1667,7 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA13">
         <v>-1</v>
@@ -1966,7 +1966,7 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H17">
         <v>4</v>
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6011381</v>
+        <v>6011380</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2141,76 +2141,76 @@
         <v>45039.5</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
         <v>47</v>
       </c>
       <c r="K19">
-        <v>2.4</v>
+        <v>1.833</v>
       </c>
       <c r="L19">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M19">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N19">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="O19">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P19">
+        <v>3.8</v>
+      </c>
+      <c r="Q19">
+        <v>-0.75</v>
+      </c>
+      <c r="R19">
+        <v>2.025</v>
+      </c>
+      <c r="S19">
+        <v>1.825</v>
+      </c>
+      <c r="T19">
         <v>3</v>
       </c>
-      <c r="Q19">
-        <v>-0.25</v>
-      </c>
-      <c r="R19">
-        <v>2.09</v>
-      </c>
-      <c r="S19">
-        <v>1.81</v>
-      </c>
-      <c r="T19">
-        <v>2.25</v>
-      </c>
       <c r="U19">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V19">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.405</v>
+        <v>0.825</v>
       </c>
       <c r="AB19">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>0.5125</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2218,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6011380</v>
+        <v>6011381</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2230,76 +2230,76 @@
         <v>45039.5</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
         <v>47</v>
       </c>
       <c r="K20">
-        <v>1.833</v>
+        <v>2.4</v>
       </c>
       <c r="L20">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M20">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N20">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="O20">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P20">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q20">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R20">
+        <v>2.09</v>
+      </c>
+      <c r="S20">
+        <v>1.81</v>
+      </c>
+      <c r="T20">
+        <v>2.25</v>
+      </c>
+      <c r="U20">
+        <v>1.825</v>
+      </c>
+      <c r="V20">
         <v>2.025</v>
       </c>
-      <c r="S20">
-        <v>1.825</v>
-      </c>
-      <c r="T20">
-        <v>3</v>
-      </c>
-      <c r="U20">
-        <v>1.975</v>
-      </c>
-      <c r="V20">
-        <v>1.875</v>
-      </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA20">
-        <v>0.825</v>
+        <v>0.405</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC20">
-        <v>0.875</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2307,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6011462</v>
+        <v>6011463</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2319,76 +2319,76 @@
         <v>45039.5</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K21">
-        <v>2.05</v>
+        <v>1.363</v>
       </c>
       <c r="L21">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M21">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="N21">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="O21">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P21">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="Q21">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R21">
+        <v>1.91</v>
+      </c>
+      <c r="S21">
+        <v>1.99</v>
+      </c>
+      <c r="T21">
+        <v>2.75</v>
+      </c>
+      <c r="U21">
+        <v>1.95</v>
+      </c>
+      <c r="V21">
         <v>1.9</v>
       </c>
-      <c r="S21">
-        <v>1.95</v>
-      </c>
-      <c r="T21">
-        <v>2.5</v>
-      </c>
-      <c r="U21">
-        <v>1.925</v>
-      </c>
-      <c r="V21">
-        <v>1.925</v>
-      </c>
       <c r="W21">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
+        <v>-1</v>
+      </c>
+      <c r="AA21">
+        <v>0.99</v>
+      </c>
+      <c r="AB21">
+        <v>-1</v>
+      </c>
+      <c r="AC21">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA21">
-        <v>-1</v>
-      </c>
-      <c r="AB21">
-        <v>-1</v>
-      </c>
-      <c r="AC21">
-        <v>0.925</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6011463</v>
+        <v>6011462</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,76 +2408,76 @@
         <v>45039.5</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K22">
-        <v>1.363</v>
+        <v>2.05</v>
       </c>
       <c r="L22">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M22">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="N22">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O22">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P22">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="Q22">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R22">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="S22">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="T22">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U22">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V22">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X22">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA22">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2942,7 +2942,7 @@
         <v>45046.5</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G28" t="s">
         <v>31</v>
@@ -3298,7 +3298,7 @@
         <v>45046.59375</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s">
         <v>29</v>
@@ -3568,7 +3568,7 @@
         <v>38</v>
       </c>
       <c r="G35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -3909,7 +3909,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6011468</v>
+        <v>6011384</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3921,76 +3921,76 @@
         <v>45053.5</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K39">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L39">
         <v>3.3</v>
       </c>
       <c r="M39">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="N39">
+        <v>2.45</v>
+      </c>
+      <c r="O39">
+        <v>3.25</v>
+      </c>
+      <c r="P39">
+        <v>2.9</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>1.775</v>
+      </c>
+      <c r="S39">
         <v>2.1</v>
-      </c>
-      <c r="O39">
-        <v>3.3</v>
-      </c>
-      <c r="P39">
-        <v>3.8</v>
-      </c>
-      <c r="Q39">
-        <v>-0.5</v>
-      </c>
-      <c r="R39">
-        <v>2.05</v>
-      </c>
-      <c r="S39">
-        <v>1.8</v>
       </c>
       <c r="T39">
         <v>2.25</v>
       </c>
       <c r="U39">
+        <v>1.85</v>
+      </c>
+      <c r="V39">
         <v>2</v>
       </c>
-      <c r="V39">
-        <v>1.85</v>
-      </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z39">
         <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AB39">
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3998,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6011927</v>
+        <v>6011468</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4010,76 +4010,76 @@
         <v>45053.5</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G40" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
         <v>47</v>
       </c>
       <c r="K40">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="L40">
         <v>3.3</v>
       </c>
       <c r="M40">
-        <v>2.45</v>
+        <v>2.875</v>
       </c>
       <c r="N40">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="O40">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P40">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R40">
+        <v>2.05</v>
+      </c>
+      <c r="S40">
         <v>1.8</v>
       </c>
-      <c r="S40">
-        <v>2.05</v>
-      </c>
       <c r="T40">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U40">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V40">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB40">
         <v>-1</v>
       </c>
       <c r="AC40">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4087,7 +4087,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6011384</v>
+        <v>6011927</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4099,76 +4099,76 @@
         <v>45053.5</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G41" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K41">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="L41">
         <v>3.3</v>
       </c>
       <c r="M41">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="N41">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="O41">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P41">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="Q41">
         <v>0</v>
       </c>
       <c r="R41">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S41">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T41">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U41">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V41">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W41">
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y41">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>1.1</v>
+        <v>-0</v>
       </c>
       <c r="AB41">
         <v>-1</v>
       </c>
       <c r="AC41">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4191,7 +4191,7 @@
         <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4455,7 +4455,7 @@
         <v>45058.58333333334</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G45" t="s">
         <v>44</v>
@@ -4621,7 +4621,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6011470</v>
+        <v>6011928</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4633,19 +4633,19 @@
         <v>45059.5</v>
       </c>
       <c r="F47" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47">
         <v>1</v>
       </c>
-      <c r="I47">
-        <v>2</v>
-      </c>
       <c r="J47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K47">
         <v>4.1</v>
@@ -4660,49 +4660,49 @@
         <v>3.8</v>
       </c>
       <c r="O47">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P47">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="Q47">
         <v>0.5</v>
       </c>
       <c r="R47">
+        <v>1.975</v>
+      </c>
+      <c r="S47">
         <v>1.875</v>
       </c>
-      <c r="S47">
-        <v>1.975</v>
-      </c>
       <c r="T47">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U47">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V47">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA47">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC47">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6011928</v>
+        <v>6011470</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,19 +4722,19 @@
         <v>45059.5</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
         <v>2</v>
       </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
       <c r="J48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K48">
         <v>4.1</v>
@@ -4749,49 +4749,49 @@
         <v>3.8</v>
       </c>
       <c r="O48">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P48">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="Q48">
         <v>0.5</v>
       </c>
       <c r="R48">
+        <v>1.875</v>
+      </c>
+      <c r="S48">
         <v>1.975</v>
       </c>
-      <c r="S48">
+      <c r="T48">
+        <v>2.75</v>
+      </c>
+      <c r="U48">
+        <v>1.975</v>
+      </c>
+      <c r="V48">
         <v>1.875</v>
       </c>
-      <c r="T48">
-        <v>3</v>
-      </c>
-      <c r="U48">
-        <v>1.95</v>
-      </c>
-      <c r="V48">
-        <v>1.9</v>
-      </c>
       <c r="W48">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z48">
+        <v>-1</v>
+      </c>
+      <c r="AA48">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA48">
-        <v>-1</v>
-      </c>
       <c r="AB48">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AC48">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4814,7 +4814,7 @@
         <v>37</v>
       </c>
       <c r="G49" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H49">
         <v>3</v>
@@ -5155,7 +5155,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6011389</v>
+        <v>6008767</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5167,58 +5167,58 @@
         <v>45062.54166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G53" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H53">
         <v>3</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J53" t="s">
         <v>45</v>
       </c>
       <c r="K53">
-        <v>1.7</v>
+        <v>5.5</v>
       </c>
       <c r="L53">
+        <v>3.8</v>
+      </c>
+      <c r="M53">
+        <v>1.55</v>
+      </c>
+      <c r="N53">
+        <v>5</v>
+      </c>
+      <c r="O53">
         <v>3.6</v>
       </c>
-      <c r="M53">
-        <v>4.2</v>
-      </c>
-      <c r="N53">
-        <v>1.615</v>
-      </c>
-      <c r="O53">
-        <v>4.2</v>
-      </c>
       <c r="P53">
-        <v>5</v>
+        <v>1.666</v>
       </c>
       <c r="Q53">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R53">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S53">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T53">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U53">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V53">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W53">
-        <v>0.615</v>
+        <v>4</v>
       </c>
       <c r="X53">
         <v>-1</v>
@@ -5227,13 +5227,13 @@
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA53">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB53">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC53">
         <v>-1</v>
@@ -5333,7 +5333,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6008767</v>
+        <v>6011389</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5345,58 +5345,58 @@
         <v>45062.54166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G55" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H55">
         <v>3</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
         <v>45</v>
       </c>
       <c r="K55">
-        <v>5.5</v>
+        <v>1.7</v>
       </c>
       <c r="L55">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M55">
-        <v>1.55</v>
+        <v>4.2</v>
       </c>
       <c r="N55">
+        <v>1.615</v>
+      </c>
+      <c r="O55">
+        <v>4.2</v>
+      </c>
+      <c r="P55">
         <v>5</v>
       </c>
-      <c r="O55">
-        <v>3.6</v>
-      </c>
-      <c r="P55">
-        <v>1.666</v>
-      </c>
       <c r="Q55">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R55">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S55">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T55">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U55">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V55">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W55">
-        <v>4</v>
+        <v>0.615</v>
       </c>
       <c r="X55">
         <v>-1</v>
@@ -5405,13 +5405,13 @@
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB55">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AC55">
         <v>-1</v>
@@ -5600,7 +5600,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6011978</v>
+        <v>6011473</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5612,40 +5612,40 @@
         <v>45062.54166666666</v>
       </c>
       <c r="F58" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G58" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H58">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
         <v>45</v>
       </c>
       <c r="K58">
-        <v>1.285</v>
+        <v>1.571</v>
       </c>
       <c r="L58">
+        <v>3.8</v>
+      </c>
+      <c r="M58">
         <v>5.25</v>
       </c>
-      <c r="M58">
-        <v>9.5</v>
-      </c>
       <c r="N58">
-        <v>1.333</v>
+        <v>1.7</v>
       </c>
       <c r="O58">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P58">
-        <v>11</v>
+        <v>5.75</v>
       </c>
       <c r="Q58">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R58">
         <v>1.925</v>
@@ -5654,16 +5654,16 @@
         <v>1.925</v>
       </c>
       <c r="T58">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U58">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V58">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W58">
-        <v>0.333</v>
+        <v>0.7</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5672,16 +5672,16 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB58">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5689,7 +5689,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6011473</v>
+        <v>6011978</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5701,40 +5701,40 @@
         <v>45062.54166666666</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G59" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H59">
+        <v>4</v>
+      </c>
+      <c r="I59">
         <v>1</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
       </c>
       <c r="J59" t="s">
         <v>45</v>
       </c>
       <c r="K59">
-        <v>1.571</v>
+        <v>1.285</v>
       </c>
       <c r="L59">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="M59">
-        <v>5.25</v>
+        <v>9.5</v>
       </c>
       <c r="N59">
-        <v>1.7</v>
+        <v>1.333</v>
       </c>
       <c r="O59">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P59">
-        <v>5.75</v>
+        <v>11</v>
       </c>
       <c r="Q59">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R59">
         <v>1.925</v>
@@ -5743,16 +5743,16 @@
         <v>1.925</v>
       </c>
       <c r="T59">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U59">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V59">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W59">
-        <v>0.7</v>
+        <v>0.333</v>
       </c>
       <c r="X59">
         <v>-1</v>
@@ -5761,16 +5761,16 @@
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
       <c r="AA59">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC59">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5790,7 +5790,7 @@
         <v>45062.54166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G60" t="s">
         <v>42</v>
@@ -5867,7 +5867,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6011979</v>
+        <v>6011476</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5879,10 +5879,10 @@
         <v>45075.5</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H61">
         <v>3</v>
@@ -5894,28 +5894,28 @@
         <v>45</v>
       </c>
       <c r="K61">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="L61">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="M61">
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="N61">
-        <v>1.55</v>
+        <v>1.571</v>
       </c>
       <c r="O61">
         <v>4.2</v>
       </c>
       <c r="P61">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q61">
         <v>-1</v>
       </c>
       <c r="R61">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S61">
         <v>1.95</v>
@@ -5924,13 +5924,13 @@
         <v>2.75</v>
       </c>
       <c r="U61">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V61">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W61">
-        <v>0.55</v>
+        <v>0.571</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5939,13 +5939,13 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA61">
         <v>-1</v>
       </c>
       <c r="AB61">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC61">
         <v>-1</v>
@@ -5956,7 +5956,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6011476</v>
+        <v>6011979</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5968,10 +5968,10 @@
         <v>45075.5</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H62">
         <v>3</v>
@@ -5983,28 +5983,28 @@
         <v>45</v>
       </c>
       <c r="K62">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="L62">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M62">
-        <v>5.25</v>
+        <v>7</v>
       </c>
       <c r="N62">
-        <v>1.571</v>
+        <v>1.55</v>
       </c>
       <c r="O62">
         <v>4.2</v>
       </c>
       <c r="P62">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q62">
         <v>-1</v>
       </c>
       <c r="R62">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S62">
         <v>1.95</v>
@@ -6013,13 +6013,13 @@
         <v>2.75</v>
       </c>
       <c r="U62">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V62">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W62">
-        <v>0.571</v>
+        <v>0.55</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6028,13 +6028,13 @@
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA62">
         <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC62">
         <v>-1</v>
@@ -6057,10 +6057,10 @@
         <v>45075.5</v>
       </c>
       <c r="F63" t="s">
+        <v>39</v>
+      </c>
+      <c r="G63" t="s">
         <v>40</v>
-      </c>
-      <c r="G63" t="s">
-        <v>39</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6668,7 +6668,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6011394</v>
+        <v>6011479</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6680,46 +6680,46 @@
         <v>45081.5</v>
       </c>
       <c r="F70" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G70" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H70">
         <v>4</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
         <v>45</v>
       </c>
       <c r="K70">
-        <v>2.8</v>
+        <v>1.65</v>
       </c>
       <c r="L70">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M70">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="N70">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="O70">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P70">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q70">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R70">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="S70">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T70">
         <v>2.5</v>
@@ -6731,7 +6731,7 @@
         <v>1.825</v>
       </c>
       <c r="W70">
-        <v>1.75</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6740,7 +6740,7 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.99</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA70">
         <v>-1</v>
@@ -6757,7 +6757,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6011395</v>
+        <v>6011394</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6769,13 +6769,13 @@
         <v>45081.5</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G71" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I71">
         <v>1</v>
@@ -6784,43 +6784,43 @@
         <v>45</v>
       </c>
       <c r="K71">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="L71">
         <v>3.4</v>
       </c>
       <c r="M71">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="N71">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="O71">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P71">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Q71">
         <v>0</v>
       </c>
       <c r="R71">
-        <v>2.1</v>
+        <v>1.99</v>
       </c>
       <c r="S71">
-        <v>1.775</v>
+        <v>1.91</v>
       </c>
       <c r="T71">
         <v>2.5</v>
       </c>
       <c r="U71">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V71">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W71">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="X71">
         <v>-1</v>
@@ -6829,13 +6829,13 @@
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>1.1</v>
+        <v>0.99</v>
       </c>
       <c r="AA71">
         <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -6846,7 +6846,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6011479</v>
+        <v>6011395</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6858,58 +6858,58 @@
         <v>45081.5</v>
       </c>
       <c r="F72" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G72" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H72">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="s">
         <v>45</v>
       </c>
       <c r="K72">
-        <v>1.65</v>
+        <v>2.75</v>
       </c>
       <c r="L72">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M72">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="N72">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="O72">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P72">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q72">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R72">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="S72">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T72">
         <v>2.5</v>
       </c>
       <c r="U72">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V72">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W72">
-        <v>0.7270000000000001</v>
+        <v>1.875</v>
       </c>
       <c r="X72">
         <v>-1</v>
@@ -6918,13 +6918,13 @@
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.8999999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="AA72">
         <v>-1</v>
       </c>
       <c r="AB72">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -7024,7 +7024,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6011480</v>
+        <v>6011981</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,73 +7036,73 @@
         <v>45081.5</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G74" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H74">
+        <v>3</v>
+      </c>
+      <c r="I74">
         <v>1</v>
       </c>
-      <c r="I74">
-        <v>2</v>
-      </c>
       <c r="J74" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K74">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="L74">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M74">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="N74">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="O74">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P74">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q74">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R74">
+        <v>1.95</v>
+      </c>
+      <c r="S74">
+        <v>1.9</v>
+      </c>
+      <c r="T74">
+        <v>2.75</v>
+      </c>
+      <c r="U74">
         <v>1.925</v>
       </c>
-      <c r="S74">
+      <c r="V74">
         <v>1.925</v>
       </c>
-      <c r="T74">
-        <v>2.5</v>
-      </c>
-      <c r="U74">
-        <v>1.85</v>
-      </c>
-      <c r="V74">
-        <v>2</v>
-      </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA74">
+        <v>-1</v>
+      </c>
+      <c r="AB74">
         <v>0.925</v>
-      </c>
-      <c r="AB74">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -7113,7 +7113,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6011981</v>
+        <v>6011480</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7125,73 +7125,73 @@
         <v>45081.5</v>
       </c>
       <c r="F75" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G75" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K75">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="L75">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M75">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="N75">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="O75">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P75">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q75">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R75">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S75">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T75">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U75">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V75">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W75">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z75">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB75">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC75">
         <v>-1</v>
@@ -7573,7 +7573,7 @@
         <v>43</v>
       </c>
       <c r="G80" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7748,7 +7748,7 @@
         <v>45088.5</v>
       </c>
       <c r="F82" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G82" t="s">
         <v>37</v>
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6011397</v>
+        <v>6008771</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,76 +8104,76 @@
         <v>45102.5</v>
       </c>
       <c r="F86" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G86" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86">
         <v>0</v>
       </c>
-      <c r="I86">
-        <v>1</v>
-      </c>
       <c r="J86" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K86">
-        <v>2.375</v>
+        <v>1.2</v>
       </c>
       <c r="L86">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="M86">
-        <v>2.9</v>
+        <v>11</v>
       </c>
       <c r="N86">
-        <v>2.4</v>
+        <v>1.25</v>
       </c>
       <c r="O86">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="P86">
-        <v>2.875</v>
+        <v>10</v>
       </c>
       <c r="Q86">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R86">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="S86">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="T86">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U86">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V86">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB86">
         <v>-1</v>
       </c>
       <c r="AC86">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6008771</v>
+        <v>6011398</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,58 +8193,58 @@
         <v>45102.5</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G87" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H87">
+        <v>2</v>
+      </c>
+      <c r="I87">
         <v>1</v>
-      </c>
-      <c r="I87">
-        <v>0</v>
       </c>
       <c r="J87" t="s">
         <v>45</v>
       </c>
       <c r="K87">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="L87">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="M87">
-        <v>11</v>
+        <v>3.6</v>
       </c>
       <c r="N87">
-        <v>1.25</v>
+        <v>2.4</v>
       </c>
       <c r="O87">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="P87">
-        <v>10</v>
+        <v>3.2</v>
       </c>
       <c r="Q87">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R87">
+        <v>2.025</v>
+      </c>
+      <c r="S87">
         <v>1.825</v>
       </c>
-      <c r="S87">
-        <v>2.025</v>
-      </c>
       <c r="T87">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U87">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V87">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W87">
-        <v>0.25</v>
+        <v>1.4</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8253,16 +8253,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA87">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC87">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6011398</v>
+        <v>6011397</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,76 +8282,76 @@
         <v>45102.5</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88">
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K88">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L88">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M88">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="N88">
         <v>2.4</v>
       </c>
       <c r="O88">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P88">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q88">
         <v>-0.25</v>
       </c>
       <c r="R88">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S88">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T88">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U88">
         <v>2.05</v>
       </c>
       <c r="V88">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W88">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z88">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB88">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8460,7 +8460,7 @@
         <v>45102.59375</v>
       </c>
       <c r="F90" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G90" t="s">
         <v>38</v>
@@ -8641,7 +8641,7 @@
         <v>41</v>
       </c>
       <c r="G92" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6011400</v>
+        <v>6011484</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,76 +8727,76 @@
         <v>45109.5</v>
       </c>
       <c r="F93" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G93" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
         <v>0</v>
       </c>
-      <c r="I93">
-        <v>1</v>
-      </c>
       <c r="J93" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K93">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="L93">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M93">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="N93">
-        <v>1.65</v>
+        <v>3.2</v>
       </c>
       <c r="O93">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P93">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q93">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R93">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S93">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T93">
         <v>2.5</v>
       </c>
       <c r="U93">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V93">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA93">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
         <v>-1</v>
       </c>
       <c r="AC93">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8804,7 +8804,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6011484</v>
+        <v>6011485</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8816,40 +8816,40 @@
         <v>45109.5</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G94" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H94">
+        <v>2</v>
+      </c>
+      <c r="I94">
         <v>1</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
       </c>
       <c r="J94" t="s">
         <v>45</v>
       </c>
       <c r="K94">
-        <v>3.2</v>
+        <v>1.25</v>
       </c>
       <c r="L94">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="M94">
-        <v>2.2</v>
+        <v>10</v>
       </c>
       <c r="N94">
-        <v>3.2</v>
+        <v>1.333</v>
       </c>
       <c r="O94">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="P94">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="Q94">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R94">
         <v>1.925</v>
@@ -8858,16 +8858,16 @@
         <v>1.925</v>
       </c>
       <c r="T94">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U94">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V94">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W94">
-        <v>2.2</v>
+        <v>0.333</v>
       </c>
       <c r="X94">
         <v>-1</v>
@@ -8876,16 +8876,16 @@
         <v>-1</v>
       </c>
       <c r="Z94">
+        <v>-1</v>
+      </c>
+      <c r="AA94">
         <v>0.925</v>
       </c>
-      <c r="AA94">
-        <v>-1</v>
-      </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC94">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6011485</v>
+        <v>6011486</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,13 +8905,13 @@
         <v>45109.5</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I95">
         <v>1</v>
@@ -8920,40 +8920,40 @@
         <v>45</v>
       </c>
       <c r="K95">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="L95">
+        <v>4.5</v>
+      </c>
+      <c r="M95">
         <v>6</v>
-      </c>
-      <c r="M95">
-        <v>10</v>
       </c>
       <c r="N95">
         <v>1.333</v>
       </c>
       <c r="O95">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="P95">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q95">
         <v>-1.5</v>
       </c>
       <c r="R95">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S95">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T95">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U95">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V95">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W95">
         <v>0.333</v>
@@ -8965,16 +8965,16 @@
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA95">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC95">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6011486</v>
+        <v>6011400</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,76 +8994,76 @@
         <v>45109.5</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G96" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H96">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I96">
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K96">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="L96">
+        <v>3.8</v>
+      </c>
+      <c r="M96">
+        <v>5.25</v>
+      </c>
+      <c r="N96">
+        <v>1.65</v>
+      </c>
+      <c r="O96">
+        <v>3.8</v>
+      </c>
+      <c r="P96">
+        <v>5.5</v>
+      </c>
+      <c r="Q96">
+        <v>-0.75</v>
+      </c>
+      <c r="R96">
+        <v>1.825</v>
+      </c>
+      <c r="S96">
+        <v>2.025</v>
+      </c>
+      <c r="T96">
+        <v>2.5</v>
+      </c>
+      <c r="U96">
+        <v>1.875</v>
+      </c>
+      <c r="V96">
+        <v>1.975</v>
+      </c>
+      <c r="W96">
+        <v>-1</v>
+      </c>
+      <c r="X96">
+        <v>-1</v>
+      </c>
+      <c r="Y96">
         <v>4.5</v>
       </c>
-      <c r="M96">
-        <v>6</v>
-      </c>
-      <c r="N96">
-        <v>1.333</v>
-      </c>
-      <c r="O96">
-        <v>5.25</v>
-      </c>
-      <c r="P96">
-        <v>8</v>
-      </c>
-      <c r="Q96">
-        <v>-1.5</v>
-      </c>
-      <c r="R96">
-        <v>1.875</v>
-      </c>
-      <c r="S96">
-        <v>1.975</v>
-      </c>
-      <c r="T96">
-        <v>3.5</v>
-      </c>
-      <c r="U96">
-        <v>1.825</v>
-      </c>
-      <c r="V96">
-        <v>2.025</v>
-      </c>
-      <c r="W96">
-        <v>0.333</v>
-      </c>
-      <c r="X96">
-        <v>-1</v>
-      </c>
-      <c r="Y96">
-        <v>-1</v>
-      </c>
       <c r="Z96">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB96">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9175,7 +9175,7 @@
         <v>32</v>
       </c>
       <c r="G98" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>45116.5</v>
       </c>
       <c r="F102" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G102" t="s">
         <v>30</v>
@@ -9795,7 +9795,7 @@
         <v>45116.5</v>
       </c>
       <c r="F105" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G105" t="s">
         <v>38</v>
@@ -10139,7 +10139,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6011491</v>
+        <v>6011490</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10151,28 +10151,28 @@
         <v>45123.5</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G109" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H109">
+        <v>4</v>
+      </c>
+      <c r="I109">
         <v>2</v>
       </c>
-      <c r="I109">
-        <v>3</v>
-      </c>
       <c r="J109" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K109">
-        <v>1.444</v>
+        <v>1.333</v>
       </c>
       <c r="L109">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M109">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="N109">
         <v>1.363</v>
@@ -10181,7 +10181,7 @@
         <v>5.25</v>
       </c>
       <c r="P109">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Q109">
         <v>-1.5</v>
@@ -10193,31 +10193,31 @@
         <v>1.925</v>
       </c>
       <c r="T109">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U109">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V109">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W109">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA109">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC109">
         <v>-1</v>
@@ -10228,7 +10228,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6008608</v>
+        <v>6011402</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10240,76 +10240,76 @@
         <v>45123.5</v>
       </c>
       <c r="F110" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G110" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J110" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K110">
-        <v>1.181</v>
+        <v>2.3</v>
       </c>
       <c r="L110">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="M110">
-        <v>11</v>
+        <v>3.1</v>
       </c>
       <c r="N110">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="O110">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="P110">
-        <v>11</v>
+        <v>3.3</v>
       </c>
       <c r="Q110">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R110">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S110">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T110">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="U110">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V110">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W110">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z110">
         <v>-1</v>
       </c>
       <c r="AA110">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AB110">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC110">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10317,7 +10317,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6011402</v>
+        <v>6008608</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10329,76 +10329,76 @@
         <v>45123.5</v>
       </c>
       <c r="F111" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G111" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K111">
-        <v>2.3</v>
+        <v>1.181</v>
       </c>
       <c r="L111">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="M111">
-        <v>3.1</v>
+        <v>11</v>
       </c>
       <c r="N111">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="O111">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="P111">
-        <v>3.3</v>
+        <v>11</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R111">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S111">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T111">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="U111">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V111">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
         <v>-1</v>
       </c>
       <c r="AA111">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AB111">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC111">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10495,7 +10495,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6011490</v>
+        <v>6011491</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10507,28 +10507,28 @@
         <v>45123.5</v>
       </c>
       <c r="F113" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G113" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H113">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J113" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K113">
-        <v>1.333</v>
+        <v>1.444</v>
       </c>
       <c r="L113">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="M113">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="N113">
         <v>1.363</v>
@@ -10537,7 +10537,7 @@
         <v>5.25</v>
       </c>
       <c r="P113">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Q113">
         <v>-1.5</v>
@@ -10549,31 +10549,31 @@
         <v>1.925</v>
       </c>
       <c r="T113">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U113">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V113">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W113">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z113">
+        <v>-1</v>
+      </c>
+      <c r="AA113">
         <v>0.925</v>
       </c>
-      <c r="AA113">
-        <v>-1</v>
-      </c>
       <c r="AB113">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -10599,7 +10599,7 @@
         <v>35</v>
       </c>
       <c r="G114" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -11130,7 +11130,7 @@
         <v>45130.5</v>
       </c>
       <c r="F120" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G120" t="s">
         <v>43</v>
@@ -11308,7 +11308,7 @@
         <v>45130.59375</v>
       </c>
       <c r="F122" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G122" t="s">
         <v>29</v>
@@ -11652,7 +11652,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6011497</v>
+        <v>6011496</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11664,13 +11664,13 @@
         <v>45137.5</v>
       </c>
       <c r="F126" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G126" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I126">
         <v>1</v>
@@ -11679,43 +11679,43 @@
         <v>45</v>
       </c>
       <c r="K126">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="L126">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M126">
+        <v>5</v>
+      </c>
+      <c r="N126">
+        <v>1.5</v>
+      </c>
+      <c r="O126">
+        <v>4.333</v>
+      </c>
+      <c r="P126">
         <v>6.5</v>
       </c>
-      <c r="N126">
-        <v>1.4</v>
-      </c>
-      <c r="O126">
-        <v>5.25</v>
-      </c>
-      <c r="P126">
-        <v>7</v>
-      </c>
       <c r="Q126">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R126">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S126">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T126">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U126">
+        <v>1.9</v>
+      </c>
+      <c r="V126">
         <v>1.95</v>
       </c>
-      <c r="V126">
-        <v>1.9</v>
-      </c>
       <c r="W126">
-        <v>0.3999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11724,16 +11724,16 @@
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA126">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC126">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11741,7 +11741,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6011496</v>
+        <v>6011406</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11753,58 +11753,58 @@
         <v>45137.5</v>
       </c>
       <c r="F127" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G127" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H127">
         <v>3</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J127" t="s">
         <v>45</v>
       </c>
       <c r="K127">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="L127">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M127">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N127">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="O127">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P127">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q127">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R127">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S127">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T127">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U127">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V127">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W127">
-        <v>0.5</v>
+        <v>0.615</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11813,13 +11813,13 @@
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>1.05</v>
+        <v>0.4125</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB127">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC127">
         <v>-1</v>
@@ -11830,7 +11830,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6011495</v>
+        <v>6011497</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11842,58 +11842,58 @@
         <v>45137.5</v>
       </c>
       <c r="F128" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G128" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H128">
+        <v>2</v>
+      </c>
+      <c r="I128">
         <v>1</v>
-      </c>
-      <c r="I128">
-        <v>0</v>
       </c>
       <c r="J128" t="s">
         <v>45</v>
       </c>
       <c r="K128">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="L128">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M128">
-        <v>2.75</v>
+        <v>6.5</v>
       </c>
       <c r="N128">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="O128">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P128">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q128">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R128">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S128">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T128">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U128">
+        <v>1.95</v>
+      </c>
+      <c r="V128">
         <v>1.9</v>
       </c>
-      <c r="V128">
-        <v>1.95</v>
-      </c>
       <c r="W128">
-        <v>1.2</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X128">
         <v>-1</v>
@@ -11902,16 +11902,16 @@
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA128">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB128">
         <v>-1</v>
       </c>
       <c r="AC128">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11919,7 +11919,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6011991</v>
+        <v>6011495</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11931,40 +11931,40 @@
         <v>45137.5</v>
       </c>
       <c r="F129" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G129" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H129">
+        <v>1</v>
+      </c>
+      <c r="I129">
         <v>0</v>
       </c>
-      <c r="I129">
-        <v>2</v>
-      </c>
       <c r="J129" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K129">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="L129">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M129">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="N129">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="O129">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P129">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q129">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R129">
         <v>2.025</v>
@@ -11973,34 +11973,34 @@
         <v>1.825</v>
       </c>
       <c r="T129">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U129">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V129">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA129">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
         <v>-1</v>
       </c>
       <c r="AC129">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12008,7 +12008,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6011406</v>
+        <v>6011991</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12020,49 +12020,49 @@
         <v>45137.5</v>
       </c>
       <c r="F130" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G130" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H130">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130">
         <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K130">
+        <v>1.833</v>
+      </c>
+      <c r="L130">
+        <v>3.5</v>
+      </c>
+      <c r="M130">
+        <v>3.75</v>
+      </c>
+      <c r="N130">
         <v>1.8</v>
       </c>
-      <c r="L130">
-        <v>3.4</v>
-      </c>
-      <c r="M130">
-        <v>4</v>
-      </c>
-      <c r="N130">
-        <v>1.615</v>
-      </c>
       <c r="O130">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P130">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q130">
         <v>-0.75</v>
       </c>
       <c r="R130">
+        <v>2.025</v>
+      </c>
+      <c r="S130">
         <v>1.825</v>
       </c>
-      <c r="S130">
-        <v>2.025</v>
-      </c>
       <c r="T130">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U130">
         <v>1.975</v>
@@ -12071,25 +12071,25 @@
         <v>1.875</v>
       </c>
       <c r="W130">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z130">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB130">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12198,7 +12198,7 @@
         <v>45143.54166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G132" t="s">
         <v>43</v>
@@ -12287,7 +12287,7 @@
         <v>45144.5</v>
       </c>
       <c r="F133" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G133" t="s">
         <v>32</v>
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6011499</v>
+        <v>6011500</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,13 +12465,13 @@
         <v>45144.5</v>
       </c>
       <c r="F135" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G135" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135">
         <v>2</v>
@@ -12480,34 +12480,34 @@
         <v>46</v>
       </c>
       <c r="K135">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="L135">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M135">
+        <v>2.3</v>
+      </c>
+      <c r="N135">
+        <v>2.5</v>
+      </c>
+      <c r="O135">
+        <v>3.4</v>
+      </c>
+      <c r="P135">
+        <v>2.75</v>
+      </c>
+      <c r="Q135">
+        <v>0</v>
+      </c>
+      <c r="R135">
         <v>1.8</v>
       </c>
-      <c r="N135">
-        <v>3.75</v>
-      </c>
-      <c r="O135">
-        <v>3.8</v>
-      </c>
-      <c r="P135">
-        <v>1.85</v>
-      </c>
-      <c r="Q135">
-        <v>0.5</v>
-      </c>
-      <c r="R135">
-        <v>1.95</v>
-      </c>
       <c r="S135">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T135">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U135">
         <v>1.875</v>
@@ -12522,19 +12522,19 @@
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>0.8500000000000001</v>
+        <v>1.75</v>
       </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC135">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6011500</v>
+        <v>6011501</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12554,73 +12554,73 @@
         <v>45144.5</v>
       </c>
       <c r="F136" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G136" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H136">
+        <v>5</v>
+      </c>
+      <c r="I136">
         <v>1</v>
       </c>
-      <c r="I136">
-        <v>2</v>
-      </c>
       <c r="J136" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K136">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="L136">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M136">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="N136">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="O136">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P136">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="Q136">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R136">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S136">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T136">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U136">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V136">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA136">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -12631,7 +12631,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6011501</v>
+        <v>6011499</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12643,76 +12643,76 @@
         <v>45144.5</v>
       </c>
       <c r="F137" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G137" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H137">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K137">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="L137">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M137">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="N137">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="O137">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P137">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="Q137">
         <v>0.5</v>
       </c>
       <c r="R137">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S137">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T137">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U137">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V137">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W137">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z137">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB137">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12913,7 +12913,7 @@
         <v>30</v>
       </c>
       <c r="G140" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H140">
         <v>1</v>
@@ -13254,7 +13254,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6008778</v>
+        <v>6011410</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13266,76 +13266,76 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G144" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H144">
         <v>0</v>
       </c>
       <c r="I144">
+        <v>3</v>
+      </c>
+      <c r="J144" t="s">
+        <v>46</v>
+      </c>
+      <c r="K144">
+        <v>2.8</v>
+      </c>
+      <c r="L144">
+        <v>3.5</v>
+      </c>
+      <c r="M144">
+        <v>2.375</v>
+      </c>
+      <c r="N144">
+        <v>2.625</v>
+      </c>
+      <c r="O144">
+        <v>3.75</v>
+      </c>
+      <c r="P144">
+        <v>2.5</v>
+      </c>
+      <c r="Q144">
         <v>0</v>
       </c>
-      <c r="J144" t="s">
-        <v>47</v>
-      </c>
-      <c r="K144">
-        <v>1.363</v>
-      </c>
-      <c r="L144">
-        <v>5</v>
-      </c>
-      <c r="M144">
-        <v>8</v>
-      </c>
-      <c r="N144">
-        <v>1.571</v>
-      </c>
-      <c r="O144">
-        <v>4.2</v>
-      </c>
-      <c r="P144">
-        <v>5.25</v>
-      </c>
-      <c r="Q144">
-        <v>-1</v>
-      </c>
       <c r="R144">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S144">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T144">
         <v>3</v>
       </c>
       <c r="U144">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V144">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z144">
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC144">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13343,7 +13343,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6011410</v>
+        <v>6008778</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13355,76 +13355,76 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F145" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G145" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H145">
         <v>0</v>
       </c>
       <c r="I145">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K145">
-        <v>2.8</v>
+        <v>1.363</v>
       </c>
       <c r="L145">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M145">
-        <v>2.375</v>
+        <v>8</v>
       </c>
       <c r="N145">
-        <v>2.625</v>
+        <v>1.571</v>
       </c>
       <c r="O145">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P145">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q145">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R145">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S145">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T145">
         <v>3</v>
       </c>
       <c r="U145">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V145">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y145">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB145">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13521,7 +13521,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6008613</v>
+        <v>6011411</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13533,76 +13533,76 @@
         <v>45158.5</v>
       </c>
       <c r="F147" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G147" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H147">
         <v>1</v>
       </c>
       <c r="I147">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K147">
+        <v>1.533</v>
+      </c>
+      <c r="L147">
+        <v>4</v>
+      </c>
+      <c r="M147">
         <v>6</v>
       </c>
-      <c r="L147">
-        <v>4.5</v>
-      </c>
-      <c r="M147">
-        <v>1.45</v>
-      </c>
       <c r="N147">
+        <v>1.5</v>
+      </c>
+      <c r="O147">
+        <v>4.333</v>
+      </c>
+      <c r="P147">
         <v>7</v>
       </c>
-      <c r="O147">
-        <v>4.5</v>
-      </c>
-      <c r="P147">
-        <v>1.45</v>
-      </c>
       <c r="Q147">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R147">
-        <v>1.825</v>
+        <v>2.08</v>
       </c>
       <c r="S147">
-        <v>2.025</v>
+        <v>1.82</v>
       </c>
       <c r="T147">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U147">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V147">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W147">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X147">
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA147">
-        <v>1.025</v>
+        <v>0.41</v>
       </c>
       <c r="AB147">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13610,7 +13610,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6011504</v>
+        <v>6008613</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13622,40 +13622,40 @@
         <v>45158.5</v>
       </c>
       <c r="F148" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G148" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H148">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J148" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K148">
-        <v>1.222</v>
+        <v>6</v>
       </c>
       <c r="L148">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="M148">
-        <v>10</v>
+        <v>1.45</v>
       </c>
       <c r="N148">
+        <v>7</v>
+      </c>
+      <c r="O148">
+        <v>4.5</v>
+      </c>
+      <c r="P148">
+        <v>1.45</v>
+      </c>
+      <c r="Q148">
         <v>1.25</v>
-      </c>
-      <c r="O148">
-        <v>6.5</v>
-      </c>
-      <c r="P148">
-        <v>8.5</v>
-      </c>
-      <c r="Q148">
-        <v>-1.75</v>
       </c>
       <c r="R148">
         <v>1.825</v>
@@ -13664,31 +13664,31 @@
         <v>2.025</v>
       </c>
       <c r="T148">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U148">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V148">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W148">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z148">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB148">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC148">
         <v>-1</v>
@@ -13699,7 +13699,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6011995</v>
+        <v>6011504</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13711,58 +13711,58 @@
         <v>45158.5</v>
       </c>
       <c r="F149" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G149" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H149">
+        <v>5</v>
+      </c>
+      <c r="I149">
         <v>1</v>
-      </c>
-      <c r="I149">
-        <v>0</v>
       </c>
       <c r="J149" t="s">
         <v>45</v>
       </c>
       <c r="K149">
-        <v>1.4</v>
+        <v>1.222</v>
       </c>
       <c r="L149">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="M149">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N149">
-        <v>1.444</v>
+        <v>1.25</v>
       </c>
       <c r="O149">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="P149">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="Q149">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R149">
+        <v>1.825</v>
+      </c>
+      <c r="S149">
+        <v>2.025</v>
+      </c>
+      <c r="T149">
+        <v>3.75</v>
+      </c>
+      <c r="U149">
         <v>1.925</v>
       </c>
-      <c r="S149">
+      <c r="V149">
         <v>1.925</v>
       </c>
-      <c r="T149">
-        <v>3.25</v>
-      </c>
-      <c r="U149">
-        <v>2</v>
-      </c>
-      <c r="V149">
-        <v>1.85</v>
-      </c>
       <c r="W149">
-        <v>0.444</v>
+        <v>0.25</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13771,16 +13771,16 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA149">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC149">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13788,7 +13788,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6011411</v>
+        <v>6011995</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13800,10 +13800,10 @@
         <v>45158.5</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G150" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -13815,19 +13815,19 @@
         <v>45</v>
       </c>
       <c r="K150">
-        <v>1.533</v>
+        <v>1.4</v>
       </c>
       <c r="L150">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M150">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N150">
-        <v>1.5</v>
+        <v>1.444</v>
       </c>
       <c r="O150">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P150">
         <v>7</v>
@@ -13836,22 +13836,22 @@
         <v>-1.25</v>
       </c>
       <c r="R150">
-        <v>2.08</v>
+        <v>1.925</v>
       </c>
       <c r="S150">
-        <v>1.82</v>
+        <v>1.925</v>
       </c>
       <c r="T150">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U150">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V150">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W150">
-        <v>0.5</v>
+        <v>0.444</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13863,13 +13863,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA150">
-        <v>0.41</v>
+        <v>0.4625</v>
       </c>
       <c r="AB150">
         <v>-1</v>
       </c>
       <c r="AC150">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13889,7 +13889,7 @@
         <v>45158.59375</v>
       </c>
       <c r="F151" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G151" t="s">
         <v>44</v>
@@ -14070,7 +14070,7 @@
         <v>43</v>
       </c>
       <c r="G153" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H153">
         <v>2</v>
@@ -14411,7 +14411,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6011414</v>
+        <v>6011415</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14423,73 +14423,73 @@
         <v>45172.5</v>
       </c>
       <c r="F157" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G157" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H157">
         <v>3</v>
       </c>
       <c r="I157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J157" t="s">
         <v>45</v>
       </c>
       <c r="K157">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="L157">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M157">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N157">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O157">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P157">
         <v>3.5</v>
       </c>
       <c r="Q157">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R157">
-        <v>2.01</v>
+        <v>1.875</v>
       </c>
       <c r="S157">
-        <v>1.89</v>
+        <v>1.975</v>
       </c>
       <c r="T157">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U157">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V157">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="W157">
+        <v>1.15</v>
+      </c>
+      <c r="X157">
+        <v>-1</v>
+      </c>
+      <c r="Y157">
+        <v>-1</v>
+      </c>
+      <c r="Z157">
+        <v>0.875</v>
+      </c>
+      <c r="AA157">
+        <v>-1</v>
+      </c>
+      <c r="AB157">
         <v>1</v>
-      </c>
-      <c r="X157">
-        <v>-1</v>
-      </c>
-      <c r="Y157">
-        <v>-1</v>
-      </c>
-      <c r="Z157">
-        <v>1.01</v>
-      </c>
-      <c r="AA157">
-        <v>-1</v>
-      </c>
-      <c r="AB157">
-        <v>0.7749999999999999</v>
       </c>
       <c r="AC157">
         <v>-1</v>
@@ -14500,7 +14500,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6008780</v>
+        <v>6011414</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14512,76 +14512,76 @@
         <v>45172.5</v>
       </c>
       <c r="F158" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G158" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I158">
         <v>2</v>
       </c>
       <c r="J158" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K158">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="L158">
         <v>4</v>
       </c>
       <c r="M158">
-        <v>1.571</v>
+        <v>4</v>
       </c>
       <c r="N158">
-        <v>5.25</v>
+        <v>2</v>
       </c>
       <c r="O158">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P158">
-        <v>1.65</v>
+        <v>3.5</v>
       </c>
       <c r="Q158">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R158">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="S158">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="T158">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U158">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="V158">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="W158">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-0.5</v>
+        <v>1.01</v>
       </c>
       <c r="AA158">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC158">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14589,7 +14589,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6011415</v>
+        <v>6008780</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14601,76 +14601,76 @@
         <v>45172.5</v>
       </c>
       <c r="F159" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G159" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H159">
+        <v>1</v>
+      </c>
+      <c r="I159">
+        <v>2</v>
+      </c>
+      <c r="J159" t="s">
+        <v>46</v>
+      </c>
+      <c r="K159">
+        <v>4.75</v>
+      </c>
+      <c r="L159">
+        <v>4</v>
+      </c>
+      <c r="M159">
+        <v>1.571</v>
+      </c>
+      <c r="N159">
+        <v>5.25</v>
+      </c>
+      <c r="O159">
+        <v>4.2</v>
+      </c>
+      <c r="P159">
+        <v>1.65</v>
+      </c>
+      <c r="Q159">
+        <v>0.75</v>
+      </c>
+      <c r="R159">
+        <v>2.05</v>
+      </c>
+      <c r="S159">
+        <v>1.8</v>
+      </c>
+      <c r="T159">
         <v>3</v>
       </c>
-      <c r="I159">
-        <v>1</v>
-      </c>
-      <c r="J159" t="s">
-        <v>45</v>
-      </c>
-      <c r="K159">
-        <v>2.05</v>
-      </c>
-      <c r="L159">
-        <v>3.5</v>
-      </c>
-      <c r="M159">
-        <v>3.1</v>
-      </c>
-      <c r="N159">
-        <v>2.15</v>
-      </c>
-      <c r="O159">
-        <v>3.4</v>
-      </c>
-      <c r="P159">
-        <v>3.5</v>
-      </c>
-      <c r="Q159">
-        <v>-0.25</v>
-      </c>
-      <c r="R159">
-        <v>1.875</v>
-      </c>
-      <c r="S159">
-        <v>1.975</v>
-      </c>
-      <c r="T159">
-        <v>2.5</v>
-      </c>
       <c r="U159">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V159">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W159">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X159">
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z159">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA159">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC159">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14868,7 +14868,7 @@
         <v>45172.5</v>
       </c>
       <c r="F162" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G162" t="s">
         <v>32</v>
@@ -15049,7 +15049,7 @@
         <v>42</v>
       </c>
       <c r="G164" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H164">
         <v>2</v>
@@ -15138,7 +15138,7 @@
         <v>37</v>
       </c>
       <c r="G165" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H165">
         <v>4</v>
@@ -16025,7 +16025,7 @@
         <v>45193.5</v>
       </c>
       <c r="F175" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G175" t="s">
         <v>41</v>
@@ -16114,7 +16114,7 @@
         <v>45193.5</v>
       </c>
       <c r="F176" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G176" t="s">
         <v>37</v>
@@ -16829,7 +16829,7 @@
         <v>38</v>
       </c>
       <c r="G184" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H184">
         <v>2</v>
@@ -17004,7 +17004,7 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F186" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G186" t="s">
         <v>36</v>
@@ -17541,7 +17541,7 @@
         <v>41</v>
       </c>
       <c r="G192" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -18250,10 +18250,10 @@
         <v>45221.5</v>
       </c>
       <c r="F200" t="s">
+        <v>40</v>
+      </c>
+      <c r="G200" t="s">
         <v>39</v>
-      </c>
-      <c r="G200" t="s">
-        <v>40</v>
       </c>
       <c r="H200">
         <v>3</v>
@@ -18517,7 +18517,7 @@
         <v>45228.54166666666</v>
       </c>
       <c r="F203" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G203" t="s">
         <v>36</v>
@@ -18683,7 +18683,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6011425</v>
+        <v>6011937</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18695,76 +18695,76 @@
         <v>45228.54166666666</v>
       </c>
       <c r="F205" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G205" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H205">
         <v>2</v>
       </c>
       <c r="I205">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J205" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K205">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="L205">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M205">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="N205">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="O205">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P205">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="Q205">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R205">
+        <v>1.9</v>
+      </c>
+      <c r="S205">
+        <v>2</v>
+      </c>
+      <c r="T205">
+        <v>3.25</v>
+      </c>
+      <c r="U205">
         <v>1.925</v>
       </c>
-      <c r="S205">
+      <c r="V205">
         <v>1.925</v>
       </c>
-      <c r="T205">
-        <v>2.5</v>
-      </c>
-      <c r="U205">
-        <v>1.875</v>
-      </c>
-      <c r="V205">
-        <v>1.975</v>
-      </c>
       <c r="W205">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X205">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y205">
         <v>-1</v>
       </c>
       <c r="Z205">
+        <v>-1</v>
+      </c>
+      <c r="AA205">
+        <v>1</v>
+      </c>
+      <c r="AB205">
         <v>0.925</v>
       </c>
-      <c r="AA205">
-        <v>-1</v>
-      </c>
-      <c r="AB205">
-        <v>-1</v>
-      </c>
       <c r="AC205">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18772,7 +18772,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6011937</v>
+        <v>6011425</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18784,76 +18784,76 @@
         <v>45228.54166666666</v>
       </c>
       <c r="F206" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G206" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H206">
         <v>2</v>
       </c>
       <c r="I206">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J206" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K206">
-        <v>1.533</v>
+        <v>2.05</v>
       </c>
       <c r="L206">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M206">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="N206">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="O206">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P206">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q206">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R206">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S206">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T206">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U206">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V206">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W206">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X206">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y206">
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA206">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB206">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC206">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -19217,7 +19217,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6008621</v>
+        <v>6011938</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19229,49 +19229,49 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F211" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G211" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I211">
+        <v>2</v>
+      </c>
+      <c r="J211" t="s">
+        <v>45</v>
+      </c>
+      <c r="K211">
+        <v>1.909</v>
+      </c>
+      <c r="L211">
         <v>4</v>
       </c>
-      <c r="J211" t="s">
-        <v>46</v>
-      </c>
-      <c r="K211">
-        <v>5.25</v>
-      </c>
-      <c r="L211">
-        <v>4.333</v>
-      </c>
       <c r="M211">
-        <v>1.55</v>
+        <v>3.5</v>
       </c>
       <c r="N211">
-        <v>5.75</v>
+        <v>1.909</v>
       </c>
       <c r="O211">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P211">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q211">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R211">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S211">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T211">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U211">
         <v>2.025</v>
@@ -19280,19 +19280,19 @@
         <v>1.825</v>
       </c>
       <c r="W211">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X211">
         <v>-1</v>
       </c>
       <c r="Y211">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z211">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA211">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB211">
         <v>1.025</v>
@@ -19306,7 +19306,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6008785</v>
+        <v>6011426</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19318,13 +19318,13 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F212" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G212" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H212">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I212">
         <v>1</v>
@@ -19333,43 +19333,43 @@
         <v>45</v>
       </c>
       <c r="K212">
-        <v>3.75</v>
+        <v>1.3</v>
       </c>
       <c r="L212">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="M212">
-        <v>1.85</v>
+        <v>9</v>
       </c>
       <c r="N212">
-        <v>3.75</v>
+        <v>1.142</v>
       </c>
       <c r="O212">
-        <v>3.8</v>
+        <v>9</v>
       </c>
       <c r="P212">
+        <v>17</v>
+      </c>
+      <c r="Q212">
+        <v>-2.25</v>
+      </c>
+      <c r="R212">
+        <v>1.875</v>
+      </c>
+      <c r="S212">
+        <v>1.975</v>
+      </c>
+      <c r="T212">
+        <v>3.5</v>
+      </c>
+      <c r="U212">
         <v>1.95</v>
       </c>
-      <c r="Q212">
-        <v>0.5</v>
-      </c>
-      <c r="R212">
-        <v>1.92</v>
-      </c>
-      <c r="S212">
-        <v>1.98</v>
-      </c>
-      <c r="T212">
-        <v>3.25</v>
-      </c>
-      <c r="U212">
-        <v>2.05</v>
-      </c>
       <c r="V212">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W212">
-        <v>2.75</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X212">
         <v>-1</v>
@@ -19378,16 +19378,16 @@
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB212">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC212">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19395,7 +19395,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6011938</v>
+        <v>6008785</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19407,58 +19407,58 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F213" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G213" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H213">
         <v>3</v>
       </c>
       <c r="I213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J213" t="s">
         <v>45</v>
       </c>
       <c r="K213">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="L213">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M213">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="N213">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="O213">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P213">
-        <v>3.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q213">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R213">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="S213">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T213">
         <v>3.25</v>
       </c>
       <c r="U213">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V213">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W213">
-        <v>0.909</v>
+        <v>2.75</v>
       </c>
       <c r="X213">
         <v>-1</v>
@@ -19467,13 +19467,13 @@
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0.8999999999999999</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA213">
         <v>-1</v>
       </c>
       <c r="AB213">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AC213">
         <v>-1</v>
@@ -19484,7 +19484,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6011426</v>
+        <v>6008621</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19496,76 +19496,76 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F214" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G214" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J214" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K214">
-        <v>1.3</v>
+        <v>5.25</v>
       </c>
       <c r="L214">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="M214">
-        <v>9</v>
+        <v>1.55</v>
       </c>
       <c r="N214">
-        <v>1.142</v>
+        <v>5.75</v>
       </c>
       <c r="O214">
-        <v>9</v>
+        <v>4.75</v>
       </c>
       <c r="P214">
-        <v>17</v>
+        <v>1.5</v>
       </c>
       <c r="Q214">
-        <v>-2.25</v>
+        <v>1.25</v>
       </c>
       <c r="R214">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S214">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T214">
         <v>3.5</v>
       </c>
       <c r="U214">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V214">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W214">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z214">
         <v>-1</v>
       </c>
       <c r="AA214">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB214">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC214">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19677,7 +19677,7 @@
         <v>31</v>
       </c>
       <c r="G216" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H216">
         <v>0</v>
@@ -19929,7 +19929,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6011428</v>
+        <v>6011527</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19941,76 +19941,76 @@
         <v>45242.54166666666</v>
       </c>
       <c r="F219" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G219" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H219">
         <v>1</v>
       </c>
       <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219" t="s">
+        <v>45</v>
+      </c>
+      <c r="K219">
+        <v>1.125</v>
+      </c>
+      <c r="L219">
+        <v>9</v>
+      </c>
+      <c r="M219">
+        <v>15</v>
+      </c>
+      <c r="N219">
+        <v>1.1</v>
+      </c>
+      <c r="O219">
+        <v>10</v>
+      </c>
+      <c r="P219">
+        <v>21</v>
+      </c>
+      <c r="Q219">
+        <v>-2.75</v>
+      </c>
+      <c r="R219">
+        <v>1.88</v>
+      </c>
+      <c r="S219">
+        <v>2.02</v>
+      </c>
+      <c r="T219">
+        <v>4.25</v>
+      </c>
+      <c r="U219">
+        <v>1.85</v>
+      </c>
+      <c r="V219">
         <v>2</v>
       </c>
-      <c r="J219" t="s">
-        <v>46</v>
-      </c>
-      <c r="K219">
-        <v>3.4</v>
-      </c>
-      <c r="L219">
-        <v>3.5</v>
-      </c>
-      <c r="M219">
-        <v>2.05</v>
-      </c>
-      <c r="N219">
-        <v>4</v>
-      </c>
-      <c r="O219">
-        <v>3.6</v>
-      </c>
-      <c r="P219">
-        <v>1.909</v>
-      </c>
-      <c r="Q219">
-        <v>0.5</v>
-      </c>
-      <c r="R219">
-        <v>1.975</v>
-      </c>
-      <c r="S219">
-        <v>1.875</v>
-      </c>
-      <c r="T219">
-        <v>2.5</v>
-      </c>
-      <c r="U219">
-        <v>1.925</v>
-      </c>
-      <c r="V219">
-        <v>1.925</v>
-      </c>
       <c r="W219">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X219">
         <v>-1</v>
       </c>
       <c r="Y219">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z219">
         <v>-1</v>
       </c>
       <c r="AA219">
-        <v>0.875</v>
+        <v>1.02</v>
       </c>
       <c r="AB219">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC219">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20018,7 +20018,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6011529</v>
+        <v>6011428</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20030,73 +20030,73 @@
         <v>45242.54166666666</v>
       </c>
       <c r="F220" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G220" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H220">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I220">
         <v>2</v>
       </c>
       <c r="J220" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K220">
+        <v>3.4</v>
+      </c>
+      <c r="L220">
+        <v>3.5</v>
+      </c>
+      <c r="M220">
+        <v>2.05</v>
+      </c>
+      <c r="N220">
+        <v>4</v>
+      </c>
+      <c r="O220">
+        <v>3.6</v>
+      </c>
+      <c r="P220">
+        <v>1.909</v>
+      </c>
+      <c r="Q220">
+        <v>0.5</v>
+      </c>
+      <c r="R220">
+        <v>1.975</v>
+      </c>
+      <c r="S220">
+        <v>1.875</v>
+      </c>
+      <c r="T220">
         <v>2.5</v>
       </c>
-      <c r="L220">
-        <v>3.6</v>
-      </c>
-      <c r="M220">
-        <v>2.6</v>
-      </c>
-      <c r="N220">
-        <v>2.1</v>
-      </c>
-      <c r="O220">
-        <v>3.8</v>
-      </c>
-      <c r="P220">
-        <v>3.25</v>
-      </c>
-      <c r="Q220">
-        <v>-0.25</v>
-      </c>
-      <c r="R220">
-        <v>1.88</v>
-      </c>
-      <c r="S220">
-        <v>2.02</v>
-      </c>
-      <c r="T220">
-        <v>3</v>
-      </c>
       <c r="U220">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V220">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W220">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X220">
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z220">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA220">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB220">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC220">
         <v>-1</v>
@@ -20107,7 +20107,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6011527</v>
+        <v>6011529</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20119,40 +20119,40 @@
         <v>45242.54166666666</v>
       </c>
       <c r="F221" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G221" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I221">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J221" t="s">
         <v>45</v>
       </c>
       <c r="K221">
-        <v>1.125</v>
+        <v>2.5</v>
       </c>
       <c r="L221">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="M221">
-        <v>15</v>
+        <v>2.6</v>
       </c>
       <c r="N221">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="O221">
-        <v>10</v>
+        <v>3.8</v>
       </c>
       <c r="P221">
-        <v>21</v>
+        <v>3.25</v>
       </c>
       <c r="Q221">
-        <v>-2.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R221">
         <v>1.88</v>
@@ -20161,16 +20161,16 @@
         <v>2.02</v>
       </c>
       <c r="T221">
-        <v>4.25</v>
+        <v>3</v>
       </c>
       <c r="U221">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V221">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W221">
-        <v>0.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="X221">
         <v>-1</v>
@@ -20179,16 +20179,16 @@
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AA221">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
       <c r="AB221">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC221">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20196,7 +20196,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6011530</v>
+        <v>6011939</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20208,76 +20208,76 @@
         <v>45242.54166666666</v>
       </c>
       <c r="F222" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G222" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222">
         <v>1</v>
       </c>
       <c r="J222" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K222">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="L222">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M222">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="N222">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="O222">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P222">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q222">
         <v>-0.5</v>
       </c>
       <c r="R222">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S222">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T222">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U222">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V222">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W222">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X222">
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z222">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA222">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB222">
         <v>-1</v>
       </c>
       <c r="AC222">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20285,7 +20285,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6011939</v>
+        <v>6012005</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20297,76 +20297,76 @@
         <v>45242.54166666666</v>
       </c>
       <c r="F223" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G223" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K223">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="L223">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M223">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="N223">
         <v>1.833</v>
       </c>
       <c r="O223">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P223">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q223">
         <v>-0.5</v>
       </c>
       <c r="R223">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="S223">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="T223">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U223">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="V223">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W223">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X223">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y223">
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA223">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AB223">
         <v>-1</v>
       </c>
       <c r="AC223">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20374,7 +20374,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6012005</v>
+        <v>6011530</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20386,76 +20386,76 @@
         <v>45242.54166666666</v>
       </c>
       <c r="F224" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G224" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H224">
         <v>0</v>
       </c>
       <c r="I224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K224">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="L224">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M224">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N224">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="O224">
         <v>3.75</v>
       </c>
       <c r="P224">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q224">
         <v>-0.5</v>
       </c>
       <c r="R224">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="S224">
-        <v>2.06</v>
+        <v>1.9</v>
       </c>
       <c r="T224">
         <v>2.75</v>
       </c>
       <c r="U224">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V224">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W224">
         <v>-1</v>
       </c>
       <c r="X224">
+        <v>-1</v>
+      </c>
+      <c r="Y224">
         <v>2.75</v>
       </c>
-      <c r="Y224">
-        <v>-1</v>
-      </c>
       <c r="Z224">
         <v>-1</v>
       </c>
       <c r="AA224">
-        <v>1.06</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB224">
         <v>-1</v>
       </c>
       <c r="AC224">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20923,7 +20923,7 @@
         <v>44</v>
       </c>
       <c r="G230" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H230">
         <v>4</v>
@@ -20997,7 +20997,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6011531</v>
+        <v>6011533</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21009,76 +21009,76 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F231" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G231" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231">
+        <v>1</v>
+      </c>
+      <c r="J231" t="s">
+        <v>45</v>
+      </c>
+      <c r="K231">
+        <v>2</v>
+      </c>
+      <c r="L231">
+        <v>3.75</v>
+      </c>
+      <c r="M231">
+        <v>3.4</v>
+      </c>
+      <c r="N231">
+        <v>1.85</v>
+      </c>
+      <c r="O231">
         <v>4</v>
       </c>
-      <c r="J231" t="s">
-        <v>46</v>
-      </c>
-      <c r="K231">
-        <v>4.75</v>
-      </c>
-      <c r="L231">
-        <v>4.5</v>
-      </c>
-      <c r="M231">
-        <v>1.571</v>
-      </c>
-      <c r="N231">
-        <v>3.6</v>
-      </c>
-      <c r="O231">
-        <v>4.2</v>
-      </c>
       <c r="P231">
-        <v>1.85</v>
+        <v>3.8</v>
       </c>
       <c r="Q231">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R231">
-        <v>2.07</v>
+        <v>1.91</v>
       </c>
       <c r="S231">
-        <v>1.83</v>
+        <v>1.99</v>
       </c>
       <c r="T231">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U231">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V231">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W231">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z231">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AA231">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB231">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AC231">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21086,7 +21086,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6011533</v>
+        <v>6012007</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21098,34 +21098,34 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F232" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G232" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I232">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J232" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K232">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L232">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M232">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="N232">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O232">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P232">
         <v>3.8</v>
@@ -21134,40 +21134,40 @@
         <v>-0.5</v>
       </c>
       <c r="R232">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="S232">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="T232">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U232">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V232">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W232">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X232">
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z232">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA232">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AB232">
-        <v>0.4375</v>
+        <v>1.025</v>
       </c>
       <c r="AC232">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21175,7 +21175,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6012007</v>
+        <v>6011531</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21187,55 +21187,55 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F233" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G233" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J233" t="s">
         <v>46</v>
       </c>
       <c r="K233">
-        <v>1.727</v>
+        <v>4.75</v>
       </c>
       <c r="L233">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M233">
+        <v>1.571</v>
+      </c>
+      <c r="N233">
+        <v>3.6</v>
+      </c>
+      <c r="O233">
         <v>4.2</v>
       </c>
-      <c r="N233">
-        <v>1.909</v>
-      </c>
-      <c r="O233">
-        <v>3.8</v>
-      </c>
       <c r="P233">
-        <v>3.8</v>
+        <v>1.85</v>
       </c>
       <c r="Q233">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R233">
-        <v>1.93</v>
+        <v>2.07</v>
       </c>
       <c r="S233">
-        <v>1.97</v>
+        <v>1.83</v>
       </c>
       <c r="T233">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U233">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V233">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W233">
         <v>-1</v>
@@ -21244,16 +21244,16 @@
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>2.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z233">
         <v>-1</v>
       </c>
       <c r="AA233">
-        <v>0.97</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB233">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC233">
         <v>-1</v>
@@ -21353,7 +21353,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6012013</v>
+        <v>6012008</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21365,76 +21365,76 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F235" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G235" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J235" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K235">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="L235">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M235">
-        <v>2.625</v>
+        <v>1.65</v>
       </c>
       <c r="N235">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="O235">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P235">
-        <v>3.4</v>
+        <v>1.75</v>
       </c>
       <c r="Q235">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R235">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="S235">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="T235">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U235">
+        <v>1.85</v>
+      </c>
+      <c r="V235">
         <v>2</v>
       </c>
-      <c r="V235">
-        <v>1.85</v>
-      </c>
       <c r="W235">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X235">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y235">
         <v>-1</v>
       </c>
       <c r="Z235">
+        <v>0.8600000000000001</v>
+      </c>
+      <c r="AA235">
+        <v>-1</v>
+      </c>
+      <c r="AB235">
+        <v>0.425</v>
+      </c>
+      <c r="AC235">
         <v>-0.5</v>
-      </c>
-      <c r="AA235">
-        <v>0.5249999999999999</v>
-      </c>
-      <c r="AB235">
-        <v>-1</v>
-      </c>
-      <c r="AC235">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21442,7 +21442,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6390445</v>
+        <v>6012013</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21454,76 +21454,76 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F236" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G236" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H236">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J236" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K236">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L236">
+        <v>3.5</v>
+      </c>
+      <c r="M236">
+        <v>2.625</v>
+      </c>
+      <c r="N236">
+        <v>2.05</v>
+      </c>
+      <c r="O236">
+        <v>3.6</v>
+      </c>
+      <c r="P236">
         <v>3.4</v>
       </c>
-      <c r="M236">
-        <v>3.1</v>
-      </c>
-      <c r="N236">
+      <c r="Q236">
+        <v>-0.25</v>
+      </c>
+      <c r="R236">
         <v>1.8</v>
       </c>
-      <c r="O236">
-        <v>3.75</v>
-      </c>
-      <c r="P236">
-        <v>4.5</v>
-      </c>
-      <c r="Q236">
-        <v>-0.75</v>
-      </c>
-      <c r="R236">
-        <v>1.975</v>
-      </c>
       <c r="S236">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T236">
         <v>2.5</v>
       </c>
       <c r="U236">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V236">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W236">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X236">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y236">
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA236">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB236">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC236">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21531,7 +21531,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6390446</v>
+        <v>6390445</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21543,13 +21543,13 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F237" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G237" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I237">
         <v>0</v>
@@ -21558,34 +21558,34 @@
         <v>45</v>
       </c>
       <c r="K237">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="L237">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M237">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="N237">
         <v>1.8</v>
       </c>
       <c r="O237">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P237">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q237">
         <v>-0.75</v>
       </c>
       <c r="R237">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S237">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T237">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U237">
         <v>1.9</v>
@@ -21603,16 +21603,16 @@
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA237">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB237">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC237">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6390526</v>
+        <v>6390446</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,76 +21632,76 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F238" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G238" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H238">
         <v>1</v>
       </c>
       <c r="I238">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J238" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K238">
-        <v>1.4</v>
+        <v>1.615</v>
       </c>
       <c r="L238">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M238">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="N238">
-        <v>1.333</v>
+        <v>1.8</v>
       </c>
       <c r="O238">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="P238">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q238">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R238">
+        <v>2.025</v>
+      </c>
+      <c r="S238">
         <v>1.825</v>
       </c>
-      <c r="S238">
-        <v>2.025</v>
-      </c>
       <c r="T238">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U238">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V238">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W238">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z238">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA238">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB238">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC238">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21709,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6012008</v>
+        <v>6390526</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21721,76 +21721,76 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F239" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G239" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H239">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I239">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J239" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K239">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="L239">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M239">
-        <v>1.65</v>
+        <v>6.5</v>
       </c>
       <c r="N239">
-        <v>4.2</v>
+        <v>1.333</v>
       </c>
       <c r="O239">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="P239">
-        <v>1.75</v>
+        <v>8</v>
       </c>
       <c r="Q239">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R239">
-        <v>1.86</v>
+        <v>1.825</v>
       </c>
       <c r="S239">
-        <v>2.04</v>
+        <v>2.025</v>
       </c>
       <c r="T239">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U239">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V239">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W239">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z239">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA239">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB239">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AC239">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21810,7 +21810,7 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F240" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G240" t="s">
         <v>34</v>

--- a/Norway Eliteserien/Norway Eliteserien.xlsx
+++ b/Norway Eliteserien/Norway Eliteserien.xlsx
@@ -133,10 +133,10 @@
     <t>BodoGlimt</t>
   </si>
   <si>
-    <t>Odd BK</t>
+    <t>Stromsgodset</t>
   </si>
   <si>
-    <t>Stromsgodset</t>
+    <t>Odd BK</t>
   </si>
   <si>
     <t>Haugesund</t>
@@ -898,7 +898,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6011378</v>
+        <v>6011461</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1521,10 +1521,10 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1533,34 +1533,34 @@
         <v>45</v>
       </c>
       <c r="K12">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="L12">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M12">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="N12">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="O12">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P12">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q12">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R12">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S12">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T12">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U12">
         <v>1.825</v>
@@ -1569,7 +1569,7 @@
         <v>2.025</v>
       </c>
       <c r="W12">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1578,7 +1578,7 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA12">
         <v>-1</v>
@@ -1595,7 +1595,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6011461</v>
+        <v>6011378</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1610,10 +1610,10 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1622,34 +1622,34 @@
         <v>45</v>
       </c>
       <c r="K13">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="L13">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M13">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="N13">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="O13">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P13">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="Q13">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R13">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S13">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T13">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U13">
         <v>1.825</v>
@@ -1658,7 +1658,7 @@
         <v>2.025</v>
       </c>
       <c r="W13">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1667,7 +1667,7 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA13">
         <v>-1</v>
@@ -1966,7 +1966,7 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H17">
         <v>4</v>
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6011380</v>
+        <v>6011381</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2141,76 +2141,76 @@
         <v>45039.5</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
         <v>47</v>
       </c>
       <c r="K19">
-        <v>1.833</v>
+        <v>2.4</v>
       </c>
       <c r="L19">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M19">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N19">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="O19">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P19">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q19">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R19">
+        <v>2.09</v>
+      </c>
+      <c r="S19">
+        <v>1.81</v>
+      </c>
+      <c r="T19">
+        <v>2.25</v>
+      </c>
+      <c r="U19">
+        <v>1.825</v>
+      </c>
+      <c r="V19">
         <v>2.025</v>
       </c>
-      <c r="S19">
-        <v>1.825</v>
-      </c>
-      <c r="T19">
-        <v>3</v>
-      </c>
-      <c r="U19">
-        <v>1.975</v>
-      </c>
-      <c r="V19">
-        <v>1.875</v>
-      </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA19">
-        <v>0.825</v>
+        <v>0.405</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC19">
-        <v>0.875</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2218,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6011381</v>
+        <v>6011380</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2230,76 +2230,76 @@
         <v>45039.5</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
         <v>47</v>
       </c>
       <c r="K20">
-        <v>2.4</v>
+        <v>1.833</v>
       </c>
       <c r="L20">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M20">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N20">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="O20">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P20">
+        <v>3.8</v>
+      </c>
+      <c r="Q20">
+        <v>-0.75</v>
+      </c>
+      <c r="R20">
+        <v>2.025</v>
+      </c>
+      <c r="S20">
+        <v>1.825</v>
+      </c>
+      <c r="T20">
         <v>3</v>
       </c>
-      <c r="Q20">
-        <v>-0.25</v>
-      </c>
-      <c r="R20">
-        <v>2.09</v>
-      </c>
-      <c r="S20">
-        <v>1.81</v>
-      </c>
-      <c r="T20">
-        <v>2.25</v>
-      </c>
       <c r="U20">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V20">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.405</v>
+        <v>0.825</v>
       </c>
       <c r="AB20">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.5125</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2307,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6011463</v>
+        <v>6011462</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2319,76 +2319,76 @@
         <v>45039.5</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K21">
-        <v>1.363</v>
+        <v>2.05</v>
       </c>
       <c r="L21">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M21">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="N21">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O21">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P21">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="Q21">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R21">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="S21">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="T21">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U21">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V21">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X21">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA21">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
         <v>-1</v>
       </c>
       <c r="AC21">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6011462</v>
+        <v>6011463</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,76 +2408,76 @@
         <v>45039.5</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K22">
-        <v>2.05</v>
+        <v>1.363</v>
       </c>
       <c r="L22">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M22">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="N22">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="O22">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P22">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="Q22">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R22">
+        <v>1.91</v>
+      </c>
+      <c r="S22">
+        <v>1.99</v>
+      </c>
+      <c r="T22">
+        <v>2.75</v>
+      </c>
+      <c r="U22">
+        <v>1.95</v>
+      </c>
+      <c r="V22">
         <v>1.9</v>
       </c>
-      <c r="S22">
-        <v>1.95</v>
-      </c>
-      <c r="T22">
-        <v>2.5</v>
-      </c>
-      <c r="U22">
-        <v>1.925</v>
-      </c>
-      <c r="V22">
-        <v>1.925</v>
-      </c>
       <c r="W22">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
+        <v>-1</v>
+      </c>
+      <c r="AA22">
+        <v>0.99</v>
+      </c>
+      <c r="AB22">
+        <v>-1</v>
+      </c>
+      <c r="AC22">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA22">
-        <v>-1</v>
-      </c>
-      <c r="AB22">
-        <v>-1</v>
-      </c>
-      <c r="AC22">
-        <v>0.925</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2942,7 +2942,7 @@
         <v>45046.5</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s">
         <v>31</v>
@@ -3298,7 +3298,7 @@
         <v>45046.59375</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G32" t="s">
         <v>29</v>
@@ -3568,7 +3568,7 @@
         <v>38</v>
       </c>
       <c r="G35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -3924,7 +3924,7 @@
         <v>31</v>
       </c>
       <c r="G39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -4087,7 +4087,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6011927</v>
+        <v>6011977</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4099,10 +4099,10 @@
         <v>45053.5</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4114,61 +4114,61 @@
         <v>47</v>
       </c>
       <c r="K41">
-        <v>2.7</v>
+        <v>1.533</v>
       </c>
       <c r="L41">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M41">
-        <v>2.45</v>
+        <v>5.5</v>
       </c>
       <c r="N41">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="O41">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P41">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R41">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S41">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T41">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U41">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V41">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W41">
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB41">
         <v>-1</v>
       </c>
       <c r="AC41">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4176,7 +4176,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6011977</v>
+        <v>6011927</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4188,10 +4188,10 @@
         <v>45053.5</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G42" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4203,61 +4203,61 @@
         <v>47</v>
       </c>
       <c r="K42">
-        <v>1.533</v>
+        <v>2.7</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M42">
-        <v>5.5</v>
+        <v>2.45</v>
       </c>
       <c r="N42">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="O42">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P42">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="Q42">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R42">
+        <v>1.8</v>
+      </c>
+      <c r="S42">
+        <v>2.05</v>
+      </c>
+      <c r="T42">
+        <v>2.75</v>
+      </c>
+      <c r="U42">
+        <v>1.975</v>
+      </c>
+      <c r="V42">
         <v>1.875</v>
       </c>
-      <c r="S42">
-        <v>1.975</v>
-      </c>
-      <c r="T42">
-        <v>3.25</v>
-      </c>
-      <c r="U42">
-        <v>1.95</v>
-      </c>
-      <c r="V42">
-        <v>1.9</v>
-      </c>
       <c r="W42">
         <v>-1</v>
       </c>
       <c r="X42">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA42">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB42">
         <v>-1</v>
       </c>
       <c r="AC42">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4455,7 +4455,7 @@
         <v>45058.58333333334</v>
       </c>
       <c r="F45" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G45" t="s">
         <v>44</v>
@@ -4621,7 +4621,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6011928</v>
+        <v>6011470</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4633,19 +4633,19 @@
         <v>45059.5</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
         <v>2</v>
       </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
       <c r="J47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K47">
         <v>4.1</v>
@@ -4660,49 +4660,49 @@
         <v>3.8</v>
       </c>
       <c r="O47">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P47">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="Q47">
         <v>0.5</v>
       </c>
       <c r="R47">
+        <v>1.875</v>
+      </c>
+      <c r="S47">
         <v>1.975</v>
       </c>
-      <c r="S47">
+      <c r="T47">
+        <v>2.75</v>
+      </c>
+      <c r="U47">
+        <v>1.975</v>
+      </c>
+      <c r="V47">
         <v>1.875</v>
       </c>
-      <c r="T47">
-        <v>3</v>
-      </c>
-      <c r="U47">
-        <v>1.95</v>
-      </c>
-      <c r="V47">
-        <v>1.9</v>
-      </c>
       <c r="W47">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z47">
+        <v>-1</v>
+      </c>
+      <c r="AA47">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA47">
-        <v>-1</v>
-      </c>
       <c r="AB47">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AC47">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6011470</v>
+        <v>6011928</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,19 +4722,19 @@
         <v>45059.5</v>
       </c>
       <c r="F48" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48">
         <v>1</v>
       </c>
-      <c r="I48">
-        <v>2</v>
-      </c>
       <c r="J48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K48">
         <v>4.1</v>
@@ -4749,49 +4749,49 @@
         <v>3.8</v>
       </c>
       <c r="O48">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P48">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="Q48">
         <v>0.5</v>
       </c>
       <c r="R48">
+        <v>1.975</v>
+      </c>
+      <c r="S48">
         <v>1.875</v>
       </c>
-      <c r="S48">
-        <v>1.975</v>
-      </c>
       <c r="T48">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U48">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V48">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W48">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA48">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC48">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4814,7 +4814,7 @@
         <v>37</v>
       </c>
       <c r="G49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H49">
         <v>3</v>
@@ -5348,7 +5348,7 @@
         <v>36</v>
       </c>
       <c r="G55" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H55">
         <v>3</v>
@@ -5600,7 +5600,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6011473</v>
+        <v>6011978</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5612,40 +5612,40 @@
         <v>45062.54166666666</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G58" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H58">
+        <v>4</v>
+      </c>
+      <c r="I58">
         <v>1</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
       </c>
       <c r="J58" t="s">
         <v>45</v>
       </c>
       <c r="K58">
-        <v>1.571</v>
+        <v>1.285</v>
       </c>
       <c r="L58">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="M58">
-        <v>5.25</v>
+        <v>9.5</v>
       </c>
       <c r="N58">
-        <v>1.7</v>
+        <v>1.333</v>
       </c>
       <c r="O58">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P58">
-        <v>5.75</v>
+        <v>11</v>
       </c>
       <c r="Q58">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R58">
         <v>1.925</v>
@@ -5654,16 +5654,16 @@
         <v>1.925</v>
       </c>
       <c r="T58">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U58">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V58">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W58">
-        <v>0.7</v>
+        <v>0.333</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5672,16 +5672,16 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
       <c r="AA58">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC58">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5689,7 +5689,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6011978</v>
+        <v>6011473</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5701,40 +5701,40 @@
         <v>45062.54166666666</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G59" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H59">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
         <v>45</v>
       </c>
       <c r="K59">
-        <v>1.285</v>
+        <v>1.571</v>
       </c>
       <c r="L59">
+        <v>3.8</v>
+      </c>
+      <c r="M59">
         <v>5.25</v>
       </c>
-      <c r="M59">
-        <v>9.5</v>
-      </c>
       <c r="N59">
-        <v>1.333</v>
+        <v>1.7</v>
       </c>
       <c r="O59">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P59">
-        <v>11</v>
+        <v>5.75</v>
       </c>
       <c r="Q59">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R59">
         <v>1.925</v>
@@ -5743,16 +5743,16 @@
         <v>1.925</v>
       </c>
       <c r="T59">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U59">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V59">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W59">
-        <v>0.333</v>
+        <v>0.7</v>
       </c>
       <c r="X59">
         <v>-1</v>
@@ -5761,16 +5761,16 @@
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB59">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5790,7 +5790,7 @@
         <v>45062.54166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G60" t="s">
         <v>42</v>
@@ -5867,7 +5867,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6011476</v>
+        <v>6008768</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5879,49 +5879,49 @@
         <v>45075.5</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G61" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H61">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
         <v>45</v>
       </c>
       <c r="K61">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="L61">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="M61">
-        <v>5.25</v>
+        <v>12</v>
       </c>
       <c r="N61">
-        <v>1.571</v>
+        <v>1.2</v>
       </c>
       <c r="O61">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P61">
-        <v>5.5</v>
+        <v>15</v>
       </c>
       <c r="Q61">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R61">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S61">
         <v>1.95</v>
       </c>
       <c r="T61">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U61">
         <v>1.825</v>
@@ -5930,7 +5930,7 @@
         <v>2.025</v>
       </c>
       <c r="W61">
-        <v>0.571</v>
+        <v>0.2</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5939,7 +5939,7 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA61">
         <v>-1</v>
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6011393</v>
+        <v>6011476</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,76 +6057,76 @@
         <v>45075.5</v>
       </c>
       <c r="F63" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G63" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I63">
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K63">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="L63">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M63">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="N63">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="O63">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P63">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="Q63">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R63">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S63">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T63">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U63">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V63">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X63">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA63">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC63">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6134,7 +6134,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6011392</v>
+        <v>6011393</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6146,76 +6146,76 @@
         <v>45075.5</v>
       </c>
       <c r="F64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H64">
         <v>1</v>
       </c>
       <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64" t="s">
+        <v>47</v>
+      </c>
+      <c r="K64">
+        <v>1.909</v>
+      </c>
+      <c r="L64">
+        <v>3.6</v>
+      </c>
+      <c r="M64">
+        <v>3.75</v>
+      </c>
+      <c r="N64">
         <v>2</v>
       </c>
-      <c r="J64" t="s">
-        <v>46</v>
-      </c>
-      <c r="K64">
-        <v>2.3</v>
-      </c>
-      <c r="L64">
-        <v>3.2</v>
-      </c>
-      <c r="M64">
-        <v>3.1</v>
-      </c>
-      <c r="N64">
-        <v>2.45</v>
-      </c>
       <c r="O64">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P64">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q64">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R64">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="S64">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="T64">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U64">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V64">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W64">
         <v>-1</v>
       </c>
       <c r="X64">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y64">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
         <v>-1</v>
       </c>
       <c r="AA64">
-        <v>0.77</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB64">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6401,7 +6401,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6008768</v>
+        <v>6011392</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6413,73 +6413,73 @@
         <v>45075.5</v>
       </c>
       <c r="F67" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G67" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H67">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K67">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="L67">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="M67">
-        <v>12</v>
+        <v>3.1</v>
       </c>
       <c r="N67">
-        <v>1.2</v>
+        <v>2.45</v>
       </c>
       <c r="O67">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="P67">
-        <v>15</v>
+        <v>3.1</v>
       </c>
       <c r="Q67">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R67">
-        <v>1.9</v>
+        <v>2.14</v>
       </c>
       <c r="S67">
-        <v>1.95</v>
+        <v>1.77</v>
       </c>
       <c r="T67">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U67">
+        <v>2.025</v>
+      </c>
+      <c r="V67">
         <v>1.825</v>
       </c>
-      <c r="V67">
-        <v>2.025</v>
-      </c>
       <c r="W67">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z67">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>0.77</v>
       </c>
       <c r="AB67">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC67">
         <v>-1</v>
@@ -6772,7 +6772,7 @@
         <v>42</v>
       </c>
       <c r="G71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H71">
         <v>4</v>
@@ -7024,7 +7024,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6011981</v>
+        <v>6011480</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,73 +7036,73 @@
         <v>45081.5</v>
       </c>
       <c r="F74" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G74" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K74">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="L74">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M74">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="N74">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="O74">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P74">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q74">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R74">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S74">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T74">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U74">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V74">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W74">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z74">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB74">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -7113,7 +7113,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6011480</v>
+        <v>6011981</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7125,73 +7125,73 @@
         <v>45081.5</v>
       </c>
       <c r="F75" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G75" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H75">
+        <v>3</v>
+      </c>
+      <c r="I75">
         <v>1</v>
       </c>
-      <c r="I75">
-        <v>2</v>
-      </c>
       <c r="J75" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K75">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="L75">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M75">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="N75">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="O75">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P75">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q75">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R75">
+        <v>1.95</v>
+      </c>
+      <c r="S75">
+        <v>1.9</v>
+      </c>
+      <c r="T75">
+        <v>2.75</v>
+      </c>
+      <c r="U75">
         <v>1.925</v>
       </c>
-      <c r="S75">
+      <c r="V75">
         <v>1.925</v>
       </c>
-      <c r="T75">
-        <v>2.5</v>
-      </c>
-      <c r="U75">
-        <v>1.85</v>
-      </c>
-      <c r="V75">
-        <v>2</v>
-      </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA75">
+        <v>-1</v>
+      </c>
+      <c r="AB75">
         <v>0.925</v>
-      </c>
-      <c r="AB75">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC75">
         <v>-1</v>
@@ -7573,7 +7573,7 @@
         <v>43</v>
       </c>
       <c r="G80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7647,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6011396</v>
+        <v>6008770</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7659,76 +7659,76 @@
         <v>45088.5</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G81" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K81">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="L81">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M81">
-        <v>3.1</v>
+        <v>1.833</v>
       </c>
       <c r="N81">
-        <v>2.375</v>
+        <v>5.75</v>
       </c>
       <c r="O81">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P81">
-        <v>3.1</v>
+        <v>1.571</v>
       </c>
       <c r="Q81">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R81">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S81">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T81">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U81">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V81">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA81">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7736,7 +7736,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6008770</v>
+        <v>6011396</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7748,76 +7748,76 @@
         <v>45088.5</v>
       </c>
       <c r="F82" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G82" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K82">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="L82">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M82">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="N82">
-        <v>5.75</v>
+        <v>2.375</v>
       </c>
       <c r="O82">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P82">
-        <v>1.571</v>
+        <v>3.1</v>
       </c>
       <c r="Q82">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R82">
+        <v>2.1</v>
+      </c>
+      <c r="S82">
+        <v>1.775</v>
+      </c>
+      <c r="T82">
+        <v>2.25</v>
+      </c>
+      <c r="U82">
         <v>1.9</v>
       </c>
-      <c r="S82">
+      <c r="V82">
         <v>1.95</v>
       </c>
-      <c r="T82">
-        <v>2.75</v>
-      </c>
-      <c r="U82">
-        <v>1.825</v>
-      </c>
-      <c r="V82">
-        <v>2.025</v>
-      </c>
       <c r="W82">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z82">
+        <v>-1</v>
+      </c>
+      <c r="AA82">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB82">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA82">
-        <v>-1</v>
-      </c>
-      <c r="AB82">
-        <v>-1</v>
-      </c>
       <c r="AC82">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6011398</v>
+        <v>6011397</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,76 +8193,76 @@
         <v>45102.5</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G87" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87">
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K87">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L87">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M87">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="N87">
         <v>2.4</v>
       </c>
       <c r="O87">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P87">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q87">
         <v>-0.25</v>
       </c>
       <c r="R87">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S87">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T87">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U87">
         <v>2.05</v>
       </c>
       <c r="V87">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W87">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z87">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB87">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6011397</v>
+        <v>6011398</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,76 +8282,76 @@
         <v>45102.5</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88">
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K88">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L88">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M88">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="N88">
         <v>2.4</v>
       </c>
       <c r="O88">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P88">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="Q88">
         <v>-0.25</v>
       </c>
       <c r="R88">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="S88">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T88">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U88">
         <v>2.05</v>
       </c>
       <c r="V88">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA88">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC88">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8460,7 +8460,7 @@
         <v>45102.59375</v>
       </c>
       <c r="F90" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G90" t="s">
         <v>38</v>
@@ -8641,7 +8641,7 @@
         <v>41</v>
       </c>
       <c r="G92" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6011484</v>
+        <v>6011400</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,76 +8727,76 @@
         <v>45109.5</v>
       </c>
       <c r="F93" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G93" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
         <v>1</v>
       </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
       <c r="J93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K93">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="L93">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M93">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="N93">
-        <v>3.2</v>
+        <v>1.65</v>
       </c>
       <c r="O93">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P93">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q93">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R93">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S93">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T93">
         <v>2.5</v>
       </c>
       <c r="U93">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V93">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W93">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z93">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB93">
         <v>-1</v>
       </c>
       <c r="AC93">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8804,7 +8804,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6011485</v>
+        <v>6011484</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8816,40 +8816,40 @@
         <v>45109.5</v>
       </c>
       <c r="F94" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G94" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
         <v>45</v>
       </c>
       <c r="K94">
-        <v>1.25</v>
+        <v>3.2</v>
       </c>
       <c r="L94">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="M94">
-        <v>10</v>
+        <v>2.2</v>
       </c>
       <c r="N94">
-        <v>1.333</v>
+        <v>3.2</v>
       </c>
       <c r="O94">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P94">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="Q94">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R94">
         <v>1.925</v>
@@ -8858,16 +8858,16 @@
         <v>1.925</v>
       </c>
       <c r="T94">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U94">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V94">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W94">
-        <v>0.333</v>
+        <v>2.2</v>
       </c>
       <c r="X94">
         <v>-1</v>
@@ -8876,16 +8876,16 @@
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA94">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6011486</v>
+        <v>6011485</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,13 +8905,13 @@
         <v>45109.5</v>
       </c>
       <c r="F95" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G95" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H95">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I95">
         <v>1</v>
@@ -8920,40 +8920,40 @@
         <v>45</v>
       </c>
       <c r="K95">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="L95">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="M95">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N95">
         <v>1.333</v>
       </c>
       <c r="O95">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="P95">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q95">
         <v>-1.5</v>
       </c>
       <c r="R95">
+        <v>1.925</v>
+      </c>
+      <c r="S95">
+        <v>1.925</v>
+      </c>
+      <c r="T95">
+        <v>3.25</v>
+      </c>
+      <c r="U95">
         <v>1.875</v>
       </c>
-      <c r="S95">
+      <c r="V95">
         <v>1.975</v>
-      </c>
-      <c r="T95">
-        <v>3.5</v>
-      </c>
-      <c r="U95">
-        <v>1.825</v>
-      </c>
-      <c r="V95">
-        <v>2.025</v>
       </c>
       <c r="W95">
         <v>0.333</v>
@@ -8965,16 +8965,16 @@
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB95">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6011400</v>
+        <v>6011486</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,76 +8994,76 @@
         <v>45109.5</v>
       </c>
       <c r="F96" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G96" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I96">
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K96">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="L96">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M96">
+        <v>6</v>
+      </c>
+      <c r="N96">
+        <v>1.333</v>
+      </c>
+      <c r="O96">
         <v>5.25</v>
       </c>
-      <c r="N96">
-        <v>1.65</v>
-      </c>
-      <c r="O96">
-        <v>3.8</v>
-      </c>
       <c r="P96">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="Q96">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R96">
+        <v>1.875</v>
+      </c>
+      <c r="S96">
+        <v>1.975</v>
+      </c>
+      <c r="T96">
+        <v>3.5</v>
+      </c>
+      <c r="U96">
         <v>1.825</v>
       </c>
-      <c r="S96">
+      <c r="V96">
         <v>2.025</v>
       </c>
-      <c r="T96">
-        <v>2.5</v>
-      </c>
-      <c r="U96">
-        <v>1.875</v>
-      </c>
-      <c r="V96">
-        <v>1.975</v>
-      </c>
       <c r="W96">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA96">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC96">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9175,7 +9175,7 @@
         <v>32</v>
       </c>
       <c r="G98" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>45116.5</v>
       </c>
       <c r="F102" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G102" t="s">
         <v>30</v>
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6011489</v>
+        <v>6008607</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,76 +9617,76 @@
         <v>45116.5</v>
       </c>
       <c r="F103" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H103">
         <v>0</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K103">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="L103">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M103">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="N103">
-        <v>2.75</v>
+        <v>5.75</v>
       </c>
       <c r="O103">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P103">
-        <v>2.7</v>
+        <v>1.533</v>
       </c>
       <c r="Q103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R103">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="S103">
-        <v>1.96</v>
+        <v>1.85</v>
       </c>
       <c r="T103">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U103">
+        <v>1.975</v>
+      </c>
+      <c r="V103">
         <v>1.875</v>
       </c>
-      <c r="V103">
-        <v>1.975</v>
-      </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z103">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB103">
         <v>-1</v>
       </c>
       <c r="AC103">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6008607</v>
+        <v>6011489</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,76 +9795,76 @@
         <v>45116.5</v>
       </c>
       <c r="F105" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G105" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H105">
         <v>0</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K105">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="L105">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M105">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="N105">
-        <v>5.75</v>
+        <v>2.75</v>
       </c>
       <c r="O105">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="P105">
-        <v>1.533</v>
+        <v>2.7</v>
       </c>
       <c r="Q105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R105">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="S105">
-        <v>1.85</v>
+        <v>1.96</v>
       </c>
       <c r="T105">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U105">
+        <v>1.875</v>
+      </c>
+      <c r="V105">
         <v>1.975</v>
       </c>
-      <c r="V105">
-        <v>1.875</v>
-      </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y105">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA105">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB105">
         <v>-1</v>
       </c>
       <c r="AC105">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10139,7 +10139,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6011490</v>
+        <v>6011491</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10151,28 +10151,28 @@
         <v>45123.5</v>
       </c>
       <c r="F109" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G109" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H109">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I109">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J109" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K109">
-        <v>1.333</v>
+        <v>1.444</v>
       </c>
       <c r="L109">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="M109">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="N109">
         <v>1.363</v>
@@ -10181,7 +10181,7 @@
         <v>5.25</v>
       </c>
       <c r="P109">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Q109">
         <v>-1.5</v>
@@ -10193,31 +10193,31 @@
         <v>1.925</v>
       </c>
       <c r="T109">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U109">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V109">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W109">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z109">
+        <v>-1</v>
+      </c>
+      <c r="AA109">
         <v>0.925</v>
       </c>
-      <c r="AA109">
-        <v>-1</v>
-      </c>
       <c r="AB109">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC109">
         <v>-1</v>
@@ -10228,7 +10228,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6011402</v>
+        <v>6008608</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10240,76 +10240,76 @@
         <v>45123.5</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G110" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K110">
-        <v>2.3</v>
+        <v>1.181</v>
       </c>
       <c r="L110">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="M110">
-        <v>3.1</v>
+        <v>11</v>
       </c>
       <c r="N110">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="O110">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="P110">
-        <v>3.3</v>
+        <v>11</v>
       </c>
       <c r="Q110">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R110">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S110">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T110">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="U110">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V110">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
         <v>-1</v>
       </c>
       <c r="AA110">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AB110">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC110">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10317,7 +10317,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6008608</v>
+        <v>6011402</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10329,76 +10329,76 @@
         <v>45123.5</v>
       </c>
       <c r="F111" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G111" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J111" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K111">
-        <v>1.181</v>
+        <v>2.3</v>
       </c>
       <c r="L111">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="M111">
-        <v>11</v>
+        <v>3.1</v>
       </c>
       <c r="N111">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="O111">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="P111">
-        <v>11</v>
+        <v>3.3</v>
       </c>
       <c r="Q111">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S111">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T111">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="U111">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V111">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W111">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z111">
         <v>-1</v>
       </c>
       <c r="AA111">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AB111">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC111">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10495,7 +10495,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6011491</v>
+        <v>6011490</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10507,28 +10507,28 @@
         <v>45123.5</v>
       </c>
       <c r="F113" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G113" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H113">
+        <v>4</v>
+      </c>
+      <c r="I113">
         <v>2</v>
       </c>
-      <c r="I113">
-        <v>3</v>
-      </c>
       <c r="J113" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K113">
-        <v>1.444</v>
+        <v>1.333</v>
       </c>
       <c r="L113">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M113">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="N113">
         <v>1.363</v>
@@ -10537,7 +10537,7 @@
         <v>5.25</v>
       </c>
       <c r="P113">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Q113">
         <v>-1.5</v>
@@ -10549,31 +10549,31 @@
         <v>1.925</v>
       </c>
       <c r="T113">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U113">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V113">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA113">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -10599,7 +10599,7 @@
         <v>35</v>
       </c>
       <c r="G114" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6011493</v>
+        <v>6008609</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,76 +10863,76 @@
         <v>45130.5</v>
       </c>
       <c r="F117" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G117" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J117" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K117">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="L117">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M117">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="N117">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="O117">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P117">
-        <v>2.05</v>
+        <v>1.363</v>
       </c>
       <c r="Q117">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R117">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="S117">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="T117">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U117">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V117">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W117">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z117">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC117">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6011492</v>
+        <v>6011493</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,58 +10952,58 @@
         <v>45130.5</v>
       </c>
       <c r="F118" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G118" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H118">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
         <v>45</v>
       </c>
       <c r="K118">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="L118">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M118">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="N118">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="O118">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P118">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="Q118">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R118">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="S118">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="T118">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U118">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V118">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W118">
-        <v>1.375</v>
+        <v>2.3</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11012,16 +11012,16 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AA118">
         <v>-1</v>
       </c>
       <c r="AB118">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11029,7 +11029,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6011405</v>
+        <v>6011492</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11041,58 +11041,58 @@
         <v>45130.5</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G119" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H119">
         <v>3</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
         <v>45</v>
       </c>
       <c r="K119">
+        <v>2.25</v>
+      </c>
+      <c r="L119">
+        <v>3.4</v>
+      </c>
+      <c r="M119">
+        <v>2.8</v>
+      </c>
+      <c r="N119">
+        <v>2.375</v>
+      </c>
+      <c r="O119">
         <v>3.3</v>
       </c>
-      <c r="L119">
-        <v>3.5</v>
-      </c>
-      <c r="M119">
-        <v>1.95</v>
-      </c>
-      <c r="N119">
+      <c r="P119">
         <v>3.1</v>
       </c>
-      <c r="O119">
-        <v>3.5</v>
-      </c>
-      <c r="P119">
-        <v>2.25</v>
-      </c>
       <c r="Q119">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R119">
-        <v>1.875</v>
+        <v>2.09</v>
       </c>
       <c r="S119">
-        <v>1.975</v>
+        <v>1.81</v>
       </c>
       <c r="T119">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U119">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V119">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W119">
-        <v>2.1</v>
+        <v>1.375</v>
       </c>
       <c r="X119">
         <v>-1</v>
@@ -11101,13 +11101,13 @@
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.875</v>
+        <v>1.09</v>
       </c>
       <c r="AA119">
         <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AC119">
         <v>-1</v>
@@ -11118,7 +11118,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6011404</v>
+        <v>6011405</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11130,13 +11130,13 @@
         <v>45130.5</v>
       </c>
       <c r="F120" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G120" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I120">
         <v>1</v>
@@ -11145,43 +11145,43 @@
         <v>45</v>
       </c>
       <c r="K120">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="L120">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M120">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="N120">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="O120">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P120">
-        <v>2.875</v>
+        <v>2.25</v>
       </c>
       <c r="Q120">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R120">
-        <v>2.11</v>
+        <v>1.875</v>
       </c>
       <c r="S120">
-        <v>1.79</v>
+        <v>1.975</v>
       </c>
       <c r="T120">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U120">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V120">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W120">
-        <v>1.45</v>
+        <v>2.1</v>
       </c>
       <c r="X120">
         <v>-1</v>
@@ -11190,13 +11190,13 @@
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>1.11</v>
+        <v>0.875</v>
       </c>
       <c r="AA120">
         <v>-1</v>
       </c>
       <c r="AB120">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11207,7 +11207,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6008609</v>
+        <v>6011404</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11219,73 +11219,73 @@
         <v>45130.5</v>
       </c>
       <c r="F121" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G121" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H121">
         <v>2</v>
       </c>
       <c r="I121">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K121">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="L121">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M121">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="N121">
-        <v>8</v>
+        <v>2.45</v>
       </c>
       <c r="O121">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P121">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="Q121">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R121">
-        <v>1.97</v>
+        <v>2.11</v>
       </c>
       <c r="S121">
-        <v>1.93</v>
+        <v>1.79</v>
       </c>
       <c r="T121">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U121">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V121">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>1.11</v>
       </c>
       <c r="AA121">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC121">
         <v>-1</v>
@@ -11308,7 +11308,7 @@
         <v>45130.59375</v>
       </c>
       <c r="F122" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G122" t="s">
         <v>29</v>
@@ -11756,7 +11756,7 @@
         <v>29</v>
       </c>
       <c r="G127" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H127">
         <v>3</v>
@@ -11919,7 +11919,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6011495</v>
+        <v>6011991</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11931,40 +11931,40 @@
         <v>45137.5</v>
       </c>
       <c r="F129" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G129" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K129">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="L129">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M129">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="N129">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O129">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P129">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q129">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R129">
         <v>2.025</v>
@@ -11973,34 +11973,34 @@
         <v>1.825</v>
       </c>
       <c r="T129">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U129">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V129">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W129">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z129">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB129">
         <v>-1</v>
       </c>
       <c r="AC129">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12008,7 +12008,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6011991</v>
+        <v>6011495</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12020,40 +12020,40 @@
         <v>45137.5</v>
       </c>
       <c r="F130" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G130" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H130">
+        <v>1</v>
+      </c>
+      <c r="I130">
         <v>0</v>
       </c>
-      <c r="I130">
-        <v>2</v>
-      </c>
       <c r="J130" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K130">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="L130">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M130">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="N130">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="O130">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P130">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q130">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R130">
         <v>2.025</v>
@@ -12062,34 +12062,34 @@
         <v>1.825</v>
       </c>
       <c r="T130">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U130">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA130">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12198,7 +12198,7 @@
         <v>45143.54166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G132" t="s">
         <v>43</v>
@@ -12287,7 +12287,7 @@
         <v>45144.5</v>
       </c>
       <c r="F133" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G133" t="s">
         <v>32</v>
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6011500</v>
+        <v>6011499</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,13 +12465,13 @@
         <v>45144.5</v>
       </c>
       <c r="F135" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G135" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135">
         <v>2</v>
@@ -12480,34 +12480,34 @@
         <v>46</v>
       </c>
       <c r="K135">
+        <v>3.8</v>
+      </c>
+      <c r="L135">
+        <v>4</v>
+      </c>
+      <c r="M135">
+        <v>1.8</v>
+      </c>
+      <c r="N135">
+        <v>3.75</v>
+      </c>
+      <c r="O135">
+        <v>3.8</v>
+      </c>
+      <c r="P135">
+        <v>1.85</v>
+      </c>
+      <c r="Q135">
+        <v>0.5</v>
+      </c>
+      <c r="R135">
+        <v>1.95</v>
+      </c>
+      <c r="S135">
+        <v>1.9</v>
+      </c>
+      <c r="T135">
         <v>3</v>
-      </c>
-      <c r="L135">
-        <v>3.4</v>
-      </c>
-      <c r="M135">
-        <v>2.3</v>
-      </c>
-      <c r="N135">
-        <v>2.5</v>
-      </c>
-      <c r="O135">
-        <v>3.4</v>
-      </c>
-      <c r="P135">
-        <v>2.75</v>
-      </c>
-      <c r="Q135">
-        <v>0</v>
-      </c>
-      <c r="R135">
-        <v>1.8</v>
-      </c>
-      <c r="S135">
-        <v>2.05</v>
-      </c>
-      <c r="T135">
-        <v>2.5</v>
       </c>
       <c r="U135">
         <v>1.875</v>
@@ -12522,19 +12522,19 @@
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>1.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB135">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6011501</v>
+        <v>6011500</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12554,73 +12554,73 @@
         <v>45144.5</v>
       </c>
       <c r="F136" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G136" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H136">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K136">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="L136">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M136">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="N136">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="O136">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P136">
+        <v>2.75</v>
+      </c>
+      <c r="Q136">
+        <v>0</v>
+      </c>
+      <c r="R136">
         <v>1.8</v>
       </c>
-      <c r="Q136">
-        <v>0.5</v>
-      </c>
-      <c r="R136">
-        <v>2.025</v>
-      </c>
       <c r="S136">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T136">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U136">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V136">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W136">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z136">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB136">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -12631,7 +12631,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6011499</v>
+        <v>6011501</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12643,76 +12643,76 @@
         <v>45144.5</v>
       </c>
       <c r="F137" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G137" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K137">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="L137">
+        <v>4.2</v>
+      </c>
+      <c r="M137">
+        <v>1.615</v>
+      </c>
+      <c r="N137">
+        <v>4.2</v>
+      </c>
+      <c r="O137">
         <v>4</v>
       </c>
-      <c r="M137">
+      <c r="P137">
         <v>1.8</v>
-      </c>
-      <c r="N137">
-        <v>3.75</v>
-      </c>
-      <c r="O137">
-        <v>3.8</v>
-      </c>
-      <c r="P137">
-        <v>1.85</v>
       </c>
       <c r="Q137">
         <v>0.5</v>
       </c>
       <c r="R137">
+        <v>2.025</v>
+      </c>
+      <c r="S137">
+        <v>1.825</v>
+      </c>
+      <c r="T137">
+        <v>3.25</v>
+      </c>
+      <c r="U137">
         <v>1.95</v>
       </c>
-      <c r="S137">
+      <c r="V137">
         <v>1.9</v>
       </c>
-      <c r="T137">
-        <v>3</v>
-      </c>
-      <c r="U137">
-        <v>1.875</v>
-      </c>
-      <c r="V137">
-        <v>1.975</v>
-      </c>
       <c r="W137">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA137">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC137">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12913,7 +12913,7 @@
         <v>30</v>
       </c>
       <c r="G140" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H140">
         <v>1</v>
@@ -13254,7 +13254,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6011410</v>
+        <v>6008778</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13266,76 +13266,76 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F144" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G144" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H144">
         <v>0</v>
       </c>
       <c r="I144">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K144">
-        <v>2.8</v>
+        <v>1.363</v>
       </c>
       <c r="L144">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M144">
-        <v>2.375</v>
+        <v>8</v>
       </c>
       <c r="N144">
-        <v>2.625</v>
+        <v>1.571</v>
       </c>
       <c r="O144">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P144">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q144">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R144">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S144">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T144">
         <v>3</v>
       </c>
       <c r="U144">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V144">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y144">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB144">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13343,7 +13343,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6008778</v>
+        <v>6011410</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13355,76 +13355,76 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F145" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G145" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H145">
         <v>0</v>
       </c>
       <c r="I145">
+        <v>3</v>
+      </c>
+      <c r="J145" t="s">
+        <v>46</v>
+      </c>
+      <c r="K145">
+        <v>2.8</v>
+      </c>
+      <c r="L145">
+        <v>3.5</v>
+      </c>
+      <c r="M145">
+        <v>2.375</v>
+      </c>
+      <c r="N145">
+        <v>2.625</v>
+      </c>
+      <c r="O145">
+        <v>3.75</v>
+      </c>
+      <c r="P145">
+        <v>2.5</v>
+      </c>
+      <c r="Q145">
         <v>0</v>
       </c>
-      <c r="J145" t="s">
-        <v>47</v>
-      </c>
-      <c r="K145">
-        <v>1.363</v>
-      </c>
-      <c r="L145">
-        <v>5</v>
-      </c>
-      <c r="M145">
-        <v>8</v>
-      </c>
-      <c r="N145">
-        <v>1.571</v>
-      </c>
-      <c r="O145">
-        <v>4.2</v>
-      </c>
-      <c r="P145">
-        <v>5.25</v>
-      </c>
-      <c r="Q145">
-        <v>-1</v>
-      </c>
       <c r="R145">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S145">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T145">
         <v>3</v>
       </c>
       <c r="U145">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V145">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z145">
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC145">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13521,7 +13521,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6011411</v>
+        <v>6008613</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13533,76 +13533,76 @@
         <v>45158.5</v>
       </c>
       <c r="F147" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G147" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H147">
         <v>1</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J147" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K147">
-        <v>1.533</v>
+        <v>6</v>
       </c>
       <c r="L147">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M147">
-        <v>6</v>
+        <v>1.45</v>
       </c>
       <c r="N147">
-        <v>1.5</v>
+        <v>7</v>
       </c>
       <c r="O147">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P147">
-        <v>7</v>
+        <v>1.45</v>
       </c>
       <c r="Q147">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R147">
-        <v>2.08</v>
+        <v>1.825</v>
       </c>
       <c r="S147">
-        <v>1.82</v>
+        <v>2.025</v>
       </c>
       <c r="T147">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U147">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V147">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W147">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X147">
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z147">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>0.41</v>
+        <v>1.025</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC147">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13610,7 +13610,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6008613</v>
+        <v>6011504</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13622,40 +13622,40 @@
         <v>45158.5</v>
       </c>
       <c r="F148" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G148" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H148">
+        <v>5</v>
+      </c>
+      <c r="I148">
         <v>1</v>
       </c>
-      <c r="I148">
-        <v>3</v>
-      </c>
       <c r="J148" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K148">
-        <v>6</v>
+        <v>1.222</v>
       </c>
       <c r="L148">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="M148">
-        <v>1.45</v>
+        <v>10</v>
       </c>
       <c r="N148">
-        <v>7</v>
+        <v>1.25</v>
       </c>
       <c r="O148">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="P148">
-        <v>1.45</v>
+        <v>8.5</v>
       </c>
       <c r="Q148">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R148">
         <v>1.825</v>
@@ -13664,31 +13664,31 @@
         <v>2.025</v>
       </c>
       <c r="T148">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U148">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V148">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W148">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA148">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC148">
         <v>-1</v>
@@ -13699,7 +13699,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6011504</v>
+        <v>6011995</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13711,58 +13711,58 @@
         <v>45158.5</v>
       </c>
       <c r="F149" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G149" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H149">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149" t="s">
         <v>45</v>
       </c>
       <c r="K149">
-        <v>1.222</v>
+        <v>1.4</v>
       </c>
       <c r="L149">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="M149">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N149">
-        <v>1.25</v>
+        <v>1.444</v>
       </c>
       <c r="O149">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="P149">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="Q149">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R149">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S149">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T149">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U149">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V149">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W149">
-        <v>0.25</v>
+        <v>0.444</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13771,16 +13771,16 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA149">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB149">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC149">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13788,7 +13788,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6011995</v>
+        <v>6011411</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13800,10 +13800,10 @@
         <v>45158.5</v>
       </c>
       <c r="F150" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G150" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -13815,19 +13815,19 @@
         <v>45</v>
       </c>
       <c r="K150">
-        <v>1.4</v>
+        <v>1.533</v>
       </c>
       <c r="L150">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M150">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N150">
-        <v>1.444</v>
+        <v>1.5</v>
       </c>
       <c r="O150">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P150">
         <v>7</v>
@@ -13836,22 +13836,22 @@
         <v>-1.25</v>
       </c>
       <c r="R150">
-        <v>1.925</v>
+        <v>2.08</v>
       </c>
       <c r="S150">
-        <v>1.925</v>
+        <v>1.82</v>
       </c>
       <c r="T150">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U150">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V150">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W150">
-        <v>0.444</v>
+        <v>0.5</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13863,13 +13863,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA150">
-        <v>0.4625</v>
+        <v>0.41</v>
       </c>
       <c r="AB150">
         <v>-1</v>
       </c>
       <c r="AC150">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13889,7 +13889,7 @@
         <v>45158.59375</v>
       </c>
       <c r="F151" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G151" t="s">
         <v>44</v>
@@ -14070,7 +14070,7 @@
         <v>43</v>
       </c>
       <c r="G153" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H153">
         <v>2</v>
@@ -14411,7 +14411,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6011415</v>
+        <v>6011414</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14423,58 +14423,58 @@
         <v>45172.5</v>
       </c>
       <c r="F157" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G157" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H157">
         <v>3</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J157" t="s">
         <v>45</v>
       </c>
       <c r="K157">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="L157">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M157">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N157">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O157">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P157">
         <v>3.5</v>
       </c>
       <c r="Q157">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R157">
-        <v>1.875</v>
+        <v>2.01</v>
       </c>
       <c r="S157">
-        <v>1.975</v>
+        <v>1.89</v>
       </c>
       <c r="T157">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U157">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V157">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="W157">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="X157">
         <v>-1</v>
@@ -14483,13 +14483,13 @@
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.875</v>
+        <v>1.01</v>
       </c>
       <c r="AA157">
         <v>-1</v>
       </c>
       <c r="AB157">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC157">
         <v>-1</v>
@@ -14500,7 +14500,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6011414</v>
+        <v>6008780</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14512,76 +14512,76 @@
         <v>45172.5</v>
       </c>
       <c r="F158" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G158" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H158">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I158">
         <v>2</v>
       </c>
       <c r="J158" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K158">
-        <v>1.7</v>
+        <v>4.75</v>
       </c>
       <c r="L158">
         <v>4</v>
       </c>
       <c r="M158">
-        <v>4</v>
+        <v>1.571</v>
       </c>
       <c r="N158">
-        <v>2</v>
+        <v>5.25</v>
       </c>
       <c r="O158">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P158">
-        <v>3.5</v>
+        <v>1.65</v>
       </c>
       <c r="Q158">
+        <v>0.75</v>
+      </c>
+      <c r="R158">
+        <v>2.05</v>
+      </c>
+      <c r="S158">
+        <v>1.8</v>
+      </c>
+      <c r="T158">
+        <v>3</v>
+      </c>
+      <c r="U158">
+        <v>2.025</v>
+      </c>
+      <c r="V158">
+        <v>1.825</v>
+      </c>
+      <c r="W158">
+        <v>-1</v>
+      </c>
+      <c r="X158">
+        <v>-1</v>
+      </c>
+      <c r="Y158">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="Z158">
         <v>-0.5</v>
       </c>
-      <c r="R158">
-        <v>2.01</v>
-      </c>
-      <c r="S158">
-        <v>1.89</v>
-      </c>
-      <c r="T158">
-        <v>2.75</v>
-      </c>
-      <c r="U158">
-        <v>1.775</v>
-      </c>
-      <c r="V158">
-        <v>2.1</v>
-      </c>
-      <c r="W158">
-        <v>1</v>
-      </c>
-      <c r="X158">
-        <v>-1</v>
-      </c>
-      <c r="Y158">
-        <v>-1</v>
-      </c>
-      <c r="Z158">
-        <v>1.01</v>
-      </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB158">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC158">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14589,7 +14589,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6008780</v>
+        <v>6011415</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14601,76 +14601,76 @@
         <v>45172.5</v>
       </c>
       <c r="F159" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G159" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H159">
+        <v>3</v>
+      </c>
+      <c r="I159">
         <v>1</v>
       </c>
-      <c r="I159">
+      <c r="J159" t="s">
+        <v>45</v>
+      </c>
+      <c r="K159">
+        <v>2.05</v>
+      </c>
+      <c r="L159">
+        <v>3.5</v>
+      </c>
+      <c r="M159">
+        <v>3.1</v>
+      </c>
+      <c r="N159">
+        <v>2.15</v>
+      </c>
+      <c r="O159">
+        <v>3.4</v>
+      </c>
+      <c r="P159">
+        <v>3.5</v>
+      </c>
+      <c r="Q159">
+        <v>-0.25</v>
+      </c>
+      <c r="R159">
+        <v>1.875</v>
+      </c>
+      <c r="S159">
+        <v>1.975</v>
+      </c>
+      <c r="T159">
+        <v>2.5</v>
+      </c>
+      <c r="U159">
         <v>2</v>
       </c>
-      <c r="J159" t="s">
-        <v>46</v>
-      </c>
-      <c r="K159">
-        <v>4.75</v>
-      </c>
-      <c r="L159">
-        <v>4</v>
-      </c>
-      <c r="M159">
-        <v>1.571</v>
-      </c>
-      <c r="N159">
-        <v>5.25</v>
-      </c>
-      <c r="O159">
-        <v>4.2</v>
-      </c>
-      <c r="P159">
-        <v>1.65</v>
-      </c>
-      <c r="Q159">
-        <v>0.75</v>
-      </c>
-      <c r="R159">
-        <v>2.05</v>
-      </c>
-      <c r="S159">
-        <v>1.8</v>
-      </c>
-      <c r="T159">
-        <v>3</v>
-      </c>
-      <c r="U159">
-        <v>2.025</v>
-      </c>
       <c r="V159">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W159">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X159">
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA159">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC159">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14868,7 +14868,7 @@
         <v>45172.5</v>
       </c>
       <c r="F162" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G162" t="s">
         <v>32</v>
@@ -15049,7 +15049,7 @@
         <v>42</v>
       </c>
       <c r="G164" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H164">
         <v>2</v>
@@ -15138,7 +15138,7 @@
         <v>37</v>
       </c>
       <c r="G165" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H165">
         <v>4</v>
@@ -16025,7 +16025,7 @@
         <v>45193.5</v>
       </c>
       <c r="F175" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G175" t="s">
         <v>41</v>
@@ -16114,7 +16114,7 @@
         <v>45193.5</v>
       </c>
       <c r="F176" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G176" t="s">
         <v>37</v>
@@ -16829,7 +16829,7 @@
         <v>38</v>
       </c>
       <c r="G184" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H184">
         <v>2</v>
@@ -17004,7 +17004,7 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F186" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G186" t="s">
         <v>36</v>
@@ -17541,7 +17541,7 @@
         <v>41</v>
       </c>
       <c r="G192" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -18250,10 +18250,10 @@
         <v>45221.5</v>
       </c>
       <c r="F200" t="s">
+        <v>39</v>
+      </c>
+      <c r="G200" t="s">
         <v>40</v>
-      </c>
-      <c r="G200" t="s">
-        <v>39</v>
       </c>
       <c r="H200">
         <v>3</v>
@@ -18517,7 +18517,7 @@
         <v>45228.54166666666</v>
       </c>
       <c r="F203" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G203" t="s">
         <v>36</v>
@@ -18784,7 +18784,7 @@
         <v>45228.54166666666</v>
       </c>
       <c r="F206" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G206" t="s">
         <v>33</v>
@@ -19321,7 +19321,7 @@
         <v>35</v>
       </c>
       <c r="G212" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H212">
         <v>2</v>
@@ -19677,7 +19677,7 @@
         <v>31</v>
       </c>
       <c r="G216" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H216">
         <v>0</v>
@@ -19929,7 +19929,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6011527</v>
+        <v>6011428</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19941,76 +19941,76 @@
         <v>45242.54166666666</v>
       </c>
       <c r="F219" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G219" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H219">
         <v>1</v>
       </c>
       <c r="I219">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J219" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K219">
-        <v>1.125</v>
+        <v>3.4</v>
       </c>
       <c r="L219">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="M219">
-        <v>15</v>
+        <v>2.05</v>
       </c>
       <c r="N219">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="O219">
-        <v>10</v>
+        <v>3.6</v>
       </c>
       <c r="P219">
-        <v>21</v>
+        <v>1.909</v>
       </c>
       <c r="Q219">
-        <v>-2.75</v>
+        <v>0.5</v>
       </c>
       <c r="R219">
-        <v>1.88</v>
+        <v>1.975</v>
       </c>
       <c r="S219">
-        <v>2.02</v>
+        <v>1.875</v>
       </c>
       <c r="T219">
-        <v>4.25</v>
+        <v>2.5</v>
       </c>
       <c r="U219">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V219">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W219">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X219">
         <v>-1</v>
       </c>
       <c r="Y219">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z219">
         <v>-1</v>
       </c>
       <c r="AA219">
-        <v>1.02</v>
+        <v>0.875</v>
       </c>
       <c r="AB219">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC219">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20018,7 +20018,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6011428</v>
+        <v>6011529</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20030,73 +20030,73 @@
         <v>45242.54166666666</v>
       </c>
       <c r="F220" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G220" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I220">
         <v>2</v>
       </c>
       <c r="J220" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K220">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="L220">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M220">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="N220">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="O220">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P220">
-        <v>1.909</v>
+        <v>3.25</v>
       </c>
       <c r="Q220">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R220">
-        <v>1.975</v>
+        <v>1.88</v>
       </c>
       <c r="S220">
-        <v>1.875</v>
+        <v>2.02</v>
       </c>
       <c r="T220">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U220">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V220">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W220">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X220">
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z220">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AA220">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB220">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC220">
         <v>-1</v>
@@ -20107,7 +20107,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6011529</v>
+        <v>6011527</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20119,40 +20119,40 @@
         <v>45242.54166666666</v>
       </c>
       <c r="F221" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G221" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H221">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I221">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J221" t="s">
         <v>45</v>
       </c>
       <c r="K221">
-        <v>2.5</v>
+        <v>1.125</v>
       </c>
       <c r="L221">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="M221">
-        <v>2.6</v>
+        <v>15</v>
       </c>
       <c r="N221">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="O221">
-        <v>3.8</v>
+        <v>10</v>
       </c>
       <c r="P221">
-        <v>3.25</v>
+        <v>21</v>
       </c>
       <c r="Q221">
-        <v>-0.25</v>
+        <v>-2.75</v>
       </c>
       <c r="R221">
         <v>1.88</v>
@@ -20161,16 +20161,16 @@
         <v>2.02</v>
       </c>
       <c r="T221">
-        <v>3</v>
+        <v>4.25</v>
       </c>
       <c r="U221">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V221">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W221">
-        <v>1.1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X221">
         <v>-1</v>
@@ -20179,16 +20179,16 @@
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA221">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AB221">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC221">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20196,7 +20196,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6011939</v>
+        <v>6011530</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20208,76 +20208,76 @@
         <v>45242.54166666666</v>
       </c>
       <c r="F222" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G222" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222">
         <v>1</v>
       </c>
       <c r="J222" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K222">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="L222">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M222">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="N222">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="O222">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P222">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q222">
         <v>-0.5</v>
       </c>
       <c r="R222">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S222">
+        <v>1.9</v>
+      </c>
+      <c r="T222">
+        <v>2.75</v>
+      </c>
+      <c r="U222">
         <v>2</v>
       </c>
-      <c r="T222">
-        <v>3.75</v>
-      </c>
-      <c r="U222">
-        <v>1.925</v>
-      </c>
       <c r="V222">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W222">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X222">
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z222">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA222">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB222">
         <v>-1</v>
       </c>
       <c r="AC222">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20285,7 +20285,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6012005</v>
+        <v>6011939</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20297,76 +20297,76 @@
         <v>45242.54166666666</v>
       </c>
       <c r="F223" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G223" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K223">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L223">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M223">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N223">
         <v>1.833</v>
       </c>
       <c r="O223">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P223">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q223">
         <v>-0.5</v>
       </c>
       <c r="R223">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="S223">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="T223">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U223">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="V223">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W223">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X223">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y223">
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA223">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AB223">
         <v>-1</v>
       </c>
       <c r="AC223">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20374,7 +20374,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6011530</v>
+        <v>6012005</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20386,76 +20386,76 @@
         <v>45242.54166666666</v>
       </c>
       <c r="F224" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G224" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H224">
         <v>0</v>
       </c>
       <c r="I224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K224">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L224">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M224">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N224">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="O224">
         <v>3.75</v>
       </c>
       <c r="P224">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q224">
         <v>-0.5</v>
       </c>
       <c r="R224">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="S224">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="T224">
         <v>2.75</v>
       </c>
       <c r="U224">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V224">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W224">
         <v>-1</v>
       </c>
       <c r="X224">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y224">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z224">
         <v>-1</v>
       </c>
       <c r="AA224">
-        <v>0.8999999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AB224">
         <v>-1</v>
       </c>
       <c r="AC224">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20641,7 +20641,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6011430</v>
+        <v>6011532</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20653,76 +20653,76 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F227" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G227" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
         <v>2</v>
       </c>
-      <c r="I227">
-        <v>1</v>
-      </c>
       <c r="J227" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K227">
-        <v>1.533</v>
+        <v>3.2</v>
       </c>
       <c r="L227">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M227">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="N227">
-        <v>1.615</v>
+        <v>4.2</v>
       </c>
       <c r="O227">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P227">
-        <v>5.25</v>
+        <v>1.85</v>
       </c>
       <c r="Q227">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R227">
-        <v>1.86</v>
+        <v>1.975</v>
       </c>
       <c r="S227">
-        <v>2.04</v>
+        <v>1.875</v>
       </c>
       <c r="T227">
         <v>2.5</v>
       </c>
       <c r="U227">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V227">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W227">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X227">
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z227">
-        <v>0.43</v>
+        <v>-1</v>
       </c>
       <c r="AA227">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB227">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC227">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20730,7 +20730,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6011532</v>
+        <v>6011430</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20742,76 +20742,76 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F228" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G228" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J228" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K228">
-        <v>3.2</v>
+        <v>1.533</v>
       </c>
       <c r="L228">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M228">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="N228">
-        <v>4.2</v>
+        <v>1.615</v>
       </c>
       <c r="O228">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P228">
-        <v>1.85</v>
+        <v>5.25</v>
       </c>
       <c r="Q228">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R228">
-        <v>1.975</v>
+        <v>1.86</v>
       </c>
       <c r="S228">
-        <v>1.875</v>
+        <v>2.04</v>
       </c>
       <c r="T228">
         <v>2.5</v>
       </c>
       <c r="U228">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V228">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W228">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X228">
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z228">
-        <v>-1</v>
+        <v>0.43</v>
       </c>
       <c r="AA228">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB228">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC228">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20923,7 +20923,7 @@
         <v>44</v>
       </c>
       <c r="G230" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H230">
         <v>4</v>
@@ -20997,7 +20997,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6011533</v>
+        <v>6011531</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21009,76 +21009,76 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F231" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G231" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J231" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K231">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="L231">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M231">
-        <v>3.4</v>
+        <v>1.571</v>
       </c>
       <c r="N231">
+        <v>3.6</v>
+      </c>
+      <c r="O231">
+        <v>4.2</v>
+      </c>
+      <c r="P231">
         <v>1.85</v>
       </c>
-      <c r="O231">
-        <v>4</v>
-      </c>
-      <c r="P231">
-        <v>3.8</v>
-      </c>
       <c r="Q231">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R231">
-        <v>1.91</v>
+        <v>2.07</v>
       </c>
       <c r="S231">
-        <v>1.99</v>
+        <v>1.83</v>
       </c>
       <c r="T231">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U231">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V231">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W231">
+        <v>-1</v>
+      </c>
+      <c r="X231">
+        <v>-1</v>
+      </c>
+      <c r="Y231">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X231">
-        <v>-1</v>
-      </c>
-      <c r="Y231">
-        <v>-1</v>
-      </c>
       <c r="Z231">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA231">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB231">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AC231">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21086,7 +21086,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6012007</v>
+        <v>6011533</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21098,34 +21098,34 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F232" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G232" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H232">
+        <v>2</v>
+      </c>
+      <c r="I232">
         <v>1</v>
       </c>
-      <c r="I232">
-        <v>3</v>
-      </c>
       <c r="J232" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K232">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L232">
+        <v>3.75</v>
+      </c>
+      <c r="M232">
+        <v>3.4</v>
+      </c>
+      <c r="N232">
+        <v>1.85</v>
+      </c>
+      <c r="O232">
         <v>4</v>
-      </c>
-      <c r="M232">
-        <v>4.2</v>
-      </c>
-      <c r="N232">
-        <v>1.909</v>
-      </c>
-      <c r="O232">
-        <v>3.8</v>
       </c>
       <c r="P232">
         <v>3.8</v>
@@ -21134,40 +21134,40 @@
         <v>-0.5</v>
       </c>
       <c r="R232">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S232">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="T232">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U232">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V232">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W232">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X232">
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z232">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AA232">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="AB232">
-        <v>1.025</v>
+        <v>0.4375</v>
       </c>
       <c r="AC232">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21175,7 +21175,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6011531</v>
+        <v>6012007</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21187,55 +21187,55 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F233" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G233" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I233">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J233" t="s">
         <v>46</v>
       </c>
       <c r="K233">
-        <v>4.75</v>
+        <v>1.727</v>
       </c>
       <c r="L233">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M233">
-        <v>1.571</v>
+        <v>4.2</v>
       </c>
       <c r="N233">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="O233">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P233">
-        <v>1.85</v>
+        <v>3.8</v>
       </c>
       <c r="Q233">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R233">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="S233">
-        <v>1.83</v>
+        <v>1.97</v>
       </c>
       <c r="T233">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U233">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V233">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W233">
         <v>-1</v>
@@ -21244,16 +21244,16 @@
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>0.8500000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="Z233">
         <v>-1</v>
       </c>
       <c r="AA233">
-        <v>0.8300000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="AB233">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC233">
         <v>-1</v>
@@ -21365,7 +21365,7 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F235" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G235" t="s">
         <v>35</v>
@@ -21810,7 +21810,7 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F240" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G240" t="s">
         <v>34</v>

--- a/Norway Eliteserien/Norway Eliteserien.xlsx
+++ b/Norway Eliteserien/Norway Eliteserien.xlsx
@@ -106,19 +106,19 @@
     <t>Rosenborg</t>
   </si>
   <si>
-    <t>HamKam</t>
+    <t>Sarpsborg</t>
+  </si>
+  <si>
+    <t>Stabaek</t>
+  </si>
+  <si>
+    <t>Tromso</t>
   </si>
   <si>
     <t>Aalesund</t>
   </si>
   <si>
-    <t>Tromso</t>
-  </si>
-  <si>
-    <t>Stabaek</t>
-  </si>
-  <si>
-    <t>Sarpsborg</t>
+    <t>HamKam</t>
   </si>
   <si>
     <t>SK Brann</t>
@@ -127,22 +127,22 @@
     <t>Viking FK</t>
   </si>
   <si>
+    <t>Odd BK</t>
+  </si>
+  <si>
     <t>Molde</t>
   </si>
   <si>
-    <t>Odd BK</t>
+    <t>Sandefjord</t>
+  </si>
+  <si>
+    <t>Stromsgodset</t>
   </si>
   <si>
     <t>Haugesund</t>
   </si>
   <si>
-    <t>Sandefjord</t>
-  </si>
-  <si>
     <t>BodoGlimt</t>
-  </si>
-  <si>
-    <t>Stromsgodset</t>
   </si>
   <si>
     <t>Valerenga</t>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6011458</v>
+        <v>6008595</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -720,73 +720,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>2</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
       <c r="J3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K3">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>1.833</v>
+      </c>
+      <c r="N3">
         <v>3.6</v>
       </c>
-      <c r="M3">
-        <v>3.9</v>
-      </c>
-      <c r="N3">
+      <c r="O3">
+        <v>4</v>
+      </c>
+      <c r="P3">
+        <v>1.95</v>
+      </c>
+      <c r="Q3">
+        <v>0.5</v>
+      </c>
+      <c r="R3">
         <v>1.85</v>
       </c>
-      <c r="O3">
-        <v>3.6</v>
-      </c>
-      <c r="P3">
-        <v>4.2</v>
-      </c>
-      <c r="Q3">
-        <v>-0.5</v>
-      </c>
-      <c r="R3">
-        <v>1.9</v>
-      </c>
       <c r="S3">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T3">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U3">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V3">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W3">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z3">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6011457</v>
+        <v>6011377</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -809,73 +809,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K4">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="L4">
         <v>3.5</v>
       </c>
       <c r="M4">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="N4">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O4">
+        <v>3.6</v>
+      </c>
+      <c r="P4">
         <v>3.4</v>
       </c>
-      <c r="P4">
-        <v>2.375</v>
-      </c>
       <c r="Q4">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R4">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="S4">
-        <v>2.07</v>
+        <v>1.8</v>
       </c>
       <c r="T4">
         <v>2.5</v>
       </c>
       <c r="U4">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V4">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y4">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
         <v>-1</v>
       </c>
       <c r="AA4">
-        <v>1.07</v>
+        <v>0.8</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -898,7 +898,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -972,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6011377</v>
+        <v>6011457</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -987,73 +987,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K6">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="L6">
         <v>3.5</v>
       </c>
       <c r="M6">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="N6">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="O6">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P6">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q6">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R6">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="S6">
-        <v>1.8</v>
+        <v>2.07</v>
       </c>
       <c r="T6">
         <v>2.5</v>
       </c>
       <c r="U6">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V6">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z6">
         <v>-1</v>
       </c>
       <c r="AA6">
+        <v>1.07</v>
+      </c>
+      <c r="AB6">
+        <v>-1</v>
+      </c>
+      <c r="AC6">
         <v>0.8</v>
-      </c>
-      <c r="AB6">
-        <v>-1</v>
-      </c>
-      <c r="AC6">
-        <v>0.95</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1061,7 +1061,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6008595</v>
+        <v>6011458</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1076,73 +1076,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
         <v>0</v>
       </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K7">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M7">
-        <v>1.833</v>
+        <v>3.9</v>
       </c>
       <c r="N7">
+        <v>1.85</v>
+      </c>
+      <c r="O7">
         <v>3.6</v>
       </c>
-      <c r="O7">
-        <v>4</v>
-      </c>
       <c r="P7">
+        <v>4.2</v>
+      </c>
+      <c r="Q7">
+        <v>-0.5</v>
+      </c>
+      <c r="R7">
+        <v>1.9</v>
+      </c>
+      <c r="S7">
         <v>1.95</v>
       </c>
-      <c r="Q7">
-        <v>0.5</v>
-      </c>
-      <c r="R7">
-        <v>1.85</v>
-      </c>
-      <c r="S7">
-        <v>2</v>
-      </c>
       <c r="T7">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U7">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V7">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1165,7 +1165,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6008762</v>
+        <v>6011378</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,73 +1343,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K10">
-        <v>1.65</v>
+        <v>4.333</v>
       </c>
       <c r="L10">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M10">
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="N10">
-        <v>1.444</v>
+        <v>4.5</v>
       </c>
       <c r="O10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P10">
-        <v>7</v>
+        <v>1.7</v>
       </c>
       <c r="Q10">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R10">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S10">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T10">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V10">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X10">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA10">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
         <v>-1</v>
       </c>
       <c r="AC10">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6011378</v>
+        <v>6008762</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1432,73 +1432,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K11">
-        <v>4.333</v>
+        <v>1.65</v>
       </c>
       <c r="L11">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M11">
-        <v>1.75</v>
+        <v>5</v>
       </c>
       <c r="N11">
-        <v>4.5</v>
+        <v>1.444</v>
       </c>
       <c r="O11">
+        <v>5</v>
+      </c>
+      <c r="P11">
+        <v>7</v>
+      </c>
+      <c r="Q11">
+        <v>-1.25</v>
+      </c>
+      <c r="R11">
+        <v>1.925</v>
+      </c>
+      <c r="S11">
+        <v>1.925</v>
+      </c>
+      <c r="T11">
+        <v>3</v>
+      </c>
+      <c r="U11">
+        <v>1.925</v>
+      </c>
+      <c r="V11">
+        <v>1.925</v>
+      </c>
+      <c r="W11">
+        <v>-1</v>
+      </c>
+      <c r="X11">
         <v>4</v>
       </c>
-      <c r="P11">
-        <v>1.7</v>
-      </c>
-      <c r="Q11">
-        <v>0.75</v>
-      </c>
-      <c r="R11">
-        <v>1.975</v>
-      </c>
-      <c r="S11">
-        <v>1.875</v>
-      </c>
-      <c r="T11">
-        <v>2.75</v>
-      </c>
-      <c r="U11">
-        <v>1.825</v>
-      </c>
-      <c r="V11">
-        <v>2.025</v>
-      </c>
-      <c r="W11">
-        <v>3.5</v>
-      </c>
-      <c r="X11">
-        <v>-1</v>
-      </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB11">
         <v>-1</v>
       </c>
       <c r="AC11">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6011460</v>
+        <v>6011379</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1521,73 +1521,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K12">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="L12">
         <v>3.4</v>
       </c>
       <c r="M12">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12">
+        <v>3.3</v>
+      </c>
+      <c r="P12">
+        <v>2.375</v>
+      </c>
+      <c r="Q12">
+        <v>0.25</v>
+      </c>
+      <c r="R12">
+        <v>1.8</v>
+      </c>
+      <c r="S12">
         <v>2.05</v>
-      </c>
-      <c r="O12">
-        <v>3.4</v>
-      </c>
-      <c r="P12">
-        <v>3.75</v>
-      </c>
-      <c r="Q12">
-        <v>-0.5</v>
-      </c>
-      <c r="R12">
-        <v>2.025</v>
-      </c>
-      <c r="S12">
-        <v>1.825</v>
       </c>
       <c r="T12">
         <v>2.25</v>
       </c>
       <c r="U12">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V12">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W12">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>1.025</v>
+        <v>0.4</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1595,7 +1595,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6011379</v>
+        <v>6011461</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1610,37 +1610,37 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K13">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="L13">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M13">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="N13">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="O13">
         <v>3.3</v>
       </c>
       <c r="P13">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="Q13">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R13">
         <v>1.8</v>
@@ -1649,34 +1649,34 @@
         <v>2.05</v>
       </c>
       <c r="T13">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U13">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V13">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X13">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AA13">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
         <v>-1</v>
       </c>
       <c r="AC13">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1684,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6008596</v>
+        <v>6011460</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1699,55 +1699,55 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
         <v>45</v>
       </c>
       <c r="K14">
-        <v>1.25</v>
+        <v>1.95</v>
       </c>
       <c r="L14">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="M14">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="N14">
-        <v>1.3</v>
+        <v>2.05</v>
       </c>
       <c r="O14">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="P14">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="Q14">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R14">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S14">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T14">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U14">
+        <v>1.825</v>
+      </c>
+      <c r="V14">
         <v>2.025</v>
       </c>
-      <c r="V14">
-        <v>1.825</v>
-      </c>
       <c r="W14">
-        <v>0.3</v>
+        <v>1.05</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1756,13 +1756,13 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC14">
         <v>-1</v>
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6011461</v>
+        <v>6008596</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1791,7 +1791,7 @@
         <v>31</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1800,43 +1800,43 @@
         <v>45</v>
       </c>
       <c r="K15">
-        <v>2.1</v>
+        <v>1.25</v>
       </c>
       <c r="L15">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="M15">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="N15">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="O15">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="P15">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R15">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S15">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T15">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U15">
+        <v>2.025</v>
+      </c>
+      <c r="V15">
         <v>1.825</v>
       </c>
-      <c r="V15">
-        <v>2.025</v>
-      </c>
       <c r="W15">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1845,16 +1845,16 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA15">
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC15">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1877,7 +1877,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1966,7 +1966,7 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H17">
         <v>4</v>
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6011464</v>
+        <v>6011462</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2141,13 +2141,13 @@
         <v>45039.5</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2156,43 +2156,43 @@
         <v>45</v>
       </c>
       <c r="K19">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L19">
         <v>3.5</v>
       </c>
       <c r="M19">
+        <v>3.4</v>
+      </c>
+      <c r="N19">
+        <v>2.15</v>
+      </c>
+      <c r="O19">
+        <v>3.6</v>
+      </c>
+      <c r="P19">
         <v>3.25</v>
       </c>
-      <c r="N19">
+      <c r="Q19">
+        <v>-0.25</v>
+      </c>
+      <c r="R19">
+        <v>1.9</v>
+      </c>
+      <c r="S19">
         <v>1.95</v>
       </c>
-      <c r="O19">
-        <v>3.5</v>
-      </c>
-      <c r="P19">
-        <v>4</v>
-      </c>
-      <c r="Q19">
-        <v>-0.5</v>
-      </c>
-      <c r="R19">
-        <v>1.95</v>
-      </c>
-      <c r="S19">
-        <v>1.9</v>
-      </c>
       <c r="T19">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U19">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V19">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W19">
-        <v>0.95</v>
+        <v>1.15</v>
       </c>
       <c r="X19">
         <v>-1</v>
@@ -2201,16 +2201,16 @@
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA19">
         <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2233,7 +2233,7 @@
         <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2307,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6011462</v>
+        <v>6011464</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2319,13 +2319,13 @@
         <v>45039.5</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2334,43 +2334,43 @@
         <v>45</v>
       </c>
       <c r="K21">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L21">
         <v>3.5</v>
       </c>
       <c r="M21">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N21">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O21">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P21">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Q21">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R21">
+        <v>1.95</v>
+      </c>
+      <c r="S21">
         <v>1.9</v>
       </c>
-      <c r="S21">
-        <v>1.95</v>
-      </c>
       <c r="T21">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U21">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V21">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W21">
-        <v>1.15</v>
+        <v>0.95</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2379,16 +2379,16 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC21">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2485,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6011380</v>
+        <v>6008597</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2497,49 +2497,49 @@
         <v>45039.5</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K23">
-        <v>1.833</v>
+        <v>6</v>
       </c>
       <c r="L23">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M23">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="N23">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="O23">
         <v>4.2</v>
       </c>
       <c r="P23">
-        <v>3.8</v>
+        <v>1.55</v>
       </c>
       <c r="Q23">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R23">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S23">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T23">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U23">
         <v>1.975</v>
@@ -2551,22 +2551,22 @@
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC23">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2574,7 +2574,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6008597</v>
+        <v>6011380</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2586,49 +2586,49 @@
         <v>45039.5</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K24">
-        <v>6</v>
+        <v>1.833</v>
       </c>
       <c r="L24">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M24">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="N24">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="O24">
         <v>4.2</v>
       </c>
       <c r="P24">
-        <v>1.55</v>
+        <v>3.8</v>
       </c>
       <c r="Q24">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R24">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T24">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U24">
         <v>1.975</v>
@@ -2640,22 +2640,22 @@
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y24">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB24">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2678,7 +2678,7 @@
         <v>44</v>
       </c>
       <c r="G25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -2764,7 +2764,7 @@
         <v>45045.54166666666</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G26" t="s">
         <v>35</v>
@@ -2853,10 +2853,10 @@
         <v>45046.5</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -2942,10 +2942,10 @@
         <v>45046.5</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>45046.5</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
         <v>32</v>
@@ -3108,7 +3108,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6011466</v>
+        <v>6011467</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3120,58 +3120,58 @@
         <v>45046.5</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G30" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J30" t="s">
         <v>45</v>
       </c>
       <c r="K30">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="L30">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M30">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="N30">
-        <v>2.375</v>
+        <v>1.65</v>
       </c>
       <c r="O30">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P30">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R30">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S30">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T30">
+        <v>2.75</v>
+      </c>
+      <c r="U30">
         <v>2</v>
       </c>
-      <c r="U30">
-        <v>1.9</v>
-      </c>
       <c r="V30">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W30">
-        <v>1.375</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X30">
         <v>-1</v>
@@ -3180,13 +3180,13 @@
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA30">
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3197,7 +3197,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6011467</v>
+        <v>6011466</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3209,58 +3209,58 @@
         <v>45046.5</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H31">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J31" t="s">
         <v>45</v>
       </c>
       <c r="K31">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="L31">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M31">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="N31">
-        <v>1.65</v>
+        <v>2.375</v>
       </c>
       <c r="O31">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P31">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q31">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R31">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S31">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T31">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U31">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V31">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W31">
-        <v>0.6499999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3269,13 +3269,13 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA31">
         <v>-1</v>
       </c>
       <c r="AB31">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC31">
         <v>-1</v>
@@ -3298,7 +3298,7 @@
         <v>45046.59375</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
         <v>29</v>
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6011993</v>
+        <v>6008776</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3476,76 +3476,76 @@
         <v>45049.54166666666</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H34">
+        <v>3</v>
+      </c>
+      <c r="I34">
         <v>0</v>
       </c>
-      <c r="I34">
-        <v>2</v>
-      </c>
       <c r="J34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K34">
-        <v>2.8</v>
+        <v>1.25</v>
       </c>
       <c r="L34">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="M34">
-        <v>2.4</v>
+        <v>10</v>
       </c>
       <c r="N34">
-        <v>3.3</v>
+        <v>1.25</v>
       </c>
       <c r="O34">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="P34">
-        <v>2.3</v>
+        <v>13</v>
       </c>
       <c r="Q34">
+        <v>-1.75</v>
+      </c>
+      <c r="R34">
+        <v>1.975</v>
+      </c>
+      <c r="S34">
+        <v>1.875</v>
+      </c>
+      <c r="T34">
+        <v>3</v>
+      </c>
+      <c r="U34">
+        <v>2.05</v>
+      </c>
+      <c r="V34">
+        <v>1.8</v>
+      </c>
+      <c r="W34">
         <v>0.25</v>
       </c>
-      <c r="R34">
-        <v>1.87</v>
-      </c>
-      <c r="S34">
-        <v>2.03</v>
-      </c>
-      <c r="T34">
-        <v>2.25</v>
-      </c>
-      <c r="U34">
-        <v>1.8</v>
-      </c>
-      <c r="V34">
-        <v>2.05</v>
-      </c>
-      <c r="W34">
-        <v>-1</v>
-      </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA34">
-        <v>1.03</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC34">
-        <v>0.5249999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3553,7 +3553,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6008612</v>
+        <v>6011993</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3565,76 +3565,76 @@
         <v>45049.54166666666</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G35" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
         <v>2</v>
       </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
       <c r="J35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K35">
-        <v>1.25</v>
+        <v>2.8</v>
       </c>
       <c r="L35">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="M35">
-        <v>10</v>
+        <v>2.4</v>
       </c>
       <c r="N35">
-        <v>1.25</v>
+        <v>3.3</v>
       </c>
       <c r="O35">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="P35">
-        <v>10</v>
+        <v>2.3</v>
       </c>
       <c r="Q35">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R35">
-        <v>1.875</v>
+        <v>1.87</v>
       </c>
       <c r="S35">
-        <v>1.975</v>
+        <v>2.03</v>
       </c>
       <c r="T35">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U35">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V35">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W35">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z35">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
+        <v>1.03</v>
+      </c>
+      <c r="AB35">
         <v>-0.5</v>
       </c>
-      <c r="AB35">
-        <v>-1</v>
-      </c>
       <c r="AC35">
-        <v>0.8999999999999999</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3642,7 +3642,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6008776</v>
+        <v>6008612</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3654,13 +3654,13 @@
         <v>45049.54166666666</v>
       </c>
       <c r="F36" t="s">
+        <v>42</v>
+      </c>
+      <c r="G36" t="s">
         <v>37</v>
       </c>
-      <c r="G36" t="s">
-        <v>31</v>
-      </c>
       <c r="H36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -3681,28 +3681,28 @@
         <v>1.25</v>
       </c>
       <c r="O36">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="P36">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Q36">
         <v>-1.75</v>
       </c>
       <c r="R36">
+        <v>1.875</v>
+      </c>
+      <c r="S36">
         <v>1.975</v>
       </c>
-      <c r="S36">
-        <v>1.875</v>
-      </c>
       <c r="T36">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U36">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V36">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W36">
         <v>0.25</v>
@@ -3714,16 +3714,16 @@
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3820,7 +3820,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6011977</v>
+        <v>6011384</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3832,76 +3832,76 @@
         <v>45053.5</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G38" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K38">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="L38">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M38">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N38">
-        <v>1.444</v>
+        <v>2.45</v>
       </c>
       <c r="O38">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="P38">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="Q38">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S38">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="T38">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U38">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V38">
+        <v>2</v>
+      </c>
+      <c r="W38">
+        <v>-1</v>
+      </c>
+      <c r="X38">
+        <v>-1</v>
+      </c>
+      <c r="Y38">
         <v>1.9</v>
       </c>
-      <c r="W38">
-        <v>-1</v>
-      </c>
-      <c r="X38">
-        <v>3.75</v>
-      </c>
-      <c r="Y38">
-        <v>-1</v>
-      </c>
       <c r="Z38">
         <v>-1</v>
       </c>
       <c r="AA38">
-        <v>0.9750000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AB38">
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3909,7 +3909,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6011927</v>
+        <v>6011977</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3921,10 +3921,10 @@
         <v>45053.5</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -3936,61 +3936,61 @@
         <v>47</v>
       </c>
       <c r="K39">
-        <v>2.7</v>
+        <v>1.533</v>
       </c>
       <c r="L39">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M39">
-        <v>2.45</v>
+        <v>5.5</v>
       </c>
       <c r="N39">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="O39">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P39">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R39">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S39">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T39">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U39">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V39">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB39">
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3998,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6011468</v>
+        <v>6011927</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4013,73 +4013,73 @@
         <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
         <v>47</v>
       </c>
       <c r="K40">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="L40">
         <v>3.3</v>
       </c>
       <c r="M40">
-        <v>2.875</v>
+        <v>2.45</v>
       </c>
       <c r="N40">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="O40">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P40">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="Q40">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R40">
+        <v>1.8</v>
+      </c>
+      <c r="S40">
         <v>2.05</v>
       </c>
-      <c r="S40">
-        <v>1.8</v>
-      </c>
       <c r="T40">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U40">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V40">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB40">
         <v>-1</v>
       </c>
       <c r="AC40">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4087,7 +4087,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6011384</v>
+        <v>6011468</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4099,76 +4099,76 @@
         <v>45053.5</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K41">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="L41">
         <v>3.3</v>
       </c>
       <c r="M41">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="N41">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="O41">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P41">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R41">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S41">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T41">
         <v>2.25</v>
       </c>
       <c r="U41">
+        <v>2</v>
+      </c>
+      <c r="V41">
         <v>1.85</v>
       </c>
-      <c r="V41">
-        <v>2</v>
-      </c>
       <c r="W41">
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y41">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
         <v>-1</v>
       </c>
       <c r="AA41">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AB41">
         <v>-1</v>
       </c>
       <c r="AC41">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4188,10 +4188,10 @@
         <v>45053.5</v>
       </c>
       <c r="F42" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G42" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -4280,7 +4280,7 @@
         <v>44</v>
       </c>
       <c r="G43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4369,7 +4369,7 @@
         <v>35</v>
       </c>
       <c r="G44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -4455,7 +4455,7 @@
         <v>45058.58333333334</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G45" t="s">
         <v>44</v>
@@ -4544,7 +4544,7 @@
         <v>45059.5</v>
       </c>
       <c r="F46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G46" t="s">
         <v>36</v>
@@ -4633,7 +4633,7 @@
         <v>45059.5</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G47" t="s">
         <v>32</v>
@@ -4722,10 +4722,10 @@
         <v>45059.5</v>
       </c>
       <c r="F48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G48" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H48">
         <v>3</v>
@@ -4811,10 +4811,10 @@
         <v>45059.5</v>
       </c>
       <c r="F49" t="s">
+        <v>31</v>
+      </c>
+      <c r="G49" t="s">
         <v>33</v>
-      </c>
-      <c r="G49" t="s">
-        <v>31</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4900,7 +4900,7 @@
         <v>45059.5</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G50" t="s">
         <v>35</v>
@@ -4989,7 +4989,7 @@
         <v>45059.5</v>
       </c>
       <c r="F51" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G51" t="s">
         <v>29</v>
@@ -5078,7 +5078,7 @@
         <v>45059.59375</v>
       </c>
       <c r="F52" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G52" t="s">
         <v>43</v>
@@ -5167,10 +5167,10 @@
         <v>45062.54166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H53">
         <v>3</v>
@@ -5259,7 +5259,7 @@
         <v>35</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H54">
         <v>4</v>
@@ -5348,7 +5348,7 @@
         <v>32</v>
       </c>
       <c r="G55" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -5422,7 +5422,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6011475</v>
+        <v>6011473</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5434,13 +5434,13 @@
         <v>45062.54166666666</v>
       </c>
       <c r="F56" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G56" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -5449,43 +5449,43 @@
         <v>45</v>
       </c>
       <c r="K56">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="L56">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M56">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="N56">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O56">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P56">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="Q56">
         <v>-0.75</v>
       </c>
       <c r="R56">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S56">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T56">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U56">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V56">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W56">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5494,16 +5494,16 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB56">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5526,7 +5526,7 @@
         <v>36</v>
       </c>
       <c r="G57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H57">
         <v>3</v>
@@ -5600,7 +5600,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6011473</v>
+        <v>6011475</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5612,13 +5612,13 @@
         <v>45062.54166666666</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G58" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -5627,43 +5627,43 @@
         <v>45</v>
       </c>
       <c r="K58">
-        <v>1.571</v>
+        <v>1.666</v>
       </c>
       <c r="L58">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M58">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="N58">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O58">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P58">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q58">
         <v>-0.75</v>
       </c>
       <c r="R58">
+        <v>2</v>
+      </c>
+      <c r="S58">
+        <v>1.85</v>
+      </c>
+      <c r="T58">
+        <v>2.75</v>
+      </c>
+      <c r="U58">
         <v>1.925</v>
       </c>
-      <c r="S58">
+      <c r="V58">
         <v>1.925</v>
       </c>
-      <c r="T58">
-        <v>2.25</v>
-      </c>
-      <c r="U58">
-        <v>1.875</v>
-      </c>
-      <c r="V58">
-        <v>1.975</v>
-      </c>
       <c r="W58">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5672,16 +5672,16 @@
         <v>-1</v>
       </c>
       <c r="Z58">
+        <v>1</v>
+      </c>
+      <c r="AA58">
+        <v>-1</v>
+      </c>
+      <c r="AB58">
         <v>0.4625</v>
       </c>
-      <c r="AA58">
+      <c r="AC58">
         <v>-0.5</v>
-      </c>
-      <c r="AB58">
-        <v>-1</v>
-      </c>
-      <c r="AC58">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5689,7 +5689,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6011474</v>
+        <v>6011929</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5701,76 +5701,76 @@
         <v>45062.54166666666</v>
       </c>
       <c r="F59" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G59" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H59">
         <v>1</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K59">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L59">
         <v>3.6</v>
       </c>
       <c r="M59">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="N59">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="O59">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P59">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q59">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R59">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S59">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T59">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U59">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V59">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W59">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z59">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
+        <v>0.925</v>
+      </c>
+      <c r="AB59">
+        <v>0.45</v>
+      </c>
+      <c r="AC59">
         <v>-0.5</v>
-      </c>
-      <c r="AB59">
-        <v>-1</v>
-      </c>
-      <c r="AC59">
-        <v>0.825</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5778,7 +5778,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6011929</v>
+        <v>6011474</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5790,76 +5790,76 @@
         <v>45062.54166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G60" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H60">
         <v>1</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K60">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L60">
         <v>3.6</v>
       </c>
       <c r="M60">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="N60">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="O60">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P60">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q60">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R60">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S60">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T60">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U60">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V60">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA60">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB60">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5879,7 +5879,7 @@
         <v>45075.5</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G61" t="s">
         <v>43</v>
@@ -5956,7 +5956,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6011476</v>
+        <v>6011979</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5968,10 +5968,10 @@
         <v>45075.5</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H62">
         <v>3</v>
@@ -5983,28 +5983,28 @@
         <v>45</v>
       </c>
       <c r="K62">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="L62">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M62">
-        <v>5.25</v>
+        <v>7</v>
       </c>
       <c r="N62">
-        <v>1.571</v>
+        <v>1.55</v>
       </c>
       <c r="O62">
         <v>4.2</v>
       </c>
       <c r="P62">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q62">
         <v>-1</v>
       </c>
       <c r="R62">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S62">
         <v>1.95</v>
@@ -6013,13 +6013,13 @@
         <v>2.75</v>
       </c>
       <c r="U62">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V62">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W62">
-        <v>0.571</v>
+        <v>0.55</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6028,13 +6028,13 @@
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA62">
         <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC62">
         <v>-1</v>
@@ -6057,10 +6057,10 @@
         <v>45075.5</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H63">
         <v>5</v>
@@ -6134,7 +6134,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6011979</v>
+        <v>6011476</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6146,10 +6146,10 @@
         <v>45075.5</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G64" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H64">
         <v>3</v>
@@ -6161,28 +6161,28 @@
         <v>45</v>
       </c>
       <c r="K64">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="L64">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="M64">
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="N64">
-        <v>1.55</v>
+        <v>1.571</v>
       </c>
       <c r="O64">
         <v>4.2</v>
       </c>
       <c r="P64">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q64">
         <v>-1</v>
       </c>
       <c r="R64">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S64">
         <v>1.95</v>
@@ -6191,13 +6191,13 @@
         <v>2.75</v>
       </c>
       <c r="U64">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V64">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W64">
-        <v>0.55</v>
+        <v>0.571</v>
       </c>
       <c r="X64">
         <v>-1</v>
@@ -6206,13 +6206,13 @@
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA64">
         <v>-1</v>
       </c>
       <c r="AB64">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC64">
         <v>-1</v>
@@ -6223,7 +6223,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6011393</v>
+        <v>6011392</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6235,76 +6235,76 @@
         <v>45075.5</v>
       </c>
       <c r="F65" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G65" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H65">
         <v>1</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K65">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L65">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M65">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="N65">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="O65">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P65">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q65">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R65">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="S65">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="T65">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U65">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V65">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W65">
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z65">
         <v>-1</v>
       </c>
       <c r="AA65">
-        <v>0.8500000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC65">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6312,7 +6312,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6011392</v>
+        <v>6008602</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6324,73 +6324,73 @@
         <v>45075.5</v>
       </c>
       <c r="F66" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G66" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H66">
+        <v>5</v>
+      </c>
+      <c r="I66">
         <v>1</v>
       </c>
-      <c r="I66">
+      <c r="J66" t="s">
+        <v>45</v>
+      </c>
+      <c r="K66">
+        <v>1.363</v>
+      </c>
+      <c r="L66">
+        <v>4.75</v>
+      </c>
+      <c r="M66">
+        <v>7.5</v>
+      </c>
+      <c r="N66">
+        <v>1.4</v>
+      </c>
+      <c r="O66">
+        <v>5.25</v>
+      </c>
+      <c r="P66">
+        <v>7</v>
+      </c>
+      <c r="Q66">
+        <v>-1.25</v>
+      </c>
+      <c r="R66">
+        <v>1.89</v>
+      </c>
+      <c r="S66">
+        <v>2.01</v>
+      </c>
+      <c r="T66">
+        <v>3.5</v>
+      </c>
+      <c r="U66">
         <v>2</v>
       </c>
-      <c r="J66" t="s">
-        <v>46</v>
-      </c>
-      <c r="K66">
-        <v>2.3</v>
-      </c>
-      <c r="L66">
-        <v>3.2</v>
-      </c>
-      <c r="M66">
-        <v>3.1</v>
-      </c>
-      <c r="N66">
-        <v>2.45</v>
-      </c>
-      <c r="O66">
-        <v>3.2</v>
-      </c>
-      <c r="P66">
-        <v>3.1</v>
-      </c>
-      <c r="Q66">
-        <v>-0.25</v>
-      </c>
-      <c r="R66">
-        <v>2.14</v>
-      </c>
-      <c r="S66">
-        <v>1.77</v>
-      </c>
-      <c r="T66">
-        <v>2.25</v>
-      </c>
-      <c r="U66">
-        <v>2.025</v>
-      </c>
       <c r="V66">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA66">
-        <v>0.77</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC66">
         <v>-1</v>
@@ -6401,7 +6401,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6008602</v>
+        <v>6011393</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6413,76 +6413,76 @@
         <v>45075.5</v>
       </c>
       <c r="F67" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G67" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H67">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I67">
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K67">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="L67">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M67">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="N67">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="O67">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P67">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="Q67">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R67">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="S67">
-        <v>2.01</v>
+        <v>1.85</v>
       </c>
       <c r="T67">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U67">
+        <v>1.85</v>
+      </c>
+      <c r="V67">
         <v>2</v>
       </c>
-      <c r="V67">
-        <v>1.85</v>
-      </c>
       <c r="W67">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB67">
+        <v>-1</v>
+      </c>
+      <c r="AC67">
         <v>1</v>
-      </c>
-      <c r="AC67">
-        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6502,7 +6502,7 @@
         <v>45075.59375</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G68" t="s">
         <v>44</v>
@@ -6594,7 +6594,7 @@
         <v>43</v>
       </c>
       <c r="G69" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6680,10 +6680,10 @@
         <v>45081.5</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H70">
         <v>4</v>
@@ -6769,7 +6769,7 @@
         <v>45081.5</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G71" t="s">
         <v>35</v>
@@ -6861,7 +6861,7 @@
         <v>29</v>
       </c>
       <c r="G72" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H72">
         <v>4</v>
@@ -6950,7 +6950,7 @@
         <v>32</v>
       </c>
       <c r="G73" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -7039,7 +7039,7 @@
         <v>44</v>
       </c>
       <c r="G74" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -7125,10 +7125,10 @@
         <v>45081.5</v>
       </c>
       <c r="F75" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G75" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7217,7 +7217,7 @@
         <v>36</v>
       </c>
       <c r="G76" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H76">
         <v>3</v>
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6008770</v>
+        <v>6008604</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7303,13 +7303,13 @@
         <v>45088.5</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G77" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -7318,43 +7318,43 @@
         <v>45</v>
       </c>
       <c r="K77">
-        <v>4.2</v>
+        <v>1.2</v>
       </c>
       <c r="L77">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="M77">
-        <v>1.833</v>
+        <v>10</v>
       </c>
       <c r="N77">
-        <v>5.75</v>
+        <v>1.166</v>
       </c>
       <c r="O77">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="P77">
-        <v>1.571</v>
+        <v>12</v>
       </c>
       <c r="Q77">
-        <v>1</v>
+        <v>-2.25</v>
       </c>
       <c r="R77">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="S77">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T77">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U77">
+        <v>2.025</v>
+      </c>
+      <c r="V77">
         <v>1.825</v>
       </c>
-      <c r="V77">
-        <v>2.025</v>
-      </c>
       <c r="W77">
-        <v>4.75</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X77">
         <v>-1</v>
@@ -7363,7 +7363,7 @@
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.8999999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AA77">
         <v>-1</v>
@@ -7372,7 +7372,7 @@
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7380,7 +7380,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6008604</v>
+        <v>6008770</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7392,13 +7392,13 @@
         <v>45088.5</v>
       </c>
       <c r="F78" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G78" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -7407,43 +7407,43 @@
         <v>45</v>
       </c>
       <c r="K78">
-        <v>1.2</v>
+        <v>4.2</v>
       </c>
       <c r="L78">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="M78">
-        <v>10</v>
+        <v>1.833</v>
       </c>
       <c r="N78">
-        <v>1.166</v>
+        <v>5.75</v>
       </c>
       <c r="O78">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="P78">
-        <v>12</v>
+        <v>1.571</v>
       </c>
       <c r="Q78">
-        <v>-2.25</v>
+        <v>1</v>
       </c>
       <c r="R78">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="S78">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T78">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U78">
+        <v>1.825</v>
+      </c>
+      <c r="V78">
         <v>2.025</v>
       </c>
-      <c r="V78">
-        <v>1.825</v>
-      </c>
       <c r="W78">
-        <v>0.1659999999999999</v>
+        <v>4.75</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7452,7 +7452,7 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.97</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA78">
         <v>-1</v>
@@ -7461,7 +7461,7 @@
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7481,10 +7481,10 @@
         <v>45088.5</v>
       </c>
       <c r="F79" t="s">
+        <v>41</v>
+      </c>
+      <c r="G79" t="s">
         <v>39</v>
-      </c>
-      <c r="G79" t="s">
-        <v>40</v>
       </c>
       <c r="H79">
         <v>3</v>
@@ -7570,7 +7570,7 @@
         <v>45088.5</v>
       </c>
       <c r="F80" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G80" t="s">
         <v>32</v>
@@ -7659,7 +7659,7 @@
         <v>45088.5</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G81" t="s">
         <v>36</v>
@@ -7751,7 +7751,7 @@
         <v>43</v>
       </c>
       <c r="G82" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -7837,7 +7837,7 @@
         <v>45088.5</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G83" t="s">
         <v>29</v>
@@ -8104,10 +8104,10 @@
         <v>45102.5</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G86" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8196,7 +8196,7 @@
         <v>29</v>
       </c>
       <c r="G87" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8282,10 +8282,10 @@
         <v>45102.5</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G88" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -8374,7 +8374,7 @@
         <v>32</v>
       </c>
       <c r="G89" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8460,10 +8460,10 @@
         <v>45102.59375</v>
       </c>
       <c r="F90" t="s">
+        <v>40</v>
+      </c>
+      <c r="G90" t="s">
         <v>42</v>
-      </c>
-      <c r="G90" t="s">
-        <v>41</v>
       </c>
       <c r="H90">
         <v>2</v>
@@ -8638,10 +8638,10 @@
         <v>45109.5</v>
       </c>
       <c r="F92" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G92" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -8727,7 +8727,7 @@
         <v>45109.5</v>
       </c>
       <c r="F93" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G93" t="s">
         <v>29</v>
@@ -8819,7 +8819,7 @@
         <v>35</v>
       </c>
       <c r="G94" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -8905,10 +8905,10 @@
         <v>45109.5</v>
       </c>
       <c r="F95" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G95" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H95">
         <v>6</v>
@@ -9083,10 +9083,10 @@
         <v>45109.59375</v>
       </c>
       <c r="F97" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G97" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -9172,10 +9172,10 @@
         <v>45110.58333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G98" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -9261,10 +9261,10 @@
         <v>45114.58333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G99" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9353,7 +9353,7 @@
         <v>36</v>
       </c>
       <c r="G100" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9427,7 +9427,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6011489</v>
+        <v>6011987</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9439,76 +9439,76 @@
         <v>45116.5</v>
       </c>
       <c r="F101" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G101" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K101">
+        <v>2.15</v>
+      </c>
+      <c r="L101">
+        <v>3.4</v>
+      </c>
+      <c r="M101">
+        <v>3.25</v>
+      </c>
+      <c r="N101">
+        <v>2.25</v>
+      </c>
+      <c r="O101">
+        <v>3.6</v>
+      </c>
+      <c r="P101">
+        <v>3</v>
+      </c>
+      <c r="Q101">
+        <v>-0.25</v>
+      </c>
+      <c r="R101">
+        <v>2.05</v>
+      </c>
+      <c r="S101">
+        <v>1.8</v>
+      </c>
+      <c r="T101">
         <v>2.75</v>
       </c>
-      <c r="L101">
-        <v>3.3</v>
-      </c>
-      <c r="M101">
-        <v>2.5</v>
-      </c>
-      <c r="N101">
-        <v>2.75</v>
-      </c>
-      <c r="O101">
-        <v>3.2</v>
-      </c>
-      <c r="P101">
-        <v>2.7</v>
-      </c>
-      <c r="Q101">
-        <v>0</v>
-      </c>
-      <c r="R101">
-        <v>1.94</v>
-      </c>
-      <c r="S101">
-        <v>1.96</v>
-      </c>
-      <c r="T101">
-        <v>2.25</v>
-      </c>
       <c r="U101">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V101">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z101">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC101">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9516,7 +9516,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6011401</v>
+        <v>6011932</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9528,49 +9528,49 @@
         <v>45116.5</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G102" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K102">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="L102">
+        <v>3.5</v>
+      </c>
+      <c r="M102">
+        <v>2.25</v>
+      </c>
+      <c r="N102">
         <v>3.3</v>
       </c>
-      <c r="M102">
-        <v>2.875</v>
-      </c>
-      <c r="N102">
-        <v>1.95</v>
-      </c>
       <c r="O102">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P102">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="Q102">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R102">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S102">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T102">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U102">
         <v>2</v>
@@ -9579,25 +9579,25 @@
         <v>1.85</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X102">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA102">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC102">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6008607</v>
+        <v>6011401</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,76 +9617,76 @@
         <v>45116.5</v>
       </c>
       <c r="F103" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H103">
         <v>0</v>
       </c>
       <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103" t="s">
+        <v>47</v>
+      </c>
+      <c r="K103">
+        <v>2.4</v>
+      </c>
+      <c r="L103">
+        <v>3.3</v>
+      </c>
+      <c r="M103">
+        <v>2.875</v>
+      </c>
+      <c r="N103">
+        <v>1.95</v>
+      </c>
+      <c r="O103">
+        <v>3.6</v>
+      </c>
+      <c r="P103">
+        <v>3.8</v>
+      </c>
+      <c r="Q103">
+        <v>-0.5</v>
+      </c>
+      <c r="R103">
+        <v>1.925</v>
+      </c>
+      <c r="S103">
+        <v>1.925</v>
+      </c>
+      <c r="T103">
+        <v>2.5</v>
+      </c>
+      <c r="U103">
         <v>2</v>
       </c>
-      <c r="J103" t="s">
-        <v>46</v>
-      </c>
-      <c r="K103">
-        <v>5.25</v>
-      </c>
-      <c r="L103">
-        <v>4.5</v>
-      </c>
-      <c r="M103">
-        <v>1.533</v>
-      </c>
-      <c r="N103">
-        <v>5.75</v>
-      </c>
-      <c r="O103">
-        <v>4.333</v>
-      </c>
-      <c r="P103">
-        <v>1.533</v>
-      </c>
-      <c r="Q103">
-        <v>1</v>
-      </c>
-      <c r="R103">
-        <v>2</v>
-      </c>
-      <c r="S103">
+      <c r="V103">
         <v>1.85</v>
       </c>
-      <c r="T103">
-        <v>3</v>
-      </c>
-      <c r="U103">
-        <v>1.975</v>
-      </c>
-      <c r="V103">
-        <v>1.875</v>
-      </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y103">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
         <v>-1</v>
       </c>
       <c r="AA103">
+        <v>0.925</v>
+      </c>
+      <c r="AB103">
+        <v>-1</v>
+      </c>
+      <c r="AC103">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB103">
-        <v>-1</v>
-      </c>
-      <c r="AC103">
-        <v>0.875</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9694,7 +9694,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6011932</v>
+        <v>6011489</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9706,76 +9706,76 @@
         <v>45116.5</v>
       </c>
       <c r="F104" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H104">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K104">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="L104">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M104">
+        <v>2.5</v>
+      </c>
+      <c r="N104">
+        <v>2.75</v>
+      </c>
+      <c r="O104">
+        <v>3.2</v>
+      </c>
+      <c r="P104">
+        <v>2.7</v>
+      </c>
+      <c r="Q104">
+        <v>0</v>
+      </c>
+      <c r="R104">
+        <v>1.94</v>
+      </c>
+      <c r="S104">
+        <v>1.96</v>
+      </c>
+      <c r="T104">
         <v>2.25</v>
       </c>
-      <c r="N104">
-        <v>3.3</v>
-      </c>
-      <c r="O104">
-        <v>3.8</v>
-      </c>
-      <c r="P104">
-        <v>2.05</v>
-      </c>
-      <c r="Q104">
-        <v>0.5</v>
-      </c>
-      <c r="R104">
-        <v>1.85</v>
-      </c>
-      <c r="S104">
-        <v>2.05</v>
-      </c>
-      <c r="T104">
-        <v>3.5</v>
-      </c>
       <c r="U104">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V104">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W104">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB104">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6011987</v>
+        <v>6008607</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,13 +9795,13 @@
         <v>45116.5</v>
       </c>
       <c r="F105" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G105" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105">
         <v>2</v>
@@ -9810,40 +9810,40 @@
         <v>46</v>
       </c>
       <c r="K105">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="L105">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M105">
-        <v>3.25</v>
+        <v>1.533</v>
       </c>
       <c r="N105">
-        <v>2.25</v>
+        <v>5.75</v>
       </c>
       <c r="O105">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P105">
+        <v>1.533</v>
+      </c>
+      <c r="Q105">
+        <v>1</v>
+      </c>
+      <c r="R105">
+        <v>2</v>
+      </c>
+      <c r="S105">
+        <v>1.85</v>
+      </c>
+      <c r="T105">
         <v>3</v>
       </c>
-      <c r="Q105">
-        <v>-0.25</v>
-      </c>
-      <c r="R105">
-        <v>2.05</v>
-      </c>
-      <c r="S105">
-        <v>1.8</v>
-      </c>
-      <c r="T105">
-        <v>2.75</v>
-      </c>
       <c r="U105">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V105">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W105">
         <v>-1</v>
@@ -9852,19 +9852,19 @@
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>2</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z105">
         <v>-1</v>
       </c>
       <c r="AA105">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB105">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9884,7 +9884,7 @@
         <v>45116.59375</v>
       </c>
       <c r="F106" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G106" t="s">
         <v>35</v>
@@ -9976,7 +9976,7 @@
         <v>43</v>
       </c>
       <c r="G107" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -10065,7 +10065,7 @@
         <v>44</v>
       </c>
       <c r="G108" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H108">
         <v>4</v>
@@ -10151,7 +10151,7 @@
         <v>45123.5</v>
       </c>
       <c r="F109" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G109" t="s">
         <v>36</v>
@@ -10240,10 +10240,10 @@
         <v>45123.5</v>
       </c>
       <c r="F110" t="s">
+        <v>30</v>
+      </c>
+      <c r="G110" t="s">
         <v>34</v>
-      </c>
-      <c r="G110" t="s">
-        <v>30</v>
       </c>
       <c r="H110">
         <v>2</v>
@@ -10329,10 +10329,10 @@
         <v>45123.5</v>
       </c>
       <c r="F111" t="s">
+        <v>42</v>
+      </c>
+      <c r="G111" t="s">
         <v>41</v>
-      </c>
-      <c r="G111" t="s">
-        <v>39</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -10418,10 +10418,10 @@
         <v>45123.5</v>
       </c>
       <c r="F112" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G112" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -10599,7 +10599,7 @@
         <v>35</v>
       </c>
       <c r="G114" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -10688,7 +10688,7 @@
         <v>44</v>
       </c>
       <c r="G115" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H115">
         <v>5</v>
@@ -10774,10 +10774,10 @@
         <v>45129.54166666666</v>
       </c>
       <c r="F116" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G116" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H116">
         <v>5</v>
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6011493</v>
+        <v>6008609</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10866,73 +10866,73 @@
         <v>39</v>
       </c>
       <c r="G117" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J117" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K117">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="L117">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M117">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="N117">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="O117">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P117">
-        <v>2.05</v>
+        <v>1.363</v>
       </c>
       <c r="Q117">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R117">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="S117">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="T117">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U117">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V117">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W117">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z117">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC117">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6008609</v>
+        <v>6011404</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,73 +10952,73 @@
         <v>45130.5</v>
       </c>
       <c r="F118" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G118" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H118">
         <v>2</v>
       </c>
       <c r="I118">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K118">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="L118">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M118">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="N118">
-        <v>8</v>
+        <v>2.45</v>
       </c>
       <c r="O118">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P118">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="Q118">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R118">
-        <v>1.97</v>
+        <v>2.11</v>
       </c>
       <c r="S118">
-        <v>1.93</v>
+        <v>1.79</v>
       </c>
       <c r="T118">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U118">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V118">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>1.11</v>
       </c>
       <c r="AA118">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC118">
         <v>-1</v>
@@ -11130,10 +11130,10 @@
         <v>45130.5</v>
       </c>
       <c r="F120" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G120" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H120">
         <v>3</v>
@@ -11207,7 +11207,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6011404</v>
+        <v>6011493</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11219,58 +11219,58 @@
         <v>45130.5</v>
       </c>
       <c r="F121" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G121" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="s">
         <v>45</v>
       </c>
       <c r="K121">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="L121">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M121">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="N121">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="O121">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P121">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="Q121">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R121">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="S121">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="T121">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U121">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V121">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W121">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="X121">
         <v>-1</v>
@@ -11279,16 +11279,16 @@
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AA121">
         <v>-1</v>
       </c>
       <c r="AB121">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11308,7 +11308,7 @@
         <v>45130.59375</v>
       </c>
       <c r="F122" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G122" t="s">
         <v>29</v>
@@ -11400,7 +11400,7 @@
         <v>36</v>
       </c>
       <c r="G123" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H123">
         <v>3</v>
@@ -11489,7 +11489,7 @@
         <v>43</v>
       </c>
       <c r="G124" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11575,10 +11575,10 @@
         <v>45136.54166666666</v>
       </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G125" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -11664,10 +11664,10 @@
         <v>45137.5</v>
       </c>
       <c r="F126" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G126" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -11756,7 +11756,7 @@
         <v>44</v>
       </c>
       <c r="G127" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H127">
         <v>3</v>
@@ -11845,7 +11845,7 @@
         <v>29</v>
       </c>
       <c r="G128" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H128">
         <v>3</v>
@@ -11931,10 +11931,10 @@
         <v>45137.5</v>
       </c>
       <c r="F129" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G129" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H129">
         <v>2</v>
@@ -12109,7 +12109,7 @@
         <v>45137.59375</v>
       </c>
       <c r="F131" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G131" t="s">
         <v>32</v>
@@ -12198,7 +12198,7 @@
         <v>45143.54166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G132" t="s">
         <v>43</v>
@@ -12287,10 +12287,10 @@
         <v>45144.5</v>
       </c>
       <c r="F133" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G133" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H133">
         <v>5</v>
@@ -12376,7 +12376,7 @@
         <v>45144.5</v>
       </c>
       <c r="F134" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G134" t="s">
         <v>29</v>
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6011408</v>
+        <v>6011499</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,76 +12465,76 @@
         <v>45144.5</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G135" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>2</v>
+      </c>
+      <c r="J135" t="s">
+        <v>46</v>
+      </c>
+      <c r="K135">
+        <v>3.8</v>
+      </c>
+      <c r="L135">
+        <v>4</v>
+      </c>
+      <c r="M135">
+        <v>1.8</v>
+      </c>
+      <c r="N135">
+        <v>3.75</v>
+      </c>
+      <c r="O135">
+        <v>3.8</v>
+      </c>
+      <c r="P135">
+        <v>1.85</v>
+      </c>
+      <c r="Q135">
+        <v>0.5</v>
+      </c>
+      <c r="R135">
+        <v>1.95</v>
+      </c>
+      <c r="S135">
+        <v>1.9</v>
+      </c>
+      <c r="T135">
         <v>3</v>
       </c>
-      <c r="I135">
-        <v>1</v>
-      </c>
-      <c r="J135" t="s">
-        <v>45</v>
-      </c>
-      <c r="K135">
-        <v>2.5</v>
-      </c>
-      <c r="L135">
-        <v>3.4</v>
-      </c>
-      <c r="M135">
-        <v>2.7</v>
-      </c>
-      <c r="N135">
-        <v>2.45</v>
-      </c>
-      <c r="O135">
-        <v>3.25</v>
-      </c>
-      <c r="P135">
-        <v>2.9</v>
-      </c>
-      <c r="Q135">
-        <v>0</v>
-      </c>
-      <c r="R135">
-        <v>1.8</v>
-      </c>
-      <c r="S135">
-        <v>2.05</v>
-      </c>
-      <c r="T135">
-        <v>2.25</v>
-      </c>
       <c r="U135">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V135">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W135">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z135">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB135">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6011499</v>
+        <v>6011408</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12554,76 +12554,76 @@
         <v>45144.5</v>
       </c>
       <c r="F136" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G136" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H136">
+        <v>3</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136" t="s">
+        <v>45</v>
+      </c>
+      <c r="K136">
+        <v>2.5</v>
+      </c>
+      <c r="L136">
+        <v>3.4</v>
+      </c>
+      <c r="M136">
+        <v>2.7</v>
+      </c>
+      <c r="N136">
+        <v>2.45</v>
+      </c>
+      <c r="O136">
+        <v>3.25</v>
+      </c>
+      <c r="P136">
+        <v>2.9</v>
+      </c>
+      <c r="Q136">
         <v>0</v>
       </c>
-      <c r="I136">
-        <v>2</v>
-      </c>
-      <c r="J136" t="s">
-        <v>46</v>
-      </c>
-      <c r="K136">
-        <v>3.8</v>
-      </c>
-      <c r="L136">
-        <v>4</v>
-      </c>
-      <c r="M136">
+      <c r="R136">
         <v>1.8</v>
       </c>
-      <c r="N136">
-        <v>3.75</v>
-      </c>
-      <c r="O136">
-        <v>3.8</v>
-      </c>
-      <c r="P136">
-        <v>1.85</v>
-      </c>
-      <c r="Q136">
-        <v>0.5</v>
-      </c>
-      <c r="R136">
-        <v>1.95</v>
-      </c>
       <c r="S136">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T136">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U136">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V136">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA136">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC136">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12643,10 +12643,10 @@
         <v>45144.5</v>
       </c>
       <c r="F137" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G137" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H137">
         <v>4</v>
@@ -12735,7 +12735,7 @@
         <v>36</v>
       </c>
       <c r="G138" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H138">
         <v>3</v>
@@ -12821,10 +12821,10 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F139" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G139" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H139">
         <v>2</v>
@@ -12910,10 +12910,10 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F140" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G140" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H140">
         <v>1</v>
@@ -13088,10 +13088,10 @@
         <v>45151.5</v>
       </c>
       <c r="F142" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G142" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -13180,7 +13180,7 @@
         <v>43</v>
       </c>
       <c r="G143" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H143">
         <v>1</v>
@@ -13266,7 +13266,7 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G144" t="s">
         <v>43</v>
@@ -13355,10 +13355,10 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F145" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G145" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -13444,7 +13444,7 @@
         <v>45158.5</v>
       </c>
       <c r="F146" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G146" t="s">
         <v>29</v>
@@ -13536,7 +13536,7 @@
         <v>36</v>
       </c>
       <c r="G147" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13622,10 +13622,10 @@
         <v>45158.5</v>
       </c>
       <c r="F148" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G148" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -13714,7 +13714,7 @@
         <v>35</v>
       </c>
       <c r="G149" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H149">
         <v>5</v>
@@ -13803,7 +13803,7 @@
         <v>32</v>
       </c>
       <c r="G150" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -13889,7 +13889,7 @@
         <v>45158.59375</v>
       </c>
       <c r="F151" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G151" t="s">
         <v>44</v>
@@ -13978,7 +13978,7 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F152" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G152" t="s">
         <v>32</v>
@@ -14070,7 +14070,7 @@
         <v>43</v>
       </c>
       <c r="G153" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H153">
         <v>2</v>
@@ -14156,10 +14156,10 @@
         <v>45165.5</v>
       </c>
       <c r="F154" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G154" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -14248,7 +14248,7 @@
         <v>29</v>
       </c>
       <c r="G155" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H155">
         <v>4</v>
@@ -14512,10 +14512,10 @@
         <v>45172.5</v>
       </c>
       <c r="F158" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G158" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -14601,10 +14601,10 @@
         <v>45172.5</v>
       </c>
       <c r="F159" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G159" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H159">
         <v>3</v>
@@ -14678,7 +14678,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6011934</v>
+        <v>6011509</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14690,76 +14690,76 @@
         <v>45172.5</v>
       </c>
       <c r="F160" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G160" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H160">
         <v>1</v>
       </c>
       <c r="I160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K160">
-        <v>1.666</v>
+        <v>3.5</v>
       </c>
       <c r="L160">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M160">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="N160">
-        <v>1.6</v>
+        <v>4.2</v>
       </c>
       <c r="O160">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P160">
-        <v>4.333</v>
+        <v>1.7</v>
       </c>
       <c r="Q160">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R160">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S160">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T160">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U160">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V160">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W160">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X160">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y160">
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA160">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
         <v>-1</v>
       </c>
       <c r="AC160">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14779,10 +14779,10 @@
         <v>45172.5</v>
       </c>
       <c r="F161" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G161" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H161">
         <v>2</v>
@@ -14856,7 +14856,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6011509</v>
+        <v>6011934</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14868,76 +14868,76 @@
         <v>45172.5</v>
       </c>
       <c r="F162" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G162" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H162">
         <v>1</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K162">
+        <v>1.666</v>
+      </c>
+      <c r="L162">
+        <v>4.5</v>
+      </c>
+      <c r="M162">
+        <v>3.75</v>
+      </c>
+      <c r="N162">
+        <v>1.6</v>
+      </c>
+      <c r="O162">
+        <v>5</v>
+      </c>
+      <c r="P162">
+        <v>4.333</v>
+      </c>
+      <c r="Q162">
+        <v>-1</v>
+      </c>
+      <c r="R162">
+        <v>1.925</v>
+      </c>
+      <c r="S162">
+        <v>1.925</v>
+      </c>
+      <c r="T162">
         <v>3.5</v>
       </c>
-      <c r="L162">
-        <v>4</v>
-      </c>
-      <c r="M162">
-        <v>1.8</v>
-      </c>
-      <c r="N162">
-        <v>4.2</v>
-      </c>
-      <c r="O162">
-        <v>4.333</v>
-      </c>
-      <c r="P162">
-        <v>1.7</v>
-      </c>
-      <c r="Q162">
-        <v>0.75</v>
-      </c>
-      <c r="R162">
-        <v>1.95</v>
-      </c>
-      <c r="S162">
-        <v>1.9</v>
-      </c>
-      <c r="T162">
-        <v>3</v>
-      </c>
       <c r="U162">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V162">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W162">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X162">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA162">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB162">
         <v>-1</v>
       </c>
       <c r="AC162">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14957,10 +14957,10 @@
         <v>45172.59375</v>
       </c>
       <c r="F163" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G163" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H163">
         <v>4</v>
@@ -15046,10 +15046,10 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F164" t="s">
+        <v>38</v>
+      </c>
+      <c r="G164" t="s">
         <v>37</v>
-      </c>
-      <c r="G164" t="s">
-        <v>38</v>
       </c>
       <c r="H164">
         <v>4</v>
@@ -15135,10 +15135,10 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F165" t="s">
+        <v>39</v>
+      </c>
+      <c r="G165" t="s">
         <v>40</v>
-      </c>
-      <c r="G165" t="s">
-        <v>42</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -15224,7 +15224,7 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F166" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G166" t="s">
         <v>36</v>
@@ -15316,7 +15316,7 @@
         <v>32</v>
       </c>
       <c r="G167" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H167">
         <v>2</v>
@@ -15405,7 +15405,7 @@
         <v>29</v>
       </c>
       <c r="G168" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15491,7 +15491,7 @@
         <v>45186.5</v>
       </c>
       <c r="F169" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G169" t="s">
         <v>44</v>
@@ -15580,7 +15580,7 @@
         <v>45186.5</v>
       </c>
       <c r="F170" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G170" t="s">
         <v>35</v>
@@ -15672,7 +15672,7 @@
         <v>43</v>
       </c>
       <c r="G171" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H171">
         <v>3</v>
@@ -15758,10 +15758,10 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F172" t="s">
+        <v>33</v>
+      </c>
+      <c r="G172" t="s">
         <v>31</v>
-      </c>
-      <c r="G172" t="s">
-        <v>33</v>
       </c>
       <c r="H172">
         <v>1</v>
@@ -15847,7 +15847,7 @@
         <v>45193.5</v>
       </c>
       <c r="F173" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G173" t="s">
         <v>43</v>
@@ -15936,10 +15936,10 @@
         <v>45193.5</v>
       </c>
       <c r="F174" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G174" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H174">
         <v>1</v>
@@ -16025,10 +16025,10 @@
         <v>45193.5</v>
       </c>
       <c r="F175" t="s">
+        <v>34</v>
+      </c>
+      <c r="G175" t="s">
         <v>30</v>
-      </c>
-      <c r="G175" t="s">
-        <v>34</v>
       </c>
       <c r="H175">
         <v>1</v>
@@ -16117,7 +16117,7 @@
         <v>36</v>
       </c>
       <c r="G176" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H176">
         <v>4</v>
@@ -16292,10 +16292,10 @@
         <v>45193.5</v>
       </c>
       <c r="F178" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G178" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H178">
         <v>1</v>
@@ -16470,7 +16470,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F180" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G180" t="s">
         <v>32</v>
@@ -16648,7 +16648,7 @@
         <v>45200.5</v>
       </c>
       <c r="F182" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G182" t="s">
         <v>43</v>
@@ -16737,7 +16737,7 @@
         <v>45200.5</v>
       </c>
       <c r="F183" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G183" t="s">
         <v>36</v>
@@ -16826,10 +16826,10 @@
         <v>45200.59375</v>
       </c>
       <c r="F184" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G184" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H184">
         <v>2</v>
@@ -16915,10 +16915,10 @@
         <v>45203.58333333334</v>
       </c>
       <c r="F185" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G185" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H185">
         <v>5</v>
@@ -17004,7 +17004,7 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F186" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G186" t="s">
         <v>36</v>
@@ -17093,7 +17093,7 @@
         <v>45207.5</v>
       </c>
       <c r="F187" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G187" t="s">
         <v>44</v>
@@ -17185,7 +17185,7 @@
         <v>32</v>
       </c>
       <c r="G188" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H188">
         <v>1</v>
@@ -17271,10 +17271,10 @@
         <v>45207.5</v>
       </c>
       <c r="F189" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G189" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17348,7 +17348,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6011519</v>
+        <v>6011936</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17360,76 +17360,76 @@
         <v>45207.5</v>
       </c>
       <c r="F190" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G190" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K190">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="L190">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M190">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="N190">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="O190">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P190">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q190">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R190">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="S190">
-        <v>1.85</v>
+        <v>1.94</v>
       </c>
       <c r="T190">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U190">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V190">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W190">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
-        <v>-1</v>
+        <v>0.96</v>
       </c>
       <c r="AA190">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB190">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC190">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17437,7 +17437,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6011936</v>
+        <v>6011519</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17449,76 +17449,76 @@
         <v>45207.5</v>
       </c>
       <c r="F191" t="s">
+        <v>39</v>
+      </c>
+      <c r="G191" t="s">
         <v>34</v>
       </c>
-      <c r="G191" t="s">
-        <v>29</v>
-      </c>
       <c r="H191">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I191">
+        <v>1</v>
+      </c>
+      <c r="J191" t="s">
+        <v>46</v>
+      </c>
+      <c r="K191">
+        <v>2.4</v>
+      </c>
+      <c r="L191">
+        <v>3.4</v>
+      </c>
+      <c r="M191">
+        <v>2.8</v>
+      </c>
+      <c r="N191">
         <v>2</v>
       </c>
-      <c r="J191" t="s">
-        <v>45</v>
-      </c>
-      <c r="K191">
+      <c r="O191">
+        <v>3.8</v>
+      </c>
+      <c r="P191">
+        <v>3.5</v>
+      </c>
+      <c r="Q191">
+        <v>-0.5</v>
+      </c>
+      <c r="R191">
+        <v>2</v>
+      </c>
+      <c r="S191">
         <v>1.85</v>
       </c>
-      <c r="L191">
-        <v>4</v>
-      </c>
-      <c r="M191">
-        <v>3.6</v>
-      </c>
-      <c r="N191">
-        <v>1.6</v>
-      </c>
-      <c r="O191">
-        <v>4.75</v>
-      </c>
-      <c r="P191">
-        <v>4.75</v>
-      </c>
-      <c r="Q191">
-        <v>-1</v>
-      </c>
-      <c r="R191">
-        <v>1.96</v>
-      </c>
-      <c r="S191">
-        <v>1.94</v>
-      </c>
       <c r="T191">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U191">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V191">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W191">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X191">
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z191">
-        <v>0.96</v>
+        <v>-1</v>
       </c>
       <c r="AA191">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB191">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC191">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17538,10 +17538,10 @@
         <v>45207.5</v>
       </c>
       <c r="F192" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G192" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -17716,10 +17716,10 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F194" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G194" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H194">
         <v>4</v>
@@ -17808,7 +17808,7 @@
         <v>35</v>
       </c>
       <c r="G195" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H195">
         <v>3</v>
@@ -17983,10 +17983,10 @@
         <v>45221.5</v>
       </c>
       <c r="F197" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G197" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H197">
         <v>0</v>
@@ -18075,7 +18075,7 @@
         <v>29</v>
       </c>
       <c r="G198" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H198">
         <v>1</v>
@@ -18149,7 +18149,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6011520</v>
+        <v>6011421</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18161,40 +18161,40 @@
         <v>45221.5</v>
       </c>
       <c r="F199" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G199" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H199">
         <v>3</v>
       </c>
       <c r="I199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J199" t="s">
         <v>45</v>
       </c>
       <c r="K199">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="L199">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M199">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="N199">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="O199">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P199">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="Q199">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R199">
         <v>1.925</v>
@@ -18203,16 +18203,16 @@
         <v>1.925</v>
       </c>
       <c r="T199">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U199">
+        <v>1.95</v>
+      </c>
+      <c r="V199">
         <v>1.9</v>
       </c>
-      <c r="V199">
-        <v>1.95</v>
-      </c>
       <c r="W199">
-        <v>2.6</v>
+        <v>0.909</v>
       </c>
       <c r="X199">
         <v>-1</v>
@@ -18227,7 +18227,7 @@
         <v>-1</v>
       </c>
       <c r="AB199">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC199">
         <v>-1</v>
@@ -18238,7 +18238,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6011421</v>
+        <v>6011520</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18250,40 +18250,40 @@
         <v>45221.5</v>
       </c>
       <c r="F200" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G200" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H200">
         <v>3</v>
       </c>
       <c r="I200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J200" t="s">
         <v>45</v>
       </c>
       <c r="K200">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="L200">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M200">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="N200">
+        <v>3.6</v>
+      </c>
+      <c r="O200">
+        <v>4.2</v>
+      </c>
+      <c r="P200">
         <v>1.909</v>
       </c>
-      <c r="O200">
-        <v>3.5</v>
-      </c>
-      <c r="P200">
-        <v>3.8</v>
-      </c>
       <c r="Q200">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R200">
         <v>1.925</v>
@@ -18292,16 +18292,16 @@
         <v>1.925</v>
       </c>
       <c r="T200">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U200">
+        <v>1.9</v>
+      </c>
+      <c r="V200">
         <v>1.95</v>
       </c>
-      <c r="V200">
-        <v>1.9</v>
-      </c>
       <c r="W200">
-        <v>0.909</v>
+        <v>2.6</v>
       </c>
       <c r="X200">
         <v>-1</v>
@@ -18316,7 +18316,7 @@
         <v>-1</v>
       </c>
       <c r="AB200">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC200">
         <v>-1</v>
@@ -18428,10 +18428,10 @@
         <v>45227.54166666666</v>
       </c>
       <c r="F202" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G202" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H202">
         <v>6</v>
@@ -18505,7 +18505,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6011937</v>
+        <v>6011523</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18517,76 +18517,76 @@
         <v>45228.54166666666</v>
       </c>
       <c r="F203" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G203" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I203">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J203" t="s">
         <v>47</v>
       </c>
       <c r="K203">
-        <v>1.533</v>
+        <v>5</v>
       </c>
       <c r="L203">
+        <v>4.1</v>
+      </c>
+      <c r="M203">
+        <v>1.571</v>
+      </c>
+      <c r="N203">
+        <v>5</v>
+      </c>
+      <c r="O203">
         <v>4.333</v>
       </c>
-      <c r="M203">
-        <v>5.25</v>
-      </c>
-      <c r="N203">
-        <v>1.533</v>
-      </c>
-      <c r="O203">
-        <v>4.75</v>
-      </c>
       <c r="P203">
-        <v>5.5</v>
+        <v>1.6</v>
       </c>
       <c r="Q203">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R203">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="S203">
+        <v>1.99</v>
+      </c>
+      <c r="T203">
+        <v>3</v>
+      </c>
+      <c r="U203">
+        <v>1.85</v>
+      </c>
+      <c r="V203">
         <v>2</v>
       </c>
-      <c r="T203">
-        <v>3.25</v>
-      </c>
-      <c r="U203">
-        <v>1.925</v>
-      </c>
-      <c r="V203">
-        <v>1.925</v>
-      </c>
       <c r="W203">
         <v>-1</v>
       </c>
       <c r="X203">
-        <v>3.75</v>
+        <v>3.333</v>
       </c>
       <c r="Y203">
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AA203">
+        <v>-1</v>
+      </c>
+      <c r="AB203">
+        <v>-1</v>
+      </c>
+      <c r="AC203">
         <v>1</v>
-      </c>
-      <c r="AB203">
-        <v>0.925</v>
-      </c>
-      <c r="AC203">
-        <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18594,7 +18594,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6012003</v>
+        <v>6011425</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18606,13 +18606,13 @@
         <v>45228.54166666666</v>
       </c>
       <c r="F204" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G204" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I204">
         <v>0</v>
@@ -18621,43 +18621,43 @@
         <v>45</v>
       </c>
       <c r="K204">
-        <v>3.7</v>
+        <v>2.05</v>
       </c>
       <c r="L204">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="M204">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="N204">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="O204">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P204">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="Q204">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R204">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S204">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T204">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U204">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V204">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W204">
-        <v>1.9</v>
+        <v>1.25</v>
       </c>
       <c r="X204">
         <v>-1</v>
@@ -18666,7 +18666,7 @@
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA204">
         <v>-1</v>
@@ -18675,7 +18675,7 @@
         <v>-1</v>
       </c>
       <c r="AC204">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18683,7 +18683,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6011425</v>
+        <v>6011937</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18695,76 +18695,76 @@
         <v>45228.54166666666</v>
       </c>
       <c r="F205" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G205" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H205">
         <v>2</v>
       </c>
       <c r="I205">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J205" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K205">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="L205">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M205">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="N205">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="O205">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P205">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="Q205">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R205">
+        <v>1.9</v>
+      </c>
+      <c r="S205">
+        <v>2</v>
+      </c>
+      <c r="T205">
+        <v>3.25</v>
+      </c>
+      <c r="U205">
         <v>1.925</v>
       </c>
-      <c r="S205">
+      <c r="V205">
         <v>1.925</v>
       </c>
-      <c r="T205">
-        <v>2.5</v>
-      </c>
-      <c r="U205">
-        <v>1.875</v>
-      </c>
-      <c r="V205">
-        <v>1.975</v>
-      </c>
       <c r="W205">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X205">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y205">
         <v>-1</v>
       </c>
       <c r="Z205">
+        <v>-1</v>
+      </c>
+      <c r="AA205">
+        <v>1</v>
+      </c>
+      <c r="AB205">
         <v>0.925</v>
       </c>
-      <c r="AA205">
-        <v>-1</v>
-      </c>
-      <c r="AB205">
-        <v>-1</v>
-      </c>
       <c r="AC205">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18772,7 +18772,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6011523</v>
+        <v>6012003</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18787,64 +18787,64 @@
         <v>40</v>
       </c>
       <c r="G206" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H206">
         <v>1</v>
       </c>
       <c r="I206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J206" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K206">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="L206">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="M206">
-        <v>1.571</v>
+        <v>1.833</v>
       </c>
       <c r="N206">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="O206">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P206">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="Q206">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R206">
-        <v>1.91</v>
+        <v>1.825</v>
       </c>
       <c r="S206">
-        <v>1.99</v>
+        <v>2.025</v>
       </c>
       <c r="T206">
         <v>3</v>
       </c>
       <c r="U206">
+        <v>2</v>
+      </c>
+      <c r="V206">
         <v>1.85</v>
       </c>
-      <c r="V206">
-        <v>2</v>
-      </c>
       <c r="W206">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X206">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y206">
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.9099999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA206">
         <v>-1</v>
@@ -18853,7 +18853,7 @@
         <v>-1</v>
       </c>
       <c r="AC206">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18962,7 +18962,7 @@
         <v>45229.60416666666</v>
       </c>
       <c r="F208" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G208" t="s">
         <v>44</v>
@@ -19051,7 +19051,7 @@
         <v>45229.70833333334</v>
       </c>
       <c r="F209" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G209" t="s">
         <v>32</v>
@@ -19140,7 +19140,7 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F210" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G210" t="s">
         <v>36</v>
@@ -19232,7 +19232,7 @@
         <v>44</v>
       </c>
       <c r="G211" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H211">
         <v>1</v>
@@ -19318,7 +19318,7 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F212" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G212" t="s">
         <v>43</v>
@@ -19410,7 +19410,7 @@
         <v>35</v>
       </c>
       <c r="G213" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H213">
         <v>2</v>
@@ -19499,7 +19499,7 @@
         <v>29</v>
       </c>
       <c r="G214" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H214">
         <v>3</v>
@@ -19585,10 +19585,10 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F215" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G215" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H215">
         <v>0</v>
@@ -19677,7 +19677,7 @@
         <v>32</v>
       </c>
       <c r="G216" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H216">
         <v>0</v>
@@ -19763,10 +19763,10 @@
         <v>45236.625</v>
       </c>
       <c r="F217" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G217" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H217">
         <v>0</v>
@@ -19852,7 +19852,7 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F218" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G218" t="s">
         <v>35</v>
@@ -19929,7 +19929,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6011939</v>
+        <v>6012005</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19941,76 +19941,76 @@
         <v>45242.54166666666</v>
       </c>
       <c r="F219" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G219" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K219">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="L219">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M219">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="N219">
         <v>1.833</v>
       </c>
       <c r="O219">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P219">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q219">
         <v>-0.5</v>
       </c>
       <c r="R219">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="S219">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="T219">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U219">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="V219">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W219">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X219">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y219">
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA219">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AB219">
         <v>-1</v>
       </c>
       <c r="AC219">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20018,7 +20018,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6012005</v>
+        <v>6011939</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20030,76 +20030,76 @@
         <v>45242.54166666666</v>
       </c>
       <c r="F220" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G220" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K220">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L220">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M220">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N220">
         <v>1.833</v>
       </c>
       <c r="O220">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P220">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q220">
         <v>-0.5</v>
       </c>
       <c r="R220">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="S220">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="T220">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U220">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="V220">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W220">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X220">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y220">
         <v>-1</v>
       </c>
       <c r="Z220">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA220">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AB220">
         <v>-1</v>
       </c>
       <c r="AC220">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20107,7 +20107,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6011530</v>
+        <v>6011428</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20119,55 +20119,55 @@
         <v>45242.54166666666</v>
       </c>
       <c r="F221" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G221" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I221">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J221" t="s">
         <v>46</v>
       </c>
       <c r="K221">
-        <v>1.95</v>
+        <v>3.4</v>
       </c>
       <c r="L221">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M221">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="N221">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="O221">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P221">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="Q221">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R221">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S221">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T221">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U221">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V221">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W221">
         <v>-1</v>
@@ -20176,19 +20176,19 @@
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>2.75</v>
+        <v>0.909</v>
       </c>
       <c r="Z221">
         <v>-1</v>
       </c>
       <c r="AA221">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB221">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC221">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20196,7 +20196,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6011428</v>
+        <v>6011527</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20208,76 +20208,76 @@
         <v>45242.54166666666</v>
       </c>
       <c r="F222" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G222" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H222">
         <v>1</v>
       </c>
       <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222" t="s">
+        <v>45</v>
+      </c>
+      <c r="K222">
+        <v>1.125</v>
+      </c>
+      <c r="L222">
+        <v>9</v>
+      </c>
+      <c r="M222">
+        <v>15</v>
+      </c>
+      <c r="N222">
+        <v>1.1</v>
+      </c>
+      <c r="O222">
+        <v>10</v>
+      </c>
+      <c r="P222">
+        <v>21</v>
+      </c>
+      <c r="Q222">
+        <v>-2.75</v>
+      </c>
+      <c r="R222">
+        <v>1.88</v>
+      </c>
+      <c r="S222">
+        <v>2.02</v>
+      </c>
+      <c r="T222">
+        <v>4.25</v>
+      </c>
+      <c r="U222">
+        <v>1.85</v>
+      </c>
+      <c r="V222">
         <v>2</v>
       </c>
-      <c r="J222" t="s">
-        <v>46</v>
-      </c>
-      <c r="K222">
-        <v>3.4</v>
-      </c>
-      <c r="L222">
-        <v>3.5</v>
-      </c>
-      <c r="M222">
-        <v>2.05</v>
-      </c>
-      <c r="N222">
-        <v>4</v>
-      </c>
-      <c r="O222">
-        <v>3.6</v>
-      </c>
-      <c r="P222">
-        <v>1.909</v>
-      </c>
-      <c r="Q222">
-        <v>0.5</v>
-      </c>
-      <c r="R222">
-        <v>1.975</v>
-      </c>
-      <c r="S222">
-        <v>1.875</v>
-      </c>
-      <c r="T222">
-        <v>2.5</v>
-      </c>
-      <c r="U222">
-        <v>1.925</v>
-      </c>
-      <c r="V222">
-        <v>1.925</v>
-      </c>
       <c r="W222">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X222">
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z222">
         <v>-1</v>
       </c>
       <c r="AA222">
-        <v>0.875</v>
+        <v>1.02</v>
       </c>
       <c r="AB222">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC222">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20285,7 +20285,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6011527</v>
+        <v>6011530</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20297,76 +20297,76 @@
         <v>45242.54166666666</v>
       </c>
       <c r="F223" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G223" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
         <v>1</v>
       </c>
-      <c r="I223">
-        <v>0</v>
-      </c>
       <c r="J223" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K223">
-        <v>1.125</v>
+        <v>1.95</v>
       </c>
       <c r="L223">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="M223">
-        <v>15</v>
+        <v>3.5</v>
       </c>
       <c r="N223">
-        <v>1.1</v>
+        <v>1.95</v>
       </c>
       <c r="O223">
-        <v>10</v>
+        <v>3.75</v>
       </c>
       <c r="P223">
-        <v>21</v>
+        <v>3.75</v>
       </c>
       <c r="Q223">
-        <v>-2.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R223">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="S223">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="T223">
-        <v>4.25</v>
+        <v>2.75</v>
       </c>
       <c r="U223">
+        <v>2</v>
+      </c>
+      <c r="V223">
         <v>1.85</v>
       </c>
-      <c r="V223">
-        <v>2</v>
-      </c>
       <c r="W223">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X223">
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z223">
         <v>-1</v>
       </c>
       <c r="AA223">
-        <v>1.02</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB223">
         <v>-1</v>
       </c>
       <c r="AC223">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20386,7 +20386,7 @@
         <v>45242.54166666666</v>
       </c>
       <c r="F224" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G224" t="s">
         <v>29</v>
@@ -20475,7 +20475,7 @@
         <v>45242.63541666666</v>
       </c>
       <c r="F225" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G225" t="s">
         <v>44</v>
@@ -20567,7 +20567,7 @@
         <v>29</v>
       </c>
       <c r="G226" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H226">
         <v>1</v>
@@ -20656,7 +20656,7 @@
         <v>35</v>
       </c>
       <c r="G227" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H227">
         <v>4</v>
@@ -20742,10 +20742,10 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F228" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G228" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H228">
         <v>2</v>
@@ -20831,7 +20831,7 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F229" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G229" t="s">
         <v>43</v>
@@ -20908,7 +20908,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6011531</v>
+        <v>6011430</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20920,73 +20920,73 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F230" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G230" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230">
+        <v>1</v>
+      </c>
+      <c r="J230" t="s">
+        <v>45</v>
+      </c>
+      <c r="K230">
+        <v>1.533</v>
+      </c>
+      <c r="L230">
+        <v>4.333</v>
+      </c>
+      <c r="M230">
+        <v>5.5</v>
+      </c>
+      <c r="N230">
+        <v>1.615</v>
+      </c>
+      <c r="O230">
         <v>4</v>
       </c>
-      <c r="J230" t="s">
-        <v>46</v>
-      </c>
-      <c r="K230">
-        <v>4.75</v>
-      </c>
-      <c r="L230">
-        <v>4.5</v>
-      </c>
-      <c r="M230">
-        <v>1.571</v>
-      </c>
-      <c r="N230">
-        <v>3.6</v>
-      </c>
-      <c r="O230">
-        <v>4.2</v>
-      </c>
       <c r="P230">
+        <v>5.25</v>
+      </c>
+      <c r="Q230">
+        <v>-0.75</v>
+      </c>
+      <c r="R230">
+        <v>1.86</v>
+      </c>
+      <c r="S230">
+        <v>2.04</v>
+      </c>
+      <c r="T230">
+        <v>2.5</v>
+      </c>
+      <c r="U230">
+        <v>2</v>
+      </c>
+      <c r="V230">
         <v>1.85</v>
       </c>
-      <c r="Q230">
-        <v>0.5</v>
-      </c>
-      <c r="R230">
-        <v>2.07</v>
-      </c>
-      <c r="S230">
-        <v>1.83</v>
-      </c>
-      <c r="T230">
-        <v>3.25</v>
-      </c>
-      <c r="U230">
-        <v>1.95</v>
-      </c>
-      <c r="V230">
-        <v>1.9</v>
-      </c>
       <c r="W230">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z230">
-        <v>-1</v>
+        <v>0.43</v>
       </c>
       <c r="AA230">
-        <v>0.8300000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB230">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC230">
         <v>-1</v>
@@ -20997,7 +20997,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6011430</v>
+        <v>6011429</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21009,73 +21009,73 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F231" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G231" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I231">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J231" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K231">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="L231">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M231">
+        <v>5.25</v>
+      </c>
+      <c r="N231">
+        <v>1.6</v>
+      </c>
+      <c r="O231">
+        <v>4.2</v>
+      </c>
+      <c r="P231">
         <v>5.5</v>
-      </c>
-      <c r="N231">
-        <v>1.615</v>
-      </c>
-      <c r="O231">
-        <v>4</v>
-      </c>
-      <c r="P231">
-        <v>5.25</v>
       </c>
       <c r="Q231">
         <v>-0.75</v>
       </c>
       <c r="R231">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="S231">
-        <v>2.04</v>
+        <v>2.07</v>
       </c>
       <c r="T231">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U231">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V231">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W231">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X231">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y231">
         <v>-1</v>
       </c>
       <c r="Z231">
-        <v>0.43</v>
+        <v>-1</v>
       </c>
       <c r="AA231">
-        <v>-0.5</v>
+        <v>1.07</v>
       </c>
       <c r="AB231">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC231">
         <v>-1</v>
@@ -21086,7 +21086,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6011429</v>
+        <v>6011531</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21098,49 +21098,49 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F232" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G232" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H232">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I232">
         <v>4</v>
       </c>
       <c r="J232" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K232">
+        <v>4.75</v>
+      </c>
+      <c r="L232">
+        <v>4.5</v>
+      </c>
+      <c r="M232">
         <v>1.571</v>
       </c>
-      <c r="L232">
-        <v>4.2</v>
-      </c>
-      <c r="M232">
-        <v>5.25</v>
-      </c>
       <c r="N232">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="O232">
         <v>4.2</v>
       </c>
       <c r="P232">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q232">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R232">
+        <v>2.07</v>
+      </c>
+      <c r="S232">
         <v>1.83</v>
       </c>
-      <c r="S232">
-        <v>2.07</v>
-      </c>
       <c r="T232">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U232">
         <v>1.95</v>
@@ -21152,16 +21152,16 @@
         <v>-1</v>
       </c>
       <c r="X232">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y232">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z232">
         <v>-1</v>
       </c>
       <c r="AA232">
-        <v>1.07</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB232">
         <v>0.95</v>
@@ -21187,10 +21187,10 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F233" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G233" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H233">
         <v>1</v>
@@ -21264,7 +21264,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6390526</v>
+        <v>6011940</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21276,76 +21276,76 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F234" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G234" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I234">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J234" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K234">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="L234">
         <v>5</v>
       </c>
       <c r="M234">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="N234">
-        <v>1.333</v>
+        <v>1.45</v>
       </c>
       <c r="O234">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="P234">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q234">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R234">
-        <v>1.825</v>
+        <v>1.89</v>
       </c>
       <c r="S234">
-        <v>2.025</v>
+        <v>2.01</v>
       </c>
       <c r="T234">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U234">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V234">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W234">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X234">
         <v>-1</v>
       </c>
       <c r="Y234">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z234">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA234">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB234">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC234">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21353,7 +21353,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6390446</v>
+        <v>6390526</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21365,76 +21365,76 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F235" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G235" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H235">
         <v>1</v>
       </c>
       <c r="I235">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J235" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K235">
-        <v>1.615</v>
+        <v>1.4</v>
       </c>
       <c r="L235">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M235">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="N235">
-        <v>1.8</v>
+        <v>1.333</v>
       </c>
       <c r="O235">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="P235">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q235">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R235">
+        <v>1.825</v>
+      </c>
+      <c r="S235">
         <v>2.025</v>
       </c>
-      <c r="S235">
+      <c r="T235">
+        <v>3.75</v>
+      </c>
+      <c r="U235">
         <v>1.825</v>
       </c>
-      <c r="T235">
-        <v>3</v>
-      </c>
-      <c r="U235">
-        <v>1.9</v>
-      </c>
       <c r="V235">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W235">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X235">
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z235">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA235">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB235">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC235">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21442,7 +21442,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6390445</v>
+        <v>6390446</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21457,10 +21457,10 @@
         <v>39</v>
       </c>
       <c r="G236" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H236">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I236">
         <v>0</v>
@@ -21469,34 +21469,34 @@
         <v>45</v>
       </c>
       <c r="K236">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="L236">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M236">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="N236">
         <v>1.8</v>
       </c>
       <c r="O236">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P236">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q236">
         <v>-0.75</v>
       </c>
       <c r="R236">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S236">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T236">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U236">
         <v>1.9</v>
@@ -21514,16 +21514,16 @@
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AA236">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB236">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC236">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21531,7 +21531,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6012013</v>
+        <v>6390445</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21543,76 +21543,76 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F237" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G237" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J237" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K237">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L237">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M237">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="N237">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="O237">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P237">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q237">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R237">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S237">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T237">
         <v>2.5</v>
       </c>
       <c r="U237">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V237">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W237">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X237">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y237">
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA237">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB237">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC237">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6011534</v>
+        <v>6012013</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,10 +21632,10 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F238" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G238" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H238">
         <v>1</v>
@@ -21647,61 +21647,61 @@
         <v>47</v>
       </c>
       <c r="K238">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="L238">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="M238">
-        <v>10</v>
+        <v>2.625</v>
       </c>
       <c r="N238">
-        <v>1.222</v>
+        <v>2.05</v>
       </c>
       <c r="O238">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="P238">
-        <v>11</v>
+        <v>3.4</v>
       </c>
       <c r="Q238">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R238">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S238">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T238">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U238">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V238">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W238">
         <v>-1</v>
       </c>
       <c r="X238">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="Y238">
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA238">
-        <v>0.8999999999999999</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB238">
         <v>-1</v>
       </c>
       <c r="AC238">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21709,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6011940</v>
+        <v>6011534</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21721,70 +21721,70 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F239" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G239" t="s">
         <v>34</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K239">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="L239">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="M239">
-        <v>5.75</v>
+        <v>10</v>
       </c>
       <c r="N239">
-        <v>1.45</v>
+        <v>1.222</v>
       </c>
       <c r="O239">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P239">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Q239">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="R239">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="S239">
-        <v>2.01</v>
+        <v>1.9</v>
       </c>
       <c r="T239">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U239">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V239">
         <v>2</v>
       </c>
       <c r="W239">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X239">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y239">
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA239">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB239">
         <v>-1</v>
@@ -21810,10 +21810,10 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F240" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G240" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H240">
         <v>4</v>
@@ -21899,7 +21899,7 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F241" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G241" t="s">
         <v>35</v>

--- a/Norway Eliteserien/Norway Eliteserien.xlsx
+++ b/Norway Eliteserien/Norway Eliteserien.xlsx
@@ -21442,7 +21442,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6390445</v>
+        <v>6012013</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21454,76 +21454,76 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F236" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G236" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H236">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J236" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K236">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L236">
+        <v>3.5</v>
+      </c>
+      <c r="M236">
+        <v>2.625</v>
+      </c>
+      <c r="N236">
+        <v>2.05</v>
+      </c>
+      <c r="O236">
+        <v>3.6</v>
+      </c>
+      <c r="P236">
         <v>3.4</v>
       </c>
-      <c r="M236">
-        <v>3.1</v>
-      </c>
-      <c r="N236">
+      <c r="Q236">
+        <v>-0.25</v>
+      </c>
+      <c r="R236">
         <v>1.8</v>
       </c>
-      <c r="O236">
-        <v>3.75</v>
-      </c>
-      <c r="P236">
-        <v>4.5</v>
-      </c>
-      <c r="Q236">
-        <v>-0.75</v>
-      </c>
-      <c r="R236">
-        <v>1.975</v>
-      </c>
       <c r="S236">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T236">
         <v>2.5</v>
       </c>
       <c r="U236">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V236">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W236">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X236">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y236">
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA236">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB236">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC236">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21531,7 +21531,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6012013</v>
+        <v>6012008</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21543,76 +21543,76 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F237" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G237" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J237" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K237">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="L237">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M237">
-        <v>2.625</v>
+        <v>1.65</v>
       </c>
       <c r="N237">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="O237">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P237">
-        <v>3.4</v>
+        <v>1.75</v>
       </c>
       <c r="Q237">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R237">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="S237">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="T237">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U237">
+        <v>1.85</v>
+      </c>
+      <c r="V237">
         <v>2</v>
       </c>
-      <c r="V237">
-        <v>1.85</v>
-      </c>
       <c r="W237">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X237">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y237">
         <v>-1</v>
       </c>
       <c r="Z237">
+        <v>0.8600000000000001</v>
+      </c>
+      <c r="AA237">
+        <v>-1</v>
+      </c>
+      <c r="AB237">
+        <v>0.425</v>
+      </c>
+      <c r="AC237">
         <v>-0.5</v>
-      </c>
-      <c r="AA237">
-        <v>0.5249999999999999</v>
-      </c>
-      <c r="AB237">
-        <v>-1</v>
-      </c>
-      <c r="AC237">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6012008</v>
+        <v>6011940</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,13 +21632,13 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F238" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G238" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H238">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I238">
         <v>0</v>
@@ -21647,34 +21647,34 @@
         <v>45</v>
       </c>
       <c r="K238">
-        <v>4.5</v>
+        <v>1.45</v>
       </c>
       <c r="L238">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M238">
-        <v>1.65</v>
+        <v>5.75</v>
       </c>
       <c r="N238">
-        <v>4.2</v>
+        <v>1.45</v>
       </c>
       <c r="O238">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P238">
-        <v>1.75</v>
+        <v>6</v>
       </c>
       <c r="Q238">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R238">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="S238">
-        <v>2.04</v>
+        <v>2.01</v>
       </c>
       <c r="T238">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U238">
         <v>1.85</v>
@@ -21683,7 +21683,7 @@
         <v>2</v>
       </c>
       <c r="W238">
-        <v>3.2</v>
+        <v>0.45</v>
       </c>
       <c r="X238">
         <v>-1</v>
@@ -21692,16 +21692,16 @@
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>0.8600000000000001</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA238">
         <v>-1</v>
       </c>
       <c r="AB238">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC238">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21709,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6011940</v>
+        <v>6011535</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21721,58 +21721,58 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F239" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G239" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J239" t="s">
         <v>45</v>
       </c>
       <c r="K239">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="L239">
+        <v>4.2</v>
+      </c>
+      <c r="M239">
         <v>5</v>
       </c>
-      <c r="M239">
+      <c r="N239">
+        <v>1.5</v>
+      </c>
+      <c r="O239">
+        <v>4.75</v>
+      </c>
+      <c r="P239">
         <v>5.75</v>
-      </c>
-      <c r="N239">
-        <v>1.45</v>
-      </c>
-      <c r="O239">
-        <v>5</v>
-      </c>
-      <c r="P239">
-        <v>6</v>
       </c>
       <c r="Q239">
         <v>-1.25</v>
       </c>
       <c r="R239">
-        <v>1.89</v>
+        <v>2.05</v>
       </c>
       <c r="S239">
-        <v>2.01</v>
+        <v>1.8</v>
       </c>
       <c r="T239">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U239">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V239">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W239">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="X239">
         <v>-1</v>
@@ -21781,16 +21781,16 @@
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>0.8899999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA239">
         <v>-1</v>
       </c>
       <c r="AB239">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC239">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21798,7 +21798,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6011535</v>
+        <v>6011534</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21810,76 +21810,76 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F240" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G240" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H240">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I240">
         <v>1</v>
       </c>
       <c r="J240" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K240">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="L240">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="M240">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N240">
-        <v>1.5</v>
+        <v>1.222</v>
       </c>
       <c r="O240">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="P240">
-        <v>5.75</v>
+        <v>11</v>
       </c>
       <c r="Q240">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="R240">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S240">
+        <v>1.9</v>
+      </c>
+      <c r="T240">
+        <v>3.5</v>
+      </c>
+      <c r="U240">
         <v>1.8</v>
       </c>
-      <c r="T240">
-        <v>3.25</v>
-      </c>
-      <c r="U240">
-        <v>2.025</v>
-      </c>
       <c r="V240">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W240">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X240">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y240">
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA240">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB240">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC240">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -21887,7 +21887,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6011534</v>
+        <v>6390445</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21899,76 +21899,76 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F241" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G241" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J241" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K241">
-        <v>1.25</v>
+        <v>2.25</v>
       </c>
       <c r="L241">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M241">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="N241">
-        <v>1.222</v>
+        <v>1.8</v>
       </c>
       <c r="O241">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="P241">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="Q241">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R241">
+        <v>1.975</v>
+      </c>
+      <c r="S241">
+        <v>1.875</v>
+      </c>
+      <c r="T241">
+        <v>2.5</v>
+      </c>
+      <c r="U241">
+        <v>1.9</v>
+      </c>
+      <c r="V241">
         <v>1.95</v>
       </c>
-      <c r="S241">
-        <v>1.9</v>
-      </c>
-      <c r="T241">
-        <v>3.5</v>
-      </c>
-      <c r="U241">
-        <v>1.8</v>
-      </c>
-      <c r="V241">
-        <v>2</v>
-      </c>
       <c r="W241">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X241">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y241">
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA241">
+        <v>-1</v>
+      </c>
+      <c r="AB241">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB241">
-        <v>-1</v>
-      </c>
       <c r="AC241">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Norway Eliteserien/Norway Eliteserien.xlsx
+++ b/Norway Eliteserien/Norway Eliteserien.xlsx
@@ -115,13 +115,13 @@
     <t>Aalesund</t>
   </si>
   <si>
-    <t>Rosenborg</t>
-  </si>
-  <si>
     <t>Stromsgodset</t>
   </si>
   <si>
     <t>Lillestrom</t>
+  </si>
+  <si>
+    <t>Rosenborg</t>
   </si>
   <si>
     <t>Viking FK</t>
@@ -981,7 +981,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6011479</v>
+        <v>6011480</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -996,25 +996,25 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K6">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="L6">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M6">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N6">
         <v>1.727</v>
@@ -1029,37 +1029,37 @@
         <v>-0.75</v>
       </c>
       <c r="R6">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S6">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T6">
         <v>2.5</v>
       </c>
       <c r="U6">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V6">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W6">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z6">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB6">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -1070,7 +1070,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6011480</v>
+        <v>6011981</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1085,70 +1085,70 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K7">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="L7">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M7">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="N7">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="O7">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P7">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q7">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R7">
+        <v>1.95</v>
+      </c>
+      <c r="S7">
+        <v>1.9</v>
+      </c>
+      <c r="T7">
+        <v>2.75</v>
+      </c>
+      <c r="U7">
         <v>1.925</v>
       </c>
-      <c r="S7">
+      <c r="V7">
         <v>1.925</v>
       </c>
-      <c r="T7">
-        <v>2.5</v>
-      </c>
-      <c r="U7">
-        <v>1.85</v>
-      </c>
-      <c r="V7">
-        <v>2</v>
-      </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA7">
+        <v>-1</v>
+      </c>
+      <c r="AB7">
         <v>0.925</v>
-      </c>
-      <c r="AB7">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1159,7 +1159,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6011981</v>
+        <v>6011479</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1174,55 +1174,55 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
         <v>49</v>
       </c>
       <c r="K8">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="L8">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M8">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="N8">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="O8">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P8">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q8">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R8">
+        <v>1.9</v>
+      </c>
+      <c r="S8">
         <v>1.95</v>
       </c>
-      <c r="S8">
-        <v>1.9</v>
-      </c>
       <c r="T8">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U8">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V8">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W8">
-        <v>0.571</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1231,13 +1231,13 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AC8">
         <v>-1</v>
@@ -1441,7 +1441,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1530,7 +1530,7 @@
         <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1975,7 +1975,7 @@
         <v>42</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2417,7 +2417,7 @@
         <v>45102.5</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
         <v>37</v>
@@ -2506,7 +2506,7 @@
         <v>45102.59375</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
         <v>39</v>
@@ -2672,7 +2672,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6011399</v>
+        <v>6011484</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2684,58 +2684,58 @@
         <v>45109.5</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
         <v>49</v>
       </c>
       <c r="K25">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="L25">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M25">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="N25">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="O25">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P25">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q25">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R25">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S25">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T25">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U25">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V25">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W25">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="X25">
         <v>-1</v>
@@ -2744,16 +2744,16 @@
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA25">
         <v>-1</v>
       </c>
       <c r="AB25">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2761,7 +2761,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6011400</v>
+        <v>6011399</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2773,76 +2773,76 @@
         <v>45109.5</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K26">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="L26">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M26">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="N26">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="O26">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P26">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q26">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R26">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S26">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T26">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U26">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V26">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA26">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC26">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2850,7 +2850,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6011485</v>
+        <v>6011400</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2862,49 +2862,49 @@
         <v>45109.5</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K27">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="L27">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="M27">
-        <v>10</v>
+        <v>5.25</v>
       </c>
       <c r="N27">
-        <v>1.333</v>
+        <v>1.65</v>
       </c>
       <c r="O27">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="P27">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="Q27">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R27">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S27">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T27">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U27">
         <v>1.875</v>
@@ -2913,25 +2913,25 @@
         <v>1.975</v>
       </c>
       <c r="W27">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB27">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.4875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2939,7 +2939,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6011484</v>
+        <v>6011485</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2951,40 +2951,40 @@
         <v>45109.5</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G28" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
         <v>1</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
       </c>
       <c r="J28" t="s">
         <v>49</v>
       </c>
       <c r="K28">
-        <v>3.2</v>
+        <v>1.25</v>
       </c>
       <c r="L28">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="M28">
-        <v>2.2</v>
+        <v>10</v>
       </c>
       <c r="N28">
-        <v>3.2</v>
+        <v>1.333</v>
       </c>
       <c r="O28">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="P28">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="Q28">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R28">
         <v>1.925</v>
@@ -2993,16 +2993,16 @@
         <v>1.925</v>
       </c>
       <c r="T28">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U28">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V28">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W28">
-        <v>2.2</v>
+        <v>0.333</v>
       </c>
       <c r="X28">
         <v>-1</v>
@@ -3011,16 +3011,16 @@
         <v>-1</v>
       </c>
       <c r="Z28">
+        <v>-1</v>
+      </c>
+      <c r="AA28">
         <v>0.925</v>
       </c>
-      <c r="AA28">
-        <v>-1</v>
-      </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC28">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3221,7 +3221,7 @@
         <v>38</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3473,7 +3473,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6008607</v>
+        <v>6011987</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3485,13 +3485,13 @@
         <v>45116.5</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G34" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
         <v>2</v>
@@ -3500,41 +3500,41 @@
         <v>48</v>
       </c>
       <c r="K34">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="L34">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M34">
-        <v>1.533</v>
+        <v>3.25</v>
       </c>
       <c r="N34">
-        <v>5.75</v>
+        <v>2.25</v>
       </c>
       <c r="O34">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P34">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="Q34">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R34">
+        <v>2.05</v>
+      </c>
+      <c r="S34">
+        <v>1.8</v>
+      </c>
+      <c r="T34">
+        <v>2.75</v>
+      </c>
+      <c r="U34">
+        <v>1.85</v>
+      </c>
+      <c r="V34">
         <v>2</v>
       </c>
-      <c r="S34">
-        <v>1.85</v>
-      </c>
-      <c r="T34">
-        <v>3</v>
-      </c>
-      <c r="U34">
-        <v>1.975</v>
-      </c>
-      <c r="V34">
-        <v>1.875</v>
-      </c>
       <c r="W34">
         <v>-1</v>
       </c>
@@ -3542,19 +3542,19 @@
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>0.5329999999999999</v>
+        <v>2</v>
       </c>
       <c r="Z34">
         <v>-1</v>
       </c>
       <c r="AA34">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC34">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3562,7 +3562,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6011932</v>
+        <v>6008607</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3574,76 +3574,76 @@
         <v>45116.5</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H35">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K35">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="L35">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M35">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="N35">
-        <v>3.3</v>
+        <v>5.75</v>
       </c>
       <c r="O35">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P35">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="Q35">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R35">
+        <v>2</v>
+      </c>
+      <c r="S35">
         <v>1.85</v>
       </c>
-      <c r="S35">
-        <v>2.05</v>
-      </c>
       <c r="T35">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U35">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V35">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W35">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z35">
+        <v>-1</v>
+      </c>
+      <c r="AA35">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA35">
-        <v>-1</v>
-      </c>
       <c r="AB35">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3651,7 +3651,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6011489</v>
+        <v>6011932</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3663,76 +3663,76 @@
         <v>45116.5</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K36">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="L36">
+        <v>3.5</v>
+      </c>
+      <c r="M36">
+        <v>2.25</v>
+      </c>
+      <c r="N36">
         <v>3.3</v>
       </c>
-      <c r="M36">
-        <v>2.5</v>
-      </c>
-      <c r="N36">
-        <v>2.75</v>
-      </c>
       <c r="O36">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P36">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R36">
-        <v>1.94</v>
+        <v>1.85</v>
       </c>
       <c r="S36">
-        <v>1.96</v>
+        <v>2.05</v>
       </c>
       <c r="T36">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U36">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V36">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X36">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA36">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC36">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3740,7 +3740,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6011401</v>
+        <v>6011489</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3752,10 +3752,10 @@
         <v>45116.5</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3767,61 +3767,61 @@
         <v>50</v>
       </c>
       <c r="K37">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="L37">
         <v>3.3</v>
       </c>
       <c r="M37">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="N37">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="O37">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P37">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q37">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R37">
-        <v>1.925</v>
+        <v>1.94</v>
       </c>
       <c r="S37">
-        <v>1.925</v>
+        <v>1.96</v>
       </c>
       <c r="T37">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U37">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V37">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA37">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB37">
         <v>-1</v>
       </c>
       <c r="AC37">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3829,7 +3829,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6011987</v>
+        <v>6011401</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3841,76 +3841,76 @@
         <v>45116.5</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K38">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L38">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M38">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="N38">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="O38">
         <v>3.6</v>
       </c>
       <c r="P38">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q38">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R38">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S38">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T38">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U38">
+        <v>2</v>
+      </c>
+      <c r="V38">
         <v>1.85</v>
       </c>
-      <c r="V38">
-        <v>2</v>
-      </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y38">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
         <v>-1</v>
       </c>
       <c r="AA38">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB38">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4185,7 +4185,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6011490</v>
+        <v>6011403</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4200,55 +4200,55 @@
         <v>35</v>
       </c>
       <c r="G42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
         <v>49</v>
       </c>
       <c r="K42">
-        <v>1.333</v>
+        <v>1.95</v>
       </c>
       <c r="L42">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="M42">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="N42">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O42">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P42">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q42">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R42">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S42">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T42">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U42">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V42">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W42">
-        <v>0.363</v>
+        <v>1.1</v>
       </c>
       <c r="X42">
         <v>-1</v>
@@ -4257,13 +4257,13 @@
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA42">
         <v>-1</v>
       </c>
       <c r="AB42">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4274,7 +4274,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6011403</v>
+        <v>6011402</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4286,73 +4286,73 @@
         <v>45123.5</v>
       </c>
       <c r="F43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G43" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K43">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L43">
         <v>3.3</v>
       </c>
       <c r="M43">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N43">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="O43">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P43">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q43">
         <v>-0.25</v>
       </c>
       <c r="R43">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S43">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T43">
         <v>2.5</v>
       </c>
       <c r="U43">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V43">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W43">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z43">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB43">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4363,7 +4363,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6011402</v>
+        <v>6008608</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4375,76 +4375,76 @@
         <v>45123.5</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K44">
-        <v>2.3</v>
+        <v>1.181</v>
       </c>
       <c r="L44">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="M44">
-        <v>3.1</v>
+        <v>11</v>
       </c>
       <c r="N44">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="O44">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="P44">
-        <v>3.3</v>
+        <v>11</v>
       </c>
       <c r="Q44">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R44">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S44">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T44">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="U44">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V44">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
         <v>-1</v>
       </c>
       <c r="AA44">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AB44">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4452,7 +4452,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6008608</v>
+        <v>6011490</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4464,58 +4464,58 @@
         <v>45123.5</v>
       </c>
       <c r="F45" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G45" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H45">
+        <v>4</v>
+      </c>
+      <c r="I45">
         <v>2</v>
-      </c>
-      <c r="I45">
-        <v>1</v>
       </c>
       <c r="J45" t="s">
         <v>49</v>
       </c>
       <c r="K45">
-        <v>1.181</v>
+        <v>1.333</v>
       </c>
       <c r="L45">
+        <v>5.5</v>
+      </c>
+      <c r="M45">
         <v>7.5</v>
       </c>
-      <c r="M45">
-        <v>11</v>
-      </c>
       <c r="N45">
-        <v>1.2</v>
+        <v>1.363</v>
       </c>
       <c r="O45">
+        <v>5.25</v>
+      </c>
+      <c r="P45">
         <v>7.5</v>
       </c>
-      <c r="P45">
-        <v>11</v>
-      </c>
       <c r="Q45">
-        <v>-2</v>
+        <v>-1.5</v>
       </c>
       <c r="R45">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S45">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T45">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U45">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V45">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W45">
-        <v>0.2</v>
+        <v>0.363</v>
       </c>
       <c r="X45">
         <v>-1</v>
@@ -4524,16 +4524,16 @@
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA45">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC45">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4645,7 +4645,7 @@
         <v>42</v>
       </c>
       <c r="G47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4731,7 +4731,7 @@
         <v>45126.54166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G48" t="s">
         <v>32</v>
@@ -5001,7 +5001,7 @@
         <v>40</v>
       </c>
       <c r="G51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5354,10 +5354,10 @@
         <v>45130.59375</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G55" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5710,7 +5710,7 @@
         <v>45137.5</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G59" t="s">
         <v>44</v>
@@ -5787,7 +5787,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6011497</v>
+        <v>6011406</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5799,58 +5799,58 @@
         <v>45137.5</v>
       </c>
       <c r="F60" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G60" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H60">
+        <v>3</v>
+      </c>
+      <c r="I60">
         <v>2</v>
-      </c>
-      <c r="I60">
-        <v>1</v>
       </c>
       <c r="J60" t="s">
         <v>49</v>
       </c>
       <c r="K60">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="L60">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M60">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="N60">
-        <v>1.4</v>
+        <v>1.615</v>
       </c>
       <c r="O60">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P60">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="Q60">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R60">
+        <v>1.825</v>
+      </c>
+      <c r="S60">
+        <v>2.025</v>
+      </c>
+      <c r="T60">
+        <v>2.75</v>
+      </c>
+      <c r="U60">
         <v>1.975</v>
       </c>
-      <c r="S60">
+      <c r="V60">
         <v>1.875</v>
       </c>
-      <c r="T60">
-        <v>3.5</v>
-      </c>
-      <c r="U60">
-        <v>1.95</v>
-      </c>
-      <c r="V60">
-        <v>1.9</v>
-      </c>
       <c r="W60">
-        <v>0.3999999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5859,16 +5859,16 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA60">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC60">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5980,7 +5980,7 @@
         <v>32</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6054,7 +6054,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6011406</v>
+        <v>6011497</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6066,58 +6066,58 @@
         <v>45137.5</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
         <v>49</v>
       </c>
       <c r="K63">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="L63">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M63">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="N63">
-        <v>1.615</v>
+        <v>1.4</v>
       </c>
       <c r="O63">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P63">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="Q63">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R63">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S63">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T63">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U63">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V63">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W63">
-        <v>0.615</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X63">
         <v>-1</v>
@@ -6126,16 +6126,16 @@
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB63">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6244,7 +6244,7 @@
         <v>45143.54166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G65" t="s">
         <v>29</v>
@@ -6321,7 +6321,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6011500</v>
+        <v>6011501</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6333,73 +6333,73 @@
         <v>45144.5</v>
       </c>
       <c r="F66" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H66">
+        <v>5</v>
+      </c>
+      <c r="I66">
         <v>1</v>
       </c>
-      <c r="I66">
-        <v>2</v>
-      </c>
       <c r="J66" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K66">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="L66">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M66">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="N66">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="O66">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P66">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="Q66">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R66">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S66">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T66">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U66">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V66">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA66">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC66">
         <v>-1</v>
@@ -6410,7 +6410,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6011501</v>
+        <v>6011408</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6422,13 +6422,13 @@
         <v>45144.5</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G67" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H67">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I67">
         <v>1</v>
@@ -6437,43 +6437,43 @@
         <v>49</v>
       </c>
       <c r="K67">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="L67">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M67">
-        <v>1.615</v>
+        <v>2.7</v>
       </c>
       <c r="N67">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="O67">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P67">
+        <v>2.9</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
         <v>1.8</v>
       </c>
-      <c r="Q67">
-        <v>0.5</v>
-      </c>
-      <c r="R67">
+      <c r="S67">
+        <v>2.05</v>
+      </c>
+      <c r="T67">
+        <v>2.25</v>
+      </c>
+      <c r="U67">
+        <v>1.825</v>
+      </c>
+      <c r="V67">
         <v>2.025</v>
       </c>
-      <c r="S67">
-        <v>1.825</v>
-      </c>
-      <c r="T67">
-        <v>3.25</v>
-      </c>
-      <c r="U67">
-        <v>1.95</v>
-      </c>
-      <c r="V67">
-        <v>1.9</v>
-      </c>
       <c r="W67">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="X67">
         <v>-1</v>
@@ -6482,13 +6482,13 @@
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AA67">
         <v>-1</v>
       </c>
       <c r="AB67">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC67">
         <v>-1</v>
@@ -6499,7 +6499,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6011408</v>
+        <v>6011407</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6511,58 +6511,58 @@
         <v>45144.5</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G68" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H68">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
         <v>49</v>
       </c>
       <c r="K68">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L68">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M68">
+        <v>3.5</v>
+      </c>
+      <c r="N68">
         <v>2.7</v>
       </c>
-      <c r="N68">
-        <v>2.45</v>
-      </c>
       <c r="O68">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P68">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="Q68">
         <v>0</v>
       </c>
       <c r="R68">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S68">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T68">
         <v>2.25</v>
       </c>
       <c r="U68">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V68">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W68">
-        <v>1.45</v>
+        <v>1.7</v>
       </c>
       <c r="X68">
         <v>-1</v>
@@ -6571,13 +6571,13 @@
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA68">
         <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC68">
         <v>-1</v>
@@ -6588,7 +6588,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6011407</v>
+        <v>6011499</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6600,76 +6600,76 @@
         <v>45144.5</v>
       </c>
       <c r="F69" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G69" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>2</v>
+      </c>
+      <c r="J69" t="s">
+        <v>48</v>
+      </c>
+      <c r="K69">
+        <v>3.8</v>
+      </c>
+      <c r="L69">
         <v>4</v>
       </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69" t="s">
-        <v>49</v>
-      </c>
-      <c r="K69">
-        <v>2.1</v>
-      </c>
-      <c r="L69">
-        <v>3.25</v>
-      </c>
       <c r="M69">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="N69">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="O69">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P69">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="Q69">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R69">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S69">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T69">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U69">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V69">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W69">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z69">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB69">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6677,7 +6677,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6011499</v>
+        <v>6011500</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6689,13 +6689,13 @@
         <v>45144.5</v>
       </c>
       <c r="F70" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G70" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70">
         <v>2</v>
@@ -6704,34 +6704,34 @@
         <v>48</v>
       </c>
       <c r="K70">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="L70">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M70">
+        <v>2.3</v>
+      </c>
+      <c r="N70">
+        <v>2.5</v>
+      </c>
+      <c r="O70">
+        <v>3.4</v>
+      </c>
+      <c r="P70">
+        <v>2.75</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
         <v>1.8</v>
       </c>
-      <c r="N70">
-        <v>3.75</v>
-      </c>
-      <c r="O70">
-        <v>3.8</v>
-      </c>
-      <c r="P70">
-        <v>1.85</v>
-      </c>
-      <c r="Q70">
-        <v>0.5</v>
-      </c>
-      <c r="R70">
-        <v>1.95</v>
-      </c>
       <c r="S70">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T70">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U70">
         <v>1.875</v>
@@ -6746,19 +6746,19 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>0.8500000000000001</v>
+        <v>1.75</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC70">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6959,7 +6959,7 @@
         <v>37</v>
       </c>
       <c r="G73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -7134,7 +7134,7 @@
         <v>45151.5</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G75" t="s">
         <v>36</v>
@@ -7582,7 +7582,7 @@
         <v>44</v>
       </c>
       <c r="G80" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H80">
         <v>3</v>
@@ -7935,10 +7935,10 @@
         <v>45158.59375</v>
       </c>
       <c r="F84" t="s">
+        <v>33</v>
+      </c>
+      <c r="G84" t="s">
         <v>34</v>
-      </c>
-      <c r="G84" t="s">
-        <v>35</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -8291,7 +8291,7 @@
         <v>45165.59375</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G88" t="s">
         <v>32</v>
@@ -8650,7 +8650,7 @@
         <v>31</v>
       </c>
       <c r="G92" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H92">
         <v>3</v>
@@ -8739,7 +8739,7 @@
         <v>32</v>
       </c>
       <c r="G93" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8825,7 +8825,7 @@
         <v>45172.5</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G94" t="s">
         <v>38</v>
@@ -9184,7 +9184,7 @@
         <v>30</v>
       </c>
       <c r="G98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H98">
         <v>2</v>
@@ -9359,7 +9359,7 @@
         <v>45186.5</v>
       </c>
       <c r="F100" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G100" t="s">
         <v>39</v>
@@ -9629,7 +9629,7 @@
         <v>37</v>
       </c>
       <c r="G103" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H103">
         <v>3</v>
@@ -9982,10 +9982,10 @@
         <v>45193.5</v>
       </c>
       <c r="F107" t="s">
+        <v>34</v>
+      </c>
+      <c r="G107" t="s">
         <v>35</v>
-      </c>
-      <c r="G107" t="s">
-        <v>33</v>
       </c>
       <c r="H107">
         <v>3</v>
@@ -10059,7 +10059,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6011516</v>
+        <v>6011418</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10071,10 +10071,10 @@
         <v>45193.5</v>
       </c>
       <c r="F108" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G108" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10086,34 +10086,34 @@
         <v>50</v>
       </c>
       <c r="K108">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="L108">
+        <v>3.4</v>
+      </c>
+      <c r="M108">
+        <v>3.4</v>
+      </c>
+      <c r="N108">
+        <v>1.95</v>
+      </c>
+      <c r="O108">
+        <v>3.6</v>
+      </c>
+      <c r="P108">
         <v>3.75</v>
       </c>
-      <c r="M108">
-        <v>2.1</v>
-      </c>
-      <c r="N108">
-        <v>3.5</v>
-      </c>
-      <c r="O108">
-        <v>4.333</v>
-      </c>
-      <c r="P108">
+      <c r="Q108">
+        <v>-0.5</v>
+      </c>
+      <c r="R108">
+        <v>2</v>
+      </c>
+      <c r="S108">
         <v>1.85</v>
       </c>
-      <c r="Q108">
-        <v>0.5</v>
-      </c>
-      <c r="R108">
-        <v>1.975</v>
-      </c>
-      <c r="S108">
-        <v>1.875</v>
-      </c>
       <c r="T108">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U108">
         <v>1.925</v>
@@ -10125,16 +10125,16 @@
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>3.333</v>
+        <v>2.6</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB108">
         <v>-1</v>
@@ -10148,7 +10148,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6008782</v>
+        <v>6011516</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10160,10 +10160,10 @@
         <v>45193.5</v>
       </c>
       <c r="F109" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G109" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10175,52 +10175,52 @@
         <v>50</v>
       </c>
       <c r="K109">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="L109">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="M109">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="N109">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="O109">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P109">
-        <v>1.615</v>
+        <v>1.85</v>
       </c>
       <c r="Q109">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R109">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S109">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T109">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U109">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V109">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>3.2</v>
+        <v>3.333</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA109">
         <v>-1</v>
@@ -10229,7 +10229,7 @@
         <v>-1</v>
       </c>
       <c r="AC109">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10326,7 +10326,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6011418</v>
+        <v>6008782</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10338,10 +10338,10 @@
         <v>45193.5</v>
       </c>
       <c r="F111" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G111" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10353,61 +10353,61 @@
         <v>50</v>
       </c>
       <c r="K111">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="L111">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="M111">
-        <v>3.4</v>
+        <v>1.666</v>
       </c>
       <c r="N111">
+        <v>5.5</v>
+      </c>
+      <c r="O111">
+        <v>4.2</v>
+      </c>
+      <c r="P111">
+        <v>1.615</v>
+      </c>
+      <c r="Q111">
+        <v>1</v>
+      </c>
+      <c r="R111">
+        <v>1.85</v>
+      </c>
+      <c r="S111">
+        <v>2</v>
+      </c>
+      <c r="T111">
+        <v>3</v>
+      </c>
+      <c r="U111">
+        <v>1.9</v>
+      </c>
+      <c r="V111">
         <v>1.95</v>
       </c>
-      <c r="O111">
-        <v>3.6</v>
-      </c>
-      <c r="P111">
-        <v>3.75</v>
-      </c>
-      <c r="Q111">
-        <v>-0.5</v>
-      </c>
-      <c r="R111">
-        <v>2</v>
-      </c>
-      <c r="S111">
-        <v>1.85</v>
-      </c>
-      <c r="T111">
-        <v>2.5</v>
-      </c>
-      <c r="U111">
-        <v>1.925</v>
-      </c>
-      <c r="V111">
-        <v>1.925</v>
-      </c>
       <c r="W111">
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Y111">
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA111">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
         <v>-1</v>
       </c>
       <c r="AC111">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10605,7 +10605,7 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G114" t="s">
         <v>42</v>
@@ -10875,7 +10875,7 @@
         <v>39</v>
       </c>
       <c r="G117" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H117">
         <v>2</v>
@@ -11142,7 +11142,7 @@
         <v>37</v>
       </c>
       <c r="G120" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H120">
         <v>5</v>
@@ -11320,7 +11320,7 @@
         <v>38</v>
       </c>
       <c r="G122" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -11587,7 +11587,7 @@
         <v>40</v>
       </c>
       <c r="G125" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -11940,7 +11940,7 @@
         <v>45221.39583333334</v>
       </c>
       <c r="F129" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G129" t="s">
         <v>29</v>
@@ -12118,7 +12118,7 @@
         <v>45221.5</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G131" t="s">
         <v>41</v>
@@ -12296,7 +12296,7 @@
         <v>45221.5</v>
       </c>
       <c r="F133" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G133" t="s">
         <v>38</v>
@@ -12640,7 +12640,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6011425</v>
+        <v>6012003</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12652,13 +12652,13 @@
         <v>45228.54166666666</v>
       </c>
       <c r="F137" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G137" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137">
         <v>0</v>
@@ -12667,43 +12667,43 @@
         <v>49</v>
       </c>
       <c r="K137">
-        <v>2.05</v>
+        <v>3.7</v>
       </c>
       <c r="L137">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="M137">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="N137">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="O137">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P137">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="Q137">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R137">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S137">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T137">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U137">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V137">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W137">
-        <v>1.25</v>
+        <v>1.9</v>
       </c>
       <c r="X137">
         <v>-1</v>
@@ -12712,7 +12712,7 @@
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA137">
         <v>-1</v>
@@ -12721,7 +12721,7 @@
         <v>-1</v>
       </c>
       <c r="AC137">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12729,7 +12729,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6012003</v>
+        <v>6011425</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12741,13 +12741,13 @@
         <v>45228.54166666666</v>
       </c>
       <c r="F138" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G138" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138">
         <v>0</v>
@@ -12756,43 +12756,43 @@
         <v>49</v>
       </c>
       <c r="K138">
-        <v>3.7</v>
+        <v>2.05</v>
       </c>
       <c r="L138">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="M138">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="N138">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="O138">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P138">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="Q138">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R138">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S138">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T138">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U138">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V138">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W138">
-        <v>1.9</v>
+        <v>1.25</v>
       </c>
       <c r="X138">
         <v>-1</v>
@@ -12801,7 +12801,7 @@
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA138">
         <v>-1</v>
@@ -12810,7 +12810,7 @@
         <v>-1</v>
       </c>
       <c r="AC138">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12922,7 +12922,7 @@
         <v>29</v>
       </c>
       <c r="G140" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H140">
         <v>1</v>
@@ -13011,7 +13011,7 @@
         <v>39</v>
       </c>
       <c r="G141" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H141">
         <v>3</v>
@@ -13364,7 +13364,7 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F145" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G145" t="s">
         <v>40</v>
@@ -13441,7 +13441,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6011426</v>
+        <v>6008785</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13453,13 +13453,13 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F146" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G146" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I146">
         <v>1</v>
@@ -13468,43 +13468,43 @@
         <v>49</v>
       </c>
       <c r="K146">
-        <v>1.3</v>
+        <v>3.75</v>
       </c>
       <c r="L146">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="M146">
-        <v>9</v>
+        <v>1.85</v>
       </c>
       <c r="N146">
-        <v>1.142</v>
+        <v>3.75</v>
       </c>
       <c r="O146">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="P146">
-        <v>17</v>
+        <v>1.95</v>
       </c>
       <c r="Q146">
-        <v>-2.25</v>
+        <v>0.5</v>
       </c>
       <c r="R146">
-        <v>1.875</v>
+        <v>1.92</v>
       </c>
       <c r="S146">
-        <v>1.975</v>
+        <v>1.98</v>
       </c>
       <c r="T146">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U146">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V146">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W146">
-        <v>0.1419999999999999</v>
+        <v>2.75</v>
       </c>
       <c r="X146">
         <v>-1</v>
@@ -13513,16 +13513,16 @@
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA146">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC146">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13530,7 +13530,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6008785</v>
+        <v>6011426</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13542,13 +13542,13 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F147" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G147" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H147">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I147">
         <v>1</v>
@@ -13557,43 +13557,43 @@
         <v>49</v>
       </c>
       <c r="K147">
-        <v>3.75</v>
+        <v>1.3</v>
       </c>
       <c r="L147">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="M147">
-        <v>1.85</v>
+        <v>9</v>
       </c>
       <c r="N147">
-        <v>3.75</v>
+        <v>1.142</v>
       </c>
       <c r="O147">
-        <v>3.8</v>
+        <v>9</v>
       </c>
       <c r="P147">
+        <v>17</v>
+      </c>
+      <c r="Q147">
+        <v>-2.25</v>
+      </c>
+      <c r="R147">
+        <v>1.875</v>
+      </c>
+      <c r="S147">
+        <v>1.975</v>
+      </c>
+      <c r="T147">
+        <v>3.5</v>
+      </c>
+      <c r="U147">
         <v>1.95</v>
       </c>
-      <c r="Q147">
-        <v>0.5</v>
-      </c>
-      <c r="R147">
-        <v>1.92</v>
-      </c>
-      <c r="S147">
-        <v>1.98</v>
-      </c>
-      <c r="T147">
-        <v>3.25</v>
-      </c>
-      <c r="U147">
-        <v>2.05</v>
-      </c>
       <c r="V147">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W147">
-        <v>2.75</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X147">
         <v>-1</v>
@@ -13602,16 +13602,16 @@
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB147">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13723,7 +13723,7 @@
         <v>31</v>
       </c>
       <c r="G149" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -13987,7 +13987,7 @@
         <v>45242.54166666666</v>
       </c>
       <c r="F152" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G152" t="s">
         <v>44</v>
@@ -14257,7 +14257,7 @@
         <v>30</v>
       </c>
       <c r="G155" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H155">
         <v>3</v>
@@ -14524,7 +14524,7 @@
         <v>43</v>
       </c>
       <c r="G158" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H158">
         <v>4</v>
@@ -14598,7 +14598,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6012006</v>
+        <v>6011533</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14610,58 +14610,58 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F159" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G159" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H159">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J159" t="s">
         <v>49</v>
       </c>
       <c r="K159">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="L159">
+        <v>3.75</v>
+      </c>
+      <c r="M159">
+        <v>3.4</v>
+      </c>
+      <c r="N159">
+        <v>1.85</v>
+      </c>
+      <c r="O159">
         <v>4</v>
       </c>
-      <c r="M159">
-        <v>2.9</v>
-      </c>
-      <c r="N159">
-        <v>1.95</v>
-      </c>
-      <c r="O159">
-        <v>4.2</v>
-      </c>
       <c r="P159">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q159">
         <v>-0.5</v>
       </c>
       <c r="R159">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="S159">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="T159">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U159">
+        <v>1.875</v>
+      </c>
+      <c r="V159">
         <v>1.975</v>
       </c>
-      <c r="V159">
-        <v>1.875</v>
-      </c>
       <c r="W159">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X159">
         <v>-1</v>
@@ -14670,16 +14670,16 @@
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.8999999999999999</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AA159">
         <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AC159">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14687,7 +14687,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6012007</v>
+        <v>6012006</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14699,73 +14699,73 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F160" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G160" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I160">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J160" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K160">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="L160">
         <v>4</v>
       </c>
       <c r="M160">
+        <v>2.9</v>
+      </c>
+      <c r="N160">
+        <v>1.95</v>
+      </c>
+      <c r="O160">
         <v>4.2</v>
       </c>
-      <c r="N160">
-        <v>1.909</v>
-      </c>
-      <c r="O160">
-        <v>3.8</v>
-      </c>
       <c r="P160">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q160">
         <v>-0.5</v>
       </c>
       <c r="R160">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S160">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="T160">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U160">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V160">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W160">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X160">
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA160">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC160">
         <v>-1</v>
@@ -14776,7 +14776,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6008787</v>
+        <v>6012007</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14788,10 +14788,10 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F161" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G161" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -14803,40 +14803,40 @@
         <v>48</v>
       </c>
       <c r="K161">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L161">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M161">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="N161">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O161">
         <v>3.8</v>
       </c>
       <c r="P161">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="Q161">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R161">
-        <v>2.09</v>
+        <v>1.93</v>
       </c>
       <c r="S161">
-        <v>1.81</v>
+        <v>1.97</v>
       </c>
       <c r="T161">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U161">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V161">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W161">
         <v>-1</v>
@@ -14845,16 +14845,16 @@
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="Z161">
         <v>-1</v>
       </c>
       <c r="AA161">
-        <v>0.8100000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="AB161">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC161">
         <v>-1</v>
@@ -14865,7 +14865,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6011533</v>
+        <v>6008787</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14877,76 +14877,76 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F162" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G162" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J162" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K162">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L162">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M162">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="N162">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="O162">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P162">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q162">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R162">
-        <v>1.91</v>
+        <v>2.09</v>
       </c>
       <c r="S162">
-        <v>1.99</v>
+        <v>1.81</v>
       </c>
       <c r="T162">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U162">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V162">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W162">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X162">
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z162">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA162">
-        <v>-1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AB162">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AC162">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -15055,7 +15055,7 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F164" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G164" t="s">
         <v>41</v>
@@ -15399,7 +15399,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6390445</v>
+        <v>6011940</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15411,13 +15411,13 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F168" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G168" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H168">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I168">
         <v>0</v>
@@ -15426,43 +15426,43 @@
         <v>49</v>
       </c>
       <c r="K168">
-        <v>2.25</v>
+        <v>1.45</v>
       </c>
       <c r="L168">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M168">
-        <v>3.1</v>
+        <v>5.75</v>
       </c>
       <c r="N168">
-        <v>1.8</v>
+        <v>1.45</v>
       </c>
       <c r="O168">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P168">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="Q168">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R168">
-        <v>1.975</v>
+        <v>1.89</v>
       </c>
       <c r="S168">
-        <v>1.875</v>
+        <v>2.01</v>
       </c>
       <c r="T168">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="U168">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V168">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W168">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15471,16 +15471,16 @@
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0.9750000000000001</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA168">
         <v>-1</v>
       </c>
       <c r="AB168">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC168">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15488,7 +15488,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6011940</v>
+        <v>6390445</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15500,13 +15500,13 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F169" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G169" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I169">
         <v>0</v>
@@ -15515,43 +15515,43 @@
         <v>49</v>
       </c>
       <c r="K169">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="L169">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M169">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="N169">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="O169">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P169">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="Q169">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R169">
-        <v>1.89</v>
+        <v>1.975</v>
       </c>
       <c r="S169">
-        <v>2.01</v>
+        <v>1.875</v>
       </c>
       <c r="T169">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="U169">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V169">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W169">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="X169">
         <v>-1</v>
@@ -15560,16 +15560,16 @@
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0.8899999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA169">
         <v>-1</v>
       </c>
       <c r="AB169">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC169">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15666,7 +15666,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6390446</v>
+        <v>6390526</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15678,7 +15678,7 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F171" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G171" t="s">
         <v>35</v>
@@ -15687,67 +15687,67 @@
         <v>1</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J171" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K171">
-        <v>1.615</v>
+        <v>1.4</v>
       </c>
       <c r="L171">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M171">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="N171">
-        <v>1.8</v>
+        <v>1.333</v>
       </c>
       <c r="O171">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="P171">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q171">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R171">
+        <v>1.825</v>
+      </c>
+      <c r="S171">
         <v>2.025</v>
       </c>
-      <c r="S171">
+      <c r="T171">
+        <v>3.75</v>
+      </c>
+      <c r="U171">
         <v>1.825</v>
       </c>
-      <c r="T171">
-        <v>3</v>
-      </c>
-      <c r="U171">
-        <v>1.9</v>
-      </c>
       <c r="V171">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W171">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z171">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA171">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB171">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC171">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15755,7 +15755,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6390526</v>
+        <v>6012013</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15767,76 +15767,76 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F172" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G172" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H172">
         <v>1</v>
       </c>
       <c r="I172">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K172">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="L172">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M172">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="N172">
-        <v>1.333</v>
+        <v>2.05</v>
       </c>
       <c r="O172">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="P172">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="Q172">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R172">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S172">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T172">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="U172">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V172">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W172">
         <v>-1</v>
       </c>
       <c r="X172">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y172">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA172">
-        <v>1.025</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB172">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC172">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15844,7 +15844,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6012013</v>
+        <v>6390446</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15856,76 +15856,76 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F173" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G173" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H173">
         <v>1</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K173">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="L173">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M173">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="N173">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="O173">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P173">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q173">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R173">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S173">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T173">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U173">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V173">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W173">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X173">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
+        <v>0.5125</v>
+      </c>
+      <c r="AA173">
         <v>-0.5</v>
       </c>
-      <c r="AA173">
-        <v>0.5249999999999999</v>
-      </c>
       <c r="AB173">
         <v>-1</v>
       </c>
       <c r="AC173">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15945,7 +15945,7 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F174" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G174" t="s">
         <v>42</v>
@@ -16209,10 +16209,10 @@
         <v>0.5</v>
       </c>
       <c r="R177">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="S177">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T177">
         <v>2.75</v>
@@ -16256,7 +16256,7 @@
         <v>45383.5</v>
       </c>
       <c r="F178" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G178" t="s">
         <v>30</v>
@@ -16283,10 +16283,10 @@
         <v>-0.75</v>
       </c>
       <c r="R178">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="S178">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="T178">
         <v>2.75</v>
@@ -16333,7 +16333,7 @@
         <v>43</v>
       </c>
       <c r="G179" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K179">
         <v>1.45</v>
@@ -16404,7 +16404,7 @@
         <v>45383.5</v>
       </c>
       <c r="F180" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G180" t="s">
         <v>47</v>
@@ -16505,10 +16505,10 @@
         <v>-0.75</v>
       </c>
       <c r="R181">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="S181">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="T181">
         <v>3.25</v>

--- a/Norway Eliteserien/Norway Eliteserien.xlsx
+++ b/Norway Eliteserien/Norway Eliteserien.xlsx
@@ -115,13 +115,13 @@
     <t>Aalesund</t>
   </si>
   <si>
+    <t>Rosenborg</t>
+  </si>
+  <si>
     <t>Stromsgodset</t>
   </si>
   <si>
     <t>Lillestrom</t>
-  </si>
-  <si>
-    <t>Rosenborg</t>
   </si>
   <si>
     <t>Viking FK</t>
@@ -981,7 +981,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6011480</v>
+        <v>6011479</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -996,25 +996,25 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K6">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="L6">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M6">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N6">
         <v>1.727</v>
@@ -1029,37 +1029,37 @@
         <v>-0.75</v>
       </c>
       <c r="R6">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S6">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T6">
         <v>2.5</v>
       </c>
       <c r="U6">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA6">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -1070,7 +1070,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6011981</v>
+        <v>6011480</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1085,70 +1085,70 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K7">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="L7">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M7">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="N7">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="O7">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P7">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q7">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R7">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S7">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T7">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U7">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V7">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W7">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z7">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB7">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1159,7 +1159,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6011479</v>
+        <v>6011981</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1174,55 +1174,55 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
         <v>49</v>
       </c>
       <c r="K8">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="L8">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M8">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="N8">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="O8">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P8">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q8">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R8">
+        <v>1.95</v>
+      </c>
+      <c r="S8">
         <v>1.9</v>
       </c>
-      <c r="S8">
-        <v>1.95</v>
-      </c>
       <c r="T8">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U8">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V8">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W8">
-        <v>0.7270000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1231,13 +1231,13 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AC8">
         <v>-1</v>
@@ -1441,7 +1441,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1530,7 +1530,7 @@
         <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1975,7 +1975,7 @@
         <v>42</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2138,7 +2138,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6008771</v>
+        <v>6011398</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2150,58 +2150,58 @@
         <v>45102.5</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
         <v>1</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
       </c>
       <c r="J19" t="s">
         <v>49</v>
       </c>
       <c r="K19">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="M19">
-        <v>11</v>
+        <v>3.6</v>
       </c>
       <c r="N19">
-        <v>1.25</v>
+        <v>2.4</v>
       </c>
       <c r="O19">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="P19">
-        <v>10</v>
+        <v>3.2</v>
       </c>
       <c r="Q19">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R19">
+        <v>2.025</v>
+      </c>
+      <c r="S19">
         <v>1.825</v>
       </c>
-      <c r="S19">
-        <v>2.025</v>
-      </c>
       <c r="T19">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U19">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V19">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W19">
-        <v>0.25</v>
+        <v>1.4</v>
       </c>
       <c r="X19">
         <v>-1</v>
@@ -2210,16 +2210,16 @@
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA19">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC19">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2227,7 +2227,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6011398</v>
+        <v>6008771</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2239,58 +2239,58 @@
         <v>45102.5</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
         <v>49</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="L20">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="M20">
-        <v>3.6</v>
+        <v>11</v>
       </c>
       <c r="N20">
-        <v>2.4</v>
+        <v>1.25</v>
       </c>
       <c r="O20">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="P20">
-        <v>3.2</v>
+        <v>10</v>
       </c>
       <c r="Q20">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R20">
+        <v>1.825</v>
+      </c>
+      <c r="S20">
         <v>2.025</v>
       </c>
-      <c r="S20">
-        <v>1.825</v>
-      </c>
       <c r="T20">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U20">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V20">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W20">
-        <v>1.4</v>
+        <v>0.25</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2299,16 +2299,16 @@
         <v>-1</v>
       </c>
       <c r="Z20">
+        <v>-1</v>
+      </c>
+      <c r="AA20">
         <v>1.025</v>
       </c>
-      <c r="AA20">
-        <v>-1</v>
-      </c>
       <c r="AB20">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2316,7 +2316,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6011397</v>
+        <v>6011931</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2328,55 +2328,55 @@
         <v>45102.5</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J21" t="s">
         <v>48</v>
       </c>
       <c r="K21">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L21">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M21">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="N21">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="O21">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P21">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="Q21">
         <v>-0.25</v>
       </c>
       <c r="R21">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="S21">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T21">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U21">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V21">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W21">
         <v>-1</v>
@@ -2385,19 +2385,19 @@
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>1.875</v>
+        <v>2.25</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC21">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2405,7 +2405,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6011931</v>
+        <v>6011397</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2417,76 +2417,76 @@
         <v>45102.5</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
         <v>48</v>
       </c>
       <c r="K22">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L22">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M22">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="N22">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="O22">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P22">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="Q22">
         <v>-0.25</v>
       </c>
       <c r="R22">
+        <v>2.1</v>
+      </c>
+      <c r="S22">
+        <v>1.775</v>
+      </c>
+      <c r="T22">
+        <v>2.5</v>
+      </c>
+      <c r="U22">
+        <v>2.05</v>
+      </c>
+      <c r="V22">
+        <v>1.8</v>
+      </c>
+      <c r="W22">
+        <v>-1</v>
+      </c>
+      <c r="X22">
+        <v>-1</v>
+      </c>
+      <c r="Y22">
         <v>1.875</v>
       </c>
-      <c r="S22">
-        <v>1.975</v>
-      </c>
-      <c r="T22">
-        <v>3</v>
-      </c>
-      <c r="U22">
-        <v>2</v>
-      </c>
-      <c r="V22">
-        <v>1.85</v>
-      </c>
-      <c r="W22">
-        <v>-1</v>
-      </c>
-      <c r="X22">
-        <v>-1</v>
-      </c>
-      <c r="Y22">
-        <v>2.25</v>
-      </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2506,7 +2506,7 @@
         <v>45102.59375</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
         <v>39</v>
@@ -2672,7 +2672,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6011484</v>
+        <v>6011399</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2684,58 +2684,58 @@
         <v>45109.5</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
         <v>1</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
       </c>
       <c r="J25" t="s">
         <v>49</v>
       </c>
       <c r="K25">
+        <v>2.4</v>
+      </c>
+      <c r="L25">
+        <v>3.25</v>
+      </c>
+      <c r="M25">
+        <v>2.875</v>
+      </c>
+      <c r="N25">
+        <v>2.3</v>
+      </c>
+      <c r="O25">
         <v>3.2</v>
       </c>
-      <c r="L25">
-        <v>3.3</v>
-      </c>
-      <c r="M25">
-        <v>2.2</v>
-      </c>
-      <c r="N25">
-        <v>3.2</v>
-      </c>
-      <c r="O25">
-        <v>3.5</v>
-      </c>
       <c r="P25">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q25">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R25">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S25">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T25">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U25">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V25">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W25">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="X25">
         <v>-1</v>
@@ -2744,16 +2744,16 @@
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA25">
         <v>-1</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC25">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2761,7 +2761,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6011399</v>
+        <v>6011400</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2773,76 +2773,76 @@
         <v>45109.5</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K26">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="L26">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="M26">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="N26">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="O26">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P26">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q26">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R26">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S26">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T26">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U26">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V26">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W26">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z26">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB26">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2850,7 +2850,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6011400</v>
+        <v>6011484</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2862,76 +2862,76 @@
         <v>45109.5</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
         <v>0</v>
       </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
       <c r="J27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K27">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="L27">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M27">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="N27">
-        <v>1.65</v>
+        <v>3.2</v>
       </c>
       <c r="O27">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P27">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q27">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R27">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S27">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T27">
         <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V27">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA27">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3221,7 +3221,7 @@
         <v>38</v>
       </c>
       <c r="G31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3473,7 +3473,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6011987</v>
+        <v>6008607</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3485,13 +3485,13 @@
         <v>45116.5</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G34" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>2</v>
@@ -3500,40 +3500,40 @@
         <v>48</v>
       </c>
       <c r="K34">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="L34">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M34">
-        <v>3.25</v>
+        <v>1.533</v>
       </c>
       <c r="N34">
-        <v>2.25</v>
+        <v>5.75</v>
       </c>
       <c r="O34">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P34">
+        <v>1.533</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+      <c r="R34">
+        <v>2</v>
+      </c>
+      <c r="S34">
+        <v>1.85</v>
+      </c>
+      <c r="T34">
         <v>3</v>
       </c>
-      <c r="Q34">
-        <v>-0.25</v>
-      </c>
-      <c r="R34">
-        <v>2.05</v>
-      </c>
-      <c r="S34">
-        <v>1.8</v>
-      </c>
-      <c r="T34">
-        <v>2.75</v>
-      </c>
       <c r="U34">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V34">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W34">
         <v>-1</v>
@@ -3542,19 +3542,19 @@
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>2</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z34">
         <v>-1</v>
       </c>
       <c r="AA34">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB34">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3562,7 +3562,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6008607</v>
+        <v>6011932</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3574,76 +3574,76 @@
         <v>45116.5</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I35">
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K35">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="L35">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M35">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="N35">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="O35">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P35">
-        <v>1.533</v>
+        <v>2.05</v>
       </c>
       <c r="Q35">
+        <v>0.5</v>
+      </c>
+      <c r="R35">
+        <v>1.85</v>
+      </c>
+      <c r="S35">
+        <v>2.05</v>
+      </c>
+      <c r="T35">
+        <v>3.5</v>
+      </c>
+      <c r="U35">
+        <v>2</v>
+      </c>
+      <c r="V35">
+        <v>1.85</v>
+      </c>
+      <c r="W35">
+        <v>2.3</v>
+      </c>
+      <c r="X35">
+        <v>-1</v>
+      </c>
+      <c r="Y35">
+        <v>-1</v>
+      </c>
+      <c r="Z35">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA35">
+        <v>-1</v>
+      </c>
+      <c r="AB35">
         <v>1</v>
       </c>
-      <c r="R35">
-        <v>2</v>
-      </c>
-      <c r="S35">
-        <v>1.85</v>
-      </c>
-      <c r="T35">
-        <v>3</v>
-      </c>
-      <c r="U35">
-        <v>1.975</v>
-      </c>
-      <c r="V35">
-        <v>1.875</v>
-      </c>
-      <c r="W35">
-        <v>-1</v>
-      </c>
-      <c r="X35">
-        <v>-1</v>
-      </c>
-      <c r="Y35">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="Z35">
-        <v>-1</v>
-      </c>
-      <c r="AA35">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB35">
-        <v>-1</v>
-      </c>
       <c r="AC35">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3651,7 +3651,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6011932</v>
+        <v>6011489</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3663,76 +3663,76 @@
         <v>45116.5</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H36">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K36">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="L36">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M36">
+        <v>2.5</v>
+      </c>
+      <c r="N36">
+        <v>2.75</v>
+      </c>
+      <c r="O36">
+        <v>3.2</v>
+      </c>
+      <c r="P36">
+        <v>2.7</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>1.94</v>
+      </c>
+      <c r="S36">
+        <v>1.96</v>
+      </c>
+      <c r="T36">
         <v>2.25</v>
       </c>
-      <c r="N36">
-        <v>3.3</v>
-      </c>
-      <c r="O36">
-        <v>3.8</v>
-      </c>
-      <c r="P36">
-        <v>2.05</v>
-      </c>
-      <c r="Q36">
-        <v>0.5</v>
-      </c>
-      <c r="R36">
-        <v>1.85</v>
-      </c>
-      <c r="S36">
-        <v>2.05</v>
-      </c>
-      <c r="T36">
-        <v>3.5</v>
-      </c>
       <c r="U36">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V36">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W36">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB36">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3740,7 +3740,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6011489</v>
+        <v>6011401</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3752,10 +3752,10 @@
         <v>45116.5</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G37" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3767,61 +3767,61 @@
         <v>50</v>
       </c>
       <c r="K37">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="L37">
         <v>3.3</v>
       </c>
       <c r="M37">
+        <v>2.875</v>
+      </c>
+      <c r="N37">
+        <v>1.95</v>
+      </c>
+      <c r="O37">
+        <v>3.6</v>
+      </c>
+      <c r="P37">
+        <v>3.8</v>
+      </c>
+      <c r="Q37">
+        <v>-0.5</v>
+      </c>
+      <c r="R37">
+        <v>1.925</v>
+      </c>
+      <c r="S37">
+        <v>1.925</v>
+      </c>
+      <c r="T37">
         <v>2.5</v>
       </c>
-      <c r="N37">
-        <v>2.75</v>
-      </c>
-      <c r="O37">
-        <v>3.2</v>
-      </c>
-      <c r="P37">
-        <v>2.7</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>1.94</v>
-      </c>
-      <c r="S37">
-        <v>1.96</v>
-      </c>
-      <c r="T37">
-        <v>2.25</v>
-      </c>
       <c r="U37">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V37">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB37">
         <v>-1</v>
       </c>
       <c r="AC37">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3829,7 +3829,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6011401</v>
+        <v>6011987</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3841,76 +3841,76 @@
         <v>45116.5</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G38" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K38">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="L38">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M38">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="N38">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="O38">
         <v>3.6</v>
       </c>
       <c r="P38">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q38">
+        <v>-0.25</v>
+      </c>
+      <c r="R38">
+        <v>2.05</v>
+      </c>
+      <c r="S38">
+        <v>1.8</v>
+      </c>
+      <c r="T38">
+        <v>2.75</v>
+      </c>
+      <c r="U38">
+        <v>1.85</v>
+      </c>
+      <c r="V38">
+        <v>2</v>
+      </c>
+      <c r="W38">
+        <v>-1</v>
+      </c>
+      <c r="X38">
+        <v>-1</v>
+      </c>
+      <c r="Y38">
+        <v>2</v>
+      </c>
+      <c r="Z38">
+        <v>-1</v>
+      </c>
+      <c r="AA38">
+        <v>0.8</v>
+      </c>
+      <c r="AB38">
+        <v>0.425</v>
+      </c>
+      <c r="AC38">
         <v>-0.5</v>
-      </c>
-      <c r="R38">
-        <v>1.925</v>
-      </c>
-      <c r="S38">
-        <v>1.925</v>
-      </c>
-      <c r="T38">
-        <v>2.5</v>
-      </c>
-      <c r="U38">
-        <v>2</v>
-      </c>
-      <c r="V38">
-        <v>1.85</v>
-      </c>
-      <c r="W38">
-        <v>-1</v>
-      </c>
-      <c r="X38">
-        <v>2.6</v>
-      </c>
-      <c r="Y38">
-        <v>-1</v>
-      </c>
-      <c r="Z38">
-        <v>-1</v>
-      </c>
-      <c r="AA38">
-        <v>0.925</v>
-      </c>
-      <c r="AB38">
-        <v>-1</v>
-      </c>
-      <c r="AC38">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4185,7 +4185,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6011403</v>
+        <v>6011491</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4197,49 +4197,49 @@
         <v>45123.5</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H42">
         <v>2</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K42">
-        <v>1.95</v>
+        <v>1.444</v>
       </c>
       <c r="L42">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="M42">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="N42">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="O42">
+        <v>5.25</v>
+      </c>
+      <c r="P42">
+        <v>8</v>
+      </c>
+      <c r="Q42">
+        <v>-1.5</v>
+      </c>
+      <c r="R42">
+        <v>1.925</v>
+      </c>
+      <c r="S42">
+        <v>1.925</v>
+      </c>
+      <c r="T42">
         <v>3.5</v>
-      </c>
-      <c r="P42">
-        <v>3.4</v>
-      </c>
-      <c r="Q42">
-        <v>-0.25</v>
-      </c>
-      <c r="R42">
-        <v>1.8</v>
-      </c>
-      <c r="S42">
-        <v>2.05</v>
-      </c>
-      <c r="T42">
-        <v>2.5</v>
       </c>
       <c r="U42">
         <v>1.95</v>
@@ -4248,19 +4248,19 @@
         <v>1.9</v>
       </c>
       <c r="W42">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z42">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB42">
         <v>0.95</v>
@@ -4274,7 +4274,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6011402</v>
+        <v>6008608</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4286,76 +4286,76 @@
         <v>45123.5</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K43">
-        <v>2.3</v>
+        <v>1.181</v>
       </c>
       <c r="L43">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="M43">
-        <v>3.1</v>
+        <v>11</v>
       </c>
       <c r="N43">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="O43">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="P43">
-        <v>3.3</v>
+        <v>11</v>
       </c>
       <c r="Q43">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R43">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S43">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T43">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="U43">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V43">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AB43">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4363,7 +4363,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6008608</v>
+        <v>6011402</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4375,76 +4375,76 @@
         <v>45123.5</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G44" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K44">
-        <v>1.181</v>
+        <v>2.3</v>
       </c>
       <c r="L44">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="M44">
-        <v>11</v>
+        <v>3.1</v>
       </c>
       <c r="N44">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="O44">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="P44">
-        <v>11</v>
+        <v>3.3</v>
       </c>
       <c r="Q44">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R44">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S44">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T44">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="U44">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V44">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W44">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z44">
         <v>-1</v>
       </c>
       <c r="AA44">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC44">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4452,7 +4452,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6011490</v>
+        <v>6011403</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4464,58 +4464,58 @@
         <v>45123.5</v>
       </c>
       <c r="F45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
         <v>49</v>
       </c>
       <c r="K45">
-        <v>1.333</v>
+        <v>1.95</v>
       </c>
       <c r="L45">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="M45">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="N45">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O45">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P45">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q45">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R45">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S45">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T45">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U45">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V45">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W45">
-        <v>0.363</v>
+        <v>1.1</v>
       </c>
       <c r="X45">
         <v>-1</v>
@@ -4524,13 +4524,13 @@
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA45">
         <v>-1</v>
       </c>
       <c r="AB45">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC45">
         <v>-1</v>
@@ -4541,7 +4541,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6011491</v>
+        <v>6011490</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4553,28 +4553,28 @@
         <v>45123.5</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H46">
+        <v>4</v>
+      </c>
+      <c r="I46">
         <v>2</v>
       </c>
-      <c r="I46">
-        <v>3</v>
-      </c>
       <c r="J46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K46">
-        <v>1.444</v>
+        <v>1.333</v>
       </c>
       <c r="L46">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M46">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="N46">
         <v>1.363</v>
@@ -4583,7 +4583,7 @@
         <v>5.25</v>
       </c>
       <c r="P46">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Q46">
         <v>-1.5</v>
@@ -4595,31 +4595,31 @@
         <v>1.925</v>
       </c>
       <c r="T46">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U46">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V46">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA46">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4645,7 +4645,7 @@
         <v>42</v>
       </c>
       <c r="G47" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4731,7 +4731,7 @@
         <v>45126.54166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G48" t="s">
         <v>32</v>
@@ -4986,7 +4986,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6011493</v>
+        <v>6011405</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4998,16 +4998,16 @@
         <v>45130.5</v>
       </c>
       <c r="F51" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H51">
+        <v>3</v>
+      </c>
+      <c r="I51">
         <v>1</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
       </c>
       <c r="J51" t="s">
         <v>49</v>
@@ -5016,28 +5016,28 @@
         <v>3.3</v>
       </c>
       <c r="L51">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M51">
         <v>1.95</v>
       </c>
       <c r="N51">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="O51">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P51">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="Q51">
         <v>0.25</v>
       </c>
       <c r="R51">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S51">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T51">
         <v>2.75</v>
@@ -5049,7 +5049,7 @@
         <v>1.95</v>
       </c>
       <c r="W51">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5058,16 +5058,16 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA51">
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC51">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5075,7 +5075,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6011405</v>
+        <v>6011493</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5087,16 +5087,16 @@
         <v>45130.5</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G52" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
         <v>49</v>
@@ -5105,28 +5105,28 @@
         <v>3.3</v>
       </c>
       <c r="L52">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M52">
         <v>1.95</v>
       </c>
       <c r="N52">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O52">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P52">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="Q52">
         <v>0.25</v>
       </c>
       <c r="R52">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S52">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T52">
         <v>2.75</v>
@@ -5138,7 +5138,7 @@
         <v>1.95</v>
       </c>
       <c r="W52">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="X52">
         <v>-1</v>
@@ -5147,16 +5147,16 @@
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA52">
         <v>-1</v>
       </c>
       <c r="AB52">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5354,10 +5354,10 @@
         <v>45130.59375</v>
       </c>
       <c r="F55" t="s">
+        <v>34</v>
+      </c>
+      <c r="G55" t="s">
         <v>33</v>
-      </c>
-      <c r="G55" t="s">
-        <v>35</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5710,7 +5710,7 @@
         <v>45137.5</v>
       </c>
       <c r="F59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G59" t="s">
         <v>44</v>
@@ -5799,7 +5799,7 @@
         <v>45137.5</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G60" t="s">
         <v>41</v>
@@ -5980,7 +5980,7 @@
         <v>32</v>
       </c>
       <c r="G62" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6244,7 +6244,7 @@
         <v>45143.54166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G65" t="s">
         <v>29</v>
@@ -6321,7 +6321,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6011501</v>
+        <v>6011408</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6333,13 +6333,13 @@
         <v>45144.5</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G66" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H66">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I66">
         <v>1</v>
@@ -6348,43 +6348,43 @@
         <v>49</v>
       </c>
       <c r="K66">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="L66">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M66">
-        <v>1.615</v>
+        <v>2.7</v>
       </c>
       <c r="N66">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="O66">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P66">
+        <v>2.9</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
         <v>1.8</v>
       </c>
-      <c r="Q66">
-        <v>0.5</v>
-      </c>
-      <c r="R66">
+      <c r="S66">
+        <v>2.05</v>
+      </c>
+      <c r="T66">
+        <v>2.25</v>
+      </c>
+      <c r="U66">
+        <v>1.825</v>
+      </c>
+      <c r="V66">
         <v>2.025</v>
       </c>
-      <c r="S66">
-        <v>1.825</v>
-      </c>
-      <c r="T66">
-        <v>3.25</v>
-      </c>
-      <c r="U66">
-        <v>1.95</v>
-      </c>
-      <c r="V66">
-        <v>1.9</v>
-      </c>
       <c r="W66">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="X66">
         <v>-1</v>
@@ -6393,13 +6393,13 @@
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AA66">
         <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC66">
         <v>-1</v>
@@ -6410,7 +6410,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6011408</v>
+        <v>6011501</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6422,13 +6422,13 @@
         <v>45144.5</v>
       </c>
       <c r="F67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G67" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H67">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I67">
         <v>1</v>
@@ -6437,43 +6437,43 @@
         <v>49</v>
       </c>
       <c r="K67">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="L67">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M67">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="N67">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="O67">
+        <v>4</v>
+      </c>
+      <c r="P67">
+        <v>1.8</v>
+      </c>
+      <c r="Q67">
+        <v>0.5</v>
+      </c>
+      <c r="R67">
+        <v>2.025</v>
+      </c>
+      <c r="S67">
+        <v>1.825</v>
+      </c>
+      <c r="T67">
         <v>3.25</v>
       </c>
-      <c r="P67">
-        <v>2.9</v>
-      </c>
-      <c r="Q67">
-        <v>0</v>
-      </c>
-      <c r="R67">
-        <v>1.8</v>
-      </c>
-      <c r="S67">
-        <v>2.05</v>
-      </c>
-      <c r="T67">
-        <v>2.25</v>
-      </c>
       <c r="U67">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V67">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W67">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="X67">
         <v>-1</v>
@@ -6482,13 +6482,13 @@
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AA67">
         <v>-1</v>
       </c>
       <c r="AB67">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC67">
         <v>-1</v>
@@ -6499,7 +6499,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6011407</v>
+        <v>6011500</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6511,73 +6511,73 @@
         <v>45144.5</v>
       </c>
       <c r="F68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G68" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H68">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K68">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L68">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M68">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="N68">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="O68">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P68">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Q68">
         <v>0</v>
       </c>
       <c r="R68">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S68">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T68">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U68">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V68">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W68">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z68">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB68">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC68">
         <v>-1</v>
@@ -6677,7 +6677,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6011500</v>
+        <v>6011407</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6689,73 +6689,73 @@
         <v>45144.5</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G70" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K70">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="L70">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M70">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="N70">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="O70">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P70">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q70">
         <v>0</v>
       </c>
       <c r="R70">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S70">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T70">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U70">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V70">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA70">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC70">
         <v>-1</v>
@@ -6959,7 +6959,7 @@
         <v>37</v>
       </c>
       <c r="G73" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -7134,7 +7134,7 @@
         <v>45151.5</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
         <v>36</v>
@@ -7582,7 +7582,7 @@
         <v>44</v>
       </c>
       <c r="G80" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H80">
         <v>3</v>
@@ -7935,10 +7935,10 @@
         <v>45158.59375</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -8291,7 +8291,7 @@
         <v>45165.59375</v>
       </c>
       <c r="F88" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G88" t="s">
         <v>32</v>
@@ -8650,7 +8650,7 @@
         <v>31</v>
       </c>
       <c r="G92" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H92">
         <v>3</v>
@@ -8739,7 +8739,7 @@
         <v>32</v>
       </c>
       <c r="G93" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8825,7 +8825,7 @@
         <v>45172.5</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G94" t="s">
         <v>38</v>
@@ -9184,7 +9184,7 @@
         <v>30</v>
       </c>
       <c r="G98" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H98">
         <v>2</v>
@@ -9359,7 +9359,7 @@
         <v>45186.5</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G100" t="s">
         <v>39</v>
@@ -9629,7 +9629,7 @@
         <v>37</v>
       </c>
       <c r="G103" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H103">
         <v>3</v>
@@ -9881,7 +9881,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6011517</v>
+        <v>6008782</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9893,76 +9893,76 @@
         <v>45193.5</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G106" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H106">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106" t="s">
+        <v>50</v>
+      </c>
+      <c r="K106">
+        <v>4.75</v>
+      </c>
+      <c r="L106">
+        <v>3.9</v>
+      </c>
+      <c r="M106">
+        <v>1.666</v>
+      </c>
+      <c r="N106">
+        <v>5.5</v>
+      </c>
+      <c r="O106">
+        <v>4.2</v>
+      </c>
+      <c r="P106">
+        <v>1.615</v>
+      </c>
+      <c r="Q106">
+        <v>1</v>
+      </c>
+      <c r="R106">
+        <v>1.85</v>
+      </c>
+      <c r="S106">
+        <v>2</v>
+      </c>
+      <c r="T106">
         <v>3</v>
       </c>
-      <c r="J106" t="s">
-        <v>49</v>
-      </c>
-      <c r="K106">
-        <v>1.3</v>
-      </c>
-      <c r="L106">
-        <v>6</v>
-      </c>
-      <c r="M106">
-        <v>8</v>
-      </c>
-      <c r="N106">
-        <v>1.285</v>
-      </c>
-      <c r="O106">
-        <v>6.5</v>
-      </c>
-      <c r="P106">
-        <v>8.5</v>
-      </c>
-      <c r="Q106">
-        <v>-1.75</v>
-      </c>
-      <c r="R106">
-        <v>1.925</v>
-      </c>
-      <c r="S106">
-        <v>1.925</v>
-      </c>
-      <c r="T106">
-        <v>3.5</v>
-      </c>
       <c r="U106">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V106">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W106">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA106">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9982,10 +9982,10 @@
         <v>45193.5</v>
       </c>
       <c r="F107" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G107" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H107">
         <v>3</v>
@@ -10326,7 +10326,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6008782</v>
+        <v>6011517</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10338,76 +10338,76 @@
         <v>45193.5</v>
       </c>
       <c r="F111" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G111" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J111" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K111">
-        <v>4.75</v>
+        <v>1.3</v>
       </c>
       <c r="L111">
-        <v>3.9</v>
+        <v>6</v>
       </c>
       <c r="M111">
-        <v>1.666</v>
+        <v>8</v>
       </c>
       <c r="N111">
-        <v>5.5</v>
+        <v>1.285</v>
       </c>
       <c r="O111">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P111">
-        <v>1.615</v>
+        <v>8.5</v>
       </c>
       <c r="Q111">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="R111">
+        <v>1.925</v>
+      </c>
+      <c r="S111">
+        <v>1.925</v>
+      </c>
+      <c r="T111">
+        <v>3.5</v>
+      </c>
+      <c r="U111">
         <v>1.85</v>
       </c>
-      <c r="S111">
+      <c r="V111">
         <v>2</v>
       </c>
-      <c r="T111">
-        <v>3</v>
-      </c>
-      <c r="U111">
-        <v>1.9</v>
-      </c>
-      <c r="V111">
-        <v>1.95</v>
-      </c>
       <c r="W111">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X111">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y111">
         <v>-1</v>
       </c>
       <c r="Z111">
+        <v>-1</v>
+      </c>
+      <c r="AA111">
+        <v>0.925</v>
+      </c>
+      <c r="AB111">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA111">
-        <v>-1</v>
-      </c>
-      <c r="AB111">
-        <v>-1</v>
-      </c>
       <c r="AC111">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10605,7 +10605,7 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F114" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G114" t="s">
         <v>42</v>
@@ -10875,7 +10875,7 @@
         <v>39</v>
       </c>
       <c r="G117" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H117">
         <v>2</v>
@@ -11142,7 +11142,7 @@
         <v>37</v>
       </c>
       <c r="G120" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H120">
         <v>5</v>
@@ -11320,7 +11320,7 @@
         <v>38</v>
       </c>
       <c r="G122" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -11587,7 +11587,7 @@
         <v>40</v>
       </c>
       <c r="G125" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -11940,7 +11940,7 @@
         <v>45221.39583333334</v>
       </c>
       <c r="F129" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G129" t="s">
         <v>29</v>
@@ -12118,7 +12118,7 @@
         <v>45221.5</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G131" t="s">
         <v>41</v>
@@ -12296,7 +12296,7 @@
         <v>45221.5</v>
       </c>
       <c r="F133" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G133" t="s">
         <v>38</v>
@@ -12652,7 +12652,7 @@
         <v>45228.54166666666</v>
       </c>
       <c r="F137" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G137" t="s">
         <v>36</v>
@@ -12922,7 +12922,7 @@
         <v>29</v>
       </c>
       <c r="G140" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H140">
         <v>1</v>
@@ -13011,7 +13011,7 @@
         <v>39</v>
       </c>
       <c r="G141" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H141">
         <v>3</v>
@@ -13364,7 +13364,7 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F145" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G145" t="s">
         <v>40</v>
@@ -13441,7 +13441,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6008785</v>
+        <v>6011426</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13453,13 +13453,13 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F146" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G146" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H146">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I146">
         <v>1</v>
@@ -13468,43 +13468,43 @@
         <v>49</v>
       </c>
       <c r="K146">
-        <v>3.75</v>
+        <v>1.3</v>
       </c>
       <c r="L146">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="M146">
-        <v>1.85</v>
+        <v>9</v>
       </c>
       <c r="N146">
-        <v>3.75</v>
+        <v>1.142</v>
       </c>
       <c r="O146">
-        <v>3.8</v>
+        <v>9</v>
       </c>
       <c r="P146">
+        <v>17</v>
+      </c>
+      <c r="Q146">
+        <v>-2.25</v>
+      </c>
+      <c r="R146">
+        <v>1.875</v>
+      </c>
+      <c r="S146">
+        <v>1.975</v>
+      </c>
+      <c r="T146">
+        <v>3.5</v>
+      </c>
+      <c r="U146">
         <v>1.95</v>
       </c>
-      <c r="Q146">
-        <v>0.5</v>
-      </c>
-      <c r="R146">
-        <v>1.92</v>
-      </c>
-      <c r="S146">
-        <v>1.98</v>
-      </c>
-      <c r="T146">
-        <v>3.25</v>
-      </c>
-      <c r="U146">
-        <v>2.05</v>
-      </c>
       <c r="V146">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W146">
-        <v>2.75</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X146">
         <v>-1</v>
@@ -13513,16 +13513,16 @@
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB146">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13530,7 +13530,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6011426</v>
+        <v>6008785</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13542,13 +13542,13 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F147" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G147" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I147">
         <v>1</v>
@@ -13557,43 +13557,43 @@
         <v>49</v>
       </c>
       <c r="K147">
-        <v>1.3</v>
+        <v>3.75</v>
       </c>
       <c r="L147">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="M147">
-        <v>9</v>
+        <v>1.85</v>
       </c>
       <c r="N147">
-        <v>1.142</v>
+        <v>3.75</v>
       </c>
       <c r="O147">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="P147">
-        <v>17</v>
+        <v>1.95</v>
       </c>
       <c r="Q147">
-        <v>-2.25</v>
+        <v>0.5</v>
       </c>
       <c r="R147">
-        <v>1.875</v>
+        <v>1.92</v>
       </c>
       <c r="S147">
-        <v>1.975</v>
+        <v>1.98</v>
       </c>
       <c r="T147">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U147">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V147">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W147">
-        <v>0.1419999999999999</v>
+        <v>2.75</v>
       </c>
       <c r="X147">
         <v>-1</v>
@@ -13602,16 +13602,16 @@
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA147">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC147">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13723,7 +13723,7 @@
         <v>31</v>
       </c>
       <c r="G149" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -13987,7 +13987,7 @@
         <v>45242.54166666666</v>
       </c>
       <c r="F152" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G152" t="s">
         <v>44</v>
@@ -14064,7 +14064,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6011527</v>
+        <v>6011428</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14076,76 +14076,76 @@
         <v>45242.54166666666</v>
       </c>
       <c r="F153" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G153" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H153">
         <v>1</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J153" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K153">
-        <v>1.125</v>
+        <v>3.4</v>
       </c>
       <c r="L153">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="M153">
-        <v>15</v>
+        <v>2.05</v>
       </c>
       <c r="N153">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="O153">
-        <v>10</v>
+        <v>3.6</v>
       </c>
       <c r="P153">
-        <v>21</v>
+        <v>1.909</v>
       </c>
       <c r="Q153">
-        <v>-2.75</v>
+        <v>0.5</v>
       </c>
       <c r="R153">
-        <v>1.88</v>
+        <v>1.975</v>
       </c>
       <c r="S153">
-        <v>2.02</v>
+        <v>1.875</v>
       </c>
       <c r="T153">
-        <v>4.25</v>
+        <v>2.5</v>
       </c>
       <c r="U153">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V153">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W153">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z153">
         <v>-1</v>
       </c>
       <c r="AA153">
-        <v>1.02</v>
+        <v>0.875</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC153">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14257,7 +14257,7 @@
         <v>30</v>
       </c>
       <c r="G155" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H155">
         <v>3</v>
@@ -14420,7 +14420,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6011428</v>
+        <v>6011527</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14432,76 +14432,76 @@
         <v>45242.54166666666</v>
       </c>
       <c r="F157" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G157" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H157">
         <v>1</v>
       </c>
       <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157" t="s">
+        <v>49</v>
+      </c>
+      <c r="K157">
+        <v>1.125</v>
+      </c>
+      <c r="L157">
+        <v>9</v>
+      </c>
+      <c r="M157">
+        <v>15</v>
+      </c>
+      <c r="N157">
+        <v>1.1</v>
+      </c>
+      <c r="O157">
+        <v>10</v>
+      </c>
+      <c r="P157">
+        <v>21</v>
+      </c>
+      <c r="Q157">
+        <v>-2.75</v>
+      </c>
+      <c r="R157">
+        <v>1.88</v>
+      </c>
+      <c r="S157">
+        <v>2.02</v>
+      </c>
+      <c r="T157">
+        <v>4.25</v>
+      </c>
+      <c r="U157">
+        <v>1.85</v>
+      </c>
+      <c r="V157">
         <v>2</v>
       </c>
-      <c r="J157" t="s">
-        <v>48</v>
-      </c>
-      <c r="K157">
-        <v>3.4</v>
-      </c>
-      <c r="L157">
-        <v>3.5</v>
-      </c>
-      <c r="M157">
-        <v>2.05</v>
-      </c>
-      <c r="N157">
-        <v>4</v>
-      </c>
-      <c r="O157">
-        <v>3.6</v>
-      </c>
-      <c r="P157">
-        <v>1.909</v>
-      </c>
-      <c r="Q157">
-        <v>0.5</v>
-      </c>
-      <c r="R157">
-        <v>1.975</v>
-      </c>
-      <c r="S157">
-        <v>1.875</v>
-      </c>
-      <c r="T157">
-        <v>2.5</v>
-      </c>
-      <c r="U157">
-        <v>1.925</v>
-      </c>
-      <c r="V157">
-        <v>1.925</v>
-      </c>
       <c r="W157">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X157">
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z157">
         <v>-1</v>
       </c>
       <c r="AA157">
-        <v>0.875</v>
+        <v>1.02</v>
       </c>
       <c r="AB157">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14524,7 +14524,7 @@
         <v>43</v>
       </c>
       <c r="G158" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H158">
         <v>4</v>
@@ -14598,7 +14598,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6011533</v>
+        <v>6012007</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14610,34 +14610,34 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F159" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G159" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J159" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K159">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L159">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M159">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="N159">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O159">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P159">
         <v>3.8</v>
@@ -14646,40 +14646,40 @@
         <v>-0.5</v>
       </c>
       <c r="R159">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="S159">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="T159">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U159">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V159">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W159">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X159">
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z159">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA159">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AB159">
-        <v>0.4375</v>
+        <v>1.025</v>
       </c>
       <c r="AC159">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14776,7 +14776,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6012007</v>
+        <v>6011533</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14788,34 +14788,34 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F161" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G161" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H161">
+        <v>2</v>
+      </c>
+      <c r="I161">
         <v>1</v>
       </c>
-      <c r="I161">
-        <v>3</v>
-      </c>
       <c r="J161" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K161">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L161">
+        <v>3.75</v>
+      </c>
+      <c r="M161">
+        <v>3.4</v>
+      </c>
+      <c r="N161">
+        <v>1.85</v>
+      </c>
+      <c r="O161">
         <v>4</v>
-      </c>
-      <c r="M161">
-        <v>4.2</v>
-      </c>
-      <c r="N161">
-        <v>1.909</v>
-      </c>
-      <c r="O161">
-        <v>3.8</v>
       </c>
       <c r="P161">
         <v>3.8</v>
@@ -14824,40 +14824,40 @@
         <v>-0.5</v>
       </c>
       <c r="R161">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S161">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="T161">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U161">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V161">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W161">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AA161">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="AB161">
-        <v>1.025</v>
+        <v>0.4375</v>
       </c>
       <c r="AC161">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14865,7 +14865,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6008787</v>
+        <v>6011430</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14877,73 +14877,73 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F162" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G162" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H162">
+        <v>2</v>
+      </c>
+      <c r="I162">
         <v>1</v>
       </c>
-      <c r="I162">
-        <v>3</v>
-      </c>
       <c r="J162" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K162">
+        <v>1.533</v>
+      </c>
+      <c r="L162">
+        <v>4.333</v>
+      </c>
+      <c r="M162">
+        <v>5.5</v>
+      </c>
+      <c r="N162">
+        <v>1.615</v>
+      </c>
+      <c r="O162">
+        <v>4</v>
+      </c>
+      <c r="P162">
+        <v>5.25</v>
+      </c>
+      <c r="Q162">
+        <v>-0.75</v>
+      </c>
+      <c r="R162">
+        <v>1.86</v>
+      </c>
+      <c r="S162">
+        <v>2.04</v>
+      </c>
+      <c r="T162">
         <v>2.5</v>
       </c>
-      <c r="L162">
-        <v>3.8</v>
-      </c>
-      <c r="M162">
-        <v>2.45</v>
-      </c>
-      <c r="N162">
-        <v>2.375</v>
-      </c>
-      <c r="O162">
-        <v>3.8</v>
-      </c>
-      <c r="P162">
-        <v>2.7</v>
-      </c>
-      <c r="Q162">
-        <v>-0.25</v>
-      </c>
-      <c r="R162">
-        <v>2.09</v>
-      </c>
-      <c r="S162">
-        <v>1.81</v>
-      </c>
-      <c r="T162">
-        <v>3.25</v>
-      </c>
       <c r="U162">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V162">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W162">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X162">
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z162">
-        <v>-1</v>
+        <v>0.43</v>
       </c>
       <c r="AA162">
-        <v>0.8100000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB162">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC162">
         <v>-1</v>
@@ -14954,7 +14954,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6011531</v>
+        <v>6011429</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14966,49 +14966,49 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F163" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G163" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I163">
         <v>4</v>
       </c>
       <c r="J163" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K163">
-        <v>4.75</v>
+        <v>1.571</v>
       </c>
       <c r="L163">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M163">
-        <v>1.571</v>
+        <v>5.25</v>
       </c>
       <c r="N163">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="O163">
         <v>4.2</v>
       </c>
       <c r="P163">
-        <v>1.85</v>
+        <v>5.5</v>
       </c>
       <c r="Q163">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R163">
+        <v>1.83</v>
+      </c>
+      <c r="S163">
         <v>2.07</v>
       </c>
-      <c r="S163">
-        <v>1.83</v>
-      </c>
       <c r="T163">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U163">
         <v>1.95</v>
@@ -15020,16 +15020,16 @@
         <v>-1</v>
       </c>
       <c r="X163">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y163">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z163">
         <v>-1</v>
       </c>
       <c r="AA163">
-        <v>0.8300000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="AB163">
         <v>0.95</v>
@@ -15043,7 +15043,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6011429</v>
+        <v>6011531</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15055,49 +15055,49 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F164" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G164" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H164">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I164">
         <v>4</v>
       </c>
       <c r="J164" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K164">
+        <v>4.75</v>
+      </c>
+      <c r="L164">
+        <v>4.5</v>
+      </c>
+      <c r="M164">
         <v>1.571</v>
       </c>
-      <c r="L164">
-        <v>4.2</v>
-      </c>
-      <c r="M164">
-        <v>5.25</v>
-      </c>
       <c r="N164">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="O164">
         <v>4.2</v>
       </c>
       <c r="P164">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q164">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R164">
+        <v>2.07</v>
+      </c>
+      <c r="S164">
         <v>1.83</v>
       </c>
-      <c r="S164">
-        <v>2.07</v>
-      </c>
       <c r="T164">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U164">
         <v>1.95</v>
@@ -15109,16 +15109,16 @@
         <v>-1</v>
       </c>
       <c r="X164">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z164">
         <v>-1</v>
       </c>
       <c r="AA164">
-        <v>1.07</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB164">
         <v>0.95</v>
@@ -15132,7 +15132,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6011430</v>
+        <v>6008787</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15144,73 +15144,73 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F165" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G165" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J165" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K165">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="L165">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="M165">
-        <v>5.5</v>
+        <v>2.45</v>
       </c>
       <c r="N165">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="O165">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P165">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q165">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R165">
-        <v>1.86</v>
+        <v>2.09</v>
       </c>
       <c r="S165">
-        <v>2.04</v>
+        <v>1.81</v>
       </c>
       <c r="T165">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U165">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V165">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W165">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z165">
-        <v>0.43</v>
+        <v>-1</v>
       </c>
       <c r="AA165">
-        <v>-0.5</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AB165">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC165">
         <v>-1</v>
@@ -15399,7 +15399,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6011940</v>
+        <v>6390446</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15411,13 +15411,13 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F168" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G168" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168">
         <v>0</v>
@@ -15426,43 +15426,43 @@
         <v>49</v>
       </c>
       <c r="K168">
-        <v>1.45</v>
+        <v>1.615</v>
       </c>
       <c r="L168">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M168">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="N168">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="O168">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P168">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q168">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R168">
-        <v>1.89</v>
+        <v>2.025</v>
       </c>
       <c r="S168">
-        <v>2.01</v>
+        <v>1.825</v>
       </c>
       <c r="T168">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U168">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V168">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W168">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15471,16 +15471,16 @@
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0.8899999999999999</v>
+        <v>0.5125</v>
       </c>
       <c r="AA168">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB168">
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15488,7 +15488,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6390445</v>
+        <v>6011940</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15500,13 +15500,13 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F169" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G169" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H169">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I169">
         <v>0</v>
@@ -15515,43 +15515,43 @@
         <v>49</v>
       </c>
       <c r="K169">
-        <v>2.25</v>
+        <v>1.45</v>
       </c>
       <c r="L169">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M169">
-        <v>3.1</v>
+        <v>5.75</v>
       </c>
       <c r="N169">
-        <v>1.8</v>
+        <v>1.45</v>
       </c>
       <c r="O169">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P169">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="Q169">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R169">
-        <v>1.975</v>
+        <v>1.89</v>
       </c>
       <c r="S169">
-        <v>1.875</v>
+        <v>2.01</v>
       </c>
       <c r="T169">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="U169">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V169">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W169">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="X169">
         <v>-1</v>
@@ -15560,16 +15560,16 @@
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0.9750000000000001</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA169">
         <v>-1</v>
       </c>
       <c r="AB169">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC169">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15577,7 +15577,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6011535</v>
+        <v>6390445</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15589,58 +15589,58 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F170" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G170" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H170">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170" t="s">
         <v>49</v>
       </c>
       <c r="K170">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="L170">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M170">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N170">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="O170">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P170">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q170">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R170">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S170">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T170">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U170">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V170">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W170">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="X170">
         <v>-1</v>
@@ -15649,13 +15649,13 @@
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA170">
         <v>-1</v>
       </c>
       <c r="AB170">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC170">
         <v>-1</v>
@@ -15666,7 +15666,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6390526</v>
+        <v>6011535</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15678,73 +15678,73 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F171" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G171" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H171">
+        <v>4</v>
+      </c>
+      <c r="I171">
         <v>1</v>
       </c>
-      <c r="I171">
+      <c r="J171" t="s">
+        <v>49</v>
+      </c>
+      <c r="K171">
+        <v>1.6</v>
+      </c>
+      <c r="L171">
+        <v>4.2</v>
+      </c>
+      <c r="M171">
         <v>5</v>
       </c>
-      <c r="J171" t="s">
-        <v>48</v>
-      </c>
-      <c r="K171">
-        <v>1.4</v>
-      </c>
-      <c r="L171">
-        <v>5</v>
-      </c>
-      <c r="M171">
-        <v>6.5</v>
-      </c>
       <c r="N171">
-        <v>1.333</v>
+        <v>1.5</v>
       </c>
       <c r="O171">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="P171">
-        <v>8</v>
+        <v>5.75</v>
       </c>
       <c r="Q171">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R171">
+        <v>2.05</v>
+      </c>
+      <c r="S171">
+        <v>1.8</v>
+      </c>
+      <c r="T171">
+        <v>3.25</v>
+      </c>
+      <c r="U171">
+        <v>2.025</v>
+      </c>
+      <c r="V171">
         <v>1.825</v>
       </c>
-      <c r="S171">
-        <v>2.025</v>
-      </c>
-      <c r="T171">
-        <v>3.75</v>
-      </c>
-      <c r="U171">
-        <v>1.825</v>
-      </c>
-      <c r="V171">
-        <v>2.025</v>
-      </c>
       <c r="W171">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA171">
+        <v>-1</v>
+      </c>
+      <c r="AB171">
         <v>1.025</v>
-      </c>
-      <c r="AB171">
-        <v>0.825</v>
       </c>
       <c r="AC171">
         <v>-1</v>
@@ -15755,7 +15755,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6012013</v>
+        <v>6390526</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15767,76 +15767,76 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F172" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G172" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H172">
         <v>1</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J172" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K172">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="L172">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M172">
-        <v>2.625</v>
+        <v>6.5</v>
       </c>
       <c r="N172">
-        <v>2.05</v>
+        <v>1.333</v>
       </c>
       <c r="O172">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="P172">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="Q172">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R172">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S172">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T172">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="U172">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V172">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W172">
         <v>-1</v>
       </c>
       <c r="X172">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y172">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z172">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA172">
-        <v>0.5249999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB172">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC172">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15844,7 +15844,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6390446</v>
+        <v>6012013</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15856,76 +15856,76 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F173" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G173" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H173">
         <v>1</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K173">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="L173">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M173">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="N173">
+        <v>2.05</v>
+      </c>
+      <c r="O173">
+        <v>3.6</v>
+      </c>
+      <c r="P173">
+        <v>3.4</v>
+      </c>
+      <c r="Q173">
+        <v>-0.25</v>
+      </c>
+      <c r="R173">
         <v>1.8</v>
       </c>
-      <c r="O173">
-        <v>4.2</v>
-      </c>
-      <c r="P173">
-        <v>4</v>
-      </c>
-      <c r="Q173">
-        <v>-0.75</v>
-      </c>
-      <c r="R173">
-        <v>2.025</v>
-      </c>
       <c r="S173">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T173">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U173">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V173">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W173">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X173">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.5125</v>
+        <v>-0.5</v>
       </c>
       <c r="AA173">
-        <v>-0.5</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB173">
         <v>-1</v>
       </c>
       <c r="AC173">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15945,7 +15945,7 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F174" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G174" t="s">
         <v>42</v>
@@ -16049,13 +16049,13 @@
         <v>3.4</v>
       </c>
       <c r="N175">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="O175">
         <v>3.4</v>
       </c>
       <c r="P175">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="Q175">
         <v>-0.25</v>
@@ -16070,10 +16070,10 @@
         <v>2.5</v>
       </c>
       <c r="U175">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V175">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W175">
         <v>0</v>
@@ -16123,22 +16123,22 @@
         <v>1.6</v>
       </c>
       <c r="N176">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="O176">
         <v>4</v>
       </c>
       <c r="P176">
-        <v>1.65</v>
+        <v>1.615</v>
       </c>
       <c r="Q176">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R176">
-        <v>2.08</v>
+        <v>1.84</v>
       </c>
       <c r="S176">
-        <v>1.82</v>
+        <v>2.06</v>
       </c>
       <c r="T176">
         <v>3</v>
@@ -16197,7 +16197,7 @@
         <v>2.1</v>
       </c>
       <c r="N177">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O177">
         <v>3.8</v>
@@ -16218,10 +16218,10 @@
         <v>2.75</v>
       </c>
       <c r="U177">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V177">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W177">
         <v>0</v>
@@ -16256,7 +16256,7 @@
         <v>45383.5</v>
       </c>
       <c r="F178" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G178" t="s">
         <v>30</v>
@@ -16271,31 +16271,31 @@
         <v>5</v>
       </c>
       <c r="N178">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="O178">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P178">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q178">
         <v>-0.75</v>
       </c>
       <c r="R178">
-        <v>2.01</v>
+        <v>1.85</v>
       </c>
       <c r="S178">
-        <v>1.89</v>
+        <v>2.05</v>
       </c>
       <c r="T178">
         <v>2.75</v>
       </c>
       <c r="U178">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V178">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W178">
         <v>0</v>
@@ -16333,7 +16333,7 @@
         <v>43</v>
       </c>
       <c r="G179" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K179">
         <v>1.45</v>
@@ -16348,19 +16348,19 @@
         <v>1.4</v>
       </c>
       <c r="O179">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P179">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q179">
         <v>-1.25</v>
       </c>
       <c r="R179">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="S179">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T179">
         <v>3</v>
@@ -16404,7 +16404,7 @@
         <v>45383.5</v>
       </c>
       <c r="F180" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G180" t="s">
         <v>47</v>
@@ -16422,19 +16422,19 @@
         <v>1.6</v>
       </c>
       <c r="O180">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P180">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="Q180">
         <v>-1</v>
       </c>
       <c r="R180">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="S180">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="T180">
         <v>2.75</v>
@@ -16499,7 +16499,7 @@
         <v>4</v>
       </c>
       <c r="P181">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q181">
         <v>-0.75</v>
@@ -16567,13 +16567,13 @@
         <v>2.625</v>
       </c>
       <c r="N182">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O182">
         <v>3.5</v>
       </c>
       <c r="P182">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q182">
         <v>-0.25</v>
@@ -16585,13 +16585,13 @@
         <v>1.86</v>
       </c>
       <c r="T182">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U182">
+        <v>2.025</v>
+      </c>
+      <c r="V182">
         <v>1.825</v>
-      </c>
-      <c r="V182">
-        <v>2.025</v>
       </c>
       <c r="W182">
         <v>0</v>

--- a/Norway Eliteserien/Norway Eliteserien.xlsx
+++ b/Norway Eliteserien/Norway Eliteserien.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC186"/>
+  <dimension ref="A1:AC189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16773,10 +16773,10 @@
         <v>-1.25</v>
       </c>
       <c r="R183">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="S183">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="T183">
         <v>3.5</v>
@@ -16808,7 +16808,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7617328</v>
+        <v>7617324</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16817,49 +16817,49 @@
         <v>28</v>
       </c>
       <c r="E184" s="2">
-        <v>45389.5</v>
+        <v>45389.39583333334</v>
       </c>
       <c r="F184" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G184" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="K184">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="L184">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="M184">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="N184">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="O184">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P184">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="Q184">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R184">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="S184">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="T184">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U184">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V184">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W184">
         <v>0</v>
@@ -16921,10 +16921,10 @@
         <v>0</v>
       </c>
       <c r="R185">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="S185">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="T185">
         <v>2.5</v>
@@ -16956,7 +16956,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7617329</v>
+        <v>7617325</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -16968,46 +16968,46 @@
         <v>45389.5</v>
       </c>
       <c r="F186" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G186" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K186">
-        <v>2.3</v>
+        <v>4.8</v>
       </c>
       <c r="L186">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M186">
-        <v>2.8</v>
+        <v>1.571</v>
       </c>
       <c r="N186">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="O186">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P186">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="Q186">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R186">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="S186">
-        <v>2.09</v>
+        <v>2.05</v>
       </c>
       <c r="T186">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U186">
+        <v>1.975</v>
+      </c>
+      <c r="V186">
         <v>1.875</v>
-      </c>
-      <c r="V186">
-        <v>1.975</v>
       </c>
       <c r="W186">
         <v>0</v>
@@ -17022,6 +17022,228 @@
         <v>0</v>
       </c>
       <c r="AA186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:29">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>7617328</v>
+      </c>
+      <c r="C187" t="s">
+        <v>28</v>
+      </c>
+      <c r="D187" t="s">
+        <v>28</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45389.5</v>
+      </c>
+      <c r="F187" t="s">
+        <v>37</v>
+      </c>
+      <c r="G187" t="s">
+        <v>41</v>
+      </c>
+      <c r="K187">
+        <v>1.571</v>
+      </c>
+      <c r="L187">
+        <v>4.333</v>
+      </c>
+      <c r="M187">
+        <v>5</v>
+      </c>
+      <c r="N187">
+        <v>1.571</v>
+      </c>
+      <c r="O187">
+        <v>4.333</v>
+      </c>
+      <c r="P187">
+        <v>5</v>
+      </c>
+      <c r="Q187">
+        <v>-1</v>
+      </c>
+      <c r="R187">
+        <v>1.95</v>
+      </c>
+      <c r="S187">
+        <v>1.95</v>
+      </c>
+      <c r="T187">
+        <v>3.25</v>
+      </c>
+      <c r="U187">
+        <v>1.925</v>
+      </c>
+      <c r="V187">
+        <v>1.925</v>
+      </c>
+      <c r="W187">
+        <v>0</v>
+      </c>
+      <c r="X187">
+        <v>0</v>
+      </c>
+      <c r="Y187">
+        <v>0</v>
+      </c>
+      <c r="Z187">
+        <v>0</v>
+      </c>
+      <c r="AA187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:29">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>7617329</v>
+      </c>
+      <c r="C188" t="s">
+        <v>28</v>
+      </c>
+      <c r="D188" t="s">
+        <v>28</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45389.5</v>
+      </c>
+      <c r="F188" t="s">
+        <v>32</v>
+      </c>
+      <c r="G188" t="s">
+        <v>31</v>
+      </c>
+      <c r="K188">
+        <v>2.3</v>
+      </c>
+      <c r="L188">
+        <v>3.75</v>
+      </c>
+      <c r="M188">
+        <v>2.8</v>
+      </c>
+      <c r="N188">
+        <v>2.6</v>
+      </c>
+      <c r="O188">
+        <v>3.75</v>
+      </c>
+      <c r="P188">
+        <v>2.45</v>
+      </c>
+      <c r="Q188">
+        <v>0</v>
+      </c>
+      <c r="R188">
+        <v>2</v>
+      </c>
+      <c r="S188">
+        <v>1.9</v>
+      </c>
+      <c r="T188">
+        <v>2.75</v>
+      </c>
+      <c r="U188">
+        <v>1.875</v>
+      </c>
+      <c r="V188">
+        <v>1.975</v>
+      </c>
+      <c r="W188">
+        <v>0</v>
+      </c>
+      <c r="X188">
+        <v>0</v>
+      </c>
+      <c r="Y188">
+        <v>0</v>
+      </c>
+      <c r="Z188">
+        <v>0</v>
+      </c>
+      <c r="AA188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:29">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>7617330</v>
+      </c>
+      <c r="C189" t="s">
+        <v>28</v>
+      </c>
+      <c r="D189" t="s">
+        <v>28</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45389.59375</v>
+      </c>
+      <c r="F189" t="s">
+        <v>42</v>
+      </c>
+      <c r="G189" t="s">
+        <v>45</v>
+      </c>
+      <c r="K189">
+        <v>1.4</v>
+      </c>
+      <c r="L189">
+        <v>5</v>
+      </c>
+      <c r="M189">
+        <v>6.5</v>
+      </c>
+      <c r="N189">
+        <v>1.4</v>
+      </c>
+      <c r="O189">
+        <v>5.5</v>
+      </c>
+      <c r="P189">
+        <v>6.5</v>
+      </c>
+      <c r="Q189">
+        <v>-1.5</v>
+      </c>
+      <c r="R189">
+        <v>2</v>
+      </c>
+      <c r="S189">
+        <v>1.9</v>
+      </c>
+      <c r="T189">
+        <v>3.5</v>
+      </c>
+      <c r="U189">
+        <v>2.025</v>
+      </c>
+      <c r="V189">
+        <v>1.825</v>
+      </c>
+      <c r="W189">
+        <v>0</v>
+      </c>
+      <c r="X189">
+        <v>0</v>
+      </c>
+      <c r="Y189">
+        <v>0</v>
+      </c>
+      <c r="Z189">
+        <v>0</v>
+      </c>
+      <c r="AA189">
         <v>0</v>
       </c>
     </row>

--- a/Norway Eliteserien/Norway Eliteserien.xlsx
+++ b/Norway Eliteserien/Norway Eliteserien.xlsx
@@ -16773,19 +16773,19 @@
         <v>-1.25</v>
       </c>
       <c r="R183">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="S183">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="T183">
         <v>3.5</v>
       </c>
       <c r="U183">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V183">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W183">
         <v>0</v>
@@ -16882,7 +16882,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7617326</v>
+        <v>7617328</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16894,46 +16894,46 @@
         <v>45389.5</v>
       </c>
       <c r="F185" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G185" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K185">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="L185">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M185">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="N185">
-        <v>2.4</v>
+        <v>1.533</v>
       </c>
       <c r="O185">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P185">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q185">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R185">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="S185">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="T185">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U185">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V185">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W185">
         <v>0</v>
@@ -16956,7 +16956,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7617325</v>
+        <v>7617326</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -16968,46 +16968,46 @@
         <v>45389.5</v>
       </c>
       <c r="F186" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G186" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K186">
-        <v>4.8</v>
+        <v>2.4</v>
       </c>
       <c r="L186">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M186">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="N186">
-        <v>5.5</v>
+        <v>2.625</v>
       </c>
       <c r="O186">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P186">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q186">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R186">
-        <v>1.85</v>
+        <v>2.02</v>
       </c>
       <c r="S186">
+        <v>1.88</v>
+      </c>
+      <c r="T186">
+        <v>2.5</v>
+      </c>
+      <c r="U186">
+        <v>1.8</v>
+      </c>
+      <c r="V186">
         <v>2.05</v>
-      </c>
-      <c r="T186">
-        <v>3</v>
-      </c>
-      <c r="U186">
-        <v>1.975</v>
-      </c>
-      <c r="V186">
-        <v>1.875</v>
       </c>
       <c r="W186">
         <v>0</v>
@@ -17030,7 +17030,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7617328</v>
+        <v>7617325</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17042,46 +17042,46 @@
         <v>45389.5</v>
       </c>
       <c r="F187" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G187" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K187">
+        <v>4.8</v>
+      </c>
+      <c r="L187">
+        <v>4.5</v>
+      </c>
+      <c r="M187">
         <v>1.571</v>
       </c>
-      <c r="L187">
-        <v>4.333</v>
-      </c>
-      <c r="M187">
-        <v>5</v>
-      </c>
       <c r="N187">
-        <v>1.571</v>
+        <v>5.25</v>
       </c>
       <c r="O187">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P187">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="Q187">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R187">
+        <v>2.02</v>
+      </c>
+      <c r="S187">
+        <v>1.88</v>
+      </c>
+      <c r="T187">
+        <v>3</v>
+      </c>
+      <c r="U187">
         <v>1.95</v>
       </c>
-      <c r="S187">
-        <v>1.95</v>
-      </c>
-      <c r="T187">
-        <v>3.25</v>
-      </c>
-      <c r="U187">
-        <v>1.925</v>
-      </c>
       <c r="V187">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W187">
         <v>0</v>
@@ -17131,31 +17131,31 @@
         <v>2.8</v>
       </c>
       <c r="N188">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="O188">
         <v>3.75</v>
       </c>
       <c r="P188">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="Q188">
         <v>0</v>
       </c>
       <c r="R188">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S188">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T188">
         <v>2.75</v>
       </c>
       <c r="U188">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V188">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W188">
         <v>0</v>
@@ -17205,31 +17205,31 @@
         <v>6.5</v>
       </c>
       <c r="N189">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="O189">
         <v>5.5</v>
       </c>
       <c r="P189">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q189">
         <v>-1.5</v>
       </c>
       <c r="R189">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S189">
+        <v>1.95</v>
+      </c>
+      <c r="T189">
+        <v>3.25</v>
+      </c>
+      <c r="U189">
         <v>1.9</v>
       </c>
-      <c r="T189">
-        <v>3.5</v>
-      </c>
-      <c r="U189">
-        <v>2.025</v>
-      </c>
       <c r="V189">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W189">
         <v>0</v>

--- a/Norway Eliteserien/Norway Eliteserien.xlsx
+++ b/Norway Eliteserien/Norway Eliteserien.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -103,9 +103,6 @@
     <t>Norway Eliteserien</t>
   </si>
   <si>
-    <t>Valerenga</t>
-  </si>
-  <si>
     <t>Lillestrom</t>
   </si>
   <si>
@@ -119,6 +116,9 @@
   </si>
   <si>
     <t>Tromso</t>
+  </si>
+  <si>
+    <t>Valerenga</t>
   </si>
   <si>
     <t>Sandefjord</t>
@@ -160,10 +160,10 @@
     <t>Kristiansund BK</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
     <t>D</t>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC189"/>
+  <dimension ref="A1:AC188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6008603</v>
+        <v>6011981</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -640,70 +640,70 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
         <v>1</v>
-      </c>
-      <c r="I2">
-        <v>3</v>
       </c>
       <c r="J2" t="s">
         <v>48</v>
       </c>
       <c r="K2">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="L2">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M2">
-        <v>1.75</v>
+        <v>5.25</v>
       </c>
       <c r="N2">
-        <v>3.2</v>
+        <v>1.571</v>
       </c>
       <c r="O2">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P2">
-        <v>2.05</v>
+        <v>5.5</v>
       </c>
       <c r="Q2">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R2">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S2">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T2">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U2">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V2">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W2">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X2">
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA2">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC2">
         <v>-1</v>
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6011981</v>
+        <v>6011479</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -729,55 +729,55 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K3">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="L3">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M3">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="N3">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="O3">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P3">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q3">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R3">
+        <v>1.9</v>
+      </c>
+      <c r="S3">
         <v>1.95</v>
       </c>
-      <c r="S3">
-        <v>1.9</v>
-      </c>
       <c r="T3">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U3">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V3">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W3">
-        <v>0.571</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -786,13 +786,13 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AC3">
         <v>-1</v>
@@ -803,7 +803,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6011479</v>
+        <v>6011480</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -818,25 +818,25 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
         <v>49</v>
       </c>
       <c r="K4">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="L4">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M4">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N4">
         <v>1.727</v>
@@ -851,37 +851,37 @@
         <v>-0.75</v>
       </c>
       <c r="R4">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S4">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T4">
         <v>2.5</v>
       </c>
       <c r="U4">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V4">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W4">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z4">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB4">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC4">
         <v>-1</v>
@@ -892,7 +892,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6011480</v>
+        <v>6011478</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -907,52 +907,52 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K5">
-        <v>1.75</v>
+        <v>5.25</v>
       </c>
       <c r="L5">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M5">
-        <v>4.5</v>
+        <v>1.615</v>
       </c>
       <c r="N5">
-        <v>1.727</v>
+        <v>5.25</v>
       </c>
       <c r="O5">
         <v>3.8</v>
       </c>
       <c r="P5">
-        <v>4.75</v>
+        <v>1.65</v>
       </c>
       <c r="Q5">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R5">
-        <v>1.925</v>
+        <v>2.04</v>
       </c>
       <c r="S5">
-        <v>1.925</v>
+        <v>1.86</v>
       </c>
       <c r="T5">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U5">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W5">
         <v>-1</v>
@@ -961,16 +961,16 @@
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>3.75</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.925</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AB5">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC5">
         <v>-1</v>
@@ -981,7 +981,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6011478</v>
+        <v>6011395</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -996,70 +996,70 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
         <v>1</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
       </c>
       <c r="J6" t="s">
         <v>48</v>
       </c>
       <c r="K6">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="L6">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M6">
-        <v>1.615</v>
+        <v>2.45</v>
       </c>
       <c r="N6">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="O6">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P6">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="Q6">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="S6">
-        <v>1.86</v>
+        <v>1.775</v>
       </c>
       <c r="T6">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U6">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V6">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA6">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -1070,7 +1070,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6011395</v>
+        <v>6008603</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1085,70 +1085,70 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7" t="s">
         <v>49</v>
       </c>
       <c r="K7">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="L7">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M7">
-        <v>2.45</v>
+        <v>1.75</v>
       </c>
       <c r="N7">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="O7">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P7">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R7">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S7">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T7">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U7">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V7">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W7">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z7">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB7">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1183,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K8">
         <v>2.8</v>
@@ -1272,7 +1272,7 @@
         <v>4</v>
       </c>
       <c r="J9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K9">
         <v>3.1</v>
@@ -1361,7 +1361,7 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K10">
         <v>1.909</v>
@@ -1450,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K11">
         <v>1.2</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K12">
         <v>4.2</v>
@@ -1616,10 +1616,10 @@
         <v>45088.5</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1628,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K13">
         <v>1.7</v>
@@ -1705,10 +1705,10 @@
         <v>45088.5</v>
       </c>
       <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
         <v>33</v>
-      </c>
-      <c r="G14" t="s">
-        <v>34</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1717,7 +1717,7 @@
         <v>3</v>
       </c>
       <c r="J14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K14">
         <v>2.3</v>
@@ -1806,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1886,7 +1886,7 @@
         <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -1975,7 +1975,7 @@
         <v>42</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2073,7 +2073,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -2150,7 +2150,7 @@
         <v>45102.5</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
         <v>41</v>
@@ -2162,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K20">
         <v>1.2</v>
@@ -2340,7 +2340,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K21">
         <v>2.375</v>
@@ -2417,7 +2417,7 @@
         <v>45102.5</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
         <v>40</v>
@@ -2429,7 +2429,7 @@
         <v>3</v>
       </c>
       <c r="J22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K22">
         <v>2.1</v>
@@ -2506,7 +2506,7 @@
         <v>45102.59375</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
         <v>38</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K23">
         <v>5.25</v>
@@ -2595,7 +2595,7 @@
         <v>45108.54166666666</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
         <v>36</v>
@@ -2607,7 +2607,7 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K24">
         <v>2.25</v>
@@ -2696,7 +2696,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K25">
         <v>2.4</v>
@@ -2773,10 +2773,10 @@
         <v>45109.5</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2785,7 +2785,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K26">
         <v>1.6</v>
@@ -2862,10 +2862,10 @@
         <v>45109.5</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -2874,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K27">
         <v>3.2</v>
@@ -2963,7 +2963,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K28">
         <v>1.45</v>
@@ -3052,7 +3052,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K29">
         <v>1.25</v>
@@ -3221,7 +3221,7 @@
         <v>41</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3230,7 +3230,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K31">
         <v>2.05</v>
@@ -3310,7 +3310,7 @@
         <v>44</v>
       </c>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3319,7 +3319,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K32">
         <v>1.909</v>
@@ -3408,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K33">
         <v>1.4</v>
@@ -3473,7 +3473,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6008607</v>
+        <v>6011489</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3485,76 +3485,76 @@
         <v>45116.5</v>
       </c>
       <c r="F34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G34" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K34">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="L34">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M34">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="N34">
-        <v>5.75</v>
+        <v>2.75</v>
       </c>
       <c r="O34">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="P34">
-        <v>1.533</v>
+        <v>2.7</v>
       </c>
       <c r="Q34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R34">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="S34">
-        <v>1.85</v>
+        <v>1.96</v>
       </c>
       <c r="T34">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U34">
+        <v>1.875</v>
+      </c>
+      <c r="V34">
         <v>1.975</v>
       </c>
-      <c r="V34">
-        <v>1.875</v>
-      </c>
       <c r="W34">
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y34">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB34">
         <v>-1</v>
       </c>
       <c r="AC34">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3562,7 +3562,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6011401</v>
+        <v>6011932</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3574,49 +3574,49 @@
         <v>45116.5</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G35" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K35">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="L35">
+        <v>3.5</v>
+      </c>
+      <c r="M35">
+        <v>2.25</v>
+      </c>
+      <c r="N35">
         <v>3.3</v>
       </c>
-      <c r="M35">
-        <v>2.875</v>
-      </c>
-      <c r="N35">
-        <v>1.95</v>
-      </c>
       <c r="O35">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P35">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="Q35">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R35">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S35">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T35">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U35">
         <v>2</v>
@@ -3625,25 +3625,25 @@
         <v>1.85</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X35">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA35">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC35">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3651,7 +3651,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6011489</v>
+        <v>6011987</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3663,76 +3663,76 @@
         <v>45116.5</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G36" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K36">
+        <v>2.15</v>
+      </c>
+      <c r="L36">
+        <v>3.4</v>
+      </c>
+      <c r="M36">
+        <v>3.25</v>
+      </c>
+      <c r="N36">
+        <v>2.25</v>
+      </c>
+      <c r="O36">
+        <v>3.6</v>
+      </c>
+      <c r="P36">
+        <v>3</v>
+      </c>
+      <c r="Q36">
+        <v>-0.25</v>
+      </c>
+      <c r="R36">
+        <v>2.05</v>
+      </c>
+      <c r="S36">
+        <v>1.8</v>
+      </c>
+      <c r="T36">
         <v>2.75</v>
       </c>
-      <c r="L36">
-        <v>3.3</v>
-      </c>
-      <c r="M36">
-        <v>2.5</v>
-      </c>
-      <c r="N36">
-        <v>2.75</v>
-      </c>
-      <c r="O36">
-        <v>3.2</v>
-      </c>
-      <c r="P36">
-        <v>2.7</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>1.94</v>
-      </c>
-      <c r="S36">
-        <v>1.96</v>
-      </c>
-      <c r="T36">
-        <v>2.25</v>
-      </c>
       <c r="U36">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V36">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC36">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3740,7 +3740,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6011987</v>
+        <v>6011401</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3752,76 +3752,76 @@
         <v>45116.5</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G37" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K37">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L37">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M37">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="N37">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="O37">
         <v>3.6</v>
       </c>
       <c r="P37">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q37">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R37">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S37">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T37">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U37">
+        <v>2</v>
+      </c>
+      <c r="V37">
         <v>1.85</v>
       </c>
-      <c r="V37">
-        <v>2</v>
-      </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y37">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
         <v>-1</v>
       </c>
       <c r="AA37">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB37">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3829,7 +3829,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6011932</v>
+        <v>6008607</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3841,13 +3841,13 @@
         <v>45116.5</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H38">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>2</v>
@@ -3856,61 +3856,61 @@
         <v>49</v>
       </c>
       <c r="K38">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="L38">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M38">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="N38">
-        <v>3.3</v>
+        <v>5.75</v>
       </c>
       <c r="O38">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P38">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="Q38">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R38">
+        <v>2</v>
+      </c>
+      <c r="S38">
         <v>1.85</v>
       </c>
-      <c r="S38">
-        <v>2.05</v>
-      </c>
       <c r="T38">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U38">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V38">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W38">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z38">
+        <v>-1</v>
+      </c>
+      <c r="AA38">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA38">
-        <v>-1</v>
-      </c>
       <c r="AB38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K39">
         <v>2</v>
@@ -4019,7 +4019,7 @@
         <v>45122.54166666666</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G40" t="s">
         <v>43</v>
@@ -4031,7 +4031,7 @@
         <v>4</v>
       </c>
       <c r="J40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K40">
         <v>3.75</v>
@@ -4120,7 +4120,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K41">
         <v>3.1</v>
@@ -4185,7 +4185,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6011402</v>
+        <v>6011491</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4197,55 +4197,55 @@
         <v>45123.5</v>
       </c>
       <c r="F42" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G42" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42">
         <v>3</v>
       </c>
       <c r="J42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K42">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="L42">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="M42">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="N42">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="O42">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="P42">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="Q42">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R42">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S42">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T42">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U42">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V42">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W42">
         <v>-1</v>
@@ -4254,16 +4254,16 @@
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB42">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4274,7 +4274,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6011403</v>
+        <v>6011490</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4286,58 +4286,58 @@
         <v>45123.5</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H43">
+        <v>4</v>
+      </c>
+      <c r="I43">
         <v>2</v>
       </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
       <c r="J43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K43">
-        <v>1.95</v>
+        <v>1.333</v>
       </c>
       <c r="L43">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="M43">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="N43">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="O43">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="P43">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="Q43">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R43">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S43">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T43">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U43">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V43">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W43">
-        <v>1.1</v>
+        <v>0.363</v>
       </c>
       <c r="X43">
         <v>-1</v>
@@ -4346,13 +4346,13 @@
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA43">
         <v>-1</v>
       </c>
       <c r="AB43">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4363,7 +4363,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6011490</v>
+        <v>6011403</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4378,55 +4378,55 @@
         <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44" t="s">
+        <v>48</v>
+      </c>
+      <c r="K44">
+        <v>1.95</v>
+      </c>
+      <c r="L44">
+        <v>3.3</v>
+      </c>
+      <c r="M44">
         <v>4</v>
       </c>
-      <c r="I44">
-        <v>2</v>
-      </c>
-      <c r="J44" t="s">
-        <v>49</v>
-      </c>
-      <c r="K44">
-        <v>1.333</v>
-      </c>
-      <c r="L44">
-        <v>5.5</v>
-      </c>
-      <c r="M44">
-        <v>7.5</v>
-      </c>
       <c r="N44">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O44">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P44">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q44">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R44">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S44">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T44">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U44">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V44">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W44">
-        <v>0.363</v>
+        <v>1.1</v>
       </c>
       <c r="X44">
         <v>-1</v>
@@ -4435,13 +4435,13 @@
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA44">
         <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -4452,7 +4452,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6011491</v>
+        <v>6011402</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4464,55 +4464,55 @@
         <v>45123.5</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G45" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K45">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="L45">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="M45">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="N45">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="O45">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="P45">
-        <v>8</v>
+        <v>3.3</v>
       </c>
       <c r="Q45">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R45">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S45">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T45">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U45">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V45">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W45">
         <v>-1</v>
@@ -4521,16 +4521,16 @@
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB45">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC45">
         <v>-1</v>
@@ -4565,7 +4565,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K46">
         <v>1.181</v>
@@ -4645,7 +4645,7 @@
         <v>42</v>
       </c>
       <c r="G47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4654,7 +4654,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K47">
         <v>1.363</v>
@@ -4731,10 +4731,10 @@
         <v>45126.54166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H48">
         <v>5</v>
@@ -4743,7 +4743,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K48">
         <v>1.571</v>
@@ -4832,7 +4832,7 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K49">
         <v>1.45</v>
@@ -4897,7 +4897,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6011404</v>
+        <v>6008609</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4909,73 +4909,73 @@
         <v>45130.5</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H50">
         <v>2</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J50" t="s">
         <v>49</v>
       </c>
       <c r="K50">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="L50">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M50">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="N50">
-        <v>2.45</v>
+        <v>8</v>
       </c>
       <c r="O50">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P50">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="Q50">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R50">
-        <v>2.11</v>
+        <v>1.97</v>
       </c>
       <c r="S50">
-        <v>1.79</v>
+        <v>1.93</v>
       </c>
       <c r="T50">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U50">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V50">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W50">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z50">
-        <v>1.11</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB50">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -4986,7 +4986,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6008609</v>
+        <v>6011405</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4998,73 +4998,73 @@
         <v>45130.5</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G51" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I51">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
         <v>48</v>
       </c>
       <c r="K51">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="L51">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M51">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="N51">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="O51">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P51">
-        <v>1.363</v>
+        <v>2.25</v>
       </c>
       <c r="Q51">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R51">
-        <v>1.97</v>
+        <v>1.875</v>
       </c>
       <c r="S51">
-        <v>1.93</v>
+        <v>1.975</v>
       </c>
       <c r="T51">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V51">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA51">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5075,7 +5075,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6011405</v>
+        <v>6011492</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5087,58 +5087,58 @@
         <v>45130.5</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H52">
         <v>3</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K52">
+        <v>2.25</v>
+      </c>
+      <c r="L52">
+        <v>3.4</v>
+      </c>
+      <c r="M52">
+        <v>2.8</v>
+      </c>
+      <c r="N52">
+        <v>2.375</v>
+      </c>
+      <c r="O52">
         <v>3.3</v>
       </c>
-      <c r="L52">
-        <v>3.5</v>
-      </c>
-      <c r="M52">
-        <v>1.95</v>
-      </c>
-      <c r="N52">
+      <c r="P52">
         <v>3.1</v>
       </c>
-      <c r="O52">
-        <v>3.5</v>
-      </c>
-      <c r="P52">
-        <v>2.25</v>
-      </c>
       <c r="Q52">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R52">
-        <v>1.875</v>
+        <v>2.09</v>
       </c>
       <c r="S52">
-        <v>1.975</v>
+        <v>1.81</v>
       </c>
       <c r="T52">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U52">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V52">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W52">
-        <v>2.1</v>
+        <v>1.375</v>
       </c>
       <c r="X52">
         <v>-1</v>
@@ -5147,13 +5147,13 @@
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.875</v>
+        <v>1.09</v>
       </c>
       <c r="AA52">
         <v>-1</v>
       </c>
       <c r="AB52">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AC52">
         <v>-1</v>
@@ -5164,7 +5164,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6011492</v>
+        <v>6011493</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5176,58 +5176,58 @@
         <v>45130.5</v>
       </c>
       <c r="F53" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53" t="s">
+        <v>48</v>
+      </c>
+      <c r="K53">
+        <v>3.3</v>
+      </c>
+      <c r="L53">
+        <v>3.6</v>
+      </c>
+      <c r="M53">
+        <v>1.95</v>
+      </c>
+      <c r="N53">
+        <v>3.3</v>
+      </c>
+      <c r="O53">
+        <v>3.6</v>
+      </c>
+      <c r="P53">
+        <v>2.05</v>
+      </c>
+      <c r="Q53">
+        <v>0.25</v>
+      </c>
+      <c r="R53">
         <v>2</v>
       </c>
-      <c r="J53" t="s">
-        <v>49</v>
-      </c>
-      <c r="K53">
-        <v>2.25</v>
-      </c>
-      <c r="L53">
-        <v>3.4</v>
-      </c>
-      <c r="M53">
-        <v>2.8</v>
-      </c>
-      <c r="N53">
-        <v>2.375</v>
-      </c>
-      <c r="O53">
-        <v>3.3</v>
-      </c>
-      <c r="P53">
-        <v>3.1</v>
-      </c>
-      <c r="Q53">
-        <v>-0.25</v>
-      </c>
-      <c r="R53">
-        <v>2.09</v>
-      </c>
       <c r="S53">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="T53">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U53">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V53">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W53">
-        <v>1.375</v>
+        <v>2.3</v>
       </c>
       <c r="X53">
         <v>-1</v>
@@ -5236,16 +5236,16 @@
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AA53">
         <v>-1</v>
       </c>
       <c r="AB53">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5253,7 +5253,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6011493</v>
+        <v>6011404</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5265,58 +5265,58 @@
         <v>45130.5</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G54" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54">
         <v>1</v>
       </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
       <c r="J54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K54">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="L54">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M54">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="N54">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="O54">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P54">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="Q54">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R54">
+        <v>2.11</v>
+      </c>
+      <c r="S54">
+        <v>1.79</v>
+      </c>
+      <c r="T54">
+        <v>2.5</v>
+      </c>
+      <c r="U54">
         <v>2</v>
       </c>
-      <c r="S54">
+      <c r="V54">
         <v>1.85</v>
       </c>
-      <c r="T54">
-        <v>2.75</v>
-      </c>
-      <c r="U54">
-        <v>1.9</v>
-      </c>
-      <c r="V54">
-        <v>1.95</v>
-      </c>
       <c r="W54">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="X54">
         <v>-1</v>
@@ -5325,16 +5325,16 @@
         <v>-1</v>
       </c>
       <c r="Z54">
+        <v>1.11</v>
+      </c>
+      <c r="AA54">
+        <v>-1</v>
+      </c>
+      <c r="AB54">
         <v>1</v>
       </c>
-      <c r="AA54">
-        <v>-1</v>
-      </c>
-      <c r="AB54">
-        <v>-1</v>
-      </c>
       <c r="AC54">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5354,10 +5354,10 @@
         <v>45130.59375</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K55">
         <v>2.625</v>
@@ -5446,7 +5446,7 @@
         <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H56">
         <v>3</v>
@@ -5455,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K56">
         <v>1.5</v>
@@ -5532,7 +5532,7 @@
         <v>45136.4375</v>
       </c>
       <c r="F57" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G57" t="s">
         <v>35</v>
@@ -5544,7 +5544,7 @@
         <v>3</v>
       </c>
       <c r="J57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K57">
         <v>1.615</v>
@@ -5633,7 +5633,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K58">
         <v>4.333</v>
@@ -5698,7 +5698,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6011497</v>
+        <v>6011495</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5710,58 +5710,58 @@
         <v>45137.5</v>
       </c>
       <c r="F59" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G59" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K59">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="L59">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M59">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="N59">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="O59">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P59">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q59">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R59">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S59">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T59">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U59">
+        <v>1.9</v>
+      </c>
+      <c r="V59">
         <v>1.95</v>
       </c>
-      <c r="V59">
-        <v>1.9</v>
-      </c>
       <c r="W59">
-        <v>0.3999999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="X59">
         <v>-1</v>
@@ -5770,16 +5770,16 @@
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA59">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
         <v>-1</v>
       </c>
       <c r="AC59">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5799,7 +5799,7 @@
         <v>45137.5</v>
       </c>
       <c r="F60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G60" t="s">
         <v>44</v>
@@ -5811,7 +5811,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K60">
         <v>1.5</v>
@@ -5876,7 +5876,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6011495</v>
+        <v>6011497</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5888,58 +5888,58 @@
         <v>45137.5</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G61" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H61">
+        <v>2</v>
+      </c>
+      <c r="I61">
         <v>1</v>
       </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
       <c r="J61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K61">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="L61">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M61">
-        <v>2.75</v>
+        <v>6.5</v>
       </c>
       <c r="N61">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="O61">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P61">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q61">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R61">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S61">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T61">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U61">
+        <v>1.95</v>
+      </c>
+      <c r="V61">
         <v>1.9</v>
       </c>
-      <c r="V61">
-        <v>1.95</v>
-      </c>
       <c r="W61">
-        <v>1.2</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5948,16 +5948,16 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB61">
         <v>-1</v>
       </c>
       <c r="AC61">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5965,7 +5965,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6011406</v>
+        <v>6011991</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5977,13 +5977,13 @@
         <v>45137.5</v>
       </c>
       <c r="F62" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G62" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H62">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62">
         <v>2</v>
@@ -5992,34 +5992,34 @@
         <v>49</v>
       </c>
       <c r="K62">
+        <v>1.833</v>
+      </c>
+      <c r="L62">
+        <v>3.5</v>
+      </c>
+      <c r="M62">
+        <v>3.75</v>
+      </c>
+      <c r="N62">
         <v>1.8</v>
       </c>
-      <c r="L62">
-        <v>3.4</v>
-      </c>
-      <c r="M62">
-        <v>4</v>
-      </c>
-      <c r="N62">
-        <v>1.615</v>
-      </c>
       <c r="O62">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P62">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q62">
         <v>-0.75</v>
       </c>
       <c r="R62">
+        <v>2.025</v>
+      </c>
+      <c r="S62">
         <v>1.825</v>
       </c>
-      <c r="S62">
-        <v>2.025</v>
-      </c>
       <c r="T62">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U62">
         <v>1.975</v>
@@ -6028,25 +6028,25 @@
         <v>1.875</v>
       </c>
       <c r="W62">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z62">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB62">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6054,7 +6054,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6011991</v>
+        <v>6011406</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6066,13 +6066,13 @@
         <v>45137.5</v>
       </c>
       <c r="F63" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G63" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I63">
         <v>2</v>
@@ -6081,34 +6081,34 @@
         <v>48</v>
       </c>
       <c r="K63">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="L63">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M63">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N63">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="O63">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P63">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q63">
         <v>-0.75</v>
       </c>
       <c r="R63">
+        <v>1.825</v>
+      </c>
+      <c r="S63">
         <v>2.025</v>
       </c>
-      <c r="S63">
-        <v>1.825</v>
-      </c>
       <c r="T63">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U63">
         <v>1.975</v>
@@ -6117,25 +6117,25 @@
         <v>1.875</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA63">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC63">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6158,7 +6158,7 @@
         <v>38</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6167,7 +6167,7 @@
         <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K64">
         <v>1.3</v>
@@ -6244,10 +6244,10 @@
         <v>45143.54166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G65" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6256,7 +6256,7 @@
         <v>3</v>
       </c>
       <c r="J65" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K65">
         <v>2.15</v>
@@ -6345,7 +6345,7 @@
         <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K66">
         <v>3.8</v>
@@ -6410,7 +6410,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6011501</v>
+        <v>6011500</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6422,73 +6422,73 @@
         <v>45144.5</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G67" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H67">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J67" t="s">
         <v>49</v>
       </c>
       <c r="K67">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="L67">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M67">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="N67">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="O67">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P67">
+        <v>2.75</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
         <v>1.8</v>
       </c>
-      <c r="Q67">
-        <v>0.5</v>
-      </c>
-      <c r="R67">
-        <v>2.025</v>
-      </c>
       <c r="S67">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T67">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U67">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V67">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W67">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z67">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB67">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC67">
         <v>-1</v>
@@ -6499,7 +6499,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6011408</v>
+        <v>6011501</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6511,58 +6511,58 @@
         <v>45144.5</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H68">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I68">
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K68">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="L68">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M68">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="N68">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="O68">
+        <v>4</v>
+      </c>
+      <c r="P68">
+        <v>1.8</v>
+      </c>
+      <c r="Q68">
+        <v>0.5</v>
+      </c>
+      <c r="R68">
+        <v>2.025</v>
+      </c>
+      <c r="S68">
+        <v>1.825</v>
+      </c>
+      <c r="T68">
         <v>3.25</v>
       </c>
-      <c r="P68">
-        <v>2.9</v>
-      </c>
-      <c r="Q68">
-        <v>0</v>
-      </c>
-      <c r="R68">
-        <v>1.8</v>
-      </c>
-      <c r="S68">
-        <v>2.05</v>
-      </c>
-      <c r="T68">
-        <v>2.25</v>
-      </c>
       <c r="U68">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V68">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W68">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="X68">
         <v>-1</v>
@@ -6571,13 +6571,13 @@
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AA68">
         <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC68">
         <v>-1</v>
@@ -6588,7 +6588,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6011500</v>
+        <v>6011408</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6600,37 +6600,37 @@
         <v>45144.5</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G69" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H69">
+        <v>3</v>
+      </c>
+      <c r="I69">
         <v>1</v>
-      </c>
-      <c r="I69">
-        <v>2</v>
       </c>
       <c r="J69" t="s">
         <v>48</v>
       </c>
       <c r="K69">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="L69">
         <v>3.4</v>
       </c>
       <c r="M69">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="N69">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="O69">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P69">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q69">
         <v>0</v>
@@ -6642,31 +6642,31 @@
         <v>2.05</v>
       </c>
       <c r="T69">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U69">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V69">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA69">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC69">
         <v>-1</v>
@@ -6701,7 +6701,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K70">
         <v>2.1</v>
@@ -6790,7 +6790,7 @@
         <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K71">
         <v>3.1</v>
@@ -6959,7 +6959,7 @@
         <v>40</v>
       </c>
       <c r="G73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -6968,7 +6968,7 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K73">
         <v>1.5</v>
@@ -7033,7 +7033,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6011502</v>
+        <v>6012732</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7045,34 +7045,34 @@
         <v>45151.5</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G74" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J74" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K74">
         <v>2.15</v>
       </c>
       <c r="L74">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M74">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="N74">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O74">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P74">
         <v>3.1</v>
@@ -7081,19 +7081,19 @@
         <v>-0.25</v>
       </c>
       <c r="R74">
-        <v>1.875</v>
+        <v>1.88</v>
       </c>
       <c r="S74">
-        <v>1.975</v>
+        <v>2.02</v>
       </c>
       <c r="T74">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U74">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V74">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W74">
         <v>-1</v>
@@ -7108,13 +7108,13 @@
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.9750000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC74">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7122,7 +7122,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6012732</v>
+        <v>6011502</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7134,34 +7134,34 @@
         <v>45151.5</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G75" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K75">
         <v>2.15</v>
       </c>
       <c r="L75">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M75">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="N75">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O75">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P75">
         <v>3.1</v>
@@ -7170,19 +7170,19 @@
         <v>-0.25</v>
       </c>
       <c r="R75">
-        <v>1.88</v>
+        <v>1.875</v>
       </c>
       <c r="S75">
-        <v>2.02</v>
+        <v>1.975</v>
       </c>
       <c r="T75">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U75">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V75">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W75">
         <v>-1</v>
@@ -7197,13 +7197,13 @@
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>1.02</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB75">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7223,7 +7223,7 @@
         <v>45151.59375</v>
       </c>
       <c r="F76" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G76" t="s">
         <v>37</v>
@@ -7324,7 +7324,7 @@
         <v>3</v>
       </c>
       <c r="J77" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K77">
         <v>2.8</v>
@@ -7404,7 +7404,7 @@
         <v>43</v>
       </c>
       <c r="G78" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7490,7 +7490,7 @@
         <v>45158.5</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G79" t="s">
         <v>35</v>
@@ -7502,7 +7502,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K79">
         <v>1.533</v>
@@ -7567,7 +7567,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6008613</v>
+        <v>6011504</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7579,40 +7579,40 @@
         <v>45158.5</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G80" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H80">
+        <v>5</v>
+      </c>
+      <c r="I80">
         <v>1</v>
-      </c>
-      <c r="I80">
-        <v>3</v>
       </c>
       <c r="J80" t="s">
         <v>48</v>
       </c>
       <c r="K80">
-        <v>6</v>
+        <v>1.222</v>
       </c>
       <c r="L80">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="M80">
-        <v>1.45</v>
+        <v>10</v>
       </c>
       <c r="N80">
-        <v>7</v>
+        <v>1.25</v>
       </c>
       <c r="O80">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="P80">
-        <v>1.45</v>
+        <v>8.5</v>
       </c>
       <c r="Q80">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R80">
         <v>1.825</v>
@@ -7621,31 +7621,31 @@
         <v>2.025</v>
       </c>
       <c r="T80">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U80">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V80">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W80">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA80">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC80">
         <v>-1</v>
@@ -7656,7 +7656,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6011504</v>
+        <v>6011505</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7668,58 +7668,58 @@
         <v>45158.5</v>
       </c>
       <c r="F81" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G81" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H81">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K81">
-        <v>1.222</v>
+        <v>2.9</v>
       </c>
       <c r="L81">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M81">
-        <v>10</v>
+        <v>2.375</v>
       </c>
       <c r="N81">
-        <v>1.25</v>
+        <v>2.625</v>
       </c>
       <c r="O81">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="P81">
-        <v>8.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q81">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R81">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S81">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T81">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U81">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V81">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W81">
-        <v>0.25</v>
+        <v>1.625</v>
       </c>
       <c r="X81">
         <v>-1</v>
@@ -7728,16 +7728,16 @@
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA81">
         <v>-1</v>
       </c>
       <c r="AB81">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7745,7 +7745,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6011505</v>
+        <v>6008613</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7757,76 +7757,76 @@
         <v>45158.5</v>
       </c>
       <c r="F82" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G82" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82">
         <v>3</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
       </c>
       <c r="J82" t="s">
         <v>49</v>
       </c>
       <c r="K82">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="L82">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M82">
-        <v>2.375</v>
+        <v>1.45</v>
       </c>
       <c r="N82">
-        <v>2.625</v>
+        <v>7</v>
       </c>
       <c r="O82">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P82">
-        <v>2.55</v>
+        <v>1.45</v>
       </c>
       <c r="Q82">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R82">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S82">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T82">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U82">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V82">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W82">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z82">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB82">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AC82">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7858,7 +7858,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K83">
         <v>1.4</v>
@@ -7935,10 +7935,10 @@
         <v>45158.59375</v>
       </c>
       <c r="F84" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G84" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -7947,7 +7947,7 @@
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K84">
         <v>3.2</v>
@@ -8027,7 +8027,7 @@
         <v>40</v>
       </c>
       <c r="G85" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H85">
         <v>4</v>
@@ -8036,7 +8036,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K85">
         <v>1.909</v>
@@ -8113,7 +8113,7 @@
         <v>45165.5</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G86" t="s">
         <v>39</v>
@@ -8291,10 +8291,10 @@
         <v>45165.59375</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H88">
         <v>4</v>
@@ -8303,7 +8303,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K88">
         <v>1.5</v>
@@ -8383,7 +8383,7 @@
         <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8481,7 +8481,7 @@
         <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K90">
         <v>4.75</v>
@@ -8558,7 +8558,7 @@
         <v>45172.5</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G91" t="s">
         <v>41</v>
@@ -8570,7 +8570,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K91">
         <v>2.2</v>
@@ -8635,7 +8635,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6011934</v>
+        <v>6011414</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8647,59 +8647,59 @@
         <v>45172.5</v>
       </c>
       <c r="F92" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G92" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H92">
+        <v>3</v>
+      </c>
+      <c r="I92">
+        <v>2</v>
+      </c>
+      <c r="J92" t="s">
+        <v>48</v>
+      </c>
+      <c r="K92">
+        <v>1.7</v>
+      </c>
+      <c r="L92">
+        <v>4</v>
+      </c>
+      <c r="M92">
+        <v>4</v>
+      </c>
+      <c r="N92">
+        <v>2</v>
+      </c>
+      <c r="O92">
+        <v>3.8</v>
+      </c>
+      <c r="P92">
+        <v>3.5</v>
+      </c>
+      <c r="Q92">
+        <v>-0.5</v>
+      </c>
+      <c r="R92">
+        <v>2.01</v>
+      </c>
+      <c r="S92">
+        <v>1.89</v>
+      </c>
+      <c r="T92">
+        <v>2.75</v>
+      </c>
+      <c r="U92">
+        <v>1.775</v>
+      </c>
+      <c r="V92">
+        <v>2.1</v>
+      </c>
+      <c r="W92">
         <v>1</v>
       </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
-      <c r="J92" t="s">
-        <v>49</v>
-      </c>
-      <c r="K92">
-        <v>1.666</v>
-      </c>
-      <c r="L92">
-        <v>4.5</v>
-      </c>
-      <c r="M92">
-        <v>3.75</v>
-      </c>
-      <c r="N92">
-        <v>1.6</v>
-      </c>
-      <c r="O92">
-        <v>5</v>
-      </c>
-      <c r="P92">
-        <v>4.333</v>
-      </c>
-      <c r="Q92">
-        <v>-1</v>
-      </c>
-      <c r="R92">
-        <v>1.925</v>
-      </c>
-      <c r="S92">
-        <v>1.925</v>
-      </c>
-      <c r="T92">
-        <v>3.5</v>
-      </c>
-      <c r="U92">
-        <v>1.925</v>
-      </c>
-      <c r="V92">
-        <v>1.925</v>
-      </c>
-      <c r="W92">
-        <v>0.6000000000000001</v>
-      </c>
       <c r="X92">
         <v>-1</v>
       </c>
@@ -8707,16 +8707,16 @@
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA92">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC92">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8724,7 +8724,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6011415</v>
+        <v>6011934</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8736,58 +8736,58 @@
         <v>45172.5</v>
       </c>
       <c r="F93" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G93" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K93">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="L93">
+        <v>4.5</v>
+      </c>
+      <c r="M93">
+        <v>3.75</v>
+      </c>
+      <c r="N93">
+        <v>1.6</v>
+      </c>
+      <c r="O93">
+        <v>5</v>
+      </c>
+      <c r="P93">
+        <v>4.333</v>
+      </c>
+      <c r="Q93">
+        <v>-1</v>
+      </c>
+      <c r="R93">
+        <v>1.925</v>
+      </c>
+      <c r="S93">
+        <v>1.925</v>
+      </c>
+      <c r="T93">
         <v>3.5</v>
       </c>
-      <c r="M93">
-        <v>3.1</v>
-      </c>
-      <c r="N93">
-        <v>2.15</v>
-      </c>
-      <c r="O93">
-        <v>3.4</v>
-      </c>
-      <c r="P93">
-        <v>3.5</v>
-      </c>
-      <c r="Q93">
-        <v>-0.25</v>
-      </c>
-      <c r="R93">
-        <v>1.875</v>
-      </c>
-      <c r="S93">
-        <v>1.975</v>
-      </c>
-      <c r="T93">
-        <v>2.5</v>
-      </c>
       <c r="U93">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V93">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W93">
-        <v>1.15</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X93">
         <v>-1</v>
@@ -8796,16 +8796,16 @@
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB93">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8813,7 +8813,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6011509</v>
+        <v>6011415</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8831,70 +8831,70 @@
         <v>30</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I94">
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K94">
+        <v>2.05</v>
+      </c>
+      <c r="L94">
         <v>3.5</v>
       </c>
-      <c r="L94">
-        <v>4</v>
-      </c>
       <c r="M94">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="N94">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="O94">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P94">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="Q94">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R94">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S94">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T94">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U94">
+        <v>2</v>
+      </c>
+      <c r="V94">
         <v>1.85</v>
       </c>
-      <c r="V94">
-        <v>2</v>
-      </c>
       <c r="W94">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X94">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA94">
         <v>-1</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC94">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8902,7 +8902,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6011414</v>
+        <v>6011509</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8914,76 +8914,76 @@
         <v>45172.5</v>
       </c>
       <c r="F95" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G95" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K95">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="L95">
         <v>4</v>
       </c>
       <c r="M95">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="N95">
+        <v>4.2</v>
+      </c>
+      <c r="O95">
+        <v>4.333</v>
+      </c>
+      <c r="P95">
+        <v>1.7</v>
+      </c>
+      <c r="Q95">
+        <v>0.75</v>
+      </c>
+      <c r="R95">
+        <v>1.95</v>
+      </c>
+      <c r="S95">
+        <v>1.9</v>
+      </c>
+      <c r="T95">
+        <v>3</v>
+      </c>
+      <c r="U95">
+        <v>1.85</v>
+      </c>
+      <c r="V95">
         <v>2</v>
       </c>
-      <c r="O95">
-        <v>3.8</v>
-      </c>
-      <c r="P95">
-        <v>3.5</v>
-      </c>
-      <c r="Q95">
-        <v>-0.5</v>
-      </c>
-      <c r="R95">
-        <v>2.01</v>
-      </c>
-      <c r="S95">
-        <v>1.89</v>
-      </c>
-      <c r="T95">
-        <v>2.75</v>
-      </c>
-      <c r="U95">
-        <v>1.775</v>
-      </c>
-      <c r="V95">
-        <v>2.1</v>
-      </c>
       <c r="W95">
+        <v>-1</v>
+      </c>
+      <c r="X95">
+        <v>3.333</v>
+      </c>
+      <c r="Y95">
+        <v>-1</v>
+      </c>
+      <c r="Z95">
+        <v>0.95</v>
+      </c>
+      <c r="AA95">
+        <v>-1</v>
+      </c>
+      <c r="AB95">
+        <v>-1</v>
+      </c>
+      <c r="AC95">
         <v>1</v>
-      </c>
-      <c r="X95">
-        <v>-1</v>
-      </c>
-      <c r="Y95">
-        <v>-1</v>
-      </c>
-      <c r="Z95">
-        <v>1.01</v>
-      </c>
-      <c r="AA95">
-        <v>-1</v>
-      </c>
-      <c r="AB95">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC95">
-        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9104,7 +9104,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K97">
         <v>1.333</v>
@@ -9169,7 +9169,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6011511</v>
+        <v>6011510</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9181,76 +9181,76 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G98" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
         <v>2</v>
-      </c>
-      <c r="I98">
-        <v>0</v>
       </c>
       <c r="J98" t="s">
         <v>49</v>
       </c>
       <c r="K98">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="L98">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M98">
-        <v>2.625</v>
+        <v>1.727</v>
       </c>
       <c r="N98">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="O98">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P98">
-        <v>2.9</v>
+        <v>1.833</v>
       </c>
       <c r="Q98">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R98">
-        <v>2.08</v>
+        <v>1.975</v>
       </c>
       <c r="S98">
-        <v>1.82</v>
+        <v>1.875</v>
       </c>
       <c r="T98">
         <v>3</v>
       </c>
       <c r="U98">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V98">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W98">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z98">
-        <v>1.08</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9258,7 +9258,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6011510</v>
+        <v>6011511</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9270,76 +9270,76 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H99">
+        <v>2</v>
+      </c>
+      <c r="I99">
         <v>0</v>
-      </c>
-      <c r="I99">
-        <v>2</v>
       </c>
       <c r="J99" t="s">
         <v>48</v>
       </c>
       <c r="K99">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="L99">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M99">
-        <v>1.727</v>
+        <v>2.625</v>
       </c>
       <c r="N99">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="O99">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P99">
-        <v>1.833</v>
+        <v>2.9</v>
       </c>
       <c r="Q99">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
-        <v>1.975</v>
+        <v>2.08</v>
       </c>
       <c r="S99">
-        <v>1.875</v>
+        <v>1.82</v>
       </c>
       <c r="T99">
         <v>3</v>
       </c>
       <c r="U99">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V99">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>1.08</v>
       </c>
       <c r="AA99">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9359,7 +9359,7 @@
         <v>45186.5</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G100" t="s">
         <v>38</v>
@@ -9451,7 +9451,7 @@
         <v>40</v>
       </c>
       <c r="G101" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H101">
         <v>3</v>
@@ -9460,7 +9460,7 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K101">
         <v>2.15</v>
@@ -9549,7 +9549,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K102">
         <v>4</v>
@@ -9626,7 +9626,7 @@
         <v>45186.5</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G103" t="s">
         <v>44</v>
@@ -9638,7 +9638,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K103">
         <v>1.65</v>
@@ -9715,10 +9715,10 @@
         <v>45186.59375</v>
       </c>
       <c r="F104" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G104" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H104">
         <v>3</v>
@@ -9727,7 +9727,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K104">
         <v>1.5</v>
@@ -9804,7 +9804,7 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G105" t="s">
         <v>41</v>
@@ -9893,10 +9893,10 @@
         <v>45193.5</v>
       </c>
       <c r="F106" t="s">
+        <v>29</v>
+      </c>
+      <c r="G106" t="s">
         <v>30</v>
-      </c>
-      <c r="G106" t="s">
-        <v>31</v>
       </c>
       <c r="H106">
         <v>3</v>
@@ -9905,7 +9905,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K106">
         <v>1.85</v>
@@ -9970,7 +9970,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6011516</v>
+        <v>6011517</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9982,76 +9982,76 @@
         <v>45193.5</v>
       </c>
       <c r="F107" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J107" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K107">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="L107">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M107">
-        <v>2.1</v>
+        <v>8</v>
       </c>
       <c r="N107">
+        <v>1.285</v>
+      </c>
+      <c r="O107">
+        <v>6.5</v>
+      </c>
+      <c r="P107">
+        <v>8.5</v>
+      </c>
+      <c r="Q107">
+        <v>-1.75</v>
+      </c>
+      <c r="R107">
+        <v>1.925</v>
+      </c>
+      <c r="S107">
+        <v>1.925</v>
+      </c>
+      <c r="T107">
         <v>3.5</v>
       </c>
-      <c r="O107">
-        <v>4.333</v>
-      </c>
-      <c r="P107">
+      <c r="U107">
         <v>1.85</v>
       </c>
-      <c r="Q107">
-        <v>0.5</v>
-      </c>
-      <c r="R107">
-        <v>1.975</v>
-      </c>
-      <c r="S107">
-        <v>1.875</v>
-      </c>
-      <c r="T107">
-        <v>3.25</v>
-      </c>
-      <c r="U107">
-        <v>1.925</v>
-      </c>
       <c r="V107">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X107">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC107">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10148,7 +10148,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6011517</v>
+        <v>6011516</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10160,76 +10160,76 @@
         <v>45193.5</v>
       </c>
       <c r="F109" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G109" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H109">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K109">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="L109">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M109">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="N109">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="O109">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="P109">
-        <v>8.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q109">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R109">
+        <v>1.975</v>
+      </c>
+      <c r="S109">
+        <v>1.875</v>
+      </c>
+      <c r="T109">
+        <v>3.25</v>
+      </c>
+      <c r="U109">
         <v>1.925</v>
       </c>
-      <c r="S109">
+      <c r="V109">
         <v>1.925</v>
       </c>
-      <c r="T109">
-        <v>3.5</v>
-      </c>
-      <c r="U109">
-        <v>1.85</v>
-      </c>
-      <c r="V109">
-        <v>2</v>
-      </c>
       <c r="W109">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X109">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA109">
+        <v>-1</v>
+      </c>
+      <c r="AB109">
+        <v>-1</v>
+      </c>
+      <c r="AC109">
         <v>0.925</v>
-      </c>
-      <c r="AB109">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC109">
-        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10249,7 +10249,7 @@
         <v>45193.5</v>
       </c>
       <c r="F110" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G110" t="s">
         <v>43</v>
@@ -10341,7 +10341,7 @@
         <v>38</v>
       </c>
       <c r="G111" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H111">
         <v>4</v>
@@ -10350,7 +10350,7 @@
         <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K111">
         <v>1.333</v>
@@ -10430,7 +10430,7 @@
         <v>42</v>
       </c>
       <c r="G112" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H112">
         <v>2</v>
@@ -10439,7 +10439,7 @@
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K112">
         <v>1.55</v>
@@ -10519,7 +10519,7 @@
         <v>41</v>
       </c>
       <c r="G113" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10528,7 +10528,7 @@
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K113">
         <v>2.875</v>
@@ -10605,7 +10605,7 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G114" t="s">
         <v>42</v>
@@ -10617,7 +10617,7 @@
         <v>2</v>
       </c>
       <c r="J114" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K114">
         <v>2.7</v>
@@ -10706,7 +10706,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K115">
         <v>1.85</v>
@@ -10786,7 +10786,7 @@
         <v>35</v>
       </c>
       <c r="G116" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10795,7 +10795,7 @@
         <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K116">
         <v>3.25</v>
@@ -10875,7 +10875,7 @@
         <v>38</v>
       </c>
       <c r="G117" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H117">
         <v>2</v>
@@ -10884,7 +10884,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K117">
         <v>1.25</v>
@@ -10973,7 +10973,7 @@
         <v>2</v>
       </c>
       <c r="J118" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K118">
         <v>2.05</v>
@@ -11151,7 +11151,7 @@
         <v>3</v>
       </c>
       <c r="J120" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K120">
         <v>2.4</v>
@@ -11231,7 +11231,7 @@
         <v>41</v>
       </c>
       <c r="G121" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11240,7 +11240,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K121">
         <v>3.25</v>
@@ -11320,7 +11320,7 @@
         <v>40</v>
       </c>
       <c r="G122" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H122">
         <v>5</v>
@@ -11329,7 +11329,7 @@
         <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K122">
         <v>1.85</v>
@@ -11418,7 +11418,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K123">
         <v>2.4</v>
@@ -11495,10 +11495,10 @@
         <v>45207.5</v>
       </c>
       <c r="F124" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G124" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -11507,7 +11507,7 @@
         <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K124">
         <v>1.444</v>
@@ -11587,7 +11587,7 @@
         <v>37</v>
       </c>
       <c r="G125" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -11596,7 +11596,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K125">
         <v>2.4</v>
@@ -11673,7 +11673,7 @@
         <v>45207.59375</v>
       </c>
       <c r="F126" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G126" t="s">
         <v>42</v>
@@ -11685,7 +11685,7 @@
         <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K126">
         <v>3.2</v>
@@ -11774,7 +11774,7 @@
         <v>3</v>
       </c>
       <c r="J127" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K127">
         <v>1.142</v>
@@ -11863,7 +11863,7 @@
         <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K128">
         <v>2.3</v>
@@ -11940,10 +11940,10 @@
         <v>45221.39583333334</v>
       </c>
       <c r="F129" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G129" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H129">
         <v>2</v>
@@ -11952,7 +11952,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K129">
         <v>1.95</v>
@@ -12041,7 +12041,7 @@
         <v>3</v>
       </c>
       <c r="J130" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K130">
         <v>2.05</v>
@@ -12106,7 +12106,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6011520</v>
+        <v>6011421</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12118,40 +12118,40 @@
         <v>45221.5</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G131" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H131">
         <v>3</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K131">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="L131">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M131">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="N131">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="O131">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P131">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="Q131">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R131">
         <v>1.925</v>
@@ -12160,16 +12160,16 @@
         <v>1.925</v>
       </c>
       <c r="T131">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U131">
+        <v>1.95</v>
+      </c>
+      <c r="V131">
         <v>1.9</v>
       </c>
-      <c r="V131">
-        <v>1.95</v>
-      </c>
       <c r="W131">
-        <v>2.6</v>
+        <v>0.909</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12184,7 +12184,7 @@
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12195,7 +12195,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6011421</v>
+        <v>6011520</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12210,37 +12210,37 @@
         <v>32</v>
       </c>
       <c r="G132" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H132">
         <v>3</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K132">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="L132">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M132">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="N132">
+        <v>3.6</v>
+      </c>
+      <c r="O132">
+        <v>4.2</v>
+      </c>
+      <c r="P132">
         <v>1.909</v>
       </c>
-      <c r="O132">
-        <v>3.5</v>
-      </c>
-      <c r="P132">
-        <v>3.8</v>
-      </c>
       <c r="Q132">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R132">
         <v>1.925</v>
@@ -12249,16 +12249,16 @@
         <v>1.925</v>
       </c>
       <c r="T132">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U132">
+        <v>1.9</v>
+      </c>
+      <c r="V132">
         <v>1.95</v>
       </c>
-      <c r="V132">
-        <v>1.9</v>
-      </c>
       <c r="W132">
-        <v>0.909</v>
+        <v>2.6</v>
       </c>
       <c r="X132">
         <v>-1</v>
@@ -12273,7 +12273,7 @@
         <v>-1</v>
       </c>
       <c r="AB132">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -12296,7 +12296,7 @@
         <v>45221.5</v>
       </c>
       <c r="F133" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G133" t="s">
         <v>41</v>
@@ -12388,7 +12388,7 @@
         <v>36</v>
       </c>
       <c r="G134" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H134">
         <v>3</v>
@@ -12397,7 +12397,7 @@
         <v>4</v>
       </c>
       <c r="J134" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K134">
         <v>1.85</v>
@@ -12477,7 +12477,7 @@
         <v>37</v>
       </c>
       <c r="G135" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H135">
         <v>6</v>
@@ -12486,7 +12486,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K135">
         <v>2</v>
@@ -12551,7 +12551,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6011425</v>
+        <v>6011523</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12563,67 +12563,67 @@
         <v>45228.54166666666</v>
       </c>
       <c r="F136" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G136" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H136">
+        <v>1</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136" t="s">
+        <v>50</v>
+      </c>
+      <c r="K136">
+        <v>5</v>
+      </c>
+      <c r="L136">
+        <v>4.1</v>
+      </c>
+      <c r="M136">
+        <v>1.571</v>
+      </c>
+      <c r="N136">
+        <v>5</v>
+      </c>
+      <c r="O136">
+        <v>4.333</v>
+      </c>
+      <c r="P136">
+        <v>1.6</v>
+      </c>
+      <c r="Q136">
+        <v>1</v>
+      </c>
+      <c r="R136">
+        <v>1.91</v>
+      </c>
+      <c r="S136">
+        <v>1.99</v>
+      </c>
+      <c r="T136">
+        <v>3</v>
+      </c>
+      <c r="U136">
+        <v>1.85</v>
+      </c>
+      <c r="V136">
         <v>2</v>
       </c>
-      <c r="I136">
-        <v>0</v>
-      </c>
-      <c r="J136" t="s">
-        <v>49</v>
-      </c>
-      <c r="K136">
-        <v>2.05</v>
-      </c>
-      <c r="L136">
-        <v>3.4</v>
-      </c>
-      <c r="M136">
-        <v>3.4</v>
-      </c>
-      <c r="N136">
-        <v>2.25</v>
-      </c>
-      <c r="O136">
-        <v>3.4</v>
-      </c>
-      <c r="P136">
-        <v>3.3</v>
-      </c>
-      <c r="Q136">
-        <v>-0.25</v>
-      </c>
-      <c r="R136">
-        <v>1.925</v>
-      </c>
-      <c r="S136">
-        <v>1.925</v>
-      </c>
-      <c r="T136">
-        <v>2.5</v>
-      </c>
-      <c r="U136">
-        <v>1.875</v>
-      </c>
-      <c r="V136">
-        <v>1.975</v>
-      </c>
       <c r="W136">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.925</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AA136">
         <v>-1</v>
@@ -12632,7 +12632,7 @@
         <v>-1</v>
       </c>
       <c r="AC136">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12640,7 +12640,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6011523</v>
+        <v>6011937</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12652,76 +12652,76 @@
         <v>45228.54166666666</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G137" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J137" t="s">
         <v>50</v>
       </c>
       <c r="K137">
-        <v>5</v>
+        <v>1.533</v>
       </c>
       <c r="L137">
-        <v>4.1</v>
+        <v>4.333</v>
       </c>
       <c r="M137">
-        <v>1.571</v>
+        <v>5.25</v>
       </c>
       <c r="N137">
-        <v>5</v>
+        <v>1.533</v>
       </c>
       <c r="O137">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P137">
-        <v>1.6</v>
+        <v>5.5</v>
       </c>
       <c r="Q137">
+        <v>-1</v>
+      </c>
+      <c r="R137">
+        <v>1.9</v>
+      </c>
+      <c r="S137">
+        <v>2</v>
+      </c>
+      <c r="T137">
+        <v>3.25</v>
+      </c>
+      <c r="U137">
+        <v>1.925</v>
+      </c>
+      <c r="V137">
+        <v>1.925</v>
+      </c>
+      <c r="W137">
+        <v>-1</v>
+      </c>
+      <c r="X137">
+        <v>3.75</v>
+      </c>
+      <c r="Y137">
+        <v>-1</v>
+      </c>
+      <c r="Z137">
+        <v>-1</v>
+      </c>
+      <c r="AA137">
         <v>1</v>
       </c>
-      <c r="R137">
-        <v>1.91</v>
-      </c>
-      <c r="S137">
-        <v>1.99</v>
-      </c>
-      <c r="T137">
-        <v>3</v>
-      </c>
-      <c r="U137">
-        <v>1.85</v>
-      </c>
-      <c r="V137">
-        <v>2</v>
-      </c>
-      <c r="W137">
-        <v>-1</v>
-      </c>
-      <c r="X137">
-        <v>3.333</v>
-      </c>
-      <c r="Y137">
-        <v>-1</v>
-      </c>
-      <c r="Z137">
-        <v>0.9099999999999999</v>
-      </c>
-      <c r="AA137">
-        <v>-1</v>
-      </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC137">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12729,7 +12729,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6011937</v>
+        <v>6012003</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12741,76 +12741,76 @@
         <v>45228.54166666666</v>
       </c>
       <c r="F138" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G138" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H138">
+        <v>1</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138" t="s">
+        <v>48</v>
+      </c>
+      <c r="K138">
+        <v>3.7</v>
+      </c>
+      <c r="L138">
+        <v>3.9</v>
+      </c>
+      <c r="M138">
+        <v>1.833</v>
+      </c>
+      <c r="N138">
+        <v>2.9</v>
+      </c>
+      <c r="O138">
+        <v>3.6</v>
+      </c>
+      <c r="P138">
+        <v>2.3</v>
+      </c>
+      <c r="Q138">
+        <v>0.25</v>
+      </c>
+      <c r="R138">
+        <v>1.825</v>
+      </c>
+      <c r="S138">
+        <v>2.025</v>
+      </c>
+      <c r="T138">
+        <v>3</v>
+      </c>
+      <c r="U138">
         <v>2</v>
       </c>
-      <c r="I138">
-        <v>2</v>
-      </c>
-      <c r="J138" t="s">
-        <v>50</v>
-      </c>
-      <c r="K138">
-        <v>1.533</v>
-      </c>
-      <c r="L138">
-        <v>4.333</v>
-      </c>
-      <c r="M138">
-        <v>5.25</v>
-      </c>
-      <c r="N138">
-        <v>1.533</v>
-      </c>
-      <c r="O138">
-        <v>4.75</v>
-      </c>
-      <c r="P138">
-        <v>5.5</v>
-      </c>
-      <c r="Q138">
-        <v>-1</v>
-      </c>
-      <c r="R138">
+      <c r="V138">
+        <v>1.85</v>
+      </c>
+      <c r="W138">
         <v>1.9</v>
       </c>
-      <c r="S138">
-        <v>2</v>
-      </c>
-      <c r="T138">
-        <v>3.25</v>
-      </c>
-      <c r="U138">
-        <v>1.925</v>
-      </c>
-      <c r="V138">
-        <v>1.925</v>
-      </c>
-      <c r="W138">
-        <v>-1</v>
-      </c>
       <c r="X138">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA138">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12818,7 +12818,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6012003</v>
+        <v>6011425</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12830,58 +12830,58 @@
         <v>45228.54166666666</v>
       </c>
       <c r="F139" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G139" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139">
         <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K139">
-        <v>3.7</v>
+        <v>2.05</v>
       </c>
       <c r="L139">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="M139">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="N139">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="O139">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P139">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="Q139">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R139">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S139">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T139">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U139">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V139">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W139">
-        <v>1.9</v>
+        <v>1.25</v>
       </c>
       <c r="X139">
         <v>-1</v>
@@ -12890,7 +12890,7 @@
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA139">
         <v>-1</v>
@@ -12899,7 +12899,7 @@
         <v>-1</v>
       </c>
       <c r="AC139">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12919,10 +12919,10 @@
         <v>45228.63194444445</v>
       </c>
       <c r="F140" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G140" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H140">
         <v>1</v>
@@ -12931,7 +12931,7 @@
         <v>3</v>
       </c>
       <c r="J140" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K140">
         <v>2.15</v>
@@ -13011,7 +13011,7 @@
         <v>38</v>
       </c>
       <c r="G141" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H141">
         <v>3</v>
@@ -13020,7 +13020,7 @@
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K141">
         <v>1.4</v>
@@ -13100,7 +13100,7 @@
         <v>43</v>
       </c>
       <c r="G142" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13109,7 +13109,7 @@
         <v>4</v>
       </c>
       <c r="J142" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K142">
         <v>1.666</v>
@@ -13198,7 +13198,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K143">
         <v>4</v>
@@ -13275,7 +13275,7 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F144" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G144" t="s">
         <v>43</v>
@@ -13287,7 +13287,7 @@
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K144">
         <v>3.75</v>
@@ -13364,7 +13364,7 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G145" t="s">
         <v>37</v>
@@ -13376,7 +13376,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K145">
         <v>1.7</v>
@@ -13465,7 +13465,7 @@
         <v>4</v>
       </c>
       <c r="J146" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K146">
         <v>5.25</v>
@@ -13554,7 +13554,7 @@
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K147">
         <v>1.3</v>
@@ -13634,7 +13634,7 @@
         <v>40</v>
       </c>
       <c r="G148" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H148">
         <v>3</v>
@@ -13643,7 +13643,7 @@
         <v>2</v>
       </c>
       <c r="J148" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K148">
         <v>1.909</v>
@@ -13720,10 +13720,10 @@
         <v>45235.63541666666</v>
       </c>
       <c r="F149" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G149" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -13732,7 +13732,7 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K149">
         <v>1.533</v>
@@ -13809,7 +13809,7 @@
         <v>45236.625</v>
       </c>
       <c r="F150" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G150" t="s">
         <v>35</v>
@@ -13821,7 +13821,7 @@
         <v>3</v>
       </c>
       <c r="J150" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K150">
         <v>2.2</v>
@@ -13910,7 +13910,7 @@
         <v>2</v>
       </c>
       <c r="J151" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K151">
         <v>4.2</v>
@@ -13990,7 +13990,7 @@
         <v>39</v>
       </c>
       <c r="G152" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -13999,7 +13999,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K152">
         <v>3.4</v>
@@ -14079,7 +14079,7 @@
         <v>38</v>
       </c>
       <c r="G153" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14088,7 +14088,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K153">
         <v>1.125</v>
@@ -14168,7 +14168,7 @@
         <v>35</v>
       </c>
       <c r="G154" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H154">
         <v>3</v>
@@ -14177,7 +14177,7 @@
         <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K154">
         <v>2.5</v>
@@ -14266,7 +14266,7 @@
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K155">
         <v>1.75</v>
@@ -14343,7 +14343,7 @@
         <v>45242.54166666666</v>
       </c>
       <c r="F156" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G156" t="s">
         <v>44</v>
@@ -14355,7 +14355,7 @@
         <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K156">
         <v>1.95</v>
@@ -14432,7 +14432,7 @@
         <v>45242.54166666666</v>
       </c>
       <c r="F157" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G157" t="s">
         <v>41</v>
@@ -14524,7 +14524,7 @@
         <v>43</v>
       </c>
       <c r="G158" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H158">
         <v>4</v>
@@ -14533,7 +14533,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K158">
         <v>1.5</v>
@@ -14598,7 +14598,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6011532</v>
+        <v>6012007</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14610,55 +14610,55 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F159" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G159" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J159" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K159">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="L159">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M159">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="N159">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="O159">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P159">
-        <v>1.85</v>
+        <v>3.8</v>
       </c>
       <c r="Q159">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R159">
-        <v>1.975</v>
+        <v>1.93</v>
       </c>
       <c r="S159">
-        <v>1.875</v>
+        <v>1.97</v>
       </c>
       <c r="T159">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U159">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V159">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W159">
         <v>-1</v>
@@ -14667,19 +14667,19 @@
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>0.8500000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="Z159">
         <v>-1</v>
       </c>
       <c r="AA159">
-        <v>0.875</v>
+        <v>0.97</v>
       </c>
       <c r="AB159">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC159">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14687,7 +14687,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6011533</v>
+        <v>6011532</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14699,76 +14699,76 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F160" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G160" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
         <v>2</v>
-      </c>
-      <c r="I160">
-        <v>1</v>
       </c>
       <c r="J160" t="s">
         <v>49</v>
       </c>
       <c r="K160">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="L160">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M160">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="N160">
+        <v>4.2</v>
+      </c>
+      <c r="O160">
+        <v>3.6</v>
+      </c>
+      <c r="P160">
         <v>1.85</v>
       </c>
-      <c r="O160">
-        <v>4</v>
-      </c>
-      <c r="P160">
-        <v>3.8</v>
-      </c>
       <c r="Q160">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R160">
-        <v>1.91</v>
+        <v>1.975</v>
       </c>
       <c r="S160">
-        <v>1.99</v>
+        <v>1.875</v>
       </c>
       <c r="T160">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U160">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V160">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W160">
+        <v>-1</v>
+      </c>
+      <c r="X160">
+        <v>-1</v>
+      </c>
+      <c r="Y160">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X160">
-        <v>-1</v>
-      </c>
-      <c r="Y160">
-        <v>-1</v>
-      </c>
       <c r="Z160">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB160">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC160">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14776,7 +14776,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6008787</v>
+        <v>6011533</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14788,76 +14788,76 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F161" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G161" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H161">
+        <v>2</v>
+      </c>
+      <c r="I161">
         <v>1</v>
-      </c>
-      <c r="I161">
-        <v>3</v>
       </c>
       <c r="J161" t="s">
         <v>48</v>
       </c>
       <c r="K161">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L161">
+        <v>3.75</v>
+      </c>
+      <c r="M161">
+        <v>3.4</v>
+      </c>
+      <c r="N161">
+        <v>1.85</v>
+      </c>
+      <c r="O161">
+        <v>4</v>
+      </c>
+      <c r="P161">
         <v>3.8</v>
       </c>
-      <c r="M161">
-        <v>2.45</v>
-      </c>
-      <c r="N161">
-        <v>2.375</v>
-      </c>
-      <c r="O161">
-        <v>3.8</v>
-      </c>
-      <c r="P161">
-        <v>2.7</v>
-      </c>
       <c r="Q161">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R161">
-        <v>2.09</v>
+        <v>1.91</v>
       </c>
       <c r="S161">
-        <v>1.81</v>
+        <v>1.99</v>
       </c>
       <c r="T161">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U161">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V161">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W161">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AA161">
-        <v>0.8100000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB161">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AC161">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14865,7 +14865,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6011429</v>
+        <v>6008787</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14877,49 +14877,49 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F162" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G162" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H162">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I162">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J162" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K162">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="L162">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="M162">
-        <v>5.25</v>
+        <v>2.45</v>
       </c>
       <c r="N162">
-        <v>1.6</v>
+        <v>2.375</v>
       </c>
       <c r="O162">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P162">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q162">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R162">
-        <v>1.83</v>
+        <v>2.09</v>
       </c>
       <c r="S162">
-        <v>2.07</v>
+        <v>1.81</v>
       </c>
       <c r="T162">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U162">
         <v>1.95</v>
@@ -14931,16 +14931,16 @@
         <v>-1</v>
       </c>
       <c r="X162">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y162">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z162">
         <v>-1</v>
       </c>
       <c r="AA162">
-        <v>1.07</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AB162">
         <v>0.95</v>
@@ -14954,7 +14954,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6011430</v>
+        <v>6011429</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14966,73 +14966,73 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F163" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G163" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I163">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J163" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K163">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="L163">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M163">
+        <v>5.25</v>
+      </c>
+      <c r="N163">
+        <v>1.6</v>
+      </c>
+      <c r="O163">
+        <v>4.2</v>
+      </c>
+      <c r="P163">
         <v>5.5</v>
-      </c>
-      <c r="N163">
-        <v>1.615</v>
-      </c>
-      <c r="O163">
-        <v>4</v>
-      </c>
-      <c r="P163">
-        <v>5.25</v>
       </c>
       <c r="Q163">
         <v>-0.75</v>
       </c>
       <c r="R163">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="S163">
-        <v>2.04</v>
+        <v>2.07</v>
       </c>
       <c r="T163">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U163">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V163">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W163">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X163">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0.43</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
-        <v>-0.5</v>
+        <v>1.07</v>
       </c>
       <c r="AB163">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC163">
         <v>-1</v>
@@ -15043,7 +15043,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6012007</v>
+        <v>6011430</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15055,73 +15055,73 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F164" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G164" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H164">
+        <v>2</v>
+      </c>
+      <c r="I164">
         <v>1</v>
-      </c>
-      <c r="I164">
-        <v>3</v>
       </c>
       <c r="J164" t="s">
         <v>48</v>
       </c>
       <c r="K164">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="L164">
+        <v>4.333</v>
+      </c>
+      <c r="M164">
+        <v>5.5</v>
+      </c>
+      <c r="N164">
+        <v>1.615</v>
+      </c>
+      <c r="O164">
         <v>4</v>
       </c>
-      <c r="M164">
-        <v>4.2</v>
-      </c>
-      <c r="N164">
-        <v>1.909</v>
-      </c>
-      <c r="O164">
-        <v>3.8</v>
-      </c>
       <c r="P164">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q164">
+        <v>-0.75</v>
+      </c>
+      <c r="R164">
+        <v>1.86</v>
+      </c>
+      <c r="S164">
+        <v>2.04</v>
+      </c>
+      <c r="T164">
+        <v>2.5</v>
+      </c>
+      <c r="U164">
+        <v>2</v>
+      </c>
+      <c r="V164">
+        <v>1.85</v>
+      </c>
+      <c r="W164">
+        <v>0.615</v>
+      </c>
+      <c r="X164">
+        <v>-1</v>
+      </c>
+      <c r="Y164">
+        <v>-1</v>
+      </c>
+      <c r="Z164">
+        <v>0.43</v>
+      </c>
+      <c r="AA164">
         <v>-0.5</v>
       </c>
-      <c r="R164">
-        <v>1.93</v>
-      </c>
-      <c r="S164">
-        <v>1.97</v>
-      </c>
-      <c r="T164">
-        <v>3</v>
-      </c>
-      <c r="U164">
-        <v>2.025</v>
-      </c>
-      <c r="V164">
-        <v>1.825</v>
-      </c>
-      <c r="W164">
-        <v>-1</v>
-      </c>
-      <c r="X164">
-        <v>-1</v>
-      </c>
-      <c r="Y164">
-        <v>2.8</v>
-      </c>
-      <c r="Z164">
-        <v>-1</v>
-      </c>
-      <c r="AA164">
-        <v>0.97</v>
-      </c>
       <c r="AB164">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC164">
         <v>-1</v>
@@ -15156,7 +15156,7 @@
         <v>2</v>
       </c>
       <c r="J165" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K165">
         <v>2.15</v>
@@ -15233,7 +15233,7 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F166" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G166" t="s">
         <v>36</v>
@@ -15245,7 +15245,7 @@
         <v>4</v>
       </c>
       <c r="J166" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K166">
         <v>4.75</v>
@@ -15325,7 +15325,7 @@
         <v>39</v>
       </c>
       <c r="G167" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H167">
         <v>4</v>
@@ -15334,7 +15334,7 @@
         <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K167">
         <v>1.6</v>
@@ -15423,7 +15423,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K168">
         <v>1.45</v>
@@ -15589,7 +15589,7 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F170" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G170" t="s">
         <v>42</v>
@@ -15601,7 +15601,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K170">
         <v>4.5</v>
@@ -15690,7 +15690,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K171">
         <v>2.25</v>
@@ -15770,7 +15770,7 @@
         <v>35</v>
       </c>
       <c r="G172" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H172">
         <v>1</v>
@@ -15779,7 +15779,7 @@
         <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K172">
         <v>1.615</v>
@@ -15859,7 +15859,7 @@
         <v>36</v>
       </c>
       <c r="G173" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H173">
         <v>1</v>
@@ -15868,7 +15868,7 @@
         <v>5</v>
       </c>
       <c r="J173" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K173">
         <v>1.4</v>
@@ -15945,10 +15945,10 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F174" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G174" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H174">
         <v>1</v>
@@ -16046,7 +16046,7 @@
         <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K175">
         <v>2.05</v>
@@ -16135,7 +16135,7 @@
         <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K176">
         <v>5</v>
@@ -16200,7 +16200,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7617319</v>
+        <v>7617320</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16212,58 +16212,58 @@
         <v>45383.5</v>
       </c>
       <c r="F177" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G177" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H177">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I177">
         <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K177">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="L177">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="M177">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N177">
-        <v>1.4</v>
+        <v>1.615</v>
       </c>
       <c r="O177">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P177">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="Q177">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R177">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="S177">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="T177">
         <v>2.75</v>
       </c>
       <c r="U177">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V177">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W177">
-        <v>0.3999999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16272,16 +16272,16 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.8999999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AA177">
         <v>-1</v>
       </c>
       <c r="AB177">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16289,7 +16289,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7617318</v>
+        <v>7617319</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16301,73 +16301,73 @@
         <v>45383.5</v>
       </c>
       <c r="F178" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G178" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I178">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J178" t="s">
         <v>48</v>
       </c>
       <c r="K178">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="L178">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="M178">
+        <v>6</v>
+      </c>
+      <c r="N178">
+        <v>1.4</v>
+      </c>
+      <c r="O178">
         <v>5</v>
       </c>
-      <c r="N178">
-        <v>1.5</v>
-      </c>
-      <c r="O178">
-        <v>4</v>
-      </c>
       <c r="P178">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="Q178">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R178">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="S178">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="T178">
         <v>2.75</v>
       </c>
       <c r="U178">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V178">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W178">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA178">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AB178">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -16378,7 +16378,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7617320</v>
+        <v>7617318</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16390,16 +16390,16 @@
         <v>45383.5</v>
       </c>
       <c r="F179" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G179" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H179">
         <v>2</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J179" t="s">
         <v>49</v>
@@ -16414,52 +16414,52 @@
         <v>5</v>
       </c>
       <c r="N179">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="O179">
         <v>4</v>
       </c>
       <c r="P179">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q179">
         <v>-1</v>
       </c>
       <c r="R179">
-        <v>2.06</v>
+        <v>1.89</v>
       </c>
       <c r="S179">
-        <v>1.84</v>
+        <v>2.01</v>
       </c>
       <c r="T179">
         <v>2.75</v>
       </c>
       <c r="U179">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V179">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W179">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z179">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC179">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16479,7 +16479,7 @@
         <v>45383.5</v>
       </c>
       <c r="F180" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G180" t="s">
         <v>42</v>
@@ -16491,7 +16491,7 @@
         <v>4</v>
       </c>
       <c r="J180" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K180">
         <v>3.1</v>
@@ -16580,7 +16580,7 @@
         <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K181">
         <v>1.833</v>
@@ -16734,7 +16734,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7616737</v>
+        <v>7617324</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16743,49 +16743,49 @@
         <v>28</v>
       </c>
       <c r="E183" s="2">
-        <v>45388.54166666666</v>
+        <v>45389.39583333334</v>
       </c>
       <c r="F183" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G183" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="K183">
-        <v>1.444</v>
+        <v>2.375</v>
       </c>
       <c r="L183">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="M183">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="N183">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="O183">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P183">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q183">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R183">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="S183">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="T183">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U183">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V183">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W183">
         <v>0</v>
@@ -16808,7 +16808,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7617324</v>
+        <v>7617329</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16817,49 +16817,49 @@
         <v>28</v>
       </c>
       <c r="E184" s="2">
-        <v>45389.39583333334</v>
+        <v>45389.5</v>
       </c>
       <c r="F184" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G184" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="K184">
+        <v>2.3</v>
+      </c>
+      <c r="L184">
+        <v>3.75</v>
+      </c>
+      <c r="M184">
+        <v>2.8</v>
+      </c>
+      <c r="N184">
         <v>2.375</v>
       </c>
-      <c r="L184">
-        <v>3.8</v>
-      </c>
-      <c r="M184">
-        <v>2.6</v>
-      </c>
-      <c r="N184">
-        <v>2.25</v>
-      </c>
       <c r="O184">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P184">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="Q184">
         <v>-0.25</v>
       </c>
       <c r="R184">
-        <v>1.99</v>
+        <v>2.08</v>
       </c>
       <c r="S184">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="T184">
         <v>2.75</v>
       </c>
       <c r="U184">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V184">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W184">
         <v>0</v>
@@ -16882,7 +16882,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7617329</v>
+        <v>7617328</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16894,46 +16894,46 @@
         <v>45389.5</v>
       </c>
       <c r="F185" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G185" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="K185">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="L185">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M185">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="N185">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="O185">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P185">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="Q185">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R185">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="S185">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="T185">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U185">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V185">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W185">
         <v>0</v>
@@ -16971,7 +16971,7 @@
         <v>37</v>
       </c>
       <c r="G186" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K186">
         <v>2.4</v>
@@ -16995,19 +16995,19 @@
         <v>0</v>
       </c>
       <c r="R186">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="S186">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="T186">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U186">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V186">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W186">
         <v>0</v>
@@ -17030,7 +17030,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7617328</v>
+        <v>7617325</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17042,46 +17042,46 @@
         <v>45389.5</v>
       </c>
       <c r="F187" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G187" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K187">
+        <v>4.8</v>
+      </c>
+      <c r="L187">
+        <v>4.5</v>
+      </c>
+      <c r="M187">
         <v>1.571</v>
       </c>
-      <c r="L187">
-        <v>4.333</v>
-      </c>
-      <c r="M187">
-        <v>5</v>
-      </c>
       <c r="N187">
+        <v>5.25</v>
+      </c>
+      <c r="O187">
+        <v>4.75</v>
+      </c>
+      <c r="P187">
         <v>1.533</v>
       </c>
-      <c r="O187">
-        <v>4.5</v>
-      </c>
-      <c r="P187">
-        <v>5.5</v>
-      </c>
       <c r="Q187">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R187">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S187">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="T187">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U187">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V187">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W187">
         <v>0</v>
@@ -17104,7 +17104,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7617325</v>
+        <v>7617330</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17113,49 +17113,49 @@
         <v>28</v>
       </c>
       <c r="E188" s="2">
-        <v>45389.5</v>
+        <v>45389.59375</v>
       </c>
       <c r="F188" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G188" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K188">
-        <v>4.8</v>
+        <v>1.4</v>
       </c>
       <c r="L188">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M188">
-        <v>1.571</v>
+        <v>6.5</v>
       </c>
       <c r="N188">
-        <v>5.25</v>
+        <v>1.333</v>
       </c>
       <c r="O188">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="P188">
-        <v>1.533</v>
+        <v>8</v>
       </c>
       <c r="Q188">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R188">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="S188">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="T188">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U188">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V188">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W188">
         <v>0</v>
@@ -17170,80 +17170,6 @@
         <v>0</v>
       </c>
       <c r="AA188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:29">
-      <c r="A189" s="1">
-        <v>187</v>
-      </c>
-      <c r="B189">
-        <v>7617330</v>
-      </c>
-      <c r="C189" t="s">
-        <v>28</v>
-      </c>
-      <c r="D189" t="s">
-        <v>28</v>
-      </c>
-      <c r="E189" s="2">
-        <v>45389.59375</v>
-      </c>
-      <c r="F189" t="s">
-        <v>42</v>
-      </c>
-      <c r="G189" t="s">
-        <v>45</v>
-      </c>
-      <c r="K189">
-        <v>1.4</v>
-      </c>
-      <c r="L189">
-        <v>5</v>
-      </c>
-      <c r="M189">
-        <v>6.5</v>
-      </c>
-      <c r="N189">
-        <v>1.333</v>
-      </c>
-      <c r="O189">
-        <v>5.5</v>
-      </c>
-      <c r="P189">
-        <v>8</v>
-      </c>
-      <c r="Q189">
-        <v>-1.5</v>
-      </c>
-      <c r="R189">
-        <v>1.93</v>
-      </c>
-      <c r="S189">
-        <v>1.97</v>
-      </c>
-      <c r="T189">
-        <v>3.25</v>
-      </c>
-      <c r="U189">
-        <v>1.95</v>
-      </c>
-      <c r="V189">
-        <v>1.9</v>
-      </c>
-      <c r="W189">
-        <v>0</v>
-      </c>
-      <c r="X189">
-        <v>0</v>
-      </c>
-      <c r="Y189">
-        <v>0</v>
-      </c>
-      <c r="Z189">
-        <v>0</v>
-      </c>
-      <c r="AA189">
         <v>0</v>
       </c>
     </row>

--- a/Norway Eliteserien/Norway Eliteserien.xlsx
+++ b/Norway Eliteserien/Norway Eliteserien.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -127,10 +127,10 @@
     <t>Viking FK</t>
   </si>
   <si>
-    <t>Odd BK</t>
+    <t>BodoGlimt</t>
   </si>
   <si>
-    <t>BodoGlimt</t>
+    <t>Odd BK</t>
   </si>
   <si>
     <t>Stabaek</t>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC189"/>
+  <dimension ref="A1:AC197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1085,7 +1085,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -1174,7 +1174,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1337,7 +1337,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6008770</v>
+        <v>6011396</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1349,76 +1349,76 @@
         <v>45088.5</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K10">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="L10">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M10">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="N10">
-        <v>5.75</v>
+        <v>2.375</v>
       </c>
       <c r="O10">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P10">
-        <v>1.571</v>
+        <v>3.1</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R10">
+        <v>2.1</v>
+      </c>
+      <c r="S10">
+        <v>1.775</v>
+      </c>
+      <c r="T10">
+        <v>2.25</v>
+      </c>
+      <c r="U10">
         <v>1.9</v>
       </c>
-      <c r="S10">
+      <c r="V10">
         <v>1.95</v>
       </c>
-      <c r="T10">
-        <v>2.75</v>
-      </c>
-      <c r="U10">
-        <v>1.825</v>
-      </c>
-      <c r="V10">
-        <v>2.025</v>
-      </c>
       <c r="W10">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z10">
+        <v>-1</v>
+      </c>
+      <c r="AA10">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB10">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA10">
-        <v>-1</v>
-      </c>
-      <c r="AB10">
-        <v>-1</v>
-      </c>
       <c r="AC10">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1438,7 +1438,7 @@
         <v>45088.5</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s">
         <v>44</v>
@@ -1515,7 +1515,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6011396</v>
+        <v>6008770</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1527,76 +1527,76 @@
         <v>45088.5</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K12">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="L12">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M12">
-        <v>3.1</v>
+        <v>1.833</v>
       </c>
       <c r="N12">
-        <v>2.375</v>
+        <v>5.75</v>
       </c>
       <c r="O12">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P12">
-        <v>3.1</v>
+        <v>1.571</v>
       </c>
       <c r="Q12">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R12">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S12">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T12">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U12">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V12">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA12">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -2316,7 +2316,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6011397</v>
+        <v>6011398</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2328,76 +2328,76 @@
         <v>45102.5</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K21">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M21">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="N21">
         <v>2.4</v>
       </c>
       <c r="O21">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P21">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="Q21">
         <v>-0.25</v>
       </c>
       <c r="R21">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="S21">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T21">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U21">
         <v>2.05</v>
       </c>
       <c r="V21">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA21">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC21">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2405,7 +2405,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6011398</v>
+        <v>6011397</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2417,76 +2417,76 @@
         <v>45102.5</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L22">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M22">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="N22">
         <v>2.4</v>
       </c>
       <c r="O22">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P22">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q22">
         <v>-0.25</v>
       </c>
       <c r="R22">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S22">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T22">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U22">
         <v>2.05</v>
       </c>
       <c r="V22">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W22">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z22">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB22">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2509,7 +2509,7 @@
         <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -2672,7 +2672,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6011486</v>
+        <v>6011400</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2684,76 +2684,76 @@
         <v>45109.5</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G25" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H25">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K25">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="L25">
+        <v>3.8</v>
+      </c>
+      <c r="M25">
+        <v>5.25</v>
+      </c>
+      <c r="N25">
+        <v>1.65</v>
+      </c>
+      <c r="O25">
+        <v>3.8</v>
+      </c>
+      <c r="P25">
+        <v>5.5</v>
+      </c>
+      <c r="Q25">
+        <v>-0.75</v>
+      </c>
+      <c r="R25">
+        <v>1.825</v>
+      </c>
+      <c r="S25">
+        <v>2.025</v>
+      </c>
+      <c r="T25">
+        <v>2.5</v>
+      </c>
+      <c r="U25">
+        <v>1.875</v>
+      </c>
+      <c r="V25">
+        <v>1.975</v>
+      </c>
+      <c r="W25">
+        <v>-1</v>
+      </c>
+      <c r="X25">
+        <v>-1</v>
+      </c>
+      <c r="Y25">
         <v>4.5</v>
       </c>
-      <c r="M25">
-        <v>6</v>
-      </c>
-      <c r="N25">
-        <v>1.333</v>
-      </c>
-      <c r="O25">
-        <v>5.25</v>
-      </c>
-      <c r="P25">
-        <v>8</v>
-      </c>
-      <c r="Q25">
-        <v>-1.5</v>
-      </c>
-      <c r="R25">
-        <v>1.875</v>
-      </c>
-      <c r="S25">
-        <v>1.975</v>
-      </c>
-      <c r="T25">
-        <v>3.5</v>
-      </c>
-      <c r="U25">
-        <v>1.825</v>
-      </c>
-      <c r="V25">
-        <v>2.025</v>
-      </c>
-      <c r="W25">
-        <v>0.333</v>
-      </c>
-      <c r="X25">
-        <v>-1</v>
-      </c>
-      <c r="Y25">
-        <v>-1</v>
-      </c>
       <c r="Z25">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB25">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2776,7 +2776,7 @@
         <v>41</v>
       </c>
       <c r="G26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -2850,7 +2850,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6011400</v>
+        <v>6011486</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2862,76 +2862,76 @@
         <v>45109.5</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K27">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="L27">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M27">
+        <v>6</v>
+      </c>
+      <c r="N27">
+        <v>1.333</v>
+      </c>
+      <c r="O27">
         <v>5.25</v>
       </c>
-      <c r="N27">
-        <v>1.65</v>
-      </c>
-      <c r="O27">
-        <v>3.8</v>
-      </c>
       <c r="P27">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="Q27">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R27">
+        <v>1.875</v>
+      </c>
+      <c r="S27">
+        <v>1.975</v>
+      </c>
+      <c r="T27">
+        <v>3.5</v>
+      </c>
+      <c r="U27">
         <v>1.825</v>
       </c>
-      <c r="S27">
+      <c r="V27">
         <v>2.025</v>
       </c>
-      <c r="T27">
-        <v>2.5</v>
-      </c>
-      <c r="U27">
-        <v>1.875</v>
-      </c>
-      <c r="V27">
-        <v>1.975</v>
-      </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA27">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC27">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3129,7 +3129,7 @@
         <v>45109.59375</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
         <v>43</v>
@@ -3651,7 +3651,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6008607</v>
+        <v>6011401</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3663,76 +3663,76 @@
         <v>45116.5</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
       <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36" t="s">
+        <v>50</v>
+      </c>
+      <c r="K36">
+        <v>2.4</v>
+      </c>
+      <c r="L36">
+        <v>3.3</v>
+      </c>
+      <c r="M36">
+        <v>2.875</v>
+      </c>
+      <c r="N36">
+        <v>1.95</v>
+      </c>
+      <c r="O36">
+        <v>3.6</v>
+      </c>
+      <c r="P36">
+        <v>3.8</v>
+      </c>
+      <c r="Q36">
+        <v>-0.5</v>
+      </c>
+      <c r="R36">
+        <v>1.925</v>
+      </c>
+      <c r="S36">
+        <v>1.925</v>
+      </c>
+      <c r="T36">
+        <v>2.5</v>
+      </c>
+      <c r="U36">
         <v>2</v>
       </c>
-      <c r="J36" t="s">
-        <v>49</v>
-      </c>
-      <c r="K36">
-        <v>5.25</v>
-      </c>
-      <c r="L36">
-        <v>4.5</v>
-      </c>
-      <c r="M36">
-        <v>1.533</v>
-      </c>
-      <c r="N36">
-        <v>5.75</v>
-      </c>
-      <c r="O36">
-        <v>4.333</v>
-      </c>
-      <c r="P36">
-        <v>1.533</v>
-      </c>
-      <c r="Q36">
-        <v>1</v>
-      </c>
-      <c r="R36">
-        <v>2</v>
-      </c>
-      <c r="S36">
+      <c r="V36">
         <v>1.85</v>
       </c>
-      <c r="T36">
-        <v>3</v>
-      </c>
-      <c r="U36">
-        <v>1.975</v>
-      </c>
-      <c r="V36">
-        <v>1.875</v>
-      </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y36">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
         <v>-1</v>
       </c>
       <c r="AA36">
+        <v>0.925</v>
+      </c>
+      <c r="AB36">
+        <v>-1</v>
+      </c>
+      <c r="AC36">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB36">
-        <v>-1</v>
-      </c>
-      <c r="AC36">
-        <v>0.875</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3740,7 +3740,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6011401</v>
+        <v>6008607</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3752,76 +3752,76 @@
         <v>45116.5</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G37" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K37">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="L37">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M37">
-        <v>2.875</v>
+        <v>1.533</v>
       </c>
       <c r="N37">
-        <v>1.95</v>
+        <v>5.75</v>
       </c>
       <c r="O37">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P37">
-        <v>3.8</v>
+        <v>1.533</v>
       </c>
       <c r="Q37">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R37">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S37">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T37">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U37">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V37">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z37">
         <v>-1</v>
       </c>
       <c r="AA37">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB37">
         <v>-1</v>
       </c>
       <c r="AC37">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -4200,7 +4200,7 @@
         <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -4286,7 +4286,7 @@
         <v>45123.5</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G43" t="s">
         <v>41</v>
@@ -5176,7 +5176,7 @@
         <v>45130.5</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G53" t="s">
         <v>35</v>
@@ -5268,7 +5268,7 @@
         <v>34</v>
       </c>
       <c r="G54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -6069,7 +6069,7 @@
         <v>31</v>
       </c>
       <c r="G63" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H63">
         <v>3</v>
@@ -6155,7 +6155,7 @@
         <v>45137.59375</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G64" t="s">
         <v>29</v>
@@ -6689,7 +6689,7 @@
         <v>45144.5</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G70" t="s">
         <v>39</v>
@@ -6781,7 +6781,7 @@
         <v>36</v>
       </c>
       <c r="G71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H71">
         <v>3</v>
@@ -7312,7 +7312,7 @@
         <v>45157.54166666666</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G77" t="s">
         <v>40</v>
@@ -7493,7 +7493,7 @@
         <v>41</v>
       </c>
       <c r="G79" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -8205,7 +8205,7 @@
         <v>35</v>
       </c>
       <c r="G87" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8825,7 +8825,7 @@
         <v>45172.5</v>
       </c>
       <c r="F94" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G94" t="s">
         <v>34</v>
@@ -9006,7 +9006,7 @@
         <v>44</v>
       </c>
       <c r="G96" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H96">
         <v>4</v>
@@ -9184,7 +9184,7 @@
         <v>43</v>
       </c>
       <c r="G98" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H98">
         <v>4</v>
@@ -9451,7 +9451,7 @@
         <v>31</v>
       </c>
       <c r="G101" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9893,7 +9893,7 @@
         <v>45193.5</v>
       </c>
       <c r="F106" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G106" t="s">
         <v>35</v>
@@ -9982,7 +9982,7 @@
         <v>45193.5</v>
       </c>
       <c r="F107" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G107" t="s">
         <v>41</v>
@@ -10872,7 +10872,7 @@
         <v>45200.59375</v>
       </c>
       <c r="F117" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G117" t="s">
         <v>32</v>
@@ -11050,7 +11050,7 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F119" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G119" t="s">
         <v>36</v>
@@ -11231,7 +11231,7 @@
         <v>43</v>
       </c>
       <c r="G121" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11762,7 +11762,7 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G127" t="s">
         <v>34</v>
@@ -12299,7 +12299,7 @@
         <v>32</v>
       </c>
       <c r="G133" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H133">
         <v>3</v>
@@ -12830,7 +12830,7 @@
         <v>45228.54166666666</v>
       </c>
       <c r="F139" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G139" t="s">
         <v>44</v>
@@ -13008,7 +13008,7 @@
         <v>45229.60416666666</v>
       </c>
       <c r="F141" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G141" t="s">
         <v>33</v>
@@ -13367,7 +13367,7 @@
         <v>39</v>
       </c>
       <c r="G145" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -13456,7 +13456,7 @@
         <v>42</v>
       </c>
       <c r="G146" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H146">
         <v>2</v>
@@ -14165,7 +14165,7 @@
         <v>45242.54166666666</v>
       </c>
       <c r="F154" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G154" t="s">
         <v>30</v>
@@ -14343,7 +14343,7 @@
         <v>45242.54166666666</v>
       </c>
       <c r="F156" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G156" t="s">
         <v>29</v>
@@ -14880,7 +14880,7 @@
         <v>42</v>
       </c>
       <c r="G162" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H162">
         <v>4</v>
@@ -14954,7 +14954,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6011533</v>
+        <v>6011430</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14966,10 +14966,10 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F163" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G163" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H163">
         <v>2</v>
@@ -14981,61 +14981,61 @@
         <v>48</v>
       </c>
       <c r="K163">
-        <v>2</v>
+        <v>1.533</v>
       </c>
       <c r="L163">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M163">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="N163">
-        <v>1.85</v>
+        <v>1.615</v>
       </c>
       <c r="O163">
         <v>4</v>
       </c>
       <c r="P163">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q163">
+        <v>-0.75</v>
+      </c>
+      <c r="R163">
+        <v>1.86</v>
+      </c>
+      <c r="S163">
+        <v>2.04</v>
+      </c>
+      <c r="T163">
+        <v>2.5</v>
+      </c>
+      <c r="U163">
+        <v>2</v>
+      </c>
+      <c r="V163">
+        <v>1.85</v>
+      </c>
+      <c r="W163">
+        <v>0.615</v>
+      </c>
+      <c r="X163">
+        <v>-1</v>
+      </c>
+      <c r="Y163">
+        <v>-1</v>
+      </c>
+      <c r="Z163">
+        <v>0.43</v>
+      </c>
+      <c r="AA163">
         <v>-0.5</v>
       </c>
-      <c r="R163">
-        <v>1.91</v>
-      </c>
-      <c r="S163">
-        <v>1.99</v>
-      </c>
-      <c r="T163">
-        <v>2.75</v>
-      </c>
-      <c r="U163">
-        <v>1.875</v>
-      </c>
-      <c r="V163">
-        <v>1.975</v>
-      </c>
-      <c r="W163">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X163">
-        <v>-1</v>
-      </c>
-      <c r="Y163">
-        <v>-1</v>
-      </c>
-      <c r="Z163">
-        <v>0.9099999999999999</v>
-      </c>
-      <c r="AA163">
-        <v>-1</v>
-      </c>
       <c r="AB163">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AC163">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15043,7 +15043,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6011430</v>
+        <v>6011429</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15055,73 +15055,73 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G164" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J164" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K164">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="L164">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M164">
+        <v>5.25</v>
+      </c>
+      <c r="N164">
+        <v>1.6</v>
+      </c>
+      <c r="O164">
+        <v>4.2</v>
+      </c>
+      <c r="P164">
         <v>5.5</v>
-      </c>
-      <c r="N164">
-        <v>1.615</v>
-      </c>
-      <c r="O164">
-        <v>4</v>
-      </c>
-      <c r="P164">
-        <v>5.25</v>
       </c>
       <c r="Q164">
         <v>-0.75</v>
       </c>
       <c r="R164">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="S164">
-        <v>2.04</v>
+        <v>2.07</v>
       </c>
       <c r="T164">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U164">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V164">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W164">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X164">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>0.43</v>
+        <v>-1</v>
       </c>
       <c r="AA164">
-        <v>-0.5</v>
+        <v>1.07</v>
       </c>
       <c r="AB164">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC164">
         <v>-1</v>
@@ -15221,7 +15221,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6011429</v>
+        <v>6011533</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15233,76 +15233,76 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F166" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G166" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H166">
+        <v>2</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+      <c r="J166" t="s">
+        <v>48</v>
+      </c>
+      <c r="K166">
+        <v>2</v>
+      </c>
+      <c r="L166">
+        <v>3.75</v>
+      </c>
+      <c r="M166">
+        <v>3.4</v>
+      </c>
+      <c r="N166">
+        <v>1.85</v>
+      </c>
+      <c r="O166">
         <v>4</v>
       </c>
-      <c r="I166">
-        <v>4</v>
-      </c>
-      <c r="J166" t="s">
-        <v>50</v>
-      </c>
-      <c r="K166">
-        <v>1.571</v>
-      </c>
-      <c r="L166">
-        <v>4.2</v>
-      </c>
-      <c r="M166">
-        <v>5.25</v>
-      </c>
-      <c r="N166">
-        <v>1.6</v>
-      </c>
-      <c r="O166">
-        <v>4.2</v>
-      </c>
       <c r="P166">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q166">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R166">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S166">
-        <v>2.07</v>
+        <v>1.99</v>
       </c>
       <c r="T166">
         <v>2.75</v>
       </c>
       <c r="U166">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V166">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W166">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X166">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y166">
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AA166">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AC166">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15856,7 +15856,7 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F173" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G173" t="s">
         <v>40</v>
@@ -15945,7 +15945,7 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F174" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G174" t="s">
         <v>30</v>
@@ -16034,7 +16034,7 @@
         <v>45382.54166666666</v>
       </c>
       <c r="F175" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G175" t="s">
         <v>41</v>
@@ -16126,7 +16126,7 @@
         <v>45</v>
       </c>
       <c r="G176" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -16746,7 +16746,7 @@
         <v>45388.54166666666</v>
       </c>
       <c r="F183" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G183" t="s">
         <v>36</v>
@@ -17194,7 +17194,7 @@
         <v>40</v>
       </c>
       <c r="G188" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H188">
         <v>0</v>
@@ -17350,6 +17350,598 @@
       </c>
       <c r="AC189">
         <v>0.925</v>
+      </c>
+    </row>
+    <row r="190" spans="1:29">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>7617331</v>
+      </c>
+      <c r="C190" t="s">
+        <v>28</v>
+      </c>
+      <c r="D190" t="s">
+        <v>28</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45395.54166666666</v>
+      </c>
+      <c r="F190" t="s">
+        <v>45</v>
+      </c>
+      <c r="G190" t="s">
+        <v>40</v>
+      </c>
+      <c r="K190">
+        <v>2.5</v>
+      </c>
+      <c r="L190">
+        <v>3.25</v>
+      </c>
+      <c r="M190">
+        <v>2.6</v>
+      </c>
+      <c r="N190">
+        <v>2.55</v>
+      </c>
+      <c r="O190">
+        <v>3.3</v>
+      </c>
+      <c r="P190">
+        <v>2.625</v>
+      </c>
+      <c r="Q190">
+        <v>0</v>
+      </c>
+      <c r="R190">
+        <v>1.89</v>
+      </c>
+      <c r="S190">
+        <v>2.01</v>
+      </c>
+      <c r="T190">
+        <v>2.5</v>
+      </c>
+      <c r="U190">
+        <v>2.05</v>
+      </c>
+      <c r="V190">
+        <v>1.8</v>
+      </c>
+      <c r="W190">
+        <v>0</v>
+      </c>
+      <c r="X190">
+        <v>0</v>
+      </c>
+      <c r="Y190">
+        <v>0</v>
+      </c>
+      <c r="Z190">
+        <v>0</v>
+      </c>
+      <c r="AA190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:29">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>7617332</v>
+      </c>
+      <c r="C191" t="s">
+        <v>28</v>
+      </c>
+      <c r="D191" t="s">
+        <v>28</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45396.39583333334</v>
+      </c>
+      <c r="F191" t="s">
+        <v>36</v>
+      </c>
+      <c r="G191" t="s">
+        <v>42</v>
+      </c>
+      <c r="K191">
+        <v>2.5</v>
+      </c>
+      <c r="L191">
+        <v>3.5</v>
+      </c>
+      <c r="M191">
+        <v>2.5</v>
+      </c>
+      <c r="N191">
+        <v>2.55</v>
+      </c>
+      <c r="O191">
+        <v>3.6</v>
+      </c>
+      <c r="P191">
+        <v>2.55</v>
+      </c>
+      <c r="Q191">
+        <v>0</v>
+      </c>
+      <c r="R191">
+        <v>1.95</v>
+      </c>
+      <c r="S191">
+        <v>1.95</v>
+      </c>
+      <c r="T191">
+        <v>3</v>
+      </c>
+      <c r="U191">
+        <v>1.85</v>
+      </c>
+      <c r="V191">
+        <v>2</v>
+      </c>
+      <c r="W191">
+        <v>0</v>
+      </c>
+      <c r="X191">
+        <v>0</v>
+      </c>
+      <c r="Y191">
+        <v>0</v>
+      </c>
+      <c r="Z191">
+        <v>0</v>
+      </c>
+      <c r="AA191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:29">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>7617336</v>
+      </c>
+      <c r="C192" t="s">
+        <v>28</v>
+      </c>
+      <c r="D192" t="s">
+        <v>28</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45396.5</v>
+      </c>
+      <c r="F192" t="s">
+        <v>29</v>
+      </c>
+      <c r="G192" t="s">
+        <v>41</v>
+      </c>
+      <c r="K192">
+        <v>1.666</v>
+      </c>
+      <c r="L192">
+        <v>3.75</v>
+      </c>
+      <c r="M192">
+        <v>4.5</v>
+      </c>
+      <c r="N192">
+        <v>1.666</v>
+      </c>
+      <c r="O192">
+        <v>4</v>
+      </c>
+      <c r="P192">
+        <v>4.75</v>
+      </c>
+      <c r="Q192">
+        <v>-0.75</v>
+      </c>
+      <c r="R192">
+        <v>1.95</v>
+      </c>
+      <c r="S192">
+        <v>1.95</v>
+      </c>
+      <c r="T192">
+        <v>2.75</v>
+      </c>
+      <c r="U192">
+        <v>2</v>
+      </c>
+      <c r="V192">
+        <v>1.85</v>
+      </c>
+      <c r="W192">
+        <v>0</v>
+      </c>
+      <c r="X192">
+        <v>0</v>
+      </c>
+      <c r="Y192">
+        <v>0</v>
+      </c>
+      <c r="Z192">
+        <v>0</v>
+      </c>
+      <c r="AA192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:27">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>7617335</v>
+      </c>
+      <c r="C193" t="s">
+        <v>28</v>
+      </c>
+      <c r="D193" t="s">
+        <v>28</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45396.5</v>
+      </c>
+      <c r="F193" t="s">
+        <v>31</v>
+      </c>
+      <c r="G193" t="s">
+        <v>44</v>
+      </c>
+      <c r="K193">
+        <v>1.571</v>
+      </c>
+      <c r="L193">
+        <v>4</v>
+      </c>
+      <c r="M193">
+        <v>5</v>
+      </c>
+      <c r="N193">
+        <v>1.727</v>
+      </c>
+      <c r="O193">
+        <v>4</v>
+      </c>
+      <c r="P193">
+        <v>4.2</v>
+      </c>
+      <c r="Q193">
+        <v>-0.75</v>
+      </c>
+      <c r="R193">
+        <v>1.95</v>
+      </c>
+      <c r="S193">
+        <v>1.95</v>
+      </c>
+      <c r="T193">
+        <v>2.5</v>
+      </c>
+      <c r="U193">
+        <v>1.9</v>
+      </c>
+      <c r="V193">
+        <v>1.95</v>
+      </c>
+      <c r="W193">
+        <v>0</v>
+      </c>
+      <c r="X193">
+        <v>0</v>
+      </c>
+      <c r="Y193">
+        <v>0</v>
+      </c>
+      <c r="Z193">
+        <v>0</v>
+      </c>
+      <c r="AA193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:27">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>7617333</v>
+      </c>
+      <c r="C194" t="s">
+        <v>28</v>
+      </c>
+      <c r="D194" t="s">
+        <v>28</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45396.5</v>
+      </c>
+      <c r="F194" t="s">
+        <v>43</v>
+      </c>
+      <c r="G194" t="s">
+        <v>47</v>
+      </c>
+      <c r="K194">
+        <v>1.25</v>
+      </c>
+      <c r="L194">
+        <v>6</v>
+      </c>
+      <c r="M194">
+        <v>9</v>
+      </c>
+      <c r="N194">
+        <v>1.285</v>
+      </c>
+      <c r="O194">
+        <v>6</v>
+      </c>
+      <c r="P194">
+        <v>8</v>
+      </c>
+      <c r="Q194">
+        <v>-1.75</v>
+      </c>
+      <c r="R194">
+        <v>2.01</v>
+      </c>
+      <c r="S194">
+        <v>1.89</v>
+      </c>
+      <c r="T194">
+        <v>3.5</v>
+      </c>
+      <c r="U194">
+        <v>1.875</v>
+      </c>
+      <c r="V194">
+        <v>1.975</v>
+      </c>
+      <c r="W194">
+        <v>0</v>
+      </c>
+      <c r="X194">
+        <v>0</v>
+      </c>
+      <c r="Y194">
+        <v>0</v>
+      </c>
+      <c r="Z194">
+        <v>0</v>
+      </c>
+      <c r="AA194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:27">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>7617334</v>
+      </c>
+      <c r="C195" t="s">
+        <v>28</v>
+      </c>
+      <c r="D195" t="s">
+        <v>28</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45396.5</v>
+      </c>
+      <c r="F195" t="s">
+        <v>38</v>
+      </c>
+      <c r="G195" t="s">
+        <v>34</v>
+      </c>
+      <c r="K195">
+        <v>1.75</v>
+      </c>
+      <c r="L195">
+        <v>3.6</v>
+      </c>
+      <c r="M195">
+        <v>4.2</v>
+      </c>
+      <c r="N195">
+        <v>1.909</v>
+      </c>
+      <c r="O195">
+        <v>3.5</v>
+      </c>
+      <c r="P195">
+        <v>4</v>
+      </c>
+      <c r="Q195">
+        <v>-0.5</v>
+      </c>
+      <c r="R195">
+        <v>1.95</v>
+      </c>
+      <c r="S195">
+        <v>1.95</v>
+      </c>
+      <c r="T195">
+        <v>2.5</v>
+      </c>
+      <c r="U195">
+        <v>1.85</v>
+      </c>
+      <c r="V195">
+        <v>2</v>
+      </c>
+      <c r="W195">
+        <v>0</v>
+      </c>
+      <c r="X195">
+        <v>0</v>
+      </c>
+      <c r="Y195">
+        <v>0</v>
+      </c>
+      <c r="Z195">
+        <v>0</v>
+      </c>
+      <c r="AA195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:27">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>7616738</v>
+      </c>
+      <c r="C196" t="s">
+        <v>28</v>
+      </c>
+      <c r="D196" t="s">
+        <v>28</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45396.59375</v>
+      </c>
+      <c r="F196" t="s">
+        <v>33</v>
+      </c>
+      <c r="G196" t="s">
+        <v>37</v>
+      </c>
+      <c r="K196">
+        <v>4</v>
+      </c>
+      <c r="L196">
+        <v>3.75</v>
+      </c>
+      <c r="M196">
+        <v>1.833</v>
+      </c>
+      <c r="N196">
+        <v>4</v>
+      </c>
+      <c r="O196">
+        <v>3.75</v>
+      </c>
+      <c r="P196">
+        <v>1.85</v>
+      </c>
+      <c r="Q196">
+        <v>0.5</v>
+      </c>
+      <c r="R196">
+        <v>2.02</v>
+      </c>
+      <c r="S196">
+        <v>1.88</v>
+      </c>
+      <c r="T196">
+        <v>2.75</v>
+      </c>
+      <c r="U196">
+        <v>1.8</v>
+      </c>
+      <c r="V196">
+        <v>2.05</v>
+      </c>
+      <c r="W196">
+        <v>0</v>
+      </c>
+      <c r="X196">
+        <v>0</v>
+      </c>
+      <c r="Y196">
+        <v>0</v>
+      </c>
+      <c r="Z196">
+        <v>0</v>
+      </c>
+      <c r="AA196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:27">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>7617337</v>
+      </c>
+      <c r="C197" t="s">
+        <v>28</v>
+      </c>
+      <c r="D197" t="s">
+        <v>28</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45398.58333333334</v>
+      </c>
+      <c r="F197" t="s">
+        <v>46</v>
+      </c>
+      <c r="G197" t="s">
+        <v>32</v>
+      </c>
+      <c r="K197">
+        <v>2.6</v>
+      </c>
+      <c r="L197">
+        <v>3.5</v>
+      </c>
+      <c r="M197">
+        <v>2.4</v>
+      </c>
+      <c r="N197">
+        <v>2.55</v>
+      </c>
+      <c r="O197">
+        <v>3.5</v>
+      </c>
+      <c r="P197">
+        <v>2.6</v>
+      </c>
+      <c r="Q197">
+        <v>0</v>
+      </c>
+      <c r="R197">
+        <v>1.95</v>
+      </c>
+      <c r="S197">
+        <v>1.95</v>
+      </c>
+      <c r="T197">
+        <v>2.5</v>
+      </c>
+      <c r="U197">
+        <v>1.825</v>
+      </c>
+      <c r="V197">
+        <v>2.025</v>
+      </c>
+      <c r="W197">
+        <v>0</v>
+      </c>
+      <c r="X197">
+        <v>0</v>
+      </c>
+      <c r="Y197">
+        <v>0</v>
+      </c>
+      <c r="Z197">
+        <v>0</v>
+      </c>
+      <c r="AA197">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Norway Eliteserien/Norway Eliteserien.xlsx
+++ b/Norway Eliteserien/Norway Eliteserien.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -106,9 +106,6 @@
     <t>Valerenga</t>
   </si>
   <si>
-    <t>Sandefjord</t>
-  </si>
-  <si>
     <t>Tromso</t>
   </si>
   <si>
@@ -122,6 +119,9 @@
   </si>
   <si>
     <t>Lillestrom</t>
+  </si>
+  <si>
+    <t>Sandefjord</t>
   </si>
   <si>
     <t>Viking FK</t>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC207"/>
+  <dimension ref="A1:AC206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6011394</v>
+        <v>6011395</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -729,10 +729,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -741,43 +741,43 @@
         <v>49</v>
       </c>
       <c r="K3">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="L3">
         <v>3.4</v>
       </c>
       <c r="M3">
+        <v>2.45</v>
+      </c>
+      <c r="N3">
+        <v>2.875</v>
+      </c>
+      <c r="O3">
+        <v>3.5</v>
+      </c>
+      <c r="P3">
         <v>2.4</v>
-      </c>
-      <c r="N3">
-        <v>2.75</v>
-      </c>
-      <c r="O3">
-        <v>3.3</v>
-      </c>
-      <c r="P3">
-        <v>2.6</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>1.99</v>
+        <v>2.1</v>
       </c>
       <c r="S3">
-        <v>1.91</v>
+        <v>1.775</v>
       </c>
       <c r="T3">
         <v>2.5</v>
       </c>
       <c r="U3">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V3">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W3">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -786,13 +786,13 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.99</v>
+        <v>1.1</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AC3">
         <v>-1</v>
@@ -803,7 +803,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6011395</v>
+        <v>6011478</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -818,70 +818,70 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K4">
+        <v>5.25</v>
+      </c>
+      <c r="L4">
+        <v>3.8</v>
+      </c>
+      <c r="M4">
+        <v>1.615</v>
+      </c>
+      <c r="N4">
+        <v>5.25</v>
+      </c>
+      <c r="O4">
+        <v>3.8</v>
+      </c>
+      <c r="P4">
+        <v>1.65</v>
+      </c>
+      <c r="Q4">
+        <v>0.75</v>
+      </c>
+      <c r="R4">
+        <v>2.04</v>
+      </c>
+      <c r="S4">
+        <v>1.86</v>
+      </c>
+      <c r="T4">
         <v>2.75</v>
       </c>
-      <c r="L4">
-        <v>3.4</v>
-      </c>
-      <c r="M4">
-        <v>2.45</v>
-      </c>
-      <c r="N4">
-        <v>2.875</v>
-      </c>
-      <c r="O4">
-        <v>3.5</v>
-      </c>
-      <c r="P4">
-        <v>2.4</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>2.1</v>
-      </c>
-      <c r="S4">
-        <v>1.775</v>
-      </c>
-      <c r="T4">
-        <v>2.5</v>
-      </c>
       <c r="U4">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V4">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W4">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z4">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AB4">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AC4">
         <v>-1</v>
@@ -892,7 +892,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6011478</v>
+        <v>6011479</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -907,46 +907,46 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K5">
-        <v>5.25</v>
+        <v>1.65</v>
       </c>
       <c r="L5">
         <v>3.8</v>
       </c>
       <c r="M5">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="N5">
-        <v>5.25</v>
+        <v>1.727</v>
       </c>
       <c r="O5">
         <v>3.8</v>
       </c>
       <c r="P5">
-        <v>1.65</v>
+        <v>4.75</v>
       </c>
       <c r="Q5">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R5">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="S5">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="T5">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U5">
         <v>2.025</v>
@@ -955,19 +955,19 @@
         <v>1.825</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA5">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
         <v>1.025</v>
@@ -981,7 +981,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6011479</v>
+        <v>6011480</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -996,25 +996,25 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K6">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="L6">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M6">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N6">
         <v>1.727</v>
@@ -1029,37 +1029,37 @@
         <v>-0.75</v>
       </c>
       <c r="R6">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S6">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T6">
         <v>2.5</v>
       </c>
       <c r="U6">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V6">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W6">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z6">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB6">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -1070,7 +1070,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6011480</v>
+        <v>6011981</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1085,70 +1085,70 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K7">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="L7">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M7">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="N7">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="O7">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P7">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q7">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R7">
+        <v>1.95</v>
+      </c>
+      <c r="S7">
+        <v>1.9</v>
+      </c>
+      <c r="T7">
+        <v>2.75</v>
+      </c>
+      <c r="U7">
         <v>1.925</v>
       </c>
-      <c r="S7">
+      <c r="V7">
         <v>1.925</v>
       </c>
-      <c r="T7">
-        <v>2.5</v>
-      </c>
-      <c r="U7">
-        <v>1.85</v>
-      </c>
-      <c r="V7">
-        <v>2</v>
-      </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA7">
+        <v>-1</v>
+      </c>
+      <c r="AB7">
         <v>0.925</v>
-      </c>
-      <c r="AB7">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1159,7 +1159,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6011981</v>
+        <v>6011394</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1174,10 +1174,10 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1186,43 +1186,43 @@
         <v>49</v>
       </c>
       <c r="K8">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="L8">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M8">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="N8">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="O8">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P8">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="S8">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="T8">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U8">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V8">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W8">
-        <v>0.571</v>
+        <v>1.75</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1231,13 +1231,13 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AC8">
         <v>-1</v>
@@ -1438,10 +1438,10 @@
         <v>45088.5</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1619,7 +1619,7 @@
         <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H13">
         <v>3</v>
@@ -1782,7 +1782,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6011983</v>
+        <v>6011982</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1794,76 +1794,76 @@
         <v>45088.5</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>50</v>
+      </c>
+      <c r="K15">
+        <v>2.75</v>
+      </c>
+      <c r="L15">
+        <v>3.3</v>
+      </c>
+      <c r="M15">
+        <v>2.5</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+      <c r="O15">
+        <v>3.1</v>
+      </c>
+      <c r="P15">
+        <v>2.5</v>
+      </c>
+      <c r="Q15">
         <v>0</v>
       </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15" t="s">
-        <v>48</v>
-      </c>
-      <c r="K15">
-        <v>1.7</v>
-      </c>
-      <c r="L15">
-        <v>3.75</v>
-      </c>
-      <c r="M15">
-        <v>4.75</v>
-      </c>
-      <c r="N15">
-        <v>1.6</v>
-      </c>
-      <c r="O15">
-        <v>4.5</v>
-      </c>
-      <c r="P15">
-        <v>5</v>
-      </c>
-      <c r="Q15">
-        <v>-1</v>
-      </c>
       <c r="R15">
-        <v>2.01</v>
+        <v>2.11</v>
       </c>
       <c r="S15">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="T15">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U15">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V15">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y15">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>0.8899999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC15">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1871,7 +1871,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6011982</v>
+        <v>6011983</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1883,76 +1883,76 @@
         <v>45088.5</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G16" t="s">
         <v>33</v>
       </c>
       <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16">
+        <v>1.7</v>
+      </c>
+      <c r="L16">
+        <v>3.75</v>
+      </c>
+      <c r="M16">
+        <v>4.75</v>
+      </c>
+      <c r="N16">
+        <v>1.6</v>
+      </c>
+      <c r="O16">
+        <v>4.5</v>
+      </c>
+      <c r="P16">
+        <v>5</v>
+      </c>
+      <c r="Q16">
+        <v>-1</v>
+      </c>
+      <c r="R16">
+        <v>2.01</v>
+      </c>
+      <c r="S16">
+        <v>1.89</v>
+      </c>
+      <c r="T16">
+        <v>3</v>
+      </c>
+      <c r="U16">
         <v>2</v>
       </c>
-      <c r="I16">
-        <v>2</v>
-      </c>
-      <c r="J16" t="s">
-        <v>50</v>
-      </c>
-      <c r="K16">
-        <v>2.75</v>
-      </c>
-      <c r="L16">
-        <v>3.3</v>
-      </c>
-      <c r="M16">
-        <v>2.5</v>
-      </c>
-      <c r="N16">
-        <v>3</v>
-      </c>
-      <c r="O16">
-        <v>3.1</v>
-      </c>
-      <c r="P16">
-        <v>2.5</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>2.11</v>
-      </c>
-      <c r="S16">
-        <v>1.79</v>
-      </c>
-      <c r="T16">
-        <v>2.25</v>
-      </c>
-      <c r="U16">
-        <v>1.9</v>
-      </c>
       <c r="V16">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-0</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AB16">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1975,7 +1975,7 @@
         <v>42</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2316,7 +2316,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6011398</v>
+        <v>6011931</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2328,76 +2328,76 @@
         <v>45102.5</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L21">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M21">
+        <v>3.2</v>
+      </c>
+      <c r="N21">
+        <v>2.1</v>
+      </c>
+      <c r="O21">
         <v>3.6</v>
       </c>
-      <c r="N21">
-        <v>2.4</v>
-      </c>
-      <c r="O21">
-        <v>3.1</v>
-      </c>
       <c r="P21">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q21">
         <v>-0.25</v>
       </c>
       <c r="R21">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S21">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T21">
+        <v>3</v>
+      </c>
+      <c r="U21">
+        <v>2</v>
+      </c>
+      <c r="V21">
+        <v>1.85</v>
+      </c>
+      <c r="W21">
+        <v>-1</v>
+      </c>
+      <c r="X21">
+        <v>-1</v>
+      </c>
+      <c r="Y21">
         <v>2.25</v>
       </c>
-      <c r="U21">
-        <v>2.05</v>
-      </c>
-      <c r="V21">
-        <v>1.75</v>
-      </c>
-      <c r="W21">
-        <v>1.4</v>
-      </c>
-      <c r="X21">
-        <v>-1</v>
-      </c>
-      <c r="Y21">
-        <v>-1</v>
-      </c>
       <c r="Z21">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB21">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2405,7 +2405,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6011931</v>
+        <v>6011398</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2417,76 +2417,76 @@
         <v>45102.5</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K22">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L22">
+        <v>3.5</v>
+      </c>
+      <c r="M22">
         <v>3.6</v>
       </c>
-      <c r="M22">
+      <c r="N22">
+        <v>2.4</v>
+      </c>
+      <c r="O22">
+        <v>3.1</v>
+      </c>
+      <c r="P22">
         <v>3.2</v>
-      </c>
-      <c r="N22">
-        <v>2.1</v>
-      </c>
-      <c r="O22">
-        <v>3.6</v>
-      </c>
-      <c r="P22">
-        <v>3.25</v>
       </c>
       <c r="Q22">
         <v>-0.25</v>
       </c>
       <c r="R22">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S22">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T22">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U22">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V22">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA22">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AC22">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2506,7 +2506,7 @@
         <v>45102.59375</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
         <v>38</v>
@@ -2684,10 +2684,10 @@
         <v>45109.5</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2773,10 +2773,10 @@
         <v>45109.5</v>
       </c>
       <c r="F26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" t="s">
         <v>32</v>
-      </c>
-      <c r="G26" t="s">
-        <v>33</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2865,7 +2865,7 @@
         <v>40</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H27">
         <v>6</v>
@@ -3221,7 +3221,7 @@
         <v>41</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3310,7 +3310,7 @@
         <v>44</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3473,7 +3473,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6011987</v>
+        <v>6011932</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3488,73 +3488,73 @@
         <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I34">
         <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K34">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="L34">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M34">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="N34">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="O34">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P34">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="Q34">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R34">
+        <v>1.85</v>
+      </c>
+      <c r="S34">
         <v>2.05</v>
       </c>
-      <c r="S34">
-        <v>1.8</v>
-      </c>
       <c r="T34">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U34">
+        <v>2</v>
+      </c>
+      <c r="V34">
         <v>1.85</v>
       </c>
-      <c r="V34">
-        <v>2</v>
-      </c>
       <c r="W34">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA34">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="AC34">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3562,7 +3562,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6011932</v>
+        <v>6011489</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3574,76 +3574,76 @@
         <v>45116.5</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H35">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K35">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="L35">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M35">
+        <v>2.5</v>
+      </c>
+      <c r="N35">
+        <v>2.75</v>
+      </c>
+      <c r="O35">
+        <v>3.2</v>
+      </c>
+      <c r="P35">
+        <v>2.7</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>1.94</v>
+      </c>
+      <c r="S35">
+        <v>1.96</v>
+      </c>
+      <c r="T35">
         <v>2.25</v>
       </c>
-      <c r="N35">
-        <v>3.3</v>
-      </c>
-      <c r="O35">
-        <v>3.8</v>
-      </c>
-      <c r="P35">
-        <v>2.05</v>
-      </c>
-      <c r="Q35">
-        <v>0.5</v>
-      </c>
-      <c r="R35">
-        <v>1.85</v>
-      </c>
-      <c r="S35">
-        <v>2.05</v>
-      </c>
-      <c r="T35">
-        <v>3.5</v>
-      </c>
       <c r="U35">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V35">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W35">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB35">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3651,7 +3651,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6011489</v>
+        <v>6011987</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3663,76 +3663,76 @@
         <v>45116.5</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G36" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K36">
+        <v>2.15</v>
+      </c>
+      <c r="L36">
+        <v>3.4</v>
+      </c>
+      <c r="M36">
+        <v>3.25</v>
+      </c>
+      <c r="N36">
+        <v>2.25</v>
+      </c>
+      <c r="O36">
+        <v>3.6</v>
+      </c>
+      <c r="P36">
+        <v>3</v>
+      </c>
+      <c r="Q36">
+        <v>-0.25</v>
+      </c>
+      <c r="R36">
+        <v>2.05</v>
+      </c>
+      <c r="S36">
+        <v>1.8</v>
+      </c>
+      <c r="T36">
         <v>2.75</v>
       </c>
-      <c r="L36">
-        <v>3.3</v>
-      </c>
-      <c r="M36">
-        <v>2.5</v>
-      </c>
-      <c r="N36">
-        <v>2.75</v>
-      </c>
-      <c r="O36">
-        <v>3.2</v>
-      </c>
-      <c r="P36">
-        <v>2.7</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>1.94</v>
-      </c>
-      <c r="S36">
-        <v>1.96</v>
-      </c>
-      <c r="T36">
-        <v>2.25</v>
-      </c>
       <c r="U36">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V36">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC36">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3752,7 +3752,7 @@
         <v>45116.5</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G37" t="s">
         <v>29</v>
@@ -4096,7 +4096,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6011402</v>
+        <v>6011490</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4108,73 +4108,73 @@
         <v>45123.5</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K41">
-        <v>2.3</v>
+        <v>1.333</v>
       </c>
       <c r="L41">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="M41">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="N41">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="O41">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="P41">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="Q41">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R41">
+        <v>1.925</v>
+      </c>
+      <c r="S41">
+        <v>1.925</v>
+      </c>
+      <c r="T41">
+        <v>3.25</v>
+      </c>
+      <c r="U41">
+        <v>1.875</v>
+      </c>
+      <c r="V41">
         <v>1.975</v>
       </c>
-      <c r="S41">
-        <v>1.875</v>
-      </c>
-      <c r="T41">
-        <v>2.5</v>
-      </c>
-      <c r="U41">
-        <v>1.975</v>
-      </c>
-      <c r="V41">
-        <v>1.875</v>
-      </c>
       <c r="W41">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA41">
+        <v>-1</v>
+      </c>
+      <c r="AB41">
         <v>0.875</v>
-      </c>
-      <c r="AB41">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC41">
         <v>-1</v>
@@ -4185,7 +4185,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6011403</v>
+        <v>6008608</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4197,10 +4197,10 @@
         <v>45123.5</v>
       </c>
       <c r="F42" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4212,34 +4212,34 @@
         <v>49</v>
       </c>
       <c r="K42">
-        <v>1.95</v>
+        <v>1.181</v>
       </c>
       <c r="L42">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="M42">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N42">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="O42">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="P42">
-        <v>3.4</v>
+        <v>11</v>
       </c>
       <c r="Q42">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R42">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S42">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T42">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="U42">
         <v>1.95</v>
@@ -4248,7 +4248,7 @@
         <v>1.9</v>
       </c>
       <c r="W42">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="X42">
         <v>-1</v>
@@ -4257,16 +4257,16 @@
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB42">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4363,7 +4363,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6008608</v>
+        <v>6011491</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4375,49 +4375,49 @@
         <v>45123.5</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G44" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H44">
         <v>2</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K44">
-        <v>1.181</v>
+        <v>1.444</v>
       </c>
       <c r="L44">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="M44">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="N44">
-        <v>1.2</v>
+        <v>1.363</v>
       </c>
       <c r="O44">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="P44">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Q44">
-        <v>-2</v>
+        <v>-1.5</v>
       </c>
       <c r="R44">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S44">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T44">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U44">
         <v>1.95</v>
@@ -4426,25 +4426,25 @@
         <v>1.9</v>
       </c>
       <c r="W44">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z44">
         <v>-1</v>
       </c>
       <c r="AA44">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC44">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4452,7 +4452,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6011491</v>
+        <v>6011403</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4464,49 +4464,49 @@
         <v>45123.5</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G45" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H45">
         <v>2</v>
       </c>
       <c r="I45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K45">
-        <v>1.444</v>
+        <v>1.95</v>
       </c>
       <c r="L45">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="M45">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="N45">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O45">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P45">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="Q45">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R45">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S45">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T45">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U45">
         <v>1.95</v>
@@ -4515,19 +4515,19 @@
         <v>1.9</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA45">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
         <v>0.95</v>
@@ -4541,7 +4541,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6011490</v>
+        <v>6011402</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4553,73 +4553,73 @@
         <v>45123.5</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H46">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K46">
-        <v>1.333</v>
+        <v>2.3</v>
       </c>
       <c r="L46">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="M46">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="N46">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="O46">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="P46">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q46">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R46">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S46">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T46">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U46">
+        <v>1.975</v>
+      </c>
+      <c r="V46">
         <v>1.875</v>
       </c>
-      <c r="V46">
-        <v>1.975</v>
-      </c>
       <c r="W46">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z46">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB46">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4645,7 +4645,7 @@
         <v>42</v>
       </c>
       <c r="G47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4731,10 +4731,10 @@
         <v>45126.54166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H48">
         <v>5</v>
@@ -4909,7 +4909,7 @@
         <v>45130.5</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s">
         <v>38</v>
@@ -4986,7 +4986,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6011492</v>
+        <v>6011404</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4998,58 +4998,58 @@
         <v>45130.5</v>
       </c>
       <c r="F51" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G51" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
         <v>49</v>
       </c>
       <c r="K51">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L51">
         <v>3.4</v>
       </c>
       <c r="M51">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="N51">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="O51">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P51">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q51">
         <v>-0.25</v>
       </c>
       <c r="R51">
-        <v>2.09</v>
+        <v>2.11</v>
       </c>
       <c r="S51">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="T51">
         <v>2.5</v>
       </c>
       <c r="U51">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V51">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W51">
-        <v>1.375</v>
+        <v>1.45</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5058,13 +5058,13 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="AA51">
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5075,7 +5075,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6011404</v>
+        <v>6011493</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5087,58 +5087,58 @@
         <v>45130.5</v>
       </c>
       <c r="F52" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G52" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
         <v>49</v>
       </c>
       <c r="K52">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="L52">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M52">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="N52">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="O52">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P52">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="Q52">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R52">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="S52">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="T52">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U52">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V52">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W52">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="X52">
         <v>-1</v>
@@ -5147,16 +5147,16 @@
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AA52">
         <v>-1</v>
       </c>
       <c r="AB52">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5164,7 +5164,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6011493</v>
+        <v>6011492</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5176,58 +5176,58 @@
         <v>45130.5</v>
       </c>
       <c r="F53" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G53" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J53" t="s">
         <v>49</v>
       </c>
       <c r="K53">
+        <v>2.25</v>
+      </c>
+      <c r="L53">
+        <v>3.4</v>
+      </c>
+      <c r="M53">
+        <v>2.8</v>
+      </c>
+      <c r="N53">
+        <v>2.375</v>
+      </c>
+      <c r="O53">
         <v>3.3</v>
       </c>
-      <c r="L53">
-        <v>3.6</v>
-      </c>
-      <c r="M53">
-        <v>1.95</v>
-      </c>
-      <c r="N53">
-        <v>3.3</v>
-      </c>
-      <c r="O53">
-        <v>3.6</v>
-      </c>
       <c r="P53">
+        <v>3.1</v>
+      </c>
+      <c r="Q53">
+        <v>-0.25</v>
+      </c>
+      <c r="R53">
+        <v>2.09</v>
+      </c>
+      <c r="S53">
+        <v>1.81</v>
+      </c>
+      <c r="T53">
+        <v>2.5</v>
+      </c>
+      <c r="U53">
         <v>2.05</v>
       </c>
-      <c r="Q53">
-        <v>0.25</v>
-      </c>
-      <c r="R53">
-        <v>2</v>
-      </c>
-      <c r="S53">
-        <v>1.85</v>
-      </c>
-      <c r="T53">
-        <v>2.75</v>
-      </c>
-      <c r="U53">
-        <v>1.9</v>
-      </c>
       <c r="V53">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W53">
-        <v>2.3</v>
+        <v>1.375</v>
       </c>
       <c r="X53">
         <v>-1</v>
@@ -5236,16 +5236,16 @@
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AA53">
         <v>-1</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC53">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5265,7 +5265,7 @@
         <v>45130.5</v>
       </c>
       <c r="F54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G54" t="s">
         <v>42</v>
@@ -5354,10 +5354,10 @@
         <v>45130.59375</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H56">
         <v>3</v>
@@ -5535,7 +5535,7 @@
         <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H57">
         <v>2</v>
@@ -5799,7 +5799,7 @@
         <v>45137.5</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G60" t="s">
         <v>37</v>
@@ -5888,10 +5888,10 @@
         <v>45137.5</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5977,7 +5977,7 @@
         <v>45137.5</v>
       </c>
       <c r="F62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G62" t="s">
         <v>44</v>
@@ -6158,7 +6158,7 @@
         <v>38</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6244,7 +6244,7 @@
         <v>45143.54166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G65" t="s">
         <v>29</v>
@@ -6333,7 +6333,7 @@
         <v>45144.5</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G66" t="s">
         <v>40</v>
@@ -6422,10 +6422,10 @@
         <v>45144.5</v>
       </c>
       <c r="F67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H67">
         <v>3</v>
@@ -6603,7 +6603,7 @@
         <v>39</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6867,7 +6867,7 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F72" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G72" t="s">
         <v>43</v>
@@ -6959,7 +6959,7 @@
         <v>40</v>
       </c>
       <c r="G73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -7045,7 +7045,7 @@
         <v>45151.5</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G74" t="s">
         <v>36</v>
@@ -7134,7 +7134,7 @@
         <v>45151.5</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G75" t="s">
         <v>44</v>
@@ -7493,7 +7493,7 @@
         <v>44</v>
       </c>
       <c r="G79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H79">
         <v>3</v>
@@ -7671,7 +7671,7 @@
         <v>42</v>
       </c>
       <c r="G81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H81">
         <v>5</v>
@@ -7757,10 +7757,10 @@
         <v>45158.5</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G82" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7935,10 +7935,10 @@
         <v>45158.59375</v>
       </c>
       <c r="F84" t="s">
+        <v>33</v>
+      </c>
+      <c r="G84" t="s">
         <v>34</v>
-      </c>
-      <c r="G84" t="s">
-        <v>35</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -8027,7 +8027,7 @@
         <v>40</v>
       </c>
       <c r="G85" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H85">
         <v>4</v>
@@ -8113,7 +8113,7 @@
         <v>45165.5</v>
       </c>
       <c r="F86" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G86" t="s">
         <v>39</v>
@@ -8291,10 +8291,10 @@
         <v>45165.59375</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H88">
         <v>4</v>
@@ -8561,7 +8561,7 @@
         <v>37</v>
       </c>
       <c r="G91" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H91">
         <v>3</v>
@@ -8647,7 +8647,7 @@
         <v>45172.5</v>
       </c>
       <c r="F92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G92" t="s">
         <v>41</v>
@@ -8724,7 +8724,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6011415</v>
+        <v>6011934</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8736,58 +8736,58 @@
         <v>45172.5</v>
       </c>
       <c r="F93" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G93" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
         <v>49</v>
       </c>
       <c r="K93">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="L93">
+        <v>4.5</v>
+      </c>
+      <c r="M93">
+        <v>3.75</v>
+      </c>
+      <c r="N93">
+        <v>1.6</v>
+      </c>
+      <c r="O93">
+        <v>5</v>
+      </c>
+      <c r="P93">
+        <v>4.333</v>
+      </c>
+      <c r="Q93">
+        <v>-1</v>
+      </c>
+      <c r="R93">
+        <v>1.925</v>
+      </c>
+      <c r="S93">
+        <v>1.925</v>
+      </c>
+      <c r="T93">
         <v>3.5</v>
       </c>
-      <c r="M93">
-        <v>3.1</v>
-      </c>
-      <c r="N93">
-        <v>2.15</v>
-      </c>
-      <c r="O93">
-        <v>3.4</v>
-      </c>
-      <c r="P93">
-        <v>3.5</v>
-      </c>
-      <c r="Q93">
-        <v>-0.25</v>
-      </c>
-      <c r="R93">
-        <v>1.875</v>
-      </c>
-      <c r="S93">
-        <v>1.975</v>
-      </c>
-      <c r="T93">
-        <v>2.5</v>
-      </c>
       <c r="U93">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V93">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W93">
-        <v>1.15</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X93">
         <v>-1</v>
@@ -8796,16 +8796,16 @@
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB93">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8813,7 +8813,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6011509</v>
+        <v>6011415</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8825,76 +8825,76 @@
         <v>45172.5</v>
       </c>
       <c r="F94" t="s">
+        <v>30</v>
+      </c>
+      <c r="G94" t="s">
         <v>32</v>
       </c>
-      <c r="G94" t="s">
-        <v>35</v>
-      </c>
       <c r="H94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I94">
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K94">
+        <v>2.05</v>
+      </c>
+      <c r="L94">
         <v>3.5</v>
       </c>
-      <c r="L94">
-        <v>4</v>
-      </c>
       <c r="M94">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="N94">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="O94">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P94">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="Q94">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R94">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S94">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T94">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U94">
+        <v>2</v>
+      </c>
+      <c r="V94">
         <v>1.85</v>
       </c>
-      <c r="V94">
-        <v>2</v>
-      </c>
       <c r="W94">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X94">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA94">
         <v>-1</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC94">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8902,7 +8902,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6011934</v>
+        <v>6011509</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8914,76 +8914,76 @@
         <v>45172.5</v>
       </c>
       <c r="F95" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G95" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H95">
         <v>1</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K95">
-        <v>1.666</v>
+        <v>3.5</v>
       </c>
       <c r="L95">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M95">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="N95">
-        <v>1.6</v>
+        <v>4.2</v>
       </c>
       <c r="O95">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P95">
-        <v>4.333</v>
+        <v>1.7</v>
       </c>
       <c r="Q95">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R95">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S95">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T95">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U95">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V95">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W95">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA95">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9270,10 +9270,10 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F99" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9451,7 +9451,7 @@
         <v>40</v>
       </c>
       <c r="G101" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H101">
         <v>3</v>
@@ -9537,7 +9537,7 @@
         <v>45186.5</v>
       </c>
       <c r="F102" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G102" t="s">
         <v>44</v>
@@ -9626,7 +9626,7 @@
         <v>45186.5</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
         <v>38</v>
@@ -9718,7 +9718,7 @@
         <v>29</v>
       </c>
       <c r="G104" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H104">
         <v>3</v>
@@ -9804,7 +9804,7 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G105" t="s">
         <v>41</v>
@@ -9896,7 +9896,7 @@
         <v>36</v>
       </c>
       <c r="G106" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H106">
         <v>4</v>
@@ -10059,7 +10059,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6008782</v>
+        <v>6008617</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10071,76 +10071,76 @@
         <v>45193.5</v>
       </c>
       <c r="F108" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G108" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K108">
-        <v>4.75</v>
+        <v>1.333</v>
       </c>
       <c r="L108">
-        <v>3.9</v>
+        <v>5.5</v>
       </c>
       <c r="M108">
-        <v>1.666</v>
+        <v>7.5</v>
       </c>
       <c r="N108">
-        <v>5.5</v>
+        <v>1.25</v>
       </c>
       <c r="O108">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P108">
-        <v>1.615</v>
+        <v>10</v>
       </c>
       <c r="Q108">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="R108">
         <v>1.85</v>
       </c>
       <c r="S108">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T108">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U108">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V108">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X108">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC108">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10148,7 +10148,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6008617</v>
+        <v>6008782</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10160,76 +10160,76 @@
         <v>45193.5</v>
       </c>
       <c r="F109" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G109" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H109">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K109">
-        <v>1.333</v>
+        <v>4.75</v>
       </c>
       <c r="L109">
+        <v>3.9</v>
+      </c>
+      <c r="M109">
+        <v>1.666</v>
+      </c>
+      <c r="N109">
         <v>5.5</v>
       </c>
-      <c r="M109">
-        <v>7.5</v>
-      </c>
-      <c r="N109">
-        <v>1.25</v>
-      </c>
       <c r="O109">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="P109">
-        <v>10</v>
+        <v>1.615</v>
       </c>
       <c r="Q109">
-        <v>-1.75</v>
+        <v>1</v>
       </c>
       <c r="R109">
         <v>1.85</v>
       </c>
       <c r="S109">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T109">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U109">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V109">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W109">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X109">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA109">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10249,10 +10249,10 @@
         <v>45193.5</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G110" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H110">
         <v>3</v>
@@ -10430,7 +10430,7 @@
         <v>42</v>
       </c>
       <c r="G112" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H112">
         <v>2</v>
@@ -10519,7 +10519,7 @@
         <v>41</v>
       </c>
       <c r="G113" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10605,7 +10605,7 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G114" t="s">
         <v>42</v>
@@ -10783,7 +10783,7 @@
         <v>45200.5</v>
       </c>
       <c r="F116" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G116" t="s">
         <v>29</v>
@@ -10875,7 +10875,7 @@
         <v>38</v>
       </c>
       <c r="G117" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H117">
         <v>2</v>
@@ -11139,7 +11139,7 @@
         <v>45207.5</v>
       </c>
       <c r="F120" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G120" t="s">
         <v>44</v>
@@ -11231,7 +11231,7 @@
         <v>39</v>
       </c>
       <c r="G121" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11317,10 +11317,10 @@
         <v>45207.5</v>
       </c>
       <c r="F122" t="s">
+        <v>30</v>
+      </c>
+      <c r="G122" t="s">
         <v>31</v>
-      </c>
-      <c r="G122" t="s">
-        <v>32</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -11483,7 +11483,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6011936</v>
+        <v>6012000</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11495,40 +11495,40 @@
         <v>45207.5</v>
       </c>
       <c r="F124" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G124" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H124">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
         <v>49</v>
       </c>
       <c r="K124">
-        <v>1.85</v>
+        <v>3.25</v>
       </c>
       <c r="L124">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M124">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="N124">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="O124">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P124">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q124">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R124">
         <v>1.96</v>
@@ -11537,16 +11537,16 @@
         <v>1.94</v>
       </c>
       <c r="T124">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U124">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V124">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W124">
-        <v>0.6000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11561,10 +11561,10 @@
         <v>-1</v>
       </c>
       <c r="AB124">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11572,7 +11572,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6012000</v>
+        <v>6011936</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11584,40 +11584,40 @@
         <v>45207.5</v>
       </c>
       <c r="F125" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G125" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J125" t="s">
         <v>49</v>
       </c>
       <c r="K125">
-        <v>3.25</v>
+        <v>1.85</v>
       </c>
       <c r="L125">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M125">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="N125">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="O125">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P125">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q125">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R125">
         <v>1.96</v>
@@ -11626,16 +11626,16 @@
         <v>1.94</v>
       </c>
       <c r="T125">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U125">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V125">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W125">
-        <v>1.3</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11650,10 +11650,10 @@
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC125">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11765,7 +11765,7 @@
         <v>38</v>
       </c>
       <c r="G127" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H127">
         <v>4</v>
@@ -11940,7 +11940,7 @@
         <v>45221.39583333334</v>
       </c>
       <c r="F129" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G129" t="s">
         <v>29</v>
@@ -12017,7 +12017,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6012002</v>
+        <v>6011520</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12029,76 +12029,76 @@
         <v>45221.5</v>
       </c>
       <c r="F130" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G130" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K130">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="L130">
+        <v>4.2</v>
+      </c>
+      <c r="M130">
+        <v>1.727</v>
+      </c>
+      <c r="N130">
         <v>3.6</v>
       </c>
-      <c r="M130">
+      <c r="O130">
         <v>4.2</v>
       </c>
-      <c r="N130">
+      <c r="P130">
         <v>1.909</v>
       </c>
-      <c r="O130">
-        <v>4</v>
-      </c>
-      <c r="P130">
-        <v>3.5</v>
-      </c>
       <c r="Q130">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R130">
+        <v>1.925</v>
+      </c>
+      <c r="S130">
+        <v>1.925</v>
+      </c>
+      <c r="T130">
+        <v>3.25</v>
+      </c>
+      <c r="U130">
+        <v>1.9</v>
+      </c>
+      <c r="V130">
         <v>1.95</v>
       </c>
-      <c r="S130">
-        <v>1.9</v>
-      </c>
-      <c r="T130">
-        <v>2.75</v>
-      </c>
-      <c r="U130">
-        <v>1.925</v>
-      </c>
-      <c r="V130">
-        <v>1.925</v>
-      </c>
       <c r="W130">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X130">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA130">
+        <v>-1</v>
+      </c>
+      <c r="AB130">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB130">
-        <v>-1</v>
-      </c>
       <c r="AC130">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12106,7 +12106,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6011521</v>
+        <v>6012002</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12118,40 +12118,40 @@
         <v>45221.5</v>
       </c>
       <c r="F131" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G131" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K131">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="L131">
+        <v>3.6</v>
+      </c>
+      <c r="M131">
+        <v>4.2</v>
+      </c>
+      <c r="N131">
+        <v>1.909</v>
+      </c>
+      <c r="O131">
+        <v>4</v>
+      </c>
+      <c r="P131">
         <v>3.5</v>
       </c>
-      <c r="M131">
-        <v>3.4</v>
-      </c>
-      <c r="N131">
-        <v>2.2</v>
-      </c>
-      <c r="O131">
-        <v>3.4</v>
-      </c>
-      <c r="P131">
-        <v>3.25</v>
-      </c>
       <c r="Q131">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R131">
         <v>1.95</v>
@@ -12160,22 +12160,22 @@
         <v>1.9</v>
       </c>
       <c r="T131">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V131">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y131">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
         <v>-1</v>
@@ -12184,10 +12184,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB131">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12195,7 +12195,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6011520</v>
+        <v>6011421</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12207,40 +12207,40 @@
         <v>45221.5</v>
       </c>
       <c r="F132" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G132" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H132">
         <v>3</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J132" t="s">
         <v>49</v>
       </c>
       <c r="K132">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="L132">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M132">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="N132">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="O132">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P132">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="Q132">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R132">
         <v>1.925</v>
@@ -12249,16 +12249,16 @@
         <v>1.925</v>
       </c>
       <c r="T132">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U132">
+        <v>1.95</v>
+      </c>
+      <c r="V132">
         <v>1.9</v>
       </c>
-      <c r="V132">
-        <v>1.95</v>
-      </c>
       <c r="W132">
-        <v>2.6</v>
+        <v>0.909</v>
       </c>
       <c r="X132">
         <v>-1</v>
@@ -12273,7 +12273,7 @@
         <v>-1</v>
       </c>
       <c r="AB132">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -12284,7 +12284,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6011421</v>
+        <v>6011521</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12296,73 +12296,73 @@
         <v>45221.5</v>
       </c>
       <c r="F133" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G133" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
         <v>3</v>
       </c>
-      <c r="I133">
-        <v>1</v>
-      </c>
       <c r="J133" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K133">
+        <v>2.05</v>
+      </c>
+      <c r="L133">
+        <v>3.5</v>
+      </c>
+      <c r="M133">
+        <v>3.4</v>
+      </c>
+      <c r="N133">
         <v>2.2</v>
       </c>
-      <c r="L133">
+      <c r="O133">
         <v>3.4</v>
       </c>
-      <c r="M133">
-        <v>3.2</v>
-      </c>
-      <c r="N133">
-        <v>1.909</v>
-      </c>
-      <c r="O133">
-        <v>3.5</v>
-      </c>
       <c r="P133">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="Q133">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R133">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S133">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T133">
         <v>2.5</v>
       </c>
       <c r="U133">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V133">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W133">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z133">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB133">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC133">
         <v>-1</v>
@@ -12388,7 +12388,7 @@
         <v>36</v>
       </c>
       <c r="G134" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H134">
         <v>3</v>
@@ -12477,7 +12477,7 @@
         <v>39</v>
       </c>
       <c r="G135" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H135">
         <v>6</v>
@@ -12652,7 +12652,7 @@
         <v>45228.54166666666</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G137" t="s">
         <v>36</v>
@@ -12741,7 +12741,7 @@
         <v>45228.54166666666</v>
       </c>
       <c r="F138" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G138" t="s">
         <v>42</v>
@@ -12922,7 +12922,7 @@
         <v>29</v>
       </c>
       <c r="G140" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H140">
         <v>1</v>
@@ -13011,7 +13011,7 @@
         <v>38</v>
       </c>
       <c r="G141" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H141">
         <v>3</v>
@@ -13100,7 +13100,7 @@
         <v>43</v>
       </c>
       <c r="G142" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13263,7 +13263,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6008621</v>
+        <v>6011938</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13275,49 +13275,49 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F144" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G144" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I144">
+        <v>2</v>
+      </c>
+      <c r="J144" t="s">
+        <v>49</v>
+      </c>
+      <c r="K144">
+        <v>1.909</v>
+      </c>
+      <c r="L144">
         <v>4</v>
       </c>
-      <c r="J144" t="s">
-        <v>48</v>
-      </c>
-      <c r="K144">
-        <v>5.25</v>
-      </c>
-      <c r="L144">
-        <v>4.333</v>
-      </c>
       <c r="M144">
-        <v>1.55</v>
+        <v>3.5</v>
       </c>
       <c r="N144">
-        <v>5.75</v>
+        <v>1.909</v>
       </c>
       <c r="O144">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P144">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q144">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R144">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S144">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T144">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U144">
         <v>2.025</v>
@@ -13326,19 +13326,19 @@
         <v>1.825</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA144">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
         <v>1.025</v>
@@ -13352,7 +13352,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6011938</v>
+        <v>6008621</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13364,49 +13364,49 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F145" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G145" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H145">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J145" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K145">
-        <v>1.909</v>
+        <v>5.25</v>
       </c>
       <c r="L145">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M145">
+        <v>1.55</v>
+      </c>
+      <c r="N145">
+        <v>5.75</v>
+      </c>
+      <c r="O145">
+        <v>4.75</v>
+      </c>
+      <c r="P145">
+        <v>1.5</v>
+      </c>
+      <c r="Q145">
+        <v>1.25</v>
+      </c>
+      <c r="R145">
+        <v>1.825</v>
+      </c>
+      <c r="S145">
+        <v>2.025</v>
+      </c>
+      <c r="T145">
         <v>3.5</v>
-      </c>
-      <c r="N145">
-        <v>1.909</v>
-      </c>
-      <c r="O145">
-        <v>4</v>
-      </c>
-      <c r="P145">
-        <v>3.5</v>
-      </c>
-      <c r="Q145">
-        <v>-0.5</v>
-      </c>
-      <c r="R145">
-        <v>1.9</v>
-      </c>
-      <c r="S145">
-        <v>2</v>
-      </c>
-      <c r="T145">
-        <v>3.25</v>
       </c>
       <c r="U145">
         <v>2.025</v>
@@ -13415,19 +13415,19 @@
         <v>1.825</v>
       </c>
       <c r="W145">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z145">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB145">
         <v>1.025</v>
@@ -13542,7 +13542,7 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F147" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G147" t="s">
         <v>39</v>
@@ -13631,7 +13631,7 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F148" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G148" t="s">
         <v>43</v>
@@ -13720,10 +13720,10 @@
         <v>45235.63541666666</v>
       </c>
       <c r="F149" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G149" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -13809,10 +13809,10 @@
         <v>45236.625</v>
       </c>
       <c r="F150" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G150" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -13990,7 +13990,7 @@
         <v>37</v>
       </c>
       <c r="G152" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14064,7 +14064,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6011530</v>
+        <v>6011527</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14076,76 +14076,76 @@
         <v>45242.54166666666</v>
       </c>
       <c r="F153" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G153" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H153">
+        <v>1</v>
+      </c>
+      <c r="I153">
         <v>0</v>
       </c>
-      <c r="I153">
+      <c r="J153" t="s">
+        <v>49</v>
+      </c>
+      <c r="K153">
+        <v>1.125</v>
+      </c>
+      <c r="L153">
+        <v>9</v>
+      </c>
+      <c r="M153">
+        <v>15</v>
+      </c>
+      <c r="N153">
+        <v>1.1</v>
+      </c>
+      <c r="O153">
+        <v>10</v>
+      </c>
+      <c r="P153">
+        <v>21</v>
+      </c>
+      <c r="Q153">
+        <v>-2.75</v>
+      </c>
+      <c r="R153">
+        <v>1.88</v>
+      </c>
+      <c r="S153">
+        <v>2.02</v>
+      </c>
+      <c r="T153">
+        <v>4.25</v>
+      </c>
+      <c r="U153">
+        <v>1.85</v>
+      </c>
+      <c r="V153">
+        <v>2</v>
+      </c>
+      <c r="W153">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="X153">
+        <v>-1</v>
+      </c>
+      <c r="Y153">
+        <v>-1</v>
+      </c>
+      <c r="Z153">
+        <v>-1</v>
+      </c>
+      <c r="AA153">
+        <v>1.02</v>
+      </c>
+      <c r="AB153">
+        <v>-1</v>
+      </c>
+      <c r="AC153">
         <v>1</v>
-      </c>
-      <c r="J153" t="s">
-        <v>48</v>
-      </c>
-      <c r="K153">
-        <v>1.95</v>
-      </c>
-      <c r="L153">
-        <v>3.75</v>
-      </c>
-      <c r="M153">
-        <v>3.5</v>
-      </c>
-      <c r="N153">
-        <v>1.95</v>
-      </c>
-      <c r="O153">
-        <v>3.75</v>
-      </c>
-      <c r="P153">
-        <v>3.75</v>
-      </c>
-      <c r="Q153">
-        <v>-0.5</v>
-      </c>
-      <c r="R153">
-        <v>1.95</v>
-      </c>
-      <c r="S153">
-        <v>1.9</v>
-      </c>
-      <c r="T153">
-        <v>2.75</v>
-      </c>
-      <c r="U153">
-        <v>2</v>
-      </c>
-      <c r="V153">
-        <v>1.85</v>
-      </c>
-      <c r="W153">
-        <v>-1</v>
-      </c>
-      <c r="X153">
-        <v>-1</v>
-      </c>
-      <c r="Y153">
-        <v>2.75</v>
-      </c>
-      <c r="Z153">
-        <v>-1</v>
-      </c>
-      <c r="AA153">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB153">
-        <v>-1</v>
-      </c>
-      <c r="AC153">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14153,7 +14153,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6011527</v>
+        <v>6011939</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14165,58 +14165,58 @@
         <v>45242.54166666666</v>
       </c>
       <c r="F154" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G154" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H154">
+        <v>2</v>
+      </c>
+      <c r="I154">
         <v>1</v>
-      </c>
-      <c r="I154">
-        <v>0</v>
       </c>
       <c r="J154" t="s">
         <v>49</v>
       </c>
       <c r="K154">
-        <v>1.125</v>
+        <v>1.75</v>
       </c>
       <c r="L154">
-        <v>9</v>
+        <v>4.333</v>
       </c>
       <c r="M154">
-        <v>15</v>
+        <v>3.8</v>
       </c>
       <c r="N154">
-        <v>1.1</v>
+        <v>1.833</v>
       </c>
       <c r="O154">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="P154">
-        <v>21</v>
+        <v>3.6</v>
       </c>
       <c r="Q154">
-        <v>-2.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R154">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="S154">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="T154">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U154">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V154">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W154">
-        <v>0.1000000000000001</v>
+        <v>0.833</v>
       </c>
       <c r="X154">
         <v>-1</v>
@@ -14225,16 +14225,16 @@
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA154">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
       <c r="AB154">
         <v>-1</v>
       </c>
       <c r="AC154">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14254,10 +14254,10 @@
         <v>45242.54166666666</v>
       </c>
       <c r="F155" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G155" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H155">
         <v>3</v>
@@ -14331,7 +14331,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6011939</v>
+        <v>6012005</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14343,76 +14343,76 @@
         <v>45242.54166666666</v>
       </c>
       <c r="F156" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G156" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K156">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="L156">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M156">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="N156">
         <v>1.833</v>
       </c>
       <c r="O156">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P156">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q156">
         <v>-0.5</v>
       </c>
       <c r="R156">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="S156">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="T156">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U156">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="V156">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W156">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X156">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AB156">
         <v>-1</v>
       </c>
       <c r="AC156">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14420,7 +14420,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6012005</v>
+        <v>6011530</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14432,76 +14432,76 @@
         <v>45242.54166666666</v>
       </c>
       <c r="F157" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G157" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H157">
         <v>0</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K157">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="L157">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M157">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N157">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="O157">
         <v>3.75</v>
       </c>
       <c r="P157">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q157">
         <v>-0.5</v>
       </c>
       <c r="R157">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="S157">
-        <v>2.06</v>
+        <v>1.9</v>
       </c>
       <c r="T157">
         <v>2.75</v>
       </c>
       <c r="U157">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V157">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W157">
         <v>-1</v>
       </c>
       <c r="X157">
+        <v>-1</v>
+      </c>
+      <c r="Y157">
         <v>2.75</v>
       </c>
-      <c r="Y157">
-        <v>-1</v>
-      </c>
       <c r="Z157">
         <v>-1</v>
       </c>
       <c r="AA157">
-        <v>1.06</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB157">
         <v>-1</v>
       </c>
       <c r="AC157">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14524,7 +14524,7 @@
         <v>43</v>
       </c>
       <c r="G158" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H158">
         <v>4</v>
@@ -14687,7 +14687,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6008787</v>
+        <v>6011531</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14699,46 +14699,46 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F160" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G160" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J160" t="s">
         <v>48</v>
       </c>
       <c r="K160">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="L160">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M160">
-        <v>2.45</v>
+        <v>1.571</v>
       </c>
       <c r="N160">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="O160">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P160">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="Q160">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R160">
-        <v>2.09</v>
+        <v>2.07</v>
       </c>
       <c r="S160">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="T160">
         <v>3.25</v>
@@ -14756,13 +14756,13 @@
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>1.7</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z160">
         <v>-1</v>
       </c>
       <c r="AA160">
-        <v>0.8100000000000001</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB160">
         <v>0.95</v>
@@ -14776,7 +14776,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6011531</v>
+        <v>6008787</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14788,46 +14788,46 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F161" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G161" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J161" t="s">
         <v>48</v>
       </c>
       <c r="K161">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="L161">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="M161">
-        <v>1.571</v>
+        <v>2.45</v>
       </c>
       <c r="N161">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="O161">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P161">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="Q161">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R161">
-        <v>2.07</v>
+        <v>2.09</v>
       </c>
       <c r="S161">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="T161">
         <v>3.25</v>
@@ -14845,13 +14845,13 @@
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>0.8500000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="Z161">
         <v>-1</v>
       </c>
       <c r="AA161">
-        <v>0.8300000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AB161">
         <v>0.95</v>
@@ -14877,7 +14877,7 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F162" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G162" t="s">
         <v>39</v>
@@ -14966,7 +14966,7 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F163" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G163" t="s">
         <v>37</v>
@@ -15058,7 +15058,7 @@
         <v>41</v>
       </c>
       <c r="G164" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H164">
         <v>2</v>
@@ -15132,7 +15132,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6011532</v>
+        <v>6012007</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15144,55 +15144,55 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F165" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G165" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I165">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J165" t="s">
         <v>48</v>
       </c>
       <c r="K165">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="L165">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M165">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="N165">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="O165">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P165">
-        <v>1.85</v>
+        <v>3.8</v>
       </c>
       <c r="Q165">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R165">
-        <v>1.975</v>
+        <v>1.93</v>
       </c>
       <c r="S165">
-        <v>1.875</v>
+        <v>1.97</v>
       </c>
       <c r="T165">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U165">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V165">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W165">
         <v>-1</v>
@@ -15201,19 +15201,19 @@
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>0.8500000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="Z165">
         <v>-1</v>
       </c>
       <c r="AA165">
-        <v>0.875</v>
+        <v>0.97</v>
       </c>
       <c r="AB165">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC165">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15221,7 +15221,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6012007</v>
+        <v>6011532</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15233,55 +15233,55 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F166" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G166" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J166" t="s">
         <v>48</v>
       </c>
       <c r="K166">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="L166">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M166">
+        <v>2.1</v>
+      </c>
+      <c r="N166">
         <v>4.2</v>
       </c>
-      <c r="N166">
-        <v>1.909</v>
-      </c>
       <c r="O166">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P166">
-        <v>3.8</v>
+        <v>1.85</v>
       </c>
       <c r="Q166">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R166">
-        <v>1.93</v>
+        <v>1.975</v>
       </c>
       <c r="S166">
-        <v>1.97</v>
+        <v>1.875</v>
       </c>
       <c r="T166">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U166">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V166">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W166">
         <v>-1</v>
@@ -15290,19 +15290,19 @@
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>2.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z166">
         <v>-1</v>
       </c>
       <c r="AA166">
-        <v>0.97</v>
+        <v>0.875</v>
       </c>
       <c r="AB166">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC166">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15325,7 +15325,7 @@
         <v>36</v>
       </c>
       <c r="G167" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -15411,10 +15411,10 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F168" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G168" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15577,7 +15577,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6011940</v>
+        <v>6011534</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15589,70 +15589,70 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F170" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G170" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K170">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="L170">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="M170">
-        <v>5.75</v>
+        <v>10</v>
       </c>
       <c r="N170">
-        <v>1.45</v>
+        <v>1.222</v>
       </c>
       <c r="O170">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P170">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Q170">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="R170">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="S170">
-        <v>2.01</v>
+        <v>1.9</v>
       </c>
       <c r="T170">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U170">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V170">
         <v>2</v>
       </c>
       <c r="W170">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X170">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA170">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB170">
         <v>-1</v>
@@ -15666,7 +15666,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6011534</v>
+        <v>6012013</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15678,10 +15678,10 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F171" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G171" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H171">
         <v>1</v>
@@ -15693,61 +15693,61 @@
         <v>50</v>
       </c>
       <c r="K171">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="L171">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="M171">
-        <v>10</v>
+        <v>2.625</v>
       </c>
       <c r="N171">
-        <v>1.222</v>
+        <v>2.05</v>
       </c>
       <c r="O171">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="P171">
-        <v>11</v>
+        <v>3.4</v>
       </c>
       <c r="Q171">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R171">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S171">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T171">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U171">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V171">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W171">
         <v>-1</v>
       </c>
       <c r="X171">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="Y171">
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA171">
-        <v>0.8999999999999999</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB171">
         <v>-1</v>
       </c>
       <c r="AC171">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15755,7 +15755,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6012013</v>
+        <v>6012008</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15767,76 +15767,76 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F172" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G172" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K172">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="L172">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M172">
-        <v>2.625</v>
+        <v>1.65</v>
       </c>
       <c r="N172">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="O172">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P172">
-        <v>3.4</v>
+        <v>1.75</v>
       </c>
       <c r="Q172">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R172">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="S172">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="T172">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U172">
+        <v>1.85</v>
+      </c>
+      <c r="V172">
         <v>2</v>
       </c>
-      <c r="V172">
-        <v>1.85</v>
-      </c>
       <c r="W172">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X172">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y172">
         <v>-1</v>
       </c>
       <c r="Z172">
+        <v>0.8600000000000001</v>
+      </c>
+      <c r="AA172">
+        <v>-1</v>
+      </c>
+      <c r="AB172">
+        <v>0.425</v>
+      </c>
+      <c r="AC172">
         <v>-0.5</v>
-      </c>
-      <c r="AA172">
-        <v>0.5249999999999999</v>
-      </c>
-      <c r="AB172">
-        <v>-1</v>
-      </c>
-      <c r="AC172">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15844,7 +15844,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6012008</v>
+        <v>6011940</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15856,13 +15856,13 @@
         <v>45263.54166666666</v>
       </c>
       <c r="F173" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G173" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H173">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I173">
         <v>0</v>
@@ -15871,34 +15871,34 @@
         <v>49</v>
       </c>
       <c r="K173">
-        <v>4.5</v>
+        <v>1.45</v>
       </c>
       <c r="L173">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M173">
-        <v>1.65</v>
+        <v>5.75</v>
       </c>
       <c r="N173">
-        <v>4.2</v>
+        <v>1.45</v>
       </c>
       <c r="O173">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P173">
-        <v>1.75</v>
+        <v>6</v>
       </c>
       <c r="Q173">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R173">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="S173">
-        <v>2.04</v>
+        <v>2.01</v>
       </c>
       <c r="T173">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U173">
         <v>1.85</v>
@@ -15907,7 +15907,7 @@
         <v>2</v>
       </c>
       <c r="W173">
-        <v>3.2</v>
+        <v>0.45</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15916,16 +15916,16 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.8600000000000001</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA173">
         <v>-1</v>
       </c>
       <c r="AB173">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC173">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15948,7 +15948,7 @@
         <v>37</v>
       </c>
       <c r="G174" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H174">
         <v>4</v>
@@ -16212,7 +16212,7 @@
         <v>45383.5</v>
       </c>
       <c r="F177" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G177" t="s">
         <v>47</v>
@@ -16304,7 +16304,7 @@
         <v>43</v>
       </c>
       <c r="G178" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H178">
         <v>4</v>
@@ -16390,10 +16390,10 @@
         <v>45383.5</v>
       </c>
       <c r="F179" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G179" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16479,7 +16479,7 @@
         <v>45383.5</v>
       </c>
       <c r="F180" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G180" t="s">
         <v>42</v>
@@ -17105,7 +17105,7 @@
         <v>39</v>
       </c>
       <c r="G187" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H187">
         <v>0</v>
@@ -17191,10 +17191,10 @@
         <v>45389.5</v>
       </c>
       <c r="F188" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G188" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H188">
         <v>1</v>
@@ -17550,7 +17550,7 @@
         <v>37</v>
       </c>
       <c r="G192" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H192">
         <v>2</v>
@@ -17725,7 +17725,7 @@
         <v>45396.5</v>
       </c>
       <c r="F194" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G194" t="s">
         <v>44</v>
@@ -17814,7 +17814,7 @@
         <v>45396.5</v>
       </c>
       <c r="F195" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G195" t="s">
         <v>39</v>
@@ -17903,7 +17903,7 @@
         <v>45396.59375</v>
       </c>
       <c r="F196" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G196" t="s">
         <v>38</v>
@@ -17995,7 +17995,7 @@
         <v>46</v>
       </c>
       <c r="G197" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H197">
         <v>1</v>
@@ -18247,7 +18247,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7617338</v>
+        <v>7617342</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18256,43 +18256,43 @@
         <v>28</v>
       </c>
       <c r="E200" s="2">
-        <v>45403.39583333334</v>
+        <v>45403.5</v>
       </c>
       <c r="F200" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G200" t="s">
         <v>34</v>
       </c>
       <c r="K200">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="L200">
+        <v>3.4</v>
+      </c>
+      <c r="M200">
+        <v>2.2</v>
+      </c>
+      <c r="N200">
         <v>3.2</v>
       </c>
-      <c r="M200">
-        <v>2.75</v>
-      </c>
-      <c r="N200">
-        <v>2.55</v>
-      </c>
       <c r="O200">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P200">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="Q200">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R200">
-        <v>1.82</v>
+        <v>1.98</v>
       </c>
       <c r="S200">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="T200">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U200">
         <v>2</v>
@@ -18348,31 +18348,31 @@
         <v>5.25</v>
       </c>
       <c r="N201">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="O201">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P201">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q201">
         <v>-0.75</v>
       </c>
       <c r="R201">
-        <v>1.89</v>
+        <v>2.07</v>
       </c>
       <c r="S201">
-        <v>2.01</v>
+        <v>1.83</v>
       </c>
       <c r="T201">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U201">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V201">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W201">
         <v>0</v>
@@ -18422,31 +18422,31 @@
         <v>5.5</v>
       </c>
       <c r="N202">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="O202">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P202">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q202">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R202">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="S202">
-        <v>2.08</v>
+        <v>1.97</v>
       </c>
       <c r="T202">
         <v>2.75</v>
       </c>
       <c r="U202">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V202">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W202">
         <v>0</v>
@@ -18469,7 +18469,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7617342</v>
+        <v>7617341</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18481,46 +18481,46 @@
         <v>45403.5</v>
       </c>
       <c r="F203" t="s">
+        <v>47</v>
+      </c>
+      <c r="G203" t="s">
         <v>30</v>
       </c>
-      <c r="G203" t="s">
-        <v>35</v>
-      </c>
       <c r="K203">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="L203">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M203">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="N203">
+        <v>2.875</v>
+      </c>
+      <c r="O203">
         <v>3.3</v>
       </c>
-      <c r="O203">
-        <v>3.4</v>
-      </c>
       <c r="P203">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q203">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R203">
-        <v>1.97</v>
+        <v>2.09</v>
       </c>
       <c r="S203">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="T203">
         <v>2.5</v>
       </c>
       <c r="U203">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V203">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W203">
         <v>0</v>
@@ -18558,7 +18558,7 @@
         <v>39</v>
       </c>
       <c r="G204" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K204">
         <v>3</v>
@@ -18570,31 +18570,31 @@
         <v>2.3</v>
       </c>
       <c r="N204">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O204">
         <v>3.4</v>
       </c>
       <c r="P204">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q204">
         <v>0.25</v>
       </c>
       <c r="R204">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="S204">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="T204">
         <v>2.5</v>
       </c>
       <c r="U204">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V204">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W204">
         <v>0</v>
@@ -18644,25 +18644,25 @@
         <v>7.5</v>
       </c>
       <c r="N205">
-        <v>1.4</v>
+        <v>1.285</v>
       </c>
       <c r="O205">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="P205">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="Q205">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R205">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S205">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="T205">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U205">
         <v>1.875</v>
@@ -18691,7 +18691,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7617341</v>
+        <v>7616739</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18700,49 +18700,49 @@
         <v>28</v>
       </c>
       <c r="E206" s="2">
-        <v>45403.5</v>
+        <v>45403.59375</v>
       </c>
       <c r="F206" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G206" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="K206">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L206">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M206">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="N206">
-        <v>2.625</v>
+        <v>1.666</v>
       </c>
       <c r="O206">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P206">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="Q206">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R206">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S206">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T206">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U206">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V206">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W206">
         <v>0</v>
@@ -18757,80 +18757,6 @@
         <v>0</v>
       </c>
       <c r="AA206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:29">
-      <c r="A207" s="1">
-        <v>205</v>
-      </c>
-      <c r="B207">
-        <v>7616739</v>
-      </c>
-      <c r="C207" t="s">
-        <v>28</v>
-      </c>
-      <c r="D207" t="s">
-        <v>28</v>
-      </c>
-      <c r="E207" s="2">
-        <v>45403.59375</v>
-      </c>
-      <c r="F207" t="s">
-        <v>38</v>
-      </c>
-      <c r="G207" t="s">
-        <v>43</v>
-      </c>
-      <c r="K207">
-        <v>1.909</v>
-      </c>
-      <c r="L207">
-        <v>3.5</v>
-      </c>
-      <c r="M207">
-        <v>4</v>
-      </c>
-      <c r="N207">
-        <v>1.8</v>
-      </c>
-      <c r="O207">
-        <v>3.8</v>
-      </c>
-      <c r="P207">
-        <v>4.2</v>
-      </c>
-      <c r="Q207">
-        <v>-0.75</v>
-      </c>
-      <c r="R207">
-        <v>2.03</v>
-      </c>
-      <c r="S207">
-        <v>1.87</v>
-      </c>
-      <c r="T207">
-        <v>3</v>
-      </c>
-      <c r="U207">
-        <v>1.875</v>
-      </c>
-      <c r="V207">
-        <v>1.975</v>
-      </c>
-      <c r="W207">
-        <v>0</v>
-      </c>
-      <c r="X207">
-        <v>0</v>
-      </c>
-      <c r="Y207">
-        <v>0</v>
-      </c>
-      <c r="Z207">
-        <v>0</v>
-      </c>
-      <c r="AA207">
         <v>0</v>
       </c>
     </row>

--- a/Norway Eliteserien/Norway Eliteserien.xlsx
+++ b/Norway Eliteserien/Norway Eliteserien.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -97,16 +97,13 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>7616740</t>
+    <t>7617349</t>
   </si>
   <si>
     <t>7617350</t>
   </si>
   <si>
-    <t>7617348</t>
-  </si>
-  <si>
-    <t>7617349</t>
+    <t>7617345</t>
   </si>
   <si>
     <t>7617346</t>
@@ -115,13 +112,16 @@
     <t>7617347</t>
   </si>
   <si>
-    <t>7617345</t>
+    <t>7617348</t>
   </si>
   <si>
     <t>7617351</t>
   </si>
   <si>
     <t>Norway Eliteserien</t>
+  </si>
+  <si>
+    <t>Stromsgodset</t>
   </si>
   <si>
     <t>Rosenborg</t>
@@ -139,9 +139,6 @@
     <t>Valerenga</t>
   </si>
   <si>
-    <t>Stromsgodset</t>
-  </si>
-  <si>
     <t>Lillestrom</t>
   </si>
   <si>
@@ -151,7 +148,7 @@
     <t>BodoGlimt</t>
   </si>
   <si>
-    <t>Stabaek</t>
+    <t>Haugesund</t>
   </si>
   <si>
     <t>Sarpsborg</t>
@@ -160,16 +157,16 @@
     <t>Odd BK</t>
   </si>
   <si>
-    <t>Haugesund</t>
+    <t>Stabaek</t>
   </si>
   <si>
     <t>SK Brann</t>
   </si>
   <si>
-    <t>Molde</t>
+    <t>HamKam</t>
   </si>
   <si>
-    <t>HamKam</t>
+    <t>Molde</t>
   </si>
   <si>
     <t>Fredrikstad</t>
@@ -181,10 +178,10 @@
     <t>Kristiansund BK</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
     <t>D</t>
@@ -549,7 +546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB215"/>
+  <dimension ref="A1:AB214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,37 +640,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6011479</v>
+        <v>6011480</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2">
         <v>45081.5</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J2">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="K2">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L2">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M2">
         <v>1.727</v>
@@ -688,37 +685,37 @@
         <v>-0.75</v>
       </c>
       <c r="Q2">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R2">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S2">
         <v>2.5</v>
       </c>
       <c r="T2">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U2">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V2">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y2">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA2">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB2">
         <v>-1</v>
@@ -729,58 +726,58 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6011478</v>
+        <v>6011479</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2">
         <v>45081.5</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
         <v>49</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J3">
-        <v>5.25</v>
+        <v>1.65</v>
       </c>
       <c r="K3">
         <v>3.8</v>
       </c>
       <c r="L3">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="M3">
-        <v>5.25</v>
+        <v>1.727</v>
       </c>
       <c r="N3">
         <v>3.8</v>
       </c>
       <c r="O3">
-        <v>1.65</v>
+        <v>4.75</v>
       </c>
       <c r="P3">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="Q3">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="R3">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="S3">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T3">
         <v>2.025</v>
@@ -789,19 +786,19 @@
         <v>1.825</v>
       </c>
       <c r="V3">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z3">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
         <v>1.025</v>
@@ -815,82 +812,82 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6011395</v>
+        <v>6011478</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2">
         <v>45081.5</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J4">
+        <v>5.25</v>
+      </c>
+      <c r="K4">
+        <v>3.8</v>
+      </c>
+      <c r="L4">
+        <v>1.615</v>
+      </c>
+      <c r="M4">
+        <v>5.25</v>
+      </c>
+      <c r="N4">
+        <v>3.8</v>
+      </c>
+      <c r="O4">
+        <v>1.65</v>
+      </c>
+      <c r="P4">
+        <v>0.75</v>
+      </c>
+      <c r="Q4">
+        <v>2.04</v>
+      </c>
+      <c r="R4">
+        <v>1.86</v>
+      </c>
+      <c r="S4">
         <v>2.75</v>
       </c>
-      <c r="K4">
-        <v>3.4</v>
-      </c>
-      <c r="L4">
-        <v>2.45</v>
-      </c>
-      <c r="M4">
-        <v>2.875</v>
-      </c>
-      <c r="N4">
-        <v>3.5</v>
-      </c>
-      <c r="O4">
-        <v>2.4</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>2.1</v>
-      </c>
-      <c r="R4">
-        <v>1.775</v>
-      </c>
-      <c r="S4">
-        <v>2.5</v>
-      </c>
       <c r="T4">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="U4">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V4">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y4">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA4">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB4">
         <v>-1</v>
@@ -901,22 +898,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6011394</v>
+        <v>6011395</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="2">
         <v>45081.5</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -925,43 +922,43 @@
         <v>55</v>
       </c>
       <c r="J5">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="K5">
         <v>3.4</v>
       </c>
       <c r="L5">
+        <v>2.45</v>
+      </c>
+      <c r="M5">
+        <v>2.875</v>
+      </c>
+      <c r="N5">
+        <v>3.5</v>
+      </c>
+      <c r="O5">
         <v>2.4</v>
-      </c>
-      <c r="M5">
-        <v>2.75</v>
-      </c>
-      <c r="N5">
-        <v>3.3</v>
-      </c>
-      <c r="O5">
-        <v>2.6</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.99</v>
+        <v>2.1</v>
       </c>
       <c r="R5">
-        <v>1.91</v>
+        <v>1.775</v>
       </c>
       <c r="S5">
         <v>2.5</v>
       </c>
       <c r="T5">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="U5">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V5">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="W5">
         <v>-1</v>
@@ -970,13 +967,13 @@
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>0.99</v>
+        <v>1.1</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB5">
         <v>-1</v>
@@ -987,82 +984,82 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6008603</v>
+        <v>6011394</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2">
         <v>45081.5</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
         <v>1</v>
       </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
       <c r="I6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J6">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="K6">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="L6">
+        <v>2.4</v>
+      </c>
+      <c r="M6">
+        <v>2.75</v>
+      </c>
+      <c r="N6">
+        <v>3.3</v>
+      </c>
+      <c r="O6">
+        <v>2.6</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.99</v>
+      </c>
+      <c r="R6">
+        <v>1.91</v>
+      </c>
+      <c r="S6">
+        <v>2.5</v>
+      </c>
+      <c r="T6">
+        <v>2.025</v>
+      </c>
+      <c r="U6">
+        <v>1.825</v>
+      </c>
+      <c r="V6">
         <v>1.75</v>
       </c>
-      <c r="M6">
-        <v>3.2</v>
-      </c>
-      <c r="N6">
-        <v>4</v>
-      </c>
-      <c r="O6">
-        <v>2.05</v>
-      </c>
-      <c r="P6">
-        <v>0.25</v>
-      </c>
-      <c r="Q6">
-        <v>2.05</v>
-      </c>
-      <c r="R6">
-        <v>1.85</v>
-      </c>
-      <c r="S6">
-        <v>3</v>
-      </c>
-      <c r="T6">
-        <v>1.825</v>
-      </c>
-      <c r="U6">
-        <v>2.025</v>
-      </c>
-      <c r="V6">
-        <v>-1</v>
-      </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
       <c r="Z6">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB6">
         <v>-1</v>
@@ -1073,64 +1070,64 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6011480</v>
+        <v>6008603</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2">
         <v>45081.5</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J7">
+        <v>4.2</v>
+      </c>
+      <c r="K7">
+        <v>3.8</v>
+      </c>
+      <c r="L7">
         <v>1.75</v>
       </c>
-      <c r="K7">
-        <v>3.75</v>
-      </c>
-      <c r="L7">
-        <v>4.5</v>
-      </c>
       <c r="M7">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="N7">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O7">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="P7">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q7">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="R7">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S7">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T7">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U7">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V7">
         <v>-1</v>
@@ -1139,16 +1136,16 @@
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>3.75</v>
+        <v>1.05</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA7">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB7">
         <v>-1</v>
@@ -1162,16 +1159,16 @@
         <v>6011981</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2">
         <v>45081.5</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -1248,13 +1245,13 @@
         <v>6008769</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2">
         <v>45081.59375</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
         <v>50</v>
@@ -1266,7 +1263,7 @@
         <v>4</v>
       </c>
       <c r="I9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J9">
         <v>3.1</v>
@@ -1334,16 +1331,16 @@
         <v>6008604</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2">
         <v>45088.5</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -1420,7 +1417,7 @@
         <v>6011983</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2">
         <v>45088.5</v>
@@ -1429,7 +1426,7 @@
         <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1438,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J11">
         <v>1.7</v>
@@ -1503,82 +1500,82 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6011982</v>
+        <v>6011481</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2">
         <v>45088.5</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H12">
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J12">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="K12">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="M12">
+        <v>2.1</v>
+      </c>
+      <c r="N12">
+        <v>3.4</v>
+      </c>
+      <c r="O12">
+        <v>3.5</v>
+      </c>
+      <c r="P12">
+        <v>-0.25</v>
+      </c>
+      <c r="Q12">
+        <v>1.82</v>
+      </c>
+      <c r="R12">
+        <v>2.08</v>
+      </c>
+      <c r="S12">
         <v>2.5</v>
       </c>
-      <c r="M12">
-        <v>3</v>
-      </c>
-      <c r="N12">
-        <v>3.1</v>
-      </c>
-      <c r="O12">
-        <v>2.5</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>2.11</v>
-      </c>
-      <c r="R12">
-        <v>1.79</v>
-      </c>
-      <c r="S12">
-        <v>2.25</v>
-      </c>
       <c r="T12">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="U12">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V12">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W12">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AB12">
         <v>-1</v>
@@ -1592,16 +1589,16 @@
         <v>6011930</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="2">
         <v>45088.5</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1610,7 +1607,7 @@
         <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J13">
         <v>2</v>
@@ -1678,13 +1675,13 @@
         <v>6008770</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="2">
         <v>45088.5</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
         <v>50</v>
@@ -1764,7 +1761,7 @@
         <v>6011396</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" s="2">
         <v>45088.5</v>
@@ -1782,7 +1779,7 @@
         <v>3</v>
       </c>
       <c r="I15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J15">
         <v>2.3</v>
@@ -1847,82 +1844,82 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6011481</v>
+        <v>6011982</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="2">
         <v>45088.5</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H16">
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J16">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="K16">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16">
+        <v>3.1</v>
+      </c>
+      <c r="O16">
+        <v>2.5</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>2.11</v>
+      </c>
+      <c r="R16">
+        <v>1.79</v>
+      </c>
+      <c r="S16">
+        <v>2.25</v>
+      </c>
+      <c r="T16">
+        <v>1.9</v>
+      </c>
+      <c r="U16">
+        <v>1.95</v>
+      </c>
+      <c r="V16">
+        <v>-1</v>
+      </c>
+      <c r="W16">
         <v>2.1</v>
       </c>
-      <c r="N16">
-        <v>3.4</v>
-      </c>
-      <c r="O16">
-        <v>3.5</v>
-      </c>
-      <c r="P16">
-        <v>-0.25</v>
-      </c>
-      <c r="Q16">
-        <v>1.82</v>
-      </c>
-      <c r="R16">
-        <v>2.08</v>
-      </c>
-      <c r="S16">
-        <v>2.5</v>
-      </c>
-      <c r="T16">
-        <v>2.05</v>
-      </c>
-      <c r="U16">
-        <v>1.8</v>
-      </c>
-      <c r="V16">
-        <v>1.1</v>
-      </c>
-      <c r="W16">
-        <v>-1</v>
-      </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>0.8200000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB16">
         <v>-1</v>
@@ -1936,16 +1933,16 @@
         <v>6011984</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="2">
         <v>45088.59375</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1954,7 +1951,7 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J17">
         <v>1.571</v>
@@ -2022,16 +2019,16 @@
         <v>6011985</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="2">
         <v>45101.54166666666</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -2105,85 +2102,85 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6008771</v>
+        <v>6011931</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" s="2">
         <v>45102.5</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19">
+        <v>2.1</v>
+      </c>
+      <c r="K19">
+        <v>3.6</v>
+      </c>
+      <c r="L19">
+        <v>3.2</v>
+      </c>
+      <c r="M19">
+        <v>2.1</v>
+      </c>
+      <c r="N19">
+        <v>3.6</v>
+      </c>
+      <c r="O19">
+        <v>3.25</v>
+      </c>
+      <c r="P19">
+        <v>-0.25</v>
+      </c>
+      <c r="Q19">
+        <v>1.875</v>
+      </c>
+      <c r="R19">
+        <v>1.975</v>
+      </c>
+      <c r="S19">
+        <v>3</v>
+      </c>
+      <c r="T19">
+        <v>2</v>
+      </c>
+      <c r="U19">
+        <v>1.85</v>
+      </c>
+      <c r="V19">
+        <v>-1</v>
+      </c>
+      <c r="W19">
+        <v>-1</v>
+      </c>
+      <c r="X19">
+        <v>2.25</v>
+      </c>
+      <c r="Y19">
+        <v>-1</v>
+      </c>
+      <c r="Z19">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA19">
         <v>0</v>
       </c>
-      <c r="I19" t="s">
-        <v>55</v>
-      </c>
-      <c r="J19">
-        <v>1.2</v>
-      </c>
-      <c r="K19">
-        <v>7</v>
-      </c>
-      <c r="L19">
-        <v>11</v>
-      </c>
-      <c r="M19">
-        <v>1.25</v>
-      </c>
-      <c r="N19">
-        <v>6.5</v>
-      </c>
-      <c r="O19">
-        <v>10</v>
-      </c>
-      <c r="P19">
-        <v>-1.75</v>
-      </c>
-      <c r="Q19">
-        <v>1.825</v>
-      </c>
-      <c r="R19">
-        <v>2.025</v>
-      </c>
-      <c r="S19">
-        <v>3.25</v>
-      </c>
-      <c r="T19">
-        <v>1.95</v>
-      </c>
-      <c r="U19">
-        <v>1.9</v>
-      </c>
-      <c r="V19">
-        <v>0.25</v>
-      </c>
-      <c r="W19">
-        <v>-1</v>
-      </c>
-      <c r="X19">
-        <v>-1</v>
-      </c>
-      <c r="Y19">
-        <v>-1</v>
-      </c>
-      <c r="Z19">
-        <v>1.025</v>
-      </c>
-      <c r="AA19">
-        <v>-1</v>
-      </c>
       <c r="AB19">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -2191,85 +2188,85 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6011931</v>
+        <v>6011398</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" s="2">
         <v>45102.5</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J20">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="K20">
+        <v>3.5</v>
+      </c>
+      <c r="L20">
         <v>3.6</v>
       </c>
-      <c r="L20">
+      <c r="M20">
+        <v>2.4</v>
+      </c>
+      <c r="N20">
+        <v>3.1</v>
+      </c>
+      <c r="O20">
         <v>3.2</v>
-      </c>
-      <c r="M20">
-        <v>2.1</v>
-      </c>
-      <c r="N20">
-        <v>3.6</v>
-      </c>
-      <c r="O20">
-        <v>3.25</v>
       </c>
       <c r="P20">
         <v>-0.25</v>
       </c>
       <c r="Q20">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="R20">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S20">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T20">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="U20">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V20">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z20">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:28">
@@ -2277,85 +2274,85 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6011398</v>
+        <v>6011397</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" s="2">
         <v>45102.5</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J21">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="K21">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L21">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="M21">
         <v>2.4</v>
       </c>
       <c r="N21">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="O21">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P21">
         <v>-0.25</v>
       </c>
       <c r="Q21">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="R21">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S21">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T21">
         <v>2.05</v>
       </c>
       <c r="U21">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V21">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y21">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA21">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="22" spans="1:28">
@@ -2363,85 +2360,85 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6011397</v>
+        <v>6008771</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D22" s="2">
         <v>45102.5</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
         <v>0</v>
       </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
       <c r="I22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J22">
-        <v>2.375</v>
+        <v>1.2</v>
       </c>
       <c r="K22">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="L22">
-        <v>2.9</v>
+        <v>11</v>
       </c>
       <c r="M22">
-        <v>2.4</v>
+        <v>1.25</v>
       </c>
       <c r="N22">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="O22">
-        <v>2.875</v>
+        <v>10</v>
       </c>
       <c r="P22">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="Q22">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="R22">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="S22">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T22">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="U22">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V22">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA22">
         <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -2452,16 +2449,16 @@
         <v>6008605</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23" s="2">
         <v>45102.59375</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -2538,7 +2535,7 @@
         <v>6012010</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D24" s="2">
         <v>45108.54166666666</v>
@@ -2547,7 +2544,7 @@
         <v>40</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2556,7 +2553,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J24">
         <v>2.25</v>
@@ -2621,85 +2618,85 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6011484</v>
+        <v>6011400</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D25" s="2">
         <v>45109.5</v>
       </c>
       <c r="E25" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>1</v>
       </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
       <c r="I25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J25">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="K25">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="L25">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="M25">
-        <v>3.2</v>
+        <v>1.65</v>
       </c>
       <c r="N25">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="O25">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="P25">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q25">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R25">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S25">
         <v>2.5</v>
       </c>
       <c r="T25">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U25">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V25">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y25">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA25">
         <v>-1</v>
       </c>
       <c r="AB25">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:28">
@@ -2707,22 +2704,22 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6011485</v>
+        <v>6011486</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D26" s="2">
         <v>45109.5</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G26">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2731,40 +2728,40 @@
         <v>55</v>
       </c>
       <c r="J26">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="K26">
+        <v>4.5</v>
+      </c>
+      <c r="L26">
         <v>6</v>
-      </c>
-      <c r="L26">
-        <v>10</v>
       </c>
       <c r="M26">
         <v>1.333</v>
       </c>
       <c r="N26">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="O26">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P26">
         <v>-1.5</v>
       </c>
       <c r="Q26">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="R26">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S26">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="T26">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U26">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V26">
         <v>0.333</v>
@@ -2776,16 +2773,16 @@
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z26">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB26">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:28">
@@ -2793,22 +2790,22 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6011486</v>
+        <v>6011485</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D27" s="2">
         <v>45109.5</v>
       </c>
       <c r="E27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G27">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -2817,40 +2814,40 @@
         <v>55</v>
       </c>
       <c r="J27">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="K27">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="L27">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M27">
         <v>1.333</v>
       </c>
       <c r="N27">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="O27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P27">
         <v>-1.5</v>
       </c>
       <c r="Q27">
+        <v>1.925</v>
+      </c>
+      <c r="R27">
+        <v>1.925</v>
+      </c>
+      <c r="S27">
+        <v>3.25</v>
+      </c>
+      <c r="T27">
         <v>1.875</v>
       </c>
-      <c r="R27">
+      <c r="U27">
         <v>1.975</v>
-      </c>
-      <c r="S27">
-        <v>3.5</v>
-      </c>
-      <c r="T27">
-        <v>1.825</v>
-      </c>
-      <c r="U27">
-        <v>2.025</v>
       </c>
       <c r="V27">
         <v>0.333</v>
@@ -2862,16 +2859,16 @@
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA27">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -2879,85 +2876,85 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6011400</v>
+        <v>6011484</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D28" s="2">
         <v>45109.5</v>
       </c>
       <c r="E28" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
         <v>0</v>
       </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
       <c r="I28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J28">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="K28">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="L28">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="M28">
-        <v>1.65</v>
+        <v>3.2</v>
       </c>
       <c r="N28">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="O28">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="P28">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q28">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="R28">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S28">
         <v>2.5</v>
       </c>
       <c r="T28">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U28">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V28">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z28">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
         <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -2968,16 +2965,16 @@
         <v>6011399</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D29" s="2">
         <v>45109.5</v>
       </c>
       <c r="E29" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -3054,13 +3051,13 @@
         <v>6008606</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D30" s="2">
         <v>45109.59375</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
         <v>50</v>
@@ -3072,7 +3069,7 @@
         <v>2</v>
       </c>
       <c r="I30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J30">
         <v>1.727</v>
@@ -3140,16 +3137,16 @@
         <v>6011986</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D31" s="2">
         <v>45110.58333333334</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3158,7 +3155,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J31">
         <v>2.05</v>
@@ -3226,13 +3223,13 @@
         <v>6011487</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D32" s="2">
         <v>45114.58333333334</v>
       </c>
       <c r="E32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F32" t="s">
         <v>37</v>
@@ -3312,16 +3309,16 @@
         <v>6011488</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D33" s="2">
         <v>45115.54166666666</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F33" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3398,16 +3395,16 @@
         <v>6011932</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D34" s="2">
         <v>45116.5</v>
       </c>
       <c r="E34" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G34">
         <v>5</v>
@@ -3484,7 +3481,7 @@
         <v>6011987</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D35" s="2">
         <v>45116.5</v>
@@ -3493,7 +3490,7 @@
         <v>36</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3502,7 +3499,7 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J35">
         <v>2.15</v>
@@ -3570,7 +3567,7 @@
         <v>6011489</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D36" s="2">
         <v>45116.5</v>
@@ -3579,7 +3576,7 @@
         <v>39</v>
       </c>
       <c r="F36" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3588,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J36">
         <v>2.75</v>
@@ -3653,85 +3650,85 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6008607</v>
+        <v>6011401</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D37" s="2">
         <v>45116.5</v>
       </c>
       <c r="E37" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F37" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="s">
         <v>56</v>
       </c>
       <c r="J37">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="K37">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="L37">
-        <v>1.533</v>
+        <v>2.875</v>
       </c>
       <c r="M37">
-        <v>5.75</v>
+        <v>1.95</v>
       </c>
       <c r="N37">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="O37">
-        <v>1.533</v>
+        <v>3.8</v>
       </c>
       <c r="P37">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q37">
+        <v>1.925</v>
+      </c>
+      <c r="R37">
+        <v>1.925</v>
+      </c>
+      <c r="S37">
+        <v>2.5</v>
+      </c>
+      <c r="T37">
         <v>2</v>
       </c>
-      <c r="R37">
+      <c r="U37">
         <v>1.85</v>
       </c>
-      <c r="S37">
-        <v>3</v>
-      </c>
-      <c r="T37">
-        <v>1.975</v>
-      </c>
-      <c r="U37">
-        <v>1.875</v>
-      </c>
       <c r="V37">
         <v>-1</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X37">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
+        <v>0.925</v>
+      </c>
+      <c r="AA37">
+        <v>-1</v>
+      </c>
+      <c r="AB37">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA37">
-        <v>-1</v>
-      </c>
-      <c r="AB37">
-        <v>0.875</v>
       </c>
     </row>
     <row r="38" spans="1:28">
@@ -3739,85 +3736,85 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6011401</v>
+        <v>6008607</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D38" s="2">
         <v>45116.5</v>
       </c>
       <c r="E38" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J38">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="K38">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="L38">
-        <v>2.875</v>
+        <v>1.533</v>
       </c>
       <c r="M38">
-        <v>1.95</v>
+        <v>5.75</v>
       </c>
       <c r="N38">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="O38">
-        <v>3.8</v>
+        <v>1.533</v>
       </c>
       <c r="P38">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="R38">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S38">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T38">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U38">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V38">
         <v>-1</v>
       </c>
       <c r="W38">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="39" spans="1:28">
@@ -3828,7 +3825,7 @@
         <v>6008772</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D39" s="2">
         <v>45116.59375</v>
@@ -3837,7 +3834,7 @@
         <v>50</v>
       </c>
       <c r="F39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -3914,7 +3911,7 @@
         <v>6008773</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D40" s="2">
         <v>45122.54166666666</v>
@@ -3932,7 +3929,7 @@
         <v>4</v>
       </c>
       <c r="I40" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J40">
         <v>3.75</v>
@@ -3997,58 +3994,58 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6008608</v>
+        <v>6011491</v>
       </c>
       <c r="C41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D41" s="2">
         <v>45123.5</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G41">
         <v>2</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J41">
-        <v>1.181</v>
+        <v>1.444</v>
       </c>
       <c r="K41">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="L41">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="M41">
-        <v>1.2</v>
+        <v>1.363</v>
       </c>
       <c r="N41">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="O41">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P41">
-        <v>-2</v>
+        <v>-1.5</v>
       </c>
       <c r="Q41">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="R41">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S41">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T41">
         <v>1.95</v>
@@ -4057,25 +4054,25 @@
         <v>1.9</v>
       </c>
       <c r="V41">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="W41">
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB41">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:28">
@@ -4083,85 +4080,85 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6011402</v>
+        <v>6008608</v>
       </c>
       <c r="C42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D42" s="2">
         <v>45123.5</v>
       </c>
       <c r="E42" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J42">
-        <v>2.3</v>
+        <v>1.181</v>
       </c>
       <c r="K42">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="L42">
-        <v>3.1</v>
+        <v>11</v>
       </c>
       <c r="M42">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="N42">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="O42">
-        <v>3.3</v>
+        <v>11</v>
       </c>
       <c r="P42">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="Q42">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="R42">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S42">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="T42">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U42">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V42">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="W42">
         <v>-1</v>
       </c>
       <c r="X42">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AA42">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:28">
@@ -4169,64 +4166,64 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6011491</v>
+        <v>6011402</v>
       </c>
       <c r="C43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D43" s="2">
         <v>45123.5</v>
       </c>
       <c r="E43" t="s">
+        <v>37</v>
+      </c>
+      <c r="F43" t="s">
         <v>46</v>
       </c>
-      <c r="F43" t="s">
-        <v>51</v>
-      </c>
       <c r="G43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H43">
         <v>3</v>
       </c>
       <c r="I43" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J43">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="K43">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="L43">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="M43">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="N43">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="O43">
-        <v>8</v>
+        <v>3.3</v>
       </c>
       <c r="P43">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q43">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="R43">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S43">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="T43">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U43">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V43">
         <v>-1</v>
@@ -4235,16 +4232,16 @@
         <v>-1</v>
       </c>
       <c r="X43">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA43">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB43">
         <v>-1</v>
@@ -4258,7 +4255,7 @@
         <v>6011403</v>
       </c>
       <c r="C44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D44" s="2">
         <v>45123.5</v>
@@ -4341,85 +4338,85 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6011490</v>
+        <v>6011988</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D45" s="2">
         <v>45123.5</v>
       </c>
       <c r="E45" t="s">
+        <v>47</v>
+      </c>
+      <c r="F45" t="s">
         <v>42</v>
       </c>
-      <c r="F45" t="s">
-        <v>39</v>
-      </c>
       <c r="G45">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J45">
-        <v>1.333</v>
+        <v>3.1</v>
       </c>
       <c r="K45">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="L45">
-        <v>7.5</v>
+        <v>2.2</v>
       </c>
       <c r="M45">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="N45">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="O45">
-        <v>7.5</v>
+        <v>2.375</v>
       </c>
       <c r="P45">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q45">
-        <v>1.925</v>
+        <v>1.78</v>
       </c>
       <c r="R45">
-        <v>1.925</v>
+        <v>2.125</v>
       </c>
       <c r="S45">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T45">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="U45">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V45">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y45">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>1.125</v>
       </c>
       <c r="AA45">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="46" spans="1:28">
@@ -4427,85 +4424,85 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6011988</v>
+        <v>6011490</v>
       </c>
       <c r="C46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D46" s="2">
         <v>45123.5</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J46">
-        <v>3.1</v>
+        <v>1.333</v>
       </c>
       <c r="K46">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="L46">
-        <v>2.2</v>
+        <v>7.5</v>
       </c>
       <c r="M46">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="N46">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="O46">
-        <v>2.375</v>
+        <v>7.5</v>
       </c>
       <c r="P46">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q46">
-        <v>1.78</v>
+        <v>1.925</v>
       </c>
       <c r="R46">
-        <v>2.125</v>
+        <v>1.925</v>
       </c>
       <c r="S46">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T46">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="U46">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V46">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z46">
-        <v>1.125</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB46">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:28">
@@ -4516,16 +4513,16 @@
         <v>6011989</v>
       </c>
       <c r="C47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D47" s="2">
         <v>45123.59375</v>
       </c>
       <c r="E47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F47" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -4602,13 +4599,13 @@
         <v>6765728</v>
       </c>
       <c r="C48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D48" s="2">
         <v>45126.54166666666</v>
       </c>
       <c r="E48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F48" t="s">
         <v>37</v>
@@ -4688,7 +4685,7 @@
         <v>6008774</v>
       </c>
       <c r="C49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D49" s="2">
         <v>45129.54166666666</v>
@@ -4697,7 +4694,7 @@
         <v>50</v>
       </c>
       <c r="F49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G49">
         <v>5</v>
@@ -4774,13 +4771,13 @@
         <v>6011404</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D50" s="2">
         <v>45130.5</v>
       </c>
       <c r="E50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F50" t="s">
         <v>40</v>
@@ -4857,67 +4854,67 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6011492</v>
+        <v>6011493</v>
       </c>
       <c r="C51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D51" s="2">
         <v>45130.5</v>
       </c>
       <c r="E51" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="s">
         <v>55</v>
       </c>
       <c r="J51">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="K51">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L51">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="M51">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="N51">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O51">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="P51">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q51">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="R51">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="S51">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T51">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="U51">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V51">
-        <v>1.375</v>
+        <v>2.3</v>
       </c>
       <c r="W51">
         <v>-1</v>
@@ -4926,16 +4923,16 @@
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="52" spans="1:28">
@@ -4943,67 +4940,67 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6011405</v>
+        <v>6011492</v>
       </c>
       <c r="C52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D52" s="2">
         <v>45130.5</v>
       </c>
       <c r="E52" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F52" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G52">
         <v>3</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="s">
         <v>55</v>
       </c>
       <c r="J52">
+        <v>2.25</v>
+      </c>
+      <c r="K52">
+        <v>3.4</v>
+      </c>
+      <c r="L52">
+        <v>2.8</v>
+      </c>
+      <c r="M52">
+        <v>2.375</v>
+      </c>
+      <c r="N52">
         <v>3.3</v>
       </c>
-      <c r="K52">
-        <v>3.5</v>
-      </c>
-      <c r="L52">
-        <v>1.95</v>
-      </c>
-      <c r="M52">
+      <c r="O52">
         <v>3.1</v>
       </c>
-      <c r="N52">
-        <v>3.5</v>
-      </c>
-      <c r="O52">
-        <v>2.25</v>
-      </c>
       <c r="P52">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q52">
-        <v>1.875</v>
+        <v>2.09</v>
       </c>
       <c r="R52">
-        <v>1.975</v>
+        <v>1.81</v>
       </c>
       <c r="S52">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T52">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="U52">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V52">
-        <v>2.1</v>
+        <v>1.375</v>
       </c>
       <c r="W52">
         <v>-1</v>
@@ -5012,13 +5009,13 @@
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>0.875</v>
+        <v>1.09</v>
       </c>
       <c r="Z52">
         <v>-1</v>
       </c>
       <c r="AA52">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AB52">
         <v>-1</v>
@@ -5029,25 +5026,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6011493</v>
+        <v>6011405</v>
       </c>
       <c r="C53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D53" s="2">
         <v>45130.5</v>
       </c>
       <c r="E53" t="s">
+        <v>38</v>
+      </c>
+      <c r="F53" t="s">
         <v>48</v>
       </c>
-      <c r="F53" t="s">
-        <v>42</v>
-      </c>
       <c r="G53">
+        <v>3</v>
+      </c>
+      <c r="H53">
         <v>1</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
       </c>
       <c r="I53" t="s">
         <v>55</v>
@@ -5056,28 +5053,28 @@
         <v>3.3</v>
       </c>
       <c r="K53">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L53">
         <v>1.95</v>
       </c>
       <c r="M53">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N53">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O53">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="P53">
         <v>0.25</v>
       </c>
       <c r="Q53">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="R53">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S53">
         <v>2.75</v>
@@ -5089,7 +5086,7 @@
         <v>1.95</v>
       </c>
       <c r="V53">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="W53">
         <v>-1</v>
@@ -5098,16 +5095,16 @@
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="Z53">
         <v>-1</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB53">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:28">
@@ -5118,7 +5115,7 @@
         <v>6008609</v>
       </c>
       <c r="C54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D54" s="2">
         <v>45130.5</v>
@@ -5127,7 +5124,7 @@
         <v>39</v>
       </c>
       <c r="F54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -5136,7 +5133,7 @@
         <v>5</v>
       </c>
       <c r="I54" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J54">
         <v>7</v>
@@ -5204,13 +5201,13 @@
         <v>6011990</v>
       </c>
       <c r="C55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D55" s="2">
         <v>45130.59375</v>
       </c>
       <c r="E55" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F55" t="s">
         <v>36</v>
@@ -5222,7 +5219,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J55">
         <v>2.625</v>
@@ -5290,13 +5287,13 @@
         <v>6011494</v>
       </c>
       <c r="C56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D56" s="2">
         <v>45131.58333333334</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F56" t="s">
         <v>37</v>
@@ -5376,7 +5373,7 @@
         <v>6011498</v>
       </c>
       <c r="C57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D57" s="2">
         <v>45136.4375</v>
@@ -5394,7 +5391,7 @@
         <v>3</v>
       </c>
       <c r="I57" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J57">
         <v>1.615</v>
@@ -5462,13 +5459,13 @@
         <v>6008775</v>
       </c>
       <c r="C58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D58" s="2">
         <v>45136.54166666666</v>
       </c>
       <c r="E58" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F58" t="s">
         <v>50</v>
@@ -5480,7 +5477,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J58">
         <v>4.333</v>
@@ -5548,16 +5545,16 @@
         <v>6011991</v>
       </c>
       <c r="C59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D59" s="2">
         <v>45137.5</v>
       </c>
       <c r="E59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -5566,7 +5563,7 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J59">
         <v>1.833</v>
@@ -5634,16 +5631,16 @@
         <v>6011496</v>
       </c>
       <c r="C60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D60" s="2">
         <v>45137.5</v>
       </c>
       <c r="E60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F60" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G60">
         <v>3</v>
@@ -5717,67 +5714,67 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6011497</v>
+        <v>6011406</v>
       </c>
       <c r="C61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D61" s="2">
         <v>45137.5</v>
       </c>
       <c r="E61" t="s">
+        <v>36</v>
+      </c>
+      <c r="F61" t="s">
         <v>46</v>
       </c>
-      <c r="F61" t="s">
-        <v>48</v>
-      </c>
       <c r="G61">
+        <v>3</v>
+      </c>
+      <c r="H61">
         <v>2</v>
-      </c>
-      <c r="H61">
-        <v>1</v>
       </c>
       <c r="I61" t="s">
         <v>55</v>
       </c>
       <c r="J61">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="K61">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="L61">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="M61">
-        <v>1.4</v>
+        <v>1.615</v>
       </c>
       <c r="N61">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="O61">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="P61">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q61">
+        <v>1.825</v>
+      </c>
+      <c r="R61">
+        <v>2.025</v>
+      </c>
+      <c r="S61">
+        <v>2.75</v>
+      </c>
+      <c r="T61">
         <v>1.975</v>
       </c>
-      <c r="R61">
+      <c r="U61">
         <v>1.875</v>
       </c>
-      <c r="S61">
-        <v>3.5</v>
-      </c>
-      <c r="T61">
-        <v>1.95</v>
-      </c>
-      <c r="U61">
-        <v>1.9</v>
-      </c>
       <c r="V61">
-        <v>0.3999999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="W61">
         <v>-1</v>
@@ -5786,16 +5783,16 @@
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="Z61">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB61">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:28">
@@ -5803,67 +5800,67 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6011406</v>
+        <v>6011497</v>
       </c>
       <c r="C62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D62" s="2">
         <v>45137.5</v>
       </c>
       <c r="E62" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="s">
         <v>55</v>
       </c>
       <c r="J62">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="K62">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="L62">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="M62">
-        <v>1.615</v>
+        <v>1.4</v>
       </c>
       <c r="N62">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="O62">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="P62">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="Q62">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="R62">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S62">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="T62">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U62">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V62">
-        <v>0.615</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W62">
         <v>-1</v>
@@ -5872,16 +5869,16 @@
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA62">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:28">
@@ -5892,7 +5889,7 @@
         <v>6011495</v>
       </c>
       <c r="C63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D63" s="2">
         <v>45137.5</v>
@@ -5901,7 +5898,7 @@
         <v>37</v>
       </c>
       <c r="F63" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5978,13 +5975,13 @@
         <v>6008610</v>
       </c>
       <c r="C64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D64" s="2">
         <v>45137.59375</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F64" t="s">
         <v>38</v>
@@ -5996,7 +5993,7 @@
         <v>2</v>
       </c>
       <c r="I64" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J64">
         <v>1.3</v>
@@ -6064,13 +6061,13 @@
         <v>6011992</v>
       </c>
       <c r="C65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D65" s="2">
         <v>45143.54166666666</v>
       </c>
       <c r="E65" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F65" t="s">
         <v>40</v>
@@ -6082,7 +6079,7 @@
         <v>3</v>
       </c>
       <c r="I65" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J65">
         <v>2.15</v>
@@ -6147,58 +6144,58 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6011499</v>
+        <v>6011500</v>
       </c>
       <c r="C66" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D66" s="2">
         <v>45144.5</v>
       </c>
       <c r="E66" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66">
         <v>2</v>
       </c>
       <c r="I66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J66">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="K66">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L66">
+        <v>2.3</v>
+      </c>
+      <c r="M66">
+        <v>2.5</v>
+      </c>
+      <c r="N66">
+        <v>3.4</v>
+      </c>
+      <c r="O66">
+        <v>2.75</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
         <v>1.8</v>
       </c>
-      <c r="M66">
-        <v>3.75</v>
-      </c>
-      <c r="N66">
-        <v>3.8</v>
-      </c>
-      <c r="O66">
-        <v>1.85</v>
-      </c>
-      <c r="P66">
-        <v>0.5</v>
-      </c>
-      <c r="Q66">
-        <v>1.95</v>
-      </c>
       <c r="R66">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S66">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T66">
         <v>1.875</v>
@@ -6213,19 +6210,19 @@
         <v>-1</v>
       </c>
       <c r="X66">
-        <v>0.8500000000000001</v>
+        <v>1.75</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB66">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:28">
@@ -6233,58 +6230,58 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6011500</v>
+        <v>6011499</v>
       </c>
       <c r="C67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D67" s="2">
         <v>45144.5</v>
       </c>
       <c r="E67" t="s">
+        <v>49</v>
+      </c>
+      <c r="F67" t="s">
         <v>48</v>
       </c>
-      <c r="F67" t="s">
-        <v>36</v>
-      </c>
       <c r="G67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67">
         <v>2</v>
       </c>
       <c r="I67" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J67">
+        <v>3.8</v>
+      </c>
+      <c r="K67">
+        <v>4</v>
+      </c>
+      <c r="L67">
+        <v>1.8</v>
+      </c>
+      <c r="M67">
+        <v>3.75</v>
+      </c>
+      <c r="N67">
+        <v>3.8</v>
+      </c>
+      <c r="O67">
+        <v>1.85</v>
+      </c>
+      <c r="P67">
+        <v>0.5</v>
+      </c>
+      <c r="Q67">
+        <v>1.95</v>
+      </c>
+      <c r="R67">
+        <v>1.9</v>
+      </c>
+      <c r="S67">
         <v>3</v>
-      </c>
-      <c r="K67">
-        <v>3.4</v>
-      </c>
-      <c r="L67">
-        <v>2.3</v>
-      </c>
-      <c r="M67">
-        <v>2.5</v>
-      </c>
-      <c r="N67">
-        <v>3.4</v>
-      </c>
-      <c r="O67">
-        <v>2.75</v>
-      </c>
-      <c r="P67">
-        <v>0</v>
-      </c>
-      <c r="Q67">
-        <v>1.8</v>
-      </c>
-      <c r="R67">
-        <v>2.05</v>
-      </c>
-      <c r="S67">
-        <v>2.5</v>
       </c>
       <c r="T67">
         <v>1.875</v>
@@ -6299,19 +6296,19 @@
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>1.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA67">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:28">
@@ -6319,67 +6316,67 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6011407</v>
+        <v>6011408</v>
       </c>
       <c r="C68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D68" s="2">
         <v>45144.5</v>
       </c>
       <c r="E68" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F68" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="s">
         <v>55</v>
       </c>
       <c r="J68">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="K68">
+        <v>3.4</v>
+      </c>
+      <c r="L68">
+        <v>2.7</v>
+      </c>
+      <c r="M68">
+        <v>2.45</v>
+      </c>
+      <c r="N68">
         <v>3.25</v>
       </c>
-      <c r="L68">
-        <v>3.5</v>
-      </c>
-      <c r="M68">
-        <v>2.7</v>
-      </c>
-      <c r="N68">
-        <v>3.2</v>
-      </c>
       <c r="O68">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P68">
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R68">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S68">
         <v>2.25</v>
       </c>
       <c r="T68">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U68">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V68">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="W68">
         <v>-1</v>
@@ -6388,13 +6385,13 @@
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB68">
         <v>-1</v>
@@ -6405,67 +6402,67 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6011408</v>
+        <v>6011407</v>
       </c>
       <c r="C69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D69" s="2">
         <v>45144.5</v>
       </c>
       <c r="E69" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F69" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="s">
         <v>55</v>
       </c>
       <c r="J69">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="K69">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L69">
+        <v>3.5</v>
+      </c>
+      <c r="M69">
         <v>2.7</v>
       </c>
-      <c r="M69">
-        <v>2.45</v>
-      </c>
       <c r="N69">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O69">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P69">
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R69">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S69">
         <v>2.25</v>
       </c>
       <c r="T69">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U69">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V69">
-        <v>1.45</v>
+        <v>1.7</v>
       </c>
       <c r="W69">
         <v>-1</v>
@@ -6474,13 +6471,13 @@
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB69">
         <v>-1</v>
@@ -6494,7 +6491,7 @@
         <v>6011501</v>
       </c>
       <c r="C70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D70" s="2">
         <v>45144.5</v>
@@ -6503,7 +6500,7 @@
         <v>39</v>
       </c>
       <c r="F70" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G70">
         <v>5</v>
@@ -6580,16 +6577,16 @@
         <v>6008611</v>
       </c>
       <c r="C71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D71" s="2">
         <v>45144.59375</v>
       </c>
       <c r="E71" t="s">
+        <v>42</v>
+      </c>
+      <c r="F71" t="s">
         <v>43</v>
-      </c>
-      <c r="F71" t="s">
-        <v>44</v>
       </c>
       <c r="G71">
         <v>3</v>
@@ -6666,7 +6663,7 @@
         <v>6008777</v>
       </c>
       <c r="C72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D72" s="2">
         <v>45150.45833333334</v>
@@ -6684,7 +6681,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J72">
         <v>5.5</v>
@@ -6752,16 +6749,16 @@
         <v>6011933</v>
       </c>
       <c r="C73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D73" s="2">
         <v>45150.54166666666</v>
       </c>
       <c r="E73" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -6770,7 +6767,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J73">
         <v>1.5</v>
@@ -6838,7 +6835,7 @@
         <v>6011502</v>
       </c>
       <c r="C74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D74" s="2">
         <v>45151.5</v>
@@ -6847,7 +6844,7 @@
         <v>37</v>
       </c>
       <c r="F74" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -6856,7 +6853,7 @@
         <v>2</v>
       </c>
       <c r="I74" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J74">
         <v>2.15</v>
@@ -6924,16 +6921,16 @@
         <v>6012732</v>
       </c>
       <c r="C75" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D75" s="2">
         <v>45151.5</v>
       </c>
       <c r="E75" t="s">
+        <v>41</v>
+      </c>
+      <c r="F75" t="s">
         <v>42</v>
-      </c>
-      <c r="F75" t="s">
-        <v>43</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6942,7 +6939,7 @@
         <v>3</v>
       </c>
       <c r="I75" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J75">
         <v>2.15</v>
@@ -7010,7 +7007,7 @@
         <v>6011503</v>
       </c>
       <c r="C76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D76" s="2">
         <v>45151.59375</v>
@@ -7019,7 +7016,7 @@
         <v>40</v>
       </c>
       <c r="F76" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -7028,7 +7025,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J76">
         <v>1.65</v>
@@ -7096,7 +7093,7 @@
         <v>6008778</v>
       </c>
       <c r="C77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D77" s="2">
         <v>45157.54166666666</v>
@@ -7114,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J77">
         <v>1.363</v>
@@ -7182,16 +7179,16 @@
         <v>6011410</v>
       </c>
       <c r="C78" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D78" s="2">
         <v>45157.54166666666</v>
       </c>
       <c r="E78" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F78" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -7200,7 +7197,7 @@
         <v>3</v>
       </c>
       <c r="I78" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J78">
         <v>2.8</v>
@@ -7268,7 +7265,7 @@
         <v>6011411</v>
       </c>
       <c r="C79" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D79" s="2">
         <v>45158.5</v>
@@ -7354,16 +7351,16 @@
         <v>6008613</v>
       </c>
       <c r="C80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D80" s="2">
         <v>45158.5</v>
       </c>
       <c r="E80" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F80" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7372,7 +7369,7 @@
         <v>3</v>
       </c>
       <c r="I80" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J80">
         <v>6</v>
@@ -7440,16 +7437,16 @@
         <v>6011995</v>
       </c>
       <c r="C81" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D81" s="2">
         <v>45158.5</v>
       </c>
       <c r="E81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F81" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7526,13 +7523,13 @@
         <v>6011505</v>
       </c>
       <c r="C82" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D82" s="2">
         <v>45158.5</v>
       </c>
       <c r="E82" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F82" t="s">
         <v>36</v>
@@ -7612,13 +7609,13 @@
         <v>6011504</v>
       </c>
       <c r="C83" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D83" s="2">
         <v>45158.5</v>
       </c>
       <c r="E83" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F83" t="s">
         <v>37</v>
@@ -7698,16 +7695,16 @@
         <v>6011994</v>
       </c>
       <c r="C84" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D84" s="2">
         <v>45158.59375</v>
       </c>
       <c r="E84" t="s">
+        <v>35</v>
+      </c>
+      <c r="F84" t="s">
         <v>41</v>
-      </c>
-      <c r="F84" t="s">
-        <v>42</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7716,7 +7713,7 @@
         <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J84">
         <v>3.2</v>
@@ -7784,13 +7781,13 @@
         <v>6011412</v>
       </c>
       <c r="C85" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D85" s="2">
         <v>45164.54166666666</v>
       </c>
       <c r="E85" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
         <v>38</v>
@@ -7870,7 +7867,7 @@
         <v>6011507</v>
       </c>
       <c r="C86" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D86" s="2">
         <v>45165.5</v>
@@ -7879,7 +7876,7 @@
         <v>39</v>
       </c>
       <c r="F86" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7888,7 +7885,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J86">
         <v>2.3</v>
@@ -7956,7 +7953,7 @@
         <v>6011413</v>
       </c>
       <c r="C87" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D87" s="2">
         <v>45165.5</v>
@@ -7965,7 +7962,7 @@
         <v>40</v>
       </c>
       <c r="F87" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7974,7 +7971,7 @@
         <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J87">
         <v>1.75</v>
@@ -8042,7 +8039,7 @@
         <v>6011506</v>
       </c>
       <c r="C88" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D88" s="2">
         <v>45165.59375</v>
@@ -8128,13 +8125,13 @@
         <v>6012011</v>
       </c>
       <c r="C89" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D89" s="2">
         <v>45171.54166666666</v>
       </c>
       <c r="E89" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F89" t="s">
         <v>40</v>
@@ -8146,7 +8143,7 @@
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J89">
         <v>1.571</v>
@@ -8214,16 +8211,16 @@
         <v>6011997</v>
       </c>
       <c r="C90" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D90" s="2">
         <v>45172.5</v>
       </c>
       <c r="E90" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F90" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8300,16 +8297,16 @@
         <v>6011934</v>
       </c>
       <c r="C91" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D91" s="2">
         <v>45172.5</v>
       </c>
       <c r="E91" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F91" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8386,7 +8383,7 @@
         <v>6011509</v>
       </c>
       <c r="C92" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D92" s="2">
         <v>45172.5</v>
@@ -8395,7 +8392,7 @@
         <v>37</v>
       </c>
       <c r="F92" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -8404,7 +8401,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J92">
         <v>3.5</v>
@@ -8472,7 +8469,7 @@
         <v>6011415</v>
       </c>
       <c r="C93" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D93" s="2">
         <v>45172.5</v>
@@ -8558,13 +8555,13 @@
         <v>6011414</v>
       </c>
       <c r="C94" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D94" s="2">
         <v>45172.5</v>
       </c>
       <c r="E94" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F94" t="s">
         <v>39</v>
@@ -8644,13 +8641,13 @@
         <v>6008780</v>
       </c>
       <c r="C95" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D95" s="2">
         <v>45172.5</v>
       </c>
       <c r="E95" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F95" t="s">
         <v>50</v>
@@ -8662,7 +8659,7 @@
         <v>2</v>
       </c>
       <c r="I95" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J95">
         <v>4.75</v>
@@ -8730,16 +8727,16 @@
         <v>6008615</v>
       </c>
       <c r="C96" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D96" s="2">
         <v>45172.59375</v>
       </c>
       <c r="E96" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F96" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G96">
         <v>4</v>
@@ -8748,7 +8745,7 @@
         <v>4</v>
       </c>
       <c r="I96" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J96">
         <v>5.5</v>
@@ -8816,7 +8813,7 @@
         <v>6011511</v>
       </c>
       <c r="C97" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D97" s="2">
         <v>45185.54166666666</v>
@@ -8825,7 +8822,7 @@
         <v>39</v>
       </c>
       <c r="F97" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G97">
         <v>2</v>
@@ -8902,16 +8899,16 @@
         <v>6011510</v>
       </c>
       <c r="C98" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D98" s="2">
         <v>45185.54166666666</v>
       </c>
       <c r="E98" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F98" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -8920,7 +8917,7 @@
         <v>2</v>
       </c>
       <c r="I98" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J98">
         <v>4.2</v>
@@ -8988,7 +8985,7 @@
         <v>6008781</v>
       </c>
       <c r="C99" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D99" s="2">
         <v>45185.54166666666</v>
@@ -8997,7 +8994,7 @@
         <v>50</v>
       </c>
       <c r="F99" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G99">
         <v>4</v>
@@ -9074,7 +9071,7 @@
         <v>6008616</v>
       </c>
       <c r="C100" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D100" s="2">
         <v>45186.5</v>
@@ -9083,7 +9080,7 @@
         <v>36</v>
       </c>
       <c r="F100" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9092,7 +9089,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J100">
         <v>4</v>
@@ -9160,16 +9157,16 @@
         <v>6011998</v>
       </c>
       <c r="C101" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D101" s="2">
         <v>45186.5</v>
       </c>
       <c r="E101" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F101" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -9178,7 +9175,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J101">
         <v>4</v>
@@ -9246,7 +9243,7 @@
         <v>6011416</v>
       </c>
       <c r="C102" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D102" s="2">
         <v>45186.5</v>
@@ -9255,7 +9252,7 @@
         <v>38</v>
       </c>
       <c r="F102" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G102">
         <v>2</v>
@@ -9332,16 +9329,16 @@
         <v>6011935</v>
       </c>
       <c r="C103" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D103" s="2">
         <v>45186.5</v>
       </c>
       <c r="E103" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G103">
         <v>3</v>
@@ -9418,7 +9415,7 @@
         <v>6011512</v>
       </c>
       <c r="C104" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D104" s="2">
         <v>45186.59375</v>
@@ -9504,7 +9501,7 @@
         <v>6011515</v>
       </c>
       <c r="C105" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D105" s="2">
         <v>45192.54166666666</v>
@@ -9513,7 +9510,7 @@
         <v>37</v>
       </c>
       <c r="F105" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9522,7 +9519,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J105">
         <v>2.55</v>
@@ -9587,85 +9584,85 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6008617</v>
+        <v>6008782</v>
       </c>
       <c r="C106" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D106" s="2">
         <v>45193.5</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F106" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G106">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J106">
-        <v>1.333</v>
+        <v>4.75</v>
       </c>
       <c r="K106">
+        <v>3.9</v>
+      </c>
+      <c r="L106">
+        <v>1.666</v>
+      </c>
+      <c r="M106">
         <v>5.5</v>
       </c>
-      <c r="L106">
-        <v>7.5</v>
-      </c>
-      <c r="M106">
-        <v>1.25</v>
-      </c>
       <c r="N106">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="O106">
-        <v>10</v>
+        <v>1.615</v>
       </c>
       <c r="P106">
-        <v>-1.75</v>
+        <v>1</v>
       </c>
       <c r="Q106">
         <v>1.85</v>
       </c>
       <c r="R106">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S106">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T106">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U106">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V106">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z106">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="107" spans="1:28">
@@ -9673,85 +9670,85 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6008782</v>
+        <v>6008617</v>
       </c>
       <c r="C107" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D107" s="2">
         <v>45193.5</v>
       </c>
       <c r="E107" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F107" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G107">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J107">
-        <v>4.75</v>
+        <v>1.333</v>
       </c>
       <c r="K107">
-        <v>3.9</v>
+        <v>5.5</v>
       </c>
       <c r="L107">
-        <v>1.666</v>
+        <v>7.5</v>
       </c>
       <c r="M107">
-        <v>5.5</v>
+        <v>1.25</v>
       </c>
       <c r="N107">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="O107">
-        <v>1.615</v>
+        <v>10</v>
       </c>
       <c r="P107">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="Q107">
         <v>1.85</v>
       </c>
       <c r="R107">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S107">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T107">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U107">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V107">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="W107">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA107">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB107">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:28">
@@ -9762,16 +9759,16 @@
         <v>6011418</v>
       </c>
       <c r="C108" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D108" s="2">
         <v>45193.5</v>
       </c>
       <c r="E108" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F108" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -9780,7 +9777,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J108">
         <v>2.1</v>
@@ -9845,85 +9842,85 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6011516</v>
+        <v>6011517</v>
       </c>
       <c r="C109" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D109" s="2">
         <v>45193.5</v>
       </c>
       <c r="E109" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F109" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G109">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I109" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J109">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="K109">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="L109">
-        <v>2.1</v>
+        <v>8</v>
       </c>
       <c r="M109">
+        <v>1.285</v>
+      </c>
+      <c r="N109">
+        <v>6.5</v>
+      </c>
+      <c r="O109">
+        <v>8.5</v>
+      </c>
+      <c r="P109">
+        <v>-1.75</v>
+      </c>
+      <c r="Q109">
+        <v>1.925</v>
+      </c>
+      <c r="R109">
+        <v>1.925</v>
+      </c>
+      <c r="S109">
         <v>3.5</v>
       </c>
-      <c r="N109">
-        <v>4.333</v>
-      </c>
-      <c r="O109">
+      <c r="T109">
         <v>1.85</v>
       </c>
-      <c r="P109">
-        <v>0.5</v>
-      </c>
-      <c r="Q109">
-        <v>1.975</v>
-      </c>
-      <c r="R109">
-        <v>1.875</v>
-      </c>
-      <c r="S109">
-        <v>3.25</v>
-      </c>
-      <c r="T109">
-        <v>1.925</v>
-      </c>
       <c r="U109">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V109">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="W109">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB109">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:28">
@@ -9931,85 +9928,85 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6011999</v>
+        <v>6011516</v>
       </c>
       <c r="C110" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D110" s="2">
         <v>45193.5</v>
       </c>
       <c r="E110" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F110" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J110">
+        <v>3.1</v>
+      </c>
+      <c r="K110">
+        <v>3.75</v>
+      </c>
+      <c r="L110">
+        <v>2.1</v>
+      </c>
+      <c r="M110">
+        <v>3.5</v>
+      </c>
+      <c r="N110">
+        <v>4.333</v>
+      </c>
+      <c r="O110">
         <v>1.85</v>
       </c>
-      <c r="K110">
-        <v>3.6</v>
-      </c>
-      <c r="L110">
-        <v>4</v>
-      </c>
-      <c r="M110">
-        <v>1.85</v>
-      </c>
-      <c r="N110">
-        <v>4</v>
-      </c>
-      <c r="O110">
-        <v>4</v>
-      </c>
       <c r="P110">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q110">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="R110">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S110">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T110">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U110">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V110">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z110">
         <v>-1</v>
       </c>
       <c r="AA110">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="111" spans="1:28">
@@ -10017,58 +10014,58 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6011517</v>
+        <v>6011999</v>
       </c>
       <c r="C111" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D111" s="2">
         <v>45193.5</v>
       </c>
       <c r="E111" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F111" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G111">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H111">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="s">
         <v>55</v>
       </c>
       <c r="J111">
-        <v>1.3</v>
+        <v>1.85</v>
       </c>
       <c r="K111">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="L111">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M111">
-        <v>1.285</v>
+        <v>1.85</v>
       </c>
       <c r="N111">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="O111">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="P111">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q111">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R111">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S111">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="T111">
         <v>1.85</v>
@@ -10077,7 +10074,7 @@
         <v>2</v>
       </c>
       <c r="V111">
-        <v>0.2849999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W111">
         <v>-1</v>
@@ -10086,16 +10083,16 @@
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z111">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AB111">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="112" spans="1:28">
@@ -10106,13 +10103,13 @@
         <v>6011417</v>
       </c>
       <c r="C112" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D112" s="2">
         <v>45193.59375</v>
       </c>
       <c r="E112" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F112" t="s">
         <v>38</v>
@@ -10192,13 +10189,13 @@
         <v>7051355</v>
       </c>
       <c r="C113" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D113" s="2">
         <v>45199.41666666666</v>
       </c>
       <c r="E113" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F113" t="s">
         <v>38</v>
@@ -10210,7 +10207,7 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J113">
         <v>2.875</v>
@@ -10278,16 +10275,16 @@
         <v>7101094</v>
       </c>
       <c r="C114" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D114" s="2">
         <v>45200.41666666666</v>
       </c>
       <c r="E114" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F114" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -10296,7 +10293,7 @@
         <v>2</v>
       </c>
       <c r="I114" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J114">
         <v>2.7</v>
@@ -10364,7 +10361,7 @@
         <v>6794991</v>
       </c>
       <c r="C115" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D115" s="2">
         <v>45200.5</v>
@@ -10382,7 +10379,7 @@
         <v>2</v>
       </c>
       <c r="I115" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J115">
         <v>3.25</v>
@@ -10450,7 +10447,7 @@
         <v>7101390</v>
       </c>
       <c r="C116" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D116" s="2">
         <v>45200.5</v>
@@ -10459,7 +10456,7 @@
         <v>50</v>
       </c>
       <c r="F116" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G116">
         <v>4</v>
@@ -10536,16 +10533,16 @@
         <v>7101389</v>
       </c>
       <c r="C117" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D117" s="2">
         <v>45200.59375</v>
       </c>
       <c r="E117" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F117" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G117">
         <v>2</v>
@@ -10622,16 +10619,16 @@
         <v>7100040</v>
       </c>
       <c r="C118" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D118" s="2">
         <v>45203.58333333334</v>
       </c>
       <c r="E118" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F118" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G118">
         <v>5</v>
@@ -10708,16 +10705,16 @@
         <v>6011419</v>
       </c>
       <c r="C119" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D119" s="2">
         <v>45206.54166666666</v>
       </c>
       <c r="E119" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F119" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -10726,7 +10723,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J119">
         <v>3.3</v>
@@ -10794,7 +10791,7 @@
         <v>6008618</v>
       </c>
       <c r="C120" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D120" s="2">
         <v>45207.5</v>
@@ -10803,7 +10800,7 @@
         <v>50</v>
       </c>
       <c r="F120" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10812,7 +10809,7 @@
         <v>3</v>
       </c>
       <c r="I120" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J120">
         <v>2.4</v>
@@ -10880,7 +10877,7 @@
         <v>6011519</v>
       </c>
       <c r="C121" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D121" s="2">
         <v>45207.5</v>
@@ -10889,7 +10886,7 @@
         <v>39</v>
       </c>
       <c r="F121" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -10898,7 +10895,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J121">
         <v>2.4</v>
@@ -10966,13 +10963,13 @@
         <v>6011936</v>
       </c>
       <c r="C122" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D122" s="2">
         <v>45207.5</v>
       </c>
       <c r="E122" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F122" t="s">
         <v>36</v>
@@ -11052,16 +11049,16 @@
         <v>6012000</v>
       </c>
       <c r="C123" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D123" s="2">
         <v>45207.5</v>
       </c>
       <c r="E123" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F123" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -11138,7 +11135,7 @@
         <v>6011420</v>
       </c>
       <c r="C124" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D124" s="2">
         <v>45207.5</v>
@@ -11156,7 +11153,7 @@
         <v>2</v>
       </c>
       <c r="I124" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J124">
         <v>1.444</v>
@@ -11224,16 +11221,16 @@
         <v>6011518</v>
       </c>
       <c r="C125" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D125" s="2">
         <v>45207.5</v>
       </c>
       <c r="E125" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F125" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11310,7 +11307,7 @@
         <v>6012001</v>
       </c>
       <c r="C126" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D126" s="2">
         <v>45207.59375</v>
@@ -11319,7 +11316,7 @@
         <v>40</v>
       </c>
       <c r="F126" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11328,7 +11325,7 @@
         <v>2</v>
       </c>
       <c r="I126" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J126">
         <v>3.2</v>
@@ -11396,13 +11393,13 @@
         <v>6008619</v>
       </c>
       <c r="C127" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D127" s="2">
         <v>45220.41666666666</v>
       </c>
       <c r="E127" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F127" t="s">
         <v>39</v>
@@ -11482,13 +11479,13 @@
         <v>6008783</v>
       </c>
       <c r="C128" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D128" s="2">
         <v>45220.54166666666</v>
       </c>
       <c r="E128" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F128" t="s">
         <v>50</v>
@@ -11568,13 +11565,13 @@
         <v>6012012</v>
       </c>
       <c r="C129" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D129" s="2">
         <v>45221.39583333334</v>
       </c>
       <c r="E129" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F129" t="s">
         <v>40</v>
@@ -11651,85 +11648,85 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6011421</v>
+        <v>6012002</v>
       </c>
       <c r="C130" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D130" s="2">
         <v>45221.5</v>
       </c>
       <c r="E130" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F130" t="s">
         <v>47</v>
       </c>
       <c r="G130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H130">
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J130">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="K130">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L130">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="M130">
         <v>1.909</v>
       </c>
       <c r="N130">
+        <v>4</v>
+      </c>
+      <c r="O130">
         <v>3.5</v>
-      </c>
-      <c r="O130">
-        <v>3.8</v>
       </c>
       <c r="P130">
         <v>-0.5</v>
       </c>
       <c r="Q130">
+        <v>1.95</v>
+      </c>
+      <c r="R130">
+        <v>1.9</v>
+      </c>
+      <c r="S130">
+        <v>2.75</v>
+      </c>
+      <c r="T130">
         <v>1.925</v>
       </c>
-      <c r="R130">
+      <c r="U130">
         <v>1.925</v>
       </c>
-      <c r="S130">
-        <v>2.5</v>
-      </c>
-      <c r="T130">
-        <v>1.95</v>
-      </c>
-      <c r="U130">
-        <v>1.9</v>
-      </c>
       <c r="V130">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
+        <v>-1</v>
+      </c>
+      <c r="Z130">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA130">
+        <v>-1</v>
+      </c>
+      <c r="AB130">
         <v>0.925</v>
-      </c>
-      <c r="Z130">
-        <v>-1</v>
-      </c>
-      <c r="AA130">
-        <v>0.95</v>
-      </c>
-      <c r="AB130">
-        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:28">
@@ -11737,16 +11734,16 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6011520</v>
+        <v>6011421</v>
       </c>
       <c r="C131" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D131" s="2">
         <v>45221.5</v>
       </c>
       <c r="E131" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F131" t="s">
         <v>46</v>
@@ -11755,31 +11752,31 @@
         <v>3</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" t="s">
         <v>55</v>
       </c>
       <c r="J131">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="K131">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="L131">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="M131">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="N131">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="O131">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="P131">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q131">
         <v>1.925</v>
@@ -11788,16 +11785,16 @@
         <v>1.925</v>
       </c>
       <c r="S131">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T131">
+        <v>1.95</v>
+      </c>
+      <c r="U131">
         <v>1.9</v>
       </c>
-      <c r="U131">
-        <v>1.95</v>
-      </c>
       <c r="V131">
-        <v>2.6</v>
+        <v>0.909</v>
       </c>
       <c r="W131">
         <v>-1</v>
@@ -11812,7 +11809,7 @@
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB131">
         <v>-1</v>
@@ -11823,85 +11820,85 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6012002</v>
+        <v>6011520</v>
       </c>
       <c r="C132" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D132" s="2">
         <v>45221.5</v>
       </c>
       <c r="E132" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F132" t="s">
         <v>45</v>
       </c>
       <c r="G132">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J132">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="K132">
+        <v>4.2</v>
+      </c>
+      <c r="L132">
+        <v>1.727</v>
+      </c>
+      <c r="M132">
         <v>3.6</v>
       </c>
-      <c r="L132">
+      <c r="N132">
         <v>4.2</v>
       </c>
-      <c r="M132">
+      <c r="O132">
         <v>1.909</v>
       </c>
-      <c r="N132">
-        <v>4</v>
-      </c>
-      <c r="O132">
-        <v>3.5</v>
-      </c>
       <c r="P132">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q132">
+        <v>1.925</v>
+      </c>
+      <c r="R132">
+        <v>1.925</v>
+      </c>
+      <c r="S132">
+        <v>3.25</v>
+      </c>
+      <c r="T132">
+        <v>1.9</v>
+      </c>
+      <c r="U132">
         <v>1.95</v>
       </c>
-      <c r="R132">
-        <v>1.9</v>
-      </c>
-      <c r="S132">
-        <v>2.75</v>
-      </c>
-      <c r="T132">
-        <v>1.925</v>
-      </c>
-      <c r="U132">
-        <v>1.925</v>
-      </c>
       <c r="V132">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="W132">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z132">
+        <v>-1</v>
+      </c>
+      <c r="AA132">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA132">
-        <v>-1</v>
-      </c>
       <c r="AB132">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:28">
@@ -11912,16 +11909,16 @@
         <v>6011521</v>
       </c>
       <c r="C133" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D133" s="2">
         <v>45221.5</v>
       </c>
       <c r="E133" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F133" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -11930,7 +11927,7 @@
         <v>3</v>
       </c>
       <c r="I133" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J133">
         <v>2.05</v>
@@ -11998,13 +11995,13 @@
         <v>6011424</v>
       </c>
       <c r="C134" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D134" s="2">
         <v>45221.59375</v>
       </c>
       <c r="E134" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F134" t="s">
         <v>38</v>
@@ -12016,7 +12013,7 @@
         <v>4</v>
       </c>
       <c r="I134" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J134">
         <v>1.85</v>
@@ -12084,13 +12081,13 @@
         <v>6011522</v>
       </c>
       <c r="C135" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D135" s="2">
         <v>45227.54166666666</v>
       </c>
       <c r="E135" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F135" t="s">
         <v>37</v>
@@ -12170,16 +12167,16 @@
         <v>6012003</v>
       </c>
       <c r="C136" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D136" s="2">
         <v>45228.54166666666</v>
       </c>
       <c r="E136" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F136" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G136">
         <v>1</v>
@@ -12256,16 +12253,16 @@
         <v>6011937</v>
       </c>
       <c r="C137" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D137" s="2">
         <v>45228.54166666666</v>
       </c>
       <c r="E137" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F137" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G137">
         <v>2</v>
@@ -12274,7 +12271,7 @@
         <v>2</v>
       </c>
       <c r="I137" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J137">
         <v>1.533</v>
@@ -12342,16 +12339,16 @@
         <v>6011425</v>
       </c>
       <c r="C138" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D138" s="2">
         <v>45228.54166666666</v>
       </c>
       <c r="E138" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F138" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12428,7 +12425,7 @@
         <v>6011523</v>
       </c>
       <c r="C139" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D139" s="2">
         <v>45228.54166666666</v>
@@ -12437,7 +12434,7 @@
         <v>39</v>
       </c>
       <c r="F139" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12446,7 +12443,7 @@
         <v>1</v>
       </c>
       <c r="I139" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J139">
         <v>5</v>
@@ -12514,7 +12511,7 @@
         <v>6012004</v>
       </c>
       <c r="C140" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D140" s="2">
         <v>45228.63194444445</v>
@@ -12532,7 +12529,7 @@
         <v>3</v>
       </c>
       <c r="I140" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J140">
         <v>2.15</v>
@@ -12600,16 +12597,16 @@
         <v>6008620</v>
       </c>
       <c r="C141" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D141" s="2">
         <v>45229.60416666666</v>
       </c>
       <c r="E141" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F141" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G141">
         <v>3</v>
@@ -12686,7 +12683,7 @@
         <v>6008784</v>
       </c>
       <c r="C142" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D142" s="2">
         <v>45229.70833333334</v>
@@ -12704,7 +12701,7 @@
         <v>4</v>
       </c>
       <c r="I142" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J142">
         <v>1.666</v>
@@ -12772,16 +12769,16 @@
         <v>6011525</v>
       </c>
       <c r="C143" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D143" s="2">
         <v>45234.58333333334</v>
       </c>
       <c r="E143" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F143" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G143">
         <v>3</v>
@@ -12855,67 +12852,67 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6011526</v>
+        <v>6011938</v>
       </c>
       <c r="C144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D144" s="2">
         <v>45235.54166666666</v>
       </c>
       <c r="E144" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F144" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G144">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="s">
         <v>55</v>
       </c>
       <c r="J144">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="K144">
         <v>4</v>
       </c>
       <c r="L144">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M144">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="N144">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O144">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P144">
         <v>-0.5</v>
       </c>
       <c r="Q144">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="R144">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="S144">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T144">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="U144">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V144">
-        <v>0.8</v>
+        <v>0.909</v>
       </c>
       <c r="W144">
         <v>-1</v>
@@ -12924,16 +12921,16 @@
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>0.8600000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z144">
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB144">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:28">
@@ -12941,67 +12938,67 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6011938</v>
+        <v>6011526</v>
       </c>
       <c r="C145" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D145" s="2">
         <v>45235.54166666666</v>
       </c>
       <c r="E145" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F145" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G145">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="s">
         <v>55</v>
       </c>
       <c r="J145">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="K145">
         <v>4</v>
       </c>
       <c r="L145">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M145">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="N145">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O145">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P145">
         <v>-0.5</v>
       </c>
       <c r="Q145">
+        <v>1.86</v>
+      </c>
+      <c r="R145">
+        <v>2.04</v>
+      </c>
+      <c r="S145">
+        <v>2.5</v>
+      </c>
+      <c r="T145">
         <v>1.9</v>
       </c>
-      <c r="R145">
-        <v>2</v>
-      </c>
-      <c r="S145">
-        <v>3.25</v>
-      </c>
-      <c r="T145">
-        <v>2.025</v>
-      </c>
       <c r="U145">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V145">
-        <v>0.909</v>
+        <v>0.8</v>
       </c>
       <c r="W145">
         <v>-1</v>
@@ -13010,16 +13007,16 @@
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>0.8999999999999999</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="Z145">
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="146" spans="1:28">
@@ -13030,16 +13027,16 @@
         <v>6011426</v>
       </c>
       <c r="C146" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D146" s="2">
         <v>45235.54166666666</v>
       </c>
       <c r="E146" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F146" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G146">
         <v>2</v>
@@ -13116,7 +13113,7 @@
         <v>6008785</v>
       </c>
       <c r="C147" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D147" s="2">
         <v>45235.54166666666</v>
@@ -13202,16 +13199,16 @@
         <v>6008621</v>
       </c>
       <c r="C148" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D148" s="2">
         <v>45235.54166666666</v>
       </c>
       <c r="E148" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F148" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -13220,7 +13217,7 @@
         <v>4</v>
       </c>
       <c r="I148" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J148">
         <v>5.25</v>
@@ -13288,7 +13285,7 @@
         <v>6011427</v>
       </c>
       <c r="C149" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D149" s="2">
         <v>45235.63541666666</v>
@@ -13297,7 +13294,7 @@
         <v>38</v>
       </c>
       <c r="F149" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -13306,7 +13303,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J149">
         <v>1.533</v>
@@ -13374,7 +13371,7 @@
         <v>6011524</v>
       </c>
       <c r="C150" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D150" s="2">
         <v>45236.625</v>
@@ -13392,7 +13389,7 @@
         <v>3</v>
       </c>
       <c r="I150" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J150">
         <v>2.2</v>
@@ -13460,16 +13457,16 @@
         <v>6011528</v>
       </c>
       <c r="C151" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D151" s="2">
         <v>45241.58333333334</v>
       </c>
       <c r="E151" t="s">
+        <v>44</v>
+      </c>
+      <c r="F151" t="s">
         <v>48</v>
-      </c>
-      <c r="F151" t="s">
-        <v>49</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -13478,7 +13475,7 @@
         <v>2</v>
       </c>
       <c r="I151" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J151">
         <v>4.2</v>
@@ -13546,7 +13543,7 @@
         <v>6012005</v>
       </c>
       <c r="C152" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D152" s="2">
         <v>45242.54166666666</v>
@@ -13555,7 +13552,7 @@
         <v>40</v>
       </c>
       <c r="F152" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G152">
         <v>0</v>
@@ -13564,7 +13561,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J152">
         <v>2.1</v>
@@ -13632,16 +13629,16 @@
         <v>6011939</v>
       </c>
       <c r="C153" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D153" s="2">
         <v>45242.54166666666</v>
       </c>
       <c r="E153" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F153" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G153">
         <v>2</v>
@@ -13718,16 +13715,16 @@
         <v>6011530</v>
       </c>
       <c r="C154" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D154" s="2">
         <v>45242.54166666666</v>
       </c>
       <c r="E154" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F154" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -13736,7 +13733,7 @@
         <v>1</v>
       </c>
       <c r="I154" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J154">
         <v>1.95</v>
@@ -13804,7 +13801,7 @@
         <v>6011529</v>
       </c>
       <c r="C155" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D155" s="2">
         <v>45242.54166666666</v>
@@ -13890,13 +13887,13 @@
         <v>6011428</v>
       </c>
       <c r="C156" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D156" s="2">
         <v>45242.54166666666</v>
       </c>
       <c r="E156" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F156" t="s">
         <v>38</v>
@@ -13908,7 +13905,7 @@
         <v>2</v>
       </c>
       <c r="I156" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J156">
         <v>3.4</v>
@@ -13976,13 +13973,13 @@
         <v>6011527</v>
       </c>
       <c r="C157" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D157" s="2">
         <v>45242.54166666666</v>
       </c>
       <c r="E157" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F157" t="s">
         <v>37</v>
@@ -14062,7 +14059,7 @@
         <v>6008786</v>
       </c>
       <c r="C158" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D158" s="2">
         <v>45242.63541666666</v>
@@ -14071,7 +14068,7 @@
         <v>50</v>
       </c>
       <c r="F158" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G158">
         <v>4</v>
@@ -14145,82 +14142,82 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6011531</v>
+        <v>6011430</v>
       </c>
       <c r="C159" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D159" s="2">
         <v>45256.54166666666</v>
       </c>
       <c r="E159" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F159" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H159">
+        <v>1</v>
+      </c>
+      <c r="I159" t="s">
+        <v>55</v>
+      </c>
+      <c r="J159">
+        <v>1.533</v>
+      </c>
+      <c r="K159">
+        <v>4.333</v>
+      </c>
+      <c r="L159">
+        <v>5.5</v>
+      </c>
+      <c r="M159">
+        <v>1.615</v>
+      </c>
+      <c r="N159">
         <v>4</v>
       </c>
-      <c r="I159" t="s">
-        <v>56</v>
-      </c>
-      <c r="J159">
-        <v>4.75</v>
-      </c>
-      <c r="K159">
-        <v>4.5</v>
-      </c>
-      <c r="L159">
-        <v>1.571</v>
-      </c>
-      <c r="M159">
-        <v>3.6</v>
-      </c>
-      <c r="N159">
-        <v>4.2</v>
-      </c>
       <c r="O159">
+        <v>5.25</v>
+      </c>
+      <c r="P159">
+        <v>-0.75</v>
+      </c>
+      <c r="Q159">
+        <v>1.86</v>
+      </c>
+      <c r="R159">
+        <v>2.04</v>
+      </c>
+      <c r="S159">
+        <v>2.5</v>
+      </c>
+      <c r="T159">
+        <v>2</v>
+      </c>
+      <c r="U159">
         <v>1.85</v>
       </c>
-      <c r="P159">
-        <v>0.5</v>
-      </c>
-      <c r="Q159">
-        <v>2.07</v>
-      </c>
-      <c r="R159">
-        <v>1.83</v>
-      </c>
-      <c r="S159">
-        <v>3.25</v>
-      </c>
-      <c r="T159">
-        <v>1.95</v>
-      </c>
-      <c r="U159">
-        <v>1.9</v>
-      </c>
       <c r="V159">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="W159">
         <v>-1</v>
       </c>
       <c r="X159">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y159">
-        <v>-1</v>
+        <v>0.43</v>
       </c>
       <c r="Z159">
-        <v>0.8300000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA159">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB159">
         <v>-1</v>
@@ -14231,19 +14228,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6011430</v>
+        <v>6011533</v>
       </c>
       <c r="C160" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D160" s="2">
         <v>45256.54166666666</v>
       </c>
       <c r="E160" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F160" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G160">
         <v>2</v>
@@ -14255,43 +14252,43 @@
         <v>55</v>
       </c>
       <c r="J160">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="K160">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="L160">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M160">
-        <v>1.615</v>
+        <v>1.85</v>
       </c>
       <c r="N160">
         <v>4</v>
       </c>
       <c r="O160">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P160">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q160">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="R160">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="S160">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T160">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U160">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V160">
-        <v>0.615</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W160">
         <v>-1</v>
@@ -14300,16 +14297,16 @@
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>0.43</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="Z160">
+        <v>-1</v>
+      </c>
+      <c r="AA160">
+        <v>0.4375</v>
+      </c>
+      <c r="AB160">
         <v>-0.5</v>
-      </c>
-      <c r="AA160">
-        <v>1</v>
-      </c>
-      <c r="AB160">
-        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:28">
@@ -14317,85 +14314,85 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6011533</v>
+        <v>6011532</v>
       </c>
       <c r="C161" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D161" s="2">
         <v>45256.54166666666</v>
       </c>
       <c r="E161" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F161" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161">
         <v>2</v>
       </c>
-      <c r="H161">
-        <v>1</v>
-      </c>
       <c r="I161" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J161">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="K161">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L161">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="M161">
+        <v>4.2</v>
+      </c>
+      <c r="N161">
+        <v>3.6</v>
+      </c>
+      <c r="O161">
         <v>1.85</v>
       </c>
-      <c r="N161">
-        <v>4</v>
-      </c>
-      <c r="O161">
-        <v>3.8</v>
-      </c>
       <c r="P161">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q161">
-        <v>1.91</v>
+        <v>1.975</v>
       </c>
       <c r="R161">
-        <v>1.99</v>
+        <v>1.875</v>
       </c>
       <c r="S161">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T161">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U161">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V161">
+        <v>-1</v>
+      </c>
+      <c r="W161">
+        <v>-1</v>
+      </c>
+      <c r="X161">
         <v>0.8500000000000001</v>
       </c>
-      <c r="W161">
-        <v>-1</v>
-      </c>
-      <c r="X161">
-        <v>-1</v>
-      </c>
       <c r="Y161">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA161">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB161">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="162" spans="1:28">
@@ -14403,64 +14400,64 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6011532</v>
+        <v>6012007</v>
       </c>
       <c r="C162" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D162" s="2">
         <v>45256.54166666666</v>
       </c>
       <c r="E162" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F162" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I162" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J162">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="K162">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L162">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="M162">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="N162">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O162">
-        <v>1.85</v>
+        <v>3.8</v>
       </c>
       <c r="P162">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q162">
-        <v>1.975</v>
+        <v>1.93</v>
       </c>
       <c r="R162">
-        <v>1.875</v>
+        <v>1.97</v>
       </c>
       <c r="S162">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T162">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="U162">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V162">
         <v>-1</v>
@@ -14469,19 +14466,19 @@
         <v>-1</v>
       </c>
       <c r="X162">
-        <v>0.8500000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0.875</v>
+        <v>0.97</v>
       </c>
       <c r="AA162">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB162">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:28">
@@ -14489,82 +14486,82 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6012007</v>
+        <v>6012006</v>
       </c>
       <c r="C163" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D163" s="2">
         <v>45256.54166666666</v>
       </c>
       <c r="E163" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F163" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G163">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H163">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I163" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J163">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="K163">
         <v>4</v>
       </c>
       <c r="L163">
+        <v>2.9</v>
+      </c>
+      <c r="M163">
+        <v>1.95</v>
+      </c>
+      <c r="N163">
         <v>4.2</v>
       </c>
-      <c r="M163">
-        <v>1.909</v>
-      </c>
-      <c r="N163">
-        <v>3.8</v>
-      </c>
       <c r="O163">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P163">
         <v>-0.5</v>
       </c>
       <c r="Q163">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R163">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="S163">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T163">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U163">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V163">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="W163">
         <v>-1</v>
       </c>
       <c r="X163">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z163">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB163">
         <v>-1</v>
@@ -14575,82 +14572,82 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6012006</v>
+        <v>6011429</v>
       </c>
       <c r="C164" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D164" s="2">
         <v>45256.54166666666</v>
       </c>
       <c r="E164" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F164" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G164">
         <v>4</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I164" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J164">
-        <v>2.15</v>
+        <v>1.571</v>
       </c>
       <c r="K164">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L164">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="M164">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="N164">
         <v>4.2</v>
       </c>
       <c r="O164">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="P164">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q164">
+        <v>1.83</v>
+      </c>
+      <c r="R164">
+        <v>2.07</v>
+      </c>
+      <c r="S164">
+        <v>2.75</v>
+      </c>
+      <c r="T164">
+        <v>1.95</v>
+      </c>
+      <c r="U164">
         <v>1.9</v>
       </c>
-      <c r="R164">
-        <v>1.95</v>
-      </c>
-      <c r="S164">
-        <v>3.5</v>
-      </c>
-      <c r="T164">
-        <v>1.975</v>
-      </c>
-      <c r="U164">
-        <v>1.875</v>
-      </c>
       <c r="V164">
+        <v>-1</v>
+      </c>
+      <c r="W164">
+        <v>3.2</v>
+      </c>
+      <c r="X164">
+        <v>-1</v>
+      </c>
+      <c r="Y164">
+        <v>-1</v>
+      </c>
+      <c r="Z164">
+        <v>1.07</v>
+      </c>
+      <c r="AA164">
         <v>0.95</v>
-      </c>
-      <c r="W164">
-        <v>-1</v>
-      </c>
-      <c r="X164">
-        <v>-1</v>
-      </c>
-      <c r="Y164">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="Z164">
-        <v>-1</v>
-      </c>
-      <c r="AA164">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AB164">
         <v>-1</v>
@@ -14661,58 +14658,58 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6011429</v>
+        <v>6011531</v>
       </c>
       <c r="C165" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D165" s="2">
         <v>45256.54166666666</v>
       </c>
       <c r="E165" t="s">
+        <v>37</v>
+      </c>
+      <c r="F165" t="s">
         <v>42</v>
       </c>
-      <c r="F165" t="s">
-        <v>47</v>
-      </c>
       <c r="G165">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H165">
         <v>4</v>
       </c>
       <c r="I165" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J165">
+        <v>4.75</v>
+      </c>
+      <c r="K165">
+        <v>4.5</v>
+      </c>
+      <c r="L165">
         <v>1.571</v>
       </c>
-      <c r="K165">
-        <v>4.2</v>
-      </c>
-      <c r="L165">
-        <v>5.25</v>
-      </c>
       <c r="M165">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="N165">
         <v>4.2</v>
       </c>
       <c r="O165">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="P165">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q165">
+        <v>2.07</v>
+      </c>
+      <c r="R165">
         <v>1.83</v>
       </c>
-      <c r="R165">
-        <v>2.07</v>
-      </c>
       <c r="S165">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T165">
         <v>1.95</v>
@@ -14724,16 +14721,16 @@
         <v>-1</v>
       </c>
       <c r="W165">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X165">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>1.07</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA165">
         <v>0.95</v>
@@ -14750,13 +14747,13 @@
         <v>6008787</v>
       </c>
       <c r="C166" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D166" s="2">
         <v>45256.54166666666</v>
       </c>
       <c r="E166" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F166" t="s">
         <v>50</v>
@@ -14768,7 +14765,7 @@
         <v>3</v>
       </c>
       <c r="I166" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J166">
         <v>2.5</v>
@@ -14836,13 +14833,13 @@
         <v>6390526</v>
       </c>
       <c r="C167" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D167" s="2">
         <v>45263.54166666666</v>
       </c>
       <c r="E167" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F167" t="s">
         <v>36</v>
@@ -14854,7 +14851,7 @@
         <v>5</v>
       </c>
       <c r="I167" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J167">
         <v>1.4</v>
@@ -14922,16 +14919,16 @@
         <v>6390445</v>
       </c>
       <c r="C168" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D168" s="2">
         <v>45263.54166666666</v>
       </c>
       <c r="E168" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F168" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G168">
         <v>3</v>
@@ -15008,7 +15005,7 @@
         <v>6390446</v>
       </c>
       <c r="C169" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D169" s="2">
         <v>45263.54166666666</v>
@@ -15017,7 +15014,7 @@
         <v>39</v>
       </c>
       <c r="F169" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G169">
         <v>1</v>
@@ -15094,13 +15091,13 @@
         <v>6011535</v>
       </c>
       <c r="C170" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D170" s="2">
         <v>45263.54166666666</v>
       </c>
       <c r="E170" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F170" t="s">
         <v>37</v>
@@ -15180,16 +15177,16 @@
         <v>6011940</v>
       </c>
       <c r="C171" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D171" s="2">
         <v>45263.54166666666</v>
       </c>
       <c r="E171" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F171" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G171">
         <v>2</v>
@@ -15266,7 +15263,7 @@
         <v>6011534</v>
       </c>
       <c r="C172" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D172" s="2">
         <v>45263.54166666666</v>
@@ -15275,7 +15272,7 @@
         <v>50</v>
       </c>
       <c r="F172" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G172">
         <v>1</v>
@@ -15284,7 +15281,7 @@
         <v>1</v>
       </c>
       <c r="I172" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J172">
         <v>1.25</v>
@@ -15352,16 +15349,16 @@
         <v>6012008</v>
       </c>
       <c r="C173" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D173" s="2">
         <v>45263.54166666666</v>
       </c>
       <c r="E173" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F173" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G173">
         <v>3</v>
@@ -15438,7 +15435,7 @@
         <v>6012013</v>
       </c>
       <c r="C174" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D174" s="2">
         <v>45263.54166666666</v>
@@ -15456,7 +15453,7 @@
         <v>1</v>
       </c>
       <c r="I174" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J174">
         <v>2.5</v>
@@ -15524,16 +15521,16 @@
         <v>7617317</v>
       </c>
       <c r="C175" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D175" s="2">
         <v>45382.54166666666</v>
       </c>
       <c r="E175" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F175" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -15542,7 +15539,7 @@
         <v>2</v>
       </c>
       <c r="I175" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J175">
         <v>2.05</v>
@@ -15610,16 +15607,16 @@
         <v>7616736</v>
       </c>
       <c r="C176" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D176" s="2">
         <v>45383.39583333334</v>
       </c>
       <c r="E176" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F176" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G176">
         <v>0</v>
@@ -15628,7 +15625,7 @@
         <v>2</v>
       </c>
       <c r="I176" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J176">
         <v>5</v>
@@ -15696,16 +15693,16 @@
         <v>7617318</v>
       </c>
       <c r="C177" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D177" s="2">
         <v>45383.5</v>
       </c>
       <c r="E177" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F177" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G177">
         <v>2</v>
@@ -15714,7 +15711,7 @@
         <v>3</v>
       </c>
       <c r="I177" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J177">
         <v>1.6</v>
@@ -15782,7 +15779,7 @@
         <v>7617319</v>
       </c>
       <c r="C178" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D178" s="2">
         <v>45383.5</v>
@@ -15791,7 +15788,7 @@
         <v>50</v>
       </c>
       <c r="F178" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G178">
         <v>4</v>
@@ -15868,7 +15865,7 @@
         <v>7617320</v>
       </c>
       <c r="C179" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D179" s="2">
         <v>45383.5</v>
@@ -15954,7 +15951,7 @@
         <v>7617321</v>
       </c>
       <c r="C180" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D180" s="2">
         <v>45383.5</v>
@@ -15963,7 +15960,7 @@
         <v>38</v>
       </c>
       <c r="F180" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G180">
         <v>2</v>
@@ -15972,7 +15969,7 @@
         <v>4</v>
       </c>
       <c r="I180" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J180">
         <v>3.1</v>
@@ -16040,16 +16037,16 @@
         <v>7617322</v>
       </c>
       <c r="C181" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D181" s="2">
         <v>45383.59375</v>
       </c>
       <c r="E181" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F181" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G181">
         <v>1</v>
@@ -16126,16 +16123,16 @@
         <v>7617323</v>
       </c>
       <c r="C182" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D182" s="2">
         <v>45384.58333333334</v>
       </c>
       <c r="E182" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F182" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -16144,7 +16141,7 @@
         <v>1</v>
       </c>
       <c r="I182" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J182">
         <v>2.5</v>
@@ -16212,16 +16209,16 @@
         <v>7616737</v>
       </c>
       <c r="C183" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D183" s="2">
         <v>45388.54166666666</v>
       </c>
       <c r="E183" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F183" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G183">
         <v>1</v>
@@ -16298,16 +16295,16 @@
         <v>7617324</v>
       </c>
       <c r="C184" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D184" s="2">
         <v>45389.39583333334</v>
       </c>
       <c r="E184" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F184" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -16316,7 +16313,7 @@
         <v>1</v>
       </c>
       <c r="I184" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J184">
         <v>2.375</v>
@@ -16381,19 +16378,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7617328</v>
+        <v>7617325</v>
       </c>
       <c r="C185" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D185" s="2">
         <v>45389.5</v>
       </c>
       <c r="E185" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F185" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -16402,43 +16399,43 @@
         <v>1</v>
       </c>
       <c r="I185" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J185">
+        <v>4.8</v>
+      </c>
+      <c r="K185">
+        <v>4.5</v>
+      </c>
+      <c r="L185">
         <v>1.571</v>
       </c>
-      <c r="K185">
-        <v>4.333</v>
-      </c>
-      <c r="L185">
-        <v>5</v>
-      </c>
       <c r="M185">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="N185">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O185">
-        <v>4.333</v>
+        <v>1.666</v>
       </c>
       <c r="P185">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="Q185">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="R185">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S185">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T185">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U185">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V185">
         <v>-1</v>
@@ -16447,19 +16444,19 @@
         <v>-1</v>
       </c>
       <c r="X185">
-        <v>3.333</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y185">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z185">
-        <v>0.875</v>
+        <v>0.4125</v>
       </c>
       <c r="AA185">
         <v>-1</v>
       </c>
       <c r="AB185">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="186" spans="1:28">
@@ -16467,64 +16464,64 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7617325</v>
+        <v>7617326</v>
       </c>
       <c r="C186" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D186" s="2">
         <v>45389.5</v>
       </c>
       <c r="E186" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F186" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G186">
         <v>0</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I186" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J186">
-        <v>4.8</v>
+        <v>2.4</v>
       </c>
       <c r="K186">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="L186">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="M186">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="N186">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="O186">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="P186">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q186">
-        <v>2.025</v>
+        <v>1.87</v>
       </c>
       <c r="R186">
-        <v>1.825</v>
+        <v>2.03</v>
       </c>
       <c r="S186">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T186">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U186">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V186">
         <v>-1</v>
@@ -16533,19 +16530,19 @@
         <v>-1</v>
       </c>
       <c r="X186">
-        <v>0.6659999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="Y186">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
-        <v>0.4125</v>
+        <v>1.03</v>
       </c>
       <c r="AA186">
         <v>-1</v>
       </c>
       <c r="AB186">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="187" spans="1:28">
@@ -16553,64 +16550,64 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7617326</v>
+        <v>7617328</v>
       </c>
       <c r="C187" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D187" s="2">
         <v>45389.5</v>
       </c>
       <c r="E187" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F187" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G187">
         <v>0</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J187">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="K187">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="L187">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="M187">
+        <v>1.75</v>
+      </c>
+      <c r="N187">
+        <v>4</v>
+      </c>
+      <c r="O187">
+        <v>4.333</v>
+      </c>
+      <c r="P187">
+        <v>-0.75</v>
+      </c>
+      <c r="Q187">
+        <v>1.975</v>
+      </c>
+      <c r="R187">
+        <v>1.875</v>
+      </c>
+      <c r="S187">
         <v>3</v>
       </c>
-      <c r="N187">
-        <v>3.5</v>
-      </c>
-      <c r="O187">
-        <v>2.3</v>
-      </c>
-      <c r="P187">
-        <v>0.25</v>
-      </c>
-      <c r="Q187">
-        <v>1.87</v>
-      </c>
-      <c r="R187">
-        <v>2.03</v>
-      </c>
-      <c r="S187">
-        <v>2.5</v>
-      </c>
       <c r="T187">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U187">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V187">
         <v>-1</v>
@@ -16619,19 +16616,19 @@
         <v>-1</v>
       </c>
       <c r="X187">
-        <v>1.3</v>
+        <v>3.333</v>
       </c>
       <c r="Y187">
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>1.03</v>
+        <v>0.875</v>
       </c>
       <c r="AA187">
         <v>-1</v>
       </c>
       <c r="AB187">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="188" spans="1:28">
@@ -16642,13 +16639,13 @@
         <v>7617329</v>
       </c>
       <c r="C188" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D188" s="2">
         <v>45389.5</v>
       </c>
       <c r="E188" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F188" t="s">
         <v>36</v>
@@ -16728,16 +16725,16 @@
         <v>7617330</v>
       </c>
       <c r="C189" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D189" s="2">
         <v>45389.59375</v>
       </c>
       <c r="E189" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F189" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G189">
         <v>0</v>
@@ -16746,7 +16743,7 @@
         <v>2</v>
       </c>
       <c r="I189" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J189">
         <v>1.4</v>
@@ -16814,16 +16811,16 @@
         <v>7617331</v>
       </c>
       <c r="C190" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D190" s="2">
         <v>45395.54166666666</v>
       </c>
       <c r="E190" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F190" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G190">
         <v>2</v>
@@ -16832,7 +16829,7 @@
         <v>2</v>
       </c>
       <c r="I190" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J190">
         <v>2.5</v>
@@ -16900,16 +16897,16 @@
         <v>7617332</v>
       </c>
       <c r="C191" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D191" s="2">
         <v>45396.39583333334</v>
       </c>
       <c r="E191" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F191" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -16918,7 +16915,7 @@
         <v>1</v>
       </c>
       <c r="I191" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J191">
         <v>2.5</v>
@@ -16986,7 +16983,7 @@
         <v>7617335</v>
       </c>
       <c r="C192" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D192" s="2">
         <v>45396.5</v>
@@ -16995,7 +16992,7 @@
         <v>36</v>
       </c>
       <c r="F192" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G192">
         <v>1</v>
@@ -17072,7 +17069,7 @@
         <v>7617336</v>
       </c>
       <c r="C193" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D193" s="2">
         <v>45396.5</v>
@@ -17081,7 +17078,7 @@
         <v>38</v>
       </c>
       <c r="F193" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -17090,7 +17087,7 @@
         <v>1</v>
       </c>
       <c r="I193" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J193">
         <v>1.666</v>
@@ -17158,7 +17155,7 @@
         <v>7617333</v>
       </c>
       <c r="C194" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D194" s="2">
         <v>45396.5</v>
@@ -17167,7 +17164,7 @@
         <v>50</v>
       </c>
       <c r="F194" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G194">
         <v>2</v>
@@ -17244,13 +17241,13 @@
         <v>7617334</v>
       </c>
       <c r="C195" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D195" s="2">
         <v>45396.5</v>
       </c>
       <c r="E195" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F195" t="s">
         <v>39</v>
@@ -17262,7 +17259,7 @@
         <v>2</v>
       </c>
       <c r="I195" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J195">
         <v>1.75</v>
@@ -17330,16 +17327,16 @@
         <v>7616738</v>
       </c>
       <c r="C196" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D196" s="2">
         <v>45396.59375</v>
       </c>
       <c r="E196" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F196" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G196">
         <v>0</v>
@@ -17348,7 +17345,7 @@
         <v>5</v>
       </c>
       <c r="I196" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J196">
         <v>4</v>
@@ -17416,16 +17413,16 @@
         <v>7617337</v>
       </c>
       <c r="C197" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D197" s="2">
         <v>45398.58333333334</v>
       </c>
       <c r="E197" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F197" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G197">
         <v>1</v>
@@ -17434,7 +17431,7 @@
         <v>3</v>
       </c>
       <c r="I197" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J197">
         <v>2.6</v>
@@ -17502,7 +17499,7 @@
         <v>7617429</v>
       </c>
       <c r="C198" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D198" s="2">
         <v>45399.54166666666</v>
@@ -17511,7 +17508,7 @@
         <v>50</v>
       </c>
       <c r="F198" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G198">
         <v>1</v>
@@ -17520,7 +17517,7 @@
         <v>2</v>
       </c>
       <c r="I198" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J198">
         <v>1.4</v>
@@ -17588,16 +17585,16 @@
         <v>7617422</v>
       </c>
       <c r="C199" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D199" s="2">
         <v>45399.54166666666</v>
       </c>
       <c r="E199" t="s">
+        <v>48</v>
+      </c>
+      <c r="F199" t="s">
         <v>49</v>
-      </c>
-      <c r="F199" t="s">
-        <v>51</v>
       </c>
       <c r="G199">
         <v>1</v>
@@ -17674,16 +17671,16 @@
         <v>7617338</v>
       </c>
       <c r="C200" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D200" s="2">
         <v>45403.39583333334</v>
       </c>
       <c r="E200" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F200" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G200">
         <v>0</v>
@@ -17692,7 +17689,7 @@
         <v>1</v>
       </c>
       <c r="I200" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J200">
         <v>2.6</v>
@@ -17760,16 +17757,16 @@
         <v>7617339</v>
       </c>
       <c r="C201" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D201" s="2">
         <v>45403.5</v>
       </c>
       <c r="E201" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F201" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G201">
         <v>2</v>
@@ -17846,7 +17843,7 @@
         <v>7617342</v>
       </c>
       <c r="C202" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D202" s="2">
         <v>45403.5</v>
@@ -17855,7 +17852,7 @@
         <v>39</v>
       </c>
       <c r="F202" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -17864,7 +17861,7 @@
         <v>1</v>
       </c>
       <c r="I202" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J202">
         <v>3.2</v>
@@ -17932,13 +17929,13 @@
         <v>7617340</v>
       </c>
       <c r="C203" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D203" s="2">
         <v>45403.5</v>
       </c>
       <c r="E203" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F203" t="s">
         <v>36</v>
@@ -17950,7 +17947,7 @@
         <v>3</v>
       </c>
       <c r="I203" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J203">
         <v>3</v>
@@ -18018,16 +18015,16 @@
         <v>7617344</v>
       </c>
       <c r="C204" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D204" s="2">
         <v>45403.5</v>
       </c>
       <c r="E204" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F204" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G204">
         <v>1</v>
@@ -18036,7 +18033,7 @@
         <v>1</v>
       </c>
       <c r="I204" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J204">
         <v>1.6</v>
@@ -18104,16 +18101,16 @@
         <v>7617343</v>
       </c>
       <c r="C205" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D205" s="2">
         <v>45403.5</v>
       </c>
       <c r="E205" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F205" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G205">
         <v>0</v>
@@ -18122,7 +18119,7 @@
         <v>2</v>
       </c>
       <c r="I205" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J205">
         <v>1.571</v>
@@ -18190,13 +18187,13 @@
         <v>7617341</v>
       </c>
       <c r="C206" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D206" s="2">
         <v>45403.5</v>
       </c>
       <c r="E206" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F206" t="s">
         <v>38</v>
@@ -18276,13 +18273,13 @@
         <v>7616739</v>
       </c>
       <c r="C207" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D207" s="2">
         <v>45403.59375</v>
       </c>
       <c r="E207" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F207" t="s">
         <v>50</v>
@@ -18294,7 +18291,7 @@
         <v>1</v>
       </c>
       <c r="I207" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J207">
         <v>1.909</v>
@@ -18362,52 +18359,52 @@
         <v>27</v>
       </c>
       <c r="C208" t="s">
+        <v>34</v>
+      </c>
+      <c r="D208" s="2">
+        <v>45410.5</v>
+      </c>
+      <c r="E208" t="s">
         <v>35</v>
       </c>
-      <c r="D208" s="2">
-        <v>45409.54166666666</v>
-      </c>
-      <c r="E208" t="s">
-        <v>36</v>
-      </c>
       <c r="F208" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J208">
+        <v>1.909</v>
+      </c>
+      <c r="K208">
+        <v>3.6</v>
+      </c>
+      <c r="L208">
+        <v>3.8</v>
+      </c>
+      <c r="M208">
+        <v>1.666</v>
+      </c>
+      <c r="N208">
         <v>3.75</v>
       </c>
-      <c r="K208">
-        <v>3.9</v>
-      </c>
-      <c r="L208">
-        <v>1.85</v>
-      </c>
-      <c r="M208">
-        <v>4.333</v>
-      </c>
-      <c r="N208">
-        <v>3.8</v>
-      </c>
       <c r="O208">
-        <v>1.75</v>
+        <v>5.25</v>
       </c>
       <c r="P208">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="Q208">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="R208">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S208">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T208">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U208">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V208">
         <v>0</v>
@@ -18427,7 +18424,7 @@
         <v>28</v>
       </c>
       <c r="C209" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D209" s="2">
         <v>45410.5</v>
@@ -18436,7 +18433,7 @@
         <v>38</v>
       </c>
       <c r="F209" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J209">
         <v>2</v>
@@ -18448,7 +18445,7 @@
         <v>3.5</v>
       </c>
       <c r="M209">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N209">
         <v>3.6</v>
@@ -18460,19 +18457,19 @@
         <v>-0.5</v>
       </c>
       <c r="Q209">
-        <v>2.01</v>
+        <v>2.03</v>
       </c>
       <c r="R209">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="S209">
         <v>2.75</v>
       </c>
       <c r="T209">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="U209">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V209">
         <v>0</v>
@@ -18492,52 +18489,52 @@
         <v>29</v>
       </c>
       <c r="C210" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D210" s="2">
         <v>45410.5</v>
       </c>
       <c r="E210" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F210" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J210">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="K210">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="L210">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="M210">
-        <v>1.25</v>
+        <v>1.85</v>
       </c>
       <c r="N210">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="O210">
-        <v>13</v>
+        <v>4.2</v>
       </c>
       <c r="P210">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q210">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R210">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="S210">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T210">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="U210">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V210">
         <v>0</v>
@@ -18557,52 +18554,52 @@
         <v>30</v>
       </c>
       <c r="C211" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D211" s="2">
         <v>45410.5</v>
       </c>
       <c r="E211" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F211" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J211">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="K211">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="L211">
-        <v>3.8</v>
+        <v>1.727</v>
       </c>
       <c r="M211">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="N211">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="O211">
-        <v>4.5</v>
+        <v>1.727</v>
       </c>
       <c r="P211">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="Q211">
-        <v>2.06</v>
+        <v>1.92</v>
       </c>
       <c r="R211">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="S211">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T211">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U211">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V211">
         <v>0</v>
@@ -18622,52 +18619,52 @@
         <v>31</v>
       </c>
       <c r="C212" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D212" s="2">
         <v>45410.5</v>
       </c>
       <c r="E212" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F212" t="s">
         <v>49</v>
       </c>
       <c r="J212">
-        <v>4.2</v>
+        <v>1.615</v>
       </c>
       <c r="K212">
         <v>4.1</v>
       </c>
       <c r="L212">
-        <v>1.727</v>
+        <v>5</v>
       </c>
       <c r="M212">
-        <v>4.5</v>
+        <v>1.533</v>
       </c>
       <c r="N212">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="O212">
-        <v>1.615</v>
+        <v>5.75</v>
       </c>
       <c r="P212">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q212">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
       <c r="R212">
-        <v>2.09</v>
+        <v>1.95</v>
       </c>
       <c r="S212">
         <v>2.75</v>
       </c>
       <c r="T212">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="U212">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V212">
         <v>0</v>
@@ -18687,52 +18684,52 @@
         <v>32</v>
       </c>
       <c r="C213" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D213" s="2">
         <v>45410.5</v>
       </c>
       <c r="E213" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F213" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J213">
-        <v>1.615</v>
+        <v>1.3</v>
       </c>
       <c r="K213">
-        <v>4.1</v>
+        <v>5.5</v>
       </c>
       <c r="L213">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M213">
-        <v>1.533</v>
+        <v>1.25</v>
       </c>
       <c r="N213">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="O213">
-        <v>5.75</v>
+        <v>12</v>
       </c>
       <c r="P213">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="Q213">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="R213">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="S213">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T213">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U213">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V213">
         <v>0</v>
@@ -18752,52 +18749,52 @@
         <v>33</v>
       </c>
       <c r="C214" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D214" s="2">
-        <v>45410.5</v>
+        <v>45410.59375</v>
       </c>
       <c r="E214" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F214" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J214">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="K214">
         <v>3.6</v>
       </c>
       <c r="L214">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="M214">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="N214">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O214">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="P214">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q214">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="R214">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="S214">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T214">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U214">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V214">
         <v>0</v>
@@ -18806,71 +18803,6 @@
         <v>0</v>
       </c>
       <c r="X214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:24">
-      <c r="A215" s="1">
-        <v>213</v>
-      </c>
-      <c r="B215" t="s">
-        <v>34</v>
-      </c>
-      <c r="C215" t="s">
-        <v>35</v>
-      </c>
-      <c r="D215" s="2">
-        <v>45410.59375</v>
-      </c>
-      <c r="E215" t="s">
-        <v>47</v>
-      </c>
-      <c r="F215" t="s">
-        <v>43</v>
-      </c>
-      <c r="J215">
-        <v>2.875</v>
-      </c>
-      <c r="K215">
-        <v>3.6</v>
-      </c>
-      <c r="L215">
-        <v>2.3</v>
-      </c>
-      <c r="M215">
-        <v>3.2</v>
-      </c>
-      <c r="N215">
-        <v>3.5</v>
-      </c>
-      <c r="O215">
-        <v>2.2</v>
-      </c>
-      <c r="P215">
-        <v>0.25</v>
-      </c>
-      <c r="Q215">
-        <v>1.98</v>
-      </c>
-      <c r="R215">
-        <v>1.92</v>
-      </c>
-      <c r="S215">
-        <v>2.5</v>
-      </c>
-      <c r="T215">
-        <v>1.825</v>
-      </c>
-      <c r="U215">
-        <v>2.025</v>
-      </c>
-      <c r="V215">
-        <v>0</v>
-      </c>
-      <c r="W215">
-        <v>0</v>
-      </c>
-      <c r="X215">
         <v>0</v>
       </c>
     </row>

--- a/Norway Eliteserien/Norway Eliteserien.xlsx
+++ b/Norway Eliteserien/Norway Eliteserien.xlsx
@@ -106,16 +106,16 @@
     <t>7617356</t>
   </si>
   <si>
-    <t>7617354</t>
+    <t>7617355</t>
   </si>
   <si>
-    <t>7617353</t>
+    <t>7617354</t>
   </si>
   <si>
     <t>7616741</t>
   </si>
   <si>
-    <t>7617355</t>
+    <t>7617353</t>
   </si>
   <si>
     <t>7617358</t>
@@ -166,10 +166,10 @@
     <t>SK Brann</t>
   </si>
   <si>
-    <t>Molde</t>
+    <t>HamKam</t>
   </si>
   <si>
-    <t>HamKam</t>
+    <t>Molde</t>
   </si>
   <si>
     <t>Fredrikstad</t>
@@ -1171,7 +1171,7 @@
         <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -1257,7 +1257,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1515,7 +1515,7 @@
         <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1687,7 +1687,7 @@
         <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -2277,7 +2277,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6008771</v>
+        <v>6011397</v>
       </c>
       <c r="C21" t="s">
         <v>35</v>
@@ -2289,73 +2289,73 @@
         <v>50</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <v>1</v>
       </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
       <c r="I21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J21">
-        <v>1.2</v>
+        <v>2.375</v>
       </c>
       <c r="K21">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="L21">
-        <v>11</v>
+        <v>2.9</v>
       </c>
       <c r="M21">
-        <v>1.25</v>
+        <v>2.4</v>
       </c>
       <c r="N21">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="O21">
-        <v>10</v>
+        <v>2.875</v>
       </c>
       <c r="P21">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q21">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="R21">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="S21">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T21">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="U21">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V21">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="22" spans="1:28">
@@ -2363,7 +2363,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6011397</v>
+        <v>6008771</v>
       </c>
       <c r="C22" t="s">
         <v>35</v>
@@ -2375,73 +2375,73 @@
         <v>51</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
         <v>0</v>
       </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
       <c r="I22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J22">
-        <v>2.375</v>
+        <v>1.2</v>
       </c>
       <c r="K22">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="L22">
-        <v>2.9</v>
+        <v>11</v>
       </c>
       <c r="M22">
-        <v>2.4</v>
+        <v>1.25</v>
       </c>
       <c r="N22">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="O22">
-        <v>2.875</v>
+        <v>10</v>
       </c>
       <c r="P22">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="Q22">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="R22">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="S22">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T22">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="U22">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V22">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA22">
         <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -2621,7 +2621,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6011484</v>
+        <v>6011485</v>
       </c>
       <c r="C25" t="s">
         <v>35</v>
@@ -2630,40 +2630,40 @@
         <v>45109.5</v>
       </c>
       <c r="E25" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
         <v>1</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
       </c>
       <c r="I25" t="s">
         <v>56</v>
       </c>
       <c r="J25">
-        <v>3.2</v>
+        <v>1.25</v>
       </c>
       <c r="K25">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="L25">
-        <v>2.2</v>
+        <v>10</v>
       </c>
       <c r="M25">
-        <v>3.2</v>
+        <v>1.333</v>
       </c>
       <c r="N25">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="O25">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="P25">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q25">
         <v>1.925</v>
@@ -2672,16 +2672,16 @@
         <v>1.925</v>
       </c>
       <c r="S25">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T25">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U25">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V25">
-        <v>2.2</v>
+        <v>0.333</v>
       </c>
       <c r="W25">
         <v>-1</v>
@@ -2690,16 +2690,16 @@
         <v>-1</v>
       </c>
       <c r="Y25">
+        <v>-1</v>
+      </c>
+      <c r="Z25">
         <v>0.925</v>
       </c>
-      <c r="Z25">
-        <v>-1</v>
-      </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB25">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="26" spans="1:28">
@@ -2707,7 +2707,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6011486</v>
+        <v>6011484</v>
       </c>
       <c r="C26" t="s">
         <v>35</v>
@@ -2716,58 +2716,58 @@
         <v>45109.5</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G26">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="s">
         <v>56</v>
       </c>
       <c r="J26">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="K26">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="L26">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="M26">
-        <v>1.333</v>
+        <v>3.2</v>
       </c>
       <c r="N26">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="O26">
-        <v>8</v>
+        <v>2.2</v>
       </c>
       <c r="P26">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q26">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="R26">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S26">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="T26">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U26">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V26">
-        <v>0.333</v>
+        <v>2.2</v>
       </c>
       <c r="W26">
         <v>-1</v>
@@ -2776,16 +2776,16 @@
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="27" spans="1:28">
@@ -2793,7 +2793,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6011485</v>
+        <v>6011486</v>
       </c>
       <c r="C27" t="s">
         <v>35</v>
@@ -2802,13 +2802,13 @@
         <v>45109.5</v>
       </c>
       <c r="E27" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F27" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -2817,40 +2817,40 @@
         <v>56</v>
       </c>
       <c r="J27">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="K27">
+        <v>4.5</v>
+      </c>
+      <c r="L27">
         <v>6</v>
-      </c>
-      <c r="L27">
-        <v>10</v>
       </c>
       <c r="M27">
         <v>1.333</v>
       </c>
       <c r="N27">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="O27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P27">
         <v>-1.5</v>
       </c>
       <c r="Q27">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="R27">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S27">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="T27">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U27">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V27">
         <v>0.333</v>
@@ -2862,16 +2862,16 @@
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z27">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB27">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -3063,7 +3063,7 @@
         <v>47</v>
       </c>
       <c r="F30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3232,7 +3232,7 @@
         <v>45114.58333333334</v>
       </c>
       <c r="E32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F32" t="s">
         <v>39</v>
@@ -3481,7 +3481,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6011489</v>
+        <v>6011401</v>
       </c>
       <c r="C35" t="s">
         <v>35</v>
@@ -3490,10 +3490,10 @@
         <v>45116.5</v>
       </c>
       <c r="E35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3505,61 +3505,61 @@
         <v>57</v>
       </c>
       <c r="J35">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="K35">
         <v>3.3</v>
       </c>
       <c r="L35">
+        <v>2.875</v>
+      </c>
+      <c r="M35">
+        <v>1.95</v>
+      </c>
+      <c r="N35">
+        <v>3.6</v>
+      </c>
+      <c r="O35">
+        <v>3.8</v>
+      </c>
+      <c r="P35">
+        <v>-0.5</v>
+      </c>
+      <c r="Q35">
+        <v>1.925</v>
+      </c>
+      <c r="R35">
+        <v>1.925</v>
+      </c>
+      <c r="S35">
         <v>2.5</v>
       </c>
-      <c r="M35">
-        <v>2.75</v>
-      </c>
-      <c r="N35">
-        <v>3.2</v>
-      </c>
-      <c r="O35">
-        <v>2.7</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>1.94</v>
-      </c>
-      <c r="R35">
-        <v>1.96</v>
-      </c>
-      <c r="S35">
-        <v>2.25</v>
-      </c>
       <c r="T35">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U35">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V35">
         <v>-1</v>
       </c>
       <c r="W35">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA35">
         <v>-1</v>
       </c>
       <c r="AB35">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:28">
@@ -3567,7 +3567,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6011987</v>
+        <v>6011932</v>
       </c>
       <c r="C36" t="s">
         <v>35</v>
@@ -3576,76 +3576,76 @@
         <v>45116.5</v>
       </c>
       <c r="E36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H36">
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J36">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="K36">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L36">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="M36">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="N36">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O36">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="P36">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q36">
+        <v>1.85</v>
+      </c>
+      <c r="R36">
         <v>2.05</v>
       </c>
-      <c r="R36">
-        <v>1.8</v>
-      </c>
       <c r="S36">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="T36">
+        <v>2</v>
+      </c>
+      <c r="U36">
         <v>1.85</v>
       </c>
-      <c r="U36">
-        <v>2</v>
-      </c>
       <c r="V36">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z36">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="AB36">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:28">
@@ -3653,7 +3653,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6011932</v>
+        <v>6011987</v>
       </c>
       <c r="C37" t="s">
         <v>35</v>
@@ -3662,76 +3662,76 @@
         <v>45116.5</v>
       </c>
       <c r="E37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F37" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G37">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H37">
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J37">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="K37">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L37">
+        <v>3.25</v>
+      </c>
+      <c r="M37">
         <v>2.25</v>
       </c>
-      <c r="M37">
-        <v>3.3</v>
-      </c>
       <c r="N37">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O37">
+        <v>3</v>
+      </c>
+      <c r="P37">
+        <v>-0.25</v>
+      </c>
+      <c r="Q37">
         <v>2.05</v>
       </c>
-      <c r="P37">
-        <v>0.5</v>
-      </c>
-      <c r="Q37">
+      <c r="R37">
+        <v>1.8</v>
+      </c>
+      <c r="S37">
+        <v>2.75</v>
+      </c>
+      <c r="T37">
         <v>1.85</v>
       </c>
-      <c r="R37">
-        <v>2.05</v>
-      </c>
-      <c r="S37">
-        <v>3.5</v>
-      </c>
-      <c r="T37">
+      <c r="U37">
         <v>2</v>
       </c>
-      <c r="U37">
-        <v>1.85</v>
-      </c>
       <c r="V37">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y37">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA37">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="38" spans="1:28">
@@ -3739,7 +3739,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6011401</v>
+        <v>6011489</v>
       </c>
       <c r="C38" t="s">
         <v>35</v>
@@ -3748,10 +3748,10 @@
         <v>45116.5</v>
       </c>
       <c r="E38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3763,61 +3763,61 @@
         <v>57</v>
       </c>
       <c r="J38">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="K38">
         <v>3.3</v>
       </c>
       <c r="L38">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="M38">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="N38">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O38">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="P38">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>1.925</v>
+        <v>1.94</v>
       </c>
       <c r="R38">
-        <v>1.925</v>
+        <v>1.96</v>
       </c>
       <c r="S38">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T38">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U38">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V38">
         <v>-1</v>
       </c>
       <c r="W38">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:28">
@@ -3834,7 +3834,7 @@
         <v>45116.59375</v>
       </c>
       <c r="E39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F39" t="s">
         <v>49</v>
@@ -3923,7 +3923,7 @@
         <v>36</v>
       </c>
       <c r="F40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6011491</v>
+        <v>6011403</v>
       </c>
       <c r="C41" t="s">
         <v>35</v>
@@ -4006,49 +4006,49 @@
         <v>45123.5</v>
       </c>
       <c r="E41" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F41" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G41">
         <v>2</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J41">
-        <v>1.444</v>
+        <v>1.95</v>
       </c>
       <c r="K41">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="L41">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="M41">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="N41">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="O41">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="P41">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q41">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="R41">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S41">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="T41">
         <v>1.95</v>
@@ -4057,19 +4057,19 @@
         <v>1.9</v>
       </c>
       <c r="V41">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W41">
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z41">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
         <v>0.95</v>
@@ -4083,7 +4083,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6011403</v>
+        <v>6011491</v>
       </c>
       <c r="C42" t="s">
         <v>35</v>
@@ -4092,49 +4092,49 @@
         <v>45123.5</v>
       </c>
       <c r="E42" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G42">
         <v>2</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J42">
-        <v>1.95</v>
+        <v>1.444</v>
       </c>
       <c r="K42">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="M42">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="N42">
+        <v>5.25</v>
+      </c>
+      <c r="O42">
+        <v>8</v>
+      </c>
+      <c r="P42">
+        <v>-1.5</v>
+      </c>
+      <c r="Q42">
+        <v>1.925</v>
+      </c>
+      <c r="R42">
+        <v>1.925</v>
+      </c>
+      <c r="S42">
         <v>3.5</v>
-      </c>
-      <c r="O42">
-        <v>3.4</v>
-      </c>
-      <c r="P42">
-        <v>-0.25</v>
-      </c>
-      <c r="Q42">
-        <v>1.8</v>
-      </c>
-      <c r="R42">
-        <v>2.05</v>
-      </c>
-      <c r="S42">
-        <v>2.5</v>
       </c>
       <c r="T42">
         <v>1.95</v>
@@ -4143,19 +4143,19 @@
         <v>1.9</v>
       </c>
       <c r="V42">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="W42">
         <v>-1</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y42">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA42">
         <v>0.95</v>
@@ -4341,7 +4341,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6008608</v>
+        <v>6011402</v>
       </c>
       <c r="C45" t="s">
         <v>35</v>
@@ -4350,76 +4350,76 @@
         <v>45123.5</v>
       </c>
       <c r="E45" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J45">
-        <v>1.181</v>
+        <v>2.3</v>
       </c>
       <c r="K45">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="L45">
-        <v>11</v>
+        <v>3.1</v>
       </c>
       <c r="M45">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="N45">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="O45">
-        <v>11</v>
+        <v>3.3</v>
       </c>
       <c r="P45">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="Q45">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="R45">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S45">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="T45">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U45">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V45">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB45">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:28">
@@ -4427,7 +4427,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6011402</v>
+        <v>6008608</v>
       </c>
       <c r="C46" t="s">
         <v>35</v>
@@ -4436,76 +4436,76 @@
         <v>45123.5</v>
       </c>
       <c r="E46" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J46">
-        <v>2.3</v>
+        <v>1.181</v>
       </c>
       <c r="K46">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="L46">
-        <v>3.1</v>
+        <v>11</v>
       </c>
       <c r="M46">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="N46">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="O46">
-        <v>3.3</v>
+        <v>11</v>
       </c>
       <c r="P46">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="Q46">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="R46">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S46">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="T46">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U46">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V46">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AA46">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:28">
@@ -4694,7 +4694,7 @@
         <v>45129.54166666666</v>
       </c>
       <c r="E49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F49" t="s">
         <v>46</v>
@@ -4866,7 +4866,7 @@
         <v>45130.5</v>
       </c>
       <c r="E51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F51" t="s">
         <v>48</v>
@@ -5471,7 +5471,7 @@
         <v>48</v>
       </c>
       <c r="F58" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -5729,7 +5729,7 @@
         <v>40</v>
       </c>
       <c r="F61" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G61">
         <v>3</v>
@@ -6328,7 +6328,7 @@
         <v>45144.5</v>
       </c>
       <c r="E68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F68" t="s">
         <v>49</v>
@@ -6405,7 +6405,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6011407</v>
+        <v>6011408</v>
       </c>
       <c r="C69" t="s">
         <v>35</v>
@@ -6414,58 +6414,58 @@
         <v>45144.5</v>
       </c>
       <c r="E69" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F69" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G69">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="s">
         <v>56</v>
       </c>
       <c r="J69">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="K69">
+        <v>3.4</v>
+      </c>
+      <c r="L69">
+        <v>2.7</v>
+      </c>
+      <c r="M69">
+        <v>2.45</v>
+      </c>
+      <c r="N69">
         <v>3.25</v>
       </c>
-      <c r="L69">
-        <v>3.5</v>
-      </c>
-      <c r="M69">
-        <v>2.7</v>
-      </c>
-      <c r="N69">
-        <v>3.2</v>
-      </c>
       <c r="O69">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P69">
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R69">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S69">
         <v>2.25</v>
       </c>
       <c r="T69">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U69">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V69">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="W69">
         <v>-1</v>
@@ -6474,13 +6474,13 @@
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB69">
         <v>-1</v>
@@ -6491,7 +6491,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6011408</v>
+        <v>6011407</v>
       </c>
       <c r="C70" t="s">
         <v>35</v>
@@ -6500,58 +6500,58 @@
         <v>45144.5</v>
       </c>
       <c r="E70" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="s">
         <v>56</v>
       </c>
       <c r="J70">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="K70">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L70">
+        <v>3.5</v>
+      </c>
+      <c r="M70">
         <v>2.7</v>
       </c>
-      <c r="M70">
-        <v>2.45</v>
-      </c>
       <c r="N70">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O70">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P70">
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R70">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S70">
         <v>2.25</v>
       </c>
       <c r="T70">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U70">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V70">
-        <v>1.45</v>
+        <v>1.7</v>
       </c>
       <c r="W70">
         <v>-1</v>
@@ -6560,13 +6560,13 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB70">
         <v>-1</v>
@@ -6675,7 +6675,7 @@
         <v>37</v>
       </c>
       <c r="F72" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6933,7 +6933,7 @@
         <v>39</v>
       </c>
       <c r="F75" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -7102,7 +7102,7 @@
         <v>45157.54166666666</v>
       </c>
       <c r="E77" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F77" t="s">
         <v>36</v>
@@ -7532,7 +7532,7 @@
         <v>45158.5</v>
       </c>
       <c r="E82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F82" t="s">
         <v>42</v>
@@ -8653,7 +8653,7 @@
         <v>44</v>
       </c>
       <c r="F95" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8736,7 +8736,7 @@
         <v>45172.59375</v>
       </c>
       <c r="E96" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F96" t="s">
         <v>47</v>
@@ -8822,7 +8822,7 @@
         <v>45185.54166666666</v>
       </c>
       <c r="E97" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F97" t="s">
         <v>45</v>
@@ -9169,7 +9169,7 @@
         <v>38</v>
       </c>
       <c r="F101" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G101">
         <v>2</v>
@@ -9243,7 +9243,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6008616</v>
+        <v>6011998</v>
       </c>
       <c r="C102" t="s">
         <v>35</v>
@@ -9252,76 +9252,76 @@
         <v>45186.5</v>
       </c>
       <c r="E102" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F102" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102">
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J102">
         <v>4</v>
       </c>
       <c r="K102">
+        <v>3.75</v>
+      </c>
+      <c r="L102">
+        <v>1.8</v>
+      </c>
+      <c r="M102">
         <v>4</v>
       </c>
-      <c r="L102">
-        <v>1.75</v>
-      </c>
-      <c r="M102">
-        <v>4.333</v>
-      </c>
       <c r="N102">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O102">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="P102">
         <v>0.75</v>
       </c>
       <c r="Q102">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="R102">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S102">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T102">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U102">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V102">
         <v>-1</v>
       </c>
       <c r="W102">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Y102">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA102">
         <v>-1</v>
       </c>
       <c r="AB102">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="103" spans="1:28">
@@ -9329,7 +9329,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6011998</v>
+        <v>6008616</v>
       </c>
       <c r="C103" t="s">
         <v>35</v>
@@ -9338,76 +9338,76 @@
         <v>45186.5</v>
       </c>
       <c r="E103" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F103" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103">
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J103">
         <v>4</v>
       </c>
       <c r="K103">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L103">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="M103">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="N103">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O103">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="P103">
         <v>0.75</v>
       </c>
       <c r="Q103">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="R103">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S103">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T103">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U103">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V103">
         <v>-1</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X103">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z103">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:28">
@@ -9940,7 +9940,7 @@
         <v>45193.5</v>
       </c>
       <c r="E110" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F110" t="s">
         <v>46</v>
@@ -10029,7 +10029,7 @@
         <v>41</v>
       </c>
       <c r="F111" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10456,7 +10456,7 @@
         <v>45200.5</v>
       </c>
       <c r="E116" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F116" t="s">
         <v>43</v>
@@ -10631,7 +10631,7 @@
         <v>48</v>
       </c>
       <c r="F118" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G118">
         <v>5</v>
@@ -10886,7 +10886,7 @@
         <v>45207.5</v>
       </c>
       <c r="E121" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F121" t="s">
         <v>47</v>
@@ -10975,7 +10975,7 @@
         <v>37</v>
       </c>
       <c r="F122" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -11491,7 +11491,7 @@
         <v>49</v>
       </c>
       <c r="F128" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G128">
         <v>3</v>
@@ -11651,7 +11651,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6012002</v>
+        <v>6011520</v>
       </c>
       <c r="C130" t="s">
         <v>35</v>
@@ -11660,76 +11660,76 @@
         <v>45221.5</v>
       </c>
       <c r="E130" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F130" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G130">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J130">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="K130">
+        <v>4.2</v>
+      </c>
+      <c r="L130">
+        <v>1.727</v>
+      </c>
+      <c r="M130">
         <v>3.6</v>
       </c>
-      <c r="L130">
+      <c r="N130">
         <v>4.2</v>
       </c>
-      <c r="M130">
+      <c r="O130">
         <v>1.909</v>
       </c>
-      <c r="N130">
-        <v>4</v>
-      </c>
-      <c r="O130">
-        <v>3.5</v>
-      </c>
       <c r="P130">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q130">
+        <v>1.925</v>
+      </c>
+      <c r="R130">
+        <v>1.925</v>
+      </c>
+      <c r="S130">
+        <v>3.25</v>
+      </c>
+      <c r="T130">
+        <v>1.9</v>
+      </c>
+      <c r="U130">
         <v>1.95</v>
       </c>
-      <c r="R130">
-        <v>1.9</v>
-      </c>
-      <c r="S130">
-        <v>2.75</v>
-      </c>
-      <c r="T130">
-        <v>1.925</v>
-      </c>
-      <c r="U130">
-        <v>1.925</v>
-      </c>
       <c r="V130">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="W130">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z130">
+        <v>-1</v>
+      </c>
+      <c r="AA130">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA130">
-        <v>-1</v>
-      </c>
       <c r="AB130">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:28">
@@ -11737,7 +11737,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6011521</v>
+        <v>6012002</v>
       </c>
       <c r="C131" t="s">
         <v>35</v>
@@ -11746,40 +11746,40 @@
         <v>45221.5</v>
       </c>
       <c r="E131" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F131" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J131">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="K131">
+        <v>3.6</v>
+      </c>
+      <c r="L131">
+        <v>4.2</v>
+      </c>
+      <c r="M131">
+        <v>1.909</v>
+      </c>
+      <c r="N131">
+        <v>4</v>
+      </c>
+      <c r="O131">
         <v>3.5</v>
       </c>
-      <c r="L131">
-        <v>3.4</v>
-      </c>
-      <c r="M131">
-        <v>2.2</v>
-      </c>
-      <c r="N131">
-        <v>3.4</v>
-      </c>
-      <c r="O131">
-        <v>3.25</v>
-      </c>
       <c r="P131">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q131">
         <v>1.95</v>
@@ -11788,22 +11788,22 @@
         <v>1.9</v>
       </c>
       <c r="S131">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T131">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U131">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V131">
         <v>-1</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X131">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
         <v>-1</v>
@@ -11812,10 +11812,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AA131">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="132" spans="1:28">
@@ -11823,7 +11823,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6011421</v>
+        <v>6011521</v>
       </c>
       <c r="C132" t="s">
         <v>35</v>
@@ -11832,73 +11832,73 @@
         <v>45221.5</v>
       </c>
       <c r="E132" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F132" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
         <v>3</v>
       </c>
-      <c r="H132">
-        <v>1</v>
-      </c>
       <c r="I132" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J132">
+        <v>2.05</v>
+      </c>
+      <c r="K132">
+        <v>3.5</v>
+      </c>
+      <c r="L132">
+        <v>3.4</v>
+      </c>
+      <c r="M132">
         <v>2.2</v>
       </c>
-      <c r="K132">
+      <c r="N132">
         <v>3.4</v>
       </c>
-      <c r="L132">
-        <v>3.2</v>
-      </c>
-      <c r="M132">
-        <v>1.909</v>
-      </c>
-      <c r="N132">
-        <v>3.5</v>
-      </c>
       <c r="O132">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P132">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q132">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="R132">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S132">
         <v>2.5</v>
       </c>
       <c r="T132">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U132">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V132">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y132">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA132">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB132">
         <v>-1</v>
@@ -11909,7 +11909,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6011520</v>
+        <v>6011421</v>
       </c>
       <c r="C133" t="s">
         <v>35</v>
@@ -11918,40 +11918,40 @@
         <v>45221.5</v>
       </c>
       <c r="E133" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F133" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G133">
         <v>3</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133" t="s">
         <v>56</v>
       </c>
       <c r="J133">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="K133">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="L133">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="M133">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="N133">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="O133">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="P133">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q133">
         <v>1.925</v>
@@ -11960,16 +11960,16 @@
         <v>1.925</v>
       </c>
       <c r="S133">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T133">
+        <v>1.95</v>
+      </c>
+      <c r="U133">
         <v>1.9</v>
       </c>
-      <c r="U133">
-        <v>1.95</v>
-      </c>
       <c r="V133">
-        <v>2.6</v>
+        <v>0.909</v>
       </c>
       <c r="W133">
         <v>-1</v>
@@ -11984,7 +11984,7 @@
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB133">
         <v>-1</v>
@@ -12437,7 +12437,7 @@
         <v>45</v>
       </c>
       <c r="F139" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G139">
         <v>2</v>
@@ -12692,7 +12692,7 @@
         <v>45229.70833333334</v>
       </c>
       <c r="E142" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F142" t="s">
         <v>38</v>
@@ -12778,7 +12778,7 @@
         <v>45234.58333333334</v>
       </c>
       <c r="E143" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F143" t="s">
         <v>43</v>
@@ -13039,7 +13039,7 @@
         <v>42</v>
       </c>
       <c r="F146" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G146">
         <v>3</v>
@@ -13899,7 +13899,7 @@
         <v>41</v>
       </c>
       <c r="F156" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -14068,7 +14068,7 @@
         <v>45242.63541666666</v>
       </c>
       <c r="E158" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F158" t="s">
         <v>40</v>
@@ -14412,7 +14412,7 @@
         <v>45256.54166666666</v>
       </c>
       <c r="E162" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F162" t="s">
         <v>36</v>
@@ -14759,7 +14759,7 @@
         <v>46</v>
       </c>
       <c r="F166" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G166">
         <v>1</v>
@@ -15014,10 +15014,10 @@
         <v>45263.54166666666</v>
       </c>
       <c r="E169" t="s">
+        <v>51</v>
+      </c>
+      <c r="F169" t="s">
         <v>50</v>
-      </c>
-      <c r="F169" t="s">
-        <v>51</v>
       </c>
       <c r="G169">
         <v>1</v>
@@ -15091,7 +15091,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6012013</v>
+        <v>6390526</v>
       </c>
       <c r="C170" t="s">
         <v>35</v>
@@ -15100,76 +15100,76 @@
         <v>45263.54166666666</v>
       </c>
       <c r="E170" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F170" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G170">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I170" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J170">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="K170">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="L170">
-        <v>2.625</v>
+        <v>6.5</v>
       </c>
       <c r="M170">
-        <v>2.05</v>
+        <v>1.333</v>
       </c>
       <c r="N170">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="O170">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="P170">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q170">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R170">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S170">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="T170">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U170">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V170">
         <v>-1</v>
       </c>
       <c r="W170">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X170">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y170">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z170">
-        <v>0.5249999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA170">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB170">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:28">
@@ -15177,7 +15177,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6011535</v>
+        <v>6390446</v>
       </c>
       <c r="C171" t="s">
         <v>35</v>
@@ -15186,58 +15186,58 @@
         <v>45263.54166666666</v>
       </c>
       <c r="E171" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F171" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G171">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="s">
         <v>56</v>
       </c>
       <c r="J171">
-        <v>1.6</v>
+        <v>1.615</v>
       </c>
       <c r="K171">
         <v>4.2</v>
       </c>
       <c r="L171">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M171">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="N171">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="O171">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="P171">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q171">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="R171">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S171">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T171">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="U171">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V171">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="W171">
         <v>-1</v>
@@ -15246,16 +15246,16 @@
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>1.05</v>
+        <v>0.5125</v>
       </c>
       <c r="Z171">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA171">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB171">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="172" spans="1:28">
@@ -15263,7 +15263,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6390446</v>
+        <v>6390445</v>
       </c>
       <c r="C172" t="s">
         <v>35</v>
@@ -15272,13 +15272,13 @@
         <v>45263.54166666666</v>
       </c>
       <c r="E172" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F172" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G172">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H172">
         <v>0</v>
@@ -15287,34 +15287,34 @@
         <v>56</v>
       </c>
       <c r="J172">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="K172">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="L172">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="M172">
         <v>1.8</v>
       </c>
       <c r="N172">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="O172">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P172">
         <v>-0.75</v>
       </c>
       <c r="Q172">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="R172">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S172">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T172">
         <v>1.9</v>
@@ -15332,16 +15332,16 @@
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z172">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA172">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB172">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:28">
@@ -15349,7 +15349,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6390526</v>
+        <v>6012013</v>
       </c>
       <c r="C173" t="s">
         <v>35</v>
@@ -15358,76 +15358,76 @@
         <v>45263.54166666666</v>
       </c>
       <c r="E173" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F173" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G173">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I173" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J173">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="K173">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="L173">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="M173">
-        <v>1.333</v>
+        <v>2.05</v>
       </c>
       <c r="N173">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="O173">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="P173">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q173">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R173">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S173">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="T173">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U173">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V173">
         <v>-1</v>
       </c>
       <c r="W173">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X173">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Y173">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z173">
-        <v>1.025</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA173">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="174" spans="1:28">
@@ -15435,7 +15435,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6390445</v>
+        <v>6011535</v>
       </c>
       <c r="C174" t="s">
         <v>35</v>
@@ -15444,58 +15444,58 @@
         <v>45263.54166666666</v>
       </c>
       <c r="E174" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F174" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G174">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I174" t="s">
         <v>56</v>
       </c>
       <c r="J174">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="K174">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="L174">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="M174">
+        <v>1.5</v>
+      </c>
+      <c r="N174">
+        <v>4.75</v>
+      </c>
+      <c r="O174">
+        <v>5.75</v>
+      </c>
+      <c r="P174">
+        <v>-1.25</v>
+      </c>
+      <c r="Q174">
+        <v>2.05</v>
+      </c>
+      <c r="R174">
         <v>1.8</v>
       </c>
-      <c r="N174">
-        <v>3.75</v>
-      </c>
-      <c r="O174">
-        <v>4.5</v>
-      </c>
-      <c r="P174">
-        <v>-0.75</v>
-      </c>
-      <c r="Q174">
-        <v>1.975</v>
-      </c>
-      <c r="R174">
-        <v>1.875</v>
-      </c>
       <c r="S174">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T174">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="U174">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V174">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="W174">
         <v>-1</v>
@@ -15504,13 +15504,13 @@
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="Z174">
         <v>-1</v>
       </c>
       <c r="AA174">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB174">
         <v>-1</v>
@@ -15702,7 +15702,7 @@
         <v>45383.5</v>
       </c>
       <c r="E177" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F177" t="s">
         <v>41</v>
@@ -16135,7 +16135,7 @@
         <v>53</v>
       </c>
       <c r="F182" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -16390,10 +16390,10 @@
         <v>45389.5</v>
       </c>
       <c r="E185" t="s">
+        <v>50</v>
+      </c>
+      <c r="F185" t="s">
         <v>51</v>
-      </c>
-      <c r="F185" t="s">
-        <v>50</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -16553,7 +16553,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7617329</v>
+        <v>7617328</v>
       </c>
       <c r="C187" t="s">
         <v>35</v>
@@ -16562,76 +16562,76 @@
         <v>45389.5</v>
       </c>
       <c r="E187" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F187" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
         <v>1</v>
       </c>
-      <c r="H187">
-        <v>0</v>
-      </c>
       <c r="I187" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J187">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="K187">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="L187">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="M187">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="N187">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O187">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P187">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q187">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="R187">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S187">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T187">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U187">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V187">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="W187">
         <v>-1</v>
       </c>
       <c r="X187">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y187">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z187">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA187">
         <v>-1</v>
       </c>
       <c r="AB187">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="188" spans="1:28">
@@ -16639,7 +16639,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7617328</v>
+        <v>7617329</v>
       </c>
       <c r="C188" t="s">
         <v>35</v>
@@ -16648,76 +16648,76 @@
         <v>45389.5</v>
       </c>
       <c r="E188" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F188" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G188">
+        <v>1</v>
+      </c>
+      <c r="H188">
         <v>0</v>
       </c>
-      <c r="H188">
-        <v>1</v>
-      </c>
       <c r="I188" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J188">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="K188">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="L188">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="M188">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="N188">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O188">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P188">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q188">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="R188">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S188">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T188">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U188">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V188">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W188">
         <v>-1</v>
       </c>
       <c r="X188">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y188">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z188">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
         <v>-1</v>
       </c>
       <c r="AB188">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="189" spans="1:28">
@@ -17081,7 +17081,7 @@
         <v>42</v>
       </c>
       <c r="F193" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G193">
         <v>1</v>
@@ -17250,7 +17250,7 @@
         <v>45396.5</v>
       </c>
       <c r="E195" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F195" t="s">
         <v>54</v>
@@ -17511,7 +17511,7 @@
         <v>49</v>
       </c>
       <c r="F198" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G198">
         <v>1</v>
@@ -17594,7 +17594,7 @@
         <v>45399.54166666666</v>
       </c>
       <c r="E199" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F199" t="s">
         <v>45</v>
@@ -17680,7 +17680,7 @@
         <v>45403.39583333334</v>
       </c>
       <c r="E200" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F200" t="s">
         <v>41</v>
@@ -18285,7 +18285,7 @@
         <v>47</v>
       </c>
       <c r="F207" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G207">
         <v>1</v>
@@ -18445,7 +18445,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7617346</v>
+        <v>7617348</v>
       </c>
       <c r="C209" t="s">
         <v>35</v>
@@ -18454,76 +18454,76 @@
         <v>45410.5</v>
       </c>
       <c r="E209" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F209" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G209">
+        <v>2</v>
+      </c>
+      <c r="H209">
+        <v>1</v>
+      </c>
+      <c r="I209" t="s">
+        <v>56</v>
+      </c>
+      <c r="J209">
+        <v>1.3</v>
+      </c>
+      <c r="K209">
+        <v>5.5</v>
+      </c>
+      <c r="L209">
+        <v>9</v>
+      </c>
+      <c r="M209">
+        <v>1.333</v>
+      </c>
+      <c r="N209">
+        <v>4.75</v>
+      </c>
+      <c r="O209">
+        <v>9.5</v>
+      </c>
+      <c r="P209">
+        <v>-1.5</v>
+      </c>
+      <c r="Q209">
+        <v>1.925</v>
+      </c>
+      <c r="R209">
+        <v>1.925</v>
+      </c>
+      <c r="S209">
+        <v>3</v>
+      </c>
+      <c r="T209">
+        <v>1.975</v>
+      </c>
+      <c r="U209">
+        <v>1.875</v>
+      </c>
+      <c r="V209">
+        <v>0.333</v>
+      </c>
+      <c r="W209">
+        <v>-1</v>
+      </c>
+      <c r="X209">
+        <v>-1</v>
+      </c>
+      <c r="Y209">
+        <v>-1</v>
+      </c>
+      <c r="Z209">
+        <v>0.925</v>
+      </c>
+      <c r="AA209">
         <v>0</v>
       </c>
-      <c r="H209">
+      <c r="AB209">
         <v>0</v>
-      </c>
-      <c r="I209" t="s">
-        <v>57</v>
-      </c>
-      <c r="J209">
-        <v>4.2</v>
-      </c>
-      <c r="K209">
-        <v>4.1</v>
-      </c>
-      <c r="L209">
-        <v>1.727</v>
-      </c>
-      <c r="M209">
-        <v>4.333</v>
-      </c>
-      <c r="N209">
-        <v>4.333</v>
-      </c>
-      <c r="O209">
-        <v>1.7</v>
-      </c>
-      <c r="P209">
-        <v>0.75</v>
-      </c>
-      <c r="Q209">
-        <v>1.975</v>
-      </c>
-      <c r="R209">
-        <v>1.875</v>
-      </c>
-      <c r="S209">
-        <v>2.75</v>
-      </c>
-      <c r="T209">
-        <v>1.825</v>
-      </c>
-      <c r="U209">
-        <v>2.025</v>
-      </c>
-      <c r="V209">
-        <v>-1</v>
-      </c>
-      <c r="W209">
-        <v>3.333</v>
-      </c>
-      <c r="X209">
-        <v>-1</v>
-      </c>
-      <c r="Y209">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="Z209">
-        <v>-1</v>
-      </c>
-      <c r="AA209">
-        <v>-1</v>
-      </c>
-      <c r="AB209">
-        <v>1.025</v>
       </c>
     </row>
     <row r="210" spans="1:28">
@@ -18531,7 +18531,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7617348</v>
+        <v>7617350</v>
       </c>
       <c r="C210" t="s">
         <v>35</v>
@@ -18540,49 +18540,49 @@
         <v>45410.5</v>
       </c>
       <c r="E210" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F210" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G210">
+        <v>0</v>
+      </c>
+      <c r="H210">
+        <v>3</v>
+      </c>
+      <c r="I210" t="s">
+        <v>55</v>
+      </c>
+      <c r="J210">
         <v>2</v>
       </c>
-      <c r="H210">
-        <v>1</v>
-      </c>
-      <c r="I210" t="s">
-        <v>56</v>
-      </c>
-      <c r="J210">
-        <v>1.3</v>
-      </c>
       <c r="K210">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="L210">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="M210">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="N210">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="O210">
-        <v>9.5</v>
+        <v>3</v>
       </c>
       <c r="P210">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q210">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="R210">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S210">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T210">
         <v>1.975</v>
@@ -18591,25 +18591,25 @@
         <v>1.875</v>
       </c>
       <c r="V210">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="W210">
         <v>-1</v>
       </c>
       <c r="X210">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y210">
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA210">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AB210">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="211" spans="1:28">
@@ -18617,7 +18617,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7617350</v>
+        <v>7617345</v>
       </c>
       <c r="C211" t="s">
         <v>35</v>
@@ -18626,19 +18626,19 @@
         <v>45410.5</v>
       </c>
       <c r="E211" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="F211" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G211">
+        <v>1</v>
+      </c>
+      <c r="H211">
         <v>0</v>
       </c>
-      <c r="H211">
-        <v>3</v>
-      </c>
       <c r="I211" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J211">
         <v>2</v>
@@ -18650,52 +18650,52 @@
         <v>3.5</v>
       </c>
       <c r="M211">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="N211">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O211">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="P211">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q211">
-        <v>1.975</v>
+        <v>1.88</v>
       </c>
       <c r="R211">
-        <v>1.875</v>
+        <v>2.02</v>
       </c>
       <c r="S211">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T211">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U211">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V211">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W211">
         <v>-1</v>
       </c>
       <c r="X211">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y211">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="Z211">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA211">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB211">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:28">
@@ -18703,7 +18703,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7617345</v>
+        <v>7617349</v>
       </c>
       <c r="C212" t="s">
         <v>35</v>
@@ -18712,76 +18712,76 @@
         <v>45410.5</v>
       </c>
       <c r="E212" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F212" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J212">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="K212">
         <v>3.6</v>
       </c>
       <c r="L212">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M212">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="N212">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O212">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="P212">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q212">
-        <v>1.88</v>
+        <v>2.06</v>
       </c>
       <c r="R212">
-        <v>2.02</v>
+        <v>1.84</v>
       </c>
       <c r="S212">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T212">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="U212">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V212">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W212">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X212">
         <v>-1</v>
       </c>
       <c r="Y212">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z212">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB212">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:28">
@@ -18789,7 +18789,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7617349</v>
+        <v>7617346</v>
       </c>
       <c r="C213" t="s">
         <v>35</v>
@@ -18798,76 +18798,76 @@
         <v>45410.5</v>
       </c>
       <c r="E213" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F213" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G213">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="s">
         <v>57</v>
       </c>
       <c r="J213">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="K213">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="L213">
-        <v>3.8</v>
+        <v>1.727</v>
       </c>
       <c r="M213">
-        <v>1.6</v>
+        <v>4.333</v>
       </c>
       <c r="N213">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="O213">
-        <v>5.75</v>
+        <v>1.7</v>
       </c>
       <c r="P213">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Q213">
-        <v>2.06</v>
+        <v>1.975</v>
       </c>
       <c r="R213">
-        <v>1.84</v>
+        <v>1.875</v>
       </c>
       <c r="S213">
         <v>2.75</v>
       </c>
       <c r="T213">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U213">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V213">
         <v>-1</v>
       </c>
       <c r="W213">
-        <v>2.8</v>
+        <v>3.333</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z213">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="214" spans="1:28">
@@ -18887,7 +18887,7 @@
         <v>40</v>
       </c>
       <c r="F214" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G214">
         <v>1</v>
@@ -19071,7 +19071,7 @@
         <v>4.333</v>
       </c>
       <c r="M216">
-        <v>1.55</v>
+        <v>1.533</v>
       </c>
       <c r="N216">
         <v>4.2</v>
@@ -19083,19 +19083,19 @@
         <v>-1</v>
       </c>
       <c r="Q216">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="R216">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="S216">
         <v>2.75</v>
       </c>
       <c r="T216">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U216">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V216">
         <v>0</v>
@@ -19136,31 +19136,31 @@
         <v>3</v>
       </c>
       <c r="M217">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="N217">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O217">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P217">
         <v>-0.25</v>
       </c>
       <c r="Q217">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="R217">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="S217">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T217">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="U217">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V217">
         <v>0</v>
@@ -19189,7 +19189,7 @@
         <v>37</v>
       </c>
       <c r="F218" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J218">
         <v>4.5</v>
@@ -19201,31 +19201,31 @@
         <v>1.666</v>
       </c>
       <c r="M218">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N218">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O218">
-        <v>1.666</v>
+        <v>1.6</v>
       </c>
       <c r="P218">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Q218">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="R218">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="S218">
         <v>3</v>
       </c>
       <c r="T218">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U218">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V218">
         <v>0</v>
@@ -19251,46 +19251,46 @@
         <v>45417.5</v>
       </c>
       <c r="E219" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F219" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J219">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="K219">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L219">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M219">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="N219">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O219">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="P219">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q219">
-        <v>1.86</v>
+        <v>1.97</v>
       </c>
       <c r="R219">
-        <v>2.04</v>
+        <v>1.93</v>
       </c>
       <c r="S219">
         <v>2.5</v>
       </c>
       <c r="T219">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U219">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V219">
         <v>0</v>
@@ -19316,37 +19316,37 @@
         <v>45417.5</v>
       </c>
       <c r="E220" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F220" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J220">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K220">
         <v>3.4</v>
       </c>
       <c r="L220">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M220">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="N220">
         <v>3.4</v>
       </c>
       <c r="O220">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P220">
         <v>-0.25</v>
       </c>
       <c r="Q220">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="R220">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="S220">
         <v>2.5</v>
@@ -19402,16 +19402,16 @@
         <v>5.25</v>
       </c>
       <c r="O221">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P221">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="Q221">
-        <v>1.87</v>
+        <v>2.05</v>
       </c>
       <c r="R221">
-        <v>2.03</v>
+        <v>1.85</v>
       </c>
       <c r="S221">
         <v>3</v>
@@ -19446,46 +19446,46 @@
         <v>45417.5</v>
       </c>
       <c r="E222" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F222" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J222">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="K222">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L222">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="M222">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="N222">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O222">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="P222">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q222">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="R222">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="S222">
         <v>2.5</v>
       </c>
       <c r="T222">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="U222">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V222">
         <v>0</v>
@@ -19526,31 +19526,31 @@
         <v>4.75</v>
       </c>
       <c r="M223">
-        <v>1.666</v>
+        <v>1.533</v>
       </c>
       <c r="N223">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O223">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="P223">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q223">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="R223">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="S223">
         <v>3</v>
       </c>
       <c r="T223">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U223">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V223">
         <v>0</v>

--- a/Norway Eliteserien/Norway Eliteserien.xlsx
+++ b/Norway Eliteserien/Norway Eliteserien.xlsx
@@ -109,13 +109,13 @@
     <t>7617355</t>
   </si>
   <si>
-    <t>7617354</t>
+    <t>7617353</t>
   </si>
   <si>
     <t>7616741</t>
   </si>
   <si>
-    <t>7617353</t>
+    <t>7617354</t>
   </si>
   <si>
     <t>7617358</t>
@@ -166,10 +166,10 @@
     <t>SK Brann</t>
   </si>
   <si>
-    <t>HamKam</t>
+    <t>Molde</t>
   </si>
   <si>
-    <t>Molde</t>
+    <t>HamKam</t>
   </si>
   <si>
     <t>Fredrikstad</t>
@@ -1171,7 +1171,7 @@
         <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -1257,7 +1257,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1515,7 +1515,7 @@
         <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1687,7 +1687,7 @@
         <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -2277,7 +2277,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6011397</v>
+        <v>6008771</v>
       </c>
       <c r="C21" t="s">
         <v>35</v>
@@ -2289,73 +2289,73 @@
         <v>50</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
         <v>0</v>
       </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
       <c r="I21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J21">
-        <v>2.375</v>
+        <v>1.2</v>
       </c>
       <c r="K21">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="L21">
-        <v>2.9</v>
+        <v>11</v>
       </c>
       <c r="M21">
-        <v>2.4</v>
+        <v>1.25</v>
       </c>
       <c r="N21">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="O21">
-        <v>2.875</v>
+        <v>10</v>
       </c>
       <c r="P21">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="Q21">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="R21">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="S21">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T21">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="U21">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V21">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:28">
@@ -2363,7 +2363,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6008771</v>
+        <v>6011397</v>
       </c>
       <c r="C22" t="s">
         <v>35</v>
@@ -2375,73 +2375,73 @@
         <v>51</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
         <v>1</v>
       </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
       <c r="I22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J22">
-        <v>1.2</v>
+        <v>2.375</v>
       </c>
       <c r="K22">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="L22">
-        <v>11</v>
+        <v>2.9</v>
       </c>
       <c r="M22">
-        <v>1.25</v>
+        <v>2.4</v>
       </c>
       <c r="N22">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="O22">
-        <v>10</v>
+        <v>2.875</v>
       </c>
       <c r="P22">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q22">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="R22">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="S22">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T22">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="U22">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V22">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA22">
         <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -2621,7 +2621,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6011485</v>
+        <v>6011484</v>
       </c>
       <c r="C25" t="s">
         <v>35</v>
@@ -2630,40 +2630,40 @@
         <v>45109.5</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="s">
         <v>56</v>
       </c>
       <c r="J25">
-        <v>1.25</v>
+        <v>3.2</v>
       </c>
       <c r="K25">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="L25">
-        <v>10</v>
+        <v>2.2</v>
       </c>
       <c r="M25">
-        <v>1.333</v>
+        <v>3.2</v>
       </c>
       <c r="N25">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="O25">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="P25">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q25">
         <v>1.925</v>
@@ -2672,16 +2672,16 @@
         <v>1.925</v>
       </c>
       <c r="S25">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T25">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U25">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V25">
-        <v>0.333</v>
+        <v>2.2</v>
       </c>
       <c r="W25">
         <v>-1</v>
@@ -2690,16 +2690,16 @@
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z25">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="26" spans="1:28">
@@ -2707,7 +2707,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6011484</v>
+        <v>6011486</v>
       </c>
       <c r="C26" t="s">
         <v>35</v>
@@ -2716,58 +2716,58 @@
         <v>45109.5</v>
       </c>
       <c r="E26" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G26">
+        <v>6</v>
+      </c>
+      <c r="H26">
         <v>1</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
       </c>
       <c r="I26" t="s">
         <v>56</v>
       </c>
       <c r="J26">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="K26">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="L26">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="M26">
-        <v>3.2</v>
+        <v>1.333</v>
       </c>
       <c r="N26">
+        <v>5.25</v>
+      </c>
+      <c r="O26">
+        <v>8</v>
+      </c>
+      <c r="P26">
+        <v>-1.5</v>
+      </c>
+      <c r="Q26">
+        <v>1.875</v>
+      </c>
+      <c r="R26">
+        <v>1.975</v>
+      </c>
+      <c r="S26">
         <v>3.5</v>
       </c>
-      <c r="O26">
-        <v>2.2</v>
-      </c>
-      <c r="P26">
-        <v>0.25</v>
-      </c>
-      <c r="Q26">
-        <v>1.925</v>
-      </c>
-      <c r="R26">
-        <v>1.925</v>
-      </c>
-      <c r="S26">
-        <v>2.5</v>
-      </c>
       <c r="T26">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U26">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V26">
-        <v>2.2</v>
+        <v>0.333</v>
       </c>
       <c r="W26">
         <v>-1</v>
@@ -2776,16 +2776,16 @@
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB26">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:28">
@@ -2793,7 +2793,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6011486</v>
+        <v>6011485</v>
       </c>
       <c r="C27" t="s">
         <v>35</v>
@@ -2802,13 +2802,13 @@
         <v>45109.5</v>
       </c>
       <c r="E27" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G27">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -2817,40 +2817,40 @@
         <v>56</v>
       </c>
       <c r="J27">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="K27">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="L27">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M27">
         <v>1.333</v>
       </c>
       <c r="N27">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="O27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P27">
         <v>-1.5</v>
       </c>
       <c r="Q27">
+        <v>1.925</v>
+      </c>
+      <c r="R27">
+        <v>1.925</v>
+      </c>
+      <c r="S27">
+        <v>3.25</v>
+      </c>
+      <c r="T27">
         <v>1.875</v>
       </c>
-      <c r="R27">
+      <c r="U27">
         <v>1.975</v>
-      </c>
-      <c r="S27">
-        <v>3.5</v>
-      </c>
-      <c r="T27">
-        <v>1.825</v>
-      </c>
-      <c r="U27">
-        <v>2.025</v>
       </c>
       <c r="V27">
         <v>0.333</v>
@@ -2862,16 +2862,16 @@
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA27">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -3063,7 +3063,7 @@
         <v>47</v>
       </c>
       <c r="F30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3232,7 +3232,7 @@
         <v>45114.58333333334</v>
       </c>
       <c r="E32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F32" t="s">
         <v>39</v>
@@ -3481,7 +3481,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6011401</v>
+        <v>6011489</v>
       </c>
       <c r="C35" t="s">
         <v>35</v>
@@ -3490,10 +3490,10 @@
         <v>45116.5</v>
       </c>
       <c r="E35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3505,61 +3505,61 @@
         <v>57</v>
       </c>
       <c r="J35">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="K35">
         <v>3.3</v>
       </c>
       <c r="L35">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="M35">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="N35">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O35">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="P35">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>1.925</v>
+        <v>1.94</v>
       </c>
       <c r="R35">
-        <v>1.925</v>
+        <v>1.96</v>
       </c>
       <c r="S35">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T35">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U35">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V35">
         <v>-1</v>
       </c>
       <c r="W35">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA35">
         <v>-1</v>
       </c>
       <c r="AB35">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:28">
@@ -3567,7 +3567,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6011932</v>
+        <v>6011987</v>
       </c>
       <c r="C36" t="s">
         <v>35</v>
@@ -3576,76 +3576,76 @@
         <v>45116.5</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F36" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G36">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H36">
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J36">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="K36">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L36">
+        <v>3.25</v>
+      </c>
+      <c r="M36">
         <v>2.25</v>
       </c>
-      <c r="M36">
-        <v>3.3</v>
-      </c>
       <c r="N36">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O36">
+        <v>3</v>
+      </c>
+      <c r="P36">
+        <v>-0.25</v>
+      </c>
+      <c r="Q36">
         <v>2.05</v>
       </c>
-      <c r="P36">
-        <v>0.5</v>
-      </c>
-      <c r="Q36">
+      <c r="R36">
+        <v>1.8</v>
+      </c>
+      <c r="S36">
+        <v>2.75</v>
+      </c>
+      <c r="T36">
         <v>1.85</v>
       </c>
-      <c r="R36">
-        <v>2.05</v>
-      </c>
-      <c r="S36">
-        <v>3.5</v>
-      </c>
-      <c r="T36">
+      <c r="U36">
         <v>2</v>
       </c>
-      <c r="U36">
-        <v>1.85</v>
-      </c>
       <c r="V36">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y36">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA36">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="37" spans="1:28">
@@ -3653,7 +3653,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6011987</v>
+        <v>6011932</v>
       </c>
       <c r="C37" t="s">
         <v>35</v>
@@ -3662,76 +3662,76 @@
         <v>45116.5</v>
       </c>
       <c r="E37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H37">
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J37">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="K37">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L37">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="M37">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="N37">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O37">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="P37">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q37">
+        <v>1.85</v>
+      </c>
+      <c r="R37">
         <v>2.05</v>
       </c>
-      <c r="R37">
-        <v>1.8</v>
-      </c>
       <c r="S37">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="T37">
+        <v>2</v>
+      </c>
+      <c r="U37">
         <v>1.85</v>
       </c>
-      <c r="U37">
-        <v>2</v>
-      </c>
       <c r="V37">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z37">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="AB37">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:28">
@@ -3739,7 +3739,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6011489</v>
+        <v>6011401</v>
       </c>
       <c r="C38" t="s">
         <v>35</v>
@@ -3748,10 +3748,10 @@
         <v>45116.5</v>
       </c>
       <c r="E38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F38" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3763,61 +3763,61 @@
         <v>57</v>
       </c>
       <c r="J38">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="K38">
         <v>3.3</v>
       </c>
       <c r="L38">
+        <v>2.875</v>
+      </c>
+      <c r="M38">
+        <v>1.95</v>
+      </c>
+      <c r="N38">
+        <v>3.6</v>
+      </c>
+      <c r="O38">
+        <v>3.8</v>
+      </c>
+      <c r="P38">
+        <v>-0.5</v>
+      </c>
+      <c r="Q38">
+        <v>1.925</v>
+      </c>
+      <c r="R38">
+        <v>1.925</v>
+      </c>
+      <c r="S38">
         <v>2.5</v>
       </c>
-      <c r="M38">
-        <v>2.75</v>
-      </c>
-      <c r="N38">
-        <v>3.2</v>
-      </c>
-      <c r="O38">
-        <v>2.7</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>1.94</v>
-      </c>
-      <c r="R38">
-        <v>1.96</v>
-      </c>
-      <c r="S38">
-        <v>2.25</v>
-      </c>
       <c r="T38">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U38">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V38">
         <v>-1</v>
       </c>
       <c r="W38">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:28">
@@ -3834,7 +3834,7 @@
         <v>45116.59375</v>
       </c>
       <c r="E39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F39" t="s">
         <v>49</v>
@@ -3923,7 +3923,7 @@
         <v>36</v>
       </c>
       <c r="F40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6011403</v>
+        <v>6011491</v>
       </c>
       <c r="C41" t="s">
         <v>35</v>
@@ -4006,49 +4006,49 @@
         <v>45123.5</v>
       </c>
       <c r="E41" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G41">
         <v>2</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J41">
-        <v>1.95</v>
+        <v>1.444</v>
       </c>
       <c r="K41">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="L41">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="M41">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="N41">
+        <v>5.25</v>
+      </c>
+      <c r="O41">
+        <v>8</v>
+      </c>
+      <c r="P41">
+        <v>-1.5</v>
+      </c>
+      <c r="Q41">
+        <v>1.925</v>
+      </c>
+      <c r="R41">
+        <v>1.925</v>
+      </c>
+      <c r="S41">
         <v>3.5</v>
-      </c>
-      <c r="O41">
-        <v>3.4</v>
-      </c>
-      <c r="P41">
-        <v>-0.25</v>
-      </c>
-      <c r="Q41">
-        <v>1.8</v>
-      </c>
-      <c r="R41">
-        <v>2.05</v>
-      </c>
-      <c r="S41">
-        <v>2.5</v>
       </c>
       <c r="T41">
         <v>1.95</v>
@@ -4057,19 +4057,19 @@
         <v>1.9</v>
       </c>
       <c r="V41">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="W41">
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y41">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA41">
         <v>0.95</v>
@@ -4083,7 +4083,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6011491</v>
+        <v>6011403</v>
       </c>
       <c r="C42" t="s">
         <v>35</v>
@@ -4092,49 +4092,49 @@
         <v>45123.5</v>
       </c>
       <c r="E42" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F42" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G42">
         <v>2</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J42">
-        <v>1.444</v>
+        <v>1.95</v>
       </c>
       <c r="K42">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="L42">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="M42">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="N42">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="O42">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="P42">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q42">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="R42">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S42">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="T42">
         <v>1.95</v>
@@ -4143,19 +4143,19 @@
         <v>1.9</v>
       </c>
       <c r="V42">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W42">
         <v>-1</v>
       </c>
       <c r="X42">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z42">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
         <v>0.95</v>
@@ -4341,7 +4341,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6011402</v>
+        <v>6008608</v>
       </c>
       <c r="C45" t="s">
         <v>35</v>
@@ -4350,76 +4350,76 @@
         <v>45123.5</v>
       </c>
       <c r="E45" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J45">
-        <v>2.3</v>
+        <v>1.181</v>
       </c>
       <c r="K45">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="L45">
-        <v>3.1</v>
+        <v>11</v>
       </c>
       <c r="M45">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="N45">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="O45">
-        <v>3.3</v>
+        <v>11</v>
       </c>
       <c r="P45">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="Q45">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="R45">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S45">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="T45">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U45">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V45">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AA45">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:28">
@@ -4427,7 +4427,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6008608</v>
+        <v>6011402</v>
       </c>
       <c r="C46" t="s">
         <v>35</v>
@@ -4436,76 +4436,76 @@
         <v>45123.5</v>
       </c>
       <c r="E46" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J46">
-        <v>1.181</v>
+        <v>2.3</v>
       </c>
       <c r="K46">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="L46">
-        <v>11</v>
+        <v>3.1</v>
       </c>
       <c r="M46">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="N46">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="O46">
-        <v>11</v>
+        <v>3.3</v>
       </c>
       <c r="P46">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="Q46">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="R46">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S46">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="T46">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U46">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V46">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB46">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:28">
@@ -4694,7 +4694,7 @@
         <v>45129.54166666666</v>
       </c>
       <c r="E49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F49" t="s">
         <v>46</v>
@@ -4866,7 +4866,7 @@
         <v>45130.5</v>
       </c>
       <c r="E51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F51" t="s">
         <v>48</v>
@@ -5471,7 +5471,7 @@
         <v>48</v>
       </c>
       <c r="F58" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -5729,7 +5729,7 @@
         <v>40</v>
       </c>
       <c r="F61" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G61">
         <v>3</v>
@@ -6328,7 +6328,7 @@
         <v>45144.5</v>
       </c>
       <c r="E68" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F68" t="s">
         <v>49</v>
@@ -6405,7 +6405,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6011408</v>
+        <v>6011407</v>
       </c>
       <c r="C69" t="s">
         <v>35</v>
@@ -6414,58 +6414,58 @@
         <v>45144.5</v>
       </c>
       <c r="E69" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="s">
         <v>56</v>
       </c>
       <c r="J69">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="K69">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L69">
+        <v>3.5</v>
+      </c>
+      <c r="M69">
         <v>2.7</v>
       </c>
-      <c r="M69">
-        <v>2.45</v>
-      </c>
       <c r="N69">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O69">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P69">
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R69">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S69">
         <v>2.25</v>
       </c>
       <c r="T69">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U69">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V69">
-        <v>1.45</v>
+        <v>1.7</v>
       </c>
       <c r="W69">
         <v>-1</v>
@@ -6474,13 +6474,13 @@
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB69">
         <v>-1</v>
@@ -6491,7 +6491,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6011407</v>
+        <v>6011408</v>
       </c>
       <c r="C70" t="s">
         <v>35</v>
@@ -6500,58 +6500,58 @@
         <v>45144.5</v>
       </c>
       <c r="E70" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F70" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G70">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="s">
         <v>56</v>
       </c>
       <c r="J70">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="K70">
+        <v>3.4</v>
+      </c>
+      <c r="L70">
+        <v>2.7</v>
+      </c>
+      <c r="M70">
+        <v>2.45</v>
+      </c>
+      <c r="N70">
         <v>3.25</v>
       </c>
-      <c r="L70">
-        <v>3.5</v>
-      </c>
-      <c r="M70">
-        <v>2.7</v>
-      </c>
-      <c r="N70">
-        <v>3.2</v>
-      </c>
       <c r="O70">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P70">
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R70">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S70">
         <v>2.25</v>
       </c>
       <c r="T70">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U70">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V70">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="W70">
         <v>-1</v>
@@ -6560,13 +6560,13 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB70">
         <v>-1</v>
@@ -6675,7 +6675,7 @@
         <v>37</v>
       </c>
       <c r="F72" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6933,7 +6933,7 @@
         <v>39</v>
       </c>
       <c r="F75" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -7102,7 +7102,7 @@
         <v>45157.54166666666</v>
       </c>
       <c r="E77" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F77" t="s">
         <v>36</v>
@@ -7532,7 +7532,7 @@
         <v>45158.5</v>
       </c>
       <c r="E82" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F82" t="s">
         <v>42</v>
@@ -8653,7 +8653,7 @@
         <v>44</v>
       </c>
       <c r="F95" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8736,7 +8736,7 @@
         <v>45172.59375</v>
       </c>
       <c r="E96" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F96" t="s">
         <v>47</v>
@@ -8822,7 +8822,7 @@
         <v>45185.54166666666</v>
       </c>
       <c r="E97" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F97" t="s">
         <v>45</v>
@@ -9169,7 +9169,7 @@
         <v>38</v>
       </c>
       <c r="F101" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G101">
         <v>2</v>
@@ -9243,7 +9243,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6011998</v>
+        <v>6008616</v>
       </c>
       <c r="C102" t="s">
         <v>35</v>
@@ -9252,76 +9252,76 @@
         <v>45186.5</v>
       </c>
       <c r="E102" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F102" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102">
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J102">
         <v>4</v>
       </c>
       <c r="K102">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L102">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="M102">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="N102">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O102">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="P102">
         <v>0.75</v>
       </c>
       <c r="Q102">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="R102">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S102">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T102">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U102">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V102">
         <v>-1</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X102">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z102">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
         <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:28">
@@ -9329,7 +9329,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6008616</v>
+        <v>6011998</v>
       </c>
       <c r="C103" t="s">
         <v>35</v>
@@ -9338,76 +9338,76 @@
         <v>45186.5</v>
       </c>
       <c r="E103" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F103" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103">
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J103">
         <v>4</v>
       </c>
       <c r="K103">
+        <v>3.75</v>
+      </c>
+      <c r="L103">
+        <v>1.8</v>
+      </c>
+      <c r="M103">
         <v>4</v>
       </c>
-      <c r="L103">
-        <v>1.75</v>
-      </c>
-      <c r="M103">
-        <v>4.333</v>
-      </c>
       <c r="N103">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O103">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="P103">
         <v>0.75</v>
       </c>
       <c r="Q103">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="R103">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S103">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T103">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U103">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V103">
         <v>-1</v>
       </c>
       <c r="W103">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Y103">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="104" spans="1:28">
@@ -9940,7 +9940,7 @@
         <v>45193.5</v>
       </c>
       <c r="E110" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F110" t="s">
         <v>46</v>
@@ -10029,7 +10029,7 @@
         <v>41</v>
       </c>
       <c r="F111" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10456,7 +10456,7 @@
         <v>45200.5</v>
       </c>
       <c r="E116" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F116" t="s">
         <v>43</v>
@@ -10631,7 +10631,7 @@
         <v>48</v>
       </c>
       <c r="F118" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G118">
         <v>5</v>
@@ -10886,7 +10886,7 @@
         <v>45207.5</v>
       </c>
       <c r="E121" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F121" t="s">
         <v>47</v>
@@ -10975,7 +10975,7 @@
         <v>37</v>
       </c>
       <c r="F122" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -11491,7 +11491,7 @@
         <v>49</v>
       </c>
       <c r="F128" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G128">
         <v>3</v>
@@ -11651,7 +11651,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6011520</v>
+        <v>6012002</v>
       </c>
       <c r="C130" t="s">
         <v>35</v>
@@ -11660,76 +11660,76 @@
         <v>45221.5</v>
       </c>
       <c r="E130" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F130" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G130">
+        <v>1</v>
+      </c>
+      <c r="H130">
+        <v>1</v>
+      </c>
+      <c r="I130" t="s">
+        <v>57</v>
+      </c>
+      <c r="J130">
+        <v>1.8</v>
+      </c>
+      <c r="K130">
+        <v>3.6</v>
+      </c>
+      <c r="L130">
+        <v>4.2</v>
+      </c>
+      <c r="M130">
+        <v>1.909</v>
+      </c>
+      <c r="N130">
+        <v>4</v>
+      </c>
+      <c r="O130">
+        <v>3.5</v>
+      </c>
+      <c r="P130">
+        <v>-0.5</v>
+      </c>
+      <c r="Q130">
+        <v>1.95</v>
+      </c>
+      <c r="R130">
+        <v>1.9</v>
+      </c>
+      <c r="S130">
+        <v>2.75</v>
+      </c>
+      <c r="T130">
+        <v>1.925</v>
+      </c>
+      <c r="U130">
+        <v>1.925</v>
+      </c>
+      <c r="V130">
+        <v>-1</v>
+      </c>
+      <c r="W130">
         <v>3</v>
       </c>
-      <c r="H130">
-        <v>2</v>
-      </c>
-      <c r="I130" t="s">
-        <v>56</v>
-      </c>
-      <c r="J130">
-        <v>4</v>
-      </c>
-      <c r="K130">
-        <v>4.2</v>
-      </c>
-      <c r="L130">
-        <v>1.727</v>
-      </c>
-      <c r="M130">
-        <v>3.6</v>
-      </c>
-      <c r="N130">
-        <v>4.2</v>
-      </c>
-      <c r="O130">
-        <v>1.909</v>
-      </c>
-      <c r="P130">
-        <v>0.5</v>
-      </c>
-      <c r="Q130">
-        <v>1.925</v>
-      </c>
-      <c r="R130">
-        <v>1.925</v>
-      </c>
-      <c r="S130">
-        <v>3.25</v>
-      </c>
-      <c r="T130">
-        <v>1.9</v>
-      </c>
-      <c r="U130">
-        <v>1.95</v>
-      </c>
-      <c r="V130">
-        <v>2.6</v>
-      </c>
-      <c r="W130">
-        <v>-1</v>
-      </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
+        <v>-1</v>
+      </c>
+      <c r="Z130">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA130">
+        <v>-1</v>
+      </c>
+      <c r="AB130">
         <v>0.925</v>
-      </c>
-      <c r="Z130">
-        <v>-1</v>
-      </c>
-      <c r="AA130">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB130">
-        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:28">
@@ -11737,7 +11737,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6012002</v>
+        <v>6011521</v>
       </c>
       <c r="C131" t="s">
         <v>35</v>
@@ -11746,40 +11746,40 @@
         <v>45221.5</v>
       </c>
       <c r="E131" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F131" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I131" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J131">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="K131">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L131">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M131">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="N131">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="O131">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P131">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q131">
         <v>1.95</v>
@@ -11788,22 +11788,22 @@
         <v>1.9</v>
       </c>
       <c r="S131">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T131">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U131">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V131">
         <v>-1</v>
       </c>
       <c r="W131">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y131">
         <v>-1</v>
@@ -11812,10 +11812,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB131">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:28">
@@ -11823,7 +11823,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6011521</v>
+        <v>6011421</v>
       </c>
       <c r="C132" t="s">
         <v>35</v>
@@ -11832,73 +11832,73 @@
         <v>45221.5</v>
       </c>
       <c r="E132" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F132" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G132">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J132">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="K132">
+        <v>3.4</v>
+      </c>
+      <c r="L132">
+        <v>3.2</v>
+      </c>
+      <c r="M132">
+        <v>1.909</v>
+      </c>
+      <c r="N132">
         <v>3.5</v>
       </c>
-      <c r="L132">
-        <v>3.4</v>
-      </c>
-      <c r="M132">
-        <v>2.2</v>
-      </c>
-      <c r="N132">
-        <v>3.4</v>
-      </c>
       <c r="O132">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P132">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q132">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R132">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S132">
         <v>2.5</v>
       </c>
       <c r="T132">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U132">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V132">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z132">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB132">
         <v>-1</v>
@@ -11909,7 +11909,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6011421</v>
+        <v>6011520</v>
       </c>
       <c r="C133" t="s">
         <v>35</v>
@@ -11918,40 +11918,40 @@
         <v>45221.5</v>
       </c>
       <c r="E133" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F133" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G133">
         <v>3</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133" t="s">
         <v>56</v>
       </c>
       <c r="J133">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="K133">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="L133">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="M133">
+        <v>3.6</v>
+      </c>
+      <c r="N133">
+        <v>4.2</v>
+      </c>
+      <c r="O133">
         <v>1.909</v>
       </c>
-      <c r="N133">
-        <v>3.5</v>
-      </c>
-      <c r="O133">
-        <v>3.8</v>
-      </c>
       <c r="P133">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q133">
         <v>1.925</v>
@@ -11960,16 +11960,16 @@
         <v>1.925</v>
       </c>
       <c r="S133">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T133">
+        <v>1.9</v>
+      </c>
+      <c r="U133">
         <v>1.95</v>
       </c>
-      <c r="U133">
-        <v>1.9</v>
-      </c>
       <c r="V133">
-        <v>0.909</v>
+        <v>2.6</v>
       </c>
       <c r="W133">
         <v>-1</v>
@@ -11984,7 +11984,7 @@
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB133">
         <v>-1</v>
@@ -12437,7 +12437,7 @@
         <v>45</v>
       </c>
       <c r="F139" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G139">
         <v>2</v>
@@ -12692,7 +12692,7 @@
         <v>45229.70833333334</v>
       </c>
       <c r="E142" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F142" t="s">
         <v>38</v>
@@ -12778,7 +12778,7 @@
         <v>45234.58333333334</v>
       </c>
       <c r="E143" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F143" t="s">
         <v>43</v>
@@ -13039,7 +13039,7 @@
         <v>42</v>
       </c>
       <c r="F146" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G146">
         <v>3</v>
@@ -13899,7 +13899,7 @@
         <v>41</v>
       </c>
       <c r="F156" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -14068,7 +14068,7 @@
         <v>45242.63541666666</v>
       </c>
       <c r="E158" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F158" t="s">
         <v>40</v>
@@ -14412,7 +14412,7 @@
         <v>45256.54166666666</v>
       </c>
       <c r="E162" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F162" t="s">
         <v>36</v>
@@ -14759,7 +14759,7 @@
         <v>46</v>
       </c>
       <c r="F166" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G166">
         <v>1</v>
@@ -15014,10 +15014,10 @@
         <v>45263.54166666666</v>
       </c>
       <c r="E169" t="s">
+        <v>50</v>
+      </c>
+      <c r="F169" t="s">
         <v>51</v>
-      </c>
-      <c r="F169" t="s">
-        <v>50</v>
       </c>
       <c r="G169">
         <v>1</v>
@@ -15091,7 +15091,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6390526</v>
+        <v>6012013</v>
       </c>
       <c r="C170" t="s">
         <v>35</v>
@@ -15100,76 +15100,76 @@
         <v>45263.54166666666</v>
       </c>
       <c r="E170" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F170" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G170">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J170">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="K170">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="L170">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="M170">
-        <v>1.333</v>
+        <v>2.05</v>
       </c>
       <c r="N170">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="O170">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="P170">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q170">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R170">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S170">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="T170">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U170">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V170">
         <v>-1</v>
       </c>
       <c r="W170">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X170">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Y170">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z170">
-        <v>1.025</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA170">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB170">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="171" spans="1:28">
@@ -15177,7 +15177,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6390446</v>
+        <v>6011535</v>
       </c>
       <c r="C171" t="s">
         <v>35</v>
@@ -15186,58 +15186,58 @@
         <v>45263.54166666666</v>
       </c>
       <c r="E171" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F171" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G171">
+        <v>4</v>
+      </c>
+      <c r="H171">
         <v>1</v>
-      </c>
-      <c r="H171">
-        <v>0</v>
       </c>
       <c r="I171" t="s">
         <v>56</v>
       </c>
       <c r="J171">
-        <v>1.615</v>
+        <v>1.6</v>
       </c>
       <c r="K171">
         <v>4.2</v>
       </c>
       <c r="L171">
+        <v>5</v>
+      </c>
+      <c r="M171">
+        <v>1.5</v>
+      </c>
+      <c r="N171">
         <v>4.75</v>
       </c>
-      <c r="M171">
+      <c r="O171">
+        <v>5.75</v>
+      </c>
+      <c r="P171">
+        <v>-1.25</v>
+      </c>
+      <c r="Q171">
+        <v>2.05</v>
+      </c>
+      <c r="R171">
         <v>1.8</v>
       </c>
-      <c r="N171">
-        <v>4.2</v>
-      </c>
-      <c r="O171">
-        <v>4</v>
-      </c>
-      <c r="P171">
-        <v>-0.75</v>
-      </c>
-      <c r="Q171">
+      <c r="S171">
+        <v>3.25</v>
+      </c>
+      <c r="T171">
         <v>2.025</v>
       </c>
-      <c r="R171">
+      <c r="U171">
         <v>1.825</v>
       </c>
-      <c r="S171">
-        <v>3</v>
-      </c>
-      <c r="T171">
-        <v>1.9</v>
-      </c>
-      <c r="U171">
-        <v>1.95</v>
-      </c>
       <c r="V171">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="W171">
         <v>-1</v>
@@ -15246,16 +15246,16 @@
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>0.5125</v>
+        <v>1.05</v>
       </c>
       <c r="Z171">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA171">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB171">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:28">
@@ -15263,7 +15263,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6390445</v>
+        <v>6390446</v>
       </c>
       <c r="C172" t="s">
         <v>35</v>
@@ -15272,13 +15272,13 @@
         <v>45263.54166666666</v>
       </c>
       <c r="E172" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F172" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G172">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H172">
         <v>0</v>
@@ -15287,34 +15287,34 @@
         <v>56</v>
       </c>
       <c r="J172">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="K172">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="L172">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="M172">
         <v>1.8</v>
       </c>
       <c r="N172">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="O172">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P172">
         <v>-0.75</v>
       </c>
       <c r="Q172">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="R172">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S172">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T172">
         <v>1.9</v>
@@ -15332,16 +15332,16 @@
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA172">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB172">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="173" spans="1:28">
@@ -15349,7 +15349,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6012013</v>
+        <v>6390526</v>
       </c>
       <c r="C173" t="s">
         <v>35</v>
@@ -15358,76 +15358,76 @@
         <v>45263.54166666666</v>
       </c>
       <c r="E173" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F173" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G173">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I173" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J173">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="K173">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="L173">
-        <v>2.625</v>
+        <v>6.5</v>
       </c>
       <c r="M173">
-        <v>2.05</v>
+        <v>1.333</v>
       </c>
       <c r="N173">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="O173">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="P173">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q173">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R173">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S173">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="T173">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U173">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V173">
         <v>-1</v>
       </c>
       <c r="W173">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X173">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y173">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.5249999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA173">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB173">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:28">
@@ -15435,7 +15435,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6011535</v>
+        <v>6390445</v>
       </c>
       <c r="C174" t="s">
         <v>35</v>
@@ -15444,58 +15444,58 @@
         <v>45263.54166666666</v>
       </c>
       <c r="E174" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F174" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G174">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="s">
         <v>56</v>
       </c>
       <c r="J174">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="K174">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="L174">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="M174">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="N174">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="O174">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="P174">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q174">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="R174">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S174">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T174">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="U174">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V174">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="W174">
         <v>-1</v>
@@ -15504,13 +15504,13 @@
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z174">
         <v>-1</v>
       </c>
       <c r="AA174">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB174">
         <v>-1</v>
@@ -15693,7 +15693,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7617319</v>
+        <v>7617318</v>
       </c>
       <c r="C177" t="s">
         <v>35</v>
@@ -15702,73 +15702,73 @@
         <v>45383.5</v>
       </c>
       <c r="E177" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F177" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G177">
+        <v>2</v>
+      </c>
+      <c r="H177">
+        <v>3</v>
+      </c>
+      <c r="I177" t="s">
+        <v>55</v>
+      </c>
+      <c r="J177">
+        <v>1.6</v>
+      </c>
+      <c r="K177">
+        <v>4.2</v>
+      </c>
+      <c r="L177">
+        <v>5</v>
+      </c>
+      <c r="M177">
+        <v>1.5</v>
+      </c>
+      <c r="N177">
         <v>4</v>
       </c>
-      <c r="H177">
-        <v>0</v>
-      </c>
-      <c r="I177" t="s">
-        <v>56</v>
-      </c>
-      <c r="J177">
-        <v>1.45</v>
-      </c>
-      <c r="K177">
-        <v>4.75</v>
-      </c>
-      <c r="L177">
-        <v>6</v>
-      </c>
-      <c r="M177">
-        <v>1.4</v>
-      </c>
-      <c r="N177">
-        <v>5</v>
-      </c>
       <c r="O177">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="P177">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="Q177">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R177">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="S177">
         <v>2.75</v>
       </c>
       <c r="T177">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="U177">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V177">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W177">
         <v>-1</v>
       </c>
       <c r="X177">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Y177">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AA177">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB177">
         <v>-1</v>
@@ -15779,7 +15779,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7617321</v>
+        <v>7617320</v>
       </c>
       <c r="C178" t="s">
         <v>35</v>
@@ -15788,76 +15788,76 @@
         <v>45383.5</v>
       </c>
       <c r="E178" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F178" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G178">
         <v>2</v>
       </c>
       <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178" t="s">
+        <v>56</v>
+      </c>
+      <c r="J178">
+        <v>1.6</v>
+      </c>
+      <c r="K178">
+        <v>4.2</v>
+      </c>
+      <c r="L178">
+        <v>5</v>
+      </c>
+      <c r="M178">
+        <v>1.615</v>
+      </c>
+      <c r="N178">
         <v>4</v>
       </c>
-      <c r="I178" t="s">
-        <v>55</v>
-      </c>
-      <c r="J178">
-        <v>3.1</v>
-      </c>
-      <c r="K178">
-        <v>3.75</v>
-      </c>
-      <c r="L178">
-        <v>2.1</v>
-      </c>
-      <c r="M178">
-        <v>3.6</v>
-      </c>
-      <c r="N178">
-        <v>3.5</v>
-      </c>
       <c r="O178">
-        <v>2.05</v>
+        <v>5.5</v>
       </c>
       <c r="P178">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q178">
-        <v>1.8</v>
+        <v>2.06</v>
       </c>
       <c r="R178">
-        <v>2.05</v>
+        <v>1.84</v>
       </c>
       <c r="S178">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T178">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U178">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V178">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="W178">
         <v>-1</v>
       </c>
       <c r="X178">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y178">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="Z178">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB178">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="179" spans="1:28">
@@ -15865,7 +15865,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7617320</v>
+        <v>7617321</v>
       </c>
       <c r="C179" t="s">
         <v>35</v>
@@ -15874,76 +15874,76 @@
         <v>45383.5</v>
       </c>
       <c r="E179" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F179" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G179">
         <v>2</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I179" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J179">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="K179">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="L179">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="M179">
-        <v>1.615</v>
+        <v>3.6</v>
       </c>
       <c r="N179">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O179">
-        <v>5.5</v>
+        <v>2.05</v>
       </c>
       <c r="P179">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Q179">
-        <v>2.06</v>
+        <v>1.8</v>
       </c>
       <c r="R179">
-        <v>1.84</v>
+        <v>2.05</v>
       </c>
       <c r="S179">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T179">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U179">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V179">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="W179">
         <v>-1</v>
       </c>
       <c r="X179">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y179">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA179">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB179">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:28">
@@ -15951,7 +15951,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7617318</v>
+        <v>7617319</v>
       </c>
       <c r="C180" t="s">
         <v>35</v>
@@ -15960,73 +15960,73 @@
         <v>45383.5</v>
       </c>
       <c r="E180" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F180" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G180">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H180">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J180">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="K180">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="L180">
+        <v>6</v>
+      </c>
+      <c r="M180">
+        <v>1.4</v>
+      </c>
+      <c r="N180">
         <v>5</v>
       </c>
-      <c r="M180">
-        <v>1.5</v>
-      </c>
-      <c r="N180">
-        <v>4</v>
-      </c>
       <c r="O180">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="P180">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="Q180">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R180">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="S180">
         <v>2.75</v>
       </c>
       <c r="T180">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="U180">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V180">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W180">
         <v>-1</v>
       </c>
       <c r="X180">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z180">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB180">
         <v>-1</v>
@@ -16135,7 +16135,7 @@
         <v>53</v>
       </c>
       <c r="F182" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -16381,7 +16381,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7617325</v>
+        <v>7617328</v>
       </c>
       <c r="C185" t="s">
         <v>35</v>
@@ -16390,10 +16390,10 @@
         <v>45389.5</v>
       </c>
       <c r="E185" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F185" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -16405,40 +16405,40 @@
         <v>55</v>
       </c>
       <c r="J185">
-        <v>4.8</v>
+        <v>1.571</v>
       </c>
       <c r="K185">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="L185">
-        <v>1.571</v>
+        <v>5</v>
       </c>
       <c r="M185">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="N185">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O185">
-        <v>1.666</v>
+        <v>4.333</v>
       </c>
       <c r="P185">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="Q185">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="R185">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S185">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T185">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U185">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V185">
         <v>-1</v>
@@ -16447,19 +16447,19 @@
         <v>-1</v>
       </c>
       <c r="X185">
-        <v>0.6659999999999999</v>
+        <v>3.333</v>
       </c>
       <c r="Y185">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z185">
-        <v>0.4125</v>
+        <v>0.875</v>
       </c>
       <c r="AA185">
         <v>-1</v>
       </c>
       <c r="AB185">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="186" spans="1:28">
@@ -16467,7 +16467,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7617326</v>
+        <v>7617325</v>
       </c>
       <c r="C186" t="s">
         <v>35</v>
@@ -16476,55 +16476,55 @@
         <v>45389.5</v>
       </c>
       <c r="E186" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F186" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G186">
         <v>0</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186" t="s">
         <v>55</v>
       </c>
       <c r="J186">
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
       <c r="K186">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="L186">
+        <v>1.571</v>
+      </c>
+      <c r="M186">
+        <v>4.5</v>
+      </c>
+      <c r="N186">
+        <v>4.2</v>
+      </c>
+      <c r="O186">
+        <v>1.666</v>
+      </c>
+      <c r="P186">
+        <v>0.75</v>
+      </c>
+      <c r="Q186">
+        <v>2.025</v>
+      </c>
+      <c r="R186">
+        <v>1.825</v>
+      </c>
+      <c r="S186">
         <v>2.75</v>
       </c>
-      <c r="M186">
-        <v>3</v>
-      </c>
-      <c r="N186">
-        <v>3.5</v>
-      </c>
-      <c r="O186">
-        <v>2.3</v>
-      </c>
-      <c r="P186">
-        <v>0.25</v>
-      </c>
-      <c r="Q186">
-        <v>1.87</v>
-      </c>
-      <c r="R186">
-        <v>2.03</v>
-      </c>
-      <c r="S186">
-        <v>2.5</v>
-      </c>
       <c r="T186">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U186">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V186">
         <v>-1</v>
@@ -16533,19 +16533,19 @@
         <v>-1</v>
       </c>
       <c r="X186">
-        <v>1.3</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z186">
-        <v>1.03</v>
+        <v>0.4125</v>
       </c>
       <c r="AA186">
         <v>-1</v>
       </c>
       <c r="AB186">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="187" spans="1:28">
@@ -16553,7 +16553,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7617328</v>
+        <v>7617326</v>
       </c>
       <c r="C187" t="s">
         <v>35</v>
@@ -16562,55 +16562,55 @@
         <v>45389.5</v>
       </c>
       <c r="E187" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F187" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G187">
         <v>0</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I187" t="s">
         <v>55</v>
       </c>
       <c r="J187">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="K187">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="L187">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="M187">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="N187">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O187">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="P187">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q187">
-        <v>1.975</v>
+        <v>1.87</v>
       </c>
       <c r="R187">
-        <v>1.875</v>
+        <v>2.03</v>
       </c>
       <c r="S187">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T187">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U187">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V187">
         <v>-1</v>
@@ -16619,19 +16619,19 @@
         <v>-1</v>
       </c>
       <c r="X187">
-        <v>3.333</v>
+        <v>1.3</v>
       </c>
       <c r="Y187">
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0.875</v>
+        <v>1.03</v>
       </c>
       <c r="AA187">
         <v>-1</v>
       </c>
       <c r="AB187">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="188" spans="1:28">
@@ -17081,7 +17081,7 @@
         <v>42</v>
       </c>
       <c r="F193" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G193">
         <v>1</v>
@@ -17250,7 +17250,7 @@
         <v>45396.5</v>
       </c>
       <c r="E195" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F195" t="s">
         <v>54</v>
@@ -17511,7 +17511,7 @@
         <v>49</v>
       </c>
       <c r="F198" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G198">
         <v>1</v>
@@ -17594,7 +17594,7 @@
         <v>45399.54166666666</v>
       </c>
       <c r="E199" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F199" t="s">
         <v>45</v>
@@ -17680,7 +17680,7 @@
         <v>45403.39583333334</v>
       </c>
       <c r="E200" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F200" t="s">
         <v>41</v>
@@ -18285,7 +18285,7 @@
         <v>47</v>
       </c>
       <c r="F207" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G207">
         <v>1</v>
@@ -18454,7 +18454,7 @@
         <v>45410.5</v>
       </c>
       <c r="E209" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F209" t="s">
         <v>44</v>
@@ -18617,7 +18617,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7617345</v>
+        <v>7617346</v>
       </c>
       <c r="C211" t="s">
         <v>35</v>
@@ -18626,67 +18626,67 @@
         <v>45410.5</v>
       </c>
       <c r="E211" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F211" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H211">
         <v>0</v>
       </c>
       <c r="I211" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J211">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="K211">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="L211">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="M211">
-        <v>1.85</v>
+        <v>4.333</v>
       </c>
       <c r="N211">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="O211">
-        <v>4.333</v>
+        <v>1.7</v>
       </c>
       <c r="P211">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q211">
-        <v>1.88</v>
+        <v>1.975</v>
       </c>
       <c r="R211">
-        <v>2.02</v>
+        <v>1.875</v>
       </c>
       <c r="S211">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T211">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U211">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V211">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W211">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X211">
         <v>-1</v>
       </c>
       <c r="Y211">
-        <v>0.8799999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z211">
         <v>-1</v>
@@ -18695,7 +18695,7 @@
         <v>-1</v>
       </c>
       <c r="AB211">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="212" spans="1:28">
@@ -18703,7 +18703,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7617349</v>
+        <v>7617345</v>
       </c>
       <c r="C212" t="s">
         <v>35</v>
@@ -18712,76 +18712,76 @@
         <v>45410.5</v>
       </c>
       <c r="E212" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F212" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="G212">
+        <v>1</v>
+      </c>
+      <c r="H212">
+        <v>0</v>
+      </c>
+      <c r="I212" t="s">
+        <v>56</v>
+      </c>
+      <c r="J212">
         <v>2</v>
-      </c>
-      <c r="H212">
-        <v>2</v>
-      </c>
-      <c r="I212" t="s">
-        <v>57</v>
-      </c>
-      <c r="J212">
-        <v>1.909</v>
       </c>
       <c r="K212">
         <v>3.6</v>
       </c>
       <c r="L212">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M212">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="N212">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O212">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="P212">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q212">
-        <v>2.06</v>
+        <v>1.88</v>
       </c>
       <c r="R212">
-        <v>1.84</v>
+        <v>2.02</v>
       </c>
       <c r="S212">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T212">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="U212">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V212">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W212">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X212">
         <v>-1</v>
       </c>
       <c r="Y212">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="Z212">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA212">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:28">
@@ -18789,7 +18789,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7617346</v>
+        <v>7617349</v>
       </c>
       <c r="C213" t="s">
         <v>35</v>
@@ -18798,76 +18798,76 @@
         <v>45410.5</v>
       </c>
       <c r="E213" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F213" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G213">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="s">
         <v>57</v>
       </c>
       <c r="J213">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="K213">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="L213">
-        <v>1.727</v>
+        <v>3.8</v>
       </c>
       <c r="M213">
-        <v>4.333</v>
+        <v>1.6</v>
       </c>
       <c r="N213">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="O213">
-        <v>1.7</v>
+        <v>5.75</v>
       </c>
       <c r="P213">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q213">
-        <v>1.975</v>
+        <v>2.06</v>
       </c>
       <c r="R213">
-        <v>1.875</v>
+        <v>1.84</v>
       </c>
       <c r="S213">
         <v>2.75</v>
       </c>
       <c r="T213">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U213">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V213">
         <v>-1</v>
       </c>
       <c r="W213">
-        <v>3.333</v>
+        <v>2.8</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA213">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB213">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:28">
@@ -18887,7 +18887,7 @@
         <v>40</v>
       </c>
       <c r="F214" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G214">
         <v>1</v>
@@ -19071,13 +19071,13 @@
         <v>4.333</v>
       </c>
       <c r="M216">
-        <v>1.533</v>
+        <v>1.55</v>
       </c>
       <c r="N216">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="O216">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="P216">
         <v>-1</v>
@@ -19136,7 +19136,7 @@
         <v>3</v>
       </c>
       <c r="M217">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="N217">
         <v>3.6</v>
@@ -19145,22 +19145,22 @@
         <v>2.8</v>
       </c>
       <c r="P217">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q217">
-        <v>2.03</v>
+        <v>1.83</v>
       </c>
       <c r="R217">
-        <v>1.87</v>
+        <v>2.07</v>
       </c>
       <c r="S217">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T217">
+        <v>1.8</v>
+      </c>
+      <c r="U217">
         <v>2.05</v>
-      </c>
-      <c r="U217">
-        <v>1.8</v>
       </c>
       <c r="V217">
         <v>0</v>
@@ -19189,7 +19189,7 @@
         <v>37</v>
       </c>
       <c r="F218" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J218">
         <v>4.5</v>
@@ -19207,16 +19207,16 @@
         <v>4.2</v>
       </c>
       <c r="O218">
-        <v>1.6</v>
+        <v>1.615</v>
       </c>
       <c r="P218">
         <v>1</v>
       </c>
       <c r="Q218">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="R218">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="S218">
         <v>3</v>
@@ -19266,31 +19266,31 @@
         <v>2.875</v>
       </c>
       <c r="M219">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N219">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O219">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="P219">
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
       <c r="R219">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="S219">
         <v>2.5</v>
       </c>
       <c r="T219">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="U219">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V219">
         <v>0</v>
@@ -19316,19 +19316,19 @@
         <v>45417.5</v>
       </c>
       <c r="E220" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F220" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J220">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K220">
         <v>3.4</v>
       </c>
       <c r="L220">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M220">
         <v>2.15</v>
@@ -19337,25 +19337,25 @@
         <v>3.4</v>
       </c>
       <c r="O220">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P220">
         <v>-0.25</v>
       </c>
       <c r="Q220">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="R220">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="S220">
         <v>2.5</v>
       </c>
       <c r="T220">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U220">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V220">
         <v>0</v>
@@ -19399,10 +19399,10 @@
         <v>1.285</v>
       </c>
       <c r="N221">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="O221">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P221">
         <v>-1.75</v>
@@ -19446,37 +19446,37 @@
         <v>45417.5</v>
       </c>
       <c r="E222" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F222" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J222">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K222">
         <v>3.4</v>
       </c>
       <c r="L222">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M222">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="N222">
         <v>3.4</v>
       </c>
       <c r="O222">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P222">
         <v>-0.25</v>
       </c>
       <c r="Q222">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="R222">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="S222">
         <v>2.5</v>
@@ -19526,10 +19526,10 @@
         <v>4.75</v>
       </c>
       <c r="M223">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="N223">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="O223">
         <v>5.5</v>
@@ -19538,10 +19538,10 @@
         <v>-1</v>
       </c>
       <c r="Q223">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="R223">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S223">
         <v>3</v>

--- a/Norway Eliteserien/Norway Eliteserien.xlsx
+++ b/Norway Eliteserien/Norway Eliteserien.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -97,19 +97,25 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
+    <t>7617359</t>
+  </si>
+  <si>
     <t>7616742</t>
   </si>
   <si>
     <t>7617364</t>
   </si>
   <si>
+    <t>7617363</t>
+  </si>
+  <si>
     <t>7617362</t>
   </si>
   <si>
-    <t>7617360</t>
+    <t>7617361</t>
   </si>
   <si>
-    <t>7617361</t>
+    <t>7617360</t>
   </si>
   <si>
     <t>7617365</t>
@@ -543,7 +549,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB229"/>
+  <dimension ref="A1:AB231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -640,16 +646,16 @@
         <v>6011478</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2">
         <v>45081.5</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -658,7 +664,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J2">
         <v>5.25</v>
@@ -726,16 +732,16 @@
         <v>6011395</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2">
         <v>45081.5</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -744,7 +750,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3">
         <v>2.75</v>
@@ -812,16 +818,16 @@
         <v>6011394</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2">
         <v>45081.5</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -830,7 +836,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J4">
         <v>2.8</v>
@@ -898,16 +904,16 @@
         <v>6008603</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2">
         <v>45081.5</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -916,7 +922,7 @@
         <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J5">
         <v>4.2</v>
@@ -984,16 +990,16 @@
         <v>6011479</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2">
         <v>45081.5</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -1002,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J6">
         <v>1.65</v>
@@ -1070,16 +1076,16 @@
         <v>6011981</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2">
         <v>45081.5</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -1088,7 +1094,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J7">
         <v>1.7</v>
@@ -1156,16 +1162,16 @@
         <v>6011480</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2">
         <v>45081.5</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1174,7 +1180,7 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J8">
         <v>1.75</v>
@@ -1242,16 +1248,16 @@
         <v>6008769</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2">
         <v>45081.59375</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1260,7 +1266,7 @@
         <v>4</v>
       </c>
       <c r="I9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J9">
         <v>3.1</v>
@@ -1328,16 +1334,16 @@
         <v>6011930</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D10" s="2">
         <v>45088.5</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1346,7 +1352,7 @@
         <v>3</v>
       </c>
       <c r="I10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J10">
         <v>2</v>
@@ -1414,16 +1420,16 @@
         <v>6011982</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D11" s="2">
         <v>45088.5</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1432,7 +1438,7 @@
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J11">
         <v>2.75</v>
@@ -1500,16 +1506,16 @@
         <v>6011983</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2">
         <v>45088.5</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1518,7 +1524,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J12">
         <v>1.7</v>
@@ -1586,16 +1592,16 @@
         <v>6008770</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D13" s="2">
         <v>45088.5</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1604,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J13">
         <v>4.2</v>
@@ -1672,16 +1678,16 @@
         <v>6011396</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D14" s="2">
         <v>45088.5</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1690,7 +1696,7 @@
         <v>3</v>
       </c>
       <c r="I14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J14">
         <v>2.3</v>
@@ -1758,16 +1764,16 @@
         <v>6011481</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D15" s="2">
         <v>45088.5</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -1776,7 +1782,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J15">
         <v>1.909</v>
@@ -1844,16 +1850,16 @@
         <v>6008604</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D16" s="2">
         <v>45088.5</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1862,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J16">
         <v>1.2</v>
@@ -1930,16 +1936,16 @@
         <v>6011984</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D17" s="2">
         <v>45088.59375</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1948,7 +1954,7 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J17">
         <v>1.571</v>
@@ -2016,16 +2022,16 @@
         <v>6011985</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D18" s="2">
         <v>45101.54166666666</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -2034,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J18">
         <v>3</v>
@@ -2102,16 +2108,16 @@
         <v>6011397</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D19" s="2">
         <v>45102.5</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2120,7 +2126,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J19">
         <v>2.375</v>
@@ -2188,16 +2194,16 @@
         <v>6011931</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D20" s="2">
         <v>45102.5</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2206,7 +2212,7 @@
         <v>3</v>
       </c>
       <c r="I20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J20">
         <v>2.1</v>
@@ -2274,16 +2280,16 @@
         <v>6011398</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D21" s="2">
         <v>45102.5</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2292,7 +2298,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J21">
         <v>2</v>
@@ -2360,16 +2366,16 @@
         <v>6008771</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D22" s="2">
         <v>45102.5</v>
       </c>
       <c r="E22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2378,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J22">
         <v>1.2</v>
@@ -2446,16 +2452,16 @@
         <v>6008605</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D23" s="2">
         <v>45102.59375</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -2464,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J23">
         <v>5.25</v>
@@ -2532,16 +2538,16 @@
         <v>6012010</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D24" s="2">
         <v>45108.54166666666</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2550,7 +2556,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J24">
         <v>2.25</v>
@@ -2618,16 +2624,16 @@
         <v>6011400</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D25" s="2">
         <v>45109.5</v>
       </c>
       <c r="E25" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2636,7 +2642,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J25">
         <v>1.6</v>
@@ -2704,16 +2710,16 @@
         <v>6011484</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D26" s="2">
         <v>45109.5</v>
       </c>
       <c r="E26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2722,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J26">
         <v>3.2</v>
@@ -2790,16 +2796,16 @@
         <v>6011485</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D27" s="2">
         <v>45109.5</v>
       </c>
       <c r="E27" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -2808,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J27">
         <v>1.25</v>
@@ -2876,16 +2882,16 @@
         <v>6011486</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D28" s="2">
         <v>45109.5</v>
       </c>
       <c r="E28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G28">
         <v>6</v>
@@ -2894,7 +2900,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J28">
         <v>1.45</v>
@@ -2962,16 +2968,16 @@
         <v>6011399</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D29" s="2">
         <v>45109.5</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2980,7 +2986,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J29">
         <v>2.4</v>
@@ -3048,16 +3054,16 @@
         <v>6008606</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D30" s="2">
         <v>45109.59375</v>
       </c>
       <c r="E30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F30" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3066,7 +3072,7 @@
         <v>2</v>
       </c>
       <c r="I30" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J30">
         <v>1.727</v>
@@ -3134,16 +3140,16 @@
         <v>6011986</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D31" s="2">
         <v>45110.58333333334</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3152,7 +3158,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J31">
         <v>2.05</v>
@@ -3220,16 +3226,16 @@
         <v>6011487</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D32" s="2">
         <v>45114.58333333334</v>
       </c>
       <c r="E32" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3238,7 +3244,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J32">
         <v>1.909</v>
@@ -3306,16 +3312,16 @@
         <v>6011488</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D33" s="2">
         <v>45115.54166666666</v>
       </c>
       <c r="E33" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3324,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J33">
         <v>1.4</v>
@@ -3392,16 +3398,16 @@
         <v>6011489</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D34" s="2">
         <v>45116.5</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3410,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J34">
         <v>2.75</v>
@@ -3478,16 +3484,16 @@
         <v>6011987</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D35" s="2">
         <v>45116.5</v>
       </c>
       <c r="E35" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3496,7 +3502,7 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J35">
         <v>2.15</v>
@@ -3564,16 +3570,16 @@
         <v>6011932</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D36" s="2">
         <v>45116.5</v>
       </c>
       <c r="E36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G36">
         <v>5</v>
@@ -3582,7 +3588,7 @@
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J36">
         <v>2.9</v>
@@ -3650,16 +3656,16 @@
         <v>6008607</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D37" s="2">
         <v>45116.5</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F37" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3668,7 +3674,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J37">
         <v>5.25</v>
@@ -3736,16 +3742,16 @@
         <v>6011401</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D38" s="2">
         <v>45116.5</v>
       </c>
       <c r="E38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3754,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J38">
         <v>2.4</v>
@@ -3822,16 +3828,16 @@
         <v>6008772</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D39" s="2">
         <v>45116.59375</v>
       </c>
       <c r="E39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" t="s">
         <v>49</v>
-      </c>
-      <c r="F39" t="s">
-        <v>47</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -3840,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J39">
         <v>2</v>
@@ -3908,16 +3914,16 @@
         <v>6008773</v>
       </c>
       <c r="C40" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D40" s="2">
         <v>45122.54166666666</v>
       </c>
       <c r="E40" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3926,7 +3932,7 @@
         <v>4</v>
       </c>
       <c r="I40" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J40">
         <v>3.75</v>
@@ -3994,16 +4000,16 @@
         <v>6011403</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D41" s="2">
         <v>45123.5</v>
       </c>
       <c r="E41" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -4012,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J41">
         <v>1.95</v>
@@ -4080,16 +4086,16 @@
         <v>6011490</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D42" s="2">
         <v>45123.5</v>
       </c>
       <c r="E42" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G42">
         <v>4</v>
@@ -4098,7 +4104,7 @@
         <v>2</v>
       </c>
       <c r="I42" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J42">
         <v>1.333</v>
@@ -4166,16 +4172,16 @@
         <v>6011491</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D43" s="2">
         <v>45123.5</v>
       </c>
       <c r="E43" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -4184,7 +4190,7 @@
         <v>3</v>
       </c>
       <c r="I43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J43">
         <v>1.444</v>
@@ -4252,16 +4258,16 @@
         <v>6008608</v>
       </c>
       <c r="C44" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D44" s="2">
         <v>45123.5</v>
       </c>
       <c r="E44" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F44" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -4270,7 +4276,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J44">
         <v>1.181</v>
@@ -4338,16 +4344,16 @@
         <v>6011988</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D45" s="2">
         <v>45123.5</v>
       </c>
       <c r="E45" t="s">
+        <v>45</v>
+      </c>
+      <c r="F45" t="s">
         <v>43</v>
-      </c>
-      <c r="F45" t="s">
-        <v>41</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -4356,7 +4362,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J45">
         <v>3.1</v>
@@ -4424,16 +4430,16 @@
         <v>6011402</v>
       </c>
       <c r="C46" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D46" s="2">
         <v>45123.5</v>
       </c>
       <c r="E46" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F46" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -4442,7 +4448,7 @@
         <v>3</v>
       </c>
       <c r="I46" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J46">
         <v>2.3</v>
@@ -4510,16 +4516,16 @@
         <v>6011989</v>
       </c>
       <c r="C47" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D47" s="2">
         <v>45123.59375</v>
       </c>
       <c r="E47" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F47" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -4528,7 +4534,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J47">
         <v>1.363</v>
@@ -4596,16 +4602,16 @@
         <v>6765728</v>
       </c>
       <c r="C48" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D48" s="2">
         <v>45126.54166666666</v>
       </c>
       <c r="E48" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G48">
         <v>5</v>
@@ -4614,7 +4620,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J48">
         <v>1.571</v>
@@ -4682,16 +4688,16 @@
         <v>6008774</v>
       </c>
       <c r="C49" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D49" s="2">
         <v>45129.54166666666</v>
       </c>
       <c r="E49" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F49" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G49">
         <v>5</v>
@@ -4700,7 +4706,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J49">
         <v>1.45</v>
@@ -4768,16 +4774,16 @@
         <v>6011404</v>
       </c>
       <c r="C50" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D50" s="2">
         <v>45130.5</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -4786,7 +4792,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J50">
         <v>2.6</v>
@@ -4854,16 +4860,16 @@
         <v>6011493</v>
       </c>
       <c r="C51" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D51" s="2">
         <v>45130.5</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4872,7 +4878,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J51">
         <v>3.3</v>
@@ -4940,16 +4946,16 @@
         <v>6011492</v>
       </c>
       <c r="C52" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D52" s="2">
         <v>45130.5</v>
       </c>
       <c r="E52" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F52" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G52">
         <v>3</v>
@@ -4958,7 +4964,7 @@
         <v>2</v>
       </c>
       <c r="I52" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J52">
         <v>2.25</v>
@@ -5026,16 +5032,16 @@
         <v>6011405</v>
       </c>
       <c r="C53" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D53" s="2">
         <v>45130.5</v>
       </c>
       <c r="E53" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F53" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G53">
         <v>3</v>
@@ -5044,7 +5050,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J53">
         <v>3.3</v>
@@ -5112,16 +5118,16 @@
         <v>6008609</v>
       </c>
       <c r="C54" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D54" s="2">
         <v>45130.5</v>
       </c>
       <c r="E54" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F54" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -5130,7 +5136,7 @@
         <v>5</v>
       </c>
       <c r="I54" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J54">
         <v>7</v>
@@ -5198,16 +5204,16 @@
         <v>6011990</v>
       </c>
       <c r="C55" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D55" s="2">
         <v>45130.59375</v>
       </c>
       <c r="E55" t="s">
+        <v>42</v>
+      </c>
+      <c r="F55" t="s">
         <v>40</v>
-      </c>
-      <c r="F55" t="s">
-        <v>38</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -5216,7 +5222,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J55">
         <v>2.625</v>
@@ -5284,16 +5290,16 @@
         <v>6011494</v>
       </c>
       <c r="C56" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D56" s="2">
         <v>45131.58333333334</v>
       </c>
       <c r="E56" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G56">
         <v>3</v>
@@ -5302,7 +5308,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J56">
         <v>1.5</v>
@@ -5370,16 +5376,16 @@
         <v>6011498</v>
       </c>
       <c r="C57" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D57" s="2">
         <v>45136.4375</v>
       </c>
       <c r="E57" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -5388,7 +5394,7 @@
         <v>3</v>
       </c>
       <c r="I57" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J57">
         <v>1.615</v>
@@ -5456,16 +5462,16 @@
         <v>6008775</v>
       </c>
       <c r="C58" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D58" s="2">
         <v>45136.54166666666</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -5474,7 +5480,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J58">
         <v>4.333</v>
@@ -5542,16 +5548,16 @@
         <v>6011406</v>
       </c>
       <c r="C59" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D59" s="2">
         <v>45137.5</v>
       </c>
       <c r="E59" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F59" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G59">
         <v>3</v>
@@ -5560,7 +5566,7 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J59">
         <v>1.8</v>
@@ -5628,16 +5634,16 @@
         <v>6011495</v>
       </c>
       <c r="C60" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D60" s="2">
         <v>45137.5</v>
       </c>
       <c r="E60" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5646,7 +5652,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J60">
         <v>2.375</v>
@@ -5714,16 +5720,16 @@
         <v>6011496</v>
       </c>
       <c r="C61" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D61" s="2">
         <v>45137.5</v>
       </c>
       <c r="E61" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F61" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G61">
         <v>3</v>
@@ -5732,7 +5738,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J61">
         <v>1.5</v>
@@ -5800,16 +5806,16 @@
         <v>6011991</v>
       </c>
       <c r="C62" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D62" s="2">
         <v>45137.5</v>
       </c>
       <c r="E62" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -5818,7 +5824,7 @@
         <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J62">
         <v>1.833</v>
@@ -5886,16 +5892,16 @@
         <v>6011497</v>
       </c>
       <c r="C63" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D63" s="2">
         <v>45137.5</v>
       </c>
       <c r="E63" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -5904,7 +5910,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J63">
         <v>1.4</v>
@@ -5972,16 +5978,16 @@
         <v>6008610</v>
       </c>
       <c r="C64" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D64" s="2">
         <v>45137.59375</v>
       </c>
       <c r="E64" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -5990,7 +5996,7 @@
         <v>2</v>
       </c>
       <c r="I64" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J64">
         <v>1.3</v>
@@ -6058,16 +6064,16 @@
         <v>6011992</v>
       </c>
       <c r="C65" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D65" s="2">
         <v>45143.54166666666</v>
       </c>
       <c r="E65" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -6076,7 +6082,7 @@
         <v>3</v>
       </c>
       <c r="I65" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J65">
         <v>2.15</v>
@@ -6144,16 +6150,16 @@
         <v>6011407</v>
       </c>
       <c r="C66" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D66" s="2">
         <v>45144.5</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F66" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G66">
         <v>4</v>
@@ -6162,7 +6168,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J66">
         <v>2.1</v>
@@ -6230,16 +6236,16 @@
         <v>6011499</v>
       </c>
       <c r="C67" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D67" s="2">
         <v>45144.5</v>
       </c>
       <c r="E67" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F67" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -6248,7 +6254,7 @@
         <v>2</v>
       </c>
       <c r="I67" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J67">
         <v>3.8</v>
@@ -6316,16 +6322,16 @@
         <v>6011500</v>
       </c>
       <c r="C68" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D68" s="2">
         <v>45144.5</v>
       </c>
       <c r="E68" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F68" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6334,7 +6340,7 @@
         <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J68">
         <v>3</v>
@@ -6402,16 +6408,16 @@
         <v>6011501</v>
       </c>
       <c r="C69" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D69" s="2">
         <v>45144.5</v>
       </c>
       <c r="E69" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F69" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G69">
         <v>5</v>
@@ -6420,7 +6426,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J69">
         <v>4.75</v>
@@ -6488,16 +6494,16 @@
         <v>6011408</v>
       </c>
       <c r="C70" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D70" s="2">
         <v>45144.5</v>
       </c>
       <c r="E70" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F70" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G70">
         <v>3</v>
@@ -6506,7 +6512,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J70">
         <v>2.5</v>
@@ -6574,16 +6580,16 @@
         <v>6008611</v>
       </c>
       <c r="C71" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D71" s="2">
         <v>45144.59375</v>
       </c>
       <c r="E71" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F71" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G71">
         <v>3</v>
@@ -6592,7 +6598,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J71">
         <v>3.1</v>
@@ -6660,16 +6666,16 @@
         <v>6008777</v>
       </c>
       <c r="C72" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D72" s="2">
         <v>45150.45833333334</v>
       </c>
       <c r="E72" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F72" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6678,7 +6684,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J72">
         <v>5.5</v>
@@ -6746,16 +6752,16 @@
         <v>6011933</v>
       </c>
       <c r="C73" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D73" s="2">
         <v>45150.54166666666</v>
       </c>
       <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
         <v>42</v>
-      </c>
-      <c r="F73" t="s">
-        <v>40</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -6764,7 +6770,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J73">
         <v>1.5</v>
@@ -6832,16 +6838,16 @@
         <v>6011502</v>
       </c>
       <c r="C74" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D74" s="2">
         <v>45151.5</v>
       </c>
       <c r="E74" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F74" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -6850,7 +6856,7 @@
         <v>2</v>
       </c>
       <c r="I74" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J74">
         <v>2.15</v>
@@ -6918,16 +6924,16 @@
         <v>6012732</v>
       </c>
       <c r="C75" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D75" s="2">
         <v>45151.5</v>
       </c>
       <c r="E75" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6936,7 +6942,7 @@
         <v>3</v>
       </c>
       <c r="I75" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J75">
         <v>2.15</v>
@@ -7004,16 +7010,16 @@
         <v>6011503</v>
       </c>
       <c r="C76" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D76" s="2">
         <v>45151.59375</v>
       </c>
       <c r="E76" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F76" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -7022,7 +7028,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J76">
         <v>1.65</v>
@@ -7090,16 +7096,16 @@
         <v>6011410</v>
       </c>
       <c r="C77" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D77" s="2">
         <v>45157.54166666666</v>
       </c>
       <c r="E77" t="s">
+        <v>46</v>
+      </c>
+      <c r="F77" t="s">
         <v>44</v>
-      </c>
-      <c r="F77" t="s">
-        <v>42</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -7108,7 +7114,7 @@
         <v>3</v>
       </c>
       <c r="I77" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J77">
         <v>2.8</v>
@@ -7176,16 +7182,16 @@
         <v>6008778</v>
       </c>
       <c r="C78" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D78" s="2">
         <v>45157.54166666666</v>
       </c>
       <c r="E78" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F78" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -7194,7 +7200,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J78">
         <v>1.363</v>
@@ -7262,16 +7268,16 @@
         <v>6011504</v>
       </c>
       <c r="C79" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D79" s="2">
         <v>45158.5</v>
       </c>
       <c r="E79" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G79">
         <v>5</v>
@@ -7280,7 +7286,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J79">
         <v>1.222</v>
@@ -7348,16 +7354,16 @@
         <v>6011995</v>
       </c>
       <c r="C80" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D80" s="2">
         <v>45158.5</v>
       </c>
       <c r="E80" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F80" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7366,7 +7372,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J80">
         <v>1.4</v>
@@ -7434,16 +7440,16 @@
         <v>6011505</v>
       </c>
       <c r="C81" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D81" s="2">
         <v>45158.5</v>
       </c>
       <c r="E81" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F81" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G81">
         <v>3</v>
@@ -7452,7 +7458,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J81">
         <v>2.9</v>
@@ -7520,16 +7526,16 @@
         <v>6008613</v>
       </c>
       <c r="C82" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D82" s="2">
         <v>45158.5</v>
       </c>
       <c r="E82" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F82" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7538,7 +7544,7 @@
         <v>3</v>
       </c>
       <c r="I82" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J82">
         <v>6</v>
@@ -7606,16 +7612,16 @@
         <v>6011411</v>
       </c>
       <c r="C83" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D83" s="2">
         <v>45158.5</v>
       </c>
       <c r="E83" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7624,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J83">
         <v>1.533</v>
@@ -7692,16 +7698,16 @@
         <v>6011994</v>
       </c>
       <c r="C84" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D84" s="2">
         <v>45158.59375</v>
       </c>
       <c r="E84" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F84" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7710,7 +7716,7 @@
         <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J84">
         <v>3.2</v>
@@ -7778,16 +7784,16 @@
         <v>6011412</v>
       </c>
       <c r="C85" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D85" s="2">
         <v>45164.54166666666</v>
       </c>
       <c r="E85" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G85">
         <v>4</v>
@@ -7796,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J85">
         <v>1.909</v>
@@ -7864,16 +7870,16 @@
         <v>6011507</v>
       </c>
       <c r="C86" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D86" s="2">
         <v>45165.5</v>
       </c>
       <c r="E86" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F86" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7882,7 +7888,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J86">
         <v>2.3</v>
@@ -7950,16 +7956,16 @@
         <v>6011413</v>
       </c>
       <c r="C87" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D87" s="2">
         <v>45165.5</v>
       </c>
       <c r="E87" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F87" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7968,7 +7974,7 @@
         <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J87">
         <v>1.75</v>
@@ -8036,16 +8042,16 @@
         <v>6011506</v>
       </c>
       <c r="C88" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D88" s="2">
         <v>45165.59375</v>
       </c>
       <c r="E88" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G88">
         <v>4</v>
@@ -8054,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J88">
         <v>1.5</v>
@@ -8122,16 +8128,16 @@
         <v>6012011</v>
       </c>
       <c r="C89" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D89" s="2">
         <v>45171.54166666666</v>
       </c>
       <c r="E89" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F89" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8140,7 +8146,7 @@
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J89">
         <v>1.571</v>
@@ -8208,16 +8214,16 @@
         <v>6008780</v>
       </c>
       <c r="C90" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D90" s="2">
         <v>45172.5</v>
       </c>
       <c r="E90" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F90" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -8226,7 +8232,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J90">
         <v>4.75</v>
@@ -8294,16 +8300,16 @@
         <v>6011934</v>
       </c>
       <c r="C91" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D91" s="2">
         <v>45172.5</v>
       </c>
       <c r="E91" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8312,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J91">
         <v>1.666</v>
@@ -8380,16 +8386,16 @@
         <v>6011997</v>
       </c>
       <c r="C92" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D92" s="2">
         <v>45172.5</v>
       </c>
       <c r="E92" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F92" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G92">
         <v>2</v>
@@ -8398,7 +8404,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J92">
         <v>2.2</v>
@@ -8466,16 +8472,16 @@
         <v>6011415</v>
       </c>
       <c r="C93" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D93" s="2">
         <v>45172.5</v>
       </c>
       <c r="E93" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G93">
         <v>3</v>
@@ -8484,7 +8490,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J93">
         <v>2.05</v>
@@ -8552,16 +8558,16 @@
         <v>6011509</v>
       </c>
       <c r="C94" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D94" s="2">
         <v>45172.5</v>
       </c>
       <c r="E94" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F94" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -8570,7 +8576,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J94">
         <v>3.5</v>
@@ -8638,16 +8644,16 @@
         <v>6011414</v>
       </c>
       <c r="C95" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D95" s="2">
         <v>45172.5</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G95">
         <v>3</v>
@@ -8656,7 +8662,7 @@
         <v>2</v>
       </c>
       <c r="I95" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J95">
         <v>1.7</v>
@@ -8724,16 +8730,16 @@
         <v>6008615</v>
       </c>
       <c r="C96" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D96" s="2">
         <v>45172.59375</v>
       </c>
       <c r="E96" t="s">
+        <v>50</v>
+      </c>
+      <c r="F96" t="s">
         <v>48</v>
-      </c>
-      <c r="F96" t="s">
-        <v>46</v>
       </c>
       <c r="G96">
         <v>4</v>
@@ -8742,7 +8748,7 @@
         <v>4</v>
       </c>
       <c r="I96" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J96">
         <v>5.5</v>
@@ -8810,16 +8816,16 @@
         <v>6011510</v>
       </c>
       <c r="C97" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D97" s="2">
         <v>45185.54166666666</v>
       </c>
       <c r="E97" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F97" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -8828,7 +8834,7 @@
         <v>2</v>
       </c>
       <c r="I97" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J97">
         <v>4.2</v>
@@ -8896,16 +8902,16 @@
         <v>6011511</v>
       </c>
       <c r="C98" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D98" s="2">
         <v>45185.54166666666</v>
       </c>
       <c r="E98" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F98" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -8914,7 +8920,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J98">
         <v>2.5</v>
@@ -8982,16 +8988,16 @@
         <v>6008781</v>
       </c>
       <c r="C99" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D99" s="2">
         <v>45185.54166666666</v>
       </c>
       <c r="E99" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F99" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G99">
         <v>4</v>
@@ -9000,7 +9006,7 @@
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J99">
         <v>1.333</v>
@@ -9068,16 +9074,16 @@
         <v>6011998</v>
       </c>
       <c r="C100" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D100" s="2">
         <v>45186.5</v>
       </c>
       <c r="E100" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -9086,7 +9092,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J100">
         <v>4</v>
@@ -9154,16 +9160,16 @@
         <v>6011935</v>
       </c>
       <c r="C101" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D101" s="2">
         <v>45186.5</v>
       </c>
       <c r="E101" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F101" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -9172,7 +9178,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J101">
         <v>2.15</v>
@@ -9240,16 +9246,16 @@
         <v>6011416</v>
       </c>
       <c r="C102" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D102" s="2">
         <v>45186.5</v>
       </c>
       <c r="E102" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F102" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G102">
         <v>2</v>
@@ -9258,7 +9264,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J102">
         <v>1.65</v>
@@ -9326,16 +9332,16 @@
         <v>6008616</v>
       </c>
       <c r="C103" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D103" s="2">
         <v>45186.5</v>
       </c>
       <c r="E103" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F103" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -9344,7 +9350,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J103">
         <v>4</v>
@@ -9412,16 +9418,16 @@
         <v>6011512</v>
       </c>
       <c r="C104" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D104" s="2">
         <v>45186.59375</v>
       </c>
       <c r="E104" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G104">
         <v>3</v>
@@ -9430,7 +9436,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J104">
         <v>1.5</v>
@@ -9498,16 +9504,16 @@
         <v>6011515</v>
       </c>
       <c r="C105" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D105" s="2">
         <v>45192.54166666666</v>
       </c>
       <c r="E105" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F105" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9516,7 +9522,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J105">
         <v>2.55</v>
@@ -9584,16 +9590,16 @@
         <v>6008617</v>
       </c>
       <c r="C106" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D106" s="2">
         <v>45193.5</v>
       </c>
       <c r="E106" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F106" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G106">
         <v>4</v>
@@ -9602,7 +9608,7 @@
         <v>2</v>
       </c>
       <c r="I106" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J106">
         <v>1.333</v>
@@ -9670,16 +9676,16 @@
         <v>6008782</v>
       </c>
       <c r="C107" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D107" s="2">
         <v>45193.5</v>
       </c>
       <c r="E107" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F107" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9688,7 +9694,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J107">
         <v>4.75</v>
@@ -9756,16 +9762,16 @@
         <v>6011999</v>
       </c>
       <c r="C108" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D108" s="2">
         <v>45193.5</v>
       </c>
       <c r="E108" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F108" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G108">
         <v>3</v>
@@ -9774,7 +9780,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J108">
         <v>1.85</v>
@@ -9842,16 +9848,16 @@
         <v>6011516</v>
       </c>
       <c r="C109" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D109" s="2">
         <v>45193.5</v>
       </c>
       <c r="E109" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F109" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -9860,7 +9866,7 @@
         <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J109">
         <v>3.1</v>
@@ -9928,16 +9934,16 @@
         <v>6011418</v>
       </c>
       <c r="C110" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D110" s="2">
         <v>45193.5</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F110" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -9946,7 +9952,7 @@
         <v>1</v>
       </c>
       <c r="I110" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J110">
         <v>2.1</v>
@@ -10014,16 +10020,16 @@
         <v>6011517</v>
       </c>
       <c r="C111" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D111" s="2">
         <v>45193.5</v>
       </c>
       <c r="E111" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G111">
         <v>4</v>
@@ -10032,7 +10038,7 @@
         <v>3</v>
       </c>
       <c r="I111" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J111">
         <v>1.3</v>
@@ -10100,16 +10106,16 @@
         <v>6011417</v>
       </c>
       <c r="C112" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D112" s="2">
         <v>45193.59375</v>
       </c>
       <c r="E112" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F112" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -10118,7 +10124,7 @@
         <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J112">
         <v>1.55</v>
@@ -10186,16 +10192,16 @@
         <v>7051355</v>
       </c>
       <c r="C113" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D113" s="2">
         <v>45199.41666666666</v>
       </c>
       <c r="E113" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F113" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10204,7 +10210,7 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J113">
         <v>2.875</v>
@@ -10272,16 +10278,16 @@
         <v>7101094</v>
       </c>
       <c r="C114" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D114" s="2">
         <v>45200.41666666666</v>
       </c>
       <c r="E114" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F114" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -10290,7 +10296,7 @@
         <v>2</v>
       </c>
       <c r="I114" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J114">
         <v>2.7</v>
@@ -10358,16 +10364,16 @@
         <v>7101390</v>
       </c>
       <c r="C115" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D115" s="2">
         <v>45200.5</v>
       </c>
       <c r="E115" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F115" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G115">
         <v>4</v>
@@ -10376,7 +10382,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J115">
         <v>1.85</v>
@@ -10444,16 +10450,16 @@
         <v>6794991</v>
       </c>
       <c r="C116" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D116" s="2">
         <v>45200.5</v>
       </c>
       <c r="E116" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F116" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -10462,7 +10468,7 @@
         <v>2</v>
       </c>
       <c r="I116" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J116">
         <v>3.25</v>
@@ -10530,16 +10536,16 @@
         <v>7101389</v>
       </c>
       <c r="C117" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D117" s="2">
         <v>45200.59375</v>
       </c>
       <c r="E117" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F117" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G117">
         <v>2</v>
@@ -10548,7 +10554,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J117">
         <v>1.25</v>
@@ -10616,16 +10622,16 @@
         <v>7100040</v>
       </c>
       <c r="C118" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D118" s="2">
         <v>45203.58333333334</v>
       </c>
       <c r="E118" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F118" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G118">
         <v>5</v>
@@ -10634,7 +10640,7 @@
         <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J118">
         <v>2.05</v>
@@ -10702,16 +10708,16 @@
         <v>6011419</v>
       </c>
       <c r="C119" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D119" s="2">
         <v>45206.54166666666</v>
       </c>
       <c r="E119" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F119" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -10720,7 +10726,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J119">
         <v>3.3</v>
@@ -10788,16 +10794,16 @@
         <v>6011518</v>
       </c>
       <c r="C120" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D120" s="2">
         <v>45207.5</v>
       </c>
       <c r="E120" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F120" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10806,7 +10812,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J120">
         <v>2.4</v>
@@ -10874,16 +10880,16 @@
         <v>6008618</v>
       </c>
       <c r="C121" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D121" s="2">
         <v>45207.5</v>
       </c>
       <c r="E121" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F121" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -10892,7 +10898,7 @@
         <v>3</v>
       </c>
       <c r="I121" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J121">
         <v>2.4</v>
@@ -10960,16 +10966,16 @@
         <v>6011936</v>
       </c>
       <c r="C122" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D122" s="2">
         <v>45207.5</v>
       </c>
       <c r="E122" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F122" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G122">
         <v>5</v>
@@ -10978,7 +10984,7 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J122">
         <v>1.85</v>
@@ -11046,16 +11052,16 @@
         <v>6011420</v>
       </c>
       <c r="C123" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D123" s="2">
         <v>45207.5</v>
       </c>
       <c r="E123" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F123" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -11064,7 +11070,7 @@
         <v>2</v>
       </c>
       <c r="I123" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J123">
         <v>1.444</v>
@@ -11132,16 +11138,16 @@
         <v>6012000</v>
       </c>
       <c r="C124" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D124" s="2">
         <v>45207.5</v>
       </c>
       <c r="E124" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F124" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11150,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J124">
         <v>3.25</v>
@@ -11218,16 +11224,16 @@
         <v>6011519</v>
       </c>
       <c r="C125" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D125" s="2">
         <v>45207.5</v>
       </c>
       <c r="E125" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F125" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -11236,7 +11242,7 @@
         <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J125">
         <v>2.4</v>
@@ -11304,16 +11310,16 @@
         <v>6012001</v>
       </c>
       <c r="C126" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D126" s="2">
         <v>45207.59375</v>
       </c>
       <c r="E126" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F126" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11322,7 +11328,7 @@
         <v>2</v>
       </c>
       <c r="I126" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J126">
         <v>3.2</v>
@@ -11390,16 +11396,16 @@
         <v>6008619</v>
       </c>
       <c r="C127" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D127" s="2">
         <v>45220.41666666666</v>
       </c>
       <c r="E127" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F127" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G127">
         <v>4</v>
@@ -11408,7 +11414,7 @@
         <v>3</v>
       </c>
       <c r="I127" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J127">
         <v>1.142</v>
@@ -11476,16 +11482,16 @@
         <v>6008783</v>
       </c>
       <c r="C128" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D128" s="2">
         <v>45220.54166666666</v>
       </c>
       <c r="E128" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F128" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G128">
         <v>3</v>
@@ -11494,7 +11500,7 @@
         <v>2</v>
       </c>
       <c r="I128" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J128">
         <v>2.3</v>
@@ -11562,16 +11568,16 @@
         <v>6012012</v>
       </c>
       <c r="C129" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D129" s="2">
         <v>45221.39583333334</v>
       </c>
       <c r="E129" t="s">
+        <v>41</v>
+      </c>
+      <c r="F129" t="s">
         <v>39</v>
-      </c>
-      <c r="F129" t="s">
-        <v>37</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11580,7 +11586,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J129">
         <v>1.95</v>
@@ -11648,16 +11654,16 @@
         <v>6012002</v>
       </c>
       <c r="C130" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D130" s="2">
         <v>45221.5</v>
       </c>
       <c r="E130" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F130" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G130">
         <v>1</v>
@@ -11666,7 +11672,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J130">
         <v>1.8</v>
@@ -11734,16 +11740,16 @@
         <v>6011421</v>
       </c>
       <c r="C131" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D131" s="2">
         <v>45221.5</v>
       </c>
       <c r="E131" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F131" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G131">
         <v>3</v>
@@ -11752,7 +11758,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J131">
         <v>2.2</v>
@@ -11820,16 +11826,16 @@
         <v>6011520</v>
       </c>
       <c r="C132" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D132" s="2">
         <v>45221.5</v>
       </c>
       <c r="E132" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F132" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G132">
         <v>3</v>
@@ -11838,7 +11844,7 @@
         <v>2</v>
       </c>
       <c r="I132" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J132">
         <v>4</v>
@@ -11906,16 +11912,16 @@
         <v>6011521</v>
       </c>
       <c r="C133" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D133" s="2">
         <v>45221.5</v>
       </c>
       <c r="E133" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F133" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -11924,7 +11930,7 @@
         <v>3</v>
       </c>
       <c r="I133" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J133">
         <v>2.05</v>
@@ -11992,16 +11998,16 @@
         <v>6011424</v>
       </c>
       <c r="C134" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D134" s="2">
         <v>45221.59375</v>
       </c>
       <c r="E134" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F134" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G134">
         <v>3</v>
@@ -12010,7 +12016,7 @@
         <v>4</v>
       </c>
       <c r="I134" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J134">
         <v>1.85</v>
@@ -12078,16 +12084,16 @@
         <v>6011522</v>
       </c>
       <c r="C135" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D135" s="2">
         <v>45227.54166666666</v>
       </c>
       <c r="E135" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G135">
         <v>6</v>
@@ -12096,7 +12102,7 @@
         <v>1</v>
       </c>
       <c r="I135" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J135">
         <v>2</v>
@@ -12164,16 +12170,16 @@
         <v>6011523</v>
       </c>
       <c r="C136" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D136" s="2">
         <v>45228.54166666666</v>
       </c>
       <c r="E136" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F136" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G136">
         <v>1</v>
@@ -12182,7 +12188,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J136">
         <v>5</v>
@@ -12250,16 +12256,16 @@
         <v>6011425</v>
       </c>
       <c r="C137" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D137" s="2">
         <v>45228.54166666666</v>
       </c>
       <c r="E137" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F137" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G137">
         <v>2</v>
@@ -12268,7 +12274,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J137">
         <v>2.05</v>
@@ -12336,16 +12342,16 @@
         <v>6012003</v>
       </c>
       <c r="C138" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D138" s="2">
         <v>45228.54166666666</v>
       </c>
       <c r="E138" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F138" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -12354,7 +12360,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J138">
         <v>3.7</v>
@@ -12422,16 +12428,16 @@
         <v>6011937</v>
       </c>
       <c r="C139" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D139" s="2">
         <v>45228.54166666666</v>
       </c>
       <c r="E139" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F139" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G139">
         <v>2</v>
@@ -12440,7 +12446,7 @@
         <v>2</v>
       </c>
       <c r="I139" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J139">
         <v>1.533</v>
@@ -12508,16 +12514,16 @@
         <v>6012004</v>
       </c>
       <c r="C140" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D140" s="2">
         <v>45228.63194444445</v>
       </c>
       <c r="E140" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -12526,7 +12532,7 @@
         <v>3</v>
       </c>
       <c r="I140" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J140">
         <v>2.15</v>
@@ -12594,16 +12600,16 @@
         <v>6008620</v>
       </c>
       <c r="C141" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D141" s="2">
         <v>45229.60416666666</v>
       </c>
       <c r="E141" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G141">
         <v>3</v>
@@ -12612,7 +12618,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J141">
         <v>1.4</v>
@@ -12680,16 +12686,16 @@
         <v>6008784</v>
       </c>
       <c r="C142" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D142" s="2">
         <v>45229.70833333334</v>
       </c>
       <c r="E142" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F142" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -12698,7 +12704,7 @@
         <v>4</v>
       </c>
       <c r="I142" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J142">
         <v>1.666</v>
@@ -12766,16 +12772,16 @@
         <v>6011525</v>
       </c>
       <c r="C143" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D143" s="2">
         <v>45234.58333333334</v>
       </c>
       <c r="E143" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F143" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G143">
         <v>3</v>
@@ -12784,7 +12790,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J143">
         <v>4</v>
@@ -12852,16 +12858,16 @@
         <v>6008621</v>
       </c>
       <c r="C144" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D144" s="2">
         <v>45235.54166666666</v>
       </c>
       <c r="E144" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F144" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -12870,7 +12876,7 @@
         <v>4</v>
       </c>
       <c r="I144" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J144">
         <v>5.25</v>
@@ -12938,16 +12944,16 @@
         <v>6008785</v>
       </c>
       <c r="C145" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D145" s="2">
         <v>45235.54166666666</v>
       </c>
       <c r="E145" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F145" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G145">
         <v>3</v>
@@ -12956,7 +12962,7 @@
         <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J145">
         <v>3.75</v>
@@ -13024,16 +13030,16 @@
         <v>6011426</v>
       </c>
       <c r="C146" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D146" s="2">
         <v>45235.54166666666</v>
       </c>
       <c r="E146" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F146" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G146">
         <v>2</v>
@@ -13042,7 +13048,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J146">
         <v>1.3</v>
@@ -13110,16 +13116,16 @@
         <v>6011938</v>
       </c>
       <c r="C147" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D147" s="2">
         <v>45235.54166666666</v>
       </c>
       <c r="E147" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F147" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G147">
         <v>3</v>
@@ -13128,7 +13134,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J147">
         <v>1.909</v>
@@ -13196,16 +13202,16 @@
         <v>6011526</v>
       </c>
       <c r="C148" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D148" s="2">
         <v>45235.54166666666</v>
       </c>
       <c r="E148" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F148" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -13214,7 +13220,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J148">
         <v>1.7</v>
@@ -13282,16 +13288,16 @@
         <v>6011427</v>
       </c>
       <c r="C149" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D149" s="2">
         <v>45235.63541666666</v>
       </c>
       <c r="E149" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F149" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -13300,7 +13306,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J149">
         <v>1.533</v>
@@ -13368,16 +13374,16 @@
         <v>6011524</v>
       </c>
       <c r="C150" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D150" s="2">
         <v>45236.625</v>
       </c>
       <c r="E150" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F150" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -13386,7 +13392,7 @@
         <v>3</v>
       </c>
       <c r="I150" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J150">
         <v>2.2</v>
@@ -13454,16 +13460,16 @@
         <v>6011528</v>
       </c>
       <c r="C151" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D151" s="2">
         <v>45241.58333333334</v>
       </c>
       <c r="E151" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F151" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -13472,7 +13478,7 @@
         <v>2</v>
       </c>
       <c r="I151" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J151">
         <v>4.2</v>
@@ -13540,16 +13546,16 @@
         <v>6011529</v>
       </c>
       <c r="C152" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D152" s="2">
         <v>45242.54166666666</v>
       </c>
       <c r="E152" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F152" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G152">
         <v>3</v>
@@ -13558,7 +13564,7 @@
         <v>2</v>
       </c>
       <c r="I152" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J152">
         <v>2.5</v>
@@ -13626,16 +13632,16 @@
         <v>6011530</v>
       </c>
       <c r="C153" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D153" s="2">
         <v>45242.54166666666</v>
       </c>
       <c r="E153" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F153" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -13644,7 +13650,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J153">
         <v>1.95</v>
@@ -13712,16 +13718,16 @@
         <v>6011428</v>
       </c>
       <c r="C154" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D154" s="2">
         <v>45242.54166666666</v>
       </c>
       <c r="E154" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F154" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13730,7 +13736,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J154">
         <v>3.4</v>
@@ -13798,16 +13804,16 @@
         <v>6011527</v>
       </c>
       <c r="C155" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D155" s="2">
         <v>45242.54166666666</v>
       </c>
       <c r="E155" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F155" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G155">
         <v>1</v>
@@ -13816,7 +13822,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J155">
         <v>1.125</v>
@@ -13884,16 +13890,16 @@
         <v>6012005</v>
       </c>
       <c r="C156" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D156" s="2">
         <v>45242.54166666666</v>
       </c>
       <c r="E156" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F156" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -13902,7 +13908,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J156">
         <v>2.1</v>
@@ -13970,16 +13976,16 @@
         <v>6011939</v>
       </c>
       <c r="C157" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D157" s="2">
         <v>45242.54166666666</v>
       </c>
       <c r="E157" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F157" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G157">
         <v>2</v>
@@ -13988,7 +13994,7 @@
         <v>1</v>
       </c>
       <c r="I157" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J157">
         <v>1.75</v>
@@ -14056,16 +14062,16 @@
         <v>6008786</v>
       </c>
       <c r="C158" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D158" s="2">
         <v>45242.63541666666</v>
       </c>
       <c r="E158" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F158" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G158">
         <v>4</v>
@@ -14074,7 +14080,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J158">
         <v>1.5</v>
@@ -14142,16 +14148,16 @@
         <v>6011429</v>
       </c>
       <c r="C159" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D159" s="2">
         <v>45256.54166666666</v>
       </c>
       <c r="E159" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F159" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G159">
         <v>4</v>
@@ -14160,7 +14166,7 @@
         <v>4</v>
       </c>
       <c r="I159" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J159">
         <v>1.571</v>
@@ -14228,16 +14234,16 @@
         <v>6011531</v>
       </c>
       <c r="C160" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D160" s="2">
         <v>45256.54166666666</v>
       </c>
       <c r="E160" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F160" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -14246,7 +14252,7 @@
         <v>4</v>
       </c>
       <c r="I160" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J160">
         <v>4.75</v>
@@ -14314,16 +14320,16 @@
         <v>6011533</v>
       </c>
       <c r="C161" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D161" s="2">
         <v>45256.54166666666</v>
       </c>
       <c r="E161" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F161" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G161">
         <v>2</v>
@@ -14332,7 +14338,7 @@
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J161">
         <v>2</v>
@@ -14400,16 +14406,16 @@
         <v>6011532</v>
       </c>
       <c r="C162" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D162" s="2">
         <v>45256.54166666666</v>
       </c>
       <c r="E162" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F162" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -14418,7 +14424,7 @@
         <v>2</v>
       </c>
       <c r="I162" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J162">
         <v>3.2</v>
@@ -14486,16 +14492,16 @@
         <v>6011430</v>
       </c>
       <c r="C163" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D163" s="2">
         <v>45256.54166666666</v>
       </c>
       <c r="E163" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F163" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G163">
         <v>2</v>
@@ -14504,7 +14510,7 @@
         <v>1</v>
       </c>
       <c r="I163" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J163">
         <v>1.533</v>
@@ -14572,16 +14578,16 @@
         <v>6008787</v>
       </c>
       <c r="C164" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D164" s="2">
         <v>45256.54166666666</v>
       </c>
       <c r="E164" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F164" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -14590,7 +14596,7 @@
         <v>3</v>
       </c>
       <c r="I164" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J164">
         <v>2.5</v>
@@ -14658,16 +14664,16 @@
         <v>6012006</v>
       </c>
       <c r="C165" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D165" s="2">
         <v>45256.54166666666</v>
       </c>
       <c r="E165" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F165" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G165">
         <v>4</v>
@@ -14676,7 +14682,7 @@
         <v>2</v>
       </c>
       <c r="I165" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J165">
         <v>2.15</v>
@@ -14744,16 +14750,16 @@
         <v>6012007</v>
       </c>
       <c r="C166" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D166" s="2">
         <v>45256.54166666666</v>
       </c>
       <c r="E166" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F166" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G166">
         <v>1</v>
@@ -14762,7 +14768,7 @@
         <v>3</v>
       </c>
       <c r="I166" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J166">
         <v>1.727</v>
@@ -14830,16 +14836,16 @@
         <v>6390526</v>
       </c>
       <c r="C167" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D167" s="2">
         <v>45263.54166666666</v>
       </c>
       <c r="E167" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F167" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -14848,7 +14854,7 @@
         <v>5</v>
       </c>
       <c r="I167" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J167">
         <v>1.4</v>
@@ -14916,16 +14922,16 @@
         <v>6011940</v>
       </c>
       <c r="C168" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D168" s="2">
         <v>45263.54166666666</v>
       </c>
       <c r="E168" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F168" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G168">
         <v>2</v>
@@ -14934,7 +14940,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J168">
         <v>1.45</v>
@@ -15002,16 +15008,16 @@
         <v>6011534</v>
       </c>
       <c r="C169" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D169" s="2">
         <v>45263.54166666666</v>
       </c>
       <c r="E169" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F169" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G169">
         <v>1</v>
@@ -15020,7 +15026,7 @@
         <v>1</v>
       </c>
       <c r="I169" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J169">
         <v>1.25</v>
@@ -15088,16 +15094,16 @@
         <v>6012008</v>
       </c>
       <c r="C170" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D170" s="2">
         <v>45263.54166666666</v>
       </c>
       <c r="E170" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F170" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G170">
         <v>3</v>
@@ -15106,7 +15112,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J170">
         <v>4.5</v>
@@ -15174,16 +15180,16 @@
         <v>6012013</v>
       </c>
       <c r="C171" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D171" s="2">
         <v>45263.54166666666</v>
       </c>
       <c r="E171" t="s">
+        <v>39</v>
+      </c>
+      <c r="F171" t="s">
         <v>37</v>
-      </c>
-      <c r="F171" t="s">
-        <v>35</v>
       </c>
       <c r="G171">
         <v>1</v>
@@ -15192,7 +15198,7 @@
         <v>1</v>
       </c>
       <c r="I171" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J171">
         <v>2.5</v>
@@ -15260,16 +15266,16 @@
         <v>6390445</v>
       </c>
       <c r="C172" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D172" s="2">
         <v>45263.54166666666</v>
       </c>
       <c r="E172" t="s">
+        <v>47</v>
+      </c>
+      <c r="F172" t="s">
         <v>45</v>
-      </c>
-      <c r="F172" t="s">
-        <v>43</v>
       </c>
       <c r="G172">
         <v>3</v>
@@ -15278,7 +15284,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J172">
         <v>2.25</v>
@@ -15346,16 +15352,16 @@
         <v>6390446</v>
       </c>
       <c r="C173" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D173" s="2">
         <v>45263.54166666666</v>
       </c>
       <c r="E173" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F173" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -15364,7 +15370,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J173">
         <v>1.615</v>
@@ -15432,16 +15438,16 @@
         <v>6011535</v>
       </c>
       <c r="C174" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D174" s="2">
         <v>45263.54166666666</v>
       </c>
       <c r="E174" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F174" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G174">
         <v>4</v>
@@ -15450,7 +15456,7 @@
         <v>1</v>
       </c>
       <c r="I174" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J174">
         <v>1.6</v>
@@ -15518,16 +15524,16 @@
         <v>7617317</v>
       </c>
       <c r="C175" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D175" s="2">
         <v>45382.54166666666</v>
       </c>
       <c r="E175" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F175" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -15536,7 +15542,7 @@
         <v>2</v>
       </c>
       <c r="I175" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J175">
         <v>2.05</v>
@@ -15604,16 +15610,16 @@
         <v>7616736</v>
       </c>
       <c r="C176" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D176" s="2">
         <v>45383.39583333334</v>
       </c>
       <c r="E176" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F176" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G176">
         <v>0</v>
@@ -15622,7 +15628,7 @@
         <v>2</v>
       </c>
       <c r="I176" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J176">
         <v>5</v>
@@ -15690,16 +15696,16 @@
         <v>7617319</v>
       </c>
       <c r="C177" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D177" s="2">
         <v>45383.5</v>
       </c>
       <c r="E177" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F177" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G177">
         <v>4</v>
@@ -15708,7 +15714,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J177">
         <v>1.45</v>
@@ -15776,16 +15782,16 @@
         <v>7617318</v>
       </c>
       <c r="C178" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D178" s="2">
         <v>45383.5</v>
       </c>
       <c r="E178" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F178" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G178">
         <v>2</v>
@@ -15794,7 +15800,7 @@
         <v>3</v>
       </c>
       <c r="I178" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J178">
         <v>1.6</v>
@@ -15862,16 +15868,16 @@
         <v>7617320</v>
       </c>
       <c r="C179" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D179" s="2">
         <v>45383.5</v>
       </c>
       <c r="E179" t="s">
+        <v>40</v>
+      </c>
+      <c r="F179" t="s">
         <v>38</v>
-      </c>
-      <c r="F179" t="s">
-        <v>36</v>
       </c>
       <c r="G179">
         <v>2</v>
@@ -15880,7 +15886,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J179">
         <v>1.6</v>
@@ -15948,16 +15954,16 @@
         <v>7617321</v>
       </c>
       <c r="C180" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D180" s="2">
         <v>45383.5</v>
       </c>
       <c r="E180" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F180" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G180">
         <v>2</v>
@@ -15966,7 +15972,7 @@
         <v>4</v>
       </c>
       <c r="I180" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J180">
         <v>3.1</v>
@@ -16034,16 +16040,16 @@
         <v>7617322</v>
       </c>
       <c r="C181" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D181" s="2">
         <v>45383.59375</v>
       </c>
       <c r="E181" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F181" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G181">
         <v>1</v>
@@ -16052,7 +16058,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J181">
         <v>1.833</v>
@@ -16120,16 +16126,16 @@
         <v>7617323</v>
       </c>
       <c r="C182" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D182" s="2">
         <v>45384.58333333334</v>
       </c>
       <c r="E182" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F182" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -16138,7 +16144,7 @@
         <v>1</v>
       </c>
       <c r="I182" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J182">
         <v>2.5</v>
@@ -16206,16 +16212,16 @@
         <v>7616737</v>
       </c>
       <c r="C183" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D183" s="2">
         <v>45388.54166666666</v>
       </c>
       <c r="E183" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F183" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G183">
         <v>1</v>
@@ -16224,7 +16230,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J183">
         <v>1.444</v>
@@ -16292,16 +16298,16 @@
         <v>7617324</v>
       </c>
       <c r="C184" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D184" s="2">
         <v>45389.39583333334</v>
       </c>
       <c r="E184" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F184" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -16310,7 +16316,7 @@
         <v>1</v>
       </c>
       <c r="I184" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J184">
         <v>2.375</v>
@@ -16378,16 +16384,16 @@
         <v>7617326</v>
       </c>
       <c r="C185" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D185" s="2">
         <v>45389.5</v>
       </c>
       <c r="E185" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F185" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -16396,7 +16402,7 @@
         <v>2</v>
       </c>
       <c r="I185" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J185">
         <v>2.4</v>
@@ -16464,16 +16470,16 @@
         <v>7617329</v>
       </c>
       <c r="C186" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D186" s="2">
         <v>45389.5</v>
       </c>
       <c r="E186" t="s">
+        <v>42</v>
+      </c>
+      <c r="F186" t="s">
         <v>40</v>
-      </c>
-      <c r="F186" t="s">
-        <v>38</v>
       </c>
       <c r="G186">
         <v>1</v>
@@ -16482,7 +16488,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J186">
         <v>2.3</v>
@@ -16550,16 +16556,16 @@
         <v>7617328</v>
       </c>
       <c r="C187" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D187" s="2">
         <v>45389.5</v>
       </c>
       <c r="E187" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F187" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G187">
         <v>0</v>
@@ -16568,7 +16574,7 @@
         <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J187">
         <v>1.571</v>
@@ -16636,16 +16642,16 @@
         <v>7617325</v>
       </c>
       <c r="C188" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D188" s="2">
         <v>45389.5</v>
       </c>
       <c r="E188" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F188" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G188">
         <v>0</v>
@@ -16654,7 +16660,7 @@
         <v>1</v>
       </c>
       <c r="I188" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J188">
         <v>4.8</v>
@@ -16722,16 +16728,16 @@
         <v>7617330</v>
       </c>
       <c r="C189" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D189" s="2">
         <v>45389.59375</v>
       </c>
       <c r="E189" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F189" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G189">
         <v>0</v>
@@ -16740,7 +16746,7 @@
         <v>2</v>
       </c>
       <c r="I189" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J189">
         <v>1.4</v>
@@ -16808,16 +16814,16 @@
         <v>7617331</v>
       </c>
       <c r="C190" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D190" s="2">
         <v>45395.54166666666</v>
       </c>
       <c r="E190" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F190" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G190">
         <v>2</v>
@@ -16826,7 +16832,7 @@
         <v>2</v>
       </c>
       <c r="I190" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J190">
         <v>2.5</v>
@@ -16894,16 +16900,16 @@
         <v>7617332</v>
       </c>
       <c r="C191" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D191" s="2">
         <v>45396.39583333334</v>
       </c>
       <c r="E191" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F191" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -16912,7 +16918,7 @@
         <v>1</v>
       </c>
       <c r="I191" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J191">
         <v>2.5</v>
@@ -16980,16 +16986,16 @@
         <v>7617336</v>
       </c>
       <c r="C192" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D192" s="2">
         <v>45396.5</v>
       </c>
       <c r="E192" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F192" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G192">
         <v>0</v>
@@ -16998,7 +17004,7 @@
         <v>1</v>
       </c>
       <c r="I192" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J192">
         <v>1.666</v>
@@ -17066,16 +17072,16 @@
         <v>7617335</v>
       </c>
       <c r="C193" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D193" s="2">
         <v>45396.5</v>
       </c>
       <c r="E193" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F193" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G193">
         <v>1</v>
@@ -17084,7 +17090,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J193">
         <v>1.571</v>
@@ -17152,16 +17158,16 @@
         <v>7617334</v>
       </c>
       <c r="C194" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D194" s="2">
         <v>45396.5</v>
       </c>
       <c r="E194" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F194" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G194">
         <v>2</v>
@@ -17170,7 +17176,7 @@
         <v>2</v>
       </c>
       <c r="I194" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J194">
         <v>1.75</v>
@@ -17238,16 +17244,16 @@
         <v>7617333</v>
       </c>
       <c r="C195" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D195" s="2">
         <v>45396.5</v>
       </c>
       <c r="E195" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F195" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G195">
         <v>2</v>
@@ -17256,7 +17262,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J195">
         <v>1.25</v>
@@ -17324,16 +17330,16 @@
         <v>7616738</v>
       </c>
       <c r="C196" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D196" s="2">
         <v>45396.59375</v>
       </c>
       <c r="E196" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F196" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G196">
         <v>0</v>
@@ -17342,7 +17348,7 @@
         <v>5</v>
       </c>
       <c r="I196" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J196">
         <v>4</v>
@@ -17410,16 +17416,16 @@
         <v>7617337</v>
       </c>
       <c r="C197" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D197" s="2">
         <v>45398.58333333334</v>
       </c>
       <c r="E197" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F197" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G197">
         <v>1</v>
@@ -17428,7 +17434,7 @@
         <v>3</v>
       </c>
       <c r="I197" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J197">
         <v>2.6</v>
@@ -17496,16 +17502,16 @@
         <v>7617429</v>
       </c>
       <c r="C198" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D198" s="2">
         <v>45399.54166666666</v>
       </c>
       <c r="E198" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F198" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G198">
         <v>1</v>
@@ -17514,7 +17520,7 @@
         <v>2</v>
       </c>
       <c r="I198" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J198">
         <v>1.4</v>
@@ -17582,16 +17588,16 @@
         <v>7617422</v>
       </c>
       <c r="C199" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D199" s="2">
         <v>45399.54166666666</v>
       </c>
       <c r="E199" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F199" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G199">
         <v>1</v>
@@ -17600,7 +17606,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J199">
         <v>1.363</v>
@@ -17668,16 +17674,16 @@
         <v>7617338</v>
       </c>
       <c r="C200" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D200" s="2">
         <v>45403.39583333334</v>
       </c>
       <c r="E200" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F200" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G200">
         <v>0</v>
@@ -17686,7 +17692,7 @@
         <v>1</v>
       </c>
       <c r="I200" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J200">
         <v>2.6</v>
@@ -17754,16 +17760,16 @@
         <v>7617339</v>
       </c>
       <c r="C201" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D201" s="2">
         <v>45403.5</v>
       </c>
       <c r="E201" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F201" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G201">
         <v>2</v>
@@ -17772,7 +17778,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J201">
         <v>1.363</v>
@@ -17840,16 +17846,16 @@
         <v>7617343</v>
       </c>
       <c r="C202" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D202" s="2">
         <v>45403.5</v>
       </c>
       <c r="E202" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F202" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -17858,7 +17864,7 @@
         <v>2</v>
       </c>
       <c r="I202" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J202">
         <v>1.571</v>
@@ -17926,16 +17932,16 @@
         <v>7617342</v>
       </c>
       <c r="C203" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D203" s="2">
         <v>45403.5</v>
       </c>
       <c r="E203" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F203" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G203">
         <v>0</v>
@@ -17944,7 +17950,7 @@
         <v>1</v>
       </c>
       <c r="I203" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J203">
         <v>3.2</v>
@@ -18012,16 +18018,16 @@
         <v>7617341</v>
       </c>
       <c r="C204" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D204" s="2">
         <v>45403.5</v>
       </c>
       <c r="E204" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F204" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G204">
         <v>1</v>
@@ -18030,7 +18036,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J204">
         <v>2.5</v>
@@ -18098,16 +18104,16 @@
         <v>7617340</v>
       </c>
       <c r="C205" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D205" s="2">
         <v>45403.5</v>
       </c>
       <c r="E205" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F205" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G205">
         <v>1</v>
@@ -18116,7 +18122,7 @@
         <v>3</v>
       </c>
       <c r="I205" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J205">
         <v>3</v>
@@ -18184,16 +18190,16 @@
         <v>7617344</v>
       </c>
       <c r="C206" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D206" s="2">
         <v>45403.5</v>
       </c>
       <c r="E206" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F206" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G206">
         <v>1</v>
@@ -18202,7 +18208,7 @@
         <v>1</v>
       </c>
       <c r="I206" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J206">
         <v>1.6</v>
@@ -18270,16 +18276,16 @@
         <v>7616739</v>
       </c>
       <c r="C207" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D207" s="2">
         <v>45403.59375</v>
       </c>
       <c r="E207" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F207" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G207">
         <v>1</v>
@@ -18288,7 +18294,7 @@
         <v>1</v>
       </c>
       <c r="I207" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J207">
         <v>1.909</v>
@@ -18356,16 +18362,16 @@
         <v>7616740</v>
       </c>
       <c r="C208" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D208" s="2">
         <v>45409.54166666666</v>
       </c>
       <c r="E208" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F208" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G208">
         <v>1</v>
@@ -18374,7 +18380,7 @@
         <v>3</v>
       </c>
       <c r="I208" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J208">
         <v>3.75</v>
@@ -18442,16 +18448,16 @@
         <v>7617347</v>
       </c>
       <c r="C209" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D209" s="2">
         <v>45410.5</v>
       </c>
       <c r="E209" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F209" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G209">
         <v>1</v>
@@ -18460,7 +18466,7 @@
         <v>1</v>
       </c>
       <c r="I209" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J209">
         <v>1.615</v>
@@ -18528,16 +18534,16 @@
         <v>7617350</v>
       </c>
       <c r="C210" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D210" s="2">
         <v>45410.5</v>
       </c>
       <c r="E210" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F210" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G210">
         <v>0</v>
@@ -18546,7 +18552,7 @@
         <v>3</v>
       </c>
       <c r="I210" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J210">
         <v>2</v>
@@ -18614,16 +18620,16 @@
         <v>7617349</v>
       </c>
       <c r="C211" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D211" s="2">
         <v>45410.5</v>
       </c>
       <c r="E211" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F211" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G211">
         <v>2</v>
@@ -18632,7 +18638,7 @@
         <v>2</v>
       </c>
       <c r="I211" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J211">
         <v>1.909</v>
@@ -18700,16 +18706,16 @@
         <v>7617348</v>
       </c>
       <c r="C212" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D212" s="2">
         <v>45410.5</v>
       </c>
       <c r="E212" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F212" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G212">
         <v>2</v>
@@ -18718,7 +18724,7 @@
         <v>1</v>
       </c>
       <c r="I212" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J212">
         <v>1.3</v>
@@ -18786,16 +18792,16 @@
         <v>7617345</v>
       </c>
       <c r="C213" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D213" s="2">
         <v>45410.5</v>
       </c>
       <c r="E213" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F213" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G213">
         <v>1</v>
@@ -18804,7 +18810,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J213">
         <v>2</v>
@@ -18872,16 +18878,16 @@
         <v>7617346</v>
       </c>
       <c r="C214" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D214" s="2">
         <v>45410.5</v>
       </c>
       <c r="E214" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F214" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G214">
         <v>0</v>
@@ -18890,7 +18896,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J214">
         <v>4.2</v>
@@ -18958,16 +18964,16 @@
         <v>7617351</v>
       </c>
       <c r="C215" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D215" s="2">
         <v>45410.59375</v>
       </c>
       <c r="E215" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F215" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G215">
         <v>3</v>
@@ -18976,7 +18982,7 @@
         <v>3</v>
       </c>
       <c r="I215" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J215">
         <v>2.875</v>
@@ -19044,16 +19050,16 @@
         <v>7617352</v>
       </c>
       <c r="C216" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D216" s="2">
         <v>45416.54166666666</v>
       </c>
       <c r="E216" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F216" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G216">
         <v>3</v>
@@ -19062,7 +19068,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J216">
         <v>1.75</v>
@@ -19130,16 +19136,16 @@
         <v>7617356</v>
       </c>
       <c r="C217" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D217" s="2">
         <v>45417.5</v>
       </c>
       <c r="E217" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F217" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G217">
         <v>3</v>
@@ -19148,7 +19154,7 @@
         <v>1</v>
       </c>
       <c r="I217" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J217">
         <v>4.5</v>
@@ -19216,16 +19222,16 @@
         <v>7617357</v>
       </c>
       <c r="C218" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D218" s="2">
         <v>45417.5</v>
       </c>
       <c r="E218" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F218" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G218">
         <v>1</v>
@@ -19234,7 +19240,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J218">
         <v>2.1</v>
@@ -19302,16 +19308,16 @@
         <v>7617355</v>
       </c>
       <c r="C219" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D219" s="2">
         <v>45417.5</v>
       </c>
       <c r="E219" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F219" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G219">
         <v>0</v>
@@ -19320,7 +19326,7 @@
         <v>2</v>
       </c>
       <c r="I219" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J219">
         <v>2.3</v>
@@ -19388,16 +19394,16 @@
         <v>7617353</v>
       </c>
       <c r="C220" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D220" s="2">
         <v>45417.5</v>
       </c>
       <c r="E220" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F220" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G220">
         <v>0</v>
@@ -19406,7 +19412,7 @@
         <v>1</v>
       </c>
       <c r="I220" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J220">
         <v>2.1</v>
@@ -19474,16 +19480,16 @@
         <v>7616741</v>
       </c>
       <c r="C221" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D221" s="2">
         <v>45